--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR3"/>
+  <dimension ref="A1:OR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2402,12 +2402,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -2438,9 +2432,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
           <t>3.22</t>
@@ -2451,7 +2442,6 @@
           <t>3.03</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -2482,23 +2472,11 @@
           <t>2.75</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr">
         <is>
           <t>93</t>
@@ -2529,10 +2507,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
           <t>.1</t>
@@ -2563,18 +2537,6 @@
           <t>.9</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -2605,9 +2567,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -2618,7 +2577,6 @@
           <t>2.20</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr">
         <is>
           <t>2.23</t>
@@ -2649,23 +2607,11 @@
           <t>1.99</t>
         </is>
       </c>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
-      <c r="CP2" t="inlineStr"/>
-      <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr">
         <is>
           <t>39</t>
@@ -2696,10 +2642,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="CZ2" t="inlineStr"/>
-      <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="inlineStr"/>
-      <c r="DC2" t="inlineStr"/>
       <c r="DD2" t="inlineStr">
         <is>
           <t>.2</t>
@@ -2730,36 +2672,11 @@
           <t>.13</t>
         </is>
       </c>
-      <c r="DJ2" t="inlineStr"/>
-      <c r="DK2" t="inlineStr"/>
-      <c r="DL2" t="inlineStr"/>
-      <c r="DM2" t="inlineStr"/>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr"/>
       <c r="DP2" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr"/>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="inlineStr"/>
-      <c r="DU2" t="inlineStr"/>
-      <c r="DV2" t="inlineStr"/>
-      <c r="DW2" t="inlineStr"/>
-      <c r="DX2" t="inlineStr"/>
-      <c r="DY2" t="inlineStr"/>
-      <c r="DZ2" t="inlineStr"/>
-      <c r="EA2" t="inlineStr"/>
-      <c r="EB2" t="inlineStr"/>
-      <c r="EC2" t="inlineStr"/>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="inlineStr"/>
-      <c r="EG2" t="inlineStr"/>
-      <c r="EH2" t="inlineStr"/>
-      <c r="EI2" t="inlineStr"/>
       <c r="EJ2" t="inlineStr">
         <is>
           <t>2.57</t>
@@ -2790,16 +2707,11 @@
           <t>1.69</t>
         </is>
       </c>
-      <c r="EP2" t="inlineStr"/>
-      <c r="EQ2" t="inlineStr"/>
-      <c r="ER2" t="inlineStr"/>
-      <c r="ES2" t="inlineStr"/>
       <c r="ET2" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="EU2" t="inlineStr"/>
       <c r="EV2" t="inlineStr">
         <is>
           <t>55</t>
@@ -2830,29 +2742,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="FB2" t="inlineStr"/>
-      <c r="FC2" t="inlineStr"/>
-      <c r="FD2" t="inlineStr"/>
-      <c r="FE2" t="inlineStr"/>
-      <c r="FF2" t="inlineStr"/>
-      <c r="FG2" t="inlineStr"/>
-      <c r="FH2" t="inlineStr"/>
-      <c r="FI2" t="inlineStr"/>
-      <c r="FJ2" t="inlineStr"/>
-      <c r="FK2" t="inlineStr"/>
-      <c r="FL2" t="inlineStr"/>
-      <c r="FM2" t="inlineStr"/>
-      <c r="FN2" t="inlineStr"/>
-      <c r="FO2" t="inlineStr"/>
-      <c r="FP2" t="inlineStr"/>
-      <c r="FQ2" t="inlineStr"/>
-      <c r="FR2" t="inlineStr"/>
-      <c r="FS2" t="inlineStr"/>
-      <c r="FT2" t="inlineStr"/>
-      <c r="FU2" t="inlineStr"/>
-      <c r="FV2" t="inlineStr"/>
-      <c r="FW2" t="inlineStr"/>
-      <c r="FX2" t="inlineStr"/>
       <c r="FY2" t="inlineStr">
         <is>
           <t>.4</t>
@@ -2883,51 +2772,6 @@
           <t>.24</t>
         </is>
       </c>
-      <c r="GE2" t="inlineStr"/>
-      <c r="GF2" t="inlineStr"/>
-      <c r="GG2" t="inlineStr"/>
-      <c r="GH2" t="inlineStr"/>
-      <c r="GI2" t="inlineStr"/>
-      <c r="GJ2" t="inlineStr"/>
-      <c r="GK2" t="inlineStr"/>
-      <c r="GL2" t="inlineStr"/>
-      <c r="GM2" t="inlineStr"/>
-      <c r="GN2" t="inlineStr"/>
-      <c r="GO2" t="inlineStr"/>
-      <c r="GP2" t="inlineStr"/>
-      <c r="GQ2" t="inlineStr"/>
-      <c r="GR2" t="inlineStr"/>
-      <c r="GS2" t="inlineStr"/>
-      <c r="GT2" t="inlineStr"/>
-      <c r="GU2" t="inlineStr"/>
-      <c r="GV2" t="inlineStr"/>
-      <c r="GW2" t="inlineStr"/>
-      <c r="GX2" t="inlineStr"/>
-      <c r="GY2" t="inlineStr"/>
-      <c r="GZ2" t="inlineStr"/>
-      <c r="HA2" t="inlineStr"/>
-      <c r="HB2" t="inlineStr"/>
-      <c r="HC2" t="inlineStr"/>
-      <c r="HD2" t="inlineStr"/>
-      <c r="HE2" t="inlineStr"/>
-      <c r="HF2" t="inlineStr"/>
-      <c r="HG2" t="inlineStr"/>
-      <c r="HH2" t="inlineStr"/>
-      <c r="HI2" t="inlineStr"/>
-      <c r="HJ2" t="inlineStr"/>
-      <c r="HK2" t="inlineStr"/>
-      <c r="HL2" t="inlineStr"/>
-      <c r="HM2" t="inlineStr"/>
-      <c r="HN2" t="inlineStr"/>
-      <c r="HO2" t="inlineStr"/>
-      <c r="HP2" t="inlineStr"/>
-      <c r="HQ2" t="inlineStr"/>
-      <c r="HR2" t="inlineStr"/>
-      <c r="HS2" t="inlineStr"/>
-      <c r="HT2" t="inlineStr"/>
-      <c r="HU2" t="inlineStr"/>
-      <c r="HV2" t="inlineStr"/>
-      <c r="HW2" t="inlineStr"/>
       <c r="HX2" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -2958,9 +2802,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID2" t="inlineStr"/>
-      <c r="IE2" t="inlineStr"/>
-      <c r="IF2" t="inlineStr"/>
       <c r="IG2" t="inlineStr">
         <is>
           <t>5.45</t>
@@ -2971,7 +2812,6 @@
           <t>9.33</t>
         </is>
       </c>
-      <c r="II2" t="inlineStr"/>
       <c r="IJ2" t="inlineStr">
         <is>
           <t>7.32</t>
@@ -3002,23 +2842,11 @@
           <t>7.31</t>
         </is>
       </c>
-      <c r="IP2" t="inlineStr"/>
-      <c r="IQ2" t="inlineStr"/>
-      <c r="IR2" t="inlineStr"/>
-      <c r="IS2" t="inlineStr"/>
-      <c r="IT2" t="inlineStr"/>
-      <c r="IU2" t="inlineStr"/>
-      <c r="IV2" t="inlineStr"/>
-      <c r="IW2" t="inlineStr"/>
-      <c r="IX2" t="inlineStr"/>
-      <c r="IY2" t="inlineStr"/>
-      <c r="IZ2" t="inlineStr"/>
       <c r="JA2" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="JB2" t="inlineStr"/>
       <c r="JC2" t="inlineStr">
         <is>
           <t>143</t>
@@ -3049,10 +2877,6 @@
           <t>134</t>
         </is>
       </c>
-      <c r="JI2" t="inlineStr"/>
-      <c r="JJ2" t="inlineStr"/>
-      <c r="JK2" t="inlineStr"/>
-      <c r="JL2" t="inlineStr"/>
       <c r="JM2" t="inlineStr">
         <is>
           <t>.9</t>
@@ -3083,136 +2907,6 @@
           <t>.15</t>
         </is>
       </c>
-      <c r="JS2" t="inlineStr"/>
-      <c r="JT2" t="inlineStr"/>
-      <c r="JU2" t="inlineStr"/>
-      <c r="JV2" t="inlineStr"/>
-      <c r="JW2" t="inlineStr"/>
-      <c r="JX2" t="inlineStr"/>
-      <c r="JY2" t="inlineStr"/>
-      <c r="JZ2" t="inlineStr"/>
-      <c r="KA2" t="inlineStr"/>
-      <c r="KB2" t="inlineStr"/>
-      <c r="KC2" t="inlineStr"/>
-      <c r="KD2" t="inlineStr"/>
-      <c r="KE2" t="inlineStr"/>
-      <c r="KF2" t="inlineStr"/>
-      <c r="KG2" t="inlineStr"/>
-      <c r="KH2" t="inlineStr"/>
-      <c r="KI2" t="inlineStr"/>
-      <c r="KJ2" t="inlineStr"/>
-      <c r="KK2" t="inlineStr"/>
-      <c r="KL2" t="inlineStr"/>
-      <c r="KM2" t="inlineStr"/>
-      <c r="KN2" t="inlineStr"/>
-      <c r="KO2" t="inlineStr"/>
-      <c r="KP2" t="inlineStr"/>
-      <c r="KQ2" t="inlineStr"/>
-      <c r="KR2" t="inlineStr"/>
-      <c r="KS2" t="inlineStr"/>
-      <c r="KT2" t="inlineStr"/>
-      <c r="KU2" t="inlineStr"/>
-      <c r="KV2" t="inlineStr"/>
-      <c r="KW2" t="inlineStr"/>
-      <c r="KX2" t="inlineStr"/>
-      <c r="KY2" t="inlineStr"/>
-      <c r="KZ2" t="inlineStr"/>
-      <c r="LA2" t="inlineStr"/>
-      <c r="LB2" t="inlineStr"/>
-      <c r="LC2" t="inlineStr"/>
-      <c r="LD2" t="inlineStr"/>
-      <c r="LE2" t="inlineStr"/>
-      <c r="LF2" t="inlineStr"/>
-      <c r="LG2" t="inlineStr"/>
-      <c r="LH2" t="inlineStr"/>
-      <c r="LI2" t="inlineStr"/>
-      <c r="LJ2" t="inlineStr"/>
-      <c r="LK2" t="inlineStr"/>
-      <c r="LL2" t="inlineStr"/>
-      <c r="LM2" t="inlineStr"/>
-      <c r="LN2" t="inlineStr"/>
-      <c r="LO2" t="inlineStr"/>
-      <c r="LP2" t="inlineStr"/>
-      <c r="LQ2" t="inlineStr"/>
-      <c r="LR2" t="inlineStr"/>
-      <c r="LS2" t="inlineStr"/>
-      <c r="LT2" t="inlineStr"/>
-      <c r="LU2" t="inlineStr"/>
-      <c r="LV2" t="inlineStr"/>
-      <c r="LW2" t="inlineStr"/>
-      <c r="LX2" t="inlineStr"/>
-      <c r="LY2" t="inlineStr"/>
-      <c r="LZ2" t="inlineStr"/>
-      <c r="MA2" t="inlineStr"/>
-      <c r="MB2" t="inlineStr"/>
-      <c r="MC2" t="inlineStr"/>
-      <c r="MD2" t="inlineStr"/>
-      <c r="ME2" t="inlineStr"/>
-      <c r="MF2" t="inlineStr"/>
-      <c r="MG2" t="inlineStr"/>
-      <c r="MH2" t="inlineStr"/>
-      <c r="MI2" t="inlineStr"/>
-      <c r="MJ2" t="inlineStr"/>
-      <c r="MK2" t="inlineStr"/>
-      <c r="ML2" t="inlineStr"/>
-      <c r="MM2" t="inlineStr"/>
-      <c r="MN2" t="inlineStr"/>
-      <c r="MO2" t="inlineStr"/>
-      <c r="MP2" t="inlineStr"/>
-      <c r="MQ2" t="inlineStr"/>
-      <c r="MR2" t="inlineStr"/>
-      <c r="MS2" t="inlineStr"/>
-      <c r="MT2" t="inlineStr"/>
-      <c r="MU2" t="inlineStr"/>
-      <c r="MV2" t="inlineStr"/>
-      <c r="MW2" t="inlineStr"/>
-      <c r="MX2" t="inlineStr"/>
-      <c r="MY2" t="inlineStr"/>
-      <c r="MZ2" t="inlineStr"/>
-      <c r="NA2" t="inlineStr"/>
-      <c r="NB2" t="inlineStr"/>
-      <c r="NC2" t="inlineStr"/>
-      <c r="ND2" t="inlineStr"/>
-      <c r="NE2" t="inlineStr"/>
-      <c r="NF2" t="inlineStr"/>
-      <c r="NG2" t="inlineStr"/>
-      <c r="NH2" t="inlineStr"/>
-      <c r="NI2" t="inlineStr"/>
-      <c r="NJ2" t="inlineStr"/>
-      <c r="NK2" t="inlineStr"/>
-      <c r="NL2" t="inlineStr"/>
-      <c r="NM2" t="inlineStr"/>
-      <c r="NN2" t="inlineStr"/>
-      <c r="NO2" t="inlineStr"/>
-      <c r="NP2" t="inlineStr"/>
-      <c r="NQ2" t="inlineStr"/>
-      <c r="NR2" t="inlineStr"/>
-      <c r="NS2" t="inlineStr"/>
-      <c r="NT2" t="inlineStr"/>
-      <c r="NU2" t="inlineStr"/>
-      <c r="NV2" t="inlineStr"/>
-      <c r="NW2" t="inlineStr"/>
-      <c r="NX2" t="inlineStr"/>
-      <c r="NY2" t="inlineStr"/>
-      <c r="NZ2" t="inlineStr"/>
-      <c r="OA2" t="inlineStr"/>
-      <c r="OB2" t="inlineStr"/>
-      <c r="OC2" t="inlineStr"/>
-      <c r="OD2" t="inlineStr"/>
-      <c r="OE2" t="inlineStr"/>
-      <c r="OF2" t="inlineStr"/>
-      <c r="OG2" t="inlineStr"/>
-      <c r="OH2" t="inlineStr"/>
-      <c r="OI2" t="inlineStr"/>
-      <c r="OJ2" t="inlineStr"/>
-      <c r="OK2" t="inlineStr"/>
-      <c r="OL2" t="inlineStr"/>
-      <c r="OM2" t="inlineStr"/>
-      <c r="ON2" t="inlineStr"/>
-      <c r="OO2" t="inlineStr"/>
-      <c r="OP2" t="inlineStr"/>
-      <c r="OQ2" t="inlineStr"/>
-      <c r="OR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3220,12 +2914,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -3256,9 +2944,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>4.39</t>
@@ -3269,7 +2954,6 @@
           <t>2.88</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
           <t>2.92</t>
@@ -3300,23 +2984,11 @@
           <t>2.90</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr">
         <is>
           <t>67</t>
@@ -3347,10 +3019,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
           <t>-1</t>
@@ -3381,18 +3049,6 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -3423,9 +3079,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr">
         <is>
           <t>3.06</t>
@@ -3436,7 +3089,6 @@
           <t>2.17</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr">
         <is>
           <t>225</t>
@@ -3467,23 +3119,11 @@
           <t>2.16</t>
         </is>
       </c>
-      <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="inlineStr"/>
-      <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
-      <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
-      <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="CS3" t="inlineStr"/>
       <c r="CT3" t="inlineStr">
         <is>
           <t>74</t>
@@ -3514,10 +3154,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="CZ3" t="inlineStr"/>
-      <c r="DA3" t="inlineStr"/>
-      <c r="DB3" t="inlineStr"/>
-      <c r="DC3" t="inlineStr"/>
       <c r="DD3" t="inlineStr">
         <is>
           <t>0</t>
@@ -3548,36 +3184,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="DJ3" t="inlineStr"/>
-      <c r="DK3" t="inlineStr"/>
-      <c r="DL3" t="inlineStr"/>
-      <c r="DM3" t="inlineStr"/>
-      <c r="DN3" t="inlineStr"/>
-      <c r="DO3" t="inlineStr"/>
       <c r="DP3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="DQ3" t="inlineStr"/>
-      <c r="DR3" t="inlineStr"/>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="inlineStr"/>
-      <c r="DU3" t="inlineStr"/>
-      <c r="DV3" t="inlineStr"/>
-      <c r="DW3" t="inlineStr"/>
-      <c r="DX3" t="inlineStr"/>
-      <c r="DY3" t="inlineStr"/>
-      <c r="DZ3" t="inlineStr"/>
-      <c r="EA3" t="inlineStr"/>
-      <c r="EB3" t="inlineStr"/>
-      <c r="EC3" t="inlineStr"/>
-      <c r="ED3" t="inlineStr"/>
-      <c r="EE3" t="inlineStr"/>
-      <c r="EF3" t="inlineStr"/>
-      <c r="EG3" t="inlineStr"/>
-      <c r="EH3" t="inlineStr"/>
-      <c r="EI3" t="inlineStr"/>
       <c r="EJ3" t="inlineStr">
         <is>
           <t>2.60</t>
@@ -3608,16 +3219,11 @@
           <t>1.75</t>
         </is>
       </c>
-      <c r="EP3" t="inlineStr"/>
-      <c r="EQ3" t="inlineStr"/>
-      <c r="ER3" t="inlineStr"/>
-      <c r="ES3" t="inlineStr"/>
       <c r="ET3" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="EU3" t="inlineStr"/>
       <c r="EV3" t="inlineStr">
         <is>
           <t>73</t>
@@ -3648,29 +3254,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="FB3" t="inlineStr"/>
-      <c r="FC3" t="inlineStr"/>
-      <c r="FD3" t="inlineStr"/>
-      <c r="FE3" t="inlineStr"/>
-      <c r="FF3" t="inlineStr"/>
-      <c r="FG3" t="inlineStr"/>
-      <c r="FH3" t="inlineStr"/>
-      <c r="FI3" t="inlineStr"/>
-      <c r="FJ3" t="inlineStr"/>
-      <c r="FK3" t="inlineStr"/>
-      <c r="FL3" t="inlineStr"/>
-      <c r="FM3" t="inlineStr"/>
-      <c r="FN3" t="inlineStr"/>
-      <c r="FO3" t="inlineStr"/>
-      <c r="FP3" t="inlineStr"/>
-      <c r="FQ3" t="inlineStr"/>
-      <c r="FR3" t="inlineStr"/>
-      <c r="FS3" t="inlineStr"/>
-      <c r="FT3" t="inlineStr"/>
-      <c r="FU3" t="inlineStr"/>
-      <c r="FV3" t="inlineStr"/>
-      <c r="FW3" t="inlineStr"/>
-      <c r="FX3" t="inlineStr"/>
       <c r="FY3" t="inlineStr">
         <is>
           <t>2</t>
@@ -3701,51 +3284,6 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="GE3" t="inlineStr"/>
-      <c r="GF3" t="inlineStr"/>
-      <c r="GG3" t="inlineStr"/>
-      <c r="GH3" t="inlineStr"/>
-      <c r="GI3" t="inlineStr"/>
-      <c r="GJ3" t="inlineStr"/>
-      <c r="GK3" t="inlineStr"/>
-      <c r="GL3" t="inlineStr"/>
-      <c r="GM3" t="inlineStr"/>
-      <c r="GN3" t="inlineStr"/>
-      <c r="GO3" t="inlineStr"/>
-      <c r="GP3" t="inlineStr"/>
-      <c r="GQ3" t="inlineStr"/>
-      <c r="GR3" t="inlineStr"/>
-      <c r="GS3" t="inlineStr"/>
-      <c r="GT3" t="inlineStr"/>
-      <c r="GU3" t="inlineStr"/>
-      <c r="GV3" t="inlineStr"/>
-      <c r="GW3" t="inlineStr"/>
-      <c r="GX3" t="inlineStr"/>
-      <c r="GY3" t="inlineStr"/>
-      <c r="GZ3" t="inlineStr"/>
-      <c r="HA3" t="inlineStr"/>
-      <c r="HB3" t="inlineStr"/>
-      <c r="HC3" t="inlineStr"/>
-      <c r="HD3" t="inlineStr"/>
-      <c r="HE3" t="inlineStr"/>
-      <c r="HF3" t="inlineStr"/>
-      <c r="HG3" t="inlineStr"/>
-      <c r="HH3" t="inlineStr"/>
-      <c r="HI3" t="inlineStr"/>
-      <c r="HJ3" t="inlineStr"/>
-      <c r="HK3" t="inlineStr"/>
-      <c r="HL3" t="inlineStr"/>
-      <c r="HM3" t="inlineStr"/>
-      <c r="HN3" t="inlineStr"/>
-      <c r="HO3" t="inlineStr"/>
-      <c r="HP3" t="inlineStr"/>
-      <c r="HQ3" t="inlineStr"/>
-      <c r="HR3" t="inlineStr"/>
-      <c r="HS3" t="inlineStr"/>
-      <c r="HT3" t="inlineStr"/>
-      <c r="HU3" t="inlineStr"/>
-      <c r="HV3" t="inlineStr"/>
-      <c r="HW3" t="inlineStr"/>
       <c r="HX3" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -3776,9 +3314,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID3" t="inlineStr"/>
-      <c r="IE3" t="inlineStr"/>
-      <c r="IF3" t="inlineStr"/>
       <c r="IG3" t="inlineStr">
         <is>
           <t>7.21</t>
@@ -3789,7 +3324,6 @@
           <t>7.63</t>
         </is>
       </c>
-      <c r="II3" t="inlineStr"/>
       <c r="IJ3" t="inlineStr">
         <is>
           <t>8.01</t>
@@ -3820,23 +3354,11 @@
           <t>8.58</t>
         </is>
       </c>
-      <c r="IP3" t="inlineStr"/>
-      <c r="IQ3" t="inlineStr"/>
-      <c r="IR3" t="inlineStr"/>
-      <c r="IS3" t="inlineStr"/>
-      <c r="IT3" t="inlineStr"/>
-      <c r="IU3" t="inlineStr"/>
-      <c r="IV3" t="inlineStr"/>
-      <c r="IW3" t="inlineStr"/>
-      <c r="IX3" t="inlineStr"/>
-      <c r="IY3" t="inlineStr"/>
-      <c r="IZ3" t="inlineStr"/>
       <c r="JA3" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="JB3" t="inlineStr"/>
       <c r="JC3" t="inlineStr">
         <is>
           <t>111</t>
@@ -3867,10 +3389,6 @@
           <t>119</t>
         </is>
       </c>
-      <c r="JI3" t="inlineStr"/>
-      <c r="JJ3" t="inlineStr"/>
-      <c r="JK3" t="inlineStr"/>
-      <c r="JL3" t="inlineStr"/>
       <c r="JM3" t="inlineStr">
         <is>
           <t>-3</t>
@@ -3901,136 +3419,1336 @@
           <t>4</t>
         </is>
       </c>
-      <c r="JS3" t="inlineStr"/>
-      <c r="JT3" t="inlineStr"/>
-      <c r="JU3" t="inlineStr"/>
-      <c r="JV3" t="inlineStr"/>
-      <c r="JW3" t="inlineStr"/>
-      <c r="JX3" t="inlineStr"/>
-      <c r="JY3" t="inlineStr"/>
-      <c r="JZ3" t="inlineStr"/>
-      <c r="KA3" t="inlineStr"/>
-      <c r="KB3" t="inlineStr"/>
-      <c r="KC3" t="inlineStr"/>
-      <c r="KD3" t="inlineStr"/>
-      <c r="KE3" t="inlineStr"/>
-      <c r="KF3" t="inlineStr"/>
-      <c r="KG3" t="inlineStr"/>
-      <c r="KH3" t="inlineStr"/>
-      <c r="KI3" t="inlineStr"/>
-      <c r="KJ3" t="inlineStr"/>
-      <c r="KK3" t="inlineStr"/>
-      <c r="KL3" t="inlineStr"/>
-      <c r="KM3" t="inlineStr"/>
-      <c r="KN3" t="inlineStr"/>
-      <c r="KO3" t="inlineStr"/>
-      <c r="KP3" t="inlineStr"/>
-      <c r="KQ3" t="inlineStr"/>
-      <c r="KR3" t="inlineStr"/>
-      <c r="KS3" t="inlineStr"/>
-      <c r="KT3" t="inlineStr"/>
-      <c r="KU3" t="inlineStr"/>
-      <c r="KV3" t="inlineStr"/>
-      <c r="KW3" t="inlineStr"/>
-      <c r="KX3" t="inlineStr"/>
-      <c r="KY3" t="inlineStr"/>
-      <c r="KZ3" t="inlineStr"/>
-      <c r="LA3" t="inlineStr"/>
-      <c r="LB3" t="inlineStr"/>
-      <c r="LC3" t="inlineStr"/>
-      <c r="LD3" t="inlineStr"/>
-      <c r="LE3" t="inlineStr"/>
-      <c r="LF3" t="inlineStr"/>
-      <c r="LG3" t="inlineStr"/>
-      <c r="LH3" t="inlineStr"/>
-      <c r="LI3" t="inlineStr"/>
-      <c r="LJ3" t="inlineStr"/>
-      <c r="LK3" t="inlineStr"/>
-      <c r="LL3" t="inlineStr"/>
-      <c r="LM3" t="inlineStr"/>
-      <c r="LN3" t="inlineStr"/>
-      <c r="LO3" t="inlineStr"/>
-      <c r="LP3" t="inlineStr"/>
-      <c r="LQ3" t="inlineStr"/>
-      <c r="LR3" t="inlineStr"/>
-      <c r="LS3" t="inlineStr"/>
-      <c r="LT3" t="inlineStr"/>
-      <c r="LU3" t="inlineStr"/>
-      <c r="LV3" t="inlineStr"/>
-      <c r="LW3" t="inlineStr"/>
-      <c r="LX3" t="inlineStr"/>
-      <c r="LY3" t="inlineStr"/>
-      <c r="LZ3" t="inlineStr"/>
-      <c r="MA3" t="inlineStr"/>
-      <c r="MB3" t="inlineStr"/>
-      <c r="MC3" t="inlineStr"/>
-      <c r="MD3" t="inlineStr"/>
-      <c r="ME3" t="inlineStr"/>
-      <c r="MF3" t="inlineStr"/>
-      <c r="MG3" t="inlineStr"/>
-      <c r="MH3" t="inlineStr"/>
-      <c r="MI3" t="inlineStr"/>
-      <c r="MJ3" t="inlineStr"/>
-      <c r="MK3" t="inlineStr"/>
-      <c r="ML3" t="inlineStr"/>
-      <c r="MM3" t="inlineStr"/>
-      <c r="MN3" t="inlineStr"/>
-      <c r="MO3" t="inlineStr"/>
-      <c r="MP3" t="inlineStr"/>
-      <c r="MQ3" t="inlineStr"/>
-      <c r="MR3" t="inlineStr"/>
-      <c r="MS3" t="inlineStr"/>
-      <c r="MT3" t="inlineStr"/>
-      <c r="MU3" t="inlineStr"/>
-      <c r="MV3" t="inlineStr"/>
-      <c r="MW3" t="inlineStr"/>
-      <c r="MX3" t="inlineStr"/>
-      <c r="MY3" t="inlineStr"/>
-      <c r="MZ3" t="inlineStr"/>
-      <c r="NA3" t="inlineStr"/>
-      <c r="NB3" t="inlineStr"/>
-      <c r="NC3" t="inlineStr"/>
-      <c r="ND3" t="inlineStr"/>
-      <c r="NE3" t="inlineStr"/>
-      <c r="NF3" t="inlineStr"/>
-      <c r="NG3" t="inlineStr"/>
-      <c r="NH3" t="inlineStr"/>
-      <c r="NI3" t="inlineStr"/>
-      <c r="NJ3" t="inlineStr"/>
-      <c r="NK3" t="inlineStr"/>
-      <c r="NL3" t="inlineStr"/>
-      <c r="NM3" t="inlineStr"/>
-      <c r="NN3" t="inlineStr"/>
-      <c r="NO3" t="inlineStr"/>
-      <c r="NP3" t="inlineStr"/>
-      <c r="NQ3" t="inlineStr"/>
-      <c r="NR3" t="inlineStr"/>
-      <c r="NS3" t="inlineStr"/>
-      <c r="NT3" t="inlineStr"/>
-      <c r="NU3" t="inlineStr"/>
-      <c r="NV3" t="inlineStr"/>
-      <c r="NW3" t="inlineStr"/>
-      <c r="NX3" t="inlineStr"/>
-      <c r="NY3" t="inlineStr"/>
-      <c r="NZ3" t="inlineStr"/>
-      <c r="OA3" t="inlineStr"/>
-      <c r="OB3" t="inlineStr"/>
-      <c r="OC3" t="inlineStr"/>
-      <c r="OD3" t="inlineStr"/>
-      <c r="OE3" t="inlineStr"/>
-      <c r="OF3" t="inlineStr"/>
-      <c r="OG3" t="inlineStr"/>
-      <c r="OH3" t="inlineStr"/>
-      <c r="OI3" t="inlineStr"/>
-      <c r="OJ3" t="inlineStr"/>
-      <c r="OK3" t="inlineStr"/>
-      <c r="OL3" t="inlineStr"/>
-      <c r="OM3" t="inlineStr"/>
-      <c r="ON3" t="inlineStr"/>
-      <c r="OO3" t="inlineStr"/>
-      <c r="OP3" t="inlineStr"/>
-      <c r="OQ3" t="inlineStr"/>
-      <c r="OR3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD4" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET4" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY4" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ4" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA4" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB4" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC4" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD4" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="HX4" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB4" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC4" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ4" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK4" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM4" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA4" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC4" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD4" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE4" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF4" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG4" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH4" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM4" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN4" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO4" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP4" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ4" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR4" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="DQ5" t="inlineStr"/>
+      <c r="DR5" t="inlineStr"/>
+      <c r="DS5" t="inlineStr"/>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
+      <c r="DV5" t="inlineStr"/>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
+      <c r="DY5" t="inlineStr"/>
+      <c r="DZ5" t="inlineStr"/>
+      <c r="EA5" t="inlineStr"/>
+      <c r="EB5" t="inlineStr"/>
+      <c r="EC5" t="inlineStr"/>
+      <c r="ED5" t="inlineStr"/>
+      <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="inlineStr"/>
+      <c r="EH5" t="inlineStr"/>
+      <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EP5" t="inlineStr"/>
+      <c r="EQ5" t="inlineStr"/>
+      <c r="ER5" t="inlineStr"/>
+      <c r="ES5" t="inlineStr"/>
+      <c r="ET5" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EU5" t="inlineStr"/>
+      <c r="EV5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA5" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FB5" t="inlineStr"/>
+      <c r="FC5" t="inlineStr"/>
+      <c r="FD5" t="inlineStr"/>
+      <c r="FE5" t="inlineStr"/>
+      <c r="FF5" t="inlineStr"/>
+      <c r="FG5" t="inlineStr"/>
+      <c r="FH5" t="inlineStr"/>
+      <c r="FI5" t="inlineStr"/>
+      <c r="FJ5" t="inlineStr"/>
+      <c r="FK5" t="inlineStr"/>
+      <c r="FL5" t="inlineStr"/>
+      <c r="FM5" t="inlineStr"/>
+      <c r="FN5" t="inlineStr"/>
+      <c r="FO5" t="inlineStr"/>
+      <c r="FP5" t="inlineStr"/>
+      <c r="FQ5" t="inlineStr"/>
+      <c r="FR5" t="inlineStr"/>
+      <c r="FS5" t="inlineStr"/>
+      <c r="FT5" t="inlineStr"/>
+      <c r="FU5" t="inlineStr"/>
+      <c r="FV5" t="inlineStr"/>
+      <c r="FW5" t="inlineStr"/>
+      <c r="FX5" t="inlineStr"/>
+      <c r="FY5" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ5" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA5" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB5" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC5" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD5" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="GE5" t="inlineStr"/>
+      <c r="GF5" t="inlineStr"/>
+      <c r="GG5" t="inlineStr"/>
+      <c r="GH5" t="inlineStr"/>
+      <c r="GI5" t="inlineStr"/>
+      <c r="GJ5" t="inlineStr"/>
+      <c r="GK5" t="inlineStr"/>
+      <c r="GL5" t="inlineStr"/>
+      <c r="GM5" t="inlineStr"/>
+      <c r="GN5" t="inlineStr"/>
+      <c r="GO5" t="inlineStr"/>
+      <c r="GP5" t="inlineStr"/>
+      <c r="GQ5" t="inlineStr"/>
+      <c r="GR5" t="inlineStr"/>
+      <c r="GS5" t="inlineStr"/>
+      <c r="GT5" t="inlineStr"/>
+      <c r="GU5" t="inlineStr"/>
+      <c r="GV5" t="inlineStr"/>
+      <c r="GW5" t="inlineStr"/>
+      <c r="GX5" t="inlineStr"/>
+      <c r="GY5" t="inlineStr"/>
+      <c r="GZ5" t="inlineStr"/>
+      <c r="HA5" t="inlineStr"/>
+      <c r="HB5" t="inlineStr"/>
+      <c r="HC5" t="inlineStr"/>
+      <c r="HD5" t="inlineStr"/>
+      <c r="HE5" t="inlineStr"/>
+      <c r="HF5" t="inlineStr"/>
+      <c r="HG5" t="inlineStr"/>
+      <c r="HH5" t="inlineStr"/>
+      <c r="HI5" t="inlineStr"/>
+      <c r="HJ5" t="inlineStr"/>
+      <c r="HK5" t="inlineStr"/>
+      <c r="HL5" t="inlineStr"/>
+      <c r="HM5" t="inlineStr"/>
+      <c r="HN5" t="inlineStr"/>
+      <c r="HO5" t="inlineStr"/>
+      <c r="HP5" t="inlineStr"/>
+      <c r="HQ5" t="inlineStr"/>
+      <c r="HR5" t="inlineStr"/>
+      <c r="HS5" t="inlineStr"/>
+      <c r="HT5" t="inlineStr"/>
+      <c r="HU5" t="inlineStr"/>
+      <c r="HV5" t="inlineStr"/>
+      <c r="HW5" t="inlineStr"/>
+      <c r="HX5" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB5" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC5" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID5" t="inlineStr"/>
+      <c r="IE5" t="inlineStr"/>
+      <c r="IF5" t="inlineStr"/>
+      <c r="IG5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH5" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="II5" t="inlineStr"/>
+      <c r="IJ5" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL5" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM5" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="IP5" t="inlineStr"/>
+      <c r="IQ5" t="inlineStr"/>
+      <c r="IR5" t="inlineStr"/>
+      <c r="IS5" t="inlineStr"/>
+      <c r="IT5" t="inlineStr"/>
+      <c r="IU5" t="inlineStr"/>
+      <c r="IV5" t="inlineStr"/>
+      <c r="IW5" t="inlineStr"/>
+      <c r="IX5" t="inlineStr"/>
+      <c r="IY5" t="inlineStr"/>
+      <c r="IZ5" t="inlineStr"/>
+      <c r="JA5" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JB5" t="inlineStr"/>
+      <c r="JC5" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD5" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE5" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF5" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG5" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH5" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JI5" t="inlineStr"/>
+      <c r="JJ5" t="inlineStr"/>
+      <c r="JK5" t="inlineStr"/>
+      <c r="JL5" t="inlineStr"/>
+      <c r="JM5" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN5" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO5" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP5" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ5" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR5" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+      <c r="JS5" t="inlineStr"/>
+      <c r="JT5" t="inlineStr"/>
+      <c r="JU5" t="inlineStr"/>
+      <c r="JV5" t="inlineStr"/>
+      <c r="JW5" t="inlineStr"/>
+      <c r="JX5" t="inlineStr"/>
+      <c r="JY5" t="inlineStr"/>
+      <c r="JZ5" t="inlineStr"/>
+      <c r="KA5" t="inlineStr"/>
+      <c r="KB5" t="inlineStr"/>
+      <c r="KC5" t="inlineStr"/>
+      <c r="KD5" t="inlineStr"/>
+      <c r="KE5" t="inlineStr"/>
+      <c r="KF5" t="inlineStr"/>
+      <c r="KG5" t="inlineStr"/>
+      <c r="KH5" t="inlineStr"/>
+      <c r="KI5" t="inlineStr"/>
+      <c r="KJ5" t="inlineStr"/>
+      <c r="KK5" t="inlineStr"/>
+      <c r="KL5" t="inlineStr"/>
+      <c r="KM5" t="inlineStr"/>
+      <c r="KN5" t="inlineStr"/>
+      <c r="KO5" t="inlineStr"/>
+      <c r="KP5" t="inlineStr"/>
+      <c r="KQ5" t="inlineStr"/>
+      <c r="KR5" t="inlineStr"/>
+      <c r="KS5" t="inlineStr"/>
+      <c r="KT5" t="inlineStr"/>
+      <c r="KU5" t="inlineStr"/>
+      <c r="KV5" t="inlineStr"/>
+      <c r="KW5" t="inlineStr"/>
+      <c r="KX5" t="inlineStr"/>
+      <c r="KY5" t="inlineStr"/>
+      <c r="KZ5" t="inlineStr"/>
+      <c r="LA5" t="inlineStr"/>
+      <c r="LB5" t="inlineStr"/>
+      <c r="LC5" t="inlineStr"/>
+      <c r="LD5" t="inlineStr"/>
+      <c r="LE5" t="inlineStr"/>
+      <c r="LF5" t="inlineStr"/>
+      <c r="LG5" t="inlineStr"/>
+      <c r="LH5" t="inlineStr"/>
+      <c r="LI5" t="inlineStr"/>
+      <c r="LJ5" t="inlineStr"/>
+      <c r="LK5" t="inlineStr"/>
+      <c r="LL5" t="inlineStr"/>
+      <c r="LM5" t="inlineStr"/>
+      <c r="LN5" t="inlineStr"/>
+      <c r="LO5" t="inlineStr"/>
+      <c r="LP5" t="inlineStr"/>
+      <c r="LQ5" t="inlineStr"/>
+      <c r="LR5" t="inlineStr"/>
+      <c r="LS5" t="inlineStr"/>
+      <c r="LT5" t="inlineStr"/>
+      <c r="LU5" t="inlineStr"/>
+      <c r="LV5" t="inlineStr"/>
+      <c r="LW5" t="inlineStr"/>
+      <c r="LX5" t="inlineStr"/>
+      <c r="LY5" t="inlineStr"/>
+      <c r="LZ5" t="inlineStr"/>
+      <c r="MA5" t="inlineStr"/>
+      <c r="MB5" t="inlineStr"/>
+      <c r="MC5" t="inlineStr"/>
+      <c r="MD5" t="inlineStr"/>
+      <c r="ME5" t="inlineStr"/>
+      <c r="MF5" t="inlineStr"/>
+      <c r="MG5" t="inlineStr"/>
+      <c r="MH5" t="inlineStr"/>
+      <c r="MI5" t="inlineStr"/>
+      <c r="MJ5" t="inlineStr"/>
+      <c r="MK5" t="inlineStr"/>
+      <c r="ML5" t="inlineStr"/>
+      <c r="MM5" t="inlineStr"/>
+      <c r="MN5" t="inlineStr"/>
+      <c r="MO5" t="inlineStr"/>
+      <c r="MP5" t="inlineStr"/>
+      <c r="MQ5" t="inlineStr"/>
+      <c r="MR5" t="inlineStr"/>
+      <c r="MS5" t="inlineStr"/>
+      <c r="MT5" t="inlineStr"/>
+      <c r="MU5" t="inlineStr"/>
+      <c r="MV5" t="inlineStr"/>
+      <c r="MW5" t="inlineStr"/>
+      <c r="MX5" t="inlineStr"/>
+      <c r="MY5" t="inlineStr"/>
+      <c r="MZ5" t="inlineStr"/>
+      <c r="NA5" t="inlineStr"/>
+      <c r="NB5" t="inlineStr"/>
+      <c r="NC5" t="inlineStr"/>
+      <c r="ND5" t="inlineStr"/>
+      <c r="NE5" t="inlineStr"/>
+      <c r="NF5" t="inlineStr"/>
+      <c r="NG5" t="inlineStr"/>
+      <c r="NH5" t="inlineStr"/>
+      <c r="NI5" t="inlineStr"/>
+      <c r="NJ5" t="inlineStr"/>
+      <c r="NK5" t="inlineStr"/>
+      <c r="NL5" t="inlineStr"/>
+      <c r="NM5" t="inlineStr"/>
+      <c r="NN5" t="inlineStr"/>
+      <c r="NO5" t="inlineStr"/>
+      <c r="NP5" t="inlineStr"/>
+      <c r="NQ5" t="inlineStr"/>
+      <c r="NR5" t="inlineStr"/>
+      <c r="NS5" t="inlineStr"/>
+      <c r="NT5" t="inlineStr"/>
+      <c r="NU5" t="inlineStr"/>
+      <c r="NV5" t="inlineStr"/>
+      <c r="NW5" t="inlineStr"/>
+      <c r="NX5" t="inlineStr"/>
+      <c r="NY5" t="inlineStr"/>
+      <c r="NZ5" t="inlineStr"/>
+      <c r="OA5" t="inlineStr"/>
+      <c r="OB5" t="inlineStr"/>
+      <c r="OC5" t="inlineStr"/>
+      <c r="OD5" t="inlineStr"/>
+      <c r="OE5" t="inlineStr"/>
+      <c r="OF5" t="inlineStr"/>
+      <c r="OG5" t="inlineStr"/>
+      <c r="OH5" t="inlineStr"/>
+      <c r="OI5" t="inlineStr"/>
+      <c r="OJ5" t="inlineStr"/>
+      <c r="OK5" t="inlineStr"/>
+      <c r="OL5" t="inlineStr"/>
+      <c r="OM5" t="inlineStr"/>
+      <c r="ON5" t="inlineStr"/>
+      <c r="OO5" t="inlineStr"/>
+      <c r="OP5" t="inlineStr"/>
+      <c r="OQ5" t="inlineStr"/>
+      <c r="OR5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR5"/>
+  <dimension ref="A1:OR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3938,12 +3938,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -3974,9 +3968,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
           <t>3.22</t>
@@ -3987,7 +3978,6 @@
           <t>3.03</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -4018,23 +4008,11 @@
           <t>2.75</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr">
         <is>
           <t>93</t>
@@ -4065,10 +4043,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
           <t>.1</t>
@@ -4099,18 +4073,6 @@
           <t>.9</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -4141,9 +4103,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU5" t="inlineStr"/>
-      <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
       <c r="BX5" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -4154,7 +4113,6 @@
           <t>2.20</t>
         </is>
       </c>
-      <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="inlineStr">
         <is>
           <t>2.23</t>
@@ -4185,23 +4143,11 @@
           <t>1.99</t>
         </is>
       </c>
-      <c r="CG5" t="inlineStr"/>
-      <c r="CH5" t="inlineStr"/>
-      <c r="CI5" t="inlineStr"/>
-      <c r="CJ5" t="inlineStr"/>
-      <c r="CK5" t="inlineStr"/>
-      <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr"/>
-      <c r="CN5" t="inlineStr"/>
-      <c r="CO5" t="inlineStr"/>
-      <c r="CP5" t="inlineStr"/>
-      <c r="CQ5" t="inlineStr"/>
       <c r="CR5" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="CS5" t="inlineStr"/>
       <c r="CT5" t="inlineStr">
         <is>
           <t>39</t>
@@ -4232,10 +4178,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="CZ5" t="inlineStr"/>
-      <c r="DA5" t="inlineStr"/>
-      <c r="DB5" t="inlineStr"/>
-      <c r="DC5" t="inlineStr"/>
       <c r="DD5" t="inlineStr">
         <is>
           <t>.2</t>
@@ -4266,36 +4208,11 @@
           <t>.13</t>
         </is>
       </c>
-      <c r="DJ5" t="inlineStr"/>
-      <c r="DK5" t="inlineStr"/>
-      <c r="DL5" t="inlineStr"/>
-      <c r="DM5" t="inlineStr"/>
-      <c r="DN5" t="inlineStr"/>
-      <c r="DO5" t="inlineStr"/>
       <c r="DP5" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="DQ5" t="inlineStr"/>
-      <c r="DR5" t="inlineStr"/>
-      <c r="DS5" t="inlineStr"/>
-      <c r="DT5" t="inlineStr"/>
-      <c r="DU5" t="inlineStr"/>
-      <c r="DV5" t="inlineStr"/>
-      <c r="DW5" t="inlineStr"/>
-      <c r="DX5" t="inlineStr"/>
-      <c r="DY5" t="inlineStr"/>
-      <c r="DZ5" t="inlineStr"/>
-      <c r="EA5" t="inlineStr"/>
-      <c r="EB5" t="inlineStr"/>
-      <c r="EC5" t="inlineStr"/>
-      <c r="ED5" t="inlineStr"/>
-      <c r="EE5" t="inlineStr"/>
-      <c r="EF5" t="inlineStr"/>
-      <c r="EG5" t="inlineStr"/>
-      <c r="EH5" t="inlineStr"/>
-      <c r="EI5" t="inlineStr"/>
       <c r="EJ5" t="inlineStr">
         <is>
           <t>2.57</t>
@@ -4326,16 +4243,11 @@
           <t>1.69</t>
         </is>
       </c>
-      <c r="EP5" t="inlineStr"/>
-      <c r="EQ5" t="inlineStr"/>
-      <c r="ER5" t="inlineStr"/>
-      <c r="ES5" t="inlineStr"/>
       <c r="ET5" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="EU5" t="inlineStr"/>
       <c r="EV5" t="inlineStr">
         <is>
           <t>55</t>
@@ -4366,29 +4278,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="FB5" t="inlineStr"/>
-      <c r="FC5" t="inlineStr"/>
-      <c r="FD5" t="inlineStr"/>
-      <c r="FE5" t="inlineStr"/>
-      <c r="FF5" t="inlineStr"/>
-      <c r="FG5" t="inlineStr"/>
-      <c r="FH5" t="inlineStr"/>
-      <c r="FI5" t="inlineStr"/>
-      <c r="FJ5" t="inlineStr"/>
-      <c r="FK5" t="inlineStr"/>
-      <c r="FL5" t="inlineStr"/>
-      <c r="FM5" t="inlineStr"/>
-      <c r="FN5" t="inlineStr"/>
-      <c r="FO5" t="inlineStr"/>
-      <c r="FP5" t="inlineStr"/>
-      <c r="FQ5" t="inlineStr"/>
-      <c r="FR5" t="inlineStr"/>
-      <c r="FS5" t="inlineStr"/>
-      <c r="FT5" t="inlineStr"/>
-      <c r="FU5" t="inlineStr"/>
-      <c r="FV5" t="inlineStr"/>
-      <c r="FW5" t="inlineStr"/>
-      <c r="FX5" t="inlineStr"/>
       <c r="FY5" t="inlineStr">
         <is>
           <t>.4</t>
@@ -4419,51 +4308,6 @@
           <t>.24</t>
         </is>
       </c>
-      <c r="GE5" t="inlineStr"/>
-      <c r="GF5" t="inlineStr"/>
-      <c r="GG5" t="inlineStr"/>
-      <c r="GH5" t="inlineStr"/>
-      <c r="GI5" t="inlineStr"/>
-      <c r="GJ5" t="inlineStr"/>
-      <c r="GK5" t="inlineStr"/>
-      <c r="GL5" t="inlineStr"/>
-      <c r="GM5" t="inlineStr"/>
-      <c r="GN5" t="inlineStr"/>
-      <c r="GO5" t="inlineStr"/>
-      <c r="GP5" t="inlineStr"/>
-      <c r="GQ5" t="inlineStr"/>
-      <c r="GR5" t="inlineStr"/>
-      <c r="GS5" t="inlineStr"/>
-      <c r="GT5" t="inlineStr"/>
-      <c r="GU5" t="inlineStr"/>
-      <c r="GV5" t="inlineStr"/>
-      <c r="GW5" t="inlineStr"/>
-      <c r="GX5" t="inlineStr"/>
-      <c r="GY5" t="inlineStr"/>
-      <c r="GZ5" t="inlineStr"/>
-      <c r="HA5" t="inlineStr"/>
-      <c r="HB5" t="inlineStr"/>
-      <c r="HC5" t="inlineStr"/>
-      <c r="HD5" t="inlineStr"/>
-      <c r="HE5" t="inlineStr"/>
-      <c r="HF5" t="inlineStr"/>
-      <c r="HG5" t="inlineStr"/>
-      <c r="HH5" t="inlineStr"/>
-      <c r="HI5" t="inlineStr"/>
-      <c r="HJ5" t="inlineStr"/>
-      <c r="HK5" t="inlineStr"/>
-      <c r="HL5" t="inlineStr"/>
-      <c r="HM5" t="inlineStr"/>
-      <c r="HN5" t="inlineStr"/>
-      <c r="HO5" t="inlineStr"/>
-      <c r="HP5" t="inlineStr"/>
-      <c r="HQ5" t="inlineStr"/>
-      <c r="HR5" t="inlineStr"/>
-      <c r="HS5" t="inlineStr"/>
-      <c r="HT5" t="inlineStr"/>
-      <c r="HU5" t="inlineStr"/>
-      <c r="HV5" t="inlineStr"/>
-      <c r="HW5" t="inlineStr"/>
       <c r="HX5" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -4494,9 +4338,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID5" t="inlineStr"/>
-      <c r="IE5" t="inlineStr"/>
-      <c r="IF5" t="inlineStr"/>
       <c r="IG5" t="inlineStr">
         <is>
           <t>5.45</t>
@@ -4507,7 +4348,6 @@
           <t>9.33</t>
         </is>
       </c>
-      <c r="II5" t="inlineStr"/>
       <c r="IJ5" t="inlineStr">
         <is>
           <t>7.32</t>
@@ -4538,23 +4378,11 @@
           <t>7.31</t>
         </is>
       </c>
-      <c r="IP5" t="inlineStr"/>
-      <c r="IQ5" t="inlineStr"/>
-      <c r="IR5" t="inlineStr"/>
-      <c r="IS5" t="inlineStr"/>
-      <c r="IT5" t="inlineStr"/>
-      <c r="IU5" t="inlineStr"/>
-      <c r="IV5" t="inlineStr"/>
-      <c r="IW5" t="inlineStr"/>
-      <c r="IX5" t="inlineStr"/>
-      <c r="IY5" t="inlineStr"/>
-      <c r="IZ5" t="inlineStr"/>
       <c r="JA5" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="JB5" t="inlineStr"/>
       <c r="JC5" t="inlineStr">
         <is>
           <t>143</t>
@@ -4585,10 +4413,6 @@
           <t>134</t>
         </is>
       </c>
-      <c r="JI5" t="inlineStr"/>
-      <c r="JJ5" t="inlineStr"/>
-      <c r="JK5" t="inlineStr"/>
-      <c r="JL5" t="inlineStr"/>
       <c r="JM5" t="inlineStr">
         <is>
           <t>.9</t>
@@ -4619,136 +4443,2666 @@
           <t>.15</t>
         </is>
       </c>
-      <c r="JS5" t="inlineStr"/>
-      <c r="JT5" t="inlineStr"/>
-      <c r="JU5" t="inlineStr"/>
-      <c r="JV5" t="inlineStr"/>
-      <c r="JW5" t="inlineStr"/>
-      <c r="JX5" t="inlineStr"/>
-      <c r="JY5" t="inlineStr"/>
-      <c r="JZ5" t="inlineStr"/>
-      <c r="KA5" t="inlineStr"/>
-      <c r="KB5" t="inlineStr"/>
-      <c r="KC5" t="inlineStr"/>
-      <c r="KD5" t="inlineStr"/>
-      <c r="KE5" t="inlineStr"/>
-      <c r="KF5" t="inlineStr"/>
-      <c r="KG5" t="inlineStr"/>
-      <c r="KH5" t="inlineStr"/>
-      <c r="KI5" t="inlineStr"/>
-      <c r="KJ5" t="inlineStr"/>
-      <c r="KK5" t="inlineStr"/>
-      <c r="KL5" t="inlineStr"/>
-      <c r="KM5" t="inlineStr"/>
-      <c r="KN5" t="inlineStr"/>
-      <c r="KO5" t="inlineStr"/>
-      <c r="KP5" t="inlineStr"/>
-      <c r="KQ5" t="inlineStr"/>
-      <c r="KR5" t="inlineStr"/>
-      <c r="KS5" t="inlineStr"/>
-      <c r="KT5" t="inlineStr"/>
-      <c r="KU5" t="inlineStr"/>
-      <c r="KV5" t="inlineStr"/>
-      <c r="KW5" t="inlineStr"/>
-      <c r="KX5" t="inlineStr"/>
-      <c r="KY5" t="inlineStr"/>
-      <c r="KZ5" t="inlineStr"/>
-      <c r="LA5" t="inlineStr"/>
-      <c r="LB5" t="inlineStr"/>
-      <c r="LC5" t="inlineStr"/>
-      <c r="LD5" t="inlineStr"/>
-      <c r="LE5" t="inlineStr"/>
-      <c r="LF5" t="inlineStr"/>
-      <c r="LG5" t="inlineStr"/>
-      <c r="LH5" t="inlineStr"/>
-      <c r="LI5" t="inlineStr"/>
-      <c r="LJ5" t="inlineStr"/>
-      <c r="LK5" t="inlineStr"/>
-      <c r="LL5" t="inlineStr"/>
-      <c r="LM5" t="inlineStr"/>
-      <c r="LN5" t="inlineStr"/>
-      <c r="LO5" t="inlineStr"/>
-      <c r="LP5" t="inlineStr"/>
-      <c r="LQ5" t="inlineStr"/>
-      <c r="LR5" t="inlineStr"/>
-      <c r="LS5" t="inlineStr"/>
-      <c r="LT5" t="inlineStr"/>
-      <c r="LU5" t="inlineStr"/>
-      <c r="LV5" t="inlineStr"/>
-      <c r="LW5" t="inlineStr"/>
-      <c r="LX5" t="inlineStr"/>
-      <c r="LY5" t="inlineStr"/>
-      <c r="LZ5" t="inlineStr"/>
-      <c r="MA5" t="inlineStr"/>
-      <c r="MB5" t="inlineStr"/>
-      <c r="MC5" t="inlineStr"/>
-      <c r="MD5" t="inlineStr"/>
-      <c r="ME5" t="inlineStr"/>
-      <c r="MF5" t="inlineStr"/>
-      <c r="MG5" t="inlineStr"/>
-      <c r="MH5" t="inlineStr"/>
-      <c r="MI5" t="inlineStr"/>
-      <c r="MJ5" t="inlineStr"/>
-      <c r="MK5" t="inlineStr"/>
-      <c r="ML5" t="inlineStr"/>
-      <c r="MM5" t="inlineStr"/>
-      <c r="MN5" t="inlineStr"/>
-      <c r="MO5" t="inlineStr"/>
-      <c r="MP5" t="inlineStr"/>
-      <c r="MQ5" t="inlineStr"/>
-      <c r="MR5" t="inlineStr"/>
-      <c r="MS5" t="inlineStr"/>
-      <c r="MT5" t="inlineStr"/>
-      <c r="MU5" t="inlineStr"/>
-      <c r="MV5" t="inlineStr"/>
-      <c r="MW5" t="inlineStr"/>
-      <c r="MX5" t="inlineStr"/>
-      <c r="MY5" t="inlineStr"/>
-      <c r="MZ5" t="inlineStr"/>
-      <c r="NA5" t="inlineStr"/>
-      <c r="NB5" t="inlineStr"/>
-      <c r="NC5" t="inlineStr"/>
-      <c r="ND5" t="inlineStr"/>
-      <c r="NE5" t="inlineStr"/>
-      <c r="NF5" t="inlineStr"/>
-      <c r="NG5" t="inlineStr"/>
-      <c r="NH5" t="inlineStr"/>
-      <c r="NI5" t="inlineStr"/>
-      <c r="NJ5" t="inlineStr"/>
-      <c r="NK5" t="inlineStr"/>
-      <c r="NL5" t="inlineStr"/>
-      <c r="NM5" t="inlineStr"/>
-      <c r="NN5" t="inlineStr"/>
-      <c r="NO5" t="inlineStr"/>
-      <c r="NP5" t="inlineStr"/>
-      <c r="NQ5" t="inlineStr"/>
-      <c r="NR5" t="inlineStr"/>
-      <c r="NS5" t="inlineStr"/>
-      <c r="NT5" t="inlineStr"/>
-      <c r="NU5" t="inlineStr"/>
-      <c r="NV5" t="inlineStr"/>
-      <c r="NW5" t="inlineStr"/>
-      <c r="NX5" t="inlineStr"/>
-      <c r="NY5" t="inlineStr"/>
-      <c r="NZ5" t="inlineStr"/>
-      <c r="OA5" t="inlineStr"/>
-      <c r="OB5" t="inlineStr"/>
-      <c r="OC5" t="inlineStr"/>
-      <c r="OD5" t="inlineStr"/>
-      <c r="OE5" t="inlineStr"/>
-      <c r="OF5" t="inlineStr"/>
-      <c r="OG5" t="inlineStr"/>
-      <c r="OH5" t="inlineStr"/>
-      <c r="OI5" t="inlineStr"/>
-      <c r="OJ5" t="inlineStr"/>
-      <c r="OK5" t="inlineStr"/>
-      <c r="OL5" t="inlineStr"/>
-      <c r="OM5" t="inlineStr"/>
-      <c r="ON5" t="inlineStr"/>
-      <c r="OO5" t="inlineStr"/>
-      <c r="OP5" t="inlineStr"/>
-      <c r="OQ5" t="inlineStr"/>
-      <c r="OR5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV6" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ6" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA6" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY6" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ6" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA6" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB6" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC6" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD6" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="HX6" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA6" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB6" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC6" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH6" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ6" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL6" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA6" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC6" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD6" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE6" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF6" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG6" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH6" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM6" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN6" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO6" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP6" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ6" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR6" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR7" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX7" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET7" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV7" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA7" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY7" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ7" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA7" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB7" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC7" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD7" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="HX7" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA7" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB7" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC7" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH7" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM7" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO7" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA7" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC7" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD7" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE7" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF7" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG7" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM7" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN7" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO7" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP7" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ7" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR7" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DJ8" t="inlineStr"/>
+      <c r="DK8" t="inlineStr"/>
+      <c r="DL8" t="inlineStr"/>
+      <c r="DM8" t="inlineStr"/>
+      <c r="DN8" t="inlineStr"/>
+      <c r="DO8" t="inlineStr"/>
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="DQ8" t="inlineStr"/>
+      <c r="DR8" t="inlineStr"/>
+      <c r="DS8" t="inlineStr"/>
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="inlineStr"/>
+      <c r="DV8" t="inlineStr"/>
+      <c r="DW8" t="inlineStr"/>
+      <c r="DX8" t="inlineStr"/>
+      <c r="DY8" t="inlineStr"/>
+      <c r="DZ8" t="inlineStr"/>
+      <c r="EA8" t="inlineStr"/>
+      <c r="EB8" t="inlineStr"/>
+      <c r="EC8" t="inlineStr"/>
+      <c r="ED8" t="inlineStr"/>
+      <c r="EE8" t="inlineStr"/>
+      <c r="EF8" t="inlineStr"/>
+      <c r="EG8" t="inlineStr"/>
+      <c r="EH8" t="inlineStr"/>
+      <c r="EI8" t="inlineStr"/>
+      <c r="EJ8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EP8" t="inlineStr"/>
+      <c r="EQ8" t="inlineStr"/>
+      <c r="ER8" t="inlineStr"/>
+      <c r="ES8" t="inlineStr"/>
+      <c r="ET8" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EU8" t="inlineStr"/>
+      <c r="EV8" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW8" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX8" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY8" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ8" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA8" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FB8" t="inlineStr"/>
+      <c r="FC8" t="inlineStr"/>
+      <c r="FD8" t="inlineStr"/>
+      <c r="FE8" t="inlineStr"/>
+      <c r="FF8" t="inlineStr"/>
+      <c r="FG8" t="inlineStr"/>
+      <c r="FH8" t="inlineStr"/>
+      <c r="FI8" t="inlineStr"/>
+      <c r="FJ8" t="inlineStr"/>
+      <c r="FK8" t="inlineStr"/>
+      <c r="FL8" t="inlineStr"/>
+      <c r="FM8" t="inlineStr"/>
+      <c r="FN8" t="inlineStr"/>
+      <c r="FO8" t="inlineStr"/>
+      <c r="FP8" t="inlineStr"/>
+      <c r="FQ8" t="inlineStr"/>
+      <c r="FR8" t="inlineStr"/>
+      <c r="FS8" t="inlineStr"/>
+      <c r="FT8" t="inlineStr"/>
+      <c r="FU8" t="inlineStr"/>
+      <c r="FV8" t="inlineStr"/>
+      <c r="FW8" t="inlineStr"/>
+      <c r="FX8" t="inlineStr"/>
+      <c r="FY8" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ8" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA8" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB8" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC8" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD8" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="GE8" t="inlineStr"/>
+      <c r="GF8" t="inlineStr"/>
+      <c r="GG8" t="inlineStr"/>
+      <c r="GH8" t="inlineStr"/>
+      <c r="GI8" t="inlineStr"/>
+      <c r="GJ8" t="inlineStr"/>
+      <c r="GK8" t="inlineStr"/>
+      <c r="GL8" t="inlineStr"/>
+      <c r="GM8" t="inlineStr"/>
+      <c r="GN8" t="inlineStr"/>
+      <c r="GO8" t="inlineStr"/>
+      <c r="GP8" t="inlineStr"/>
+      <c r="GQ8" t="inlineStr"/>
+      <c r="GR8" t="inlineStr"/>
+      <c r="GS8" t="inlineStr"/>
+      <c r="GT8" t="inlineStr"/>
+      <c r="GU8" t="inlineStr"/>
+      <c r="GV8" t="inlineStr"/>
+      <c r="GW8" t="inlineStr"/>
+      <c r="GX8" t="inlineStr"/>
+      <c r="GY8" t="inlineStr"/>
+      <c r="GZ8" t="inlineStr"/>
+      <c r="HA8" t="inlineStr"/>
+      <c r="HB8" t="inlineStr"/>
+      <c r="HC8" t="inlineStr"/>
+      <c r="HD8" t="inlineStr"/>
+      <c r="HE8" t="inlineStr"/>
+      <c r="HF8" t="inlineStr"/>
+      <c r="HG8" t="inlineStr"/>
+      <c r="HH8" t="inlineStr"/>
+      <c r="HI8" t="inlineStr"/>
+      <c r="HJ8" t="inlineStr"/>
+      <c r="HK8" t="inlineStr"/>
+      <c r="HL8" t="inlineStr"/>
+      <c r="HM8" t="inlineStr"/>
+      <c r="HN8" t="inlineStr"/>
+      <c r="HO8" t="inlineStr"/>
+      <c r="HP8" t="inlineStr"/>
+      <c r="HQ8" t="inlineStr"/>
+      <c r="HR8" t="inlineStr"/>
+      <c r="HS8" t="inlineStr"/>
+      <c r="HT8" t="inlineStr"/>
+      <c r="HU8" t="inlineStr"/>
+      <c r="HV8" t="inlineStr"/>
+      <c r="HW8" t="inlineStr"/>
+      <c r="HX8" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA8" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB8" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC8" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID8" t="inlineStr"/>
+      <c r="IE8" t="inlineStr"/>
+      <c r="IF8" t="inlineStr"/>
+      <c r="IG8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH8" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="II8" t="inlineStr"/>
+      <c r="IJ8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL8" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM8" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO8" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="IP8" t="inlineStr"/>
+      <c r="IQ8" t="inlineStr"/>
+      <c r="IR8" t="inlineStr"/>
+      <c r="IS8" t="inlineStr"/>
+      <c r="IT8" t="inlineStr"/>
+      <c r="IU8" t="inlineStr"/>
+      <c r="IV8" t="inlineStr"/>
+      <c r="IW8" t="inlineStr"/>
+      <c r="IX8" t="inlineStr"/>
+      <c r="IY8" t="inlineStr"/>
+      <c r="IZ8" t="inlineStr"/>
+      <c r="JA8" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JB8" t="inlineStr"/>
+      <c r="JC8" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD8" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE8" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF8" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG8" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH8" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JI8" t="inlineStr"/>
+      <c r="JJ8" t="inlineStr"/>
+      <c r="JK8" t="inlineStr"/>
+      <c r="JL8" t="inlineStr"/>
+      <c r="JM8" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN8" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO8" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP8" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ8" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR8" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+      <c r="JS8" t="inlineStr"/>
+      <c r="JT8" t="inlineStr"/>
+      <c r="JU8" t="inlineStr"/>
+      <c r="JV8" t="inlineStr"/>
+      <c r="JW8" t="inlineStr"/>
+      <c r="JX8" t="inlineStr"/>
+      <c r="JY8" t="inlineStr"/>
+      <c r="JZ8" t="inlineStr"/>
+      <c r="KA8" t="inlineStr"/>
+      <c r="KB8" t="inlineStr"/>
+      <c r="KC8" t="inlineStr"/>
+      <c r="KD8" t="inlineStr"/>
+      <c r="KE8" t="inlineStr"/>
+      <c r="KF8" t="inlineStr"/>
+      <c r="KG8" t="inlineStr"/>
+      <c r="KH8" t="inlineStr"/>
+      <c r="KI8" t="inlineStr"/>
+      <c r="KJ8" t="inlineStr"/>
+      <c r="KK8" t="inlineStr"/>
+      <c r="KL8" t="inlineStr"/>
+      <c r="KM8" t="inlineStr"/>
+      <c r="KN8" t="inlineStr"/>
+      <c r="KO8" t="inlineStr"/>
+      <c r="KP8" t="inlineStr"/>
+      <c r="KQ8" t="inlineStr"/>
+      <c r="KR8" t="inlineStr"/>
+      <c r="KS8" t="inlineStr"/>
+      <c r="KT8" t="inlineStr"/>
+      <c r="KU8" t="inlineStr"/>
+      <c r="KV8" t="inlineStr"/>
+      <c r="KW8" t="inlineStr"/>
+      <c r="KX8" t="inlineStr"/>
+      <c r="KY8" t="inlineStr"/>
+      <c r="KZ8" t="inlineStr"/>
+      <c r="LA8" t="inlineStr"/>
+      <c r="LB8" t="inlineStr"/>
+      <c r="LC8" t="inlineStr"/>
+      <c r="LD8" t="inlineStr"/>
+      <c r="LE8" t="inlineStr"/>
+      <c r="LF8" t="inlineStr"/>
+      <c r="LG8" t="inlineStr"/>
+      <c r="LH8" t="inlineStr"/>
+      <c r="LI8" t="inlineStr"/>
+      <c r="LJ8" t="inlineStr"/>
+      <c r="LK8" t="inlineStr"/>
+      <c r="LL8" t="inlineStr"/>
+      <c r="LM8" t="inlineStr"/>
+      <c r="LN8" t="inlineStr"/>
+      <c r="LO8" t="inlineStr"/>
+      <c r="LP8" t="inlineStr"/>
+      <c r="LQ8" t="inlineStr"/>
+      <c r="LR8" t="inlineStr"/>
+      <c r="LS8" t="inlineStr"/>
+      <c r="LT8" t="inlineStr"/>
+      <c r="LU8" t="inlineStr"/>
+      <c r="LV8" t="inlineStr"/>
+      <c r="LW8" t="inlineStr"/>
+      <c r="LX8" t="inlineStr"/>
+      <c r="LY8" t="inlineStr"/>
+      <c r="LZ8" t="inlineStr"/>
+      <c r="MA8" t="inlineStr"/>
+      <c r="MB8" t="inlineStr"/>
+      <c r="MC8" t="inlineStr"/>
+      <c r="MD8" t="inlineStr"/>
+      <c r="ME8" t="inlineStr"/>
+      <c r="MF8" t="inlineStr"/>
+      <c r="MG8" t="inlineStr"/>
+      <c r="MH8" t="inlineStr"/>
+      <c r="MI8" t="inlineStr"/>
+      <c r="MJ8" t="inlineStr"/>
+      <c r="MK8" t="inlineStr"/>
+      <c r="ML8" t="inlineStr"/>
+      <c r="MM8" t="inlineStr"/>
+      <c r="MN8" t="inlineStr"/>
+      <c r="MO8" t="inlineStr"/>
+      <c r="MP8" t="inlineStr"/>
+      <c r="MQ8" t="inlineStr"/>
+      <c r="MR8" t="inlineStr"/>
+      <c r="MS8" t="inlineStr"/>
+      <c r="MT8" t="inlineStr"/>
+      <c r="MU8" t="inlineStr"/>
+      <c r="MV8" t="inlineStr"/>
+      <c r="MW8" t="inlineStr"/>
+      <c r="MX8" t="inlineStr"/>
+      <c r="MY8" t="inlineStr"/>
+      <c r="MZ8" t="inlineStr"/>
+      <c r="NA8" t="inlineStr"/>
+      <c r="NB8" t="inlineStr"/>
+      <c r="NC8" t="inlineStr"/>
+      <c r="ND8" t="inlineStr"/>
+      <c r="NE8" t="inlineStr"/>
+      <c r="NF8" t="inlineStr"/>
+      <c r="NG8" t="inlineStr"/>
+      <c r="NH8" t="inlineStr"/>
+      <c r="NI8" t="inlineStr"/>
+      <c r="NJ8" t="inlineStr"/>
+      <c r="NK8" t="inlineStr"/>
+      <c r="NL8" t="inlineStr"/>
+      <c r="NM8" t="inlineStr"/>
+      <c r="NN8" t="inlineStr"/>
+      <c r="NO8" t="inlineStr"/>
+      <c r="NP8" t="inlineStr"/>
+      <c r="NQ8" t="inlineStr"/>
+      <c r="NR8" t="inlineStr"/>
+      <c r="NS8" t="inlineStr"/>
+      <c r="NT8" t="inlineStr"/>
+      <c r="NU8" t="inlineStr"/>
+      <c r="NV8" t="inlineStr"/>
+      <c r="NW8" t="inlineStr"/>
+      <c r="NX8" t="inlineStr"/>
+      <c r="NY8" t="inlineStr"/>
+      <c r="NZ8" t="inlineStr"/>
+      <c r="OA8" t="inlineStr"/>
+      <c r="OB8" t="inlineStr"/>
+      <c r="OC8" t="inlineStr"/>
+      <c r="OD8" t="inlineStr"/>
+      <c r="OE8" t="inlineStr"/>
+      <c r="OF8" t="inlineStr"/>
+      <c r="OG8" t="inlineStr"/>
+      <c r="OH8" t="inlineStr"/>
+      <c r="OI8" t="inlineStr"/>
+      <c r="OJ8" t="inlineStr"/>
+      <c r="OK8" t="inlineStr"/>
+      <c r="OL8" t="inlineStr"/>
+      <c r="OM8" t="inlineStr"/>
+      <c r="ON8" t="inlineStr"/>
+      <c r="OO8" t="inlineStr"/>
+      <c r="OP8" t="inlineStr"/>
+      <c r="OQ8" t="inlineStr"/>
+      <c r="OR8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU9" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX9" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY9" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE9" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DJ9" t="inlineStr"/>
+      <c r="DK9" t="inlineStr"/>
+      <c r="DL9" t="inlineStr"/>
+      <c r="DM9" t="inlineStr"/>
+      <c r="DN9" t="inlineStr"/>
+      <c r="DO9" t="inlineStr"/>
+      <c r="DP9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="DQ9" t="inlineStr"/>
+      <c r="DR9" t="inlineStr"/>
+      <c r="DS9" t="inlineStr"/>
+      <c r="DT9" t="inlineStr"/>
+      <c r="DU9" t="inlineStr"/>
+      <c r="DV9" t="inlineStr"/>
+      <c r="DW9" t="inlineStr"/>
+      <c r="DX9" t="inlineStr"/>
+      <c r="DY9" t="inlineStr"/>
+      <c r="DZ9" t="inlineStr"/>
+      <c r="EA9" t="inlineStr"/>
+      <c r="EB9" t="inlineStr"/>
+      <c r="EC9" t="inlineStr"/>
+      <c r="ED9" t="inlineStr"/>
+      <c r="EE9" t="inlineStr"/>
+      <c r="EF9" t="inlineStr"/>
+      <c r="EG9" t="inlineStr"/>
+      <c r="EH9" t="inlineStr"/>
+      <c r="EI9" t="inlineStr"/>
+      <c r="EJ9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EP9" t="inlineStr"/>
+      <c r="EQ9" t="inlineStr"/>
+      <c r="ER9" t="inlineStr"/>
+      <c r="ES9" t="inlineStr"/>
+      <c r="ET9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EU9" t="inlineStr"/>
+      <c r="EV9" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY9" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ9" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA9" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FB9" t="inlineStr"/>
+      <c r="FC9" t="inlineStr"/>
+      <c r="FD9" t="inlineStr"/>
+      <c r="FE9" t="inlineStr"/>
+      <c r="FF9" t="inlineStr"/>
+      <c r="FG9" t="inlineStr"/>
+      <c r="FH9" t="inlineStr"/>
+      <c r="FI9" t="inlineStr"/>
+      <c r="FJ9" t="inlineStr"/>
+      <c r="FK9" t="inlineStr"/>
+      <c r="FL9" t="inlineStr"/>
+      <c r="FM9" t="inlineStr"/>
+      <c r="FN9" t="inlineStr"/>
+      <c r="FO9" t="inlineStr"/>
+      <c r="FP9" t="inlineStr"/>
+      <c r="FQ9" t="inlineStr"/>
+      <c r="FR9" t="inlineStr"/>
+      <c r="FS9" t="inlineStr"/>
+      <c r="FT9" t="inlineStr"/>
+      <c r="FU9" t="inlineStr"/>
+      <c r="FV9" t="inlineStr"/>
+      <c r="FW9" t="inlineStr"/>
+      <c r="FX9" t="inlineStr"/>
+      <c r="FY9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ9" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB9" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD9" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="GE9" t="inlineStr"/>
+      <c r="GF9" t="inlineStr"/>
+      <c r="GG9" t="inlineStr"/>
+      <c r="GH9" t="inlineStr"/>
+      <c r="GI9" t="inlineStr"/>
+      <c r="GJ9" t="inlineStr"/>
+      <c r="GK9" t="inlineStr"/>
+      <c r="GL9" t="inlineStr"/>
+      <c r="GM9" t="inlineStr"/>
+      <c r="GN9" t="inlineStr"/>
+      <c r="GO9" t="inlineStr"/>
+      <c r="GP9" t="inlineStr"/>
+      <c r="GQ9" t="inlineStr"/>
+      <c r="GR9" t="inlineStr"/>
+      <c r="GS9" t="inlineStr"/>
+      <c r="GT9" t="inlineStr"/>
+      <c r="GU9" t="inlineStr"/>
+      <c r="GV9" t="inlineStr"/>
+      <c r="GW9" t="inlineStr"/>
+      <c r="GX9" t="inlineStr"/>
+      <c r="GY9" t="inlineStr"/>
+      <c r="GZ9" t="inlineStr"/>
+      <c r="HA9" t="inlineStr"/>
+      <c r="HB9" t="inlineStr"/>
+      <c r="HC9" t="inlineStr"/>
+      <c r="HD9" t="inlineStr"/>
+      <c r="HE9" t="inlineStr"/>
+      <c r="HF9" t="inlineStr"/>
+      <c r="HG9" t="inlineStr"/>
+      <c r="HH9" t="inlineStr"/>
+      <c r="HI9" t="inlineStr"/>
+      <c r="HJ9" t="inlineStr"/>
+      <c r="HK9" t="inlineStr"/>
+      <c r="HL9" t="inlineStr"/>
+      <c r="HM9" t="inlineStr"/>
+      <c r="HN9" t="inlineStr"/>
+      <c r="HO9" t="inlineStr"/>
+      <c r="HP9" t="inlineStr"/>
+      <c r="HQ9" t="inlineStr"/>
+      <c r="HR9" t="inlineStr"/>
+      <c r="HS9" t="inlineStr"/>
+      <c r="HT9" t="inlineStr"/>
+      <c r="HU9" t="inlineStr"/>
+      <c r="HV9" t="inlineStr"/>
+      <c r="HW9" t="inlineStr"/>
+      <c r="HX9" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY9" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="HZ9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB9" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC9" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID9" t="inlineStr"/>
+      <c r="IE9" t="inlineStr"/>
+      <c r="IF9" t="inlineStr"/>
+      <c r="IG9" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH9" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="II9" t="inlineStr"/>
+      <c r="IJ9" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK9" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL9" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM9" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN9" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO9" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="IP9" t="inlineStr"/>
+      <c r="IQ9" t="inlineStr"/>
+      <c r="IR9" t="inlineStr"/>
+      <c r="IS9" t="inlineStr"/>
+      <c r="IT9" t="inlineStr"/>
+      <c r="IU9" t="inlineStr"/>
+      <c r="IV9" t="inlineStr"/>
+      <c r="IW9" t="inlineStr"/>
+      <c r="IX9" t="inlineStr"/>
+      <c r="IY9" t="inlineStr"/>
+      <c r="IZ9" t="inlineStr"/>
+      <c r="JA9" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JB9" t="inlineStr"/>
+      <c r="JC9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD9" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE9" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF9" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG9" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH9" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JI9" t="inlineStr"/>
+      <c r="JJ9" t="inlineStr"/>
+      <c r="JK9" t="inlineStr"/>
+      <c r="JL9" t="inlineStr"/>
+      <c r="JM9" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO9" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ9" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="JS9" t="inlineStr"/>
+      <c r="JT9" t="inlineStr"/>
+      <c r="JU9" t="inlineStr"/>
+      <c r="JV9" t="inlineStr"/>
+      <c r="JW9" t="inlineStr"/>
+      <c r="JX9" t="inlineStr"/>
+      <c r="JY9" t="inlineStr"/>
+      <c r="JZ9" t="inlineStr"/>
+      <c r="KA9" t="inlineStr"/>
+      <c r="KB9" t="inlineStr"/>
+      <c r="KC9" t="inlineStr"/>
+      <c r="KD9" t="inlineStr"/>
+      <c r="KE9" t="inlineStr"/>
+      <c r="KF9" t="inlineStr"/>
+      <c r="KG9" t="inlineStr"/>
+      <c r="KH9" t="inlineStr"/>
+      <c r="KI9" t="inlineStr"/>
+      <c r="KJ9" t="inlineStr"/>
+      <c r="KK9" t="inlineStr"/>
+      <c r="KL9" t="inlineStr"/>
+      <c r="KM9" t="inlineStr"/>
+      <c r="KN9" t="inlineStr"/>
+      <c r="KO9" t="inlineStr"/>
+      <c r="KP9" t="inlineStr"/>
+      <c r="KQ9" t="inlineStr"/>
+      <c r="KR9" t="inlineStr"/>
+      <c r="KS9" t="inlineStr"/>
+      <c r="KT9" t="inlineStr"/>
+      <c r="KU9" t="inlineStr"/>
+      <c r="KV9" t="inlineStr"/>
+      <c r="KW9" t="inlineStr"/>
+      <c r="KX9" t="inlineStr"/>
+      <c r="KY9" t="inlineStr"/>
+      <c r="KZ9" t="inlineStr"/>
+      <c r="LA9" t="inlineStr"/>
+      <c r="LB9" t="inlineStr"/>
+      <c r="LC9" t="inlineStr"/>
+      <c r="LD9" t="inlineStr"/>
+      <c r="LE9" t="inlineStr"/>
+      <c r="LF9" t="inlineStr"/>
+      <c r="LG9" t="inlineStr"/>
+      <c r="LH9" t="inlineStr"/>
+      <c r="LI9" t="inlineStr"/>
+      <c r="LJ9" t="inlineStr"/>
+      <c r="LK9" t="inlineStr"/>
+      <c r="LL9" t="inlineStr"/>
+      <c r="LM9" t="inlineStr"/>
+      <c r="LN9" t="inlineStr"/>
+      <c r="LO9" t="inlineStr"/>
+      <c r="LP9" t="inlineStr"/>
+      <c r="LQ9" t="inlineStr"/>
+      <c r="LR9" t="inlineStr"/>
+      <c r="LS9" t="inlineStr"/>
+      <c r="LT9" t="inlineStr"/>
+      <c r="LU9" t="inlineStr"/>
+      <c r="LV9" t="inlineStr"/>
+      <c r="LW9" t="inlineStr"/>
+      <c r="LX9" t="inlineStr"/>
+      <c r="LY9" t="inlineStr"/>
+      <c r="LZ9" t="inlineStr"/>
+      <c r="MA9" t="inlineStr"/>
+      <c r="MB9" t="inlineStr"/>
+      <c r="MC9" t="inlineStr"/>
+      <c r="MD9" t="inlineStr"/>
+      <c r="ME9" t="inlineStr"/>
+      <c r="MF9" t="inlineStr"/>
+      <c r="MG9" t="inlineStr"/>
+      <c r="MH9" t="inlineStr"/>
+      <c r="MI9" t="inlineStr"/>
+      <c r="MJ9" t="inlineStr"/>
+      <c r="MK9" t="inlineStr"/>
+      <c r="ML9" t="inlineStr"/>
+      <c r="MM9" t="inlineStr"/>
+      <c r="MN9" t="inlineStr"/>
+      <c r="MO9" t="inlineStr"/>
+      <c r="MP9" t="inlineStr"/>
+      <c r="MQ9" t="inlineStr"/>
+      <c r="MR9" t="inlineStr"/>
+      <c r="MS9" t="inlineStr"/>
+      <c r="MT9" t="inlineStr"/>
+      <c r="MU9" t="inlineStr"/>
+      <c r="MV9" t="inlineStr"/>
+      <c r="MW9" t="inlineStr"/>
+      <c r="MX9" t="inlineStr"/>
+      <c r="MY9" t="inlineStr"/>
+      <c r="MZ9" t="inlineStr"/>
+      <c r="NA9" t="inlineStr"/>
+      <c r="NB9" t="inlineStr"/>
+      <c r="NC9" t="inlineStr"/>
+      <c r="ND9" t="inlineStr"/>
+      <c r="NE9" t="inlineStr"/>
+      <c r="NF9" t="inlineStr"/>
+      <c r="NG9" t="inlineStr"/>
+      <c r="NH9" t="inlineStr"/>
+      <c r="NI9" t="inlineStr"/>
+      <c r="NJ9" t="inlineStr"/>
+      <c r="NK9" t="inlineStr"/>
+      <c r="NL9" t="inlineStr"/>
+      <c r="NM9" t="inlineStr"/>
+      <c r="NN9" t="inlineStr"/>
+      <c r="NO9" t="inlineStr"/>
+      <c r="NP9" t="inlineStr"/>
+      <c r="NQ9" t="inlineStr"/>
+      <c r="NR9" t="inlineStr"/>
+      <c r="NS9" t="inlineStr"/>
+      <c r="NT9" t="inlineStr"/>
+      <c r="NU9" t="inlineStr"/>
+      <c r="NV9" t="inlineStr"/>
+      <c r="NW9" t="inlineStr"/>
+      <c r="NX9" t="inlineStr"/>
+      <c r="NY9" t="inlineStr"/>
+      <c r="NZ9" t="inlineStr"/>
+      <c r="OA9" t="inlineStr"/>
+      <c r="OB9" t="inlineStr"/>
+      <c r="OC9" t="inlineStr"/>
+      <c r="OD9" t="inlineStr"/>
+      <c r="OE9" t="inlineStr"/>
+      <c r="OF9" t="inlineStr"/>
+      <c r="OG9" t="inlineStr"/>
+      <c r="OH9" t="inlineStr"/>
+      <c r="OI9" t="inlineStr"/>
+      <c r="OJ9" t="inlineStr"/>
+      <c r="OK9" t="inlineStr"/>
+      <c r="OL9" t="inlineStr"/>
+      <c r="OM9" t="inlineStr"/>
+      <c r="ON9" t="inlineStr"/>
+      <c r="OO9" t="inlineStr"/>
+      <c r="OP9" t="inlineStr"/>
+      <c r="OQ9" t="inlineStr"/>
+      <c r="OR9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR9"/>
+  <dimension ref="A1:OR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5474,12 +5474,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -5510,9 +5504,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
           <t>3.22</t>
@@ -5523,7 +5514,6 @@
           <t>3.03</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -5554,23 +5544,11 @@
           <t>2.75</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr">
         <is>
           <t>93</t>
@@ -5601,10 +5579,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
           <t>.1</t>
@@ -5635,18 +5609,6 @@
           <t>.9</t>
         </is>
       </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -5677,9 +5639,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
       <c r="BX8" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -5690,7 +5649,6 @@
           <t>2.20</t>
         </is>
       </c>
-      <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="inlineStr">
         <is>
           <t>2.23</t>
@@ -5721,23 +5679,11 @@
           <t>1.99</t>
         </is>
       </c>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="inlineStr"/>
-      <c r="CK8" t="inlineStr"/>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
-      <c r="CN8" t="inlineStr"/>
-      <c r="CO8" t="inlineStr"/>
-      <c r="CP8" t="inlineStr"/>
-      <c r="CQ8" t="inlineStr"/>
       <c r="CR8" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="CS8" t="inlineStr"/>
       <c r="CT8" t="inlineStr">
         <is>
           <t>39</t>
@@ -5768,10 +5714,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="CZ8" t="inlineStr"/>
-      <c r="DA8" t="inlineStr"/>
-      <c r="DB8" t="inlineStr"/>
-      <c r="DC8" t="inlineStr"/>
       <c r="DD8" t="inlineStr">
         <is>
           <t>.2</t>
@@ -5802,36 +5744,11 @@
           <t>.13</t>
         </is>
       </c>
-      <c r="DJ8" t="inlineStr"/>
-      <c r="DK8" t="inlineStr"/>
-      <c r="DL8" t="inlineStr"/>
-      <c r="DM8" t="inlineStr"/>
-      <c r="DN8" t="inlineStr"/>
-      <c r="DO8" t="inlineStr"/>
       <c r="DP8" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="DQ8" t="inlineStr"/>
-      <c r="DR8" t="inlineStr"/>
-      <c r="DS8" t="inlineStr"/>
-      <c r="DT8" t="inlineStr"/>
-      <c r="DU8" t="inlineStr"/>
-      <c r="DV8" t="inlineStr"/>
-      <c r="DW8" t="inlineStr"/>
-      <c r="DX8" t="inlineStr"/>
-      <c r="DY8" t="inlineStr"/>
-      <c r="DZ8" t="inlineStr"/>
-      <c r="EA8" t="inlineStr"/>
-      <c r="EB8" t="inlineStr"/>
-      <c r="EC8" t="inlineStr"/>
-      <c r="ED8" t="inlineStr"/>
-      <c r="EE8" t="inlineStr"/>
-      <c r="EF8" t="inlineStr"/>
-      <c r="EG8" t="inlineStr"/>
-      <c r="EH8" t="inlineStr"/>
-      <c r="EI8" t="inlineStr"/>
       <c r="EJ8" t="inlineStr">
         <is>
           <t>2.57</t>
@@ -5862,16 +5779,11 @@
           <t>1.69</t>
         </is>
       </c>
-      <c r="EP8" t="inlineStr"/>
-      <c r="EQ8" t="inlineStr"/>
-      <c r="ER8" t="inlineStr"/>
-      <c r="ES8" t="inlineStr"/>
       <c r="ET8" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="EU8" t="inlineStr"/>
       <c r="EV8" t="inlineStr">
         <is>
           <t>55</t>
@@ -5902,29 +5814,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="FB8" t="inlineStr"/>
-      <c r="FC8" t="inlineStr"/>
-      <c r="FD8" t="inlineStr"/>
-      <c r="FE8" t="inlineStr"/>
-      <c r="FF8" t="inlineStr"/>
-      <c r="FG8" t="inlineStr"/>
-      <c r="FH8" t="inlineStr"/>
-      <c r="FI8" t="inlineStr"/>
-      <c r="FJ8" t="inlineStr"/>
-      <c r="FK8" t="inlineStr"/>
-      <c r="FL8" t="inlineStr"/>
-      <c r="FM8" t="inlineStr"/>
-      <c r="FN8" t="inlineStr"/>
-      <c r="FO8" t="inlineStr"/>
-      <c r="FP8" t="inlineStr"/>
-      <c r="FQ8" t="inlineStr"/>
-      <c r="FR8" t="inlineStr"/>
-      <c r="FS8" t="inlineStr"/>
-      <c r="FT8" t="inlineStr"/>
-      <c r="FU8" t="inlineStr"/>
-      <c r="FV8" t="inlineStr"/>
-      <c r="FW8" t="inlineStr"/>
-      <c r="FX8" t="inlineStr"/>
       <c r="FY8" t="inlineStr">
         <is>
           <t>.4</t>
@@ -5955,51 +5844,6 @@
           <t>.24</t>
         </is>
       </c>
-      <c r="GE8" t="inlineStr"/>
-      <c r="GF8" t="inlineStr"/>
-      <c r="GG8" t="inlineStr"/>
-      <c r="GH8" t="inlineStr"/>
-      <c r="GI8" t="inlineStr"/>
-      <c r="GJ8" t="inlineStr"/>
-      <c r="GK8" t="inlineStr"/>
-      <c r="GL8" t="inlineStr"/>
-      <c r="GM8" t="inlineStr"/>
-      <c r="GN8" t="inlineStr"/>
-      <c r="GO8" t="inlineStr"/>
-      <c r="GP8" t="inlineStr"/>
-      <c r="GQ8" t="inlineStr"/>
-      <c r="GR8" t="inlineStr"/>
-      <c r="GS8" t="inlineStr"/>
-      <c r="GT8" t="inlineStr"/>
-      <c r="GU8" t="inlineStr"/>
-      <c r="GV8" t="inlineStr"/>
-      <c r="GW8" t="inlineStr"/>
-      <c r="GX8" t="inlineStr"/>
-      <c r="GY8" t="inlineStr"/>
-      <c r="GZ8" t="inlineStr"/>
-      <c r="HA8" t="inlineStr"/>
-      <c r="HB8" t="inlineStr"/>
-      <c r="HC8" t="inlineStr"/>
-      <c r="HD8" t="inlineStr"/>
-      <c r="HE8" t="inlineStr"/>
-      <c r="HF8" t="inlineStr"/>
-      <c r="HG8" t="inlineStr"/>
-      <c r="HH8" t="inlineStr"/>
-      <c r="HI8" t="inlineStr"/>
-      <c r="HJ8" t="inlineStr"/>
-      <c r="HK8" t="inlineStr"/>
-      <c r="HL8" t="inlineStr"/>
-      <c r="HM8" t="inlineStr"/>
-      <c r="HN8" t="inlineStr"/>
-      <c r="HO8" t="inlineStr"/>
-      <c r="HP8" t="inlineStr"/>
-      <c r="HQ8" t="inlineStr"/>
-      <c r="HR8" t="inlineStr"/>
-      <c r="HS8" t="inlineStr"/>
-      <c r="HT8" t="inlineStr"/>
-      <c r="HU8" t="inlineStr"/>
-      <c r="HV8" t="inlineStr"/>
-      <c r="HW8" t="inlineStr"/>
       <c r="HX8" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -6030,9 +5874,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID8" t="inlineStr"/>
-      <c r="IE8" t="inlineStr"/>
-      <c r="IF8" t="inlineStr"/>
       <c r="IG8" t="inlineStr">
         <is>
           <t>5.45</t>
@@ -6043,7 +5884,6 @@
           <t>9.33</t>
         </is>
       </c>
-      <c r="II8" t="inlineStr"/>
       <c r="IJ8" t="inlineStr">
         <is>
           <t>7.32</t>
@@ -6074,23 +5914,11 @@
           <t>7.31</t>
         </is>
       </c>
-      <c r="IP8" t="inlineStr"/>
-      <c r="IQ8" t="inlineStr"/>
-      <c r="IR8" t="inlineStr"/>
-      <c r="IS8" t="inlineStr"/>
-      <c r="IT8" t="inlineStr"/>
-      <c r="IU8" t="inlineStr"/>
-      <c r="IV8" t="inlineStr"/>
-      <c r="IW8" t="inlineStr"/>
-      <c r="IX8" t="inlineStr"/>
-      <c r="IY8" t="inlineStr"/>
-      <c r="IZ8" t="inlineStr"/>
       <c r="JA8" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="JB8" t="inlineStr"/>
       <c r="JC8" t="inlineStr">
         <is>
           <t>143</t>
@@ -6121,10 +5949,6 @@
           <t>134</t>
         </is>
       </c>
-      <c r="JI8" t="inlineStr"/>
-      <c r="JJ8" t="inlineStr"/>
-      <c r="JK8" t="inlineStr"/>
-      <c r="JL8" t="inlineStr"/>
       <c r="JM8" t="inlineStr">
         <is>
           <t>.9</t>
@@ -6155,136 +5979,6 @@
           <t>.15</t>
         </is>
       </c>
-      <c r="JS8" t="inlineStr"/>
-      <c r="JT8" t="inlineStr"/>
-      <c r="JU8" t="inlineStr"/>
-      <c r="JV8" t="inlineStr"/>
-      <c r="JW8" t="inlineStr"/>
-      <c r="JX8" t="inlineStr"/>
-      <c r="JY8" t="inlineStr"/>
-      <c r="JZ8" t="inlineStr"/>
-      <c r="KA8" t="inlineStr"/>
-      <c r="KB8" t="inlineStr"/>
-      <c r="KC8" t="inlineStr"/>
-      <c r="KD8" t="inlineStr"/>
-      <c r="KE8" t="inlineStr"/>
-      <c r="KF8" t="inlineStr"/>
-      <c r="KG8" t="inlineStr"/>
-      <c r="KH8" t="inlineStr"/>
-      <c r="KI8" t="inlineStr"/>
-      <c r="KJ8" t="inlineStr"/>
-      <c r="KK8" t="inlineStr"/>
-      <c r="KL8" t="inlineStr"/>
-      <c r="KM8" t="inlineStr"/>
-      <c r="KN8" t="inlineStr"/>
-      <c r="KO8" t="inlineStr"/>
-      <c r="KP8" t="inlineStr"/>
-      <c r="KQ8" t="inlineStr"/>
-      <c r="KR8" t="inlineStr"/>
-      <c r="KS8" t="inlineStr"/>
-      <c r="KT8" t="inlineStr"/>
-      <c r="KU8" t="inlineStr"/>
-      <c r="KV8" t="inlineStr"/>
-      <c r="KW8" t="inlineStr"/>
-      <c r="KX8" t="inlineStr"/>
-      <c r="KY8" t="inlineStr"/>
-      <c r="KZ8" t="inlineStr"/>
-      <c r="LA8" t="inlineStr"/>
-      <c r="LB8" t="inlineStr"/>
-      <c r="LC8" t="inlineStr"/>
-      <c r="LD8" t="inlineStr"/>
-      <c r="LE8" t="inlineStr"/>
-      <c r="LF8" t="inlineStr"/>
-      <c r="LG8" t="inlineStr"/>
-      <c r="LH8" t="inlineStr"/>
-      <c r="LI8" t="inlineStr"/>
-      <c r="LJ8" t="inlineStr"/>
-      <c r="LK8" t="inlineStr"/>
-      <c r="LL8" t="inlineStr"/>
-      <c r="LM8" t="inlineStr"/>
-      <c r="LN8" t="inlineStr"/>
-      <c r="LO8" t="inlineStr"/>
-      <c r="LP8" t="inlineStr"/>
-      <c r="LQ8" t="inlineStr"/>
-      <c r="LR8" t="inlineStr"/>
-      <c r="LS8" t="inlineStr"/>
-      <c r="LT8" t="inlineStr"/>
-      <c r="LU8" t="inlineStr"/>
-      <c r="LV8" t="inlineStr"/>
-      <c r="LW8" t="inlineStr"/>
-      <c r="LX8" t="inlineStr"/>
-      <c r="LY8" t="inlineStr"/>
-      <c r="LZ8" t="inlineStr"/>
-      <c r="MA8" t="inlineStr"/>
-      <c r="MB8" t="inlineStr"/>
-      <c r="MC8" t="inlineStr"/>
-      <c r="MD8" t="inlineStr"/>
-      <c r="ME8" t="inlineStr"/>
-      <c r="MF8" t="inlineStr"/>
-      <c r="MG8" t="inlineStr"/>
-      <c r="MH8" t="inlineStr"/>
-      <c r="MI8" t="inlineStr"/>
-      <c r="MJ8" t="inlineStr"/>
-      <c r="MK8" t="inlineStr"/>
-      <c r="ML8" t="inlineStr"/>
-      <c r="MM8" t="inlineStr"/>
-      <c r="MN8" t="inlineStr"/>
-      <c r="MO8" t="inlineStr"/>
-      <c r="MP8" t="inlineStr"/>
-      <c r="MQ8" t="inlineStr"/>
-      <c r="MR8" t="inlineStr"/>
-      <c r="MS8" t="inlineStr"/>
-      <c r="MT8" t="inlineStr"/>
-      <c r="MU8" t="inlineStr"/>
-      <c r="MV8" t="inlineStr"/>
-      <c r="MW8" t="inlineStr"/>
-      <c r="MX8" t="inlineStr"/>
-      <c r="MY8" t="inlineStr"/>
-      <c r="MZ8" t="inlineStr"/>
-      <c r="NA8" t="inlineStr"/>
-      <c r="NB8" t="inlineStr"/>
-      <c r="NC8" t="inlineStr"/>
-      <c r="ND8" t="inlineStr"/>
-      <c r="NE8" t="inlineStr"/>
-      <c r="NF8" t="inlineStr"/>
-      <c r="NG8" t="inlineStr"/>
-      <c r="NH8" t="inlineStr"/>
-      <c r="NI8" t="inlineStr"/>
-      <c r="NJ8" t="inlineStr"/>
-      <c r="NK8" t="inlineStr"/>
-      <c r="NL8" t="inlineStr"/>
-      <c r="NM8" t="inlineStr"/>
-      <c r="NN8" t="inlineStr"/>
-      <c r="NO8" t="inlineStr"/>
-      <c r="NP8" t="inlineStr"/>
-      <c r="NQ8" t="inlineStr"/>
-      <c r="NR8" t="inlineStr"/>
-      <c r="NS8" t="inlineStr"/>
-      <c r="NT8" t="inlineStr"/>
-      <c r="NU8" t="inlineStr"/>
-      <c r="NV8" t="inlineStr"/>
-      <c r="NW8" t="inlineStr"/>
-      <c r="NX8" t="inlineStr"/>
-      <c r="NY8" t="inlineStr"/>
-      <c r="NZ8" t="inlineStr"/>
-      <c r="OA8" t="inlineStr"/>
-      <c r="OB8" t="inlineStr"/>
-      <c r="OC8" t="inlineStr"/>
-      <c r="OD8" t="inlineStr"/>
-      <c r="OE8" t="inlineStr"/>
-      <c r="OF8" t="inlineStr"/>
-      <c r="OG8" t="inlineStr"/>
-      <c r="OH8" t="inlineStr"/>
-      <c r="OI8" t="inlineStr"/>
-      <c r="OJ8" t="inlineStr"/>
-      <c r="OK8" t="inlineStr"/>
-      <c r="OL8" t="inlineStr"/>
-      <c r="OM8" t="inlineStr"/>
-      <c r="ON8" t="inlineStr"/>
-      <c r="OO8" t="inlineStr"/>
-      <c r="OP8" t="inlineStr"/>
-      <c r="OQ8" t="inlineStr"/>
-      <c r="OR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6292,12 +5986,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -6328,9 +6016,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
           <t>4.39</t>
@@ -6341,7 +6026,6 @@
           <t>2.88</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
           <t>2.92</t>
@@ -6372,23 +6056,11 @@
           <t>2.90</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr">
         <is>
           <t>67</t>
@@ -6419,10 +6091,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
           <t>-1</t>
@@ -6453,18 +6121,6 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -6495,9 +6151,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
       <c r="BX9" t="inlineStr">
         <is>
           <t>3.06</t>
@@ -6508,7 +6161,6 @@
           <t>2.17</t>
         </is>
       </c>
-      <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="inlineStr">
         <is>
           <t>225</t>
@@ -6539,23 +6191,11 @@
           <t>2.16</t>
         </is>
       </c>
-      <c r="CG9" t="inlineStr"/>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="inlineStr"/>
-      <c r="CK9" t="inlineStr"/>
-      <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
-      <c r="CO9" t="inlineStr"/>
-      <c r="CP9" t="inlineStr"/>
-      <c r="CQ9" t="inlineStr"/>
       <c r="CR9" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="CS9" t="inlineStr"/>
       <c r="CT9" t="inlineStr">
         <is>
           <t>74</t>
@@ -6586,10 +6226,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="CZ9" t="inlineStr"/>
-      <c r="DA9" t="inlineStr"/>
-      <c r="DB9" t="inlineStr"/>
-      <c r="DC9" t="inlineStr"/>
       <c r="DD9" t="inlineStr">
         <is>
           <t>0</t>
@@ -6620,36 +6256,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="DJ9" t="inlineStr"/>
-      <c r="DK9" t="inlineStr"/>
-      <c r="DL9" t="inlineStr"/>
-      <c r="DM9" t="inlineStr"/>
-      <c r="DN9" t="inlineStr"/>
-      <c r="DO9" t="inlineStr"/>
       <c r="DP9" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="DQ9" t="inlineStr"/>
-      <c r="DR9" t="inlineStr"/>
-      <c r="DS9" t="inlineStr"/>
-      <c r="DT9" t="inlineStr"/>
-      <c r="DU9" t="inlineStr"/>
-      <c r="DV9" t="inlineStr"/>
-      <c r="DW9" t="inlineStr"/>
-      <c r="DX9" t="inlineStr"/>
-      <c r="DY9" t="inlineStr"/>
-      <c r="DZ9" t="inlineStr"/>
-      <c r="EA9" t="inlineStr"/>
-      <c r="EB9" t="inlineStr"/>
-      <c r="EC9" t="inlineStr"/>
-      <c r="ED9" t="inlineStr"/>
-      <c r="EE9" t="inlineStr"/>
-      <c r="EF9" t="inlineStr"/>
-      <c r="EG9" t="inlineStr"/>
-      <c r="EH9" t="inlineStr"/>
-      <c r="EI9" t="inlineStr"/>
       <c r="EJ9" t="inlineStr">
         <is>
           <t>2.60</t>
@@ -6680,16 +6291,11 @@
           <t>1.75</t>
         </is>
       </c>
-      <c r="EP9" t="inlineStr"/>
-      <c r="EQ9" t="inlineStr"/>
-      <c r="ER9" t="inlineStr"/>
-      <c r="ES9" t="inlineStr"/>
       <c r="ET9" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="EU9" t="inlineStr"/>
       <c r="EV9" t="inlineStr">
         <is>
           <t>73</t>
@@ -6720,29 +6326,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="FB9" t="inlineStr"/>
-      <c r="FC9" t="inlineStr"/>
-      <c r="FD9" t="inlineStr"/>
-      <c r="FE9" t="inlineStr"/>
-      <c r="FF9" t="inlineStr"/>
-      <c r="FG9" t="inlineStr"/>
-      <c r="FH9" t="inlineStr"/>
-      <c r="FI9" t="inlineStr"/>
-      <c r="FJ9" t="inlineStr"/>
-      <c r="FK9" t="inlineStr"/>
-      <c r="FL9" t="inlineStr"/>
-      <c r="FM9" t="inlineStr"/>
-      <c r="FN9" t="inlineStr"/>
-      <c r="FO9" t="inlineStr"/>
-      <c r="FP9" t="inlineStr"/>
-      <c r="FQ9" t="inlineStr"/>
-      <c r="FR9" t="inlineStr"/>
-      <c r="FS9" t="inlineStr"/>
-      <c r="FT9" t="inlineStr"/>
-      <c r="FU9" t="inlineStr"/>
-      <c r="FV9" t="inlineStr"/>
-      <c r="FW9" t="inlineStr"/>
-      <c r="FX9" t="inlineStr"/>
       <c r="FY9" t="inlineStr">
         <is>
           <t>2</t>
@@ -6773,51 +6356,6 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="GE9" t="inlineStr"/>
-      <c r="GF9" t="inlineStr"/>
-      <c r="GG9" t="inlineStr"/>
-      <c r="GH9" t="inlineStr"/>
-      <c r="GI9" t="inlineStr"/>
-      <c r="GJ9" t="inlineStr"/>
-      <c r="GK9" t="inlineStr"/>
-      <c r="GL9" t="inlineStr"/>
-      <c r="GM9" t="inlineStr"/>
-      <c r="GN9" t="inlineStr"/>
-      <c r="GO9" t="inlineStr"/>
-      <c r="GP9" t="inlineStr"/>
-      <c r="GQ9" t="inlineStr"/>
-      <c r="GR9" t="inlineStr"/>
-      <c r="GS9" t="inlineStr"/>
-      <c r="GT9" t="inlineStr"/>
-      <c r="GU9" t="inlineStr"/>
-      <c r="GV9" t="inlineStr"/>
-      <c r="GW9" t="inlineStr"/>
-      <c r="GX9" t="inlineStr"/>
-      <c r="GY9" t="inlineStr"/>
-      <c r="GZ9" t="inlineStr"/>
-      <c r="HA9" t="inlineStr"/>
-      <c r="HB9" t="inlineStr"/>
-      <c r="HC9" t="inlineStr"/>
-      <c r="HD9" t="inlineStr"/>
-      <c r="HE9" t="inlineStr"/>
-      <c r="HF9" t="inlineStr"/>
-      <c r="HG9" t="inlineStr"/>
-      <c r="HH9" t="inlineStr"/>
-      <c r="HI9" t="inlineStr"/>
-      <c r="HJ9" t="inlineStr"/>
-      <c r="HK9" t="inlineStr"/>
-      <c r="HL9" t="inlineStr"/>
-      <c r="HM9" t="inlineStr"/>
-      <c r="HN9" t="inlineStr"/>
-      <c r="HO9" t="inlineStr"/>
-      <c r="HP9" t="inlineStr"/>
-      <c r="HQ9" t="inlineStr"/>
-      <c r="HR9" t="inlineStr"/>
-      <c r="HS9" t="inlineStr"/>
-      <c r="HT9" t="inlineStr"/>
-      <c r="HU9" t="inlineStr"/>
-      <c r="HV9" t="inlineStr"/>
-      <c r="HW9" t="inlineStr"/>
       <c r="HX9" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -6848,9 +6386,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID9" t="inlineStr"/>
-      <c r="IE9" t="inlineStr"/>
-      <c r="IF9" t="inlineStr"/>
       <c r="IG9" t="inlineStr">
         <is>
           <t>7.21</t>
@@ -6861,7 +6396,6 @@
           <t>7.63</t>
         </is>
       </c>
-      <c r="II9" t="inlineStr"/>
       <c r="IJ9" t="inlineStr">
         <is>
           <t>8.01</t>
@@ -6892,23 +6426,11 @@
           <t>8.58</t>
         </is>
       </c>
-      <c r="IP9" t="inlineStr"/>
-      <c r="IQ9" t="inlineStr"/>
-      <c r="IR9" t="inlineStr"/>
-      <c r="IS9" t="inlineStr"/>
-      <c r="IT9" t="inlineStr"/>
-      <c r="IU9" t="inlineStr"/>
-      <c r="IV9" t="inlineStr"/>
-      <c r="IW9" t="inlineStr"/>
-      <c r="IX9" t="inlineStr"/>
-      <c r="IY9" t="inlineStr"/>
-      <c r="IZ9" t="inlineStr"/>
       <c r="JA9" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="JB9" t="inlineStr"/>
       <c r="JC9" t="inlineStr">
         <is>
           <t>111</t>
@@ -6939,10 +6461,6 @@
           <t>119</t>
         </is>
       </c>
-      <c r="JI9" t="inlineStr"/>
-      <c r="JJ9" t="inlineStr"/>
-      <c r="JK9" t="inlineStr"/>
-      <c r="JL9" t="inlineStr"/>
       <c r="JM9" t="inlineStr">
         <is>
           <t>-3</t>
@@ -6973,136 +6491,2360 @@
           <t>4</t>
         </is>
       </c>
-      <c r="JS9" t="inlineStr"/>
-      <c r="JT9" t="inlineStr"/>
-      <c r="JU9" t="inlineStr"/>
-      <c r="JV9" t="inlineStr"/>
-      <c r="JW9" t="inlineStr"/>
-      <c r="JX9" t="inlineStr"/>
-      <c r="JY9" t="inlineStr"/>
-      <c r="JZ9" t="inlineStr"/>
-      <c r="KA9" t="inlineStr"/>
-      <c r="KB9" t="inlineStr"/>
-      <c r="KC9" t="inlineStr"/>
-      <c r="KD9" t="inlineStr"/>
-      <c r="KE9" t="inlineStr"/>
-      <c r="KF9" t="inlineStr"/>
-      <c r="KG9" t="inlineStr"/>
-      <c r="KH9" t="inlineStr"/>
-      <c r="KI9" t="inlineStr"/>
-      <c r="KJ9" t="inlineStr"/>
-      <c r="KK9" t="inlineStr"/>
-      <c r="KL9" t="inlineStr"/>
-      <c r="KM9" t="inlineStr"/>
-      <c r="KN9" t="inlineStr"/>
-      <c r="KO9" t="inlineStr"/>
-      <c r="KP9" t="inlineStr"/>
-      <c r="KQ9" t="inlineStr"/>
-      <c r="KR9" t="inlineStr"/>
-      <c r="KS9" t="inlineStr"/>
-      <c r="KT9" t="inlineStr"/>
-      <c r="KU9" t="inlineStr"/>
-      <c r="KV9" t="inlineStr"/>
-      <c r="KW9" t="inlineStr"/>
-      <c r="KX9" t="inlineStr"/>
-      <c r="KY9" t="inlineStr"/>
-      <c r="KZ9" t="inlineStr"/>
-      <c r="LA9" t="inlineStr"/>
-      <c r="LB9" t="inlineStr"/>
-      <c r="LC9" t="inlineStr"/>
-      <c r="LD9" t="inlineStr"/>
-      <c r="LE9" t="inlineStr"/>
-      <c r="LF9" t="inlineStr"/>
-      <c r="LG9" t="inlineStr"/>
-      <c r="LH9" t="inlineStr"/>
-      <c r="LI9" t="inlineStr"/>
-      <c r="LJ9" t="inlineStr"/>
-      <c r="LK9" t="inlineStr"/>
-      <c r="LL9" t="inlineStr"/>
-      <c r="LM9" t="inlineStr"/>
-      <c r="LN9" t="inlineStr"/>
-      <c r="LO9" t="inlineStr"/>
-      <c r="LP9" t="inlineStr"/>
-      <c r="LQ9" t="inlineStr"/>
-      <c r="LR9" t="inlineStr"/>
-      <c r="LS9" t="inlineStr"/>
-      <c r="LT9" t="inlineStr"/>
-      <c r="LU9" t="inlineStr"/>
-      <c r="LV9" t="inlineStr"/>
-      <c r="LW9" t="inlineStr"/>
-      <c r="LX9" t="inlineStr"/>
-      <c r="LY9" t="inlineStr"/>
-      <c r="LZ9" t="inlineStr"/>
-      <c r="MA9" t="inlineStr"/>
-      <c r="MB9" t="inlineStr"/>
-      <c r="MC9" t="inlineStr"/>
-      <c r="MD9" t="inlineStr"/>
-      <c r="ME9" t="inlineStr"/>
-      <c r="MF9" t="inlineStr"/>
-      <c r="MG9" t="inlineStr"/>
-      <c r="MH9" t="inlineStr"/>
-      <c r="MI9" t="inlineStr"/>
-      <c r="MJ9" t="inlineStr"/>
-      <c r="MK9" t="inlineStr"/>
-      <c r="ML9" t="inlineStr"/>
-      <c r="MM9" t="inlineStr"/>
-      <c r="MN9" t="inlineStr"/>
-      <c r="MO9" t="inlineStr"/>
-      <c r="MP9" t="inlineStr"/>
-      <c r="MQ9" t="inlineStr"/>
-      <c r="MR9" t="inlineStr"/>
-      <c r="MS9" t="inlineStr"/>
-      <c r="MT9" t="inlineStr"/>
-      <c r="MU9" t="inlineStr"/>
-      <c r="MV9" t="inlineStr"/>
-      <c r="MW9" t="inlineStr"/>
-      <c r="MX9" t="inlineStr"/>
-      <c r="MY9" t="inlineStr"/>
-      <c r="MZ9" t="inlineStr"/>
-      <c r="NA9" t="inlineStr"/>
-      <c r="NB9" t="inlineStr"/>
-      <c r="NC9" t="inlineStr"/>
-      <c r="ND9" t="inlineStr"/>
-      <c r="NE9" t="inlineStr"/>
-      <c r="NF9" t="inlineStr"/>
-      <c r="NG9" t="inlineStr"/>
-      <c r="NH9" t="inlineStr"/>
-      <c r="NI9" t="inlineStr"/>
-      <c r="NJ9" t="inlineStr"/>
-      <c r="NK9" t="inlineStr"/>
-      <c r="NL9" t="inlineStr"/>
-      <c r="NM9" t="inlineStr"/>
-      <c r="NN9" t="inlineStr"/>
-      <c r="NO9" t="inlineStr"/>
-      <c r="NP9" t="inlineStr"/>
-      <c r="NQ9" t="inlineStr"/>
-      <c r="NR9" t="inlineStr"/>
-      <c r="NS9" t="inlineStr"/>
-      <c r="NT9" t="inlineStr"/>
-      <c r="NU9" t="inlineStr"/>
-      <c r="NV9" t="inlineStr"/>
-      <c r="NW9" t="inlineStr"/>
-      <c r="NX9" t="inlineStr"/>
-      <c r="NY9" t="inlineStr"/>
-      <c r="NZ9" t="inlineStr"/>
-      <c r="OA9" t="inlineStr"/>
-      <c r="OB9" t="inlineStr"/>
-      <c r="OC9" t="inlineStr"/>
-      <c r="OD9" t="inlineStr"/>
-      <c r="OE9" t="inlineStr"/>
-      <c r="OF9" t="inlineStr"/>
-      <c r="OG9" t="inlineStr"/>
-      <c r="OH9" t="inlineStr"/>
-      <c r="OI9" t="inlineStr"/>
-      <c r="OJ9" t="inlineStr"/>
-      <c r="OK9" t="inlineStr"/>
-      <c r="OL9" t="inlineStr"/>
-      <c r="OM9" t="inlineStr"/>
-      <c r="ON9" t="inlineStr"/>
-      <c r="OO9" t="inlineStr"/>
-      <c r="OP9" t="inlineStr"/>
-      <c r="OQ9" t="inlineStr"/>
-      <c r="OR9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR10" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT10" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY10" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD10" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE10" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH10" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DP10" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET10" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV10" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW10" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX10" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA10" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY10" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ10" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA10" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB10" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC10" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD10" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="HX10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA10" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB10" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC10" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH10" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ10" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL10" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM10" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO10" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA10" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC10" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD10" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE10" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF10" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG10" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM10" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN10" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO10" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP10" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ10" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR10" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT11" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW11" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX11" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY11" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD11" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE11" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH11" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DP11" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM11" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET11" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV11" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW11" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX11" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA11" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY11" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ11" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA11" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB11" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC11" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD11" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="HX11" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA11" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB11" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC11" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG11" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH11" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ11" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL11" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM11" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO11" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA11" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC11" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD11" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE11" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF11" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG11" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH11" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM11" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN11" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO11" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP11" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ11" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR11" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT12" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU12" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX12" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY12" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD12" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE12" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH12" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DP12" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET12" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV12" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW12" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX12" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA12" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY12" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ12" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA12" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB12" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC12" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD12" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="HX12" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA12" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB12" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC12" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH12" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ12" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL12" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM12" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO12" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA12" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC12" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD12" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE12" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF12" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG12" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM12" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN12" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO12" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP12" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ12" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR12" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
+      <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CS13" t="inlineStr"/>
+      <c r="CT13" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU13" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX13" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY13" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="inlineStr"/>
+      <c r="DB13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE13" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH13" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DJ13" t="inlineStr"/>
+      <c r="DK13" t="inlineStr"/>
+      <c r="DL13" t="inlineStr"/>
+      <c r="DM13" t="inlineStr"/>
+      <c r="DN13" t="inlineStr"/>
+      <c r="DO13" t="inlineStr"/>
+      <c r="DP13" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="DQ13" t="inlineStr"/>
+      <c r="DR13" t="inlineStr"/>
+      <c r="DS13" t="inlineStr"/>
+      <c r="DT13" t="inlineStr"/>
+      <c r="DU13" t="inlineStr"/>
+      <c r="DV13" t="inlineStr"/>
+      <c r="DW13" t="inlineStr"/>
+      <c r="DX13" t="inlineStr"/>
+      <c r="DY13" t="inlineStr"/>
+      <c r="DZ13" t="inlineStr"/>
+      <c r="EA13" t="inlineStr"/>
+      <c r="EB13" t="inlineStr"/>
+      <c r="EC13" t="inlineStr"/>
+      <c r="ED13" t="inlineStr"/>
+      <c r="EE13" t="inlineStr"/>
+      <c r="EF13" t="inlineStr"/>
+      <c r="EG13" t="inlineStr"/>
+      <c r="EH13" t="inlineStr"/>
+      <c r="EI13" t="inlineStr"/>
+      <c r="EJ13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EP13" t="inlineStr"/>
+      <c r="EQ13" t="inlineStr"/>
+      <c r="ER13" t="inlineStr"/>
+      <c r="ES13" t="inlineStr"/>
+      <c r="ET13" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EU13" t="inlineStr"/>
+      <c r="EV13" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX13" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY13" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ13" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA13" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FB13" t="inlineStr"/>
+      <c r="FC13" t="inlineStr"/>
+      <c r="FD13" t="inlineStr"/>
+      <c r="FE13" t="inlineStr"/>
+      <c r="FF13" t="inlineStr"/>
+      <c r="FG13" t="inlineStr"/>
+      <c r="FH13" t="inlineStr"/>
+      <c r="FI13" t="inlineStr"/>
+      <c r="FJ13" t="inlineStr"/>
+      <c r="FK13" t="inlineStr"/>
+      <c r="FL13" t="inlineStr"/>
+      <c r="FM13" t="inlineStr"/>
+      <c r="FN13" t="inlineStr"/>
+      <c r="FO13" t="inlineStr"/>
+      <c r="FP13" t="inlineStr"/>
+      <c r="FQ13" t="inlineStr"/>
+      <c r="FR13" t="inlineStr"/>
+      <c r="FS13" t="inlineStr"/>
+      <c r="FT13" t="inlineStr"/>
+      <c r="FU13" t="inlineStr"/>
+      <c r="FV13" t="inlineStr"/>
+      <c r="FW13" t="inlineStr"/>
+      <c r="FX13" t="inlineStr"/>
+      <c r="FY13" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ13" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA13" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB13" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC13" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD13" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="GE13" t="inlineStr"/>
+      <c r="GF13" t="inlineStr"/>
+      <c r="GG13" t="inlineStr"/>
+      <c r="GH13" t="inlineStr"/>
+      <c r="GI13" t="inlineStr"/>
+      <c r="GJ13" t="inlineStr"/>
+      <c r="GK13" t="inlineStr"/>
+      <c r="GL13" t="inlineStr"/>
+      <c r="GM13" t="inlineStr"/>
+      <c r="GN13" t="inlineStr"/>
+      <c r="GO13" t="inlineStr"/>
+      <c r="GP13" t="inlineStr"/>
+      <c r="GQ13" t="inlineStr"/>
+      <c r="GR13" t="inlineStr"/>
+      <c r="GS13" t="inlineStr"/>
+      <c r="GT13" t="inlineStr"/>
+      <c r="GU13" t="inlineStr"/>
+      <c r="GV13" t="inlineStr"/>
+      <c r="GW13" t="inlineStr"/>
+      <c r="GX13" t="inlineStr"/>
+      <c r="GY13" t="inlineStr"/>
+      <c r="GZ13" t="inlineStr"/>
+      <c r="HA13" t="inlineStr"/>
+      <c r="HB13" t="inlineStr"/>
+      <c r="HC13" t="inlineStr"/>
+      <c r="HD13" t="inlineStr"/>
+      <c r="HE13" t="inlineStr"/>
+      <c r="HF13" t="inlineStr"/>
+      <c r="HG13" t="inlineStr"/>
+      <c r="HH13" t="inlineStr"/>
+      <c r="HI13" t="inlineStr"/>
+      <c r="HJ13" t="inlineStr"/>
+      <c r="HK13" t="inlineStr"/>
+      <c r="HL13" t="inlineStr"/>
+      <c r="HM13" t="inlineStr"/>
+      <c r="HN13" t="inlineStr"/>
+      <c r="HO13" t="inlineStr"/>
+      <c r="HP13" t="inlineStr"/>
+      <c r="HQ13" t="inlineStr"/>
+      <c r="HR13" t="inlineStr"/>
+      <c r="HS13" t="inlineStr"/>
+      <c r="HT13" t="inlineStr"/>
+      <c r="HU13" t="inlineStr"/>
+      <c r="HV13" t="inlineStr"/>
+      <c r="HW13" t="inlineStr"/>
+      <c r="HX13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB13" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC13" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID13" t="inlineStr"/>
+      <c r="IE13" t="inlineStr"/>
+      <c r="IF13" t="inlineStr"/>
+      <c r="IG13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH13" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="II13" t="inlineStr"/>
+      <c r="IJ13" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL13" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM13" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO13" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="IP13" t="inlineStr"/>
+      <c r="IQ13" t="inlineStr"/>
+      <c r="IR13" t="inlineStr"/>
+      <c r="IS13" t="inlineStr"/>
+      <c r="IT13" t="inlineStr"/>
+      <c r="IU13" t="inlineStr"/>
+      <c r="IV13" t="inlineStr"/>
+      <c r="IW13" t="inlineStr"/>
+      <c r="IX13" t="inlineStr"/>
+      <c r="IY13" t="inlineStr"/>
+      <c r="IZ13" t="inlineStr"/>
+      <c r="JA13" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JB13" t="inlineStr"/>
+      <c r="JC13" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD13" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE13" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF13" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG13" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH13" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JI13" t="inlineStr"/>
+      <c r="JJ13" t="inlineStr"/>
+      <c r="JK13" t="inlineStr"/>
+      <c r="JL13" t="inlineStr"/>
+      <c r="JM13" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN13" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO13" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP13" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ13" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR13" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+      <c r="JS13" t="inlineStr"/>
+      <c r="JT13" t="inlineStr"/>
+      <c r="JU13" t="inlineStr"/>
+      <c r="JV13" t="inlineStr"/>
+      <c r="JW13" t="inlineStr"/>
+      <c r="JX13" t="inlineStr"/>
+      <c r="JY13" t="inlineStr"/>
+      <c r="JZ13" t="inlineStr"/>
+      <c r="KA13" t="inlineStr"/>
+      <c r="KB13" t="inlineStr"/>
+      <c r="KC13" t="inlineStr"/>
+      <c r="KD13" t="inlineStr"/>
+      <c r="KE13" t="inlineStr"/>
+      <c r="KF13" t="inlineStr"/>
+      <c r="KG13" t="inlineStr"/>
+      <c r="KH13" t="inlineStr"/>
+      <c r="KI13" t="inlineStr"/>
+      <c r="KJ13" t="inlineStr"/>
+      <c r="KK13" t="inlineStr"/>
+      <c r="KL13" t="inlineStr"/>
+      <c r="KM13" t="inlineStr"/>
+      <c r="KN13" t="inlineStr"/>
+      <c r="KO13" t="inlineStr"/>
+      <c r="KP13" t="inlineStr"/>
+      <c r="KQ13" t="inlineStr"/>
+      <c r="KR13" t="inlineStr"/>
+      <c r="KS13" t="inlineStr"/>
+      <c r="KT13" t="inlineStr"/>
+      <c r="KU13" t="inlineStr"/>
+      <c r="KV13" t="inlineStr"/>
+      <c r="KW13" t="inlineStr"/>
+      <c r="KX13" t="inlineStr"/>
+      <c r="KY13" t="inlineStr"/>
+      <c r="KZ13" t="inlineStr"/>
+      <c r="LA13" t="inlineStr"/>
+      <c r="LB13" t="inlineStr"/>
+      <c r="LC13" t="inlineStr"/>
+      <c r="LD13" t="inlineStr"/>
+      <c r="LE13" t="inlineStr"/>
+      <c r="LF13" t="inlineStr"/>
+      <c r="LG13" t="inlineStr"/>
+      <c r="LH13" t="inlineStr"/>
+      <c r="LI13" t="inlineStr"/>
+      <c r="LJ13" t="inlineStr"/>
+      <c r="LK13" t="inlineStr"/>
+      <c r="LL13" t="inlineStr"/>
+      <c r="LM13" t="inlineStr"/>
+      <c r="LN13" t="inlineStr"/>
+      <c r="LO13" t="inlineStr"/>
+      <c r="LP13" t="inlineStr"/>
+      <c r="LQ13" t="inlineStr"/>
+      <c r="LR13" t="inlineStr"/>
+      <c r="LS13" t="inlineStr"/>
+      <c r="LT13" t="inlineStr"/>
+      <c r="LU13" t="inlineStr"/>
+      <c r="LV13" t="inlineStr"/>
+      <c r="LW13" t="inlineStr"/>
+      <c r="LX13" t="inlineStr"/>
+      <c r="LY13" t="inlineStr"/>
+      <c r="LZ13" t="inlineStr"/>
+      <c r="MA13" t="inlineStr"/>
+      <c r="MB13" t="inlineStr"/>
+      <c r="MC13" t="inlineStr"/>
+      <c r="MD13" t="inlineStr"/>
+      <c r="ME13" t="inlineStr"/>
+      <c r="MF13" t="inlineStr"/>
+      <c r="MG13" t="inlineStr"/>
+      <c r="MH13" t="inlineStr"/>
+      <c r="MI13" t="inlineStr"/>
+      <c r="MJ13" t="inlineStr"/>
+      <c r="MK13" t="inlineStr"/>
+      <c r="ML13" t="inlineStr"/>
+      <c r="MM13" t="inlineStr"/>
+      <c r="MN13" t="inlineStr"/>
+      <c r="MO13" t="inlineStr"/>
+      <c r="MP13" t="inlineStr"/>
+      <c r="MQ13" t="inlineStr"/>
+      <c r="MR13" t="inlineStr"/>
+      <c r="MS13" t="inlineStr"/>
+      <c r="MT13" t="inlineStr"/>
+      <c r="MU13" t="inlineStr"/>
+      <c r="MV13" t="inlineStr"/>
+      <c r="MW13" t="inlineStr"/>
+      <c r="MX13" t="inlineStr"/>
+      <c r="MY13" t="inlineStr"/>
+      <c r="MZ13" t="inlineStr"/>
+      <c r="NA13" t="inlineStr"/>
+      <c r="NB13" t="inlineStr"/>
+      <c r="NC13" t="inlineStr"/>
+      <c r="ND13" t="inlineStr"/>
+      <c r="NE13" t="inlineStr"/>
+      <c r="NF13" t="inlineStr"/>
+      <c r="NG13" t="inlineStr"/>
+      <c r="NH13" t="inlineStr"/>
+      <c r="NI13" t="inlineStr"/>
+      <c r="NJ13" t="inlineStr"/>
+      <c r="NK13" t="inlineStr"/>
+      <c r="NL13" t="inlineStr"/>
+      <c r="NM13" t="inlineStr"/>
+      <c r="NN13" t="inlineStr"/>
+      <c r="NO13" t="inlineStr"/>
+      <c r="NP13" t="inlineStr"/>
+      <c r="NQ13" t="inlineStr"/>
+      <c r="NR13" t="inlineStr"/>
+      <c r="NS13" t="inlineStr"/>
+      <c r="NT13" t="inlineStr"/>
+      <c r="NU13" t="inlineStr"/>
+      <c r="NV13" t="inlineStr"/>
+      <c r="NW13" t="inlineStr"/>
+      <c r="NX13" t="inlineStr"/>
+      <c r="NY13" t="inlineStr"/>
+      <c r="NZ13" t="inlineStr"/>
+      <c r="OA13" t="inlineStr"/>
+      <c r="OB13" t="inlineStr"/>
+      <c r="OC13" t="inlineStr"/>
+      <c r="OD13" t="inlineStr"/>
+      <c r="OE13" t="inlineStr"/>
+      <c r="OF13" t="inlineStr"/>
+      <c r="OG13" t="inlineStr"/>
+      <c r="OH13" t="inlineStr"/>
+      <c r="OI13" t="inlineStr"/>
+      <c r="OJ13" t="inlineStr"/>
+      <c r="OK13" t="inlineStr"/>
+      <c r="OL13" t="inlineStr"/>
+      <c r="OM13" t="inlineStr"/>
+      <c r="ON13" t="inlineStr"/>
+      <c r="OO13" t="inlineStr"/>
+      <c r="OP13" t="inlineStr"/>
+      <c r="OQ13" t="inlineStr"/>
+      <c r="OR13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR13"/>
+  <dimension ref="A1:OR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8034,12 +8034,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -8070,9 +8064,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
           <t>3.22</t>
@@ -8083,7 +8074,6 @@
           <t>3.03</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -8114,23 +8104,11 @@
           <t>2.75</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr">
         <is>
           <t>93</t>
@@ -8161,10 +8139,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
           <t>.1</t>
@@ -8195,18 +8169,6 @@
           <t>.9</t>
         </is>
       </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -8237,9 +8199,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU13" t="inlineStr"/>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
       <c r="BX13" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -8250,7 +8209,6 @@
           <t>2.20</t>
         </is>
       </c>
-      <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="inlineStr">
         <is>
           <t>2.23</t>
@@ -8281,23 +8239,11 @@
           <t>1.99</t>
         </is>
       </c>
-      <c r="CG13" t="inlineStr"/>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
-      <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
-      <c r="CO13" t="inlineStr"/>
-      <c r="CP13" t="inlineStr"/>
-      <c r="CQ13" t="inlineStr"/>
       <c r="CR13" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="CS13" t="inlineStr"/>
       <c r="CT13" t="inlineStr">
         <is>
           <t>39</t>
@@ -8328,10 +8274,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="CZ13" t="inlineStr"/>
-      <c r="DA13" t="inlineStr"/>
-      <c r="DB13" t="inlineStr"/>
-      <c r="DC13" t="inlineStr"/>
       <c r="DD13" t="inlineStr">
         <is>
           <t>.2</t>
@@ -8362,36 +8304,11 @@
           <t>.13</t>
         </is>
       </c>
-      <c r="DJ13" t="inlineStr"/>
-      <c r="DK13" t="inlineStr"/>
-      <c r="DL13" t="inlineStr"/>
-      <c r="DM13" t="inlineStr"/>
-      <c r="DN13" t="inlineStr"/>
-      <c r="DO13" t="inlineStr"/>
       <c r="DP13" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="DQ13" t="inlineStr"/>
-      <c r="DR13" t="inlineStr"/>
-      <c r="DS13" t="inlineStr"/>
-      <c r="DT13" t="inlineStr"/>
-      <c r="DU13" t="inlineStr"/>
-      <c r="DV13" t="inlineStr"/>
-      <c r="DW13" t="inlineStr"/>
-      <c r="DX13" t="inlineStr"/>
-      <c r="DY13" t="inlineStr"/>
-      <c r="DZ13" t="inlineStr"/>
-      <c r="EA13" t="inlineStr"/>
-      <c r="EB13" t="inlineStr"/>
-      <c r="EC13" t="inlineStr"/>
-      <c r="ED13" t="inlineStr"/>
-      <c r="EE13" t="inlineStr"/>
-      <c r="EF13" t="inlineStr"/>
-      <c r="EG13" t="inlineStr"/>
-      <c r="EH13" t="inlineStr"/>
-      <c r="EI13" t="inlineStr"/>
       <c r="EJ13" t="inlineStr">
         <is>
           <t>2.57</t>
@@ -8422,16 +8339,11 @@
           <t>1.69</t>
         </is>
       </c>
-      <c r="EP13" t="inlineStr"/>
-      <c r="EQ13" t="inlineStr"/>
-      <c r="ER13" t="inlineStr"/>
-      <c r="ES13" t="inlineStr"/>
       <c r="ET13" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="EU13" t="inlineStr"/>
       <c r="EV13" t="inlineStr">
         <is>
           <t>55</t>
@@ -8462,29 +8374,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="FB13" t="inlineStr"/>
-      <c r="FC13" t="inlineStr"/>
-      <c r="FD13" t="inlineStr"/>
-      <c r="FE13" t="inlineStr"/>
-      <c r="FF13" t="inlineStr"/>
-      <c r="FG13" t="inlineStr"/>
-      <c r="FH13" t="inlineStr"/>
-      <c r="FI13" t="inlineStr"/>
-      <c r="FJ13" t="inlineStr"/>
-      <c r="FK13" t="inlineStr"/>
-      <c r="FL13" t="inlineStr"/>
-      <c r="FM13" t="inlineStr"/>
-      <c r="FN13" t="inlineStr"/>
-      <c r="FO13" t="inlineStr"/>
-      <c r="FP13" t="inlineStr"/>
-      <c r="FQ13" t="inlineStr"/>
-      <c r="FR13" t="inlineStr"/>
-      <c r="FS13" t="inlineStr"/>
-      <c r="FT13" t="inlineStr"/>
-      <c r="FU13" t="inlineStr"/>
-      <c r="FV13" t="inlineStr"/>
-      <c r="FW13" t="inlineStr"/>
-      <c r="FX13" t="inlineStr"/>
       <c r="FY13" t="inlineStr">
         <is>
           <t>.4</t>
@@ -8515,51 +8404,6 @@
           <t>.24</t>
         </is>
       </c>
-      <c r="GE13" t="inlineStr"/>
-      <c r="GF13" t="inlineStr"/>
-      <c r="GG13" t="inlineStr"/>
-      <c r="GH13" t="inlineStr"/>
-      <c r="GI13" t="inlineStr"/>
-      <c r="GJ13" t="inlineStr"/>
-      <c r="GK13" t="inlineStr"/>
-      <c r="GL13" t="inlineStr"/>
-      <c r="GM13" t="inlineStr"/>
-      <c r="GN13" t="inlineStr"/>
-      <c r="GO13" t="inlineStr"/>
-      <c r="GP13" t="inlineStr"/>
-      <c r="GQ13" t="inlineStr"/>
-      <c r="GR13" t="inlineStr"/>
-      <c r="GS13" t="inlineStr"/>
-      <c r="GT13" t="inlineStr"/>
-      <c r="GU13" t="inlineStr"/>
-      <c r="GV13" t="inlineStr"/>
-      <c r="GW13" t="inlineStr"/>
-      <c r="GX13" t="inlineStr"/>
-      <c r="GY13" t="inlineStr"/>
-      <c r="GZ13" t="inlineStr"/>
-      <c r="HA13" t="inlineStr"/>
-      <c r="HB13" t="inlineStr"/>
-      <c r="HC13" t="inlineStr"/>
-      <c r="HD13" t="inlineStr"/>
-      <c r="HE13" t="inlineStr"/>
-      <c r="HF13" t="inlineStr"/>
-      <c r="HG13" t="inlineStr"/>
-      <c r="HH13" t="inlineStr"/>
-      <c r="HI13" t="inlineStr"/>
-      <c r="HJ13" t="inlineStr"/>
-      <c r="HK13" t="inlineStr"/>
-      <c r="HL13" t="inlineStr"/>
-      <c r="HM13" t="inlineStr"/>
-      <c r="HN13" t="inlineStr"/>
-      <c r="HO13" t="inlineStr"/>
-      <c r="HP13" t="inlineStr"/>
-      <c r="HQ13" t="inlineStr"/>
-      <c r="HR13" t="inlineStr"/>
-      <c r="HS13" t="inlineStr"/>
-      <c r="HT13" t="inlineStr"/>
-      <c r="HU13" t="inlineStr"/>
-      <c r="HV13" t="inlineStr"/>
-      <c r="HW13" t="inlineStr"/>
       <c r="HX13" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -8590,9 +8434,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID13" t="inlineStr"/>
-      <c r="IE13" t="inlineStr"/>
-      <c r="IF13" t="inlineStr"/>
       <c r="IG13" t="inlineStr">
         <is>
           <t>5.45</t>
@@ -8603,7 +8444,6 @@
           <t>9.33</t>
         </is>
       </c>
-      <c r="II13" t="inlineStr"/>
       <c r="IJ13" t="inlineStr">
         <is>
           <t>7.32</t>
@@ -8634,23 +8474,11 @@
           <t>7.31</t>
         </is>
       </c>
-      <c r="IP13" t="inlineStr"/>
-      <c r="IQ13" t="inlineStr"/>
-      <c r="IR13" t="inlineStr"/>
-      <c r="IS13" t="inlineStr"/>
-      <c r="IT13" t="inlineStr"/>
-      <c r="IU13" t="inlineStr"/>
-      <c r="IV13" t="inlineStr"/>
-      <c r="IW13" t="inlineStr"/>
-      <c r="IX13" t="inlineStr"/>
-      <c r="IY13" t="inlineStr"/>
-      <c r="IZ13" t="inlineStr"/>
       <c r="JA13" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="JB13" t="inlineStr"/>
       <c r="JC13" t="inlineStr">
         <is>
           <t>143</t>
@@ -8681,10 +8509,6 @@
           <t>134</t>
         </is>
       </c>
-      <c r="JI13" t="inlineStr"/>
-      <c r="JJ13" t="inlineStr"/>
-      <c r="JK13" t="inlineStr"/>
-      <c r="JL13" t="inlineStr"/>
       <c r="JM13" t="inlineStr">
         <is>
           <t>.9</t>
@@ -8715,136 +8539,1848 @@
           <t>.15</t>
         </is>
       </c>
-      <c r="JS13" t="inlineStr"/>
-      <c r="JT13" t="inlineStr"/>
-      <c r="JU13" t="inlineStr"/>
-      <c r="JV13" t="inlineStr"/>
-      <c r="JW13" t="inlineStr"/>
-      <c r="JX13" t="inlineStr"/>
-      <c r="JY13" t="inlineStr"/>
-      <c r="JZ13" t="inlineStr"/>
-      <c r="KA13" t="inlineStr"/>
-      <c r="KB13" t="inlineStr"/>
-      <c r="KC13" t="inlineStr"/>
-      <c r="KD13" t="inlineStr"/>
-      <c r="KE13" t="inlineStr"/>
-      <c r="KF13" t="inlineStr"/>
-      <c r="KG13" t="inlineStr"/>
-      <c r="KH13" t="inlineStr"/>
-      <c r="KI13" t="inlineStr"/>
-      <c r="KJ13" t="inlineStr"/>
-      <c r="KK13" t="inlineStr"/>
-      <c r="KL13" t="inlineStr"/>
-      <c r="KM13" t="inlineStr"/>
-      <c r="KN13" t="inlineStr"/>
-      <c r="KO13" t="inlineStr"/>
-      <c r="KP13" t="inlineStr"/>
-      <c r="KQ13" t="inlineStr"/>
-      <c r="KR13" t="inlineStr"/>
-      <c r="KS13" t="inlineStr"/>
-      <c r="KT13" t="inlineStr"/>
-      <c r="KU13" t="inlineStr"/>
-      <c r="KV13" t="inlineStr"/>
-      <c r="KW13" t="inlineStr"/>
-      <c r="KX13" t="inlineStr"/>
-      <c r="KY13" t="inlineStr"/>
-      <c r="KZ13" t="inlineStr"/>
-      <c r="LA13" t="inlineStr"/>
-      <c r="LB13" t="inlineStr"/>
-      <c r="LC13" t="inlineStr"/>
-      <c r="LD13" t="inlineStr"/>
-      <c r="LE13" t="inlineStr"/>
-      <c r="LF13" t="inlineStr"/>
-      <c r="LG13" t="inlineStr"/>
-      <c r="LH13" t="inlineStr"/>
-      <c r="LI13" t="inlineStr"/>
-      <c r="LJ13" t="inlineStr"/>
-      <c r="LK13" t="inlineStr"/>
-      <c r="LL13" t="inlineStr"/>
-      <c r="LM13" t="inlineStr"/>
-      <c r="LN13" t="inlineStr"/>
-      <c r="LO13" t="inlineStr"/>
-      <c r="LP13" t="inlineStr"/>
-      <c r="LQ13" t="inlineStr"/>
-      <c r="LR13" t="inlineStr"/>
-      <c r="LS13" t="inlineStr"/>
-      <c r="LT13" t="inlineStr"/>
-      <c r="LU13" t="inlineStr"/>
-      <c r="LV13" t="inlineStr"/>
-      <c r="LW13" t="inlineStr"/>
-      <c r="LX13" t="inlineStr"/>
-      <c r="LY13" t="inlineStr"/>
-      <c r="LZ13" t="inlineStr"/>
-      <c r="MA13" t="inlineStr"/>
-      <c r="MB13" t="inlineStr"/>
-      <c r="MC13" t="inlineStr"/>
-      <c r="MD13" t="inlineStr"/>
-      <c r="ME13" t="inlineStr"/>
-      <c r="MF13" t="inlineStr"/>
-      <c r="MG13" t="inlineStr"/>
-      <c r="MH13" t="inlineStr"/>
-      <c r="MI13" t="inlineStr"/>
-      <c r="MJ13" t="inlineStr"/>
-      <c r="MK13" t="inlineStr"/>
-      <c r="ML13" t="inlineStr"/>
-      <c r="MM13" t="inlineStr"/>
-      <c r="MN13" t="inlineStr"/>
-      <c r="MO13" t="inlineStr"/>
-      <c r="MP13" t="inlineStr"/>
-      <c r="MQ13" t="inlineStr"/>
-      <c r="MR13" t="inlineStr"/>
-      <c r="MS13" t="inlineStr"/>
-      <c r="MT13" t="inlineStr"/>
-      <c r="MU13" t="inlineStr"/>
-      <c r="MV13" t="inlineStr"/>
-      <c r="MW13" t="inlineStr"/>
-      <c r="MX13" t="inlineStr"/>
-      <c r="MY13" t="inlineStr"/>
-      <c r="MZ13" t="inlineStr"/>
-      <c r="NA13" t="inlineStr"/>
-      <c r="NB13" t="inlineStr"/>
-      <c r="NC13" t="inlineStr"/>
-      <c r="ND13" t="inlineStr"/>
-      <c r="NE13" t="inlineStr"/>
-      <c r="NF13" t="inlineStr"/>
-      <c r="NG13" t="inlineStr"/>
-      <c r="NH13" t="inlineStr"/>
-      <c r="NI13" t="inlineStr"/>
-      <c r="NJ13" t="inlineStr"/>
-      <c r="NK13" t="inlineStr"/>
-      <c r="NL13" t="inlineStr"/>
-      <c r="NM13" t="inlineStr"/>
-      <c r="NN13" t="inlineStr"/>
-      <c r="NO13" t="inlineStr"/>
-      <c r="NP13" t="inlineStr"/>
-      <c r="NQ13" t="inlineStr"/>
-      <c r="NR13" t="inlineStr"/>
-      <c r="NS13" t="inlineStr"/>
-      <c r="NT13" t="inlineStr"/>
-      <c r="NU13" t="inlineStr"/>
-      <c r="NV13" t="inlineStr"/>
-      <c r="NW13" t="inlineStr"/>
-      <c r="NX13" t="inlineStr"/>
-      <c r="NY13" t="inlineStr"/>
-      <c r="NZ13" t="inlineStr"/>
-      <c r="OA13" t="inlineStr"/>
-      <c r="OB13" t="inlineStr"/>
-      <c r="OC13" t="inlineStr"/>
-      <c r="OD13" t="inlineStr"/>
-      <c r="OE13" t="inlineStr"/>
-      <c r="OF13" t="inlineStr"/>
-      <c r="OG13" t="inlineStr"/>
-      <c r="OH13" t="inlineStr"/>
-      <c r="OI13" t="inlineStr"/>
-      <c r="OJ13" t="inlineStr"/>
-      <c r="OK13" t="inlineStr"/>
-      <c r="OL13" t="inlineStr"/>
-      <c r="OM13" t="inlineStr"/>
-      <c r="ON13" t="inlineStr"/>
-      <c r="OO13" t="inlineStr"/>
-      <c r="OP13" t="inlineStr"/>
-      <c r="OQ13" t="inlineStr"/>
-      <c r="OR13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR14" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT14" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU14" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX14" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY14" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD14" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE14" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH14" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DP14" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ14" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET14" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY14" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ14" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA14" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY14" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ14" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA14" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB14" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC14" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD14" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="HX14" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB14" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC14" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG14" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH14" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ14" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL14" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM14" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO14" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA14" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC14" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD14" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE14" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF14" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG14" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH14" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM14" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN14" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO14" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP14" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ14" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR14" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU15" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX15" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY15" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD15" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>.2</t>
+        </is>
+      </c>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH15" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>.13</t>
+        </is>
+      </c>
+      <c r="DP15" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET15" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY15" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ15" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA15" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY15" t="inlineStr">
+        <is>
+          <t>.4</t>
+        </is>
+      </c>
+      <c r="FZ15" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GA15" t="inlineStr">
+        <is>
+          <t>.0</t>
+        </is>
+      </c>
+      <c r="GB15" t="inlineStr">
+        <is>
+          <t>.3</t>
+        </is>
+      </c>
+      <c r="GC15" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="GD15" t="inlineStr">
+        <is>
+          <t>.24</t>
+        </is>
+      </c>
+      <c r="HX15" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA15" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB15" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC15" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG15" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH15" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ15" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL15" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM15" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO15" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA15" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC15" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD15" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE15" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF15" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG15" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH15" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM15" t="inlineStr">
+        <is>
+          <t>.9</t>
+        </is>
+      </c>
+      <c r="JN15" t="inlineStr">
+        <is>
+          <t>.1</t>
+        </is>
+      </c>
+      <c r="JO15" t="inlineStr">
+        <is>
+          <t>.7</t>
+        </is>
+      </c>
+      <c r="JP15" t="inlineStr">
+        <is>
+          <t>.11</t>
+        </is>
+      </c>
+      <c r="JQ15" t="inlineStr">
+        <is>
+          <t>.5</t>
+        </is>
+      </c>
+      <c r="JR15" t="inlineStr">
+        <is>
+          <t>.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF16" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr"/>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CS16" t="inlineStr"/>
+      <c r="CT16" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU16" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW16" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX16" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY16" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE16" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH16" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="DJ16" t="inlineStr"/>
+      <c r="DK16" t="inlineStr"/>
+      <c r="DL16" t="inlineStr"/>
+      <c r="DM16" t="inlineStr"/>
+      <c r="DN16" t="inlineStr"/>
+      <c r="DO16" t="inlineStr"/>
+      <c r="DP16" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="DQ16" t="inlineStr"/>
+      <c r="DR16" t="inlineStr"/>
+      <c r="DS16" t="inlineStr"/>
+      <c r="DT16" t="inlineStr"/>
+      <c r="DU16" t="inlineStr"/>
+      <c r="DV16" t="inlineStr"/>
+      <c r="DW16" t="inlineStr"/>
+      <c r="DX16" t="inlineStr"/>
+      <c r="DY16" t="inlineStr"/>
+      <c r="DZ16" t="inlineStr"/>
+      <c r="EA16" t="inlineStr"/>
+      <c r="EB16" t="inlineStr"/>
+      <c r="EC16" t="inlineStr"/>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr"/>
+      <c r="EH16" t="inlineStr"/>
+      <c r="EI16" t="inlineStr"/>
+      <c r="EJ16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EP16" t="inlineStr"/>
+      <c r="EQ16" t="inlineStr"/>
+      <c r="ER16" t="inlineStr"/>
+      <c r="ES16" t="inlineStr"/>
+      <c r="ET16" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EU16" t="inlineStr"/>
+      <c r="EV16" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW16" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX16" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY16" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ16" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA16" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FB16" t="inlineStr"/>
+      <c r="FC16" t="inlineStr"/>
+      <c r="FD16" t="inlineStr"/>
+      <c r="FE16" t="inlineStr"/>
+      <c r="FF16" t="inlineStr"/>
+      <c r="FG16" t="inlineStr"/>
+      <c r="FH16" t="inlineStr"/>
+      <c r="FI16" t="inlineStr"/>
+      <c r="FJ16" t="inlineStr"/>
+      <c r="FK16" t="inlineStr"/>
+      <c r="FL16" t="inlineStr"/>
+      <c r="FM16" t="inlineStr"/>
+      <c r="FN16" t="inlineStr"/>
+      <c r="FO16" t="inlineStr"/>
+      <c r="FP16" t="inlineStr"/>
+      <c r="FQ16" t="inlineStr"/>
+      <c r="FR16" t="inlineStr"/>
+      <c r="FS16" t="inlineStr"/>
+      <c r="FT16" t="inlineStr"/>
+      <c r="FU16" t="inlineStr"/>
+      <c r="FV16" t="inlineStr"/>
+      <c r="FW16" t="inlineStr"/>
+      <c r="FX16" t="inlineStr"/>
+      <c r="FY16" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ16" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GA16" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="GB16" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GC16" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="GD16" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="GE16" t="inlineStr"/>
+      <c r="GF16" t="inlineStr"/>
+      <c r="GG16" t="inlineStr"/>
+      <c r="GH16" t="inlineStr"/>
+      <c r="GI16" t="inlineStr"/>
+      <c r="GJ16" t="inlineStr"/>
+      <c r="GK16" t="inlineStr"/>
+      <c r="GL16" t="inlineStr"/>
+      <c r="GM16" t="inlineStr"/>
+      <c r="GN16" t="inlineStr"/>
+      <c r="GO16" t="inlineStr"/>
+      <c r="GP16" t="inlineStr"/>
+      <c r="GQ16" t="inlineStr"/>
+      <c r="GR16" t="inlineStr"/>
+      <c r="GS16" t="inlineStr"/>
+      <c r="GT16" t="inlineStr"/>
+      <c r="GU16" t="inlineStr"/>
+      <c r="GV16" t="inlineStr"/>
+      <c r="GW16" t="inlineStr"/>
+      <c r="GX16" t="inlineStr"/>
+      <c r="GY16" t="inlineStr"/>
+      <c r="GZ16" t="inlineStr"/>
+      <c r="HA16" t="inlineStr"/>
+      <c r="HB16" t="inlineStr"/>
+      <c r="HC16" t="inlineStr"/>
+      <c r="HD16" t="inlineStr"/>
+      <c r="HE16" t="inlineStr"/>
+      <c r="HF16" t="inlineStr"/>
+      <c r="HG16" t="inlineStr"/>
+      <c r="HH16" t="inlineStr"/>
+      <c r="HI16" t="inlineStr"/>
+      <c r="HJ16" t="inlineStr"/>
+      <c r="HK16" t="inlineStr"/>
+      <c r="HL16" t="inlineStr"/>
+      <c r="HM16" t="inlineStr"/>
+      <c r="HN16" t="inlineStr"/>
+      <c r="HO16" t="inlineStr"/>
+      <c r="HP16" t="inlineStr"/>
+      <c r="HQ16" t="inlineStr"/>
+      <c r="HR16" t="inlineStr"/>
+      <c r="HS16" t="inlineStr"/>
+      <c r="HT16" t="inlineStr"/>
+      <c r="HU16" t="inlineStr"/>
+      <c r="HV16" t="inlineStr"/>
+      <c r="HW16" t="inlineStr"/>
+      <c r="HX16" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB16" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC16" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID16" t="inlineStr"/>
+      <c r="IE16" t="inlineStr"/>
+      <c r="IF16" t="inlineStr"/>
+      <c r="IG16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH16" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="II16" t="inlineStr"/>
+      <c r="IJ16" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL16" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM16" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO16" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="IP16" t="inlineStr"/>
+      <c r="IQ16" t="inlineStr"/>
+      <c r="IR16" t="inlineStr"/>
+      <c r="IS16" t="inlineStr"/>
+      <c r="IT16" t="inlineStr"/>
+      <c r="IU16" t="inlineStr"/>
+      <c r="IV16" t="inlineStr"/>
+      <c r="IW16" t="inlineStr"/>
+      <c r="IX16" t="inlineStr"/>
+      <c r="IY16" t="inlineStr"/>
+      <c r="IZ16" t="inlineStr"/>
+      <c r="JA16" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JB16" t="inlineStr"/>
+      <c r="JC16" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD16" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE16" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF16" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG16" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH16" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JI16" t="inlineStr"/>
+      <c r="JJ16" t="inlineStr"/>
+      <c r="JK16" t="inlineStr"/>
+      <c r="JL16" t="inlineStr"/>
+      <c r="JM16" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JN16" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="JO16" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JP16" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ16" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JR16" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="JS16" t="inlineStr"/>
+      <c r="JT16" t="inlineStr"/>
+      <c r="JU16" t="inlineStr"/>
+      <c r="JV16" t="inlineStr"/>
+      <c r="JW16" t="inlineStr"/>
+      <c r="JX16" t="inlineStr"/>
+      <c r="JY16" t="inlineStr"/>
+      <c r="JZ16" t="inlineStr"/>
+      <c r="KA16" t="inlineStr"/>
+      <c r="KB16" t="inlineStr"/>
+      <c r="KC16" t="inlineStr"/>
+      <c r="KD16" t="inlineStr"/>
+      <c r="KE16" t="inlineStr"/>
+      <c r="KF16" t="inlineStr"/>
+      <c r="KG16" t="inlineStr"/>
+      <c r="KH16" t="inlineStr"/>
+      <c r="KI16" t="inlineStr"/>
+      <c r="KJ16" t="inlineStr"/>
+      <c r="KK16" t="inlineStr"/>
+      <c r="KL16" t="inlineStr"/>
+      <c r="KM16" t="inlineStr"/>
+      <c r="KN16" t="inlineStr"/>
+      <c r="KO16" t="inlineStr"/>
+      <c r="KP16" t="inlineStr"/>
+      <c r="KQ16" t="inlineStr"/>
+      <c r="KR16" t="inlineStr"/>
+      <c r="KS16" t="inlineStr"/>
+      <c r="KT16" t="inlineStr"/>
+      <c r="KU16" t="inlineStr"/>
+      <c r="KV16" t="inlineStr"/>
+      <c r="KW16" t="inlineStr"/>
+      <c r="KX16" t="inlineStr"/>
+      <c r="KY16" t="inlineStr"/>
+      <c r="KZ16" t="inlineStr"/>
+      <c r="LA16" t="inlineStr"/>
+      <c r="LB16" t="inlineStr"/>
+      <c r="LC16" t="inlineStr"/>
+      <c r="LD16" t="inlineStr"/>
+      <c r="LE16" t="inlineStr"/>
+      <c r="LF16" t="inlineStr"/>
+      <c r="LG16" t="inlineStr"/>
+      <c r="LH16" t="inlineStr"/>
+      <c r="LI16" t="inlineStr"/>
+      <c r="LJ16" t="inlineStr"/>
+      <c r="LK16" t="inlineStr"/>
+      <c r="LL16" t="inlineStr"/>
+      <c r="LM16" t="inlineStr"/>
+      <c r="LN16" t="inlineStr"/>
+      <c r="LO16" t="inlineStr"/>
+      <c r="LP16" t="inlineStr"/>
+      <c r="LQ16" t="inlineStr"/>
+      <c r="LR16" t="inlineStr"/>
+      <c r="LS16" t="inlineStr"/>
+      <c r="LT16" t="inlineStr"/>
+      <c r="LU16" t="inlineStr"/>
+      <c r="LV16" t="inlineStr"/>
+      <c r="LW16" t="inlineStr"/>
+      <c r="LX16" t="inlineStr"/>
+      <c r="LY16" t="inlineStr"/>
+      <c r="LZ16" t="inlineStr"/>
+      <c r="MA16" t="inlineStr"/>
+      <c r="MB16" t="inlineStr"/>
+      <c r="MC16" t="inlineStr"/>
+      <c r="MD16" t="inlineStr"/>
+      <c r="ME16" t="inlineStr"/>
+      <c r="MF16" t="inlineStr"/>
+      <c r="MG16" t="inlineStr"/>
+      <c r="MH16" t="inlineStr"/>
+      <c r="MI16" t="inlineStr"/>
+      <c r="MJ16" t="inlineStr"/>
+      <c r="MK16" t="inlineStr"/>
+      <c r="ML16" t="inlineStr"/>
+      <c r="MM16" t="inlineStr"/>
+      <c r="MN16" t="inlineStr"/>
+      <c r="MO16" t="inlineStr"/>
+      <c r="MP16" t="inlineStr"/>
+      <c r="MQ16" t="inlineStr"/>
+      <c r="MR16" t="inlineStr"/>
+      <c r="MS16" t="inlineStr"/>
+      <c r="MT16" t="inlineStr"/>
+      <c r="MU16" t="inlineStr"/>
+      <c r="MV16" t="inlineStr"/>
+      <c r="MW16" t="inlineStr"/>
+      <c r="MX16" t="inlineStr"/>
+      <c r="MY16" t="inlineStr"/>
+      <c r="MZ16" t="inlineStr"/>
+      <c r="NA16" t="inlineStr"/>
+      <c r="NB16" t="inlineStr"/>
+      <c r="NC16" t="inlineStr"/>
+      <c r="ND16" t="inlineStr"/>
+      <c r="NE16" t="inlineStr"/>
+      <c r="NF16" t="inlineStr"/>
+      <c r="NG16" t="inlineStr"/>
+      <c r="NH16" t="inlineStr"/>
+      <c r="NI16" t="inlineStr"/>
+      <c r="NJ16" t="inlineStr"/>
+      <c r="NK16" t="inlineStr"/>
+      <c r="NL16" t="inlineStr"/>
+      <c r="NM16" t="inlineStr"/>
+      <c r="NN16" t="inlineStr"/>
+      <c r="NO16" t="inlineStr"/>
+      <c r="NP16" t="inlineStr"/>
+      <c r="NQ16" t="inlineStr"/>
+      <c r="NR16" t="inlineStr"/>
+      <c r="NS16" t="inlineStr"/>
+      <c r="NT16" t="inlineStr"/>
+      <c r="NU16" t="inlineStr"/>
+      <c r="NV16" t="inlineStr"/>
+      <c r="NW16" t="inlineStr"/>
+      <c r="NX16" t="inlineStr"/>
+      <c r="NY16" t="inlineStr"/>
+      <c r="NZ16" t="inlineStr"/>
+      <c r="OA16" t="inlineStr"/>
+      <c r="OB16" t="inlineStr"/>
+      <c r="OC16" t="inlineStr"/>
+      <c r="OD16" t="inlineStr"/>
+      <c r="OE16" t="inlineStr"/>
+      <c r="OF16" t="inlineStr"/>
+      <c r="OG16" t="inlineStr"/>
+      <c r="OH16" t="inlineStr"/>
+      <c r="OI16" t="inlineStr"/>
+      <c r="OJ16" t="inlineStr"/>
+      <c r="OK16" t="inlineStr"/>
+      <c r="OL16" t="inlineStr"/>
+      <c r="OM16" t="inlineStr"/>
+      <c r="ON16" t="inlineStr"/>
+      <c r="OO16" t="inlineStr"/>
+      <c r="OP16" t="inlineStr"/>
+      <c r="OQ16" t="inlineStr"/>
+      <c r="OR16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR16"/>
+  <dimension ref="A1:OR18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9570,12 +9570,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -9606,9 +9600,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>3.22</t>
@@ -9619,7 +9610,6 @@
           <t>3.03</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -9650,23 +9640,11 @@
           <t>2.75</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr">
         <is>
           <t>93</t>
@@ -9697,10 +9675,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
           <t>-1</t>
@@ -9731,18 +9705,6 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -9773,9 +9735,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU16" t="inlineStr"/>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
       <c r="BX16" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -9786,7 +9745,6 @@
           <t>2.20</t>
         </is>
       </c>
-      <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="inlineStr">
         <is>
           <t>2.23</t>
@@ -9817,23 +9775,11 @@
           <t>1.99</t>
         </is>
       </c>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
-      <c r="CJ16" t="inlineStr"/>
-      <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
-      <c r="CO16" t="inlineStr"/>
-      <c r="CP16" t="inlineStr"/>
-      <c r="CQ16" t="inlineStr"/>
       <c r="CR16" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="CS16" t="inlineStr"/>
       <c r="CT16" t="inlineStr">
         <is>
           <t>39</t>
@@ -9864,10 +9810,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="CZ16" t="inlineStr"/>
-      <c r="DA16" t="inlineStr"/>
-      <c r="DB16" t="inlineStr"/>
-      <c r="DC16" t="inlineStr"/>
       <c r="DD16" t="inlineStr">
         <is>
           <t>-2</t>
@@ -9898,36 +9840,11 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="DJ16" t="inlineStr"/>
-      <c r="DK16" t="inlineStr"/>
-      <c r="DL16" t="inlineStr"/>
-      <c r="DM16" t="inlineStr"/>
-      <c r="DN16" t="inlineStr"/>
-      <c r="DO16" t="inlineStr"/>
       <c r="DP16" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="DQ16" t="inlineStr"/>
-      <c r="DR16" t="inlineStr"/>
-      <c r="DS16" t="inlineStr"/>
-      <c r="DT16" t="inlineStr"/>
-      <c r="DU16" t="inlineStr"/>
-      <c r="DV16" t="inlineStr"/>
-      <c r="DW16" t="inlineStr"/>
-      <c r="DX16" t="inlineStr"/>
-      <c r="DY16" t="inlineStr"/>
-      <c r="DZ16" t="inlineStr"/>
-      <c r="EA16" t="inlineStr"/>
-      <c r="EB16" t="inlineStr"/>
-      <c r="EC16" t="inlineStr"/>
-      <c r="ED16" t="inlineStr"/>
-      <c r="EE16" t="inlineStr"/>
-      <c r="EF16" t="inlineStr"/>
-      <c r="EG16" t="inlineStr"/>
-      <c r="EH16" t="inlineStr"/>
-      <c r="EI16" t="inlineStr"/>
       <c r="EJ16" t="inlineStr">
         <is>
           <t>2.57</t>
@@ -9958,16 +9875,11 @@
           <t>1.69</t>
         </is>
       </c>
-      <c r="EP16" t="inlineStr"/>
-      <c r="EQ16" t="inlineStr"/>
-      <c r="ER16" t="inlineStr"/>
-      <c r="ES16" t="inlineStr"/>
       <c r="ET16" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="EU16" t="inlineStr"/>
       <c r="EV16" t="inlineStr">
         <is>
           <t>55</t>
@@ -9998,29 +9910,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="FB16" t="inlineStr"/>
-      <c r="FC16" t="inlineStr"/>
-      <c r="FD16" t="inlineStr"/>
-      <c r="FE16" t="inlineStr"/>
-      <c r="FF16" t="inlineStr"/>
-      <c r="FG16" t="inlineStr"/>
-      <c r="FH16" t="inlineStr"/>
-      <c r="FI16" t="inlineStr"/>
-      <c r="FJ16" t="inlineStr"/>
-      <c r="FK16" t="inlineStr"/>
-      <c r="FL16" t="inlineStr"/>
-      <c r="FM16" t="inlineStr"/>
-      <c r="FN16" t="inlineStr"/>
-      <c r="FO16" t="inlineStr"/>
-      <c r="FP16" t="inlineStr"/>
-      <c r="FQ16" t="inlineStr"/>
-      <c r="FR16" t="inlineStr"/>
-      <c r="FS16" t="inlineStr"/>
-      <c r="FT16" t="inlineStr"/>
-      <c r="FU16" t="inlineStr"/>
-      <c r="FV16" t="inlineStr"/>
-      <c r="FW16" t="inlineStr"/>
-      <c r="FX16" t="inlineStr"/>
       <c r="FY16" t="inlineStr">
         <is>
           <t>-4</t>
@@ -10051,51 +9940,6 @@
           <t>-24</t>
         </is>
       </c>
-      <c r="GE16" t="inlineStr"/>
-      <c r="GF16" t="inlineStr"/>
-      <c r="GG16" t="inlineStr"/>
-      <c r="GH16" t="inlineStr"/>
-      <c r="GI16" t="inlineStr"/>
-      <c r="GJ16" t="inlineStr"/>
-      <c r="GK16" t="inlineStr"/>
-      <c r="GL16" t="inlineStr"/>
-      <c r="GM16" t="inlineStr"/>
-      <c r="GN16" t="inlineStr"/>
-      <c r="GO16" t="inlineStr"/>
-      <c r="GP16" t="inlineStr"/>
-      <c r="GQ16" t="inlineStr"/>
-      <c r="GR16" t="inlineStr"/>
-      <c r="GS16" t="inlineStr"/>
-      <c r="GT16" t="inlineStr"/>
-      <c r="GU16" t="inlineStr"/>
-      <c r="GV16" t="inlineStr"/>
-      <c r="GW16" t="inlineStr"/>
-      <c r="GX16" t="inlineStr"/>
-      <c r="GY16" t="inlineStr"/>
-      <c r="GZ16" t="inlineStr"/>
-      <c r="HA16" t="inlineStr"/>
-      <c r="HB16" t="inlineStr"/>
-      <c r="HC16" t="inlineStr"/>
-      <c r="HD16" t="inlineStr"/>
-      <c r="HE16" t="inlineStr"/>
-      <c r="HF16" t="inlineStr"/>
-      <c r="HG16" t="inlineStr"/>
-      <c r="HH16" t="inlineStr"/>
-      <c r="HI16" t="inlineStr"/>
-      <c r="HJ16" t="inlineStr"/>
-      <c r="HK16" t="inlineStr"/>
-      <c r="HL16" t="inlineStr"/>
-      <c r="HM16" t="inlineStr"/>
-      <c r="HN16" t="inlineStr"/>
-      <c r="HO16" t="inlineStr"/>
-      <c r="HP16" t="inlineStr"/>
-      <c r="HQ16" t="inlineStr"/>
-      <c r="HR16" t="inlineStr"/>
-      <c r="HS16" t="inlineStr"/>
-      <c r="HT16" t="inlineStr"/>
-      <c r="HU16" t="inlineStr"/>
-      <c r="HV16" t="inlineStr"/>
-      <c r="HW16" t="inlineStr"/>
       <c r="HX16" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -10126,9 +9970,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID16" t="inlineStr"/>
-      <c r="IE16" t="inlineStr"/>
-      <c r="IF16" t="inlineStr"/>
       <c r="IG16" t="inlineStr">
         <is>
           <t>5.45</t>
@@ -10139,7 +9980,6 @@
           <t>9.33</t>
         </is>
       </c>
-      <c r="II16" t="inlineStr"/>
       <c r="IJ16" t="inlineStr">
         <is>
           <t>7.32</t>
@@ -10170,23 +10010,11 @@
           <t>7.31</t>
         </is>
       </c>
-      <c r="IP16" t="inlineStr"/>
-      <c r="IQ16" t="inlineStr"/>
-      <c r="IR16" t="inlineStr"/>
-      <c r="IS16" t="inlineStr"/>
-      <c r="IT16" t="inlineStr"/>
-      <c r="IU16" t="inlineStr"/>
-      <c r="IV16" t="inlineStr"/>
-      <c r="IW16" t="inlineStr"/>
-      <c r="IX16" t="inlineStr"/>
-      <c r="IY16" t="inlineStr"/>
-      <c r="IZ16" t="inlineStr"/>
       <c r="JA16" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="JB16" t="inlineStr"/>
       <c r="JC16" t="inlineStr">
         <is>
           <t>143</t>
@@ -10217,10 +10045,6 @@
           <t>134</t>
         </is>
       </c>
-      <c r="JI16" t="inlineStr"/>
-      <c r="JJ16" t="inlineStr"/>
-      <c r="JK16" t="inlineStr"/>
-      <c r="JL16" t="inlineStr"/>
       <c r="JM16" t="inlineStr">
         <is>
           <t>-9</t>
@@ -10251,136 +10075,1336 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="JS16" t="inlineStr"/>
-      <c r="JT16" t="inlineStr"/>
-      <c r="JU16" t="inlineStr"/>
-      <c r="JV16" t="inlineStr"/>
-      <c r="JW16" t="inlineStr"/>
-      <c r="JX16" t="inlineStr"/>
-      <c r="JY16" t="inlineStr"/>
-      <c r="JZ16" t="inlineStr"/>
-      <c r="KA16" t="inlineStr"/>
-      <c r="KB16" t="inlineStr"/>
-      <c r="KC16" t="inlineStr"/>
-      <c r="KD16" t="inlineStr"/>
-      <c r="KE16" t="inlineStr"/>
-      <c r="KF16" t="inlineStr"/>
-      <c r="KG16" t="inlineStr"/>
-      <c r="KH16" t="inlineStr"/>
-      <c r="KI16" t="inlineStr"/>
-      <c r="KJ16" t="inlineStr"/>
-      <c r="KK16" t="inlineStr"/>
-      <c r="KL16" t="inlineStr"/>
-      <c r="KM16" t="inlineStr"/>
-      <c r="KN16" t="inlineStr"/>
-      <c r="KO16" t="inlineStr"/>
-      <c r="KP16" t="inlineStr"/>
-      <c r="KQ16" t="inlineStr"/>
-      <c r="KR16" t="inlineStr"/>
-      <c r="KS16" t="inlineStr"/>
-      <c r="KT16" t="inlineStr"/>
-      <c r="KU16" t="inlineStr"/>
-      <c r="KV16" t="inlineStr"/>
-      <c r="KW16" t="inlineStr"/>
-      <c r="KX16" t="inlineStr"/>
-      <c r="KY16" t="inlineStr"/>
-      <c r="KZ16" t="inlineStr"/>
-      <c r="LA16" t="inlineStr"/>
-      <c r="LB16" t="inlineStr"/>
-      <c r="LC16" t="inlineStr"/>
-      <c r="LD16" t="inlineStr"/>
-      <c r="LE16" t="inlineStr"/>
-      <c r="LF16" t="inlineStr"/>
-      <c r="LG16" t="inlineStr"/>
-      <c r="LH16" t="inlineStr"/>
-      <c r="LI16" t="inlineStr"/>
-      <c r="LJ16" t="inlineStr"/>
-      <c r="LK16" t="inlineStr"/>
-      <c r="LL16" t="inlineStr"/>
-      <c r="LM16" t="inlineStr"/>
-      <c r="LN16" t="inlineStr"/>
-      <c r="LO16" t="inlineStr"/>
-      <c r="LP16" t="inlineStr"/>
-      <c r="LQ16" t="inlineStr"/>
-      <c r="LR16" t="inlineStr"/>
-      <c r="LS16" t="inlineStr"/>
-      <c r="LT16" t="inlineStr"/>
-      <c r="LU16" t="inlineStr"/>
-      <c r="LV16" t="inlineStr"/>
-      <c r="LW16" t="inlineStr"/>
-      <c r="LX16" t="inlineStr"/>
-      <c r="LY16" t="inlineStr"/>
-      <c r="LZ16" t="inlineStr"/>
-      <c r="MA16" t="inlineStr"/>
-      <c r="MB16" t="inlineStr"/>
-      <c r="MC16" t="inlineStr"/>
-      <c r="MD16" t="inlineStr"/>
-      <c r="ME16" t="inlineStr"/>
-      <c r="MF16" t="inlineStr"/>
-      <c r="MG16" t="inlineStr"/>
-      <c r="MH16" t="inlineStr"/>
-      <c r="MI16" t="inlineStr"/>
-      <c r="MJ16" t="inlineStr"/>
-      <c r="MK16" t="inlineStr"/>
-      <c r="ML16" t="inlineStr"/>
-      <c r="MM16" t="inlineStr"/>
-      <c r="MN16" t="inlineStr"/>
-      <c r="MO16" t="inlineStr"/>
-      <c r="MP16" t="inlineStr"/>
-      <c r="MQ16" t="inlineStr"/>
-      <c r="MR16" t="inlineStr"/>
-      <c r="MS16" t="inlineStr"/>
-      <c r="MT16" t="inlineStr"/>
-      <c r="MU16" t="inlineStr"/>
-      <c r="MV16" t="inlineStr"/>
-      <c r="MW16" t="inlineStr"/>
-      <c r="MX16" t="inlineStr"/>
-      <c r="MY16" t="inlineStr"/>
-      <c r="MZ16" t="inlineStr"/>
-      <c r="NA16" t="inlineStr"/>
-      <c r="NB16" t="inlineStr"/>
-      <c r="NC16" t="inlineStr"/>
-      <c r="ND16" t="inlineStr"/>
-      <c r="NE16" t="inlineStr"/>
-      <c r="NF16" t="inlineStr"/>
-      <c r="NG16" t="inlineStr"/>
-      <c r="NH16" t="inlineStr"/>
-      <c r="NI16" t="inlineStr"/>
-      <c r="NJ16" t="inlineStr"/>
-      <c r="NK16" t="inlineStr"/>
-      <c r="NL16" t="inlineStr"/>
-      <c r="NM16" t="inlineStr"/>
-      <c r="NN16" t="inlineStr"/>
-      <c r="NO16" t="inlineStr"/>
-      <c r="NP16" t="inlineStr"/>
-      <c r="NQ16" t="inlineStr"/>
-      <c r="NR16" t="inlineStr"/>
-      <c r="NS16" t="inlineStr"/>
-      <c r="NT16" t="inlineStr"/>
-      <c r="NU16" t="inlineStr"/>
-      <c r="NV16" t="inlineStr"/>
-      <c r="NW16" t="inlineStr"/>
-      <c r="NX16" t="inlineStr"/>
-      <c r="NY16" t="inlineStr"/>
-      <c r="NZ16" t="inlineStr"/>
-      <c r="OA16" t="inlineStr"/>
-      <c r="OB16" t="inlineStr"/>
-      <c r="OC16" t="inlineStr"/>
-      <c r="OD16" t="inlineStr"/>
-      <c r="OE16" t="inlineStr"/>
-      <c r="OF16" t="inlineStr"/>
-      <c r="OG16" t="inlineStr"/>
-      <c r="OH16" t="inlineStr"/>
-      <c r="OI16" t="inlineStr"/>
-      <c r="OJ16" t="inlineStr"/>
-      <c r="OK16" t="inlineStr"/>
-      <c r="OL16" t="inlineStr"/>
-      <c r="OM16" t="inlineStr"/>
-      <c r="ON16" t="inlineStr"/>
-      <c r="OO16" t="inlineStr"/>
-      <c r="OP16" t="inlineStr"/>
-      <c r="OQ16" t="inlineStr"/>
-      <c r="OR16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT17" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX17" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD17" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="DP17" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL17" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET17" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW17" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX17" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY17" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ17" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA17" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY17" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ17" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GA17" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="GB17" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GC17" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="GD17" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="HX17" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB17" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG17" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH17" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ17" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL17" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM17" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO17" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA17" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC17" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD17" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE17" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF17" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG17" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH17" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM17" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JN17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="JO17" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JP17" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ17" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JR17" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
+      <c r="CI18" t="inlineStr"/>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr"/>
+      <c r="CM18" t="inlineStr"/>
+      <c r="CN18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr"/>
+      <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr"/>
+      <c r="CR18" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CS18" t="inlineStr"/>
+      <c r="CT18" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW18" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX18" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY18" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="CZ18" t="inlineStr"/>
+      <c r="DA18" t="inlineStr"/>
+      <c r="DB18" t="inlineStr"/>
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="DJ18" t="inlineStr"/>
+      <c r="DK18" t="inlineStr"/>
+      <c r="DL18" t="inlineStr"/>
+      <c r="DM18" t="inlineStr"/>
+      <c r="DN18" t="inlineStr"/>
+      <c r="DO18" t="inlineStr"/>
+      <c r="DP18" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="DQ18" t="inlineStr"/>
+      <c r="DR18" t="inlineStr"/>
+      <c r="DS18" t="inlineStr"/>
+      <c r="DT18" t="inlineStr"/>
+      <c r="DU18" t="inlineStr"/>
+      <c r="DV18" t="inlineStr"/>
+      <c r="DW18" t="inlineStr"/>
+      <c r="DX18" t="inlineStr"/>
+      <c r="DY18" t="inlineStr"/>
+      <c r="DZ18" t="inlineStr"/>
+      <c r="EA18" t="inlineStr"/>
+      <c r="EB18" t="inlineStr"/>
+      <c r="EC18" t="inlineStr"/>
+      <c r="ED18" t="inlineStr"/>
+      <c r="EE18" t="inlineStr"/>
+      <c r="EF18" t="inlineStr"/>
+      <c r="EG18" t="inlineStr"/>
+      <c r="EH18" t="inlineStr"/>
+      <c r="EI18" t="inlineStr"/>
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EP18" t="inlineStr"/>
+      <c r="EQ18" t="inlineStr"/>
+      <c r="ER18" t="inlineStr"/>
+      <c r="ES18" t="inlineStr"/>
+      <c r="ET18" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EU18" t="inlineStr"/>
+      <c r="EV18" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW18" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX18" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY18" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ18" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA18" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FB18" t="inlineStr"/>
+      <c r="FC18" t="inlineStr"/>
+      <c r="FD18" t="inlineStr"/>
+      <c r="FE18" t="inlineStr"/>
+      <c r="FF18" t="inlineStr"/>
+      <c r="FG18" t="inlineStr"/>
+      <c r="FH18" t="inlineStr"/>
+      <c r="FI18" t="inlineStr"/>
+      <c r="FJ18" t="inlineStr"/>
+      <c r="FK18" t="inlineStr"/>
+      <c r="FL18" t="inlineStr"/>
+      <c r="FM18" t="inlineStr"/>
+      <c r="FN18" t="inlineStr"/>
+      <c r="FO18" t="inlineStr"/>
+      <c r="FP18" t="inlineStr"/>
+      <c r="FQ18" t="inlineStr"/>
+      <c r="FR18" t="inlineStr"/>
+      <c r="FS18" t="inlineStr"/>
+      <c r="FT18" t="inlineStr"/>
+      <c r="FU18" t="inlineStr"/>
+      <c r="FV18" t="inlineStr"/>
+      <c r="FW18" t="inlineStr"/>
+      <c r="FX18" t="inlineStr"/>
+      <c r="FY18" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ18" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GA18" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="GB18" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GC18" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="GD18" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="GE18" t="inlineStr"/>
+      <c r="GF18" t="inlineStr"/>
+      <c r="GG18" t="inlineStr"/>
+      <c r="GH18" t="inlineStr"/>
+      <c r="GI18" t="inlineStr"/>
+      <c r="GJ18" t="inlineStr"/>
+      <c r="GK18" t="inlineStr"/>
+      <c r="GL18" t="inlineStr"/>
+      <c r="GM18" t="inlineStr"/>
+      <c r="GN18" t="inlineStr"/>
+      <c r="GO18" t="inlineStr"/>
+      <c r="GP18" t="inlineStr"/>
+      <c r="GQ18" t="inlineStr"/>
+      <c r="GR18" t="inlineStr"/>
+      <c r="GS18" t="inlineStr"/>
+      <c r="GT18" t="inlineStr"/>
+      <c r="GU18" t="inlineStr"/>
+      <c r="GV18" t="inlineStr"/>
+      <c r="GW18" t="inlineStr"/>
+      <c r="GX18" t="inlineStr"/>
+      <c r="GY18" t="inlineStr"/>
+      <c r="GZ18" t="inlineStr"/>
+      <c r="HA18" t="inlineStr"/>
+      <c r="HB18" t="inlineStr"/>
+      <c r="HC18" t="inlineStr"/>
+      <c r="HD18" t="inlineStr"/>
+      <c r="HE18" t="inlineStr"/>
+      <c r="HF18" t="inlineStr"/>
+      <c r="HG18" t="inlineStr"/>
+      <c r="HH18" t="inlineStr"/>
+      <c r="HI18" t="inlineStr"/>
+      <c r="HJ18" t="inlineStr"/>
+      <c r="HK18" t="inlineStr"/>
+      <c r="HL18" t="inlineStr"/>
+      <c r="HM18" t="inlineStr"/>
+      <c r="HN18" t="inlineStr"/>
+      <c r="HO18" t="inlineStr"/>
+      <c r="HP18" t="inlineStr"/>
+      <c r="HQ18" t="inlineStr"/>
+      <c r="HR18" t="inlineStr"/>
+      <c r="HS18" t="inlineStr"/>
+      <c r="HT18" t="inlineStr"/>
+      <c r="HU18" t="inlineStr"/>
+      <c r="HV18" t="inlineStr"/>
+      <c r="HW18" t="inlineStr"/>
+      <c r="HX18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB18" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID18" t="inlineStr"/>
+      <c r="IE18" t="inlineStr"/>
+      <c r="IF18" t="inlineStr"/>
+      <c r="IG18" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH18" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="II18" t="inlineStr"/>
+      <c r="IJ18" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL18" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM18" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO18" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="IP18" t="inlineStr"/>
+      <c r="IQ18" t="inlineStr"/>
+      <c r="IR18" t="inlineStr"/>
+      <c r="IS18" t="inlineStr"/>
+      <c r="IT18" t="inlineStr"/>
+      <c r="IU18" t="inlineStr"/>
+      <c r="IV18" t="inlineStr"/>
+      <c r="IW18" t="inlineStr"/>
+      <c r="IX18" t="inlineStr"/>
+      <c r="IY18" t="inlineStr"/>
+      <c r="IZ18" t="inlineStr"/>
+      <c r="JA18" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JB18" t="inlineStr"/>
+      <c r="JC18" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD18" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE18" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF18" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG18" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH18" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JI18" t="inlineStr"/>
+      <c r="JJ18" t="inlineStr"/>
+      <c r="JK18" t="inlineStr"/>
+      <c r="JL18" t="inlineStr"/>
+      <c r="JM18" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JN18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="JO18" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JP18" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ18" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JR18" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="JS18" t="inlineStr"/>
+      <c r="JT18" t="inlineStr"/>
+      <c r="JU18" t="inlineStr"/>
+      <c r="JV18" t="inlineStr"/>
+      <c r="JW18" t="inlineStr"/>
+      <c r="JX18" t="inlineStr"/>
+      <c r="JY18" t="inlineStr"/>
+      <c r="JZ18" t="inlineStr"/>
+      <c r="KA18" t="inlineStr"/>
+      <c r="KB18" t="inlineStr"/>
+      <c r="KC18" t="inlineStr"/>
+      <c r="KD18" t="inlineStr"/>
+      <c r="KE18" t="inlineStr"/>
+      <c r="KF18" t="inlineStr"/>
+      <c r="KG18" t="inlineStr"/>
+      <c r="KH18" t="inlineStr"/>
+      <c r="KI18" t="inlineStr"/>
+      <c r="KJ18" t="inlineStr"/>
+      <c r="KK18" t="inlineStr"/>
+      <c r="KL18" t="inlineStr"/>
+      <c r="KM18" t="inlineStr"/>
+      <c r="KN18" t="inlineStr"/>
+      <c r="KO18" t="inlineStr"/>
+      <c r="KP18" t="inlineStr"/>
+      <c r="KQ18" t="inlineStr"/>
+      <c r="KR18" t="inlineStr"/>
+      <c r="KS18" t="inlineStr"/>
+      <c r="KT18" t="inlineStr"/>
+      <c r="KU18" t="inlineStr"/>
+      <c r="KV18" t="inlineStr"/>
+      <c r="KW18" t="inlineStr"/>
+      <c r="KX18" t="inlineStr"/>
+      <c r="KY18" t="inlineStr"/>
+      <c r="KZ18" t="inlineStr"/>
+      <c r="LA18" t="inlineStr"/>
+      <c r="LB18" t="inlineStr"/>
+      <c r="LC18" t="inlineStr"/>
+      <c r="LD18" t="inlineStr"/>
+      <c r="LE18" t="inlineStr"/>
+      <c r="LF18" t="inlineStr"/>
+      <c r="LG18" t="inlineStr"/>
+      <c r="LH18" t="inlineStr"/>
+      <c r="LI18" t="inlineStr"/>
+      <c r="LJ18" t="inlineStr"/>
+      <c r="LK18" t="inlineStr"/>
+      <c r="LL18" t="inlineStr"/>
+      <c r="LM18" t="inlineStr"/>
+      <c r="LN18" t="inlineStr"/>
+      <c r="LO18" t="inlineStr"/>
+      <c r="LP18" t="inlineStr"/>
+      <c r="LQ18" t="inlineStr"/>
+      <c r="LR18" t="inlineStr"/>
+      <c r="LS18" t="inlineStr"/>
+      <c r="LT18" t="inlineStr"/>
+      <c r="LU18" t="inlineStr"/>
+      <c r="LV18" t="inlineStr"/>
+      <c r="LW18" t="inlineStr"/>
+      <c r="LX18" t="inlineStr"/>
+      <c r="LY18" t="inlineStr"/>
+      <c r="LZ18" t="inlineStr"/>
+      <c r="MA18" t="inlineStr"/>
+      <c r="MB18" t="inlineStr"/>
+      <c r="MC18" t="inlineStr"/>
+      <c r="MD18" t="inlineStr"/>
+      <c r="ME18" t="inlineStr"/>
+      <c r="MF18" t="inlineStr"/>
+      <c r="MG18" t="inlineStr"/>
+      <c r="MH18" t="inlineStr"/>
+      <c r="MI18" t="inlineStr"/>
+      <c r="MJ18" t="inlineStr"/>
+      <c r="MK18" t="inlineStr"/>
+      <c r="ML18" t="inlineStr"/>
+      <c r="MM18" t="inlineStr"/>
+      <c r="MN18" t="inlineStr"/>
+      <c r="MO18" t="inlineStr"/>
+      <c r="MP18" t="inlineStr"/>
+      <c r="MQ18" t="inlineStr"/>
+      <c r="MR18" t="inlineStr"/>
+      <c r="MS18" t="inlineStr"/>
+      <c r="MT18" t="inlineStr"/>
+      <c r="MU18" t="inlineStr"/>
+      <c r="MV18" t="inlineStr"/>
+      <c r="MW18" t="inlineStr"/>
+      <c r="MX18" t="inlineStr"/>
+      <c r="MY18" t="inlineStr"/>
+      <c r="MZ18" t="inlineStr"/>
+      <c r="NA18" t="inlineStr"/>
+      <c r="NB18" t="inlineStr"/>
+      <c r="NC18" t="inlineStr"/>
+      <c r="ND18" t="inlineStr"/>
+      <c r="NE18" t="inlineStr"/>
+      <c r="NF18" t="inlineStr"/>
+      <c r="NG18" t="inlineStr"/>
+      <c r="NH18" t="inlineStr"/>
+      <c r="NI18" t="inlineStr"/>
+      <c r="NJ18" t="inlineStr"/>
+      <c r="NK18" t="inlineStr"/>
+      <c r="NL18" t="inlineStr"/>
+      <c r="NM18" t="inlineStr"/>
+      <c r="NN18" t="inlineStr"/>
+      <c r="NO18" t="inlineStr"/>
+      <c r="NP18" t="inlineStr"/>
+      <c r="NQ18" t="inlineStr"/>
+      <c r="NR18" t="inlineStr"/>
+      <c r="NS18" t="inlineStr"/>
+      <c r="NT18" t="inlineStr"/>
+      <c r="NU18" t="inlineStr"/>
+      <c r="NV18" t="inlineStr"/>
+      <c r="NW18" t="inlineStr"/>
+      <c r="NX18" t="inlineStr"/>
+      <c r="NY18" t="inlineStr"/>
+      <c r="NZ18" t="inlineStr"/>
+      <c r="OA18" t="inlineStr"/>
+      <c r="OB18" t="inlineStr"/>
+      <c r="OC18" t="inlineStr"/>
+      <c r="OD18" t="inlineStr"/>
+      <c r="OE18" t="inlineStr"/>
+      <c r="OF18" t="inlineStr"/>
+      <c r="OG18" t="inlineStr"/>
+      <c r="OH18" t="inlineStr"/>
+      <c r="OI18" t="inlineStr"/>
+      <c r="OJ18" t="inlineStr"/>
+      <c r="OK18" t="inlineStr"/>
+      <c r="OL18" t="inlineStr"/>
+      <c r="OM18" t="inlineStr"/>
+      <c r="ON18" t="inlineStr"/>
+      <c r="OO18" t="inlineStr"/>
+      <c r="OP18" t="inlineStr"/>
+      <c r="OQ18" t="inlineStr"/>
+      <c r="OR18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR24"/>
+  <dimension ref="A1:OR27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13666,12 +13666,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -13702,9 +13696,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>3.22</t>
@@ -13715,7 +13706,6 @@
           <t>3.03</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -13746,23 +13736,11 @@
           <t>2.75</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr">
         <is>
           <t>93</t>
@@ -13793,10 +13771,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
           <t>-1</t>
@@ -13827,18 +13801,6 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
-      <c r="BE24" t="inlineStr"/>
-      <c r="BF24" t="inlineStr"/>
-      <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr"/>
-      <c r="BI24" t="inlineStr"/>
-      <c r="BJ24" t="inlineStr"/>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
-      <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -13869,9 +13831,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU24" t="inlineStr"/>
-      <c r="BV24" t="inlineStr"/>
-      <c r="BW24" t="inlineStr"/>
       <c r="BX24" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -13882,7 +13841,6 @@
           <t>2.20</t>
         </is>
       </c>
-      <c r="BZ24" t="inlineStr"/>
       <c r="CA24" t="inlineStr">
         <is>
           <t>2.23</t>
@@ -13913,23 +13871,11 @@
           <t>1.99</t>
         </is>
       </c>
-      <c r="CG24" t="inlineStr"/>
-      <c r="CH24" t="inlineStr"/>
-      <c r="CI24" t="inlineStr"/>
-      <c r="CJ24" t="inlineStr"/>
-      <c r="CK24" t="inlineStr"/>
-      <c r="CL24" t="inlineStr"/>
-      <c r="CM24" t="inlineStr"/>
-      <c r="CN24" t="inlineStr"/>
-      <c r="CO24" t="inlineStr"/>
-      <c r="CP24" t="inlineStr"/>
-      <c r="CQ24" t="inlineStr"/>
       <c r="CR24" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="CS24" t="inlineStr"/>
       <c r="CT24" t="inlineStr">
         <is>
           <t>39</t>
@@ -13960,10 +13906,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="CZ24" t="inlineStr"/>
-      <c r="DA24" t="inlineStr"/>
-      <c r="DB24" t="inlineStr"/>
-      <c r="DC24" t="inlineStr"/>
       <c r="DD24" t="inlineStr">
         <is>
           <t>-2</t>
@@ -13994,36 +13936,11 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="DJ24" t="inlineStr"/>
-      <c r="DK24" t="inlineStr"/>
-      <c r="DL24" t="inlineStr"/>
-      <c r="DM24" t="inlineStr"/>
-      <c r="DN24" t="inlineStr"/>
-      <c r="DO24" t="inlineStr"/>
       <c r="DP24" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="DQ24" t="inlineStr"/>
-      <c r="DR24" t="inlineStr"/>
-      <c r="DS24" t="inlineStr"/>
-      <c r="DT24" t="inlineStr"/>
-      <c r="DU24" t="inlineStr"/>
-      <c r="DV24" t="inlineStr"/>
-      <c r="DW24" t="inlineStr"/>
-      <c r="DX24" t="inlineStr"/>
-      <c r="DY24" t="inlineStr"/>
-      <c r="DZ24" t="inlineStr"/>
-      <c r="EA24" t="inlineStr"/>
-      <c r="EB24" t="inlineStr"/>
-      <c r="EC24" t="inlineStr"/>
-      <c r="ED24" t="inlineStr"/>
-      <c r="EE24" t="inlineStr"/>
-      <c r="EF24" t="inlineStr"/>
-      <c r="EG24" t="inlineStr"/>
-      <c r="EH24" t="inlineStr"/>
-      <c r="EI24" t="inlineStr"/>
       <c r="EJ24" t="inlineStr">
         <is>
           <t>2.57</t>
@@ -14054,16 +13971,11 @@
           <t>1.69</t>
         </is>
       </c>
-      <c r="EP24" t="inlineStr"/>
-      <c r="EQ24" t="inlineStr"/>
-      <c r="ER24" t="inlineStr"/>
-      <c r="ES24" t="inlineStr"/>
       <c r="ET24" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="EU24" t="inlineStr"/>
       <c r="EV24" t="inlineStr">
         <is>
           <t>55</t>
@@ -14094,29 +14006,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="FB24" t="inlineStr"/>
-      <c r="FC24" t="inlineStr"/>
-      <c r="FD24" t="inlineStr"/>
-      <c r="FE24" t="inlineStr"/>
-      <c r="FF24" t="inlineStr"/>
-      <c r="FG24" t="inlineStr"/>
-      <c r="FH24" t="inlineStr"/>
-      <c r="FI24" t="inlineStr"/>
-      <c r="FJ24" t="inlineStr"/>
-      <c r="FK24" t="inlineStr"/>
-      <c r="FL24" t="inlineStr"/>
-      <c r="FM24" t="inlineStr"/>
-      <c r="FN24" t="inlineStr"/>
-      <c r="FO24" t="inlineStr"/>
-      <c r="FP24" t="inlineStr"/>
-      <c r="FQ24" t="inlineStr"/>
-      <c r="FR24" t="inlineStr"/>
-      <c r="FS24" t="inlineStr"/>
-      <c r="FT24" t="inlineStr"/>
-      <c r="FU24" t="inlineStr"/>
-      <c r="FV24" t="inlineStr"/>
-      <c r="FW24" t="inlineStr"/>
-      <c r="FX24" t="inlineStr"/>
       <c r="FY24" t="inlineStr">
         <is>
           <t>-4</t>
@@ -14147,51 +14036,6 @@
           <t>-24</t>
         </is>
       </c>
-      <c r="GE24" t="inlineStr"/>
-      <c r="GF24" t="inlineStr"/>
-      <c r="GG24" t="inlineStr"/>
-      <c r="GH24" t="inlineStr"/>
-      <c r="GI24" t="inlineStr"/>
-      <c r="GJ24" t="inlineStr"/>
-      <c r="GK24" t="inlineStr"/>
-      <c r="GL24" t="inlineStr"/>
-      <c r="GM24" t="inlineStr"/>
-      <c r="GN24" t="inlineStr"/>
-      <c r="GO24" t="inlineStr"/>
-      <c r="GP24" t="inlineStr"/>
-      <c r="GQ24" t="inlineStr"/>
-      <c r="GR24" t="inlineStr"/>
-      <c r="GS24" t="inlineStr"/>
-      <c r="GT24" t="inlineStr"/>
-      <c r="GU24" t="inlineStr"/>
-      <c r="GV24" t="inlineStr"/>
-      <c r="GW24" t="inlineStr"/>
-      <c r="GX24" t="inlineStr"/>
-      <c r="GY24" t="inlineStr"/>
-      <c r="GZ24" t="inlineStr"/>
-      <c r="HA24" t="inlineStr"/>
-      <c r="HB24" t="inlineStr"/>
-      <c r="HC24" t="inlineStr"/>
-      <c r="HD24" t="inlineStr"/>
-      <c r="HE24" t="inlineStr"/>
-      <c r="HF24" t="inlineStr"/>
-      <c r="HG24" t="inlineStr"/>
-      <c r="HH24" t="inlineStr"/>
-      <c r="HI24" t="inlineStr"/>
-      <c r="HJ24" t="inlineStr"/>
-      <c r="HK24" t="inlineStr"/>
-      <c r="HL24" t="inlineStr"/>
-      <c r="HM24" t="inlineStr"/>
-      <c r="HN24" t="inlineStr"/>
-      <c r="HO24" t="inlineStr"/>
-      <c r="HP24" t="inlineStr"/>
-      <c r="HQ24" t="inlineStr"/>
-      <c r="HR24" t="inlineStr"/>
-      <c r="HS24" t="inlineStr"/>
-      <c r="HT24" t="inlineStr"/>
-      <c r="HU24" t="inlineStr"/>
-      <c r="HV24" t="inlineStr"/>
-      <c r="HW24" t="inlineStr"/>
       <c r="HX24" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -14222,9 +14066,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID24" t="inlineStr"/>
-      <c r="IE24" t="inlineStr"/>
-      <c r="IF24" t="inlineStr"/>
       <c r="IG24" t="inlineStr">
         <is>
           <t>5.45</t>
@@ -14235,7 +14076,6 @@
           <t>9.33</t>
         </is>
       </c>
-      <c r="II24" t="inlineStr"/>
       <c r="IJ24" t="inlineStr">
         <is>
           <t>7.32</t>
@@ -14266,23 +14106,11 @@
           <t>7.31</t>
         </is>
       </c>
-      <c r="IP24" t="inlineStr"/>
-      <c r="IQ24" t="inlineStr"/>
-      <c r="IR24" t="inlineStr"/>
-      <c r="IS24" t="inlineStr"/>
-      <c r="IT24" t="inlineStr"/>
-      <c r="IU24" t="inlineStr"/>
-      <c r="IV24" t="inlineStr"/>
-      <c r="IW24" t="inlineStr"/>
-      <c r="IX24" t="inlineStr"/>
-      <c r="IY24" t="inlineStr"/>
-      <c r="IZ24" t="inlineStr"/>
       <c r="JA24" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="JB24" t="inlineStr"/>
       <c r="JC24" t="inlineStr">
         <is>
           <t>143</t>
@@ -14313,10 +14141,6 @@
           <t>134</t>
         </is>
       </c>
-      <c r="JI24" t="inlineStr"/>
-      <c r="JJ24" t="inlineStr"/>
-      <c r="JK24" t="inlineStr"/>
-      <c r="JL24" t="inlineStr"/>
       <c r="JM24" t="inlineStr">
         <is>
           <t>-9</t>
@@ -14347,136 +14171,1848 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="JS24" t="inlineStr"/>
-      <c r="JT24" t="inlineStr"/>
-      <c r="JU24" t="inlineStr"/>
-      <c r="JV24" t="inlineStr"/>
-      <c r="JW24" t="inlineStr"/>
-      <c r="JX24" t="inlineStr"/>
-      <c r="JY24" t="inlineStr"/>
-      <c r="JZ24" t="inlineStr"/>
-      <c r="KA24" t="inlineStr"/>
-      <c r="KB24" t="inlineStr"/>
-      <c r="KC24" t="inlineStr"/>
-      <c r="KD24" t="inlineStr"/>
-      <c r="KE24" t="inlineStr"/>
-      <c r="KF24" t="inlineStr"/>
-      <c r="KG24" t="inlineStr"/>
-      <c r="KH24" t="inlineStr"/>
-      <c r="KI24" t="inlineStr"/>
-      <c r="KJ24" t="inlineStr"/>
-      <c r="KK24" t="inlineStr"/>
-      <c r="KL24" t="inlineStr"/>
-      <c r="KM24" t="inlineStr"/>
-      <c r="KN24" t="inlineStr"/>
-      <c r="KO24" t="inlineStr"/>
-      <c r="KP24" t="inlineStr"/>
-      <c r="KQ24" t="inlineStr"/>
-      <c r="KR24" t="inlineStr"/>
-      <c r="KS24" t="inlineStr"/>
-      <c r="KT24" t="inlineStr"/>
-      <c r="KU24" t="inlineStr"/>
-      <c r="KV24" t="inlineStr"/>
-      <c r="KW24" t="inlineStr"/>
-      <c r="KX24" t="inlineStr"/>
-      <c r="KY24" t="inlineStr"/>
-      <c r="KZ24" t="inlineStr"/>
-      <c r="LA24" t="inlineStr"/>
-      <c r="LB24" t="inlineStr"/>
-      <c r="LC24" t="inlineStr"/>
-      <c r="LD24" t="inlineStr"/>
-      <c r="LE24" t="inlineStr"/>
-      <c r="LF24" t="inlineStr"/>
-      <c r="LG24" t="inlineStr"/>
-      <c r="LH24" t="inlineStr"/>
-      <c r="LI24" t="inlineStr"/>
-      <c r="LJ24" t="inlineStr"/>
-      <c r="LK24" t="inlineStr"/>
-      <c r="LL24" t="inlineStr"/>
-      <c r="LM24" t="inlineStr"/>
-      <c r="LN24" t="inlineStr"/>
-      <c r="LO24" t="inlineStr"/>
-      <c r="LP24" t="inlineStr"/>
-      <c r="LQ24" t="inlineStr"/>
-      <c r="LR24" t="inlineStr"/>
-      <c r="LS24" t="inlineStr"/>
-      <c r="LT24" t="inlineStr"/>
-      <c r="LU24" t="inlineStr"/>
-      <c r="LV24" t="inlineStr"/>
-      <c r="LW24" t="inlineStr"/>
-      <c r="LX24" t="inlineStr"/>
-      <c r="LY24" t="inlineStr"/>
-      <c r="LZ24" t="inlineStr"/>
-      <c r="MA24" t="inlineStr"/>
-      <c r="MB24" t="inlineStr"/>
-      <c r="MC24" t="inlineStr"/>
-      <c r="MD24" t="inlineStr"/>
-      <c r="ME24" t="inlineStr"/>
-      <c r="MF24" t="inlineStr"/>
-      <c r="MG24" t="inlineStr"/>
-      <c r="MH24" t="inlineStr"/>
-      <c r="MI24" t="inlineStr"/>
-      <c r="MJ24" t="inlineStr"/>
-      <c r="MK24" t="inlineStr"/>
-      <c r="ML24" t="inlineStr"/>
-      <c r="MM24" t="inlineStr"/>
-      <c r="MN24" t="inlineStr"/>
-      <c r="MO24" t="inlineStr"/>
-      <c r="MP24" t="inlineStr"/>
-      <c r="MQ24" t="inlineStr"/>
-      <c r="MR24" t="inlineStr"/>
-      <c r="MS24" t="inlineStr"/>
-      <c r="MT24" t="inlineStr"/>
-      <c r="MU24" t="inlineStr"/>
-      <c r="MV24" t="inlineStr"/>
-      <c r="MW24" t="inlineStr"/>
-      <c r="MX24" t="inlineStr"/>
-      <c r="MY24" t="inlineStr"/>
-      <c r="MZ24" t="inlineStr"/>
-      <c r="NA24" t="inlineStr"/>
-      <c r="NB24" t="inlineStr"/>
-      <c r="NC24" t="inlineStr"/>
-      <c r="ND24" t="inlineStr"/>
-      <c r="NE24" t="inlineStr"/>
-      <c r="NF24" t="inlineStr"/>
-      <c r="NG24" t="inlineStr"/>
-      <c r="NH24" t="inlineStr"/>
-      <c r="NI24" t="inlineStr"/>
-      <c r="NJ24" t="inlineStr"/>
-      <c r="NK24" t="inlineStr"/>
-      <c r="NL24" t="inlineStr"/>
-      <c r="NM24" t="inlineStr"/>
-      <c r="NN24" t="inlineStr"/>
-      <c r="NO24" t="inlineStr"/>
-      <c r="NP24" t="inlineStr"/>
-      <c r="NQ24" t="inlineStr"/>
-      <c r="NR24" t="inlineStr"/>
-      <c r="NS24" t="inlineStr"/>
-      <c r="NT24" t="inlineStr"/>
-      <c r="NU24" t="inlineStr"/>
-      <c r="NV24" t="inlineStr"/>
-      <c r="NW24" t="inlineStr"/>
-      <c r="NX24" t="inlineStr"/>
-      <c r="NY24" t="inlineStr"/>
-      <c r="NZ24" t="inlineStr"/>
-      <c r="OA24" t="inlineStr"/>
-      <c r="OB24" t="inlineStr"/>
-      <c r="OC24" t="inlineStr"/>
-      <c r="OD24" t="inlineStr"/>
-      <c r="OE24" t="inlineStr"/>
-      <c r="OF24" t="inlineStr"/>
-      <c r="OG24" t="inlineStr"/>
-      <c r="OH24" t="inlineStr"/>
-      <c r="OI24" t="inlineStr"/>
-      <c r="OJ24" t="inlineStr"/>
-      <c r="OK24" t="inlineStr"/>
-      <c r="OL24" t="inlineStr"/>
-      <c r="OM24" t="inlineStr"/>
-      <c r="ON24" t="inlineStr"/>
-      <c r="OO24" t="inlineStr"/>
-      <c r="OP24" t="inlineStr"/>
-      <c r="OQ24" t="inlineStr"/>
-      <c r="OR24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB25" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE25" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR25" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT25" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU25" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV25" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW25" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX25" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY25" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH25" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DI25" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="DP25" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL25" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM25" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN25" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO25" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET25" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV25" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW25" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX25" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY25" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ25" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA25" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY25" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ25" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GA25" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="GB25" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GC25" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="GD25" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="HX25" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ25" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA25" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB25" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC25" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG25" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH25" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ25" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL25" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM25" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO25" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA25" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC25" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD25" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE25" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF25" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG25" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH25" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM25" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JN25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="JO25" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JP25" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ25" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JR25" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT26" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX26" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CA26" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB26" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CR26" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CT26" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU26" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV26" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW26" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX26" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY26" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD26" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE26" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF26" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH26" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DI26" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="DP26" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="EJ26" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK26" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL26" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN26" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="ET26" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EV26" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW26" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX26" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY26" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ26" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA26" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FY26" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ26" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GA26" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="GB26" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GC26" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="GD26" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="HX26" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ26" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA26" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB26" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC26" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG26" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH26" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="IJ26" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL26" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM26" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN26" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO26" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="JA26" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JC26" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD26" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE26" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF26" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG26" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH26" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JM26" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JN26" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="JO26" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JP26" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ26" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JR26" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT27" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="BY27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="CB27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CC27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CD27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="CE27" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CF27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="CG27" t="inlineStr"/>
+      <c r="CH27" t="inlineStr"/>
+      <c r="CI27" t="inlineStr"/>
+      <c r="CJ27" t="inlineStr"/>
+      <c r="CK27" t="inlineStr"/>
+      <c r="CL27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr"/>
+      <c r="CP27" t="inlineStr"/>
+      <c r="CQ27" t="inlineStr"/>
+      <c r="CR27" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CS27" t="inlineStr"/>
+      <c r="CT27" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CU27" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CV27" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CW27" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="CX27" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CY27" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="CZ27" t="inlineStr"/>
+      <c r="DA27" t="inlineStr"/>
+      <c r="DB27" t="inlineStr"/>
+      <c r="DC27" t="inlineStr"/>
+      <c r="DD27" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE27" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF27" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH27" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DI27" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="DJ27" t="inlineStr"/>
+      <c r="DK27" t="inlineStr"/>
+      <c r="DL27" t="inlineStr"/>
+      <c r="DM27" t="inlineStr"/>
+      <c r="DN27" t="inlineStr"/>
+      <c r="DO27" t="inlineStr"/>
+      <c r="DP27" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="DQ27" t="inlineStr"/>
+      <c r="DR27" t="inlineStr"/>
+      <c r="DS27" t="inlineStr"/>
+      <c r="DT27" t="inlineStr"/>
+      <c r="DU27" t="inlineStr"/>
+      <c r="DV27" t="inlineStr"/>
+      <c r="DW27" t="inlineStr"/>
+      <c r="DX27" t="inlineStr"/>
+      <c r="DY27" t="inlineStr"/>
+      <c r="DZ27" t="inlineStr"/>
+      <c r="EA27" t="inlineStr"/>
+      <c r="EB27" t="inlineStr"/>
+      <c r="EC27" t="inlineStr"/>
+      <c r="ED27" t="inlineStr"/>
+      <c r="EE27" t="inlineStr"/>
+      <c r="EF27" t="inlineStr"/>
+      <c r="EG27" t="inlineStr"/>
+      <c r="EH27" t="inlineStr"/>
+      <c r="EI27" t="inlineStr"/>
+      <c r="EJ27" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="EK27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EL27" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="EM27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EN27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="EO27" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="EP27" t="inlineStr"/>
+      <c r="EQ27" t="inlineStr"/>
+      <c r="ER27" t="inlineStr"/>
+      <c r="ES27" t="inlineStr"/>
+      <c r="ET27" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EU27" t="inlineStr"/>
+      <c r="EV27" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="EW27" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EX27" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EY27" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EZ27" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="FA27" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="FB27" t="inlineStr"/>
+      <c r="FC27" t="inlineStr"/>
+      <c r="FD27" t="inlineStr"/>
+      <c r="FE27" t="inlineStr"/>
+      <c r="FF27" t="inlineStr"/>
+      <c r="FG27" t="inlineStr"/>
+      <c r="FH27" t="inlineStr"/>
+      <c r="FI27" t="inlineStr"/>
+      <c r="FJ27" t="inlineStr"/>
+      <c r="FK27" t="inlineStr"/>
+      <c r="FL27" t="inlineStr"/>
+      <c r="FM27" t="inlineStr"/>
+      <c r="FN27" t="inlineStr"/>
+      <c r="FO27" t="inlineStr"/>
+      <c r="FP27" t="inlineStr"/>
+      <c r="FQ27" t="inlineStr"/>
+      <c r="FR27" t="inlineStr"/>
+      <c r="FS27" t="inlineStr"/>
+      <c r="FT27" t="inlineStr"/>
+      <c r="FU27" t="inlineStr"/>
+      <c r="FV27" t="inlineStr"/>
+      <c r="FW27" t="inlineStr"/>
+      <c r="FX27" t="inlineStr"/>
+      <c r="FY27" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ27" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GA27" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="GB27" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GC27" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="GD27" t="inlineStr">
+        <is>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="GE27" t="inlineStr"/>
+      <c r="GF27" t="inlineStr"/>
+      <c r="GG27" t="inlineStr"/>
+      <c r="GH27" t="inlineStr"/>
+      <c r="GI27" t="inlineStr"/>
+      <c r="GJ27" t="inlineStr"/>
+      <c r="GK27" t="inlineStr"/>
+      <c r="GL27" t="inlineStr"/>
+      <c r="GM27" t="inlineStr"/>
+      <c r="GN27" t="inlineStr"/>
+      <c r="GO27" t="inlineStr"/>
+      <c r="GP27" t="inlineStr"/>
+      <c r="GQ27" t="inlineStr"/>
+      <c r="GR27" t="inlineStr"/>
+      <c r="GS27" t="inlineStr"/>
+      <c r="GT27" t="inlineStr"/>
+      <c r="GU27" t="inlineStr"/>
+      <c r="GV27" t="inlineStr"/>
+      <c r="GW27" t="inlineStr"/>
+      <c r="GX27" t="inlineStr"/>
+      <c r="GY27" t="inlineStr"/>
+      <c r="GZ27" t="inlineStr"/>
+      <c r="HA27" t="inlineStr"/>
+      <c r="HB27" t="inlineStr"/>
+      <c r="HC27" t="inlineStr"/>
+      <c r="HD27" t="inlineStr"/>
+      <c r="HE27" t="inlineStr"/>
+      <c r="HF27" t="inlineStr"/>
+      <c r="HG27" t="inlineStr"/>
+      <c r="HH27" t="inlineStr"/>
+      <c r="HI27" t="inlineStr"/>
+      <c r="HJ27" t="inlineStr"/>
+      <c r="HK27" t="inlineStr"/>
+      <c r="HL27" t="inlineStr"/>
+      <c r="HM27" t="inlineStr"/>
+      <c r="HN27" t="inlineStr"/>
+      <c r="HO27" t="inlineStr"/>
+      <c r="HP27" t="inlineStr"/>
+      <c r="HQ27" t="inlineStr"/>
+      <c r="HR27" t="inlineStr"/>
+      <c r="HS27" t="inlineStr"/>
+      <c r="HT27" t="inlineStr"/>
+      <c r="HU27" t="inlineStr"/>
+      <c r="HV27" t="inlineStr"/>
+      <c r="HW27" t="inlineStr"/>
+      <c r="HX27" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA27" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB27" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC27" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID27" t="inlineStr"/>
+      <c r="IE27" t="inlineStr"/>
+      <c r="IF27" t="inlineStr"/>
+      <c r="IG27" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="IH27" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="II27" t="inlineStr"/>
+      <c r="IJ27" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="IK27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="IL27" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="IM27" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IN27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="IO27" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="IP27" t="inlineStr"/>
+      <c r="IQ27" t="inlineStr"/>
+      <c r="IR27" t="inlineStr"/>
+      <c r="IS27" t="inlineStr"/>
+      <c r="IT27" t="inlineStr"/>
+      <c r="IU27" t="inlineStr"/>
+      <c r="IV27" t="inlineStr"/>
+      <c r="IW27" t="inlineStr"/>
+      <c r="IX27" t="inlineStr"/>
+      <c r="IY27" t="inlineStr"/>
+      <c r="IZ27" t="inlineStr"/>
+      <c r="JA27" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JB27" t="inlineStr"/>
+      <c r="JC27" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="JD27" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="JE27" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JF27" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="JG27" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="JH27" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="JI27" t="inlineStr"/>
+      <c r="JJ27" t="inlineStr"/>
+      <c r="JK27" t="inlineStr"/>
+      <c r="JL27" t="inlineStr"/>
+      <c r="JM27" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JN27" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="JO27" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JP27" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ27" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JR27" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="JS27" t="inlineStr"/>
+      <c r="JT27" t="inlineStr"/>
+      <c r="JU27" t="inlineStr"/>
+      <c r="JV27" t="inlineStr"/>
+      <c r="JW27" t="inlineStr"/>
+      <c r="JX27" t="inlineStr"/>
+      <c r="JY27" t="inlineStr"/>
+      <c r="JZ27" t="inlineStr"/>
+      <c r="KA27" t="inlineStr"/>
+      <c r="KB27" t="inlineStr"/>
+      <c r="KC27" t="inlineStr"/>
+      <c r="KD27" t="inlineStr"/>
+      <c r="KE27" t="inlineStr"/>
+      <c r="KF27" t="inlineStr"/>
+      <c r="KG27" t="inlineStr"/>
+      <c r="KH27" t="inlineStr"/>
+      <c r="KI27" t="inlineStr"/>
+      <c r="KJ27" t="inlineStr"/>
+      <c r="KK27" t="inlineStr"/>
+      <c r="KL27" t="inlineStr"/>
+      <c r="KM27" t="inlineStr"/>
+      <c r="KN27" t="inlineStr"/>
+      <c r="KO27" t="inlineStr"/>
+      <c r="KP27" t="inlineStr"/>
+      <c r="KQ27" t="inlineStr"/>
+      <c r="KR27" t="inlineStr"/>
+      <c r="KS27" t="inlineStr"/>
+      <c r="KT27" t="inlineStr"/>
+      <c r="KU27" t="inlineStr"/>
+      <c r="KV27" t="inlineStr"/>
+      <c r="KW27" t="inlineStr"/>
+      <c r="KX27" t="inlineStr"/>
+      <c r="KY27" t="inlineStr"/>
+      <c r="KZ27" t="inlineStr"/>
+      <c r="LA27" t="inlineStr"/>
+      <c r="LB27" t="inlineStr"/>
+      <c r="LC27" t="inlineStr"/>
+      <c r="LD27" t="inlineStr"/>
+      <c r="LE27" t="inlineStr"/>
+      <c r="LF27" t="inlineStr"/>
+      <c r="LG27" t="inlineStr"/>
+      <c r="LH27" t="inlineStr"/>
+      <c r="LI27" t="inlineStr"/>
+      <c r="LJ27" t="inlineStr"/>
+      <c r="LK27" t="inlineStr"/>
+      <c r="LL27" t="inlineStr"/>
+      <c r="LM27" t="inlineStr"/>
+      <c r="LN27" t="inlineStr"/>
+      <c r="LO27" t="inlineStr"/>
+      <c r="LP27" t="inlineStr"/>
+      <c r="LQ27" t="inlineStr"/>
+      <c r="LR27" t="inlineStr"/>
+      <c r="LS27" t="inlineStr"/>
+      <c r="LT27" t="inlineStr"/>
+      <c r="LU27" t="inlineStr"/>
+      <c r="LV27" t="inlineStr"/>
+      <c r="LW27" t="inlineStr"/>
+      <c r="LX27" t="inlineStr"/>
+      <c r="LY27" t="inlineStr"/>
+      <c r="LZ27" t="inlineStr"/>
+      <c r="MA27" t="inlineStr"/>
+      <c r="MB27" t="inlineStr"/>
+      <c r="MC27" t="inlineStr"/>
+      <c r="MD27" t="inlineStr"/>
+      <c r="ME27" t="inlineStr"/>
+      <c r="MF27" t="inlineStr"/>
+      <c r="MG27" t="inlineStr"/>
+      <c r="MH27" t="inlineStr"/>
+      <c r="MI27" t="inlineStr"/>
+      <c r="MJ27" t="inlineStr"/>
+      <c r="MK27" t="inlineStr"/>
+      <c r="ML27" t="inlineStr"/>
+      <c r="MM27" t="inlineStr"/>
+      <c r="MN27" t="inlineStr"/>
+      <c r="MO27" t="inlineStr"/>
+      <c r="MP27" t="inlineStr"/>
+      <c r="MQ27" t="inlineStr"/>
+      <c r="MR27" t="inlineStr"/>
+      <c r="MS27" t="inlineStr"/>
+      <c r="MT27" t="inlineStr"/>
+      <c r="MU27" t="inlineStr"/>
+      <c r="MV27" t="inlineStr"/>
+      <c r="MW27" t="inlineStr"/>
+      <c r="MX27" t="inlineStr"/>
+      <c r="MY27" t="inlineStr"/>
+      <c r="MZ27" t="inlineStr"/>
+      <c r="NA27" t="inlineStr"/>
+      <c r="NB27" t="inlineStr"/>
+      <c r="NC27" t="inlineStr"/>
+      <c r="ND27" t="inlineStr"/>
+      <c r="NE27" t="inlineStr"/>
+      <c r="NF27" t="inlineStr"/>
+      <c r="NG27" t="inlineStr"/>
+      <c r="NH27" t="inlineStr"/>
+      <c r="NI27" t="inlineStr"/>
+      <c r="NJ27" t="inlineStr"/>
+      <c r="NK27" t="inlineStr"/>
+      <c r="NL27" t="inlineStr"/>
+      <c r="NM27" t="inlineStr"/>
+      <c r="NN27" t="inlineStr"/>
+      <c r="NO27" t="inlineStr"/>
+      <c r="NP27" t="inlineStr"/>
+      <c r="NQ27" t="inlineStr"/>
+      <c r="NR27" t="inlineStr"/>
+      <c r="NS27" t="inlineStr"/>
+      <c r="NT27" t="inlineStr"/>
+      <c r="NU27" t="inlineStr"/>
+      <c r="NV27" t="inlineStr"/>
+      <c r="NW27" t="inlineStr"/>
+      <c r="NX27" t="inlineStr"/>
+      <c r="NY27" t="inlineStr"/>
+      <c r="NZ27" t="inlineStr"/>
+      <c r="OA27" t="inlineStr"/>
+      <c r="OB27" t="inlineStr"/>
+      <c r="OC27" t="inlineStr"/>
+      <c r="OD27" t="inlineStr"/>
+      <c r="OE27" t="inlineStr"/>
+      <c r="OF27" t="inlineStr"/>
+      <c r="OG27" t="inlineStr"/>
+      <c r="OH27" t="inlineStr"/>
+      <c r="OI27" t="inlineStr"/>
+      <c r="OJ27" t="inlineStr"/>
+      <c r="OK27" t="inlineStr"/>
+      <c r="OL27" t="inlineStr"/>
+      <c r="OM27" t="inlineStr"/>
+      <c r="ON27" t="inlineStr"/>
+      <c r="OO27" t="inlineStr"/>
+      <c r="OP27" t="inlineStr"/>
+      <c r="OQ27" t="inlineStr"/>
+      <c r="OR27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR27"/>
+  <dimension ref="A1:OR30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15202,12 +15202,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -15238,9 +15232,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
           <t>3.22</t>
@@ -15251,7 +15242,6 @@
           <t>3.03</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -15282,23 +15272,11 @@
           <t>2.75</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr">
         <is>
           <t>93</t>
@@ -15329,10 +15307,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
           <t>-1</t>
@@ -15363,18 +15337,6 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
-      <c r="BE27" t="inlineStr"/>
-      <c r="BF27" t="inlineStr"/>
-      <c r="BG27" t="inlineStr"/>
-      <c r="BH27" t="inlineStr"/>
-      <c r="BI27" t="inlineStr"/>
-      <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="inlineStr"/>
-      <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr"/>
-      <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -15405,9 +15367,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU27" t="inlineStr"/>
-      <c r="BV27" t="inlineStr"/>
-      <c r="BW27" t="inlineStr"/>
       <c r="BX27" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -15418,7 +15377,6 @@
           <t>2.20</t>
         </is>
       </c>
-      <c r="BZ27" t="inlineStr"/>
       <c r="CA27" t="inlineStr">
         <is>
           <t>2.23</t>
@@ -15449,23 +15407,11 @@
           <t>1.99</t>
         </is>
       </c>
-      <c r="CG27" t="inlineStr"/>
-      <c r="CH27" t="inlineStr"/>
-      <c r="CI27" t="inlineStr"/>
-      <c r="CJ27" t="inlineStr"/>
-      <c r="CK27" t="inlineStr"/>
-      <c r="CL27" t="inlineStr"/>
-      <c r="CM27" t="inlineStr"/>
-      <c r="CN27" t="inlineStr"/>
-      <c r="CO27" t="inlineStr"/>
-      <c r="CP27" t="inlineStr"/>
-      <c r="CQ27" t="inlineStr"/>
       <c r="CR27" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="CS27" t="inlineStr"/>
       <c r="CT27" t="inlineStr">
         <is>
           <t>39</t>
@@ -15496,10 +15442,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="CZ27" t="inlineStr"/>
-      <c r="DA27" t="inlineStr"/>
-      <c r="DB27" t="inlineStr"/>
-      <c r="DC27" t="inlineStr"/>
       <c r="DD27" t="inlineStr">
         <is>
           <t>-2</t>
@@ -15530,36 +15472,11 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="DJ27" t="inlineStr"/>
-      <c r="DK27" t="inlineStr"/>
-      <c r="DL27" t="inlineStr"/>
-      <c r="DM27" t="inlineStr"/>
-      <c r="DN27" t="inlineStr"/>
-      <c r="DO27" t="inlineStr"/>
       <c r="DP27" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="DQ27" t="inlineStr"/>
-      <c r="DR27" t="inlineStr"/>
-      <c r="DS27" t="inlineStr"/>
-      <c r="DT27" t="inlineStr"/>
-      <c r="DU27" t="inlineStr"/>
-      <c r="DV27" t="inlineStr"/>
-      <c r="DW27" t="inlineStr"/>
-      <c r="DX27" t="inlineStr"/>
-      <c r="DY27" t="inlineStr"/>
-      <c r="DZ27" t="inlineStr"/>
-      <c r="EA27" t="inlineStr"/>
-      <c r="EB27" t="inlineStr"/>
-      <c r="EC27" t="inlineStr"/>
-      <c r="ED27" t="inlineStr"/>
-      <c r="EE27" t="inlineStr"/>
-      <c r="EF27" t="inlineStr"/>
-      <c r="EG27" t="inlineStr"/>
-      <c r="EH27" t="inlineStr"/>
-      <c r="EI27" t="inlineStr"/>
       <c r="EJ27" t="inlineStr">
         <is>
           <t>2.57</t>
@@ -15590,16 +15507,11 @@
           <t>1.69</t>
         </is>
       </c>
-      <c r="EP27" t="inlineStr"/>
-      <c r="EQ27" t="inlineStr"/>
-      <c r="ER27" t="inlineStr"/>
-      <c r="ES27" t="inlineStr"/>
       <c r="ET27" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="EU27" t="inlineStr"/>
       <c r="EV27" t="inlineStr">
         <is>
           <t>55</t>
@@ -15630,29 +15542,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="FB27" t="inlineStr"/>
-      <c r="FC27" t="inlineStr"/>
-      <c r="FD27" t="inlineStr"/>
-      <c r="FE27" t="inlineStr"/>
-      <c r="FF27" t="inlineStr"/>
-      <c r="FG27" t="inlineStr"/>
-      <c r="FH27" t="inlineStr"/>
-      <c r="FI27" t="inlineStr"/>
-      <c r="FJ27" t="inlineStr"/>
-      <c r="FK27" t="inlineStr"/>
-      <c r="FL27" t="inlineStr"/>
-      <c r="FM27" t="inlineStr"/>
-      <c r="FN27" t="inlineStr"/>
-      <c r="FO27" t="inlineStr"/>
-      <c r="FP27" t="inlineStr"/>
-      <c r="FQ27" t="inlineStr"/>
-      <c r="FR27" t="inlineStr"/>
-      <c r="FS27" t="inlineStr"/>
-      <c r="FT27" t="inlineStr"/>
-      <c r="FU27" t="inlineStr"/>
-      <c r="FV27" t="inlineStr"/>
-      <c r="FW27" t="inlineStr"/>
-      <c r="FX27" t="inlineStr"/>
       <c r="FY27" t="inlineStr">
         <is>
           <t>-4</t>
@@ -15683,51 +15572,6 @@
           <t>-24</t>
         </is>
       </c>
-      <c r="GE27" t="inlineStr"/>
-      <c r="GF27" t="inlineStr"/>
-      <c r="GG27" t="inlineStr"/>
-      <c r="GH27" t="inlineStr"/>
-      <c r="GI27" t="inlineStr"/>
-      <c r="GJ27" t="inlineStr"/>
-      <c r="GK27" t="inlineStr"/>
-      <c r="GL27" t="inlineStr"/>
-      <c r="GM27" t="inlineStr"/>
-      <c r="GN27" t="inlineStr"/>
-      <c r="GO27" t="inlineStr"/>
-      <c r="GP27" t="inlineStr"/>
-      <c r="GQ27" t="inlineStr"/>
-      <c r="GR27" t="inlineStr"/>
-      <c r="GS27" t="inlineStr"/>
-      <c r="GT27" t="inlineStr"/>
-      <c r="GU27" t="inlineStr"/>
-      <c r="GV27" t="inlineStr"/>
-      <c r="GW27" t="inlineStr"/>
-      <c r="GX27" t="inlineStr"/>
-      <c r="GY27" t="inlineStr"/>
-      <c r="GZ27" t="inlineStr"/>
-      <c r="HA27" t="inlineStr"/>
-      <c r="HB27" t="inlineStr"/>
-      <c r="HC27" t="inlineStr"/>
-      <c r="HD27" t="inlineStr"/>
-      <c r="HE27" t="inlineStr"/>
-      <c r="HF27" t="inlineStr"/>
-      <c r="HG27" t="inlineStr"/>
-      <c r="HH27" t="inlineStr"/>
-      <c r="HI27" t="inlineStr"/>
-      <c r="HJ27" t="inlineStr"/>
-      <c r="HK27" t="inlineStr"/>
-      <c r="HL27" t="inlineStr"/>
-      <c r="HM27" t="inlineStr"/>
-      <c r="HN27" t="inlineStr"/>
-      <c r="HO27" t="inlineStr"/>
-      <c r="HP27" t="inlineStr"/>
-      <c r="HQ27" t="inlineStr"/>
-      <c r="HR27" t="inlineStr"/>
-      <c r="HS27" t="inlineStr"/>
-      <c r="HT27" t="inlineStr"/>
-      <c r="HU27" t="inlineStr"/>
-      <c r="HV27" t="inlineStr"/>
-      <c r="HW27" t="inlineStr"/>
       <c r="HX27" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -15758,9 +15602,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID27" t="inlineStr"/>
-      <c r="IE27" t="inlineStr"/>
-      <c r="IF27" t="inlineStr"/>
       <c r="IG27" t="inlineStr">
         <is>
           <t>5.45</t>
@@ -15771,7 +15612,6 @@
           <t>9.33</t>
         </is>
       </c>
-      <c r="II27" t="inlineStr"/>
       <c r="IJ27" t="inlineStr">
         <is>
           <t>7.32</t>
@@ -15802,23 +15642,11 @@
           <t>7.31</t>
         </is>
       </c>
-      <c r="IP27" t="inlineStr"/>
-      <c r="IQ27" t="inlineStr"/>
-      <c r="IR27" t="inlineStr"/>
-      <c r="IS27" t="inlineStr"/>
-      <c r="IT27" t="inlineStr"/>
-      <c r="IU27" t="inlineStr"/>
-      <c r="IV27" t="inlineStr"/>
-      <c r="IW27" t="inlineStr"/>
-      <c r="IX27" t="inlineStr"/>
-      <c r="IY27" t="inlineStr"/>
-      <c r="IZ27" t="inlineStr"/>
       <c r="JA27" t="inlineStr">
         <is>
           <t>153</t>
         </is>
       </c>
-      <c r="JB27" t="inlineStr"/>
       <c r="JC27" t="inlineStr">
         <is>
           <t>143</t>
@@ -15849,10 +15677,6 @@
           <t>134</t>
         </is>
       </c>
-      <c r="JI27" t="inlineStr"/>
-      <c r="JJ27" t="inlineStr"/>
-      <c r="JK27" t="inlineStr"/>
-      <c r="JL27" t="inlineStr"/>
       <c r="JM27" t="inlineStr">
         <is>
           <t>-9</t>
@@ -15883,136 +15707,2464 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="JS27" t="inlineStr"/>
-      <c r="JT27" t="inlineStr"/>
-      <c r="JU27" t="inlineStr"/>
-      <c r="JV27" t="inlineStr"/>
-      <c r="JW27" t="inlineStr"/>
-      <c r="JX27" t="inlineStr"/>
-      <c r="JY27" t="inlineStr"/>
-      <c r="JZ27" t="inlineStr"/>
-      <c r="KA27" t="inlineStr"/>
-      <c r="KB27" t="inlineStr"/>
-      <c r="KC27" t="inlineStr"/>
-      <c r="KD27" t="inlineStr"/>
-      <c r="KE27" t="inlineStr"/>
-      <c r="KF27" t="inlineStr"/>
-      <c r="KG27" t="inlineStr"/>
-      <c r="KH27" t="inlineStr"/>
-      <c r="KI27" t="inlineStr"/>
-      <c r="KJ27" t="inlineStr"/>
-      <c r="KK27" t="inlineStr"/>
-      <c r="KL27" t="inlineStr"/>
-      <c r="KM27" t="inlineStr"/>
-      <c r="KN27" t="inlineStr"/>
-      <c r="KO27" t="inlineStr"/>
-      <c r="KP27" t="inlineStr"/>
-      <c r="KQ27" t="inlineStr"/>
-      <c r="KR27" t="inlineStr"/>
-      <c r="KS27" t="inlineStr"/>
-      <c r="KT27" t="inlineStr"/>
-      <c r="KU27" t="inlineStr"/>
-      <c r="KV27" t="inlineStr"/>
-      <c r="KW27" t="inlineStr"/>
-      <c r="KX27" t="inlineStr"/>
-      <c r="KY27" t="inlineStr"/>
-      <c r="KZ27" t="inlineStr"/>
-      <c r="LA27" t="inlineStr"/>
-      <c r="LB27" t="inlineStr"/>
-      <c r="LC27" t="inlineStr"/>
-      <c r="LD27" t="inlineStr"/>
-      <c r="LE27" t="inlineStr"/>
-      <c r="LF27" t="inlineStr"/>
-      <c r="LG27" t="inlineStr"/>
-      <c r="LH27" t="inlineStr"/>
-      <c r="LI27" t="inlineStr"/>
-      <c r="LJ27" t="inlineStr"/>
-      <c r="LK27" t="inlineStr"/>
-      <c r="LL27" t="inlineStr"/>
-      <c r="LM27" t="inlineStr"/>
-      <c r="LN27" t="inlineStr"/>
-      <c r="LO27" t="inlineStr"/>
-      <c r="LP27" t="inlineStr"/>
-      <c r="LQ27" t="inlineStr"/>
-      <c r="LR27" t="inlineStr"/>
-      <c r="LS27" t="inlineStr"/>
-      <c r="LT27" t="inlineStr"/>
-      <c r="LU27" t="inlineStr"/>
-      <c r="LV27" t="inlineStr"/>
-      <c r="LW27" t="inlineStr"/>
-      <c r="LX27" t="inlineStr"/>
-      <c r="LY27" t="inlineStr"/>
-      <c r="LZ27" t="inlineStr"/>
-      <c r="MA27" t="inlineStr"/>
-      <c r="MB27" t="inlineStr"/>
-      <c r="MC27" t="inlineStr"/>
-      <c r="MD27" t="inlineStr"/>
-      <c r="ME27" t="inlineStr"/>
-      <c r="MF27" t="inlineStr"/>
-      <c r="MG27" t="inlineStr"/>
-      <c r="MH27" t="inlineStr"/>
-      <c r="MI27" t="inlineStr"/>
-      <c r="MJ27" t="inlineStr"/>
-      <c r="MK27" t="inlineStr"/>
-      <c r="ML27" t="inlineStr"/>
-      <c r="MM27" t="inlineStr"/>
-      <c r="MN27" t="inlineStr"/>
-      <c r="MO27" t="inlineStr"/>
-      <c r="MP27" t="inlineStr"/>
-      <c r="MQ27" t="inlineStr"/>
-      <c r="MR27" t="inlineStr"/>
-      <c r="MS27" t="inlineStr"/>
-      <c r="MT27" t="inlineStr"/>
-      <c r="MU27" t="inlineStr"/>
-      <c r="MV27" t="inlineStr"/>
-      <c r="MW27" t="inlineStr"/>
-      <c r="MX27" t="inlineStr"/>
-      <c r="MY27" t="inlineStr"/>
-      <c r="MZ27" t="inlineStr"/>
-      <c r="NA27" t="inlineStr"/>
-      <c r="NB27" t="inlineStr"/>
-      <c r="NC27" t="inlineStr"/>
-      <c r="ND27" t="inlineStr"/>
-      <c r="NE27" t="inlineStr"/>
-      <c r="NF27" t="inlineStr"/>
-      <c r="NG27" t="inlineStr"/>
-      <c r="NH27" t="inlineStr"/>
-      <c r="NI27" t="inlineStr"/>
-      <c r="NJ27" t="inlineStr"/>
-      <c r="NK27" t="inlineStr"/>
-      <c r="NL27" t="inlineStr"/>
-      <c r="NM27" t="inlineStr"/>
-      <c r="NN27" t="inlineStr"/>
-      <c r="NO27" t="inlineStr"/>
-      <c r="NP27" t="inlineStr"/>
-      <c r="NQ27" t="inlineStr"/>
-      <c r="NR27" t="inlineStr"/>
-      <c r="NS27" t="inlineStr"/>
-      <c r="NT27" t="inlineStr"/>
-      <c r="NU27" t="inlineStr"/>
-      <c r="NV27" t="inlineStr"/>
-      <c r="NW27" t="inlineStr"/>
-      <c r="NX27" t="inlineStr"/>
-      <c r="NY27" t="inlineStr"/>
-      <c r="NZ27" t="inlineStr"/>
-      <c r="OA27" t="inlineStr"/>
-      <c r="OB27" t="inlineStr"/>
-      <c r="OC27" t="inlineStr"/>
-      <c r="OD27" t="inlineStr"/>
-      <c r="OE27" t="inlineStr"/>
-      <c r="OF27" t="inlineStr"/>
-      <c r="OG27" t="inlineStr"/>
-      <c r="OH27" t="inlineStr"/>
-      <c r="OI27" t="inlineStr"/>
-      <c r="OJ27" t="inlineStr"/>
-      <c r="OK27" t="inlineStr"/>
-      <c r="OL27" t="inlineStr"/>
-      <c r="OM27" t="inlineStr"/>
-      <c r="ON27" t="inlineStr"/>
-      <c r="OO27" t="inlineStr"/>
-      <c r="OP27" t="inlineStr"/>
-      <c r="OQ27" t="inlineStr"/>
-      <c r="OR27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT28" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV28" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX28" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BY28" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="CA28" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="CB28" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CC28" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="CD28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="CE28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="CF28" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CG28" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="CH28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CI28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="CR28" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CT28" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="CU28" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CV28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CW28" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="CX28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CY28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CZ28" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="DA28" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="DB28" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="DD28" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DF28" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG28" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DI28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DJ28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DL28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EJ28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="EK28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="EL28" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="EM28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="EN28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="EO28" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="EP28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="EQ28" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="ER28" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="ET28" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="EV28" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="EW28" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="EX28" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EY28" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EZ28" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="FA28" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="FB28" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="FC28" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FD28" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FY28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FZ28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="GA28" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GB28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GC28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="GD28" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="GE28" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="GF28" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="GG28" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="HX28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ28" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA28" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB28" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC28" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID28" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE28" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF28" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG28" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="IH28" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="IJ28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="IK28" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="IL28" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="IM28" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="IN28" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="IO28" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="IP28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="IQ28" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="IR28" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="JA28" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JC28" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JD28" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="JE28" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="JF28" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="JG28" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="JH28" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="JI28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="JJ28" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JK28" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JM28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JN28" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JO28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="JP28" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JQ28" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="JR28" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="JS28" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="JT28" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="JU28" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV29" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW29" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX29" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BY29" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="CA29" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="CB29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CC29" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="CD29" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="CE29" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="CF29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CG29" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="CH29" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CI29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="CR29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CT29" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="CU29" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CV29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CW29" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="CX29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CY29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CZ29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="DA29" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="DB29" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="DD29" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DF29" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG29" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DI29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DJ29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DL29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EJ29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="EK29" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="EL29" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="EM29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="EN29" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="EO29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="EP29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="EQ29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="ER29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="ET29" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="EV29" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="EW29" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="EX29" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EY29" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EZ29" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="FA29" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="FB29" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="FC29" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FD29" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FY29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FZ29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="GA29" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GB29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GC29" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="GD29" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="GE29" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="GF29" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="GG29" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="HX29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA29" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB29" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC29" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID29" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE29" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF29" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG29" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="IH29" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="IJ29" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="IK29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="IL29" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="IM29" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="IN29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="IO29" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="IP29" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="IQ29" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="IR29" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="JA29" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JC29" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JD29" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="JE29" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="JF29" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="JG29" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="JH29" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="JI29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="JJ29" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JK29" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JM29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JN29" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JO29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="JP29" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JQ29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="JR29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="JS29" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="JT29" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="JU29" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT30" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV30" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW30" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BY30" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="CB30" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CC30" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="CE30" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="CF30" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CG30" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="CH30" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CI30" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="CU30" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CV30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CW30" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="CX30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CY30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CZ30" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="DA30" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="DB30" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="DC30" t="inlineStr"/>
+      <c r="DD30" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DF30" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG30" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DI30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DJ30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DL30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DM30" t="inlineStr"/>
+      <c r="DN30" t="inlineStr"/>
+      <c r="DO30" t="inlineStr"/>
+      <c r="DP30" t="inlineStr"/>
+      <c r="DQ30" t="inlineStr"/>
+      <c r="DR30" t="inlineStr"/>
+      <c r="DS30" t="inlineStr"/>
+      <c r="DT30" t="inlineStr"/>
+      <c r="DU30" t="inlineStr"/>
+      <c r="DV30" t="inlineStr"/>
+      <c r="DW30" t="inlineStr"/>
+      <c r="DX30" t="inlineStr"/>
+      <c r="DY30" t="inlineStr"/>
+      <c r="DZ30" t="inlineStr"/>
+      <c r="EA30" t="inlineStr"/>
+      <c r="EB30" t="inlineStr"/>
+      <c r="EC30" t="inlineStr"/>
+      <c r="ED30" t="inlineStr"/>
+      <c r="EE30" t="inlineStr"/>
+      <c r="EF30" t="inlineStr"/>
+      <c r="EG30" t="inlineStr"/>
+      <c r="EH30" t="inlineStr"/>
+      <c r="EI30" t="inlineStr"/>
+      <c r="EJ30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="EK30" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="EL30" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="EM30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="EN30" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="EO30" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="EP30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="EQ30" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="ER30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="ES30" t="inlineStr"/>
+      <c r="ET30" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="EU30" t="inlineStr"/>
+      <c r="EV30" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="EW30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="EX30" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EY30" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EZ30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="FA30" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="FB30" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="FC30" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FD30" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FE30" t="inlineStr"/>
+      <c r="FF30" t="inlineStr"/>
+      <c r="FG30" t="inlineStr"/>
+      <c r="FH30" t="inlineStr"/>
+      <c r="FI30" t="inlineStr"/>
+      <c r="FJ30" t="inlineStr"/>
+      <c r="FK30" t="inlineStr"/>
+      <c r="FL30" t="inlineStr"/>
+      <c r="FM30" t="inlineStr"/>
+      <c r="FN30" t="inlineStr"/>
+      <c r="FO30" t="inlineStr"/>
+      <c r="FP30" t="inlineStr"/>
+      <c r="FQ30" t="inlineStr"/>
+      <c r="FR30" t="inlineStr"/>
+      <c r="FS30" t="inlineStr"/>
+      <c r="FT30" t="inlineStr"/>
+      <c r="FU30" t="inlineStr"/>
+      <c r="FV30" t="inlineStr"/>
+      <c r="FW30" t="inlineStr"/>
+      <c r="FX30" t="inlineStr"/>
+      <c r="FY30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FZ30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="GA30" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GB30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GC30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="GD30" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="GE30" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="GF30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="GG30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="GH30" t="inlineStr"/>
+      <c r="GI30" t="inlineStr"/>
+      <c r="GJ30" t="inlineStr"/>
+      <c r="GK30" t="inlineStr"/>
+      <c r="GL30" t="inlineStr"/>
+      <c r="GM30" t="inlineStr"/>
+      <c r="GN30" t="inlineStr"/>
+      <c r="GO30" t="inlineStr"/>
+      <c r="GP30" t="inlineStr"/>
+      <c r="GQ30" t="inlineStr"/>
+      <c r="GR30" t="inlineStr"/>
+      <c r="GS30" t="inlineStr"/>
+      <c r="GT30" t="inlineStr"/>
+      <c r="GU30" t="inlineStr"/>
+      <c r="GV30" t="inlineStr"/>
+      <c r="GW30" t="inlineStr"/>
+      <c r="GX30" t="inlineStr"/>
+      <c r="GY30" t="inlineStr"/>
+      <c r="GZ30" t="inlineStr"/>
+      <c r="HA30" t="inlineStr"/>
+      <c r="HB30" t="inlineStr"/>
+      <c r="HC30" t="inlineStr"/>
+      <c r="HD30" t="inlineStr"/>
+      <c r="HE30" t="inlineStr"/>
+      <c r="HF30" t="inlineStr"/>
+      <c r="HG30" t="inlineStr"/>
+      <c r="HH30" t="inlineStr"/>
+      <c r="HI30" t="inlineStr"/>
+      <c r="HJ30" t="inlineStr"/>
+      <c r="HK30" t="inlineStr"/>
+      <c r="HL30" t="inlineStr"/>
+      <c r="HM30" t="inlineStr"/>
+      <c r="HN30" t="inlineStr"/>
+      <c r="HO30" t="inlineStr"/>
+      <c r="HP30" t="inlineStr"/>
+      <c r="HQ30" t="inlineStr"/>
+      <c r="HR30" t="inlineStr"/>
+      <c r="HS30" t="inlineStr"/>
+      <c r="HT30" t="inlineStr"/>
+      <c r="HU30" t="inlineStr"/>
+      <c r="HV30" t="inlineStr"/>
+      <c r="HW30" t="inlineStr"/>
+      <c r="HX30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA30" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB30" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC30" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID30" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE30" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF30" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="IH30" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="II30" t="inlineStr"/>
+      <c r="IJ30" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="IK30" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="IL30" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="IM30" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="IN30" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="IO30" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="IP30" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="IQ30" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="IR30" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="IS30" t="inlineStr"/>
+      <c r="IT30" t="inlineStr"/>
+      <c r="IU30" t="inlineStr"/>
+      <c r="IV30" t="inlineStr"/>
+      <c r="IW30" t="inlineStr"/>
+      <c r="IX30" t="inlineStr"/>
+      <c r="IY30" t="inlineStr"/>
+      <c r="IZ30" t="inlineStr"/>
+      <c r="JA30" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JB30" t="inlineStr"/>
+      <c r="JC30" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JD30" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="JE30" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="JF30" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="JG30" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="JH30" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="JI30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="JJ30" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JK30" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JL30" t="inlineStr"/>
+      <c r="JM30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JN30" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JO30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="JP30" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JQ30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="JR30" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="JS30" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="JT30" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="JU30" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="JV30" t="inlineStr"/>
+      <c r="JW30" t="inlineStr"/>
+      <c r="JX30" t="inlineStr"/>
+      <c r="JY30" t="inlineStr"/>
+      <c r="JZ30" t="inlineStr"/>
+      <c r="KA30" t="inlineStr"/>
+      <c r="KB30" t="inlineStr"/>
+      <c r="KC30" t="inlineStr"/>
+      <c r="KD30" t="inlineStr"/>
+      <c r="KE30" t="inlineStr"/>
+      <c r="KF30" t="inlineStr"/>
+      <c r="KG30" t="inlineStr"/>
+      <c r="KH30" t="inlineStr"/>
+      <c r="KI30" t="inlineStr"/>
+      <c r="KJ30" t="inlineStr"/>
+      <c r="KK30" t="inlineStr"/>
+      <c r="KL30" t="inlineStr"/>
+      <c r="KM30" t="inlineStr"/>
+      <c r="KN30" t="inlineStr"/>
+      <c r="KO30" t="inlineStr"/>
+      <c r="KP30" t="inlineStr"/>
+      <c r="KQ30" t="inlineStr"/>
+      <c r="KR30" t="inlineStr"/>
+      <c r="KS30" t="inlineStr"/>
+      <c r="KT30" t="inlineStr"/>
+      <c r="KU30" t="inlineStr"/>
+      <c r="KV30" t="inlineStr"/>
+      <c r="KW30" t="inlineStr"/>
+      <c r="KX30" t="inlineStr"/>
+      <c r="KY30" t="inlineStr"/>
+      <c r="KZ30" t="inlineStr"/>
+      <c r="LA30" t="inlineStr"/>
+      <c r="LB30" t="inlineStr"/>
+      <c r="LC30" t="inlineStr"/>
+      <c r="LD30" t="inlineStr"/>
+      <c r="LE30" t="inlineStr"/>
+      <c r="LF30" t="inlineStr"/>
+      <c r="LG30" t="inlineStr"/>
+      <c r="LH30" t="inlineStr"/>
+      <c r="LI30" t="inlineStr"/>
+      <c r="LJ30" t="inlineStr"/>
+      <c r="LK30" t="inlineStr"/>
+      <c r="LL30" t="inlineStr"/>
+      <c r="LM30" t="inlineStr"/>
+      <c r="LN30" t="inlineStr"/>
+      <c r="LO30" t="inlineStr"/>
+      <c r="LP30" t="inlineStr"/>
+      <c r="LQ30" t="inlineStr"/>
+      <c r="LR30" t="inlineStr"/>
+      <c r="LS30" t="inlineStr"/>
+      <c r="LT30" t="inlineStr"/>
+      <c r="LU30" t="inlineStr"/>
+      <c r="LV30" t="inlineStr"/>
+      <c r="LW30" t="inlineStr"/>
+      <c r="LX30" t="inlineStr"/>
+      <c r="LY30" t="inlineStr"/>
+      <c r="LZ30" t="inlineStr"/>
+      <c r="MA30" t="inlineStr"/>
+      <c r="MB30" t="inlineStr"/>
+      <c r="MC30" t="inlineStr"/>
+      <c r="MD30" t="inlineStr"/>
+      <c r="ME30" t="inlineStr"/>
+      <c r="MF30" t="inlineStr"/>
+      <c r="MG30" t="inlineStr"/>
+      <c r="MH30" t="inlineStr"/>
+      <c r="MI30" t="inlineStr"/>
+      <c r="MJ30" t="inlineStr"/>
+      <c r="MK30" t="inlineStr"/>
+      <c r="ML30" t="inlineStr"/>
+      <c r="MM30" t="inlineStr"/>
+      <c r="MN30" t="inlineStr"/>
+      <c r="MO30" t="inlineStr"/>
+      <c r="MP30" t="inlineStr"/>
+      <c r="MQ30" t="inlineStr"/>
+      <c r="MR30" t="inlineStr"/>
+      <c r="MS30" t="inlineStr"/>
+      <c r="MT30" t="inlineStr"/>
+      <c r="MU30" t="inlineStr"/>
+      <c r="MV30" t="inlineStr"/>
+      <c r="MW30" t="inlineStr"/>
+      <c r="MX30" t="inlineStr"/>
+      <c r="MY30" t="inlineStr"/>
+      <c r="MZ30" t="inlineStr"/>
+      <c r="NA30" t="inlineStr"/>
+      <c r="NB30" t="inlineStr"/>
+      <c r="NC30" t="inlineStr"/>
+      <c r="ND30" t="inlineStr"/>
+      <c r="NE30" t="inlineStr"/>
+      <c r="NF30" t="inlineStr"/>
+      <c r="NG30" t="inlineStr"/>
+      <c r="NH30" t="inlineStr"/>
+      <c r="NI30" t="inlineStr"/>
+      <c r="NJ30" t="inlineStr"/>
+      <c r="NK30" t="inlineStr"/>
+      <c r="NL30" t="inlineStr"/>
+      <c r="NM30" t="inlineStr"/>
+      <c r="NN30" t="inlineStr"/>
+      <c r="NO30" t="inlineStr"/>
+      <c r="NP30" t="inlineStr"/>
+      <c r="NQ30" t="inlineStr"/>
+      <c r="NR30" t="inlineStr"/>
+      <c r="NS30" t="inlineStr"/>
+      <c r="NT30" t="inlineStr"/>
+      <c r="NU30" t="inlineStr"/>
+      <c r="NV30" t="inlineStr"/>
+      <c r="NW30" t="inlineStr"/>
+      <c r="NX30" t="inlineStr"/>
+      <c r="NY30" t="inlineStr"/>
+      <c r="NZ30" t="inlineStr"/>
+      <c r="OA30" t="inlineStr"/>
+      <c r="OB30" t="inlineStr"/>
+      <c r="OC30" t="inlineStr"/>
+      <c r="OD30" t="inlineStr"/>
+      <c r="OE30" t="inlineStr"/>
+      <c r="OF30" t="inlineStr"/>
+      <c r="OG30" t="inlineStr"/>
+      <c r="OH30" t="inlineStr"/>
+      <c r="OI30" t="inlineStr"/>
+      <c r="OJ30" t="inlineStr"/>
+      <c r="OK30" t="inlineStr"/>
+      <c r="OL30" t="inlineStr"/>
+      <c r="OM30" t="inlineStr"/>
+      <c r="ON30" t="inlineStr"/>
+      <c r="OO30" t="inlineStr"/>
+      <c r="OP30" t="inlineStr"/>
+      <c r="OQ30" t="inlineStr"/>
+      <c r="OR30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR2"/>
+  <dimension ref="A1:OR30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2402,12 +2402,6 @@
           <t>type02</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2463,7 +2457,6 @@
           <t>3.21</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
           <t>3.11</t>
@@ -2509,20 +2502,11 @@
           <t>3.00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr">
         <is>
           <t>32</t>
@@ -2568,7 +2552,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
           <t>-3</t>
@@ -2614,15 +2597,6 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2678,7 +2652,6 @@
           <t>2.71</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr">
         <is>
           <t>2.65</t>
@@ -2724,20 +2697,11 @@
           <t>2.74</t>
         </is>
       </c>
-      <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
-      <c r="CP2" t="inlineStr"/>
-      <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr">
         <is>
           <t>32</t>
@@ -2783,7 +2747,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="DC2" t="inlineStr"/>
       <c r="DD2" t="inlineStr">
         <is>
           <t>-2</t>
@@ -2829,29 +2792,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="DM2" t="inlineStr"/>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr"/>
-      <c r="DP2" t="inlineStr"/>
-      <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr"/>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="inlineStr"/>
-      <c r="DU2" t="inlineStr"/>
-      <c r="DV2" t="inlineStr"/>
-      <c r="DW2" t="inlineStr"/>
-      <c r="DX2" t="inlineStr"/>
-      <c r="DY2" t="inlineStr"/>
-      <c r="DZ2" t="inlineStr"/>
-      <c r="EA2" t="inlineStr"/>
-      <c r="EB2" t="inlineStr"/>
-      <c r="EC2" t="inlineStr"/>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="inlineStr"/>
-      <c r="EG2" t="inlineStr"/>
-      <c r="EH2" t="inlineStr"/>
-      <c r="EI2" t="inlineStr"/>
       <c r="EJ2" t="inlineStr">
         <is>
           <t>3.33</t>
@@ -2897,13 +2837,11 @@
           <t>3.35</t>
         </is>
       </c>
-      <c r="ES2" t="inlineStr"/>
       <c r="ET2" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="EU2" t="inlineStr"/>
       <c r="EV2" t="inlineStr">
         <is>
           <t>75</t>
@@ -2949,26 +2887,6 @@
           <t>97</t>
         </is>
       </c>
-      <c r="FE2" t="inlineStr"/>
-      <c r="FF2" t="inlineStr"/>
-      <c r="FG2" t="inlineStr"/>
-      <c r="FH2" t="inlineStr"/>
-      <c r="FI2" t="inlineStr"/>
-      <c r="FJ2" t="inlineStr"/>
-      <c r="FK2" t="inlineStr"/>
-      <c r="FL2" t="inlineStr"/>
-      <c r="FM2" t="inlineStr"/>
-      <c r="FN2" t="inlineStr"/>
-      <c r="FO2" t="inlineStr"/>
-      <c r="FP2" t="inlineStr"/>
-      <c r="FQ2" t="inlineStr"/>
-      <c r="FR2" t="inlineStr"/>
-      <c r="FS2" t="inlineStr"/>
-      <c r="FT2" t="inlineStr"/>
-      <c r="FU2" t="inlineStr"/>
-      <c r="FV2" t="inlineStr"/>
-      <c r="FW2" t="inlineStr"/>
-      <c r="FX2" t="inlineStr"/>
       <c r="FY2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3014,48 +2932,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="GH2" t="inlineStr"/>
-      <c r="GI2" t="inlineStr"/>
-      <c r="GJ2" t="inlineStr"/>
-      <c r="GK2" t="inlineStr"/>
-      <c r="GL2" t="inlineStr"/>
-      <c r="GM2" t="inlineStr"/>
-      <c r="GN2" t="inlineStr"/>
-      <c r="GO2" t="inlineStr"/>
-      <c r="GP2" t="inlineStr"/>
-      <c r="GQ2" t="inlineStr"/>
-      <c r="GR2" t="inlineStr"/>
-      <c r="GS2" t="inlineStr"/>
-      <c r="GT2" t="inlineStr"/>
-      <c r="GU2" t="inlineStr"/>
-      <c r="GV2" t="inlineStr"/>
-      <c r="GW2" t="inlineStr"/>
-      <c r="GX2" t="inlineStr"/>
-      <c r="GY2" t="inlineStr"/>
-      <c r="GZ2" t="inlineStr"/>
-      <c r="HA2" t="inlineStr"/>
-      <c r="HB2" t="inlineStr"/>
-      <c r="HC2" t="inlineStr"/>
-      <c r="HD2" t="inlineStr"/>
-      <c r="HE2" t="inlineStr"/>
-      <c r="HF2" t="inlineStr"/>
-      <c r="HG2" t="inlineStr"/>
-      <c r="HH2" t="inlineStr"/>
-      <c r="HI2" t="inlineStr"/>
-      <c r="HJ2" t="inlineStr"/>
-      <c r="HK2" t="inlineStr"/>
-      <c r="HL2" t="inlineStr"/>
-      <c r="HM2" t="inlineStr"/>
-      <c r="HN2" t="inlineStr"/>
-      <c r="HO2" t="inlineStr"/>
-      <c r="HP2" t="inlineStr"/>
-      <c r="HQ2" t="inlineStr"/>
-      <c r="HR2" t="inlineStr"/>
-      <c r="HS2" t="inlineStr"/>
-      <c r="HT2" t="inlineStr"/>
-      <c r="HU2" t="inlineStr"/>
-      <c r="HV2" t="inlineStr"/>
-      <c r="HW2" t="inlineStr"/>
       <c r="HX2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3111,7 +2987,6 @@
           <t>4.35</t>
         </is>
       </c>
-      <c r="II2" t="inlineStr"/>
       <c r="IJ2" t="inlineStr">
         <is>
           <t>4.37</t>
@@ -3157,20 +3032,11 @@
           <t>6.76</t>
         </is>
       </c>
-      <c r="IS2" t="inlineStr"/>
-      <c r="IT2" t="inlineStr"/>
-      <c r="IU2" t="inlineStr"/>
-      <c r="IV2" t="inlineStr"/>
-      <c r="IW2" t="inlineStr"/>
-      <c r="IX2" t="inlineStr"/>
-      <c r="IY2" t="inlineStr"/>
-      <c r="IZ2" t="inlineStr"/>
       <c r="JA2" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="JB2" t="inlineStr"/>
       <c r="JC2" t="inlineStr">
         <is>
           <t>74</t>
@@ -3216,7 +3082,6 @@
           <t>103</t>
         </is>
       </c>
-      <c r="JL2" t="inlineStr"/>
       <c r="JM2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3262,133 +3127,6234 @@
           <t>39</t>
         </is>
       </c>
-      <c r="JV2" t="inlineStr"/>
-      <c r="JW2" t="inlineStr"/>
-      <c r="JX2" t="inlineStr"/>
-      <c r="JY2" t="inlineStr"/>
-      <c r="JZ2" t="inlineStr"/>
-      <c r="KA2" t="inlineStr"/>
-      <c r="KB2" t="inlineStr"/>
-      <c r="KC2" t="inlineStr"/>
-      <c r="KD2" t="inlineStr"/>
-      <c r="KE2" t="inlineStr"/>
-      <c r="KF2" t="inlineStr"/>
-      <c r="KG2" t="inlineStr"/>
-      <c r="KH2" t="inlineStr"/>
-      <c r="KI2" t="inlineStr"/>
-      <c r="KJ2" t="inlineStr"/>
-      <c r="KK2" t="inlineStr"/>
-      <c r="KL2" t="inlineStr"/>
-      <c r="KM2" t="inlineStr"/>
-      <c r="KN2" t="inlineStr"/>
-      <c r="KO2" t="inlineStr"/>
-      <c r="KP2" t="inlineStr"/>
-      <c r="KQ2" t="inlineStr"/>
-      <c r="KR2" t="inlineStr"/>
-      <c r="KS2" t="inlineStr"/>
-      <c r="KT2" t="inlineStr"/>
-      <c r="KU2" t="inlineStr"/>
-      <c r="KV2" t="inlineStr"/>
-      <c r="KW2" t="inlineStr"/>
-      <c r="KX2" t="inlineStr"/>
-      <c r="KY2" t="inlineStr"/>
-      <c r="KZ2" t="inlineStr"/>
-      <c r="LA2" t="inlineStr"/>
-      <c r="LB2" t="inlineStr"/>
-      <c r="LC2" t="inlineStr"/>
-      <c r="LD2" t="inlineStr"/>
-      <c r="LE2" t="inlineStr"/>
-      <c r="LF2" t="inlineStr"/>
-      <c r="LG2" t="inlineStr"/>
-      <c r="LH2" t="inlineStr"/>
-      <c r="LI2" t="inlineStr"/>
-      <c r="LJ2" t="inlineStr"/>
-      <c r="LK2" t="inlineStr"/>
-      <c r="LL2" t="inlineStr"/>
-      <c r="LM2" t="inlineStr"/>
-      <c r="LN2" t="inlineStr"/>
-      <c r="LO2" t="inlineStr"/>
-      <c r="LP2" t="inlineStr"/>
-      <c r="LQ2" t="inlineStr"/>
-      <c r="LR2" t="inlineStr"/>
-      <c r="LS2" t="inlineStr"/>
-      <c r="LT2" t="inlineStr"/>
-      <c r="LU2" t="inlineStr"/>
-      <c r="LV2" t="inlineStr"/>
-      <c r="LW2" t="inlineStr"/>
-      <c r="LX2" t="inlineStr"/>
-      <c r="LY2" t="inlineStr"/>
-      <c r="LZ2" t="inlineStr"/>
-      <c r="MA2" t="inlineStr"/>
-      <c r="MB2" t="inlineStr"/>
-      <c r="MC2" t="inlineStr"/>
-      <c r="MD2" t="inlineStr"/>
-      <c r="ME2" t="inlineStr"/>
-      <c r="MF2" t="inlineStr"/>
-      <c r="MG2" t="inlineStr"/>
-      <c r="MH2" t="inlineStr"/>
-      <c r="MI2" t="inlineStr"/>
-      <c r="MJ2" t="inlineStr"/>
-      <c r="MK2" t="inlineStr"/>
-      <c r="ML2" t="inlineStr"/>
-      <c r="MM2" t="inlineStr"/>
-      <c r="MN2" t="inlineStr"/>
-      <c r="MO2" t="inlineStr"/>
-      <c r="MP2" t="inlineStr"/>
-      <c r="MQ2" t="inlineStr"/>
-      <c r="MR2" t="inlineStr"/>
-      <c r="MS2" t="inlineStr"/>
-      <c r="MT2" t="inlineStr"/>
-      <c r="MU2" t="inlineStr"/>
-      <c r="MV2" t="inlineStr"/>
-      <c r="MW2" t="inlineStr"/>
-      <c r="MX2" t="inlineStr"/>
-      <c r="MY2" t="inlineStr"/>
-      <c r="MZ2" t="inlineStr"/>
-      <c r="NA2" t="inlineStr"/>
-      <c r="NB2" t="inlineStr"/>
-      <c r="NC2" t="inlineStr"/>
-      <c r="ND2" t="inlineStr"/>
-      <c r="NE2" t="inlineStr"/>
-      <c r="NF2" t="inlineStr"/>
-      <c r="NG2" t="inlineStr"/>
-      <c r="NH2" t="inlineStr"/>
-      <c r="NI2" t="inlineStr"/>
-      <c r="NJ2" t="inlineStr"/>
-      <c r="NK2" t="inlineStr"/>
-      <c r="NL2" t="inlineStr"/>
-      <c r="NM2" t="inlineStr"/>
-      <c r="NN2" t="inlineStr"/>
-      <c r="NO2" t="inlineStr"/>
-      <c r="NP2" t="inlineStr"/>
-      <c r="NQ2" t="inlineStr"/>
-      <c r="NR2" t="inlineStr"/>
-      <c r="NS2" t="inlineStr"/>
-      <c r="NT2" t="inlineStr"/>
-      <c r="NU2" t="inlineStr"/>
-      <c r="NV2" t="inlineStr"/>
-      <c r="NW2" t="inlineStr"/>
-      <c r="NX2" t="inlineStr"/>
-      <c r="NY2" t="inlineStr"/>
-      <c r="NZ2" t="inlineStr"/>
-      <c r="OA2" t="inlineStr"/>
-      <c r="OB2" t="inlineStr"/>
-      <c r="OC2" t="inlineStr"/>
-      <c r="OD2" t="inlineStr"/>
-      <c r="OE2" t="inlineStr"/>
-      <c r="OF2" t="inlineStr"/>
-      <c r="OG2" t="inlineStr"/>
-      <c r="OH2" t="inlineStr"/>
-      <c r="OI2" t="inlineStr"/>
-      <c r="OJ2" t="inlineStr"/>
-      <c r="OK2" t="inlineStr"/>
-      <c r="OL2" t="inlineStr"/>
-      <c r="OM2" t="inlineStr"/>
-      <c r="ON2" t="inlineStr"/>
-      <c r="OO2" t="inlineStr"/>
-      <c r="OP2" t="inlineStr"/>
-      <c r="OQ2" t="inlineStr"/>
-      <c r="OR2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>typeUK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT17" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX17" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="EJ17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET17" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW17" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX17" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY17" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ17" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA17" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ17" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB17" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD17" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX17" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY17" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="HZ17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB17" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG17" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH17" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ17" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK17" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL17" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM17" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN17" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO17" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA17" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC17" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD17" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE17" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF17" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG17" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH17" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM17" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO17" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ17" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CR18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CT18" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW18" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX18" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CY18" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="EK18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="ET18" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EV18" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW18" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="EX18" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY18" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA18" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FY18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FZ18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA18" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="GB18" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC18" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD18" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="HX18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY18" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="HZ18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB18" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG18" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="IH18" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="IJ18" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="IK18" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL18" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="IM18" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="IN18" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="JA18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JC18" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD18" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="JE18" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF18" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="JG18" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH18" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JM18" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN18" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO18" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP18" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ18" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR18" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="CB19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="CE19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="CR19" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CT19" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="CU19" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="CW19" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="CX19" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="CY19" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE19" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DG19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DH19" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="DI19" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="EJ19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="EK19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="EL19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="EM19" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="ET19" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="EV19" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="EW19" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="EX19" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EY19" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="EZ19" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="FA19" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="FY19" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="FZ19" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GA19" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GB19" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GC19" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="GD19" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="HX19" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY19" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="HZ19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA19" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB19" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC19" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG19" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="IH19" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="IJ19" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="IK19" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="IL19" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="IM19" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="IN19" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="IO19" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="JA19" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC19" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JD19" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JE19" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JF19" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JG19" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JH19" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="JM19" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JN19" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JO19" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JP19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JQ19" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JR19" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CR20" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="CT20" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CU20" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CW20" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="CX20" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CY20" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="DD20" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DE20" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="EJ20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="EK20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="EL20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="EM20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="ET20" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="EV20" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW20" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EX20" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EY20" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="EZ20" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="FA20" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="FY20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="FZ20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="GA20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GB20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="GC20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GD20" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="HX20" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY20" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="HZ20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB20" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC20" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG20" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="IH20" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="IJ20" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="IK20" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="IL20" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="IM20" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="IN20" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="IO20" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="JA20" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JC20" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="JD20" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="JE20" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JF20" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="JG20" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JH20" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="JM20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="JN20" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="JO20" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="JP20" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="JQ20" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JR20" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV21" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW21" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="CE21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CH21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CI21" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="CR21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CT21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CU21" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CX21" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CY21" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CZ21" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="DA21" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DB21" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DD21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE21" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DJ21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK21" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DL21" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="EJ21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="EK21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EL21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="EM21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="EN21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="EP21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="EQ21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ER21" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ET21" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="EV21" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="EW21" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="EX21" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="EY21" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="EZ21" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA21" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="FB21" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="FC21" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FD21" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="FY21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="FZ21" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GA21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="GB21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GC21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GD21" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GE21" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GF21" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GG21" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="HX21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ21" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA21" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB21" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC21" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID21" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE21" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF21" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="IG21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="IH21" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="IJ21" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="IK21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="IL21" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="IM21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="IN21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="IO21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="IP21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="IQ21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="IR21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="JA21" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC21" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JD21" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JE21" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JF21" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="JG21" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JH21" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="JI21" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JJ21" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JK21" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JM21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JN21" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JO21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JP21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="JQ21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="JR21" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JS21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JT21" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JU21" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV22" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="CI22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="CR22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CT22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CX22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CY22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CZ22" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="DA22" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="DB22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="DD22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DJ22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DK22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DL22" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="EJ22" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EK22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="EL22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="EM22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="EN22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="EO22" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="EP22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="EQ22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="ER22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="ET22" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="EV22" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="EW22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="EX22" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EY22" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="EZ22" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FA22" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="FB22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="FC22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FD22" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="FY22" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="FZ22" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="GA22" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="GB22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="GC22" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="GD22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="GE22" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GF22" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="GG22" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="HX22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA22" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB22" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC22" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID22" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE22" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF22" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="IG22" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="IH22" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="IJ22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="IK22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="IL22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="IM22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="IN22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="IO22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="IP22" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="IQ22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="IR22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="JA22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="JC22" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="JD22" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="JE22" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="JF22" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="JG22" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="JH22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="JI22" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="JJ22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="JK22" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="JM22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JN22" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="JO22" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="JP22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JQ22" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="JR22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JS22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="JT22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="JU22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX23" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="CC23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="CE23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="CF23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="CG23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="CH23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="CI23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="CR23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="CT23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CU23" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CV23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="CW23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CX23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="CY23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="CZ23" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="DA23" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="DB23" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="DD23" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DE23" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG23" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH23" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DI23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DJ23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DK23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DL23" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="EJ23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="EK23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="EL23" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="EM23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="EN23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="EO23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="EP23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="EQ23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="ER23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="ET23" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EV23" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EW23" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX23" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="EY23" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="EZ23" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="FA23" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="FB23" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="FC23" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="FD23" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="FY23" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="FZ23" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="GA23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="GB23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GC23" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GD23" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GE23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="GF23" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GG23" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="HX23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA23" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB23" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC23" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID23" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE23" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF23" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG23" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="IH23" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="IJ23" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="IK23" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="IL23" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="IM23" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="IN23" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="IO23" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="IP23" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="IQ23" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="IR23" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="JA23" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JC23" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="JD23" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JE23" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="JF23" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="JG23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JH23" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JI23" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JJ23" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="JK23" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JM23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="JN23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JO23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="JP23" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="JQ23" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JR23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="JS23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="JT23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="JU23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT24" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV24" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="BX24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="BY24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="CA24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="CB24" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CC24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="CD24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="CE24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="CF24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="CG24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="CH24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CI24" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="CR24" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="CT24" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CU24" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CV24" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="CW24" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="CX24" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="CY24" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="CZ24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="DA24" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="DB24" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="DD24" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE24" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF24" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG24" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH24" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DI24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DJ24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DK24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DL24" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="EJ24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="EK24" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="EL24" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="EN24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="EO24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="EP24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="EQ24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="ER24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="ET24" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="EV24" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="EW24" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EX24" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="EY24" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="EZ24" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="FA24" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="FB24" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="FC24" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="FD24" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FY24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FZ24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="GA24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="GB24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="GC24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="GD24" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="GE24" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="GF24" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="GG24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="HX24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA24" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB24" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC24" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID24" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE24" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF24" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="IG24" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="IH24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="IJ24" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="IK24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="IL24" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="IM24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="IN24" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="IO24" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="IP24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="IQ24" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="IR24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="JA24" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="JC24" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="JD24" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="JE24" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="JF24" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JG24" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JH24" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JI24" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="JJ24" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="JK24" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JM24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JN24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="JO24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JP24" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ24" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JR24" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="JS24" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="JT24" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
+      </c>
+      <c r="JU24" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="CB25" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CC25" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="CE25" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="CF25" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CG25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="CH25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CI25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="CR25" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="CT25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="CU25" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="CV25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CW25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="CX25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CY25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="CZ25" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="DA25" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="DB25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="DD25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DF25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DI25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DJ25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DL25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EJ25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="EK25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="EL25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="EM25" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="EN25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="EO25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="EP25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="EQ25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="ER25" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="ET25" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="EV25" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="EW25" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="EX25" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EY25" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EZ25" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="FA25" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="FB25" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="FC25" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FD25" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FY25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="FZ25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="GA25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GB25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GC25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="GD25" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="GE25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="GF25" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="GG25" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="HX25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ25" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB25" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC25" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID25" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE25" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF25" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="IH25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="IJ25" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="IK25" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="IL25" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="IM25" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="IN25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="IO25" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="IP25" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="IQ25" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="IR25" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="JA25" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JC25" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JD25" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="JE25" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="JF25" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="JG25" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="JH25" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="JI25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="JJ25" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JK25" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JM25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JN25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JO25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="JP25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JQ25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="JR25" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="JS25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="JT25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="JU25" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="inlineStr"/>
+      <c r="CR30" t="inlineStr"/>
+      <c r="CS30" t="inlineStr"/>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr"/>
+      <c r="CW30" t="inlineStr"/>
+      <c r="CX30" t="inlineStr"/>
+      <c r="CY30" t="inlineStr"/>
+      <c r="CZ30" t="inlineStr"/>
+      <c r="DA30" t="inlineStr"/>
+      <c r="DB30" t="inlineStr"/>
+      <c r="DC30" t="inlineStr"/>
+      <c r="DD30" t="inlineStr"/>
+      <c r="DE30" t="inlineStr"/>
+      <c r="DF30" t="inlineStr"/>
+      <c r="DG30" t="inlineStr"/>
+      <c r="DH30" t="inlineStr"/>
+      <c r="DI30" t="inlineStr"/>
+      <c r="DJ30" t="inlineStr"/>
+      <c r="DK30" t="inlineStr"/>
+      <c r="DL30" t="inlineStr"/>
+      <c r="DM30" t="inlineStr"/>
+      <c r="DN30" t="inlineStr"/>
+      <c r="DO30" t="inlineStr"/>
+      <c r="DP30" t="inlineStr"/>
+      <c r="DQ30" t="inlineStr"/>
+      <c r="DR30" t="inlineStr"/>
+      <c r="DS30" t="inlineStr"/>
+      <c r="DT30" t="inlineStr"/>
+      <c r="DU30" t="inlineStr"/>
+      <c r="DV30" t="inlineStr"/>
+      <c r="DW30" t="inlineStr"/>
+      <c r="DX30" t="inlineStr"/>
+      <c r="DY30" t="inlineStr"/>
+      <c r="DZ30" t="inlineStr"/>
+      <c r="EA30" t="inlineStr"/>
+      <c r="EB30" t="inlineStr"/>
+      <c r="EC30" t="inlineStr"/>
+      <c r="ED30" t="inlineStr"/>
+      <c r="EE30" t="inlineStr"/>
+      <c r="EF30" t="inlineStr"/>
+      <c r="EG30" t="inlineStr"/>
+      <c r="EH30" t="inlineStr"/>
+      <c r="EI30" t="inlineStr"/>
+      <c r="EJ30" t="inlineStr"/>
+      <c r="EK30" t="inlineStr"/>
+      <c r="EL30" t="inlineStr"/>
+      <c r="EM30" t="inlineStr"/>
+      <c r="EN30" t="inlineStr"/>
+      <c r="EO30" t="inlineStr"/>
+      <c r="EP30" t="inlineStr"/>
+      <c r="EQ30" t="inlineStr"/>
+      <c r="ER30" t="inlineStr"/>
+      <c r="ES30" t="inlineStr"/>
+      <c r="ET30" t="inlineStr"/>
+      <c r="EU30" t="inlineStr"/>
+      <c r="EV30" t="inlineStr"/>
+      <c r="EW30" t="inlineStr"/>
+      <c r="EX30" t="inlineStr"/>
+      <c r="EY30" t="inlineStr"/>
+      <c r="EZ30" t="inlineStr"/>
+      <c r="FA30" t="inlineStr"/>
+      <c r="FB30" t="inlineStr"/>
+      <c r="FC30" t="inlineStr"/>
+      <c r="FD30" t="inlineStr"/>
+      <c r="FE30" t="inlineStr"/>
+      <c r="FF30" t="inlineStr"/>
+      <c r="FG30" t="inlineStr"/>
+      <c r="FH30" t="inlineStr"/>
+      <c r="FI30" t="inlineStr"/>
+      <c r="FJ30" t="inlineStr"/>
+      <c r="FK30" t="inlineStr"/>
+      <c r="FL30" t="inlineStr"/>
+      <c r="FM30" t="inlineStr"/>
+      <c r="FN30" t="inlineStr"/>
+      <c r="FO30" t="inlineStr"/>
+      <c r="FP30" t="inlineStr"/>
+      <c r="FQ30" t="inlineStr"/>
+      <c r="FR30" t="inlineStr"/>
+      <c r="FS30" t="inlineStr"/>
+      <c r="FT30" t="inlineStr"/>
+      <c r="FU30" t="inlineStr"/>
+      <c r="FV30" t="inlineStr"/>
+      <c r="FW30" t="inlineStr"/>
+      <c r="FX30" t="inlineStr"/>
+      <c r="FY30" t="inlineStr"/>
+      <c r="FZ30" t="inlineStr"/>
+      <c r="GA30" t="inlineStr"/>
+      <c r="GB30" t="inlineStr"/>
+      <c r="GC30" t="inlineStr"/>
+      <c r="GD30" t="inlineStr"/>
+      <c r="GE30" t="inlineStr"/>
+      <c r="GF30" t="inlineStr"/>
+      <c r="GG30" t="inlineStr"/>
+      <c r="GH30" t="inlineStr"/>
+      <c r="GI30" t="inlineStr"/>
+      <c r="GJ30" t="inlineStr"/>
+      <c r="GK30" t="inlineStr"/>
+      <c r="GL30" t="inlineStr"/>
+      <c r="GM30" t="inlineStr"/>
+      <c r="GN30" t="inlineStr"/>
+      <c r="GO30" t="inlineStr"/>
+      <c r="GP30" t="inlineStr"/>
+      <c r="GQ30" t="inlineStr"/>
+      <c r="GR30" t="inlineStr"/>
+      <c r="GS30" t="inlineStr"/>
+      <c r="GT30" t="inlineStr"/>
+      <c r="GU30" t="inlineStr"/>
+      <c r="GV30" t="inlineStr"/>
+      <c r="GW30" t="inlineStr"/>
+      <c r="GX30" t="inlineStr"/>
+      <c r="GY30" t="inlineStr"/>
+      <c r="GZ30" t="inlineStr"/>
+      <c r="HA30" t="inlineStr"/>
+      <c r="HB30" t="inlineStr"/>
+      <c r="HC30" t="inlineStr"/>
+      <c r="HD30" t="inlineStr"/>
+      <c r="HE30" t="inlineStr"/>
+      <c r="HF30" t="inlineStr"/>
+      <c r="HG30" t="inlineStr"/>
+      <c r="HH30" t="inlineStr"/>
+      <c r="HI30" t="inlineStr"/>
+      <c r="HJ30" t="inlineStr"/>
+      <c r="HK30" t="inlineStr"/>
+      <c r="HL30" t="inlineStr"/>
+      <c r="HM30" t="inlineStr"/>
+      <c r="HN30" t="inlineStr"/>
+      <c r="HO30" t="inlineStr"/>
+      <c r="HP30" t="inlineStr"/>
+      <c r="HQ30" t="inlineStr"/>
+      <c r="HR30" t="inlineStr"/>
+      <c r="HS30" t="inlineStr"/>
+      <c r="HT30" t="inlineStr"/>
+      <c r="HU30" t="inlineStr"/>
+      <c r="HV30" t="inlineStr"/>
+      <c r="HW30" t="inlineStr"/>
+      <c r="HX30" t="inlineStr"/>
+      <c r="HY30" t="inlineStr"/>
+      <c r="HZ30" t="inlineStr"/>
+      <c r="IA30" t="inlineStr"/>
+      <c r="IB30" t="inlineStr"/>
+      <c r="IC30" t="inlineStr"/>
+      <c r="ID30" t="inlineStr"/>
+      <c r="IE30" t="inlineStr"/>
+      <c r="IF30" t="inlineStr"/>
+      <c r="IG30" t="inlineStr"/>
+      <c r="IH30" t="inlineStr"/>
+      <c r="II30" t="inlineStr"/>
+      <c r="IJ30" t="inlineStr"/>
+      <c r="IK30" t="inlineStr"/>
+      <c r="IL30" t="inlineStr"/>
+      <c r="IM30" t="inlineStr"/>
+      <c r="IN30" t="inlineStr"/>
+      <c r="IO30" t="inlineStr"/>
+      <c r="IP30" t="inlineStr"/>
+      <c r="IQ30" t="inlineStr"/>
+      <c r="IR30" t="inlineStr"/>
+      <c r="IS30" t="inlineStr"/>
+      <c r="IT30" t="inlineStr"/>
+      <c r="IU30" t="inlineStr"/>
+      <c r="IV30" t="inlineStr"/>
+      <c r="IW30" t="inlineStr"/>
+      <c r="IX30" t="inlineStr"/>
+      <c r="IY30" t="inlineStr"/>
+      <c r="IZ30" t="inlineStr"/>
+      <c r="JA30" t="inlineStr"/>
+      <c r="JB30" t="inlineStr"/>
+      <c r="JC30" t="inlineStr"/>
+      <c r="JD30" t="inlineStr"/>
+      <c r="JE30" t="inlineStr"/>
+      <c r="JF30" t="inlineStr"/>
+      <c r="JG30" t="inlineStr"/>
+      <c r="JH30" t="inlineStr"/>
+      <c r="JI30" t="inlineStr"/>
+      <c r="JJ30" t="inlineStr"/>
+      <c r="JK30" t="inlineStr"/>
+      <c r="JL30" t="inlineStr"/>
+      <c r="JM30" t="inlineStr"/>
+      <c r="JN30" t="inlineStr"/>
+      <c r="JO30" t="inlineStr"/>
+      <c r="JP30" t="inlineStr"/>
+      <c r="JQ30" t="inlineStr"/>
+      <c r="JR30" t="inlineStr"/>
+      <c r="JS30" t="inlineStr"/>
+      <c r="JT30" t="inlineStr"/>
+      <c r="JU30" t="inlineStr"/>
+      <c r="JV30" t="inlineStr"/>
+      <c r="JW30" t="inlineStr"/>
+      <c r="JX30" t="inlineStr"/>
+      <c r="JY30" t="inlineStr"/>
+      <c r="JZ30" t="inlineStr"/>
+      <c r="KA30" t="inlineStr"/>
+      <c r="KB30" t="inlineStr"/>
+      <c r="KC30" t="inlineStr"/>
+      <c r="KD30" t="inlineStr"/>
+      <c r="KE30" t="inlineStr"/>
+      <c r="KF30" t="inlineStr"/>
+      <c r="KG30" t="inlineStr"/>
+      <c r="KH30" t="inlineStr"/>
+      <c r="KI30" t="inlineStr"/>
+      <c r="KJ30" t="inlineStr"/>
+      <c r="KK30" t="inlineStr"/>
+      <c r="KL30" t="inlineStr"/>
+      <c r="KM30" t="inlineStr"/>
+      <c r="KN30" t="inlineStr"/>
+      <c r="KO30" t="inlineStr"/>
+      <c r="KP30" t="inlineStr"/>
+      <c r="KQ30" t="inlineStr"/>
+      <c r="KR30" t="inlineStr"/>
+      <c r="KS30" t="inlineStr"/>
+      <c r="KT30" t="inlineStr"/>
+      <c r="KU30" t="inlineStr"/>
+      <c r="KV30" t="inlineStr"/>
+      <c r="KW30" t="inlineStr"/>
+      <c r="KX30" t="inlineStr"/>
+      <c r="KY30" t="inlineStr"/>
+      <c r="KZ30" t="inlineStr"/>
+      <c r="LA30" t="inlineStr"/>
+      <c r="LB30" t="inlineStr"/>
+      <c r="LC30" t="inlineStr"/>
+      <c r="LD30" t="inlineStr"/>
+      <c r="LE30" t="inlineStr"/>
+      <c r="LF30" t="inlineStr"/>
+      <c r="LG30" t="inlineStr"/>
+      <c r="LH30" t="inlineStr"/>
+      <c r="LI30" t="inlineStr"/>
+      <c r="LJ30" t="inlineStr"/>
+      <c r="LK30" t="inlineStr"/>
+      <c r="LL30" t="inlineStr"/>
+      <c r="LM30" t="inlineStr"/>
+      <c r="LN30" t="inlineStr"/>
+      <c r="LO30" t="inlineStr"/>
+      <c r="LP30" t="inlineStr"/>
+      <c r="LQ30" t="inlineStr"/>
+      <c r="LR30" t="inlineStr"/>
+      <c r="LS30" t="inlineStr"/>
+      <c r="LT30" t="inlineStr"/>
+      <c r="LU30" t="inlineStr"/>
+      <c r="LV30" t="inlineStr"/>
+      <c r="LW30" t="inlineStr"/>
+      <c r="LX30" t="inlineStr"/>
+      <c r="LY30" t="inlineStr"/>
+      <c r="LZ30" t="inlineStr"/>
+      <c r="MA30" t="inlineStr"/>
+      <c r="MB30" t="inlineStr"/>
+      <c r="MC30" t="inlineStr"/>
+      <c r="MD30" t="inlineStr"/>
+      <c r="ME30" t="inlineStr"/>
+      <c r="MF30" t="inlineStr"/>
+      <c r="MG30" t="inlineStr"/>
+      <c r="MH30" t="inlineStr"/>
+      <c r="MI30" t="inlineStr"/>
+      <c r="MJ30" t="inlineStr"/>
+      <c r="MK30" t="inlineStr"/>
+      <c r="ML30" t="inlineStr"/>
+      <c r="MM30" t="inlineStr"/>
+      <c r="MN30" t="inlineStr"/>
+      <c r="MO30" t="inlineStr"/>
+      <c r="MP30" t="inlineStr"/>
+      <c r="MQ30" t="inlineStr"/>
+      <c r="MR30" t="inlineStr"/>
+      <c r="MS30" t="inlineStr"/>
+      <c r="MT30" t="inlineStr"/>
+      <c r="MU30" t="inlineStr"/>
+      <c r="MV30" t="inlineStr"/>
+      <c r="MW30" t="inlineStr"/>
+      <c r="MX30" t="inlineStr"/>
+      <c r="MY30" t="inlineStr"/>
+      <c r="MZ30" t="inlineStr"/>
+      <c r="NA30" t="inlineStr"/>
+      <c r="NB30" t="inlineStr"/>
+      <c r="NC30" t="inlineStr"/>
+      <c r="ND30" t="inlineStr"/>
+      <c r="NE30" t="inlineStr"/>
+      <c r="NF30" t="inlineStr"/>
+      <c r="NG30" t="inlineStr"/>
+      <c r="NH30" t="inlineStr"/>
+      <c r="NI30" t="inlineStr"/>
+      <c r="NJ30" t="inlineStr"/>
+      <c r="NK30" t="inlineStr"/>
+      <c r="NL30" t="inlineStr"/>
+      <c r="NM30" t="inlineStr"/>
+      <c r="NN30" t="inlineStr"/>
+      <c r="NO30" t="inlineStr"/>
+      <c r="NP30" t="inlineStr"/>
+      <c r="NQ30" t="inlineStr"/>
+      <c r="NR30" t="inlineStr"/>
+      <c r="NS30" t="inlineStr"/>
+      <c r="NT30" t="inlineStr"/>
+      <c r="NU30" t="inlineStr"/>
+      <c r="NV30" t="inlineStr"/>
+      <c r="NW30" t="inlineStr"/>
+      <c r="NX30" t="inlineStr"/>
+      <c r="NY30" t="inlineStr"/>
+      <c r="NZ30" t="inlineStr"/>
+      <c r="OA30" t="inlineStr"/>
+      <c r="OB30" t="inlineStr"/>
+      <c r="OC30" t="inlineStr"/>
+      <c r="OD30" t="inlineStr"/>
+      <c r="OE30" t="inlineStr"/>
+      <c r="OF30" t="inlineStr"/>
+      <c r="OG30" t="inlineStr"/>
+      <c r="OH30" t="inlineStr"/>
+      <c r="OI30" t="inlineStr"/>
+      <c r="OJ30" t="inlineStr"/>
+      <c r="OK30" t="inlineStr"/>
+      <c r="OL30" t="inlineStr"/>
+      <c r="OM30" t="inlineStr"/>
+      <c r="ON30" t="inlineStr"/>
+      <c r="OO30" t="inlineStr"/>
+      <c r="OP30" t="inlineStr"/>
+      <c r="OQ30" t="inlineStr"/>
+      <c r="OR30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR30"/>
+  <dimension ref="A1:OR34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8948,413 +8948,2341 @@
           <t>type03</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="inlineStr"/>
-      <c r="BE30" t="inlineStr"/>
-      <c r="BF30" t="inlineStr"/>
-      <c r="BG30" t="inlineStr"/>
-      <c r="BH30" t="inlineStr"/>
-      <c r="BI30" t="inlineStr"/>
-      <c r="BJ30" t="inlineStr"/>
-      <c r="BK30" t="inlineStr"/>
-      <c r="BL30" t="inlineStr"/>
-      <c r="BM30" t="inlineStr"/>
-      <c r="BN30" t="inlineStr"/>
-      <c r="BO30" t="inlineStr"/>
-      <c r="BP30" t="inlineStr"/>
-      <c r="BQ30" t="inlineStr"/>
-      <c r="BR30" t="inlineStr"/>
-      <c r="BS30" t="inlineStr"/>
-      <c r="BT30" t="inlineStr"/>
-      <c r="BU30" t="inlineStr"/>
-      <c r="BV30" t="inlineStr"/>
-      <c r="BW30" t="inlineStr"/>
-      <c r="BX30" t="inlineStr"/>
-      <c r="BY30" t="inlineStr"/>
-      <c r="BZ30" t="inlineStr"/>
-      <c r="CA30" t="inlineStr"/>
-      <c r="CB30" t="inlineStr"/>
-      <c r="CC30" t="inlineStr"/>
-      <c r="CD30" t="inlineStr"/>
-      <c r="CE30" t="inlineStr"/>
-      <c r="CF30" t="inlineStr"/>
-      <c r="CG30" t="inlineStr"/>
-      <c r="CH30" t="inlineStr"/>
-      <c r="CI30" t="inlineStr"/>
-      <c r="CJ30" t="inlineStr"/>
-      <c r="CK30" t="inlineStr"/>
-      <c r="CL30" t="inlineStr"/>
-      <c r="CM30" t="inlineStr"/>
-      <c r="CN30" t="inlineStr"/>
-      <c r="CO30" t="inlineStr"/>
-      <c r="CP30" t="inlineStr"/>
-      <c r="CQ30" t="inlineStr"/>
-      <c r="CR30" t="inlineStr"/>
-      <c r="CS30" t="inlineStr"/>
-      <c r="CT30" t="inlineStr"/>
-      <c r="CU30" t="inlineStr"/>
-      <c r="CV30" t="inlineStr"/>
-      <c r="CW30" t="inlineStr"/>
-      <c r="CX30" t="inlineStr"/>
-      <c r="CY30" t="inlineStr"/>
-      <c r="CZ30" t="inlineStr"/>
-      <c r="DA30" t="inlineStr"/>
-      <c r="DB30" t="inlineStr"/>
-      <c r="DC30" t="inlineStr"/>
-      <c r="DD30" t="inlineStr"/>
-      <c r="DE30" t="inlineStr"/>
-      <c r="DF30" t="inlineStr"/>
-      <c r="DG30" t="inlineStr"/>
-      <c r="DH30" t="inlineStr"/>
-      <c r="DI30" t="inlineStr"/>
-      <c r="DJ30" t="inlineStr"/>
-      <c r="DK30" t="inlineStr"/>
-      <c r="DL30" t="inlineStr"/>
-      <c r="DM30" t="inlineStr"/>
-      <c r="DN30" t="inlineStr"/>
-      <c r="DO30" t="inlineStr"/>
-      <c r="DP30" t="inlineStr"/>
-      <c r="DQ30" t="inlineStr"/>
-      <c r="DR30" t="inlineStr"/>
-      <c r="DS30" t="inlineStr"/>
-      <c r="DT30" t="inlineStr"/>
-      <c r="DU30" t="inlineStr"/>
-      <c r="DV30" t="inlineStr"/>
-      <c r="DW30" t="inlineStr"/>
-      <c r="DX30" t="inlineStr"/>
-      <c r="DY30" t="inlineStr"/>
-      <c r="DZ30" t="inlineStr"/>
-      <c r="EA30" t="inlineStr"/>
-      <c r="EB30" t="inlineStr"/>
-      <c r="EC30" t="inlineStr"/>
-      <c r="ED30" t="inlineStr"/>
-      <c r="EE30" t="inlineStr"/>
-      <c r="EF30" t="inlineStr"/>
-      <c r="EG30" t="inlineStr"/>
-      <c r="EH30" t="inlineStr"/>
-      <c r="EI30" t="inlineStr"/>
-      <c r="EJ30" t="inlineStr"/>
-      <c r="EK30" t="inlineStr"/>
-      <c r="EL30" t="inlineStr"/>
-      <c r="EM30" t="inlineStr"/>
-      <c r="EN30" t="inlineStr"/>
-      <c r="EO30" t="inlineStr"/>
-      <c r="EP30" t="inlineStr"/>
-      <c r="EQ30" t="inlineStr"/>
-      <c r="ER30" t="inlineStr"/>
-      <c r="ES30" t="inlineStr"/>
-      <c r="ET30" t="inlineStr"/>
-      <c r="EU30" t="inlineStr"/>
-      <c r="EV30" t="inlineStr"/>
-      <c r="EW30" t="inlineStr"/>
-      <c r="EX30" t="inlineStr"/>
-      <c r="EY30" t="inlineStr"/>
-      <c r="EZ30" t="inlineStr"/>
-      <c r="FA30" t="inlineStr"/>
-      <c r="FB30" t="inlineStr"/>
-      <c r="FC30" t="inlineStr"/>
-      <c r="FD30" t="inlineStr"/>
-      <c r="FE30" t="inlineStr"/>
-      <c r="FF30" t="inlineStr"/>
-      <c r="FG30" t="inlineStr"/>
-      <c r="FH30" t="inlineStr"/>
-      <c r="FI30" t="inlineStr"/>
-      <c r="FJ30" t="inlineStr"/>
-      <c r="FK30" t="inlineStr"/>
-      <c r="FL30" t="inlineStr"/>
-      <c r="FM30" t="inlineStr"/>
-      <c r="FN30" t="inlineStr"/>
-      <c r="FO30" t="inlineStr"/>
-      <c r="FP30" t="inlineStr"/>
-      <c r="FQ30" t="inlineStr"/>
-      <c r="FR30" t="inlineStr"/>
-      <c r="FS30" t="inlineStr"/>
-      <c r="FT30" t="inlineStr"/>
-      <c r="FU30" t="inlineStr"/>
-      <c r="FV30" t="inlineStr"/>
-      <c r="FW30" t="inlineStr"/>
-      <c r="FX30" t="inlineStr"/>
-      <c r="FY30" t="inlineStr"/>
-      <c r="FZ30" t="inlineStr"/>
-      <c r="GA30" t="inlineStr"/>
-      <c r="GB30" t="inlineStr"/>
-      <c r="GC30" t="inlineStr"/>
-      <c r="GD30" t="inlineStr"/>
-      <c r="GE30" t="inlineStr"/>
-      <c r="GF30" t="inlineStr"/>
-      <c r="GG30" t="inlineStr"/>
-      <c r="GH30" t="inlineStr"/>
-      <c r="GI30" t="inlineStr"/>
-      <c r="GJ30" t="inlineStr"/>
-      <c r="GK30" t="inlineStr"/>
-      <c r="GL30" t="inlineStr"/>
-      <c r="GM30" t="inlineStr"/>
-      <c r="GN30" t="inlineStr"/>
-      <c r="GO30" t="inlineStr"/>
-      <c r="GP30" t="inlineStr"/>
-      <c r="GQ30" t="inlineStr"/>
-      <c r="GR30" t="inlineStr"/>
-      <c r="GS30" t="inlineStr"/>
-      <c r="GT30" t="inlineStr"/>
-      <c r="GU30" t="inlineStr"/>
-      <c r="GV30" t="inlineStr"/>
-      <c r="GW30" t="inlineStr"/>
-      <c r="GX30" t="inlineStr"/>
-      <c r="GY30" t="inlineStr"/>
-      <c r="GZ30" t="inlineStr"/>
-      <c r="HA30" t="inlineStr"/>
-      <c r="HB30" t="inlineStr"/>
-      <c r="HC30" t="inlineStr"/>
-      <c r="HD30" t="inlineStr"/>
-      <c r="HE30" t="inlineStr"/>
-      <c r="HF30" t="inlineStr"/>
-      <c r="HG30" t="inlineStr"/>
-      <c r="HH30" t="inlineStr"/>
-      <c r="HI30" t="inlineStr"/>
-      <c r="HJ30" t="inlineStr"/>
-      <c r="HK30" t="inlineStr"/>
-      <c r="HL30" t="inlineStr"/>
-      <c r="HM30" t="inlineStr"/>
-      <c r="HN30" t="inlineStr"/>
-      <c r="HO30" t="inlineStr"/>
-      <c r="HP30" t="inlineStr"/>
-      <c r="HQ30" t="inlineStr"/>
-      <c r="HR30" t="inlineStr"/>
-      <c r="HS30" t="inlineStr"/>
-      <c r="HT30" t="inlineStr"/>
-      <c r="HU30" t="inlineStr"/>
-      <c r="HV30" t="inlineStr"/>
-      <c r="HW30" t="inlineStr"/>
-      <c r="HX30" t="inlineStr"/>
-      <c r="HY30" t="inlineStr"/>
-      <c r="HZ30" t="inlineStr"/>
-      <c r="IA30" t="inlineStr"/>
-      <c r="IB30" t="inlineStr"/>
-      <c r="IC30" t="inlineStr"/>
-      <c r="ID30" t="inlineStr"/>
-      <c r="IE30" t="inlineStr"/>
-      <c r="IF30" t="inlineStr"/>
-      <c r="IG30" t="inlineStr"/>
-      <c r="IH30" t="inlineStr"/>
-      <c r="II30" t="inlineStr"/>
-      <c r="IJ30" t="inlineStr"/>
-      <c r="IK30" t="inlineStr"/>
-      <c r="IL30" t="inlineStr"/>
-      <c r="IM30" t="inlineStr"/>
-      <c r="IN30" t="inlineStr"/>
-      <c r="IO30" t="inlineStr"/>
-      <c r="IP30" t="inlineStr"/>
-      <c r="IQ30" t="inlineStr"/>
-      <c r="IR30" t="inlineStr"/>
-      <c r="IS30" t="inlineStr"/>
-      <c r="IT30" t="inlineStr"/>
-      <c r="IU30" t="inlineStr"/>
-      <c r="IV30" t="inlineStr"/>
-      <c r="IW30" t="inlineStr"/>
-      <c r="IX30" t="inlineStr"/>
-      <c r="IY30" t="inlineStr"/>
-      <c r="IZ30" t="inlineStr"/>
-      <c r="JA30" t="inlineStr"/>
-      <c r="JB30" t="inlineStr"/>
-      <c r="JC30" t="inlineStr"/>
-      <c r="JD30" t="inlineStr"/>
-      <c r="JE30" t="inlineStr"/>
-      <c r="JF30" t="inlineStr"/>
-      <c r="JG30" t="inlineStr"/>
-      <c r="JH30" t="inlineStr"/>
-      <c r="JI30" t="inlineStr"/>
-      <c r="JJ30" t="inlineStr"/>
-      <c r="JK30" t="inlineStr"/>
-      <c r="JL30" t="inlineStr"/>
-      <c r="JM30" t="inlineStr"/>
-      <c r="JN30" t="inlineStr"/>
-      <c r="JO30" t="inlineStr"/>
-      <c r="JP30" t="inlineStr"/>
-      <c r="JQ30" t="inlineStr"/>
-      <c r="JR30" t="inlineStr"/>
-      <c r="JS30" t="inlineStr"/>
-      <c r="JT30" t="inlineStr"/>
-      <c r="JU30" t="inlineStr"/>
-      <c r="JV30" t="inlineStr"/>
-      <c r="JW30" t="inlineStr"/>
-      <c r="JX30" t="inlineStr"/>
-      <c r="JY30" t="inlineStr"/>
-      <c r="JZ30" t="inlineStr"/>
-      <c r="KA30" t="inlineStr"/>
-      <c r="KB30" t="inlineStr"/>
-      <c r="KC30" t="inlineStr"/>
-      <c r="KD30" t="inlineStr"/>
-      <c r="KE30" t="inlineStr"/>
-      <c r="KF30" t="inlineStr"/>
-      <c r="KG30" t="inlineStr"/>
-      <c r="KH30" t="inlineStr"/>
-      <c r="KI30" t="inlineStr"/>
-      <c r="KJ30" t="inlineStr"/>
-      <c r="KK30" t="inlineStr"/>
-      <c r="KL30" t="inlineStr"/>
-      <c r="KM30" t="inlineStr"/>
-      <c r="KN30" t="inlineStr"/>
-      <c r="KO30" t="inlineStr"/>
-      <c r="KP30" t="inlineStr"/>
-      <c r="KQ30" t="inlineStr"/>
-      <c r="KR30" t="inlineStr"/>
-      <c r="KS30" t="inlineStr"/>
-      <c r="KT30" t="inlineStr"/>
-      <c r="KU30" t="inlineStr"/>
-      <c r="KV30" t="inlineStr"/>
-      <c r="KW30" t="inlineStr"/>
-      <c r="KX30" t="inlineStr"/>
-      <c r="KY30" t="inlineStr"/>
-      <c r="KZ30" t="inlineStr"/>
-      <c r="LA30" t="inlineStr"/>
-      <c r="LB30" t="inlineStr"/>
-      <c r="LC30" t="inlineStr"/>
-      <c r="LD30" t="inlineStr"/>
-      <c r="LE30" t="inlineStr"/>
-      <c r="LF30" t="inlineStr"/>
-      <c r="LG30" t="inlineStr"/>
-      <c r="LH30" t="inlineStr"/>
-      <c r="LI30" t="inlineStr"/>
-      <c r="LJ30" t="inlineStr"/>
-      <c r="LK30" t="inlineStr"/>
-      <c r="LL30" t="inlineStr"/>
-      <c r="LM30" t="inlineStr"/>
-      <c r="LN30" t="inlineStr"/>
-      <c r="LO30" t="inlineStr"/>
-      <c r="LP30" t="inlineStr"/>
-      <c r="LQ30" t="inlineStr"/>
-      <c r="LR30" t="inlineStr"/>
-      <c r="LS30" t="inlineStr"/>
-      <c r="LT30" t="inlineStr"/>
-      <c r="LU30" t="inlineStr"/>
-      <c r="LV30" t="inlineStr"/>
-      <c r="LW30" t="inlineStr"/>
-      <c r="LX30" t="inlineStr"/>
-      <c r="LY30" t="inlineStr"/>
-      <c r="LZ30" t="inlineStr"/>
-      <c r="MA30" t="inlineStr"/>
-      <c r="MB30" t="inlineStr"/>
-      <c r="MC30" t="inlineStr"/>
-      <c r="MD30" t="inlineStr"/>
-      <c r="ME30" t="inlineStr"/>
-      <c r="MF30" t="inlineStr"/>
-      <c r="MG30" t="inlineStr"/>
-      <c r="MH30" t="inlineStr"/>
-      <c r="MI30" t="inlineStr"/>
-      <c r="MJ30" t="inlineStr"/>
-      <c r="MK30" t="inlineStr"/>
-      <c r="ML30" t="inlineStr"/>
-      <c r="MM30" t="inlineStr"/>
-      <c r="MN30" t="inlineStr"/>
-      <c r="MO30" t="inlineStr"/>
-      <c r="MP30" t="inlineStr"/>
-      <c r="MQ30" t="inlineStr"/>
-      <c r="MR30" t="inlineStr"/>
-      <c r="MS30" t="inlineStr"/>
-      <c r="MT30" t="inlineStr"/>
-      <c r="MU30" t="inlineStr"/>
-      <c r="MV30" t="inlineStr"/>
-      <c r="MW30" t="inlineStr"/>
-      <c r="MX30" t="inlineStr"/>
-      <c r="MY30" t="inlineStr"/>
-      <c r="MZ30" t="inlineStr"/>
-      <c r="NA30" t="inlineStr"/>
-      <c r="NB30" t="inlineStr"/>
-      <c r="NC30" t="inlineStr"/>
-      <c r="ND30" t="inlineStr"/>
-      <c r="NE30" t="inlineStr"/>
-      <c r="NF30" t="inlineStr"/>
-      <c r="NG30" t="inlineStr"/>
-      <c r="NH30" t="inlineStr"/>
-      <c r="NI30" t="inlineStr"/>
-      <c r="NJ30" t="inlineStr"/>
-      <c r="NK30" t="inlineStr"/>
-      <c r="NL30" t="inlineStr"/>
-      <c r="NM30" t="inlineStr"/>
-      <c r="NN30" t="inlineStr"/>
-      <c r="NO30" t="inlineStr"/>
-      <c r="NP30" t="inlineStr"/>
-      <c r="NQ30" t="inlineStr"/>
-      <c r="NR30" t="inlineStr"/>
-      <c r="NS30" t="inlineStr"/>
-      <c r="NT30" t="inlineStr"/>
-      <c r="NU30" t="inlineStr"/>
-      <c r="NV30" t="inlineStr"/>
-      <c r="NW30" t="inlineStr"/>
-      <c r="NX30" t="inlineStr"/>
-      <c r="NY30" t="inlineStr"/>
-      <c r="NZ30" t="inlineStr"/>
-      <c r="OA30" t="inlineStr"/>
-      <c r="OB30" t="inlineStr"/>
-      <c r="OC30" t="inlineStr"/>
-      <c r="OD30" t="inlineStr"/>
-      <c r="OE30" t="inlineStr"/>
-      <c r="OF30" t="inlineStr"/>
-      <c r="OG30" t="inlineStr"/>
-      <c r="OH30" t="inlineStr"/>
-      <c r="OI30" t="inlineStr"/>
-      <c r="OJ30" t="inlineStr"/>
-      <c r="OK30" t="inlineStr"/>
-      <c r="OL30" t="inlineStr"/>
-      <c r="OM30" t="inlineStr"/>
-      <c r="ON30" t="inlineStr"/>
-      <c r="OO30" t="inlineStr"/>
-      <c r="OP30" t="inlineStr"/>
-      <c r="OQ30" t="inlineStr"/>
-      <c r="OR30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT31" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY31" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA31" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="CB31" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC31" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD31" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="CE31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF31" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR31" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT31" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU31" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV31" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW31" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX31" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY31" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE31" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF31" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="DG31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI31" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ31" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET31" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV31" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW31" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX31" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY31" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ31" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA31" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ31" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB31" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD31" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX31" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY31" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="HZ31" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA31" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB31" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC31" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG31" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH31" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ31" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK31" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL31" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM31" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN31" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO31" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA31" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC31" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD31" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE31" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF31" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG31" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH31" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM31" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN31" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO31" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="JP31" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ31" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT32" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX32" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY32" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA32" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="CB32" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD32" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="CE32" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF32" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR32" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT32" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU32" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV32" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW32" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX32" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY32" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE32" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF32" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="DG32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI32" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK32" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL32" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM32" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN32" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO32" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET32" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV32" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW32" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX32" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY32" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ32" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA32" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ32" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB32" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD32" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX32" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY32" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="HZ32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA32" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB32" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC32" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG32" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH32" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ32" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK32" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL32" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM32" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN32" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO32" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA32" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC32" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD32" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE32" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF32" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG32" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH32" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM32" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO32" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="JP32" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ32" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO33" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ33" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT33" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY33" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA33" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="CB33" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC33" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD33" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="CE33" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF33" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR33" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT33" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU33" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV33" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW33" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX33" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY33" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE33" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF33" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="DG33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI33" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ33" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL33" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM33" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN33" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET33" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV33" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW33" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX33" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY33" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ33" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA33" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ33" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB33" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD33" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX33" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY33" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="HZ33" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA33" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB33" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC33" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG33" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH33" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ33" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK33" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL33" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM33" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN33" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO33" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA33" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC33" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD33" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE33" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF33" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG33" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH33" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM33" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO33" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="JP33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ33" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA34" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
+      <c r="BM34" t="inlineStr"/>
+      <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ34" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT34" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU34" t="inlineStr"/>
+      <c r="BV34" t="inlineStr"/>
+      <c r="BW34" t="inlineStr"/>
+      <c r="BX34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY34" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="BZ34" t="inlineStr"/>
+      <c r="CA34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC34" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE34" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF34" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CG34" t="inlineStr"/>
+      <c r="CH34" t="inlineStr"/>
+      <c r="CI34" t="inlineStr"/>
+      <c r="CJ34" t="inlineStr"/>
+      <c r="CK34" t="inlineStr"/>
+      <c r="CL34" t="inlineStr"/>
+      <c r="CM34" t="inlineStr"/>
+      <c r="CN34" t="inlineStr"/>
+      <c r="CO34" t="inlineStr"/>
+      <c r="CP34" t="inlineStr"/>
+      <c r="CQ34" t="inlineStr"/>
+      <c r="CR34" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CS34" t="inlineStr"/>
+      <c r="CT34" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU34" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV34" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW34" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX34" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY34" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CZ34" t="inlineStr"/>
+      <c r="DA34" t="inlineStr"/>
+      <c r="DB34" t="inlineStr"/>
+      <c r="DC34" t="inlineStr"/>
+      <c r="DD34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE34" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF34" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI34" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="DJ34" t="inlineStr"/>
+      <c r="DK34" t="inlineStr"/>
+      <c r="DL34" t="inlineStr"/>
+      <c r="DM34" t="inlineStr"/>
+      <c r="DN34" t="inlineStr"/>
+      <c r="DO34" t="inlineStr"/>
+      <c r="DP34" t="inlineStr"/>
+      <c r="DQ34" t="inlineStr"/>
+      <c r="DR34" t="inlineStr"/>
+      <c r="DS34" t="inlineStr"/>
+      <c r="DT34" t="inlineStr"/>
+      <c r="DU34" t="inlineStr"/>
+      <c r="DV34" t="inlineStr"/>
+      <c r="DW34" t="inlineStr"/>
+      <c r="DX34" t="inlineStr"/>
+      <c r="DY34" t="inlineStr"/>
+      <c r="DZ34" t="inlineStr"/>
+      <c r="EA34" t="inlineStr"/>
+      <c r="EB34" t="inlineStr"/>
+      <c r="EC34" t="inlineStr"/>
+      <c r="ED34" t="inlineStr"/>
+      <c r="EE34" t="inlineStr"/>
+      <c r="EF34" t="inlineStr"/>
+      <c r="EG34" t="inlineStr"/>
+      <c r="EH34" t="inlineStr"/>
+      <c r="EI34" t="inlineStr"/>
+      <c r="EJ34" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL34" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM34" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN34" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EP34" t="inlineStr"/>
+      <c r="EQ34" t="inlineStr"/>
+      <c r="ER34" t="inlineStr"/>
+      <c r="ES34" t="inlineStr"/>
+      <c r="ET34" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EU34" t="inlineStr"/>
+      <c r="EV34" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW34" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX34" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY34" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ34" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA34" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FB34" t="inlineStr"/>
+      <c r="FC34" t="inlineStr"/>
+      <c r="FD34" t="inlineStr"/>
+      <c r="FE34" t="inlineStr"/>
+      <c r="FF34" t="inlineStr"/>
+      <c r="FG34" t="inlineStr"/>
+      <c r="FH34" t="inlineStr"/>
+      <c r="FI34" t="inlineStr"/>
+      <c r="FJ34" t="inlineStr"/>
+      <c r="FK34" t="inlineStr"/>
+      <c r="FL34" t="inlineStr"/>
+      <c r="FM34" t="inlineStr"/>
+      <c r="FN34" t="inlineStr"/>
+      <c r="FO34" t="inlineStr"/>
+      <c r="FP34" t="inlineStr"/>
+      <c r="FQ34" t="inlineStr"/>
+      <c r="FR34" t="inlineStr"/>
+      <c r="FS34" t="inlineStr"/>
+      <c r="FT34" t="inlineStr"/>
+      <c r="FU34" t="inlineStr"/>
+      <c r="FV34" t="inlineStr"/>
+      <c r="FW34" t="inlineStr"/>
+      <c r="FX34" t="inlineStr"/>
+      <c r="FY34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ34" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA34" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB34" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD34" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="GE34" t="inlineStr"/>
+      <c r="GF34" t="inlineStr"/>
+      <c r="GG34" t="inlineStr"/>
+      <c r="GH34" t="inlineStr"/>
+      <c r="GI34" t="inlineStr"/>
+      <c r="GJ34" t="inlineStr"/>
+      <c r="GK34" t="inlineStr"/>
+      <c r="GL34" t="inlineStr"/>
+      <c r="GM34" t="inlineStr"/>
+      <c r="GN34" t="inlineStr"/>
+      <c r="GO34" t="inlineStr"/>
+      <c r="GP34" t="inlineStr"/>
+      <c r="GQ34" t="inlineStr"/>
+      <c r="GR34" t="inlineStr"/>
+      <c r="GS34" t="inlineStr"/>
+      <c r="GT34" t="inlineStr"/>
+      <c r="GU34" t="inlineStr"/>
+      <c r="GV34" t="inlineStr"/>
+      <c r="GW34" t="inlineStr"/>
+      <c r="GX34" t="inlineStr"/>
+      <c r="GY34" t="inlineStr"/>
+      <c r="GZ34" t="inlineStr"/>
+      <c r="HA34" t="inlineStr"/>
+      <c r="HB34" t="inlineStr"/>
+      <c r="HC34" t="inlineStr"/>
+      <c r="HD34" t="inlineStr"/>
+      <c r="HE34" t="inlineStr"/>
+      <c r="HF34" t="inlineStr"/>
+      <c r="HG34" t="inlineStr"/>
+      <c r="HH34" t="inlineStr"/>
+      <c r="HI34" t="inlineStr"/>
+      <c r="HJ34" t="inlineStr"/>
+      <c r="HK34" t="inlineStr"/>
+      <c r="HL34" t="inlineStr"/>
+      <c r="HM34" t="inlineStr"/>
+      <c r="HN34" t="inlineStr"/>
+      <c r="HO34" t="inlineStr"/>
+      <c r="HP34" t="inlineStr"/>
+      <c r="HQ34" t="inlineStr"/>
+      <c r="HR34" t="inlineStr"/>
+      <c r="HS34" t="inlineStr"/>
+      <c r="HT34" t="inlineStr"/>
+      <c r="HU34" t="inlineStr"/>
+      <c r="HV34" t="inlineStr"/>
+      <c r="HW34" t="inlineStr"/>
+      <c r="HX34" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ34" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA34" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB34" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC34" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID34" t="inlineStr"/>
+      <c r="IE34" t="inlineStr"/>
+      <c r="IF34" t="inlineStr"/>
+      <c r="IG34" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH34" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="II34" t="inlineStr"/>
+      <c r="IJ34" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK34" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL34" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM34" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN34" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO34" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="IP34" t="inlineStr"/>
+      <c r="IQ34" t="inlineStr"/>
+      <c r="IR34" t="inlineStr"/>
+      <c r="IS34" t="inlineStr"/>
+      <c r="IT34" t="inlineStr"/>
+      <c r="IU34" t="inlineStr"/>
+      <c r="IV34" t="inlineStr"/>
+      <c r="IW34" t="inlineStr"/>
+      <c r="IX34" t="inlineStr"/>
+      <c r="IY34" t="inlineStr"/>
+      <c r="IZ34" t="inlineStr"/>
+      <c r="JA34" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JB34" t="inlineStr"/>
+      <c r="JC34" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD34" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE34" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF34" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG34" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH34" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JI34" t="inlineStr"/>
+      <c r="JJ34" t="inlineStr"/>
+      <c r="JK34" t="inlineStr"/>
+      <c r="JL34" t="inlineStr"/>
+      <c r="JM34" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO34" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP34" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ34" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="JS34" t="inlineStr"/>
+      <c r="JT34" t="inlineStr"/>
+      <c r="JU34" t="inlineStr"/>
+      <c r="JV34" t="inlineStr"/>
+      <c r="JW34" t="inlineStr"/>
+      <c r="JX34" t="inlineStr"/>
+      <c r="JY34" t="inlineStr"/>
+      <c r="JZ34" t="inlineStr"/>
+      <c r="KA34" t="inlineStr"/>
+      <c r="KB34" t="inlineStr"/>
+      <c r="KC34" t="inlineStr"/>
+      <c r="KD34" t="inlineStr"/>
+      <c r="KE34" t="inlineStr"/>
+      <c r="KF34" t="inlineStr"/>
+      <c r="KG34" t="inlineStr"/>
+      <c r="KH34" t="inlineStr"/>
+      <c r="KI34" t="inlineStr"/>
+      <c r="KJ34" t="inlineStr"/>
+      <c r="KK34" t="inlineStr"/>
+      <c r="KL34" t="inlineStr"/>
+      <c r="KM34" t="inlineStr"/>
+      <c r="KN34" t="inlineStr"/>
+      <c r="KO34" t="inlineStr"/>
+      <c r="KP34" t="inlineStr"/>
+      <c r="KQ34" t="inlineStr"/>
+      <c r="KR34" t="inlineStr"/>
+      <c r="KS34" t="inlineStr"/>
+      <c r="KT34" t="inlineStr"/>
+      <c r="KU34" t="inlineStr"/>
+      <c r="KV34" t="inlineStr"/>
+      <c r="KW34" t="inlineStr"/>
+      <c r="KX34" t="inlineStr"/>
+      <c r="KY34" t="inlineStr"/>
+      <c r="KZ34" t="inlineStr"/>
+      <c r="LA34" t="inlineStr"/>
+      <c r="LB34" t="inlineStr"/>
+      <c r="LC34" t="inlineStr"/>
+      <c r="LD34" t="inlineStr"/>
+      <c r="LE34" t="inlineStr"/>
+      <c r="LF34" t="inlineStr"/>
+      <c r="LG34" t="inlineStr"/>
+      <c r="LH34" t="inlineStr"/>
+      <c r="LI34" t="inlineStr"/>
+      <c r="LJ34" t="inlineStr"/>
+      <c r="LK34" t="inlineStr"/>
+      <c r="LL34" t="inlineStr"/>
+      <c r="LM34" t="inlineStr"/>
+      <c r="LN34" t="inlineStr"/>
+      <c r="LO34" t="inlineStr"/>
+      <c r="LP34" t="inlineStr"/>
+      <c r="LQ34" t="inlineStr"/>
+      <c r="LR34" t="inlineStr"/>
+      <c r="LS34" t="inlineStr"/>
+      <c r="LT34" t="inlineStr"/>
+      <c r="LU34" t="inlineStr"/>
+      <c r="LV34" t="inlineStr"/>
+      <c r="LW34" t="inlineStr"/>
+      <c r="LX34" t="inlineStr"/>
+      <c r="LY34" t="inlineStr"/>
+      <c r="LZ34" t="inlineStr"/>
+      <c r="MA34" t="inlineStr"/>
+      <c r="MB34" t="inlineStr"/>
+      <c r="MC34" t="inlineStr"/>
+      <c r="MD34" t="inlineStr"/>
+      <c r="ME34" t="inlineStr"/>
+      <c r="MF34" t="inlineStr"/>
+      <c r="MG34" t="inlineStr"/>
+      <c r="MH34" t="inlineStr"/>
+      <c r="MI34" t="inlineStr"/>
+      <c r="MJ34" t="inlineStr"/>
+      <c r="MK34" t="inlineStr"/>
+      <c r="ML34" t="inlineStr"/>
+      <c r="MM34" t="inlineStr"/>
+      <c r="MN34" t="inlineStr"/>
+      <c r="MO34" t="inlineStr"/>
+      <c r="MP34" t="inlineStr"/>
+      <c r="MQ34" t="inlineStr"/>
+      <c r="MR34" t="inlineStr"/>
+      <c r="MS34" t="inlineStr"/>
+      <c r="MT34" t="inlineStr"/>
+      <c r="MU34" t="inlineStr"/>
+      <c r="MV34" t="inlineStr"/>
+      <c r="MW34" t="inlineStr"/>
+      <c r="MX34" t="inlineStr"/>
+      <c r="MY34" t="inlineStr"/>
+      <c r="MZ34" t="inlineStr"/>
+      <c r="NA34" t="inlineStr"/>
+      <c r="NB34" t="inlineStr"/>
+      <c r="NC34" t="inlineStr"/>
+      <c r="ND34" t="inlineStr"/>
+      <c r="NE34" t="inlineStr"/>
+      <c r="NF34" t="inlineStr"/>
+      <c r="NG34" t="inlineStr"/>
+      <c r="NH34" t="inlineStr"/>
+      <c r="NI34" t="inlineStr"/>
+      <c r="NJ34" t="inlineStr"/>
+      <c r="NK34" t="inlineStr"/>
+      <c r="NL34" t="inlineStr"/>
+      <c r="NM34" t="inlineStr"/>
+      <c r="NN34" t="inlineStr"/>
+      <c r="NO34" t="inlineStr"/>
+      <c r="NP34" t="inlineStr"/>
+      <c r="NQ34" t="inlineStr"/>
+      <c r="NR34" t="inlineStr"/>
+      <c r="NS34" t="inlineStr"/>
+      <c r="NT34" t="inlineStr"/>
+      <c r="NU34" t="inlineStr"/>
+      <c r="NV34" t="inlineStr"/>
+      <c r="NW34" t="inlineStr"/>
+      <c r="NX34" t="inlineStr"/>
+      <c r="NY34" t="inlineStr"/>
+      <c r="NZ34" t="inlineStr"/>
+      <c r="OA34" t="inlineStr"/>
+      <c r="OB34" t="inlineStr"/>
+      <c r="OC34" t="inlineStr"/>
+      <c r="OD34" t="inlineStr"/>
+      <c r="OE34" t="inlineStr"/>
+      <c r="OF34" t="inlineStr"/>
+      <c r="OG34" t="inlineStr"/>
+      <c r="OH34" t="inlineStr"/>
+      <c r="OI34" t="inlineStr"/>
+      <c r="OJ34" t="inlineStr"/>
+      <c r="OK34" t="inlineStr"/>
+      <c r="OL34" t="inlineStr"/>
+      <c r="OM34" t="inlineStr"/>
+      <c r="ON34" t="inlineStr"/>
+      <c r="OO34" t="inlineStr"/>
+      <c r="OP34" t="inlineStr"/>
+      <c r="OQ34" t="inlineStr"/>
+      <c r="OR34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR34"/>
+  <dimension ref="A1:OR43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10476,12 +10476,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -10512,9 +10506,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
           <t>4.39</t>
@@ -10525,7 +10516,6 @@
           <t>2.88</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
           <t>2.92</t>
@@ -10556,23 +10546,11 @@
           <t>2.90</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr">
         <is>
           <t>67</t>
@@ -10603,10 +10581,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
           <t>-1</t>
@@ -10637,18 +10611,6 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
-      <c r="BE34" t="inlineStr"/>
-      <c r="BF34" t="inlineStr"/>
-      <c r="BG34" t="inlineStr"/>
-      <c r="BH34" t="inlineStr"/>
-      <c r="BI34" t="inlineStr"/>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
-      <c r="BM34" t="inlineStr"/>
-      <c r="BN34" t="inlineStr"/>
       <c r="BO34" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -10679,9 +10641,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU34" t="inlineStr"/>
-      <c r="BV34" t="inlineStr"/>
-      <c r="BW34" t="inlineStr"/>
       <c r="BX34" t="inlineStr">
         <is>
           <t>3.06</t>
@@ -10692,7 +10651,6 @@
           <t>2.17</t>
         </is>
       </c>
-      <c r="BZ34" t="inlineStr"/>
       <c r="CA34" t="inlineStr">
         <is>
           <t>2.25</t>
@@ -10723,23 +10681,11 @@
           <t>2.16</t>
         </is>
       </c>
-      <c r="CG34" t="inlineStr"/>
-      <c r="CH34" t="inlineStr"/>
-      <c r="CI34" t="inlineStr"/>
-      <c r="CJ34" t="inlineStr"/>
-      <c r="CK34" t="inlineStr"/>
-      <c r="CL34" t="inlineStr"/>
-      <c r="CM34" t="inlineStr"/>
-      <c r="CN34" t="inlineStr"/>
-      <c r="CO34" t="inlineStr"/>
-      <c r="CP34" t="inlineStr"/>
-      <c r="CQ34" t="inlineStr"/>
       <c r="CR34" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="CS34" t="inlineStr"/>
       <c r="CT34" t="inlineStr">
         <is>
           <t>74</t>
@@ -10770,10 +10716,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="CZ34" t="inlineStr"/>
-      <c r="DA34" t="inlineStr"/>
-      <c r="DB34" t="inlineStr"/>
-      <c r="DC34" t="inlineStr"/>
       <c r="DD34" t="inlineStr">
         <is>
           <t>0</t>
@@ -10804,32 +10746,6 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="DJ34" t="inlineStr"/>
-      <c r="DK34" t="inlineStr"/>
-      <c r="DL34" t="inlineStr"/>
-      <c r="DM34" t="inlineStr"/>
-      <c r="DN34" t="inlineStr"/>
-      <c r="DO34" t="inlineStr"/>
-      <c r="DP34" t="inlineStr"/>
-      <c r="DQ34" t="inlineStr"/>
-      <c r="DR34" t="inlineStr"/>
-      <c r="DS34" t="inlineStr"/>
-      <c r="DT34" t="inlineStr"/>
-      <c r="DU34" t="inlineStr"/>
-      <c r="DV34" t="inlineStr"/>
-      <c r="DW34" t="inlineStr"/>
-      <c r="DX34" t="inlineStr"/>
-      <c r="DY34" t="inlineStr"/>
-      <c r="DZ34" t="inlineStr"/>
-      <c r="EA34" t="inlineStr"/>
-      <c r="EB34" t="inlineStr"/>
-      <c r="EC34" t="inlineStr"/>
-      <c r="ED34" t="inlineStr"/>
-      <c r="EE34" t="inlineStr"/>
-      <c r="EF34" t="inlineStr"/>
-      <c r="EG34" t="inlineStr"/>
-      <c r="EH34" t="inlineStr"/>
-      <c r="EI34" t="inlineStr"/>
       <c r="EJ34" t="inlineStr">
         <is>
           <t>2.60</t>
@@ -10860,16 +10776,11 @@
           <t>1.75</t>
         </is>
       </c>
-      <c r="EP34" t="inlineStr"/>
-      <c r="EQ34" t="inlineStr"/>
-      <c r="ER34" t="inlineStr"/>
-      <c r="ES34" t="inlineStr"/>
       <c r="ET34" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="EU34" t="inlineStr"/>
       <c r="EV34" t="inlineStr">
         <is>
           <t>73</t>
@@ -10900,29 +10811,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="FB34" t="inlineStr"/>
-      <c r="FC34" t="inlineStr"/>
-      <c r="FD34" t="inlineStr"/>
-      <c r="FE34" t="inlineStr"/>
-      <c r="FF34" t="inlineStr"/>
-      <c r="FG34" t="inlineStr"/>
-      <c r="FH34" t="inlineStr"/>
-      <c r="FI34" t="inlineStr"/>
-      <c r="FJ34" t="inlineStr"/>
-      <c r="FK34" t="inlineStr"/>
-      <c r="FL34" t="inlineStr"/>
-      <c r="FM34" t="inlineStr"/>
-      <c r="FN34" t="inlineStr"/>
-      <c r="FO34" t="inlineStr"/>
-      <c r="FP34" t="inlineStr"/>
-      <c r="FQ34" t="inlineStr"/>
-      <c r="FR34" t="inlineStr"/>
-      <c r="FS34" t="inlineStr"/>
-      <c r="FT34" t="inlineStr"/>
-      <c r="FU34" t="inlineStr"/>
-      <c r="FV34" t="inlineStr"/>
-      <c r="FW34" t="inlineStr"/>
-      <c r="FX34" t="inlineStr"/>
       <c r="FY34" t="inlineStr">
         <is>
           <t>2</t>
@@ -10953,51 +10841,6 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="GE34" t="inlineStr"/>
-      <c r="GF34" t="inlineStr"/>
-      <c r="GG34" t="inlineStr"/>
-      <c r="GH34" t="inlineStr"/>
-      <c r="GI34" t="inlineStr"/>
-      <c r="GJ34" t="inlineStr"/>
-      <c r="GK34" t="inlineStr"/>
-      <c r="GL34" t="inlineStr"/>
-      <c r="GM34" t="inlineStr"/>
-      <c r="GN34" t="inlineStr"/>
-      <c r="GO34" t="inlineStr"/>
-      <c r="GP34" t="inlineStr"/>
-      <c r="GQ34" t="inlineStr"/>
-      <c r="GR34" t="inlineStr"/>
-      <c r="GS34" t="inlineStr"/>
-      <c r="GT34" t="inlineStr"/>
-      <c r="GU34" t="inlineStr"/>
-      <c r="GV34" t="inlineStr"/>
-      <c r="GW34" t="inlineStr"/>
-      <c r="GX34" t="inlineStr"/>
-      <c r="GY34" t="inlineStr"/>
-      <c r="GZ34" t="inlineStr"/>
-      <c r="HA34" t="inlineStr"/>
-      <c r="HB34" t="inlineStr"/>
-      <c r="HC34" t="inlineStr"/>
-      <c r="HD34" t="inlineStr"/>
-      <c r="HE34" t="inlineStr"/>
-      <c r="HF34" t="inlineStr"/>
-      <c r="HG34" t="inlineStr"/>
-      <c r="HH34" t="inlineStr"/>
-      <c r="HI34" t="inlineStr"/>
-      <c r="HJ34" t="inlineStr"/>
-      <c r="HK34" t="inlineStr"/>
-      <c r="HL34" t="inlineStr"/>
-      <c r="HM34" t="inlineStr"/>
-      <c r="HN34" t="inlineStr"/>
-      <c r="HO34" t="inlineStr"/>
-      <c r="HP34" t="inlineStr"/>
-      <c r="HQ34" t="inlineStr"/>
-      <c r="HR34" t="inlineStr"/>
-      <c r="HS34" t="inlineStr"/>
-      <c r="HT34" t="inlineStr"/>
-      <c r="HU34" t="inlineStr"/>
-      <c r="HV34" t="inlineStr"/>
-      <c r="HW34" t="inlineStr"/>
       <c r="HX34" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -11028,9 +10871,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID34" t="inlineStr"/>
-      <c r="IE34" t="inlineStr"/>
-      <c r="IF34" t="inlineStr"/>
       <c r="IG34" t="inlineStr">
         <is>
           <t>7.21</t>
@@ -11041,7 +10881,6 @@
           <t>7.63</t>
         </is>
       </c>
-      <c r="II34" t="inlineStr"/>
       <c r="IJ34" t="inlineStr">
         <is>
           <t>8.01</t>
@@ -11072,23 +10911,11 @@
           <t>8.58</t>
         </is>
       </c>
-      <c r="IP34" t="inlineStr"/>
-      <c r="IQ34" t="inlineStr"/>
-      <c r="IR34" t="inlineStr"/>
-      <c r="IS34" t="inlineStr"/>
-      <c r="IT34" t="inlineStr"/>
-      <c r="IU34" t="inlineStr"/>
-      <c r="IV34" t="inlineStr"/>
-      <c r="IW34" t="inlineStr"/>
-      <c r="IX34" t="inlineStr"/>
-      <c r="IY34" t="inlineStr"/>
-      <c r="IZ34" t="inlineStr"/>
       <c r="JA34" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="JB34" t="inlineStr"/>
       <c r="JC34" t="inlineStr">
         <is>
           <t>111</t>
@@ -11119,10 +10946,6 @@
           <t>119</t>
         </is>
       </c>
-      <c r="JI34" t="inlineStr"/>
-      <c r="JJ34" t="inlineStr"/>
-      <c r="JK34" t="inlineStr"/>
-      <c r="JL34" t="inlineStr"/>
       <c r="JM34" t="inlineStr">
         <is>
           <t>-3</t>
@@ -11153,136 +10976,4926 @@
           <t>4</t>
         </is>
       </c>
-      <c r="JS34" t="inlineStr"/>
-      <c r="JT34" t="inlineStr"/>
-      <c r="JU34" t="inlineStr"/>
-      <c r="JV34" t="inlineStr"/>
-      <c r="JW34" t="inlineStr"/>
-      <c r="JX34" t="inlineStr"/>
-      <c r="JY34" t="inlineStr"/>
-      <c r="JZ34" t="inlineStr"/>
-      <c r="KA34" t="inlineStr"/>
-      <c r="KB34" t="inlineStr"/>
-      <c r="KC34" t="inlineStr"/>
-      <c r="KD34" t="inlineStr"/>
-      <c r="KE34" t="inlineStr"/>
-      <c r="KF34" t="inlineStr"/>
-      <c r="KG34" t="inlineStr"/>
-      <c r="KH34" t="inlineStr"/>
-      <c r="KI34" t="inlineStr"/>
-      <c r="KJ34" t="inlineStr"/>
-      <c r="KK34" t="inlineStr"/>
-      <c r="KL34" t="inlineStr"/>
-      <c r="KM34" t="inlineStr"/>
-      <c r="KN34" t="inlineStr"/>
-      <c r="KO34" t="inlineStr"/>
-      <c r="KP34" t="inlineStr"/>
-      <c r="KQ34" t="inlineStr"/>
-      <c r="KR34" t="inlineStr"/>
-      <c r="KS34" t="inlineStr"/>
-      <c r="KT34" t="inlineStr"/>
-      <c r="KU34" t="inlineStr"/>
-      <c r="KV34" t="inlineStr"/>
-      <c r="KW34" t="inlineStr"/>
-      <c r="KX34" t="inlineStr"/>
-      <c r="KY34" t="inlineStr"/>
-      <c r="KZ34" t="inlineStr"/>
-      <c r="LA34" t="inlineStr"/>
-      <c r="LB34" t="inlineStr"/>
-      <c r="LC34" t="inlineStr"/>
-      <c r="LD34" t="inlineStr"/>
-      <c r="LE34" t="inlineStr"/>
-      <c r="LF34" t="inlineStr"/>
-      <c r="LG34" t="inlineStr"/>
-      <c r="LH34" t="inlineStr"/>
-      <c r="LI34" t="inlineStr"/>
-      <c r="LJ34" t="inlineStr"/>
-      <c r="LK34" t="inlineStr"/>
-      <c r="LL34" t="inlineStr"/>
-      <c r="LM34" t="inlineStr"/>
-      <c r="LN34" t="inlineStr"/>
-      <c r="LO34" t="inlineStr"/>
-      <c r="LP34" t="inlineStr"/>
-      <c r="LQ34" t="inlineStr"/>
-      <c r="LR34" t="inlineStr"/>
-      <c r="LS34" t="inlineStr"/>
-      <c r="LT34" t="inlineStr"/>
-      <c r="LU34" t="inlineStr"/>
-      <c r="LV34" t="inlineStr"/>
-      <c r="LW34" t="inlineStr"/>
-      <c r="LX34" t="inlineStr"/>
-      <c r="LY34" t="inlineStr"/>
-      <c r="LZ34" t="inlineStr"/>
-      <c r="MA34" t="inlineStr"/>
-      <c r="MB34" t="inlineStr"/>
-      <c r="MC34" t="inlineStr"/>
-      <c r="MD34" t="inlineStr"/>
-      <c r="ME34" t="inlineStr"/>
-      <c r="MF34" t="inlineStr"/>
-      <c r="MG34" t="inlineStr"/>
-      <c r="MH34" t="inlineStr"/>
-      <c r="MI34" t="inlineStr"/>
-      <c r="MJ34" t="inlineStr"/>
-      <c r="MK34" t="inlineStr"/>
-      <c r="ML34" t="inlineStr"/>
-      <c r="MM34" t="inlineStr"/>
-      <c r="MN34" t="inlineStr"/>
-      <c r="MO34" t="inlineStr"/>
-      <c r="MP34" t="inlineStr"/>
-      <c r="MQ34" t="inlineStr"/>
-      <c r="MR34" t="inlineStr"/>
-      <c r="MS34" t="inlineStr"/>
-      <c r="MT34" t="inlineStr"/>
-      <c r="MU34" t="inlineStr"/>
-      <c r="MV34" t="inlineStr"/>
-      <c r="MW34" t="inlineStr"/>
-      <c r="MX34" t="inlineStr"/>
-      <c r="MY34" t="inlineStr"/>
-      <c r="MZ34" t="inlineStr"/>
-      <c r="NA34" t="inlineStr"/>
-      <c r="NB34" t="inlineStr"/>
-      <c r="NC34" t="inlineStr"/>
-      <c r="ND34" t="inlineStr"/>
-      <c r="NE34" t="inlineStr"/>
-      <c r="NF34" t="inlineStr"/>
-      <c r="NG34" t="inlineStr"/>
-      <c r="NH34" t="inlineStr"/>
-      <c r="NI34" t="inlineStr"/>
-      <c r="NJ34" t="inlineStr"/>
-      <c r="NK34" t="inlineStr"/>
-      <c r="NL34" t="inlineStr"/>
-      <c r="NM34" t="inlineStr"/>
-      <c r="NN34" t="inlineStr"/>
-      <c r="NO34" t="inlineStr"/>
-      <c r="NP34" t="inlineStr"/>
-      <c r="NQ34" t="inlineStr"/>
-      <c r="NR34" t="inlineStr"/>
-      <c r="NS34" t="inlineStr"/>
-      <c r="NT34" t="inlineStr"/>
-      <c r="NU34" t="inlineStr"/>
-      <c r="NV34" t="inlineStr"/>
-      <c r="NW34" t="inlineStr"/>
-      <c r="NX34" t="inlineStr"/>
-      <c r="NY34" t="inlineStr"/>
-      <c r="NZ34" t="inlineStr"/>
-      <c r="OA34" t="inlineStr"/>
-      <c r="OB34" t="inlineStr"/>
-      <c r="OC34" t="inlineStr"/>
-      <c r="OD34" t="inlineStr"/>
-      <c r="OE34" t="inlineStr"/>
-      <c r="OF34" t="inlineStr"/>
-      <c r="OG34" t="inlineStr"/>
-      <c r="OH34" t="inlineStr"/>
-      <c r="OI34" t="inlineStr"/>
-      <c r="OJ34" t="inlineStr"/>
-      <c r="OK34" t="inlineStr"/>
-      <c r="OL34" t="inlineStr"/>
-      <c r="OM34" t="inlineStr"/>
-      <c r="ON34" t="inlineStr"/>
-      <c r="OO34" t="inlineStr"/>
-      <c r="OP34" t="inlineStr"/>
-      <c r="OQ34" t="inlineStr"/>
-      <c r="OR34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO35" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ35" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT35" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY35" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA35" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB35" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC35" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD35" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF35" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR35" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT35" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU35" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV35" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW35" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX35" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY35" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE35" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF35" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI35" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK35" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL35" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM35" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO35" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET35" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV35" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW35" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX35" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY35" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ35" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA35" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ35" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB35" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD35" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX35" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ35" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA35" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB35" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC35" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG35" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH35" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ35" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK35" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL35" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM35" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN35" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO35" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA35" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC35" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD35" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE35" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF35" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG35" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH35" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM35" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO35" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ35" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT36" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX36" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY36" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CA36" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="CC36" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD36" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE36" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF36" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CR36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CT36" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CU36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CV36" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW36" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX36" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CY36" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="DD36" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF36" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG36" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH36" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI36" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="EJ36" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="EK36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="EL36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM36" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN36" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO36" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="ET36" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EV36" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW36" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="EX36" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY36" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ36" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA36" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FY36" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA36" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="GB36" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC36" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD36" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="HX36" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ36" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA36" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB36" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC36" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG36" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="IH36" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="IJ36" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="IK36" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL36" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="IM36" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="IN36" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO36" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="JA36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JC36" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD36" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="JE36" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF36" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="JG36" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH36" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JM36" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN36" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO36" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP36" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ36" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR36" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA37" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BO37" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS37" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT37" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX37" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY37" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CA37" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="CC37" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD37" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE37" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CR37" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CT37" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CU37" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CV37" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW37" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX37" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CY37" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="DD37" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF37" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG37" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH37" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI37" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="EJ37" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="EK37" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="EL37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM37" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN37" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO37" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="ET37" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EV37" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW37" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="EX37" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY37" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ37" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA37" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FY37" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA37" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="GB37" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC37" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD37" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="HX37" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA37" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB37" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC37" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG37" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="IH37" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="IJ37" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="IK37" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL37" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="IM37" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="IN37" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO37" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="JA37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JC37" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD37" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="JE37" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF37" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="JG37" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH37" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JM37" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN37" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO37" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP37" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ37" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR37" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BO38" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP38" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ38" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT38" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX38" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="BY38" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="CA38" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="CB38" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="CC38" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="CD38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="CE38" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="CF38" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="CR38" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="CT38" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="CU38" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="CV38" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="CW38" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="CX38" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="CY38" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD38" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE38" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF38" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DG38" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="DH38" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="DI38" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="EJ38" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="EK38" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="EL38" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="EM38" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="EN38" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="EO38" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="ET38" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="EV38" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="EW38" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="EX38" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EY38" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="EZ38" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="FA38" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="FY38" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="FZ38" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GA38" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GB38" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GC38" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="GD38" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="HX38" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY38" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ38" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA38" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB38" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC38" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG38" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="IH38" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="IJ38" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="IK38" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="IL38" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="IM38" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="IN38" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="IO38" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="JA38" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC38" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JD38" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JE38" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JF38" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JG38" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JH38" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="JM38" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JN38" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JO38" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JP38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JQ38" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JR38" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA39" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO39" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ39" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS39" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT39" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX39" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="BY39" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="CA39" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="CB39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CC39" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CD39" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="CE39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CF39" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CR39" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="CT39" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CU39" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CV39" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CW39" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="CX39" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CY39" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="DD39" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DE39" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DG39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DH39" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DI39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="EJ39" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="EK39" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="EL39" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="EM39" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="EN39" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="EO39" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="ET39" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="EV39" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW39" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EX39" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EY39" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="EZ39" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="FA39" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="FY39" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="FZ39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="GA39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GB39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="GC39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GD39" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="HX39" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ39" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA39" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB39" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC39" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG39" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="IH39" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="IJ39" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="IK39" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="IL39" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="IM39" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="IN39" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="IO39" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="JA39" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JC39" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="JD39" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="JE39" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JF39" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="JG39" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JH39" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="JM39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="JN39" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="JO39" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="JP39" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="JQ39" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JR39" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AU40" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BO40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ40" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS40" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT40" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU40" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV40" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW40" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BY40" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CA40" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CB40" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CC40" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="CD40" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="CE40" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="CF40" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CG40" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CH40" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CI40" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="CR40" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CT40" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CU40" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CV40" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="CW40" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CX40" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CY40" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CZ40" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="DA40" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DB40" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DD40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE40" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF40" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="DG40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI40" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="DJ40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK40" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DL40" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="EJ40" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="EK40" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EL40" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="EM40" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="EN40" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="EO40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="EP40" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="EQ40" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ER40" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ET40" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="EV40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="EW40" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="EX40" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="EY40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="EZ40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA40" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="FB40" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="FC40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FD40" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="FY40" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="FZ40" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GA40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="GB40" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GC40" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GD40" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="GE40" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GF40" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GG40" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="HX40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ40" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA40" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB40" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC40" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID40" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE40" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF40" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG40" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="IH40" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="IJ40" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="IK40" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="IL40" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="IM40" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="IN40" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="IO40" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="IP40" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="IQ40" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="IR40" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="JA40" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC40" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JD40" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JE40" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JF40" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="JG40" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JH40" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="JI40" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JJ40" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JK40" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JM40" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JN40" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JO40" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JP40" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JQ40" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JR40" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JS40" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JT40" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JU40" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO41" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ41" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS41" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT41" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX41" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY41" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB41" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC41" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD41" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE41" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR41" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT41" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU41" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV41" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW41" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX41" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY41" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE41" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF41" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI41" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK41" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL41" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM41" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN41" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO41" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET41" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV41" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW41" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX41" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY41" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ41" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA41" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ41" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB41" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD41" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX41" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ41" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA41" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB41" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC41" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG41" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH41" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ41" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK41" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL41" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM41" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN41" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO41" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA41" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC41" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD41" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE41" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF41" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG41" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH41" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM41" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO41" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP41" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ41" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BO42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS42" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT42" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU42" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV42" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW42" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX42" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BY42" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CA42" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CB42" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CC42" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="CD42" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="CE42" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="CF42" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CG42" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CH42" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CI42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="CR42" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CT42" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CU42" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CV42" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="CW42" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CX42" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CY42" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CZ42" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="DA42" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DB42" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DD42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE42" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF42" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="DG42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI42" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="DJ42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK42" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DL42" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="EJ42" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="EK42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EL42" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="EM42" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="EN42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="EO42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="EP42" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="EQ42" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ER42" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ET42" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="EV42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="EW42" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="EX42" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="EY42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="EZ42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA42" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="FB42" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="FC42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FD42" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="FY42" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="FZ42" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GA42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="GB42" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GC42" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GD42" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="GE42" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GF42" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GG42" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="HX42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA42" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB42" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC42" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID42" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE42" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF42" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG42" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="IH42" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="IJ42" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="IK42" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="IL42" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="IM42" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="IN42" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="IO42" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="IP42" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="IQ42" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="IR42" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="JA42" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC42" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JD42" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JE42" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JF42" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="JG42" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JH42" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="JI42" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JJ42" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JK42" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JM42" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JN42" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JO42" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JP42" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JQ42" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JR42" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JS42" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JT42" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JU42" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
+      <c r="BM43" t="inlineStr"/>
+      <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
+      <c r="BP43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
+      <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="inlineStr"/>
+      <c r="BU43" t="inlineStr"/>
+      <c r="BV43" t="inlineStr"/>
+      <c r="BW43" t="inlineStr"/>
+      <c r="BX43" t="inlineStr"/>
+      <c r="BY43" t="inlineStr"/>
+      <c r="BZ43" t="inlineStr"/>
+      <c r="CA43" t="inlineStr"/>
+      <c r="CB43" t="inlineStr"/>
+      <c r="CC43" t="inlineStr"/>
+      <c r="CD43" t="inlineStr"/>
+      <c r="CE43" t="inlineStr"/>
+      <c r="CF43" t="inlineStr"/>
+      <c r="CG43" t="inlineStr"/>
+      <c r="CH43" t="inlineStr"/>
+      <c r="CI43" t="inlineStr"/>
+      <c r="CJ43" t="inlineStr"/>
+      <c r="CK43" t="inlineStr"/>
+      <c r="CL43" t="inlineStr"/>
+      <c r="CM43" t="inlineStr"/>
+      <c r="CN43" t="inlineStr"/>
+      <c r="CO43" t="inlineStr"/>
+      <c r="CP43" t="inlineStr"/>
+      <c r="CQ43" t="inlineStr"/>
+      <c r="CR43" t="inlineStr"/>
+      <c r="CS43" t="inlineStr"/>
+      <c r="CT43" t="inlineStr"/>
+      <c r="CU43" t="inlineStr"/>
+      <c r="CV43" t="inlineStr"/>
+      <c r="CW43" t="inlineStr"/>
+      <c r="CX43" t="inlineStr"/>
+      <c r="CY43" t="inlineStr"/>
+      <c r="CZ43" t="inlineStr"/>
+      <c r="DA43" t="inlineStr"/>
+      <c r="DB43" t="inlineStr"/>
+      <c r="DC43" t="inlineStr"/>
+      <c r="DD43" t="inlineStr"/>
+      <c r="DE43" t="inlineStr"/>
+      <c r="DF43" t="inlineStr"/>
+      <c r="DG43" t="inlineStr"/>
+      <c r="DH43" t="inlineStr"/>
+      <c r="DI43" t="inlineStr"/>
+      <c r="DJ43" t="inlineStr"/>
+      <c r="DK43" t="inlineStr"/>
+      <c r="DL43" t="inlineStr"/>
+      <c r="DM43" t="inlineStr"/>
+      <c r="DN43" t="inlineStr"/>
+      <c r="DO43" t="inlineStr"/>
+      <c r="DP43" t="inlineStr"/>
+      <c r="DQ43" t="inlineStr"/>
+      <c r="DR43" t="inlineStr"/>
+      <c r="DS43" t="inlineStr"/>
+      <c r="DT43" t="inlineStr"/>
+      <c r="DU43" t="inlineStr"/>
+      <c r="DV43" t="inlineStr"/>
+      <c r="DW43" t="inlineStr"/>
+      <c r="DX43" t="inlineStr"/>
+      <c r="DY43" t="inlineStr"/>
+      <c r="DZ43" t="inlineStr"/>
+      <c r="EA43" t="inlineStr"/>
+      <c r="EB43" t="inlineStr"/>
+      <c r="EC43" t="inlineStr"/>
+      <c r="ED43" t="inlineStr"/>
+      <c r="EE43" t="inlineStr"/>
+      <c r="EF43" t="inlineStr"/>
+      <c r="EG43" t="inlineStr"/>
+      <c r="EH43" t="inlineStr"/>
+      <c r="EI43" t="inlineStr"/>
+      <c r="EJ43" t="inlineStr"/>
+      <c r="EK43" t="inlineStr"/>
+      <c r="EL43" t="inlineStr"/>
+      <c r="EM43" t="inlineStr"/>
+      <c r="EN43" t="inlineStr"/>
+      <c r="EO43" t="inlineStr"/>
+      <c r="EP43" t="inlineStr"/>
+      <c r="EQ43" t="inlineStr"/>
+      <c r="ER43" t="inlineStr"/>
+      <c r="ES43" t="inlineStr"/>
+      <c r="ET43" t="inlineStr"/>
+      <c r="EU43" t="inlineStr"/>
+      <c r="EV43" t="inlineStr"/>
+      <c r="EW43" t="inlineStr"/>
+      <c r="EX43" t="inlineStr"/>
+      <c r="EY43" t="inlineStr"/>
+      <c r="EZ43" t="inlineStr"/>
+      <c r="FA43" t="inlineStr"/>
+      <c r="FB43" t="inlineStr"/>
+      <c r="FC43" t="inlineStr"/>
+      <c r="FD43" t="inlineStr"/>
+      <c r="FE43" t="inlineStr"/>
+      <c r="FF43" t="inlineStr"/>
+      <c r="FG43" t="inlineStr"/>
+      <c r="FH43" t="inlineStr"/>
+      <c r="FI43" t="inlineStr"/>
+      <c r="FJ43" t="inlineStr"/>
+      <c r="FK43" t="inlineStr"/>
+      <c r="FL43" t="inlineStr"/>
+      <c r="FM43" t="inlineStr"/>
+      <c r="FN43" t="inlineStr"/>
+      <c r="FO43" t="inlineStr"/>
+      <c r="FP43" t="inlineStr"/>
+      <c r="FQ43" t="inlineStr"/>
+      <c r="FR43" t="inlineStr"/>
+      <c r="FS43" t="inlineStr"/>
+      <c r="FT43" t="inlineStr"/>
+      <c r="FU43" t="inlineStr"/>
+      <c r="FV43" t="inlineStr"/>
+      <c r="FW43" t="inlineStr"/>
+      <c r="FX43" t="inlineStr"/>
+      <c r="FY43" t="inlineStr"/>
+      <c r="FZ43" t="inlineStr"/>
+      <c r="GA43" t="inlineStr"/>
+      <c r="GB43" t="inlineStr"/>
+      <c r="GC43" t="inlineStr"/>
+      <c r="GD43" t="inlineStr"/>
+      <c r="GE43" t="inlineStr"/>
+      <c r="GF43" t="inlineStr"/>
+      <c r="GG43" t="inlineStr"/>
+      <c r="GH43" t="inlineStr"/>
+      <c r="GI43" t="inlineStr"/>
+      <c r="GJ43" t="inlineStr"/>
+      <c r="GK43" t="inlineStr"/>
+      <c r="GL43" t="inlineStr"/>
+      <c r="GM43" t="inlineStr"/>
+      <c r="GN43" t="inlineStr"/>
+      <c r="GO43" t="inlineStr"/>
+      <c r="GP43" t="inlineStr"/>
+      <c r="GQ43" t="inlineStr"/>
+      <c r="GR43" t="inlineStr"/>
+      <c r="GS43" t="inlineStr"/>
+      <c r="GT43" t="inlineStr"/>
+      <c r="GU43" t="inlineStr"/>
+      <c r="GV43" t="inlineStr"/>
+      <c r="GW43" t="inlineStr"/>
+      <c r="GX43" t="inlineStr"/>
+      <c r="GY43" t="inlineStr"/>
+      <c r="GZ43" t="inlineStr"/>
+      <c r="HA43" t="inlineStr"/>
+      <c r="HB43" t="inlineStr"/>
+      <c r="HC43" t="inlineStr"/>
+      <c r="HD43" t="inlineStr"/>
+      <c r="HE43" t="inlineStr"/>
+      <c r="HF43" t="inlineStr"/>
+      <c r="HG43" t="inlineStr"/>
+      <c r="HH43" t="inlineStr"/>
+      <c r="HI43" t="inlineStr"/>
+      <c r="HJ43" t="inlineStr"/>
+      <c r="HK43" t="inlineStr"/>
+      <c r="HL43" t="inlineStr"/>
+      <c r="HM43" t="inlineStr"/>
+      <c r="HN43" t="inlineStr"/>
+      <c r="HO43" t="inlineStr"/>
+      <c r="HP43" t="inlineStr"/>
+      <c r="HQ43" t="inlineStr"/>
+      <c r="HR43" t="inlineStr"/>
+      <c r="HS43" t="inlineStr"/>
+      <c r="HT43" t="inlineStr"/>
+      <c r="HU43" t="inlineStr"/>
+      <c r="HV43" t="inlineStr"/>
+      <c r="HW43" t="inlineStr"/>
+      <c r="HX43" t="inlineStr"/>
+      <c r="HY43" t="inlineStr"/>
+      <c r="HZ43" t="inlineStr"/>
+      <c r="IA43" t="inlineStr"/>
+      <c r="IB43" t="inlineStr"/>
+      <c r="IC43" t="inlineStr"/>
+      <c r="ID43" t="inlineStr"/>
+      <c r="IE43" t="inlineStr"/>
+      <c r="IF43" t="inlineStr"/>
+      <c r="IG43" t="inlineStr"/>
+      <c r="IH43" t="inlineStr"/>
+      <c r="II43" t="inlineStr"/>
+      <c r="IJ43" t="inlineStr"/>
+      <c r="IK43" t="inlineStr"/>
+      <c r="IL43" t="inlineStr"/>
+      <c r="IM43" t="inlineStr"/>
+      <c r="IN43" t="inlineStr"/>
+      <c r="IO43" t="inlineStr"/>
+      <c r="IP43" t="inlineStr"/>
+      <c r="IQ43" t="inlineStr"/>
+      <c r="IR43" t="inlineStr"/>
+      <c r="IS43" t="inlineStr"/>
+      <c r="IT43" t="inlineStr"/>
+      <c r="IU43" t="inlineStr"/>
+      <c r="IV43" t="inlineStr"/>
+      <c r="IW43" t="inlineStr"/>
+      <c r="IX43" t="inlineStr"/>
+      <c r="IY43" t="inlineStr"/>
+      <c r="IZ43" t="inlineStr"/>
+      <c r="JA43" t="inlineStr"/>
+      <c r="JB43" t="inlineStr"/>
+      <c r="JC43" t="inlineStr"/>
+      <c r="JD43" t="inlineStr"/>
+      <c r="JE43" t="inlineStr"/>
+      <c r="JF43" t="inlineStr"/>
+      <c r="JG43" t="inlineStr"/>
+      <c r="JH43" t="inlineStr"/>
+      <c r="JI43" t="inlineStr"/>
+      <c r="JJ43" t="inlineStr"/>
+      <c r="JK43" t="inlineStr"/>
+      <c r="JL43" t="inlineStr"/>
+      <c r="JM43" t="inlineStr"/>
+      <c r="JN43" t="inlineStr"/>
+      <c r="JO43" t="inlineStr"/>
+      <c r="JP43" t="inlineStr"/>
+      <c r="JQ43" t="inlineStr"/>
+      <c r="JR43" t="inlineStr"/>
+      <c r="JS43" t="inlineStr"/>
+      <c r="JT43" t="inlineStr"/>
+      <c r="JU43" t="inlineStr"/>
+      <c r="JV43" t="inlineStr"/>
+      <c r="JW43" t="inlineStr"/>
+      <c r="JX43" t="inlineStr"/>
+      <c r="JY43" t="inlineStr"/>
+      <c r="JZ43" t="inlineStr"/>
+      <c r="KA43" t="inlineStr"/>
+      <c r="KB43" t="inlineStr"/>
+      <c r="KC43" t="inlineStr"/>
+      <c r="KD43" t="inlineStr"/>
+      <c r="KE43" t="inlineStr"/>
+      <c r="KF43" t="inlineStr"/>
+      <c r="KG43" t="inlineStr"/>
+      <c r="KH43" t="inlineStr"/>
+      <c r="KI43" t="inlineStr"/>
+      <c r="KJ43" t="inlineStr"/>
+      <c r="KK43" t="inlineStr"/>
+      <c r="KL43" t="inlineStr"/>
+      <c r="KM43" t="inlineStr"/>
+      <c r="KN43" t="inlineStr"/>
+      <c r="KO43" t="inlineStr"/>
+      <c r="KP43" t="inlineStr"/>
+      <c r="KQ43" t="inlineStr"/>
+      <c r="KR43" t="inlineStr"/>
+      <c r="KS43" t="inlineStr"/>
+      <c r="KT43" t="inlineStr"/>
+      <c r="KU43" t="inlineStr"/>
+      <c r="KV43" t="inlineStr"/>
+      <c r="KW43" t="inlineStr"/>
+      <c r="KX43" t="inlineStr"/>
+      <c r="KY43" t="inlineStr"/>
+      <c r="KZ43" t="inlineStr"/>
+      <c r="LA43" t="inlineStr"/>
+      <c r="LB43" t="inlineStr"/>
+      <c r="LC43" t="inlineStr"/>
+      <c r="LD43" t="inlineStr"/>
+      <c r="LE43" t="inlineStr"/>
+      <c r="LF43" t="inlineStr"/>
+      <c r="LG43" t="inlineStr"/>
+      <c r="LH43" t="inlineStr"/>
+      <c r="LI43" t="inlineStr"/>
+      <c r="LJ43" t="inlineStr"/>
+      <c r="LK43" t="inlineStr"/>
+      <c r="LL43" t="inlineStr"/>
+      <c r="LM43" t="inlineStr"/>
+      <c r="LN43" t="inlineStr"/>
+      <c r="LO43" t="inlineStr"/>
+      <c r="LP43" t="inlineStr"/>
+      <c r="LQ43" t="inlineStr"/>
+      <c r="LR43" t="inlineStr"/>
+      <c r="LS43" t="inlineStr"/>
+      <c r="LT43" t="inlineStr"/>
+      <c r="LU43" t="inlineStr"/>
+      <c r="LV43" t="inlineStr"/>
+      <c r="LW43" t="inlineStr"/>
+      <c r="LX43" t="inlineStr"/>
+      <c r="LY43" t="inlineStr"/>
+      <c r="LZ43" t="inlineStr"/>
+      <c r="MA43" t="inlineStr"/>
+      <c r="MB43" t="inlineStr"/>
+      <c r="MC43" t="inlineStr"/>
+      <c r="MD43" t="inlineStr"/>
+      <c r="ME43" t="inlineStr"/>
+      <c r="MF43" t="inlineStr"/>
+      <c r="MG43" t="inlineStr"/>
+      <c r="MH43" t="inlineStr"/>
+      <c r="MI43" t="inlineStr"/>
+      <c r="MJ43" t="inlineStr"/>
+      <c r="MK43" t="inlineStr"/>
+      <c r="ML43" t="inlineStr"/>
+      <c r="MM43" t="inlineStr"/>
+      <c r="MN43" t="inlineStr"/>
+      <c r="MO43" t="inlineStr"/>
+      <c r="MP43" t="inlineStr"/>
+      <c r="MQ43" t="inlineStr"/>
+      <c r="MR43" t="inlineStr"/>
+      <c r="MS43" t="inlineStr"/>
+      <c r="MT43" t="inlineStr"/>
+      <c r="MU43" t="inlineStr"/>
+      <c r="MV43" t="inlineStr"/>
+      <c r="MW43" t="inlineStr"/>
+      <c r="MX43" t="inlineStr"/>
+      <c r="MY43" t="inlineStr"/>
+      <c r="MZ43" t="inlineStr"/>
+      <c r="NA43" t="inlineStr"/>
+      <c r="NB43" t="inlineStr"/>
+      <c r="NC43" t="inlineStr"/>
+      <c r="ND43" t="inlineStr"/>
+      <c r="NE43" t="inlineStr"/>
+      <c r="NF43" t="inlineStr"/>
+      <c r="NG43" t="inlineStr"/>
+      <c r="NH43" t="inlineStr"/>
+      <c r="NI43" t="inlineStr"/>
+      <c r="NJ43" t="inlineStr"/>
+      <c r="NK43" t="inlineStr"/>
+      <c r="NL43" t="inlineStr"/>
+      <c r="NM43" t="inlineStr"/>
+      <c r="NN43" t="inlineStr"/>
+      <c r="NO43" t="inlineStr"/>
+      <c r="NP43" t="inlineStr"/>
+      <c r="NQ43" t="inlineStr"/>
+      <c r="NR43" t="inlineStr"/>
+      <c r="NS43" t="inlineStr"/>
+      <c r="NT43" t="inlineStr"/>
+      <c r="NU43" t="inlineStr"/>
+      <c r="NV43" t="inlineStr"/>
+      <c r="NW43" t="inlineStr"/>
+      <c r="NX43" t="inlineStr"/>
+      <c r="NY43" t="inlineStr"/>
+      <c r="NZ43" t="inlineStr"/>
+      <c r="OA43" t="inlineStr"/>
+      <c r="OB43" t="inlineStr"/>
+      <c r="OC43" t="inlineStr"/>
+      <c r="OD43" t="inlineStr"/>
+      <c r="OE43" t="inlineStr"/>
+      <c r="OF43" t="inlineStr"/>
+      <c r="OG43" t="inlineStr"/>
+      <c r="OH43" t="inlineStr"/>
+      <c r="OI43" t="inlineStr"/>
+      <c r="OJ43" t="inlineStr"/>
+      <c r="OK43" t="inlineStr"/>
+      <c r="OL43" t="inlineStr"/>
+      <c r="OM43" t="inlineStr"/>
+      <c r="ON43" t="inlineStr"/>
+      <c r="OO43" t="inlineStr"/>
+      <c r="OP43" t="inlineStr"/>
+      <c r="OQ43" t="inlineStr"/>
+      <c r="OR43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR43"/>
+  <dimension ref="A1:OR54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15489,413 +15489,490 @@
           <t>type03</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="inlineStr"/>
-      <c r="AV43" t="inlineStr"/>
-      <c r="AW43" t="inlineStr"/>
-      <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="inlineStr"/>
-      <c r="AZ43" t="inlineStr"/>
-      <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="inlineStr"/>
-      <c r="BD43" t="inlineStr"/>
-      <c r="BE43" t="inlineStr"/>
-      <c r="BF43" t="inlineStr"/>
-      <c r="BG43" t="inlineStr"/>
-      <c r="BH43" t="inlineStr"/>
-      <c r="BI43" t="inlineStr"/>
-      <c r="BJ43" t="inlineStr"/>
-      <c r="BK43" t="inlineStr"/>
-      <c r="BL43" t="inlineStr"/>
-      <c r="BM43" t="inlineStr"/>
-      <c r="BN43" t="inlineStr"/>
-      <c r="BO43" t="inlineStr"/>
-      <c r="BP43" t="inlineStr"/>
-      <c r="BQ43" t="inlineStr"/>
-      <c r="BR43" t="inlineStr"/>
-      <c r="BS43" t="inlineStr"/>
-      <c r="BT43" t="inlineStr"/>
-      <c r="BU43" t="inlineStr"/>
-      <c r="BV43" t="inlineStr"/>
-      <c r="BW43" t="inlineStr"/>
-      <c r="BX43" t="inlineStr"/>
-      <c r="BY43" t="inlineStr"/>
-      <c r="BZ43" t="inlineStr"/>
-      <c r="CA43" t="inlineStr"/>
-      <c r="CB43" t="inlineStr"/>
-      <c r="CC43" t="inlineStr"/>
-      <c r="CD43" t="inlineStr"/>
-      <c r="CE43" t="inlineStr"/>
-      <c r="CF43" t="inlineStr"/>
-      <c r="CG43" t="inlineStr"/>
-      <c r="CH43" t="inlineStr"/>
-      <c r="CI43" t="inlineStr"/>
-      <c r="CJ43" t="inlineStr"/>
-      <c r="CK43" t="inlineStr"/>
-      <c r="CL43" t="inlineStr"/>
-      <c r="CM43" t="inlineStr"/>
-      <c r="CN43" t="inlineStr"/>
-      <c r="CO43" t="inlineStr"/>
-      <c r="CP43" t="inlineStr"/>
-      <c r="CQ43" t="inlineStr"/>
-      <c r="CR43" t="inlineStr"/>
-      <c r="CS43" t="inlineStr"/>
-      <c r="CT43" t="inlineStr"/>
-      <c r="CU43" t="inlineStr"/>
-      <c r="CV43" t="inlineStr"/>
-      <c r="CW43" t="inlineStr"/>
-      <c r="CX43" t="inlineStr"/>
-      <c r="CY43" t="inlineStr"/>
-      <c r="CZ43" t="inlineStr"/>
-      <c r="DA43" t="inlineStr"/>
-      <c r="DB43" t="inlineStr"/>
-      <c r="DC43" t="inlineStr"/>
-      <c r="DD43" t="inlineStr"/>
-      <c r="DE43" t="inlineStr"/>
-      <c r="DF43" t="inlineStr"/>
-      <c r="DG43" t="inlineStr"/>
-      <c r="DH43" t="inlineStr"/>
-      <c r="DI43" t="inlineStr"/>
-      <c r="DJ43" t="inlineStr"/>
-      <c r="DK43" t="inlineStr"/>
-      <c r="DL43" t="inlineStr"/>
-      <c r="DM43" t="inlineStr"/>
-      <c r="DN43" t="inlineStr"/>
-      <c r="DO43" t="inlineStr"/>
-      <c r="DP43" t="inlineStr"/>
-      <c r="DQ43" t="inlineStr"/>
-      <c r="DR43" t="inlineStr"/>
-      <c r="DS43" t="inlineStr"/>
-      <c r="DT43" t="inlineStr"/>
-      <c r="DU43" t="inlineStr"/>
-      <c r="DV43" t="inlineStr"/>
-      <c r="DW43" t="inlineStr"/>
-      <c r="DX43" t="inlineStr"/>
-      <c r="DY43" t="inlineStr"/>
-      <c r="DZ43" t="inlineStr"/>
-      <c r="EA43" t="inlineStr"/>
-      <c r="EB43" t="inlineStr"/>
-      <c r="EC43" t="inlineStr"/>
-      <c r="ED43" t="inlineStr"/>
-      <c r="EE43" t="inlineStr"/>
-      <c r="EF43" t="inlineStr"/>
-      <c r="EG43" t="inlineStr"/>
-      <c r="EH43" t="inlineStr"/>
-      <c r="EI43" t="inlineStr"/>
-      <c r="EJ43" t="inlineStr"/>
-      <c r="EK43" t="inlineStr"/>
-      <c r="EL43" t="inlineStr"/>
-      <c r="EM43" t="inlineStr"/>
-      <c r="EN43" t="inlineStr"/>
-      <c r="EO43" t="inlineStr"/>
-      <c r="EP43" t="inlineStr"/>
-      <c r="EQ43" t="inlineStr"/>
-      <c r="ER43" t="inlineStr"/>
-      <c r="ES43" t="inlineStr"/>
-      <c r="ET43" t="inlineStr"/>
-      <c r="EU43" t="inlineStr"/>
-      <c r="EV43" t="inlineStr"/>
-      <c r="EW43" t="inlineStr"/>
-      <c r="EX43" t="inlineStr"/>
-      <c r="EY43" t="inlineStr"/>
-      <c r="EZ43" t="inlineStr"/>
-      <c r="FA43" t="inlineStr"/>
-      <c r="FB43" t="inlineStr"/>
-      <c r="FC43" t="inlineStr"/>
-      <c r="FD43" t="inlineStr"/>
-      <c r="FE43" t="inlineStr"/>
-      <c r="FF43" t="inlineStr"/>
-      <c r="FG43" t="inlineStr"/>
-      <c r="FH43" t="inlineStr"/>
-      <c r="FI43" t="inlineStr"/>
-      <c r="FJ43" t="inlineStr"/>
-      <c r="FK43" t="inlineStr"/>
-      <c r="FL43" t="inlineStr"/>
-      <c r="FM43" t="inlineStr"/>
-      <c r="FN43" t="inlineStr"/>
-      <c r="FO43" t="inlineStr"/>
-      <c r="FP43" t="inlineStr"/>
-      <c r="FQ43" t="inlineStr"/>
-      <c r="FR43" t="inlineStr"/>
-      <c r="FS43" t="inlineStr"/>
-      <c r="FT43" t="inlineStr"/>
-      <c r="FU43" t="inlineStr"/>
-      <c r="FV43" t="inlineStr"/>
-      <c r="FW43" t="inlineStr"/>
-      <c r="FX43" t="inlineStr"/>
-      <c r="FY43" t="inlineStr"/>
-      <c r="FZ43" t="inlineStr"/>
-      <c r="GA43" t="inlineStr"/>
-      <c r="GB43" t="inlineStr"/>
-      <c r="GC43" t="inlineStr"/>
-      <c r="GD43" t="inlineStr"/>
-      <c r="GE43" t="inlineStr"/>
-      <c r="GF43" t="inlineStr"/>
-      <c r="GG43" t="inlineStr"/>
-      <c r="GH43" t="inlineStr"/>
-      <c r="GI43" t="inlineStr"/>
-      <c r="GJ43" t="inlineStr"/>
-      <c r="GK43" t="inlineStr"/>
-      <c r="GL43" t="inlineStr"/>
-      <c r="GM43" t="inlineStr"/>
-      <c r="GN43" t="inlineStr"/>
-      <c r="GO43" t="inlineStr"/>
-      <c r="GP43" t="inlineStr"/>
-      <c r="GQ43" t="inlineStr"/>
-      <c r="GR43" t="inlineStr"/>
-      <c r="GS43" t="inlineStr"/>
-      <c r="GT43" t="inlineStr"/>
-      <c r="GU43" t="inlineStr"/>
-      <c r="GV43" t="inlineStr"/>
-      <c r="GW43" t="inlineStr"/>
-      <c r="GX43" t="inlineStr"/>
-      <c r="GY43" t="inlineStr"/>
-      <c r="GZ43" t="inlineStr"/>
-      <c r="HA43" t="inlineStr"/>
-      <c r="HB43" t="inlineStr"/>
-      <c r="HC43" t="inlineStr"/>
-      <c r="HD43" t="inlineStr"/>
-      <c r="HE43" t="inlineStr"/>
-      <c r="HF43" t="inlineStr"/>
-      <c r="HG43" t="inlineStr"/>
-      <c r="HH43" t="inlineStr"/>
-      <c r="HI43" t="inlineStr"/>
-      <c r="HJ43" t="inlineStr"/>
-      <c r="HK43" t="inlineStr"/>
-      <c r="HL43" t="inlineStr"/>
-      <c r="HM43" t="inlineStr"/>
-      <c r="HN43" t="inlineStr"/>
-      <c r="HO43" t="inlineStr"/>
-      <c r="HP43" t="inlineStr"/>
-      <c r="HQ43" t="inlineStr"/>
-      <c r="HR43" t="inlineStr"/>
-      <c r="HS43" t="inlineStr"/>
-      <c r="HT43" t="inlineStr"/>
-      <c r="HU43" t="inlineStr"/>
-      <c r="HV43" t="inlineStr"/>
-      <c r="HW43" t="inlineStr"/>
-      <c r="HX43" t="inlineStr"/>
-      <c r="HY43" t="inlineStr"/>
-      <c r="HZ43" t="inlineStr"/>
-      <c r="IA43" t="inlineStr"/>
-      <c r="IB43" t="inlineStr"/>
-      <c r="IC43" t="inlineStr"/>
-      <c r="ID43" t="inlineStr"/>
-      <c r="IE43" t="inlineStr"/>
-      <c r="IF43" t="inlineStr"/>
-      <c r="IG43" t="inlineStr"/>
-      <c r="IH43" t="inlineStr"/>
-      <c r="II43" t="inlineStr"/>
-      <c r="IJ43" t="inlineStr"/>
-      <c r="IK43" t="inlineStr"/>
-      <c r="IL43" t="inlineStr"/>
-      <c r="IM43" t="inlineStr"/>
-      <c r="IN43" t="inlineStr"/>
-      <c r="IO43" t="inlineStr"/>
-      <c r="IP43" t="inlineStr"/>
-      <c r="IQ43" t="inlineStr"/>
-      <c r="IR43" t="inlineStr"/>
-      <c r="IS43" t="inlineStr"/>
-      <c r="IT43" t="inlineStr"/>
-      <c r="IU43" t="inlineStr"/>
-      <c r="IV43" t="inlineStr"/>
-      <c r="IW43" t="inlineStr"/>
-      <c r="IX43" t="inlineStr"/>
-      <c r="IY43" t="inlineStr"/>
-      <c r="IZ43" t="inlineStr"/>
-      <c r="JA43" t="inlineStr"/>
-      <c r="JB43" t="inlineStr"/>
-      <c r="JC43" t="inlineStr"/>
-      <c r="JD43" t="inlineStr"/>
-      <c r="JE43" t="inlineStr"/>
-      <c r="JF43" t="inlineStr"/>
-      <c r="JG43" t="inlineStr"/>
-      <c r="JH43" t="inlineStr"/>
-      <c r="JI43" t="inlineStr"/>
-      <c r="JJ43" t="inlineStr"/>
-      <c r="JK43" t="inlineStr"/>
-      <c r="JL43" t="inlineStr"/>
-      <c r="JM43" t="inlineStr"/>
-      <c r="JN43" t="inlineStr"/>
-      <c r="JO43" t="inlineStr"/>
-      <c r="JP43" t="inlineStr"/>
-      <c r="JQ43" t="inlineStr"/>
-      <c r="JR43" t="inlineStr"/>
-      <c r="JS43" t="inlineStr"/>
-      <c r="JT43" t="inlineStr"/>
-      <c r="JU43" t="inlineStr"/>
-      <c r="JV43" t="inlineStr"/>
-      <c r="JW43" t="inlineStr"/>
-      <c r="JX43" t="inlineStr"/>
-      <c r="JY43" t="inlineStr"/>
-      <c r="JZ43" t="inlineStr"/>
-      <c r="KA43" t="inlineStr"/>
-      <c r="KB43" t="inlineStr"/>
-      <c r="KC43" t="inlineStr"/>
-      <c r="KD43" t="inlineStr"/>
-      <c r="KE43" t="inlineStr"/>
-      <c r="KF43" t="inlineStr"/>
-      <c r="KG43" t="inlineStr"/>
-      <c r="KH43" t="inlineStr"/>
-      <c r="KI43" t="inlineStr"/>
-      <c r="KJ43" t="inlineStr"/>
-      <c r="KK43" t="inlineStr"/>
-      <c r="KL43" t="inlineStr"/>
-      <c r="KM43" t="inlineStr"/>
-      <c r="KN43" t="inlineStr"/>
-      <c r="KO43" t="inlineStr"/>
-      <c r="KP43" t="inlineStr"/>
-      <c r="KQ43" t="inlineStr"/>
-      <c r="KR43" t="inlineStr"/>
-      <c r="KS43" t="inlineStr"/>
-      <c r="KT43" t="inlineStr"/>
-      <c r="KU43" t="inlineStr"/>
-      <c r="KV43" t="inlineStr"/>
-      <c r="KW43" t="inlineStr"/>
-      <c r="KX43" t="inlineStr"/>
-      <c r="KY43" t="inlineStr"/>
-      <c r="KZ43" t="inlineStr"/>
-      <c r="LA43" t="inlineStr"/>
-      <c r="LB43" t="inlineStr"/>
-      <c r="LC43" t="inlineStr"/>
-      <c r="LD43" t="inlineStr"/>
-      <c r="LE43" t="inlineStr"/>
-      <c r="LF43" t="inlineStr"/>
-      <c r="LG43" t="inlineStr"/>
-      <c r="LH43" t="inlineStr"/>
-      <c r="LI43" t="inlineStr"/>
-      <c r="LJ43" t="inlineStr"/>
-      <c r="LK43" t="inlineStr"/>
-      <c r="LL43" t="inlineStr"/>
-      <c r="LM43" t="inlineStr"/>
-      <c r="LN43" t="inlineStr"/>
-      <c r="LO43" t="inlineStr"/>
-      <c r="LP43" t="inlineStr"/>
-      <c r="LQ43" t="inlineStr"/>
-      <c r="LR43" t="inlineStr"/>
-      <c r="LS43" t="inlineStr"/>
-      <c r="LT43" t="inlineStr"/>
-      <c r="LU43" t="inlineStr"/>
-      <c r="LV43" t="inlineStr"/>
-      <c r="LW43" t="inlineStr"/>
-      <c r="LX43" t="inlineStr"/>
-      <c r="LY43" t="inlineStr"/>
-      <c r="LZ43" t="inlineStr"/>
-      <c r="MA43" t="inlineStr"/>
-      <c r="MB43" t="inlineStr"/>
-      <c r="MC43" t="inlineStr"/>
-      <c r="MD43" t="inlineStr"/>
-      <c r="ME43" t="inlineStr"/>
-      <c r="MF43" t="inlineStr"/>
-      <c r="MG43" t="inlineStr"/>
-      <c r="MH43" t="inlineStr"/>
-      <c r="MI43" t="inlineStr"/>
-      <c r="MJ43" t="inlineStr"/>
-      <c r="MK43" t="inlineStr"/>
-      <c r="ML43" t="inlineStr"/>
-      <c r="MM43" t="inlineStr"/>
-      <c r="MN43" t="inlineStr"/>
-      <c r="MO43" t="inlineStr"/>
-      <c r="MP43" t="inlineStr"/>
-      <c r="MQ43" t="inlineStr"/>
-      <c r="MR43" t="inlineStr"/>
-      <c r="MS43" t="inlineStr"/>
-      <c r="MT43" t="inlineStr"/>
-      <c r="MU43" t="inlineStr"/>
-      <c r="MV43" t="inlineStr"/>
-      <c r="MW43" t="inlineStr"/>
-      <c r="MX43" t="inlineStr"/>
-      <c r="MY43" t="inlineStr"/>
-      <c r="MZ43" t="inlineStr"/>
-      <c r="NA43" t="inlineStr"/>
-      <c r="NB43" t="inlineStr"/>
-      <c r="NC43" t="inlineStr"/>
-      <c r="ND43" t="inlineStr"/>
-      <c r="NE43" t="inlineStr"/>
-      <c r="NF43" t="inlineStr"/>
-      <c r="NG43" t="inlineStr"/>
-      <c r="NH43" t="inlineStr"/>
-      <c r="NI43" t="inlineStr"/>
-      <c r="NJ43" t="inlineStr"/>
-      <c r="NK43" t="inlineStr"/>
-      <c r="NL43" t="inlineStr"/>
-      <c r="NM43" t="inlineStr"/>
-      <c r="NN43" t="inlineStr"/>
-      <c r="NO43" t="inlineStr"/>
-      <c r="NP43" t="inlineStr"/>
-      <c r="NQ43" t="inlineStr"/>
-      <c r="NR43" t="inlineStr"/>
-      <c r="NS43" t="inlineStr"/>
-      <c r="NT43" t="inlineStr"/>
-      <c r="NU43" t="inlineStr"/>
-      <c r="NV43" t="inlineStr"/>
-      <c r="NW43" t="inlineStr"/>
-      <c r="NX43" t="inlineStr"/>
-      <c r="NY43" t="inlineStr"/>
-      <c r="NZ43" t="inlineStr"/>
-      <c r="OA43" t="inlineStr"/>
-      <c r="OB43" t="inlineStr"/>
-      <c r="OC43" t="inlineStr"/>
-      <c r="OD43" t="inlineStr"/>
-      <c r="OE43" t="inlineStr"/>
-      <c r="OF43" t="inlineStr"/>
-      <c r="OG43" t="inlineStr"/>
-      <c r="OH43" t="inlineStr"/>
-      <c r="OI43" t="inlineStr"/>
-      <c r="OJ43" t="inlineStr"/>
-      <c r="OK43" t="inlineStr"/>
-      <c r="OL43" t="inlineStr"/>
-      <c r="OM43" t="inlineStr"/>
-      <c r="ON43" t="inlineStr"/>
-      <c r="OO43" t="inlineStr"/>
-      <c r="OP43" t="inlineStr"/>
-      <c r="OQ43" t="inlineStr"/>
-      <c r="OR43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
+      <c r="AZ54" t="inlineStr"/>
+      <c r="BA54" t="inlineStr"/>
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr"/>
+      <c r="BD54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr"/>
+      <c r="BF54" t="inlineStr"/>
+      <c r="BG54" t="inlineStr"/>
+      <c r="BH54" t="inlineStr"/>
+      <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr"/>
+      <c r="BK54" t="inlineStr"/>
+      <c r="BL54" t="inlineStr"/>
+      <c r="BM54" t="inlineStr"/>
+      <c r="BN54" t="inlineStr"/>
+      <c r="BO54" t="inlineStr"/>
+      <c r="BP54" t="inlineStr"/>
+      <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
+      <c r="BS54" t="inlineStr"/>
+      <c r="BT54" t="inlineStr"/>
+      <c r="BU54" t="inlineStr"/>
+      <c r="BV54" t="inlineStr"/>
+      <c r="BW54" t="inlineStr"/>
+      <c r="BX54" t="inlineStr"/>
+      <c r="BY54" t="inlineStr"/>
+      <c r="BZ54" t="inlineStr"/>
+      <c r="CA54" t="inlineStr"/>
+      <c r="CB54" t="inlineStr"/>
+      <c r="CC54" t="inlineStr"/>
+      <c r="CD54" t="inlineStr"/>
+      <c r="CE54" t="inlineStr"/>
+      <c r="CF54" t="inlineStr"/>
+      <c r="CG54" t="inlineStr"/>
+      <c r="CH54" t="inlineStr"/>
+      <c r="CI54" t="inlineStr"/>
+      <c r="CJ54" t="inlineStr"/>
+      <c r="CK54" t="inlineStr"/>
+      <c r="CL54" t="inlineStr"/>
+      <c r="CM54" t="inlineStr"/>
+      <c r="CN54" t="inlineStr"/>
+      <c r="CO54" t="inlineStr"/>
+      <c r="CP54" t="inlineStr"/>
+      <c r="CQ54" t="inlineStr"/>
+      <c r="CR54" t="inlineStr"/>
+      <c r="CS54" t="inlineStr"/>
+      <c r="CT54" t="inlineStr"/>
+      <c r="CU54" t="inlineStr"/>
+      <c r="CV54" t="inlineStr"/>
+      <c r="CW54" t="inlineStr"/>
+      <c r="CX54" t="inlineStr"/>
+      <c r="CY54" t="inlineStr"/>
+      <c r="CZ54" t="inlineStr"/>
+      <c r="DA54" t="inlineStr"/>
+      <c r="DB54" t="inlineStr"/>
+      <c r="DC54" t="inlineStr"/>
+      <c r="DD54" t="inlineStr"/>
+      <c r="DE54" t="inlineStr"/>
+      <c r="DF54" t="inlineStr"/>
+      <c r="DG54" t="inlineStr"/>
+      <c r="DH54" t="inlineStr"/>
+      <c r="DI54" t="inlineStr"/>
+      <c r="DJ54" t="inlineStr"/>
+      <c r="DK54" t="inlineStr"/>
+      <c r="DL54" t="inlineStr"/>
+      <c r="DM54" t="inlineStr"/>
+      <c r="DN54" t="inlineStr"/>
+      <c r="DO54" t="inlineStr"/>
+      <c r="DP54" t="inlineStr"/>
+      <c r="DQ54" t="inlineStr"/>
+      <c r="DR54" t="inlineStr"/>
+      <c r="DS54" t="inlineStr"/>
+      <c r="DT54" t="inlineStr"/>
+      <c r="DU54" t="inlineStr"/>
+      <c r="DV54" t="inlineStr"/>
+      <c r="DW54" t="inlineStr"/>
+      <c r="DX54" t="inlineStr"/>
+      <c r="DY54" t="inlineStr"/>
+      <c r="DZ54" t="inlineStr"/>
+      <c r="EA54" t="inlineStr"/>
+      <c r="EB54" t="inlineStr"/>
+      <c r="EC54" t="inlineStr"/>
+      <c r="ED54" t="inlineStr"/>
+      <c r="EE54" t="inlineStr"/>
+      <c r="EF54" t="inlineStr"/>
+      <c r="EG54" t="inlineStr"/>
+      <c r="EH54" t="inlineStr"/>
+      <c r="EI54" t="inlineStr"/>
+      <c r="EJ54" t="inlineStr"/>
+      <c r="EK54" t="inlineStr"/>
+      <c r="EL54" t="inlineStr"/>
+      <c r="EM54" t="inlineStr"/>
+      <c r="EN54" t="inlineStr"/>
+      <c r="EO54" t="inlineStr"/>
+      <c r="EP54" t="inlineStr"/>
+      <c r="EQ54" t="inlineStr"/>
+      <c r="ER54" t="inlineStr"/>
+      <c r="ES54" t="inlineStr"/>
+      <c r="ET54" t="inlineStr"/>
+      <c r="EU54" t="inlineStr"/>
+      <c r="EV54" t="inlineStr"/>
+      <c r="EW54" t="inlineStr"/>
+      <c r="EX54" t="inlineStr"/>
+      <c r="EY54" t="inlineStr"/>
+      <c r="EZ54" t="inlineStr"/>
+      <c r="FA54" t="inlineStr"/>
+      <c r="FB54" t="inlineStr"/>
+      <c r="FC54" t="inlineStr"/>
+      <c r="FD54" t="inlineStr"/>
+      <c r="FE54" t="inlineStr"/>
+      <c r="FF54" t="inlineStr"/>
+      <c r="FG54" t="inlineStr"/>
+      <c r="FH54" t="inlineStr"/>
+      <c r="FI54" t="inlineStr"/>
+      <c r="FJ54" t="inlineStr"/>
+      <c r="FK54" t="inlineStr"/>
+      <c r="FL54" t="inlineStr"/>
+      <c r="FM54" t="inlineStr"/>
+      <c r="FN54" t="inlineStr"/>
+      <c r="FO54" t="inlineStr"/>
+      <c r="FP54" t="inlineStr"/>
+      <c r="FQ54" t="inlineStr"/>
+      <c r="FR54" t="inlineStr"/>
+      <c r="FS54" t="inlineStr"/>
+      <c r="FT54" t="inlineStr"/>
+      <c r="FU54" t="inlineStr"/>
+      <c r="FV54" t="inlineStr"/>
+      <c r="FW54" t="inlineStr"/>
+      <c r="FX54" t="inlineStr"/>
+      <c r="FY54" t="inlineStr"/>
+      <c r="FZ54" t="inlineStr"/>
+      <c r="GA54" t="inlineStr"/>
+      <c r="GB54" t="inlineStr"/>
+      <c r="GC54" t="inlineStr"/>
+      <c r="GD54" t="inlineStr"/>
+      <c r="GE54" t="inlineStr"/>
+      <c r="GF54" t="inlineStr"/>
+      <c r="GG54" t="inlineStr"/>
+      <c r="GH54" t="inlineStr"/>
+      <c r="GI54" t="inlineStr"/>
+      <c r="GJ54" t="inlineStr"/>
+      <c r="GK54" t="inlineStr"/>
+      <c r="GL54" t="inlineStr"/>
+      <c r="GM54" t="inlineStr"/>
+      <c r="GN54" t="inlineStr"/>
+      <c r="GO54" t="inlineStr"/>
+      <c r="GP54" t="inlineStr"/>
+      <c r="GQ54" t="inlineStr"/>
+      <c r="GR54" t="inlineStr"/>
+      <c r="GS54" t="inlineStr"/>
+      <c r="GT54" t="inlineStr"/>
+      <c r="GU54" t="inlineStr"/>
+      <c r="GV54" t="inlineStr"/>
+      <c r="GW54" t="inlineStr"/>
+      <c r="GX54" t="inlineStr"/>
+      <c r="GY54" t="inlineStr"/>
+      <c r="GZ54" t="inlineStr"/>
+      <c r="HA54" t="inlineStr"/>
+      <c r="HB54" t="inlineStr"/>
+      <c r="HC54" t="inlineStr"/>
+      <c r="HD54" t="inlineStr"/>
+      <c r="HE54" t="inlineStr"/>
+      <c r="HF54" t="inlineStr"/>
+      <c r="HG54" t="inlineStr"/>
+      <c r="HH54" t="inlineStr"/>
+      <c r="HI54" t="inlineStr"/>
+      <c r="HJ54" t="inlineStr"/>
+      <c r="HK54" t="inlineStr"/>
+      <c r="HL54" t="inlineStr"/>
+      <c r="HM54" t="inlineStr"/>
+      <c r="HN54" t="inlineStr"/>
+      <c r="HO54" t="inlineStr"/>
+      <c r="HP54" t="inlineStr"/>
+      <c r="HQ54" t="inlineStr"/>
+      <c r="HR54" t="inlineStr"/>
+      <c r="HS54" t="inlineStr"/>
+      <c r="HT54" t="inlineStr"/>
+      <c r="HU54" t="inlineStr"/>
+      <c r="HV54" t="inlineStr"/>
+      <c r="HW54" t="inlineStr"/>
+      <c r="HX54" t="inlineStr"/>
+      <c r="HY54" t="inlineStr"/>
+      <c r="HZ54" t="inlineStr"/>
+      <c r="IA54" t="inlineStr"/>
+      <c r="IB54" t="inlineStr"/>
+      <c r="IC54" t="inlineStr"/>
+      <c r="ID54" t="inlineStr"/>
+      <c r="IE54" t="inlineStr"/>
+      <c r="IF54" t="inlineStr"/>
+      <c r="IG54" t="inlineStr"/>
+      <c r="IH54" t="inlineStr"/>
+      <c r="II54" t="inlineStr"/>
+      <c r="IJ54" t="inlineStr"/>
+      <c r="IK54" t="inlineStr"/>
+      <c r="IL54" t="inlineStr"/>
+      <c r="IM54" t="inlineStr"/>
+      <c r="IN54" t="inlineStr"/>
+      <c r="IO54" t="inlineStr"/>
+      <c r="IP54" t="inlineStr"/>
+      <c r="IQ54" t="inlineStr"/>
+      <c r="IR54" t="inlineStr"/>
+      <c r="IS54" t="inlineStr"/>
+      <c r="IT54" t="inlineStr"/>
+      <c r="IU54" t="inlineStr"/>
+      <c r="IV54" t="inlineStr"/>
+      <c r="IW54" t="inlineStr"/>
+      <c r="IX54" t="inlineStr"/>
+      <c r="IY54" t="inlineStr"/>
+      <c r="IZ54" t="inlineStr"/>
+      <c r="JA54" t="inlineStr"/>
+      <c r="JB54" t="inlineStr"/>
+      <c r="JC54" t="inlineStr"/>
+      <c r="JD54" t="inlineStr"/>
+      <c r="JE54" t="inlineStr"/>
+      <c r="JF54" t="inlineStr"/>
+      <c r="JG54" t="inlineStr"/>
+      <c r="JH54" t="inlineStr"/>
+      <c r="JI54" t="inlineStr"/>
+      <c r="JJ54" t="inlineStr"/>
+      <c r="JK54" t="inlineStr"/>
+      <c r="JL54" t="inlineStr"/>
+      <c r="JM54" t="inlineStr"/>
+      <c r="JN54" t="inlineStr"/>
+      <c r="JO54" t="inlineStr"/>
+      <c r="JP54" t="inlineStr"/>
+      <c r="JQ54" t="inlineStr"/>
+      <c r="JR54" t="inlineStr"/>
+      <c r="JS54" t="inlineStr"/>
+      <c r="JT54" t="inlineStr"/>
+      <c r="JU54" t="inlineStr"/>
+      <c r="JV54" t="inlineStr"/>
+      <c r="JW54" t="inlineStr"/>
+      <c r="JX54" t="inlineStr"/>
+      <c r="JY54" t="inlineStr"/>
+      <c r="JZ54" t="inlineStr"/>
+      <c r="KA54" t="inlineStr"/>
+      <c r="KB54" t="inlineStr"/>
+      <c r="KC54" t="inlineStr"/>
+      <c r="KD54" t="inlineStr"/>
+      <c r="KE54" t="inlineStr"/>
+      <c r="KF54" t="inlineStr"/>
+      <c r="KG54" t="inlineStr"/>
+      <c r="KH54" t="inlineStr"/>
+      <c r="KI54" t="inlineStr"/>
+      <c r="KJ54" t="inlineStr"/>
+      <c r="KK54" t="inlineStr"/>
+      <c r="KL54" t="inlineStr"/>
+      <c r="KM54" t="inlineStr"/>
+      <c r="KN54" t="inlineStr"/>
+      <c r="KO54" t="inlineStr"/>
+      <c r="KP54" t="inlineStr"/>
+      <c r="KQ54" t="inlineStr"/>
+      <c r="KR54" t="inlineStr"/>
+      <c r="KS54" t="inlineStr"/>
+      <c r="KT54" t="inlineStr"/>
+      <c r="KU54" t="inlineStr"/>
+      <c r="KV54" t="inlineStr"/>
+      <c r="KW54" t="inlineStr"/>
+      <c r="KX54" t="inlineStr"/>
+      <c r="KY54" t="inlineStr"/>
+      <c r="KZ54" t="inlineStr"/>
+      <c r="LA54" t="inlineStr"/>
+      <c r="LB54" t="inlineStr"/>
+      <c r="LC54" t="inlineStr"/>
+      <c r="LD54" t="inlineStr"/>
+      <c r="LE54" t="inlineStr"/>
+      <c r="LF54" t="inlineStr"/>
+      <c r="LG54" t="inlineStr"/>
+      <c r="LH54" t="inlineStr"/>
+      <c r="LI54" t="inlineStr"/>
+      <c r="LJ54" t="inlineStr"/>
+      <c r="LK54" t="inlineStr"/>
+      <c r="LL54" t="inlineStr"/>
+      <c r="LM54" t="inlineStr"/>
+      <c r="LN54" t="inlineStr"/>
+      <c r="LO54" t="inlineStr"/>
+      <c r="LP54" t="inlineStr"/>
+      <c r="LQ54" t="inlineStr"/>
+      <c r="LR54" t="inlineStr"/>
+      <c r="LS54" t="inlineStr"/>
+      <c r="LT54" t="inlineStr"/>
+      <c r="LU54" t="inlineStr"/>
+      <c r="LV54" t="inlineStr"/>
+      <c r="LW54" t="inlineStr"/>
+      <c r="LX54" t="inlineStr"/>
+      <c r="LY54" t="inlineStr"/>
+      <c r="LZ54" t="inlineStr"/>
+      <c r="MA54" t="inlineStr"/>
+      <c r="MB54" t="inlineStr"/>
+      <c r="MC54" t="inlineStr"/>
+      <c r="MD54" t="inlineStr"/>
+      <c r="ME54" t="inlineStr"/>
+      <c r="MF54" t="inlineStr"/>
+      <c r="MG54" t="inlineStr"/>
+      <c r="MH54" t="inlineStr"/>
+      <c r="MI54" t="inlineStr"/>
+      <c r="MJ54" t="inlineStr"/>
+      <c r="MK54" t="inlineStr"/>
+      <c r="ML54" t="inlineStr"/>
+      <c r="MM54" t="inlineStr"/>
+      <c r="MN54" t="inlineStr"/>
+      <c r="MO54" t="inlineStr"/>
+      <c r="MP54" t="inlineStr"/>
+      <c r="MQ54" t="inlineStr"/>
+      <c r="MR54" t="inlineStr"/>
+      <c r="MS54" t="inlineStr"/>
+      <c r="MT54" t="inlineStr"/>
+      <c r="MU54" t="inlineStr"/>
+      <c r="MV54" t="inlineStr"/>
+      <c r="MW54" t="inlineStr"/>
+      <c r="MX54" t="inlineStr"/>
+      <c r="MY54" t="inlineStr"/>
+      <c r="MZ54" t="inlineStr"/>
+      <c r="NA54" t="inlineStr"/>
+      <c r="NB54" t="inlineStr"/>
+      <c r="NC54" t="inlineStr"/>
+      <c r="ND54" t="inlineStr"/>
+      <c r="NE54" t="inlineStr"/>
+      <c r="NF54" t="inlineStr"/>
+      <c r="NG54" t="inlineStr"/>
+      <c r="NH54" t="inlineStr"/>
+      <c r="NI54" t="inlineStr"/>
+      <c r="NJ54" t="inlineStr"/>
+      <c r="NK54" t="inlineStr"/>
+      <c r="NL54" t="inlineStr"/>
+      <c r="NM54" t="inlineStr"/>
+      <c r="NN54" t="inlineStr"/>
+      <c r="NO54" t="inlineStr"/>
+      <c r="NP54" t="inlineStr"/>
+      <c r="NQ54" t="inlineStr"/>
+      <c r="NR54" t="inlineStr"/>
+      <c r="NS54" t="inlineStr"/>
+      <c r="NT54" t="inlineStr"/>
+      <c r="NU54" t="inlineStr"/>
+      <c r="NV54" t="inlineStr"/>
+      <c r="NW54" t="inlineStr"/>
+      <c r="NX54" t="inlineStr"/>
+      <c r="NY54" t="inlineStr"/>
+      <c r="NZ54" t="inlineStr"/>
+      <c r="OA54" t="inlineStr"/>
+      <c r="OB54" t="inlineStr"/>
+      <c r="OC54" t="inlineStr"/>
+      <c r="OD54" t="inlineStr"/>
+      <c r="OE54" t="inlineStr"/>
+      <c r="OF54" t="inlineStr"/>
+      <c r="OG54" t="inlineStr"/>
+      <c r="OH54" t="inlineStr"/>
+      <c r="OI54" t="inlineStr"/>
+      <c r="OJ54" t="inlineStr"/>
+      <c r="OK54" t="inlineStr"/>
+      <c r="OL54" t="inlineStr"/>
+      <c r="OM54" t="inlineStr"/>
+      <c r="ON54" t="inlineStr"/>
+      <c r="OO54" t="inlineStr"/>
+      <c r="OP54" t="inlineStr"/>
+      <c r="OQ54" t="inlineStr"/>
+      <c r="OR54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR54"/>
+  <dimension ref="A1:OR61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15566,413 +15566,972 @@
           <t>type03</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr"/>
-      <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr"/>
-      <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr"/>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="inlineStr"/>
-      <c r="AU54" t="inlineStr"/>
-      <c r="AV54" t="inlineStr"/>
-      <c r="AW54" t="inlineStr"/>
-      <c r="AX54" t="inlineStr"/>
-      <c r="AY54" t="inlineStr"/>
-      <c r="AZ54" t="inlineStr"/>
-      <c r="BA54" t="inlineStr"/>
-      <c r="BB54" t="inlineStr"/>
-      <c r="BC54" t="inlineStr"/>
-      <c r="BD54" t="inlineStr"/>
-      <c r="BE54" t="inlineStr"/>
-      <c r="BF54" t="inlineStr"/>
-      <c r="BG54" t="inlineStr"/>
-      <c r="BH54" t="inlineStr"/>
-      <c r="BI54" t="inlineStr"/>
-      <c r="BJ54" t="inlineStr"/>
-      <c r="BK54" t="inlineStr"/>
-      <c r="BL54" t="inlineStr"/>
-      <c r="BM54" t="inlineStr"/>
-      <c r="BN54" t="inlineStr"/>
-      <c r="BO54" t="inlineStr"/>
-      <c r="BP54" t="inlineStr"/>
-      <c r="BQ54" t="inlineStr"/>
-      <c r="BR54" t="inlineStr"/>
-      <c r="BS54" t="inlineStr"/>
-      <c r="BT54" t="inlineStr"/>
-      <c r="BU54" t="inlineStr"/>
-      <c r="BV54" t="inlineStr"/>
-      <c r="BW54" t="inlineStr"/>
-      <c r="BX54" t="inlineStr"/>
-      <c r="BY54" t="inlineStr"/>
-      <c r="BZ54" t="inlineStr"/>
-      <c r="CA54" t="inlineStr"/>
-      <c r="CB54" t="inlineStr"/>
-      <c r="CC54" t="inlineStr"/>
-      <c r="CD54" t="inlineStr"/>
-      <c r="CE54" t="inlineStr"/>
-      <c r="CF54" t="inlineStr"/>
-      <c r="CG54" t="inlineStr"/>
-      <c r="CH54" t="inlineStr"/>
-      <c r="CI54" t="inlineStr"/>
-      <c r="CJ54" t="inlineStr"/>
-      <c r="CK54" t="inlineStr"/>
-      <c r="CL54" t="inlineStr"/>
-      <c r="CM54" t="inlineStr"/>
-      <c r="CN54" t="inlineStr"/>
-      <c r="CO54" t="inlineStr"/>
-      <c r="CP54" t="inlineStr"/>
-      <c r="CQ54" t="inlineStr"/>
-      <c r="CR54" t="inlineStr"/>
-      <c r="CS54" t="inlineStr"/>
-      <c r="CT54" t="inlineStr"/>
-      <c r="CU54" t="inlineStr"/>
-      <c r="CV54" t="inlineStr"/>
-      <c r="CW54" t="inlineStr"/>
-      <c r="CX54" t="inlineStr"/>
-      <c r="CY54" t="inlineStr"/>
-      <c r="CZ54" t="inlineStr"/>
-      <c r="DA54" t="inlineStr"/>
-      <c r="DB54" t="inlineStr"/>
-      <c r="DC54" t="inlineStr"/>
-      <c r="DD54" t="inlineStr"/>
-      <c r="DE54" t="inlineStr"/>
-      <c r="DF54" t="inlineStr"/>
-      <c r="DG54" t="inlineStr"/>
-      <c r="DH54" t="inlineStr"/>
-      <c r="DI54" t="inlineStr"/>
-      <c r="DJ54" t="inlineStr"/>
-      <c r="DK54" t="inlineStr"/>
-      <c r="DL54" t="inlineStr"/>
-      <c r="DM54" t="inlineStr"/>
-      <c r="DN54" t="inlineStr"/>
-      <c r="DO54" t="inlineStr"/>
-      <c r="DP54" t="inlineStr"/>
-      <c r="DQ54" t="inlineStr"/>
-      <c r="DR54" t="inlineStr"/>
-      <c r="DS54" t="inlineStr"/>
-      <c r="DT54" t="inlineStr"/>
-      <c r="DU54" t="inlineStr"/>
-      <c r="DV54" t="inlineStr"/>
-      <c r="DW54" t="inlineStr"/>
-      <c r="DX54" t="inlineStr"/>
-      <c r="DY54" t="inlineStr"/>
-      <c r="DZ54" t="inlineStr"/>
-      <c r="EA54" t="inlineStr"/>
-      <c r="EB54" t="inlineStr"/>
-      <c r="EC54" t="inlineStr"/>
-      <c r="ED54" t="inlineStr"/>
-      <c r="EE54" t="inlineStr"/>
-      <c r="EF54" t="inlineStr"/>
-      <c r="EG54" t="inlineStr"/>
-      <c r="EH54" t="inlineStr"/>
-      <c r="EI54" t="inlineStr"/>
-      <c r="EJ54" t="inlineStr"/>
-      <c r="EK54" t="inlineStr"/>
-      <c r="EL54" t="inlineStr"/>
-      <c r="EM54" t="inlineStr"/>
-      <c r="EN54" t="inlineStr"/>
-      <c r="EO54" t="inlineStr"/>
-      <c r="EP54" t="inlineStr"/>
-      <c r="EQ54" t="inlineStr"/>
-      <c r="ER54" t="inlineStr"/>
-      <c r="ES54" t="inlineStr"/>
-      <c r="ET54" t="inlineStr"/>
-      <c r="EU54" t="inlineStr"/>
-      <c r="EV54" t="inlineStr"/>
-      <c r="EW54" t="inlineStr"/>
-      <c r="EX54" t="inlineStr"/>
-      <c r="EY54" t="inlineStr"/>
-      <c r="EZ54" t="inlineStr"/>
-      <c r="FA54" t="inlineStr"/>
-      <c r="FB54" t="inlineStr"/>
-      <c r="FC54" t="inlineStr"/>
-      <c r="FD54" t="inlineStr"/>
-      <c r="FE54" t="inlineStr"/>
-      <c r="FF54" t="inlineStr"/>
-      <c r="FG54" t="inlineStr"/>
-      <c r="FH54" t="inlineStr"/>
-      <c r="FI54" t="inlineStr"/>
-      <c r="FJ54" t="inlineStr"/>
-      <c r="FK54" t="inlineStr"/>
-      <c r="FL54" t="inlineStr"/>
-      <c r="FM54" t="inlineStr"/>
-      <c r="FN54" t="inlineStr"/>
-      <c r="FO54" t="inlineStr"/>
-      <c r="FP54" t="inlineStr"/>
-      <c r="FQ54" t="inlineStr"/>
-      <c r="FR54" t="inlineStr"/>
-      <c r="FS54" t="inlineStr"/>
-      <c r="FT54" t="inlineStr"/>
-      <c r="FU54" t="inlineStr"/>
-      <c r="FV54" t="inlineStr"/>
-      <c r="FW54" t="inlineStr"/>
-      <c r="FX54" t="inlineStr"/>
-      <c r="FY54" t="inlineStr"/>
-      <c r="FZ54" t="inlineStr"/>
-      <c r="GA54" t="inlineStr"/>
-      <c r="GB54" t="inlineStr"/>
-      <c r="GC54" t="inlineStr"/>
-      <c r="GD54" t="inlineStr"/>
-      <c r="GE54" t="inlineStr"/>
-      <c r="GF54" t="inlineStr"/>
-      <c r="GG54" t="inlineStr"/>
-      <c r="GH54" t="inlineStr"/>
-      <c r="GI54" t="inlineStr"/>
-      <c r="GJ54" t="inlineStr"/>
-      <c r="GK54" t="inlineStr"/>
-      <c r="GL54" t="inlineStr"/>
-      <c r="GM54" t="inlineStr"/>
-      <c r="GN54" t="inlineStr"/>
-      <c r="GO54" t="inlineStr"/>
-      <c r="GP54" t="inlineStr"/>
-      <c r="GQ54" t="inlineStr"/>
-      <c r="GR54" t="inlineStr"/>
-      <c r="GS54" t="inlineStr"/>
-      <c r="GT54" t="inlineStr"/>
-      <c r="GU54" t="inlineStr"/>
-      <c r="GV54" t="inlineStr"/>
-      <c r="GW54" t="inlineStr"/>
-      <c r="GX54" t="inlineStr"/>
-      <c r="GY54" t="inlineStr"/>
-      <c r="GZ54" t="inlineStr"/>
-      <c r="HA54" t="inlineStr"/>
-      <c r="HB54" t="inlineStr"/>
-      <c r="HC54" t="inlineStr"/>
-      <c r="HD54" t="inlineStr"/>
-      <c r="HE54" t="inlineStr"/>
-      <c r="HF54" t="inlineStr"/>
-      <c r="HG54" t="inlineStr"/>
-      <c r="HH54" t="inlineStr"/>
-      <c r="HI54" t="inlineStr"/>
-      <c r="HJ54" t="inlineStr"/>
-      <c r="HK54" t="inlineStr"/>
-      <c r="HL54" t="inlineStr"/>
-      <c r="HM54" t="inlineStr"/>
-      <c r="HN54" t="inlineStr"/>
-      <c r="HO54" t="inlineStr"/>
-      <c r="HP54" t="inlineStr"/>
-      <c r="HQ54" t="inlineStr"/>
-      <c r="HR54" t="inlineStr"/>
-      <c r="HS54" t="inlineStr"/>
-      <c r="HT54" t="inlineStr"/>
-      <c r="HU54" t="inlineStr"/>
-      <c r="HV54" t="inlineStr"/>
-      <c r="HW54" t="inlineStr"/>
-      <c r="HX54" t="inlineStr"/>
-      <c r="HY54" t="inlineStr"/>
-      <c r="HZ54" t="inlineStr"/>
-      <c r="IA54" t="inlineStr"/>
-      <c r="IB54" t="inlineStr"/>
-      <c r="IC54" t="inlineStr"/>
-      <c r="ID54" t="inlineStr"/>
-      <c r="IE54" t="inlineStr"/>
-      <c r="IF54" t="inlineStr"/>
-      <c r="IG54" t="inlineStr"/>
-      <c r="IH54" t="inlineStr"/>
-      <c r="II54" t="inlineStr"/>
-      <c r="IJ54" t="inlineStr"/>
-      <c r="IK54" t="inlineStr"/>
-      <c r="IL54" t="inlineStr"/>
-      <c r="IM54" t="inlineStr"/>
-      <c r="IN54" t="inlineStr"/>
-      <c r="IO54" t="inlineStr"/>
-      <c r="IP54" t="inlineStr"/>
-      <c r="IQ54" t="inlineStr"/>
-      <c r="IR54" t="inlineStr"/>
-      <c r="IS54" t="inlineStr"/>
-      <c r="IT54" t="inlineStr"/>
-      <c r="IU54" t="inlineStr"/>
-      <c r="IV54" t="inlineStr"/>
-      <c r="IW54" t="inlineStr"/>
-      <c r="IX54" t="inlineStr"/>
-      <c r="IY54" t="inlineStr"/>
-      <c r="IZ54" t="inlineStr"/>
-      <c r="JA54" t="inlineStr"/>
-      <c r="JB54" t="inlineStr"/>
-      <c r="JC54" t="inlineStr"/>
-      <c r="JD54" t="inlineStr"/>
-      <c r="JE54" t="inlineStr"/>
-      <c r="JF54" t="inlineStr"/>
-      <c r="JG54" t="inlineStr"/>
-      <c r="JH54" t="inlineStr"/>
-      <c r="JI54" t="inlineStr"/>
-      <c r="JJ54" t="inlineStr"/>
-      <c r="JK54" t="inlineStr"/>
-      <c r="JL54" t="inlineStr"/>
-      <c r="JM54" t="inlineStr"/>
-      <c r="JN54" t="inlineStr"/>
-      <c r="JO54" t="inlineStr"/>
-      <c r="JP54" t="inlineStr"/>
-      <c r="JQ54" t="inlineStr"/>
-      <c r="JR54" t="inlineStr"/>
-      <c r="JS54" t="inlineStr"/>
-      <c r="JT54" t="inlineStr"/>
-      <c r="JU54" t="inlineStr"/>
-      <c r="JV54" t="inlineStr"/>
-      <c r="JW54" t="inlineStr"/>
-      <c r="JX54" t="inlineStr"/>
-      <c r="JY54" t="inlineStr"/>
-      <c r="JZ54" t="inlineStr"/>
-      <c r="KA54" t="inlineStr"/>
-      <c r="KB54" t="inlineStr"/>
-      <c r="KC54" t="inlineStr"/>
-      <c r="KD54" t="inlineStr"/>
-      <c r="KE54" t="inlineStr"/>
-      <c r="KF54" t="inlineStr"/>
-      <c r="KG54" t="inlineStr"/>
-      <c r="KH54" t="inlineStr"/>
-      <c r="KI54" t="inlineStr"/>
-      <c r="KJ54" t="inlineStr"/>
-      <c r="KK54" t="inlineStr"/>
-      <c r="KL54" t="inlineStr"/>
-      <c r="KM54" t="inlineStr"/>
-      <c r="KN54" t="inlineStr"/>
-      <c r="KO54" t="inlineStr"/>
-      <c r="KP54" t="inlineStr"/>
-      <c r="KQ54" t="inlineStr"/>
-      <c r="KR54" t="inlineStr"/>
-      <c r="KS54" t="inlineStr"/>
-      <c r="KT54" t="inlineStr"/>
-      <c r="KU54" t="inlineStr"/>
-      <c r="KV54" t="inlineStr"/>
-      <c r="KW54" t="inlineStr"/>
-      <c r="KX54" t="inlineStr"/>
-      <c r="KY54" t="inlineStr"/>
-      <c r="KZ54" t="inlineStr"/>
-      <c r="LA54" t="inlineStr"/>
-      <c r="LB54" t="inlineStr"/>
-      <c r="LC54" t="inlineStr"/>
-      <c r="LD54" t="inlineStr"/>
-      <c r="LE54" t="inlineStr"/>
-      <c r="LF54" t="inlineStr"/>
-      <c r="LG54" t="inlineStr"/>
-      <c r="LH54" t="inlineStr"/>
-      <c r="LI54" t="inlineStr"/>
-      <c r="LJ54" t="inlineStr"/>
-      <c r="LK54" t="inlineStr"/>
-      <c r="LL54" t="inlineStr"/>
-      <c r="LM54" t="inlineStr"/>
-      <c r="LN54" t="inlineStr"/>
-      <c r="LO54" t="inlineStr"/>
-      <c r="LP54" t="inlineStr"/>
-      <c r="LQ54" t="inlineStr"/>
-      <c r="LR54" t="inlineStr"/>
-      <c r="LS54" t="inlineStr"/>
-      <c r="LT54" t="inlineStr"/>
-      <c r="LU54" t="inlineStr"/>
-      <c r="LV54" t="inlineStr"/>
-      <c r="LW54" t="inlineStr"/>
-      <c r="LX54" t="inlineStr"/>
-      <c r="LY54" t="inlineStr"/>
-      <c r="LZ54" t="inlineStr"/>
-      <c r="MA54" t="inlineStr"/>
-      <c r="MB54" t="inlineStr"/>
-      <c r="MC54" t="inlineStr"/>
-      <c r="MD54" t="inlineStr"/>
-      <c r="ME54" t="inlineStr"/>
-      <c r="MF54" t="inlineStr"/>
-      <c r="MG54" t="inlineStr"/>
-      <c r="MH54" t="inlineStr"/>
-      <c r="MI54" t="inlineStr"/>
-      <c r="MJ54" t="inlineStr"/>
-      <c r="MK54" t="inlineStr"/>
-      <c r="ML54" t="inlineStr"/>
-      <c r="MM54" t="inlineStr"/>
-      <c r="MN54" t="inlineStr"/>
-      <c r="MO54" t="inlineStr"/>
-      <c r="MP54" t="inlineStr"/>
-      <c r="MQ54" t="inlineStr"/>
-      <c r="MR54" t="inlineStr"/>
-      <c r="MS54" t="inlineStr"/>
-      <c r="MT54" t="inlineStr"/>
-      <c r="MU54" t="inlineStr"/>
-      <c r="MV54" t="inlineStr"/>
-      <c r="MW54" t="inlineStr"/>
-      <c r="MX54" t="inlineStr"/>
-      <c r="MY54" t="inlineStr"/>
-      <c r="MZ54" t="inlineStr"/>
-      <c r="NA54" t="inlineStr"/>
-      <c r="NB54" t="inlineStr"/>
-      <c r="NC54" t="inlineStr"/>
-      <c r="ND54" t="inlineStr"/>
-      <c r="NE54" t="inlineStr"/>
-      <c r="NF54" t="inlineStr"/>
-      <c r="NG54" t="inlineStr"/>
-      <c r="NH54" t="inlineStr"/>
-      <c r="NI54" t="inlineStr"/>
-      <c r="NJ54" t="inlineStr"/>
-      <c r="NK54" t="inlineStr"/>
-      <c r="NL54" t="inlineStr"/>
-      <c r="NM54" t="inlineStr"/>
-      <c r="NN54" t="inlineStr"/>
-      <c r="NO54" t="inlineStr"/>
-      <c r="NP54" t="inlineStr"/>
-      <c r="NQ54" t="inlineStr"/>
-      <c r="NR54" t="inlineStr"/>
-      <c r="NS54" t="inlineStr"/>
-      <c r="NT54" t="inlineStr"/>
-      <c r="NU54" t="inlineStr"/>
-      <c r="NV54" t="inlineStr"/>
-      <c r="NW54" t="inlineStr"/>
-      <c r="NX54" t="inlineStr"/>
-      <c r="NY54" t="inlineStr"/>
-      <c r="NZ54" t="inlineStr"/>
-      <c r="OA54" t="inlineStr"/>
-      <c r="OB54" t="inlineStr"/>
-      <c r="OC54" t="inlineStr"/>
-      <c r="OD54" t="inlineStr"/>
-      <c r="OE54" t="inlineStr"/>
-      <c r="OF54" t="inlineStr"/>
-      <c r="OG54" t="inlineStr"/>
-      <c r="OH54" t="inlineStr"/>
-      <c r="OI54" t="inlineStr"/>
-      <c r="OJ54" t="inlineStr"/>
-      <c r="OK54" t="inlineStr"/>
-      <c r="OL54" t="inlineStr"/>
-      <c r="OM54" t="inlineStr"/>
-      <c r="ON54" t="inlineStr"/>
-      <c r="OO54" t="inlineStr"/>
-      <c r="OP54" t="inlineStr"/>
-      <c r="OQ54" t="inlineStr"/>
-      <c r="OR54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="NM55" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NN55" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="NO55" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="NP55" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NQ55" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="NR55" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="NS55" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NT55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="NU55" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="NV55" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NW55" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="NX55" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="NY55" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="NZ55" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="OA55" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="NM56" t="inlineStr">
+        <is>
+          <t>14.5</t>
+        </is>
+      </c>
+      <c r="NN56" t="inlineStr">
+        <is>
+          <t>11.8</t>
+        </is>
+      </c>
+      <c r="NO56" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="NP56" t="inlineStr">
+        <is>
+          <t>14.5</t>
+        </is>
+      </c>
+      <c r="NQ56" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="NR56" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="NS56" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="NT56" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="NU56" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="NV56" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="NW56" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="NX56" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="NY56" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="NZ56" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="OA56" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="NM57" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="NN57" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="NO57" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="NP57" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="NQ57" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="NR57" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="NS57" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="NT57" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="NU57" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="NV57" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="NW57" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="NX57" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="NY57" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="NZ57" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="OA57" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="NM58" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="NN58" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NO58" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="NP58" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="NQ58" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NR58" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="NS58" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="NT58" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="NU58" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="NV58" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="NW58" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="NX58" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="NY58" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="NZ58" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="OA58" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="NM59" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="NN59" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NO59" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="NP59" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="NQ59" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NR59" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="NS59" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="NT59" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="NU59" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="NV59" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="NW59" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="NX59" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="NY59" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="NZ59" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="OA59" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="NM60" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="NN60" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="NO60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="NP60" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="NQ60" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="NR60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="NS60" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="NT60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="NU60" t="inlineStr">
+        <is>
+          <t>-52</t>
+        </is>
+      </c>
+      <c r="NV60" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="NW60" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="NX60" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="NY60" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="NZ60" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="OA60" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AU61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr"/>
+      <c r="AZ61" t="inlineStr"/>
+      <c r="BA61" t="inlineStr"/>
+      <c r="BB61" t="inlineStr"/>
+      <c r="BC61" t="inlineStr"/>
+      <c r="BD61" t="inlineStr"/>
+      <c r="BE61" t="inlineStr"/>
+      <c r="BF61" t="inlineStr"/>
+      <c r="BG61" t="inlineStr"/>
+      <c r="BH61" t="inlineStr"/>
+      <c r="BI61" t="inlineStr"/>
+      <c r="BJ61" t="inlineStr"/>
+      <c r="BK61" t="inlineStr"/>
+      <c r="BL61" t="inlineStr"/>
+      <c r="BM61" t="inlineStr"/>
+      <c r="BN61" t="inlineStr"/>
+      <c r="BO61" t="inlineStr"/>
+      <c r="BP61" t="inlineStr"/>
+      <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
+      <c r="BS61" t="inlineStr"/>
+      <c r="BT61" t="inlineStr"/>
+      <c r="BU61" t="inlineStr"/>
+      <c r="BV61" t="inlineStr"/>
+      <c r="BW61" t="inlineStr"/>
+      <c r="BX61" t="inlineStr"/>
+      <c r="BY61" t="inlineStr"/>
+      <c r="BZ61" t="inlineStr"/>
+      <c r="CA61" t="inlineStr"/>
+      <c r="CB61" t="inlineStr"/>
+      <c r="CC61" t="inlineStr"/>
+      <c r="CD61" t="inlineStr"/>
+      <c r="CE61" t="inlineStr"/>
+      <c r="CF61" t="inlineStr"/>
+      <c r="CG61" t="inlineStr"/>
+      <c r="CH61" t="inlineStr"/>
+      <c r="CI61" t="inlineStr"/>
+      <c r="CJ61" t="inlineStr"/>
+      <c r="CK61" t="inlineStr"/>
+      <c r="CL61" t="inlineStr"/>
+      <c r="CM61" t="inlineStr"/>
+      <c r="CN61" t="inlineStr"/>
+      <c r="CO61" t="inlineStr"/>
+      <c r="CP61" t="inlineStr"/>
+      <c r="CQ61" t="inlineStr"/>
+      <c r="CR61" t="inlineStr"/>
+      <c r="CS61" t="inlineStr"/>
+      <c r="CT61" t="inlineStr"/>
+      <c r="CU61" t="inlineStr"/>
+      <c r="CV61" t="inlineStr"/>
+      <c r="CW61" t="inlineStr"/>
+      <c r="CX61" t="inlineStr"/>
+      <c r="CY61" t="inlineStr"/>
+      <c r="CZ61" t="inlineStr"/>
+      <c r="DA61" t="inlineStr"/>
+      <c r="DB61" t="inlineStr"/>
+      <c r="DC61" t="inlineStr"/>
+      <c r="DD61" t="inlineStr"/>
+      <c r="DE61" t="inlineStr"/>
+      <c r="DF61" t="inlineStr"/>
+      <c r="DG61" t="inlineStr"/>
+      <c r="DH61" t="inlineStr"/>
+      <c r="DI61" t="inlineStr"/>
+      <c r="DJ61" t="inlineStr"/>
+      <c r="DK61" t="inlineStr"/>
+      <c r="DL61" t="inlineStr"/>
+      <c r="DM61" t="inlineStr"/>
+      <c r="DN61" t="inlineStr"/>
+      <c r="DO61" t="inlineStr"/>
+      <c r="DP61" t="inlineStr"/>
+      <c r="DQ61" t="inlineStr"/>
+      <c r="DR61" t="inlineStr"/>
+      <c r="DS61" t="inlineStr"/>
+      <c r="DT61" t="inlineStr"/>
+      <c r="DU61" t="inlineStr"/>
+      <c r="DV61" t="inlineStr"/>
+      <c r="DW61" t="inlineStr"/>
+      <c r="DX61" t="inlineStr"/>
+      <c r="DY61" t="inlineStr"/>
+      <c r="DZ61" t="inlineStr"/>
+      <c r="EA61" t="inlineStr"/>
+      <c r="EB61" t="inlineStr"/>
+      <c r="EC61" t="inlineStr"/>
+      <c r="ED61" t="inlineStr"/>
+      <c r="EE61" t="inlineStr"/>
+      <c r="EF61" t="inlineStr"/>
+      <c r="EG61" t="inlineStr"/>
+      <c r="EH61" t="inlineStr"/>
+      <c r="EI61" t="inlineStr"/>
+      <c r="EJ61" t="inlineStr"/>
+      <c r="EK61" t="inlineStr"/>
+      <c r="EL61" t="inlineStr"/>
+      <c r="EM61" t="inlineStr"/>
+      <c r="EN61" t="inlineStr"/>
+      <c r="EO61" t="inlineStr"/>
+      <c r="EP61" t="inlineStr"/>
+      <c r="EQ61" t="inlineStr"/>
+      <c r="ER61" t="inlineStr"/>
+      <c r="ES61" t="inlineStr"/>
+      <c r="ET61" t="inlineStr"/>
+      <c r="EU61" t="inlineStr"/>
+      <c r="EV61" t="inlineStr"/>
+      <c r="EW61" t="inlineStr"/>
+      <c r="EX61" t="inlineStr"/>
+      <c r="EY61" t="inlineStr"/>
+      <c r="EZ61" t="inlineStr"/>
+      <c r="FA61" t="inlineStr"/>
+      <c r="FB61" t="inlineStr"/>
+      <c r="FC61" t="inlineStr"/>
+      <c r="FD61" t="inlineStr"/>
+      <c r="FE61" t="inlineStr"/>
+      <c r="FF61" t="inlineStr"/>
+      <c r="FG61" t="inlineStr"/>
+      <c r="FH61" t="inlineStr"/>
+      <c r="FI61" t="inlineStr"/>
+      <c r="FJ61" t="inlineStr"/>
+      <c r="FK61" t="inlineStr"/>
+      <c r="FL61" t="inlineStr"/>
+      <c r="FM61" t="inlineStr"/>
+      <c r="FN61" t="inlineStr"/>
+      <c r="FO61" t="inlineStr"/>
+      <c r="FP61" t="inlineStr"/>
+      <c r="FQ61" t="inlineStr"/>
+      <c r="FR61" t="inlineStr"/>
+      <c r="FS61" t="inlineStr"/>
+      <c r="FT61" t="inlineStr"/>
+      <c r="FU61" t="inlineStr"/>
+      <c r="FV61" t="inlineStr"/>
+      <c r="FW61" t="inlineStr"/>
+      <c r="FX61" t="inlineStr"/>
+      <c r="FY61" t="inlineStr"/>
+      <c r="FZ61" t="inlineStr"/>
+      <c r="GA61" t="inlineStr"/>
+      <c r="GB61" t="inlineStr"/>
+      <c r="GC61" t="inlineStr"/>
+      <c r="GD61" t="inlineStr"/>
+      <c r="GE61" t="inlineStr"/>
+      <c r="GF61" t="inlineStr"/>
+      <c r="GG61" t="inlineStr"/>
+      <c r="GH61" t="inlineStr"/>
+      <c r="GI61" t="inlineStr"/>
+      <c r="GJ61" t="inlineStr"/>
+      <c r="GK61" t="inlineStr"/>
+      <c r="GL61" t="inlineStr"/>
+      <c r="GM61" t="inlineStr"/>
+      <c r="GN61" t="inlineStr"/>
+      <c r="GO61" t="inlineStr"/>
+      <c r="GP61" t="inlineStr"/>
+      <c r="GQ61" t="inlineStr"/>
+      <c r="GR61" t="inlineStr"/>
+      <c r="GS61" t="inlineStr"/>
+      <c r="GT61" t="inlineStr"/>
+      <c r="GU61" t="inlineStr"/>
+      <c r="GV61" t="inlineStr"/>
+      <c r="GW61" t="inlineStr"/>
+      <c r="GX61" t="inlineStr"/>
+      <c r="GY61" t="inlineStr"/>
+      <c r="GZ61" t="inlineStr"/>
+      <c r="HA61" t="inlineStr"/>
+      <c r="HB61" t="inlineStr"/>
+      <c r="HC61" t="inlineStr"/>
+      <c r="HD61" t="inlineStr"/>
+      <c r="HE61" t="inlineStr"/>
+      <c r="HF61" t="inlineStr"/>
+      <c r="HG61" t="inlineStr"/>
+      <c r="HH61" t="inlineStr"/>
+      <c r="HI61" t="inlineStr"/>
+      <c r="HJ61" t="inlineStr"/>
+      <c r="HK61" t="inlineStr"/>
+      <c r="HL61" t="inlineStr"/>
+      <c r="HM61" t="inlineStr"/>
+      <c r="HN61" t="inlineStr"/>
+      <c r="HO61" t="inlineStr"/>
+      <c r="HP61" t="inlineStr"/>
+      <c r="HQ61" t="inlineStr"/>
+      <c r="HR61" t="inlineStr"/>
+      <c r="HS61" t="inlineStr"/>
+      <c r="HT61" t="inlineStr"/>
+      <c r="HU61" t="inlineStr"/>
+      <c r="HV61" t="inlineStr"/>
+      <c r="HW61" t="inlineStr"/>
+      <c r="HX61" t="inlineStr"/>
+      <c r="HY61" t="inlineStr"/>
+      <c r="HZ61" t="inlineStr"/>
+      <c r="IA61" t="inlineStr"/>
+      <c r="IB61" t="inlineStr"/>
+      <c r="IC61" t="inlineStr"/>
+      <c r="ID61" t="inlineStr"/>
+      <c r="IE61" t="inlineStr"/>
+      <c r="IF61" t="inlineStr"/>
+      <c r="IG61" t="inlineStr"/>
+      <c r="IH61" t="inlineStr"/>
+      <c r="II61" t="inlineStr"/>
+      <c r="IJ61" t="inlineStr"/>
+      <c r="IK61" t="inlineStr"/>
+      <c r="IL61" t="inlineStr"/>
+      <c r="IM61" t="inlineStr"/>
+      <c r="IN61" t="inlineStr"/>
+      <c r="IO61" t="inlineStr"/>
+      <c r="IP61" t="inlineStr"/>
+      <c r="IQ61" t="inlineStr"/>
+      <c r="IR61" t="inlineStr"/>
+      <c r="IS61" t="inlineStr"/>
+      <c r="IT61" t="inlineStr"/>
+      <c r="IU61" t="inlineStr"/>
+      <c r="IV61" t="inlineStr"/>
+      <c r="IW61" t="inlineStr"/>
+      <c r="IX61" t="inlineStr"/>
+      <c r="IY61" t="inlineStr"/>
+      <c r="IZ61" t="inlineStr"/>
+      <c r="JA61" t="inlineStr"/>
+      <c r="JB61" t="inlineStr"/>
+      <c r="JC61" t="inlineStr"/>
+      <c r="JD61" t="inlineStr"/>
+      <c r="JE61" t="inlineStr"/>
+      <c r="JF61" t="inlineStr"/>
+      <c r="JG61" t="inlineStr"/>
+      <c r="JH61" t="inlineStr"/>
+      <c r="JI61" t="inlineStr"/>
+      <c r="JJ61" t="inlineStr"/>
+      <c r="JK61" t="inlineStr"/>
+      <c r="JL61" t="inlineStr"/>
+      <c r="JM61" t="inlineStr"/>
+      <c r="JN61" t="inlineStr"/>
+      <c r="JO61" t="inlineStr"/>
+      <c r="JP61" t="inlineStr"/>
+      <c r="JQ61" t="inlineStr"/>
+      <c r="JR61" t="inlineStr"/>
+      <c r="JS61" t="inlineStr"/>
+      <c r="JT61" t="inlineStr"/>
+      <c r="JU61" t="inlineStr"/>
+      <c r="JV61" t="inlineStr"/>
+      <c r="JW61" t="inlineStr"/>
+      <c r="JX61" t="inlineStr"/>
+      <c r="JY61" t="inlineStr"/>
+      <c r="JZ61" t="inlineStr"/>
+      <c r="KA61" t="inlineStr"/>
+      <c r="KB61" t="inlineStr"/>
+      <c r="KC61" t="inlineStr"/>
+      <c r="KD61" t="inlineStr"/>
+      <c r="KE61" t="inlineStr"/>
+      <c r="KF61" t="inlineStr"/>
+      <c r="KG61" t="inlineStr"/>
+      <c r="KH61" t="inlineStr"/>
+      <c r="KI61" t="inlineStr"/>
+      <c r="KJ61" t="inlineStr"/>
+      <c r="KK61" t="inlineStr"/>
+      <c r="KL61" t="inlineStr"/>
+      <c r="KM61" t="inlineStr"/>
+      <c r="KN61" t="inlineStr"/>
+      <c r="KO61" t="inlineStr"/>
+      <c r="KP61" t="inlineStr"/>
+      <c r="KQ61" t="inlineStr"/>
+      <c r="KR61" t="inlineStr"/>
+      <c r="KS61" t="inlineStr"/>
+      <c r="KT61" t="inlineStr"/>
+      <c r="KU61" t="inlineStr"/>
+      <c r="KV61" t="inlineStr"/>
+      <c r="KW61" t="inlineStr"/>
+      <c r="KX61" t="inlineStr"/>
+      <c r="KY61" t="inlineStr"/>
+      <c r="KZ61" t="inlineStr"/>
+      <c r="LA61" t="inlineStr"/>
+      <c r="LB61" t="inlineStr"/>
+      <c r="LC61" t="inlineStr"/>
+      <c r="LD61" t="inlineStr"/>
+      <c r="LE61" t="inlineStr"/>
+      <c r="LF61" t="inlineStr"/>
+      <c r="LG61" t="inlineStr"/>
+      <c r="LH61" t="inlineStr"/>
+      <c r="LI61" t="inlineStr"/>
+      <c r="LJ61" t="inlineStr"/>
+      <c r="LK61" t="inlineStr"/>
+      <c r="LL61" t="inlineStr"/>
+      <c r="LM61" t="inlineStr"/>
+      <c r="LN61" t="inlineStr"/>
+      <c r="LO61" t="inlineStr"/>
+      <c r="LP61" t="inlineStr"/>
+      <c r="LQ61" t="inlineStr"/>
+      <c r="LR61" t="inlineStr"/>
+      <c r="LS61" t="inlineStr"/>
+      <c r="LT61" t="inlineStr"/>
+      <c r="LU61" t="inlineStr"/>
+      <c r="LV61" t="inlineStr"/>
+      <c r="LW61" t="inlineStr"/>
+      <c r="LX61" t="inlineStr"/>
+      <c r="LY61" t="inlineStr"/>
+      <c r="LZ61" t="inlineStr"/>
+      <c r="MA61" t="inlineStr"/>
+      <c r="MB61" t="inlineStr"/>
+      <c r="MC61" t="inlineStr"/>
+      <c r="MD61" t="inlineStr"/>
+      <c r="ME61" t="inlineStr"/>
+      <c r="MF61" t="inlineStr"/>
+      <c r="MG61" t="inlineStr"/>
+      <c r="MH61" t="inlineStr"/>
+      <c r="MI61" t="inlineStr"/>
+      <c r="MJ61" t="inlineStr"/>
+      <c r="MK61" t="inlineStr"/>
+      <c r="ML61" t="inlineStr"/>
+      <c r="MM61" t="inlineStr"/>
+      <c r="MN61" t="inlineStr"/>
+      <c r="MO61" t="inlineStr"/>
+      <c r="MP61" t="inlineStr"/>
+      <c r="MQ61" t="inlineStr"/>
+      <c r="MR61" t="inlineStr"/>
+      <c r="MS61" t="inlineStr"/>
+      <c r="MT61" t="inlineStr"/>
+      <c r="MU61" t="inlineStr"/>
+      <c r="MV61" t="inlineStr"/>
+      <c r="MW61" t="inlineStr"/>
+      <c r="MX61" t="inlineStr"/>
+      <c r="MY61" t="inlineStr"/>
+      <c r="MZ61" t="inlineStr"/>
+      <c r="NA61" t="inlineStr"/>
+      <c r="NB61" t="inlineStr"/>
+      <c r="NC61" t="inlineStr"/>
+      <c r="ND61" t="inlineStr"/>
+      <c r="NE61" t="inlineStr"/>
+      <c r="NF61" t="inlineStr"/>
+      <c r="NG61" t="inlineStr"/>
+      <c r="NH61" t="inlineStr"/>
+      <c r="NI61" t="inlineStr"/>
+      <c r="NJ61" t="inlineStr"/>
+      <c r="NK61" t="inlineStr"/>
+      <c r="NL61" t="inlineStr"/>
+      <c r="NM61" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NN61" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="NO61" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="NP61" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NQ61" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="NR61" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="NS61" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NT61" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="NU61" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="NV61" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NW61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="NX61" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="NY61" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="NZ61" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="OA61" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="OB61" t="inlineStr"/>
+      <c r="OC61" t="inlineStr"/>
+      <c r="OD61" t="inlineStr"/>
+      <c r="OE61" t="inlineStr"/>
+      <c r="OF61" t="inlineStr"/>
+      <c r="OG61" t="inlineStr"/>
+      <c r="OH61" t="inlineStr"/>
+      <c r="OI61" t="inlineStr"/>
+      <c r="OJ61" t="inlineStr"/>
+      <c r="OK61" t="inlineStr"/>
+      <c r="OL61" t="inlineStr"/>
+      <c r="OM61" t="inlineStr"/>
+      <c r="ON61" t="inlineStr"/>
+      <c r="OO61" t="inlineStr"/>
+      <c r="OP61" t="inlineStr"/>
+      <c r="OQ61" t="inlineStr"/>
+      <c r="OR61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR61"/>
+  <dimension ref="A1:OR73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16065,381 +16065,6 @@
           <t>type03</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
-      <c r="AL61" t="inlineStr"/>
-      <c r="AM61" t="inlineStr"/>
-      <c r="AN61" t="inlineStr"/>
-      <c r="AO61" t="inlineStr"/>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr"/>
-      <c r="AT61" t="inlineStr"/>
-      <c r="AU61" t="inlineStr"/>
-      <c r="AV61" t="inlineStr"/>
-      <c r="AW61" t="inlineStr"/>
-      <c r="AX61" t="inlineStr"/>
-      <c r="AY61" t="inlineStr"/>
-      <c r="AZ61" t="inlineStr"/>
-      <c r="BA61" t="inlineStr"/>
-      <c r="BB61" t="inlineStr"/>
-      <c r="BC61" t="inlineStr"/>
-      <c r="BD61" t="inlineStr"/>
-      <c r="BE61" t="inlineStr"/>
-      <c r="BF61" t="inlineStr"/>
-      <c r="BG61" t="inlineStr"/>
-      <c r="BH61" t="inlineStr"/>
-      <c r="BI61" t="inlineStr"/>
-      <c r="BJ61" t="inlineStr"/>
-      <c r="BK61" t="inlineStr"/>
-      <c r="BL61" t="inlineStr"/>
-      <c r="BM61" t="inlineStr"/>
-      <c r="BN61" t="inlineStr"/>
-      <c r="BO61" t="inlineStr"/>
-      <c r="BP61" t="inlineStr"/>
-      <c r="BQ61" t="inlineStr"/>
-      <c r="BR61" t="inlineStr"/>
-      <c r="BS61" t="inlineStr"/>
-      <c r="BT61" t="inlineStr"/>
-      <c r="BU61" t="inlineStr"/>
-      <c r="BV61" t="inlineStr"/>
-      <c r="BW61" t="inlineStr"/>
-      <c r="BX61" t="inlineStr"/>
-      <c r="BY61" t="inlineStr"/>
-      <c r="BZ61" t="inlineStr"/>
-      <c r="CA61" t="inlineStr"/>
-      <c r="CB61" t="inlineStr"/>
-      <c r="CC61" t="inlineStr"/>
-      <c r="CD61" t="inlineStr"/>
-      <c r="CE61" t="inlineStr"/>
-      <c r="CF61" t="inlineStr"/>
-      <c r="CG61" t="inlineStr"/>
-      <c r="CH61" t="inlineStr"/>
-      <c r="CI61" t="inlineStr"/>
-      <c r="CJ61" t="inlineStr"/>
-      <c r="CK61" t="inlineStr"/>
-      <c r="CL61" t="inlineStr"/>
-      <c r="CM61" t="inlineStr"/>
-      <c r="CN61" t="inlineStr"/>
-      <c r="CO61" t="inlineStr"/>
-      <c r="CP61" t="inlineStr"/>
-      <c r="CQ61" t="inlineStr"/>
-      <c r="CR61" t="inlineStr"/>
-      <c r="CS61" t="inlineStr"/>
-      <c r="CT61" t="inlineStr"/>
-      <c r="CU61" t="inlineStr"/>
-      <c r="CV61" t="inlineStr"/>
-      <c r="CW61" t="inlineStr"/>
-      <c r="CX61" t="inlineStr"/>
-      <c r="CY61" t="inlineStr"/>
-      <c r="CZ61" t="inlineStr"/>
-      <c r="DA61" t="inlineStr"/>
-      <c r="DB61" t="inlineStr"/>
-      <c r="DC61" t="inlineStr"/>
-      <c r="DD61" t="inlineStr"/>
-      <c r="DE61" t="inlineStr"/>
-      <c r="DF61" t="inlineStr"/>
-      <c r="DG61" t="inlineStr"/>
-      <c r="DH61" t="inlineStr"/>
-      <c r="DI61" t="inlineStr"/>
-      <c r="DJ61" t="inlineStr"/>
-      <c r="DK61" t="inlineStr"/>
-      <c r="DL61" t="inlineStr"/>
-      <c r="DM61" t="inlineStr"/>
-      <c r="DN61" t="inlineStr"/>
-      <c r="DO61" t="inlineStr"/>
-      <c r="DP61" t="inlineStr"/>
-      <c r="DQ61" t="inlineStr"/>
-      <c r="DR61" t="inlineStr"/>
-      <c r="DS61" t="inlineStr"/>
-      <c r="DT61" t="inlineStr"/>
-      <c r="DU61" t="inlineStr"/>
-      <c r="DV61" t="inlineStr"/>
-      <c r="DW61" t="inlineStr"/>
-      <c r="DX61" t="inlineStr"/>
-      <c r="DY61" t="inlineStr"/>
-      <c r="DZ61" t="inlineStr"/>
-      <c r="EA61" t="inlineStr"/>
-      <c r="EB61" t="inlineStr"/>
-      <c r="EC61" t="inlineStr"/>
-      <c r="ED61" t="inlineStr"/>
-      <c r="EE61" t="inlineStr"/>
-      <c r="EF61" t="inlineStr"/>
-      <c r="EG61" t="inlineStr"/>
-      <c r="EH61" t="inlineStr"/>
-      <c r="EI61" t="inlineStr"/>
-      <c r="EJ61" t="inlineStr"/>
-      <c r="EK61" t="inlineStr"/>
-      <c r="EL61" t="inlineStr"/>
-      <c r="EM61" t="inlineStr"/>
-      <c r="EN61" t="inlineStr"/>
-      <c r="EO61" t="inlineStr"/>
-      <c r="EP61" t="inlineStr"/>
-      <c r="EQ61" t="inlineStr"/>
-      <c r="ER61" t="inlineStr"/>
-      <c r="ES61" t="inlineStr"/>
-      <c r="ET61" t="inlineStr"/>
-      <c r="EU61" t="inlineStr"/>
-      <c r="EV61" t="inlineStr"/>
-      <c r="EW61" t="inlineStr"/>
-      <c r="EX61" t="inlineStr"/>
-      <c r="EY61" t="inlineStr"/>
-      <c r="EZ61" t="inlineStr"/>
-      <c r="FA61" t="inlineStr"/>
-      <c r="FB61" t="inlineStr"/>
-      <c r="FC61" t="inlineStr"/>
-      <c r="FD61" t="inlineStr"/>
-      <c r="FE61" t="inlineStr"/>
-      <c r="FF61" t="inlineStr"/>
-      <c r="FG61" t="inlineStr"/>
-      <c r="FH61" t="inlineStr"/>
-      <c r="FI61" t="inlineStr"/>
-      <c r="FJ61" t="inlineStr"/>
-      <c r="FK61" t="inlineStr"/>
-      <c r="FL61" t="inlineStr"/>
-      <c r="FM61" t="inlineStr"/>
-      <c r="FN61" t="inlineStr"/>
-      <c r="FO61" t="inlineStr"/>
-      <c r="FP61" t="inlineStr"/>
-      <c r="FQ61" t="inlineStr"/>
-      <c r="FR61" t="inlineStr"/>
-      <c r="FS61" t="inlineStr"/>
-      <c r="FT61" t="inlineStr"/>
-      <c r="FU61" t="inlineStr"/>
-      <c r="FV61" t="inlineStr"/>
-      <c r="FW61" t="inlineStr"/>
-      <c r="FX61" t="inlineStr"/>
-      <c r="FY61" t="inlineStr"/>
-      <c r="FZ61" t="inlineStr"/>
-      <c r="GA61" t="inlineStr"/>
-      <c r="GB61" t="inlineStr"/>
-      <c r="GC61" t="inlineStr"/>
-      <c r="GD61" t="inlineStr"/>
-      <c r="GE61" t="inlineStr"/>
-      <c r="GF61" t="inlineStr"/>
-      <c r="GG61" t="inlineStr"/>
-      <c r="GH61" t="inlineStr"/>
-      <c r="GI61" t="inlineStr"/>
-      <c r="GJ61" t="inlineStr"/>
-      <c r="GK61" t="inlineStr"/>
-      <c r="GL61" t="inlineStr"/>
-      <c r="GM61" t="inlineStr"/>
-      <c r="GN61" t="inlineStr"/>
-      <c r="GO61" t="inlineStr"/>
-      <c r="GP61" t="inlineStr"/>
-      <c r="GQ61" t="inlineStr"/>
-      <c r="GR61" t="inlineStr"/>
-      <c r="GS61" t="inlineStr"/>
-      <c r="GT61" t="inlineStr"/>
-      <c r="GU61" t="inlineStr"/>
-      <c r="GV61" t="inlineStr"/>
-      <c r="GW61" t="inlineStr"/>
-      <c r="GX61" t="inlineStr"/>
-      <c r="GY61" t="inlineStr"/>
-      <c r="GZ61" t="inlineStr"/>
-      <c r="HA61" t="inlineStr"/>
-      <c r="HB61" t="inlineStr"/>
-      <c r="HC61" t="inlineStr"/>
-      <c r="HD61" t="inlineStr"/>
-      <c r="HE61" t="inlineStr"/>
-      <c r="HF61" t="inlineStr"/>
-      <c r="HG61" t="inlineStr"/>
-      <c r="HH61" t="inlineStr"/>
-      <c r="HI61" t="inlineStr"/>
-      <c r="HJ61" t="inlineStr"/>
-      <c r="HK61" t="inlineStr"/>
-      <c r="HL61" t="inlineStr"/>
-      <c r="HM61" t="inlineStr"/>
-      <c r="HN61" t="inlineStr"/>
-      <c r="HO61" t="inlineStr"/>
-      <c r="HP61" t="inlineStr"/>
-      <c r="HQ61" t="inlineStr"/>
-      <c r="HR61" t="inlineStr"/>
-      <c r="HS61" t="inlineStr"/>
-      <c r="HT61" t="inlineStr"/>
-      <c r="HU61" t="inlineStr"/>
-      <c r="HV61" t="inlineStr"/>
-      <c r="HW61" t="inlineStr"/>
-      <c r="HX61" t="inlineStr"/>
-      <c r="HY61" t="inlineStr"/>
-      <c r="HZ61" t="inlineStr"/>
-      <c r="IA61" t="inlineStr"/>
-      <c r="IB61" t="inlineStr"/>
-      <c r="IC61" t="inlineStr"/>
-      <c r="ID61" t="inlineStr"/>
-      <c r="IE61" t="inlineStr"/>
-      <c r="IF61" t="inlineStr"/>
-      <c r="IG61" t="inlineStr"/>
-      <c r="IH61" t="inlineStr"/>
-      <c r="II61" t="inlineStr"/>
-      <c r="IJ61" t="inlineStr"/>
-      <c r="IK61" t="inlineStr"/>
-      <c r="IL61" t="inlineStr"/>
-      <c r="IM61" t="inlineStr"/>
-      <c r="IN61" t="inlineStr"/>
-      <c r="IO61" t="inlineStr"/>
-      <c r="IP61" t="inlineStr"/>
-      <c r="IQ61" t="inlineStr"/>
-      <c r="IR61" t="inlineStr"/>
-      <c r="IS61" t="inlineStr"/>
-      <c r="IT61" t="inlineStr"/>
-      <c r="IU61" t="inlineStr"/>
-      <c r="IV61" t="inlineStr"/>
-      <c r="IW61" t="inlineStr"/>
-      <c r="IX61" t="inlineStr"/>
-      <c r="IY61" t="inlineStr"/>
-      <c r="IZ61" t="inlineStr"/>
-      <c r="JA61" t="inlineStr"/>
-      <c r="JB61" t="inlineStr"/>
-      <c r="JC61" t="inlineStr"/>
-      <c r="JD61" t="inlineStr"/>
-      <c r="JE61" t="inlineStr"/>
-      <c r="JF61" t="inlineStr"/>
-      <c r="JG61" t="inlineStr"/>
-      <c r="JH61" t="inlineStr"/>
-      <c r="JI61" t="inlineStr"/>
-      <c r="JJ61" t="inlineStr"/>
-      <c r="JK61" t="inlineStr"/>
-      <c r="JL61" t="inlineStr"/>
-      <c r="JM61" t="inlineStr"/>
-      <c r="JN61" t="inlineStr"/>
-      <c r="JO61" t="inlineStr"/>
-      <c r="JP61" t="inlineStr"/>
-      <c r="JQ61" t="inlineStr"/>
-      <c r="JR61" t="inlineStr"/>
-      <c r="JS61" t="inlineStr"/>
-      <c r="JT61" t="inlineStr"/>
-      <c r="JU61" t="inlineStr"/>
-      <c r="JV61" t="inlineStr"/>
-      <c r="JW61" t="inlineStr"/>
-      <c r="JX61" t="inlineStr"/>
-      <c r="JY61" t="inlineStr"/>
-      <c r="JZ61" t="inlineStr"/>
-      <c r="KA61" t="inlineStr"/>
-      <c r="KB61" t="inlineStr"/>
-      <c r="KC61" t="inlineStr"/>
-      <c r="KD61" t="inlineStr"/>
-      <c r="KE61" t="inlineStr"/>
-      <c r="KF61" t="inlineStr"/>
-      <c r="KG61" t="inlineStr"/>
-      <c r="KH61" t="inlineStr"/>
-      <c r="KI61" t="inlineStr"/>
-      <c r="KJ61" t="inlineStr"/>
-      <c r="KK61" t="inlineStr"/>
-      <c r="KL61" t="inlineStr"/>
-      <c r="KM61" t="inlineStr"/>
-      <c r="KN61" t="inlineStr"/>
-      <c r="KO61" t="inlineStr"/>
-      <c r="KP61" t="inlineStr"/>
-      <c r="KQ61" t="inlineStr"/>
-      <c r="KR61" t="inlineStr"/>
-      <c r="KS61" t="inlineStr"/>
-      <c r="KT61" t="inlineStr"/>
-      <c r="KU61" t="inlineStr"/>
-      <c r="KV61" t="inlineStr"/>
-      <c r="KW61" t="inlineStr"/>
-      <c r="KX61" t="inlineStr"/>
-      <c r="KY61" t="inlineStr"/>
-      <c r="KZ61" t="inlineStr"/>
-      <c r="LA61" t="inlineStr"/>
-      <c r="LB61" t="inlineStr"/>
-      <c r="LC61" t="inlineStr"/>
-      <c r="LD61" t="inlineStr"/>
-      <c r="LE61" t="inlineStr"/>
-      <c r="LF61" t="inlineStr"/>
-      <c r="LG61" t="inlineStr"/>
-      <c r="LH61" t="inlineStr"/>
-      <c r="LI61" t="inlineStr"/>
-      <c r="LJ61" t="inlineStr"/>
-      <c r="LK61" t="inlineStr"/>
-      <c r="LL61" t="inlineStr"/>
-      <c r="LM61" t="inlineStr"/>
-      <c r="LN61" t="inlineStr"/>
-      <c r="LO61" t="inlineStr"/>
-      <c r="LP61" t="inlineStr"/>
-      <c r="LQ61" t="inlineStr"/>
-      <c r="LR61" t="inlineStr"/>
-      <c r="LS61" t="inlineStr"/>
-      <c r="LT61" t="inlineStr"/>
-      <c r="LU61" t="inlineStr"/>
-      <c r="LV61" t="inlineStr"/>
-      <c r="LW61" t="inlineStr"/>
-      <c r="LX61" t="inlineStr"/>
-      <c r="LY61" t="inlineStr"/>
-      <c r="LZ61" t="inlineStr"/>
-      <c r="MA61" t="inlineStr"/>
-      <c r="MB61" t="inlineStr"/>
-      <c r="MC61" t="inlineStr"/>
-      <c r="MD61" t="inlineStr"/>
-      <c r="ME61" t="inlineStr"/>
-      <c r="MF61" t="inlineStr"/>
-      <c r="MG61" t="inlineStr"/>
-      <c r="MH61" t="inlineStr"/>
-      <c r="MI61" t="inlineStr"/>
-      <c r="MJ61" t="inlineStr"/>
-      <c r="MK61" t="inlineStr"/>
-      <c r="ML61" t="inlineStr"/>
-      <c r="MM61" t="inlineStr"/>
-      <c r="MN61" t="inlineStr"/>
-      <c r="MO61" t="inlineStr"/>
-      <c r="MP61" t="inlineStr"/>
-      <c r="MQ61" t="inlineStr"/>
-      <c r="MR61" t="inlineStr"/>
-      <c r="MS61" t="inlineStr"/>
-      <c r="MT61" t="inlineStr"/>
-      <c r="MU61" t="inlineStr"/>
-      <c r="MV61" t="inlineStr"/>
-      <c r="MW61" t="inlineStr"/>
-      <c r="MX61" t="inlineStr"/>
-      <c r="MY61" t="inlineStr"/>
-      <c r="MZ61" t="inlineStr"/>
-      <c r="NA61" t="inlineStr"/>
-      <c r="NB61" t="inlineStr"/>
-      <c r="NC61" t="inlineStr"/>
-      <c r="ND61" t="inlineStr"/>
-      <c r="NE61" t="inlineStr"/>
-      <c r="NF61" t="inlineStr"/>
-      <c r="NG61" t="inlineStr"/>
-      <c r="NH61" t="inlineStr"/>
-      <c r="NI61" t="inlineStr"/>
-      <c r="NJ61" t="inlineStr"/>
-      <c r="NK61" t="inlineStr"/>
-      <c r="NL61" t="inlineStr"/>
       <c r="NM61" t="inlineStr">
         <is>
           <t>21.6</t>
@@ -16515,23 +16140,497 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="OB61" t="inlineStr"/>
-      <c r="OC61" t="inlineStr"/>
-      <c r="OD61" t="inlineStr"/>
-      <c r="OE61" t="inlineStr"/>
-      <c r="OF61" t="inlineStr"/>
-      <c r="OG61" t="inlineStr"/>
-      <c r="OH61" t="inlineStr"/>
-      <c r="OI61" t="inlineStr"/>
-      <c r="OJ61" t="inlineStr"/>
-      <c r="OK61" t="inlineStr"/>
-      <c r="OL61" t="inlineStr"/>
-      <c r="OM61" t="inlineStr"/>
-      <c r="ON61" t="inlineStr"/>
-      <c r="OO61" t="inlineStr"/>
-      <c r="OP61" t="inlineStr"/>
-      <c r="OQ61" t="inlineStr"/>
-      <c r="OR61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="inlineStr"/>
+      <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AU73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
+      <c r="AZ73" t="inlineStr"/>
+      <c r="BA73" t="inlineStr"/>
+      <c r="BB73" t="inlineStr"/>
+      <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
+      <c r="BH73" t="inlineStr"/>
+      <c r="BI73" t="inlineStr"/>
+      <c r="BJ73" t="inlineStr"/>
+      <c r="BK73" t="inlineStr"/>
+      <c r="BL73" t="inlineStr"/>
+      <c r="BM73" t="inlineStr"/>
+      <c r="BN73" t="inlineStr"/>
+      <c r="BO73" t="inlineStr"/>
+      <c r="BP73" t="inlineStr"/>
+      <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
+      <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="inlineStr"/>
+      <c r="BU73" t="inlineStr"/>
+      <c r="BV73" t="inlineStr"/>
+      <c r="BW73" t="inlineStr"/>
+      <c r="BX73" t="inlineStr"/>
+      <c r="BY73" t="inlineStr"/>
+      <c r="BZ73" t="inlineStr"/>
+      <c r="CA73" t="inlineStr"/>
+      <c r="CB73" t="inlineStr"/>
+      <c r="CC73" t="inlineStr"/>
+      <c r="CD73" t="inlineStr"/>
+      <c r="CE73" t="inlineStr"/>
+      <c r="CF73" t="inlineStr"/>
+      <c r="CG73" t="inlineStr"/>
+      <c r="CH73" t="inlineStr"/>
+      <c r="CI73" t="inlineStr"/>
+      <c r="CJ73" t="inlineStr"/>
+      <c r="CK73" t="inlineStr"/>
+      <c r="CL73" t="inlineStr"/>
+      <c r="CM73" t="inlineStr"/>
+      <c r="CN73" t="inlineStr"/>
+      <c r="CO73" t="inlineStr"/>
+      <c r="CP73" t="inlineStr"/>
+      <c r="CQ73" t="inlineStr"/>
+      <c r="CR73" t="inlineStr"/>
+      <c r="CS73" t="inlineStr"/>
+      <c r="CT73" t="inlineStr"/>
+      <c r="CU73" t="inlineStr"/>
+      <c r="CV73" t="inlineStr"/>
+      <c r="CW73" t="inlineStr"/>
+      <c r="CX73" t="inlineStr"/>
+      <c r="CY73" t="inlineStr"/>
+      <c r="CZ73" t="inlineStr"/>
+      <c r="DA73" t="inlineStr"/>
+      <c r="DB73" t="inlineStr"/>
+      <c r="DC73" t="inlineStr"/>
+      <c r="DD73" t="inlineStr"/>
+      <c r="DE73" t="inlineStr"/>
+      <c r="DF73" t="inlineStr"/>
+      <c r="DG73" t="inlineStr"/>
+      <c r="DH73" t="inlineStr"/>
+      <c r="DI73" t="inlineStr"/>
+      <c r="DJ73" t="inlineStr"/>
+      <c r="DK73" t="inlineStr"/>
+      <c r="DL73" t="inlineStr"/>
+      <c r="DM73" t="inlineStr"/>
+      <c r="DN73" t="inlineStr"/>
+      <c r="DO73" t="inlineStr"/>
+      <c r="DP73" t="inlineStr"/>
+      <c r="DQ73" t="inlineStr"/>
+      <c r="DR73" t="inlineStr"/>
+      <c r="DS73" t="inlineStr"/>
+      <c r="DT73" t="inlineStr"/>
+      <c r="DU73" t="inlineStr"/>
+      <c r="DV73" t="inlineStr"/>
+      <c r="DW73" t="inlineStr"/>
+      <c r="DX73" t="inlineStr"/>
+      <c r="DY73" t="inlineStr"/>
+      <c r="DZ73" t="inlineStr"/>
+      <c r="EA73" t="inlineStr"/>
+      <c r="EB73" t="inlineStr"/>
+      <c r="EC73" t="inlineStr"/>
+      <c r="ED73" t="inlineStr"/>
+      <c r="EE73" t="inlineStr"/>
+      <c r="EF73" t="inlineStr"/>
+      <c r="EG73" t="inlineStr"/>
+      <c r="EH73" t="inlineStr"/>
+      <c r="EI73" t="inlineStr"/>
+      <c r="EJ73" t="inlineStr"/>
+      <c r="EK73" t="inlineStr"/>
+      <c r="EL73" t="inlineStr"/>
+      <c r="EM73" t="inlineStr"/>
+      <c r="EN73" t="inlineStr"/>
+      <c r="EO73" t="inlineStr"/>
+      <c r="EP73" t="inlineStr"/>
+      <c r="EQ73" t="inlineStr"/>
+      <c r="ER73" t="inlineStr"/>
+      <c r="ES73" t="inlineStr"/>
+      <c r="ET73" t="inlineStr"/>
+      <c r="EU73" t="inlineStr"/>
+      <c r="EV73" t="inlineStr"/>
+      <c r="EW73" t="inlineStr"/>
+      <c r="EX73" t="inlineStr"/>
+      <c r="EY73" t="inlineStr"/>
+      <c r="EZ73" t="inlineStr"/>
+      <c r="FA73" t="inlineStr"/>
+      <c r="FB73" t="inlineStr"/>
+      <c r="FC73" t="inlineStr"/>
+      <c r="FD73" t="inlineStr"/>
+      <c r="FE73" t="inlineStr"/>
+      <c r="FF73" t="inlineStr"/>
+      <c r="FG73" t="inlineStr"/>
+      <c r="FH73" t="inlineStr"/>
+      <c r="FI73" t="inlineStr"/>
+      <c r="FJ73" t="inlineStr"/>
+      <c r="FK73" t="inlineStr"/>
+      <c r="FL73" t="inlineStr"/>
+      <c r="FM73" t="inlineStr"/>
+      <c r="FN73" t="inlineStr"/>
+      <c r="FO73" t="inlineStr"/>
+      <c r="FP73" t="inlineStr"/>
+      <c r="FQ73" t="inlineStr"/>
+      <c r="FR73" t="inlineStr"/>
+      <c r="FS73" t="inlineStr"/>
+      <c r="FT73" t="inlineStr"/>
+      <c r="FU73" t="inlineStr"/>
+      <c r="FV73" t="inlineStr"/>
+      <c r="FW73" t="inlineStr"/>
+      <c r="FX73" t="inlineStr"/>
+      <c r="FY73" t="inlineStr"/>
+      <c r="FZ73" t="inlineStr"/>
+      <c r="GA73" t="inlineStr"/>
+      <c r="GB73" t="inlineStr"/>
+      <c r="GC73" t="inlineStr"/>
+      <c r="GD73" t="inlineStr"/>
+      <c r="GE73" t="inlineStr"/>
+      <c r="GF73" t="inlineStr"/>
+      <c r="GG73" t="inlineStr"/>
+      <c r="GH73" t="inlineStr"/>
+      <c r="GI73" t="inlineStr"/>
+      <c r="GJ73" t="inlineStr"/>
+      <c r="GK73" t="inlineStr"/>
+      <c r="GL73" t="inlineStr"/>
+      <c r="GM73" t="inlineStr"/>
+      <c r="GN73" t="inlineStr"/>
+      <c r="GO73" t="inlineStr"/>
+      <c r="GP73" t="inlineStr"/>
+      <c r="GQ73" t="inlineStr"/>
+      <c r="GR73" t="inlineStr"/>
+      <c r="GS73" t="inlineStr"/>
+      <c r="GT73" t="inlineStr"/>
+      <c r="GU73" t="inlineStr"/>
+      <c r="GV73" t="inlineStr"/>
+      <c r="GW73" t="inlineStr"/>
+      <c r="GX73" t="inlineStr"/>
+      <c r="GY73" t="inlineStr"/>
+      <c r="GZ73" t="inlineStr"/>
+      <c r="HA73" t="inlineStr"/>
+      <c r="HB73" t="inlineStr"/>
+      <c r="HC73" t="inlineStr"/>
+      <c r="HD73" t="inlineStr"/>
+      <c r="HE73" t="inlineStr"/>
+      <c r="HF73" t="inlineStr"/>
+      <c r="HG73" t="inlineStr"/>
+      <c r="HH73" t="inlineStr"/>
+      <c r="HI73" t="inlineStr"/>
+      <c r="HJ73" t="inlineStr"/>
+      <c r="HK73" t="inlineStr"/>
+      <c r="HL73" t="inlineStr"/>
+      <c r="HM73" t="inlineStr"/>
+      <c r="HN73" t="inlineStr"/>
+      <c r="HO73" t="inlineStr"/>
+      <c r="HP73" t="inlineStr"/>
+      <c r="HQ73" t="inlineStr"/>
+      <c r="HR73" t="inlineStr"/>
+      <c r="HS73" t="inlineStr"/>
+      <c r="HT73" t="inlineStr"/>
+      <c r="HU73" t="inlineStr"/>
+      <c r="HV73" t="inlineStr"/>
+      <c r="HW73" t="inlineStr"/>
+      <c r="HX73" t="inlineStr"/>
+      <c r="HY73" t="inlineStr"/>
+      <c r="HZ73" t="inlineStr"/>
+      <c r="IA73" t="inlineStr"/>
+      <c r="IB73" t="inlineStr"/>
+      <c r="IC73" t="inlineStr"/>
+      <c r="ID73" t="inlineStr"/>
+      <c r="IE73" t="inlineStr"/>
+      <c r="IF73" t="inlineStr"/>
+      <c r="IG73" t="inlineStr"/>
+      <c r="IH73" t="inlineStr"/>
+      <c r="II73" t="inlineStr"/>
+      <c r="IJ73" t="inlineStr"/>
+      <c r="IK73" t="inlineStr"/>
+      <c r="IL73" t="inlineStr"/>
+      <c r="IM73" t="inlineStr"/>
+      <c r="IN73" t="inlineStr"/>
+      <c r="IO73" t="inlineStr"/>
+      <c r="IP73" t="inlineStr"/>
+      <c r="IQ73" t="inlineStr"/>
+      <c r="IR73" t="inlineStr"/>
+      <c r="IS73" t="inlineStr"/>
+      <c r="IT73" t="inlineStr"/>
+      <c r="IU73" t="inlineStr"/>
+      <c r="IV73" t="inlineStr"/>
+      <c r="IW73" t="inlineStr"/>
+      <c r="IX73" t="inlineStr"/>
+      <c r="IY73" t="inlineStr"/>
+      <c r="IZ73" t="inlineStr"/>
+      <c r="JA73" t="inlineStr"/>
+      <c r="JB73" t="inlineStr"/>
+      <c r="JC73" t="inlineStr"/>
+      <c r="JD73" t="inlineStr"/>
+      <c r="JE73" t="inlineStr"/>
+      <c r="JF73" t="inlineStr"/>
+      <c r="JG73" t="inlineStr"/>
+      <c r="JH73" t="inlineStr"/>
+      <c r="JI73" t="inlineStr"/>
+      <c r="JJ73" t="inlineStr"/>
+      <c r="JK73" t="inlineStr"/>
+      <c r="JL73" t="inlineStr"/>
+      <c r="JM73" t="inlineStr"/>
+      <c r="JN73" t="inlineStr"/>
+      <c r="JO73" t="inlineStr"/>
+      <c r="JP73" t="inlineStr"/>
+      <c r="JQ73" t="inlineStr"/>
+      <c r="JR73" t="inlineStr"/>
+      <c r="JS73" t="inlineStr"/>
+      <c r="JT73" t="inlineStr"/>
+      <c r="JU73" t="inlineStr"/>
+      <c r="JV73" t="inlineStr"/>
+      <c r="JW73" t="inlineStr"/>
+      <c r="JX73" t="inlineStr"/>
+      <c r="JY73" t="inlineStr"/>
+      <c r="JZ73" t="inlineStr"/>
+      <c r="KA73" t="inlineStr"/>
+      <c r="KB73" t="inlineStr"/>
+      <c r="KC73" t="inlineStr"/>
+      <c r="KD73" t="inlineStr"/>
+      <c r="KE73" t="inlineStr"/>
+      <c r="KF73" t="inlineStr"/>
+      <c r="KG73" t="inlineStr"/>
+      <c r="KH73" t="inlineStr"/>
+      <c r="KI73" t="inlineStr"/>
+      <c r="KJ73" t="inlineStr"/>
+      <c r="KK73" t="inlineStr"/>
+      <c r="KL73" t="inlineStr"/>
+      <c r="KM73" t="inlineStr"/>
+      <c r="KN73" t="inlineStr"/>
+      <c r="KO73" t="inlineStr"/>
+      <c r="KP73" t="inlineStr"/>
+      <c r="KQ73" t="inlineStr"/>
+      <c r="KR73" t="inlineStr"/>
+      <c r="KS73" t="inlineStr"/>
+      <c r="KT73" t="inlineStr"/>
+      <c r="KU73" t="inlineStr"/>
+      <c r="KV73" t="inlineStr"/>
+      <c r="KW73" t="inlineStr"/>
+      <c r="KX73" t="inlineStr"/>
+      <c r="KY73" t="inlineStr"/>
+      <c r="KZ73" t="inlineStr"/>
+      <c r="LA73" t="inlineStr"/>
+      <c r="LB73" t="inlineStr"/>
+      <c r="LC73" t="inlineStr"/>
+      <c r="LD73" t="inlineStr"/>
+      <c r="LE73" t="inlineStr"/>
+      <c r="LF73" t="inlineStr"/>
+      <c r="LG73" t="inlineStr"/>
+      <c r="LH73" t="inlineStr"/>
+      <c r="LI73" t="inlineStr"/>
+      <c r="LJ73" t="inlineStr"/>
+      <c r="LK73" t="inlineStr"/>
+      <c r="LL73" t="inlineStr"/>
+      <c r="LM73" t="inlineStr"/>
+      <c r="LN73" t="inlineStr"/>
+      <c r="LO73" t="inlineStr"/>
+      <c r="LP73" t="inlineStr"/>
+      <c r="LQ73" t="inlineStr"/>
+      <c r="LR73" t="inlineStr"/>
+      <c r="LS73" t="inlineStr"/>
+      <c r="LT73" t="inlineStr"/>
+      <c r="LU73" t="inlineStr"/>
+      <c r="LV73" t="inlineStr"/>
+      <c r="LW73" t="inlineStr"/>
+      <c r="LX73" t="inlineStr"/>
+      <c r="LY73" t="inlineStr"/>
+      <c r="LZ73" t="inlineStr"/>
+      <c r="MA73" t="inlineStr"/>
+      <c r="MB73" t="inlineStr"/>
+      <c r="MC73" t="inlineStr"/>
+      <c r="MD73" t="inlineStr"/>
+      <c r="ME73" t="inlineStr"/>
+      <c r="MF73" t="inlineStr"/>
+      <c r="MG73" t="inlineStr"/>
+      <c r="MH73" t="inlineStr"/>
+      <c r="MI73" t="inlineStr"/>
+      <c r="MJ73" t="inlineStr"/>
+      <c r="MK73" t="inlineStr"/>
+      <c r="ML73" t="inlineStr"/>
+      <c r="MM73" t="inlineStr"/>
+      <c r="MN73" t="inlineStr"/>
+      <c r="MO73" t="inlineStr"/>
+      <c r="MP73" t="inlineStr"/>
+      <c r="MQ73" t="inlineStr"/>
+      <c r="MR73" t="inlineStr"/>
+      <c r="MS73" t="inlineStr"/>
+      <c r="MT73" t="inlineStr"/>
+      <c r="MU73" t="inlineStr"/>
+      <c r="MV73" t="inlineStr"/>
+      <c r="MW73" t="inlineStr"/>
+      <c r="MX73" t="inlineStr"/>
+      <c r="MY73" t="inlineStr"/>
+      <c r="MZ73" t="inlineStr"/>
+      <c r="NA73" t="inlineStr"/>
+      <c r="NB73" t="inlineStr"/>
+      <c r="NC73" t="inlineStr"/>
+      <c r="ND73" t="inlineStr"/>
+      <c r="NE73" t="inlineStr"/>
+      <c r="NF73" t="inlineStr"/>
+      <c r="NG73" t="inlineStr"/>
+      <c r="NH73" t="inlineStr"/>
+      <c r="NI73" t="inlineStr"/>
+      <c r="NJ73" t="inlineStr"/>
+      <c r="NK73" t="inlineStr"/>
+      <c r="NL73" t="inlineStr"/>
+      <c r="NM73" t="inlineStr"/>
+      <c r="NN73" t="inlineStr"/>
+      <c r="NO73" t="inlineStr"/>
+      <c r="NP73" t="inlineStr"/>
+      <c r="NQ73" t="inlineStr"/>
+      <c r="NR73" t="inlineStr"/>
+      <c r="NS73" t="inlineStr"/>
+      <c r="NT73" t="inlineStr"/>
+      <c r="NU73" t="inlineStr"/>
+      <c r="NV73" t="inlineStr"/>
+      <c r="NW73" t="inlineStr"/>
+      <c r="NX73" t="inlineStr"/>
+      <c r="NY73" t="inlineStr"/>
+      <c r="NZ73" t="inlineStr"/>
+      <c r="OA73" t="inlineStr"/>
+      <c r="OB73" t="inlineStr"/>
+      <c r="OC73" t="inlineStr"/>
+      <c r="OD73" t="inlineStr"/>
+      <c r="OE73" t="inlineStr"/>
+      <c r="OF73" t="inlineStr"/>
+      <c r="OG73" t="inlineStr"/>
+      <c r="OH73" t="inlineStr"/>
+      <c r="OI73" t="inlineStr"/>
+      <c r="OJ73" t="inlineStr"/>
+      <c r="OK73" t="inlineStr"/>
+      <c r="OL73" t="inlineStr"/>
+      <c r="OM73" t="inlineStr"/>
+      <c r="ON73" t="inlineStr"/>
+      <c r="OO73" t="inlineStr"/>
+      <c r="OP73" t="inlineStr"/>
+      <c r="OQ73" t="inlineStr"/>
+      <c r="OR73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR73"/>
+  <dimension ref="A1:OR79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16224,413 +16224,3531 @@
           <t>type04</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
-      <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
-      <c r="AT73" t="inlineStr"/>
-      <c r="AU73" t="inlineStr"/>
-      <c r="AV73" t="inlineStr"/>
-      <c r="AW73" t="inlineStr"/>
-      <c r="AX73" t="inlineStr"/>
-      <c r="AY73" t="inlineStr"/>
-      <c r="AZ73" t="inlineStr"/>
-      <c r="BA73" t="inlineStr"/>
-      <c r="BB73" t="inlineStr"/>
-      <c r="BC73" t="inlineStr"/>
-      <c r="BD73" t="inlineStr"/>
-      <c r="BE73" t="inlineStr"/>
-      <c r="BF73" t="inlineStr"/>
-      <c r="BG73" t="inlineStr"/>
-      <c r="BH73" t="inlineStr"/>
-      <c r="BI73" t="inlineStr"/>
-      <c r="BJ73" t="inlineStr"/>
-      <c r="BK73" t="inlineStr"/>
-      <c r="BL73" t="inlineStr"/>
-      <c r="BM73" t="inlineStr"/>
-      <c r="BN73" t="inlineStr"/>
-      <c r="BO73" t="inlineStr"/>
-      <c r="BP73" t="inlineStr"/>
-      <c r="BQ73" t="inlineStr"/>
-      <c r="BR73" t="inlineStr"/>
-      <c r="BS73" t="inlineStr"/>
-      <c r="BT73" t="inlineStr"/>
-      <c r="BU73" t="inlineStr"/>
-      <c r="BV73" t="inlineStr"/>
-      <c r="BW73" t="inlineStr"/>
-      <c r="BX73" t="inlineStr"/>
-      <c r="BY73" t="inlineStr"/>
-      <c r="BZ73" t="inlineStr"/>
-      <c r="CA73" t="inlineStr"/>
-      <c r="CB73" t="inlineStr"/>
-      <c r="CC73" t="inlineStr"/>
-      <c r="CD73" t="inlineStr"/>
-      <c r="CE73" t="inlineStr"/>
-      <c r="CF73" t="inlineStr"/>
-      <c r="CG73" t="inlineStr"/>
-      <c r="CH73" t="inlineStr"/>
-      <c r="CI73" t="inlineStr"/>
-      <c r="CJ73" t="inlineStr"/>
-      <c r="CK73" t="inlineStr"/>
-      <c r="CL73" t="inlineStr"/>
-      <c r="CM73" t="inlineStr"/>
-      <c r="CN73" t="inlineStr"/>
-      <c r="CO73" t="inlineStr"/>
-      <c r="CP73" t="inlineStr"/>
-      <c r="CQ73" t="inlineStr"/>
-      <c r="CR73" t="inlineStr"/>
-      <c r="CS73" t="inlineStr"/>
-      <c r="CT73" t="inlineStr"/>
-      <c r="CU73" t="inlineStr"/>
-      <c r="CV73" t="inlineStr"/>
-      <c r="CW73" t="inlineStr"/>
-      <c r="CX73" t="inlineStr"/>
-      <c r="CY73" t="inlineStr"/>
-      <c r="CZ73" t="inlineStr"/>
-      <c r="DA73" t="inlineStr"/>
-      <c r="DB73" t="inlineStr"/>
-      <c r="DC73" t="inlineStr"/>
-      <c r="DD73" t="inlineStr"/>
-      <c r="DE73" t="inlineStr"/>
-      <c r="DF73" t="inlineStr"/>
-      <c r="DG73" t="inlineStr"/>
-      <c r="DH73" t="inlineStr"/>
-      <c r="DI73" t="inlineStr"/>
-      <c r="DJ73" t="inlineStr"/>
-      <c r="DK73" t="inlineStr"/>
-      <c r="DL73" t="inlineStr"/>
-      <c r="DM73" t="inlineStr"/>
-      <c r="DN73" t="inlineStr"/>
-      <c r="DO73" t="inlineStr"/>
-      <c r="DP73" t="inlineStr"/>
-      <c r="DQ73" t="inlineStr"/>
-      <c r="DR73" t="inlineStr"/>
-      <c r="DS73" t="inlineStr"/>
-      <c r="DT73" t="inlineStr"/>
-      <c r="DU73" t="inlineStr"/>
-      <c r="DV73" t="inlineStr"/>
-      <c r="DW73" t="inlineStr"/>
-      <c r="DX73" t="inlineStr"/>
-      <c r="DY73" t="inlineStr"/>
-      <c r="DZ73" t="inlineStr"/>
-      <c r="EA73" t="inlineStr"/>
-      <c r="EB73" t="inlineStr"/>
-      <c r="EC73" t="inlineStr"/>
-      <c r="ED73" t="inlineStr"/>
-      <c r="EE73" t="inlineStr"/>
-      <c r="EF73" t="inlineStr"/>
-      <c r="EG73" t="inlineStr"/>
-      <c r="EH73" t="inlineStr"/>
-      <c r="EI73" t="inlineStr"/>
-      <c r="EJ73" t="inlineStr"/>
-      <c r="EK73" t="inlineStr"/>
-      <c r="EL73" t="inlineStr"/>
-      <c r="EM73" t="inlineStr"/>
-      <c r="EN73" t="inlineStr"/>
-      <c r="EO73" t="inlineStr"/>
-      <c r="EP73" t="inlineStr"/>
-      <c r="EQ73" t="inlineStr"/>
-      <c r="ER73" t="inlineStr"/>
-      <c r="ES73" t="inlineStr"/>
-      <c r="ET73" t="inlineStr"/>
-      <c r="EU73" t="inlineStr"/>
-      <c r="EV73" t="inlineStr"/>
-      <c r="EW73" t="inlineStr"/>
-      <c r="EX73" t="inlineStr"/>
-      <c r="EY73" t="inlineStr"/>
-      <c r="EZ73" t="inlineStr"/>
-      <c r="FA73" t="inlineStr"/>
-      <c r="FB73" t="inlineStr"/>
-      <c r="FC73" t="inlineStr"/>
-      <c r="FD73" t="inlineStr"/>
-      <c r="FE73" t="inlineStr"/>
-      <c r="FF73" t="inlineStr"/>
-      <c r="FG73" t="inlineStr"/>
-      <c r="FH73" t="inlineStr"/>
-      <c r="FI73" t="inlineStr"/>
-      <c r="FJ73" t="inlineStr"/>
-      <c r="FK73" t="inlineStr"/>
-      <c r="FL73" t="inlineStr"/>
-      <c r="FM73" t="inlineStr"/>
-      <c r="FN73" t="inlineStr"/>
-      <c r="FO73" t="inlineStr"/>
-      <c r="FP73" t="inlineStr"/>
-      <c r="FQ73" t="inlineStr"/>
-      <c r="FR73" t="inlineStr"/>
-      <c r="FS73" t="inlineStr"/>
-      <c r="FT73" t="inlineStr"/>
-      <c r="FU73" t="inlineStr"/>
-      <c r="FV73" t="inlineStr"/>
-      <c r="FW73" t="inlineStr"/>
-      <c r="FX73" t="inlineStr"/>
-      <c r="FY73" t="inlineStr"/>
-      <c r="FZ73" t="inlineStr"/>
-      <c r="GA73" t="inlineStr"/>
-      <c r="GB73" t="inlineStr"/>
-      <c r="GC73" t="inlineStr"/>
-      <c r="GD73" t="inlineStr"/>
-      <c r="GE73" t="inlineStr"/>
-      <c r="GF73" t="inlineStr"/>
-      <c r="GG73" t="inlineStr"/>
-      <c r="GH73" t="inlineStr"/>
-      <c r="GI73" t="inlineStr"/>
-      <c r="GJ73" t="inlineStr"/>
-      <c r="GK73" t="inlineStr"/>
-      <c r="GL73" t="inlineStr"/>
-      <c r="GM73" t="inlineStr"/>
-      <c r="GN73" t="inlineStr"/>
-      <c r="GO73" t="inlineStr"/>
-      <c r="GP73" t="inlineStr"/>
-      <c r="GQ73" t="inlineStr"/>
-      <c r="GR73" t="inlineStr"/>
-      <c r="GS73" t="inlineStr"/>
-      <c r="GT73" t="inlineStr"/>
-      <c r="GU73" t="inlineStr"/>
-      <c r="GV73" t="inlineStr"/>
-      <c r="GW73" t="inlineStr"/>
-      <c r="GX73" t="inlineStr"/>
-      <c r="GY73" t="inlineStr"/>
-      <c r="GZ73" t="inlineStr"/>
-      <c r="HA73" t="inlineStr"/>
-      <c r="HB73" t="inlineStr"/>
-      <c r="HC73" t="inlineStr"/>
-      <c r="HD73" t="inlineStr"/>
-      <c r="HE73" t="inlineStr"/>
-      <c r="HF73" t="inlineStr"/>
-      <c r="HG73" t="inlineStr"/>
-      <c r="HH73" t="inlineStr"/>
-      <c r="HI73" t="inlineStr"/>
-      <c r="HJ73" t="inlineStr"/>
-      <c r="HK73" t="inlineStr"/>
-      <c r="HL73" t="inlineStr"/>
-      <c r="HM73" t="inlineStr"/>
-      <c r="HN73" t="inlineStr"/>
-      <c r="HO73" t="inlineStr"/>
-      <c r="HP73" t="inlineStr"/>
-      <c r="HQ73" t="inlineStr"/>
-      <c r="HR73" t="inlineStr"/>
-      <c r="HS73" t="inlineStr"/>
-      <c r="HT73" t="inlineStr"/>
-      <c r="HU73" t="inlineStr"/>
-      <c r="HV73" t="inlineStr"/>
-      <c r="HW73" t="inlineStr"/>
-      <c r="HX73" t="inlineStr"/>
-      <c r="HY73" t="inlineStr"/>
-      <c r="HZ73" t="inlineStr"/>
-      <c r="IA73" t="inlineStr"/>
-      <c r="IB73" t="inlineStr"/>
-      <c r="IC73" t="inlineStr"/>
-      <c r="ID73" t="inlineStr"/>
-      <c r="IE73" t="inlineStr"/>
-      <c r="IF73" t="inlineStr"/>
-      <c r="IG73" t="inlineStr"/>
-      <c r="IH73" t="inlineStr"/>
-      <c r="II73" t="inlineStr"/>
-      <c r="IJ73" t="inlineStr"/>
-      <c r="IK73" t="inlineStr"/>
-      <c r="IL73" t="inlineStr"/>
-      <c r="IM73" t="inlineStr"/>
-      <c r="IN73" t="inlineStr"/>
-      <c r="IO73" t="inlineStr"/>
-      <c r="IP73" t="inlineStr"/>
-      <c r="IQ73" t="inlineStr"/>
-      <c r="IR73" t="inlineStr"/>
-      <c r="IS73" t="inlineStr"/>
-      <c r="IT73" t="inlineStr"/>
-      <c r="IU73" t="inlineStr"/>
-      <c r="IV73" t="inlineStr"/>
-      <c r="IW73" t="inlineStr"/>
-      <c r="IX73" t="inlineStr"/>
-      <c r="IY73" t="inlineStr"/>
-      <c r="IZ73" t="inlineStr"/>
-      <c r="JA73" t="inlineStr"/>
-      <c r="JB73" t="inlineStr"/>
-      <c r="JC73" t="inlineStr"/>
-      <c r="JD73" t="inlineStr"/>
-      <c r="JE73" t="inlineStr"/>
-      <c r="JF73" t="inlineStr"/>
-      <c r="JG73" t="inlineStr"/>
-      <c r="JH73" t="inlineStr"/>
-      <c r="JI73" t="inlineStr"/>
-      <c r="JJ73" t="inlineStr"/>
-      <c r="JK73" t="inlineStr"/>
-      <c r="JL73" t="inlineStr"/>
-      <c r="JM73" t="inlineStr"/>
-      <c r="JN73" t="inlineStr"/>
-      <c r="JO73" t="inlineStr"/>
-      <c r="JP73" t="inlineStr"/>
-      <c r="JQ73" t="inlineStr"/>
-      <c r="JR73" t="inlineStr"/>
-      <c r="JS73" t="inlineStr"/>
-      <c r="JT73" t="inlineStr"/>
-      <c r="JU73" t="inlineStr"/>
-      <c r="JV73" t="inlineStr"/>
-      <c r="JW73" t="inlineStr"/>
-      <c r="JX73" t="inlineStr"/>
-      <c r="JY73" t="inlineStr"/>
-      <c r="JZ73" t="inlineStr"/>
-      <c r="KA73" t="inlineStr"/>
-      <c r="KB73" t="inlineStr"/>
-      <c r="KC73" t="inlineStr"/>
-      <c r="KD73" t="inlineStr"/>
-      <c r="KE73" t="inlineStr"/>
-      <c r="KF73" t="inlineStr"/>
-      <c r="KG73" t="inlineStr"/>
-      <c r="KH73" t="inlineStr"/>
-      <c r="KI73" t="inlineStr"/>
-      <c r="KJ73" t="inlineStr"/>
-      <c r="KK73" t="inlineStr"/>
-      <c r="KL73" t="inlineStr"/>
-      <c r="KM73" t="inlineStr"/>
-      <c r="KN73" t="inlineStr"/>
-      <c r="KO73" t="inlineStr"/>
-      <c r="KP73" t="inlineStr"/>
-      <c r="KQ73" t="inlineStr"/>
-      <c r="KR73" t="inlineStr"/>
-      <c r="KS73" t="inlineStr"/>
-      <c r="KT73" t="inlineStr"/>
-      <c r="KU73" t="inlineStr"/>
-      <c r="KV73" t="inlineStr"/>
-      <c r="KW73" t="inlineStr"/>
-      <c r="KX73" t="inlineStr"/>
-      <c r="KY73" t="inlineStr"/>
-      <c r="KZ73" t="inlineStr"/>
-      <c r="LA73" t="inlineStr"/>
-      <c r="LB73" t="inlineStr"/>
-      <c r="LC73" t="inlineStr"/>
-      <c r="LD73" t="inlineStr"/>
-      <c r="LE73" t="inlineStr"/>
-      <c r="LF73" t="inlineStr"/>
-      <c r="LG73" t="inlineStr"/>
-      <c r="LH73" t="inlineStr"/>
-      <c r="LI73" t="inlineStr"/>
-      <c r="LJ73" t="inlineStr"/>
-      <c r="LK73" t="inlineStr"/>
-      <c r="LL73" t="inlineStr"/>
-      <c r="LM73" t="inlineStr"/>
-      <c r="LN73" t="inlineStr"/>
-      <c r="LO73" t="inlineStr"/>
-      <c r="LP73" t="inlineStr"/>
-      <c r="LQ73" t="inlineStr"/>
-      <c r="LR73" t="inlineStr"/>
-      <c r="LS73" t="inlineStr"/>
-      <c r="LT73" t="inlineStr"/>
-      <c r="LU73" t="inlineStr"/>
-      <c r="LV73" t="inlineStr"/>
-      <c r="LW73" t="inlineStr"/>
-      <c r="LX73" t="inlineStr"/>
-      <c r="LY73" t="inlineStr"/>
-      <c r="LZ73" t="inlineStr"/>
-      <c r="MA73" t="inlineStr"/>
-      <c r="MB73" t="inlineStr"/>
-      <c r="MC73" t="inlineStr"/>
-      <c r="MD73" t="inlineStr"/>
-      <c r="ME73" t="inlineStr"/>
-      <c r="MF73" t="inlineStr"/>
-      <c r="MG73" t="inlineStr"/>
-      <c r="MH73" t="inlineStr"/>
-      <c r="MI73" t="inlineStr"/>
-      <c r="MJ73" t="inlineStr"/>
-      <c r="MK73" t="inlineStr"/>
-      <c r="ML73" t="inlineStr"/>
-      <c r="MM73" t="inlineStr"/>
-      <c r="MN73" t="inlineStr"/>
-      <c r="MO73" t="inlineStr"/>
-      <c r="MP73" t="inlineStr"/>
-      <c r="MQ73" t="inlineStr"/>
-      <c r="MR73" t="inlineStr"/>
-      <c r="MS73" t="inlineStr"/>
-      <c r="MT73" t="inlineStr"/>
-      <c r="MU73" t="inlineStr"/>
-      <c r="MV73" t="inlineStr"/>
-      <c r="MW73" t="inlineStr"/>
-      <c r="MX73" t="inlineStr"/>
-      <c r="MY73" t="inlineStr"/>
-      <c r="MZ73" t="inlineStr"/>
-      <c r="NA73" t="inlineStr"/>
-      <c r="NB73" t="inlineStr"/>
-      <c r="NC73" t="inlineStr"/>
-      <c r="ND73" t="inlineStr"/>
-      <c r="NE73" t="inlineStr"/>
-      <c r="NF73" t="inlineStr"/>
-      <c r="NG73" t="inlineStr"/>
-      <c r="NH73" t="inlineStr"/>
-      <c r="NI73" t="inlineStr"/>
-      <c r="NJ73" t="inlineStr"/>
-      <c r="NK73" t="inlineStr"/>
-      <c r="NL73" t="inlineStr"/>
-      <c r="NM73" t="inlineStr"/>
-      <c r="NN73" t="inlineStr"/>
-      <c r="NO73" t="inlineStr"/>
-      <c r="NP73" t="inlineStr"/>
-      <c r="NQ73" t="inlineStr"/>
-      <c r="NR73" t="inlineStr"/>
-      <c r="NS73" t="inlineStr"/>
-      <c r="NT73" t="inlineStr"/>
-      <c r="NU73" t="inlineStr"/>
-      <c r="NV73" t="inlineStr"/>
-      <c r="NW73" t="inlineStr"/>
-      <c r="NX73" t="inlineStr"/>
-      <c r="NY73" t="inlineStr"/>
-      <c r="NZ73" t="inlineStr"/>
-      <c r="OA73" t="inlineStr"/>
-      <c r="OB73" t="inlineStr"/>
-      <c r="OC73" t="inlineStr"/>
-      <c r="OD73" t="inlineStr"/>
-      <c r="OE73" t="inlineStr"/>
-      <c r="OF73" t="inlineStr"/>
-      <c r="OG73" t="inlineStr"/>
-      <c r="OH73" t="inlineStr"/>
-      <c r="OI73" t="inlineStr"/>
-      <c r="OJ73" t="inlineStr"/>
-      <c r="OK73" t="inlineStr"/>
-      <c r="OL73" t="inlineStr"/>
-      <c r="OM73" t="inlineStr"/>
-      <c r="ON73" t="inlineStr"/>
-      <c r="OO73" t="inlineStr"/>
-      <c r="OP73" t="inlineStr"/>
-      <c r="OQ73" t="inlineStr"/>
-      <c r="OR73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BI74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BJ74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BL74" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="BX74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BY74" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="CR74" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="DR74" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="DS74" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="ED74" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE74" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="ES74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="ET74" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="FM74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="GQ74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="GR74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="GT74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HA74" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="HF74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="HG74" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="HI74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="HL74" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="HM74" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="HO74" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="HR74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HS74" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="HU74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="IG74" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="IH74" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="JA74" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="KU74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="KV74" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="KX74" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="MF74" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MQ74" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="MR74" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="MS74" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="MT74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="MU74" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="MV74" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="MW74" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="MX74" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="MY74" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="MZ74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="NA74" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="NB74" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="NC74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="ND74" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="NE74" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="NF74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="NG74" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="NH74" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="NI74" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="NJ74" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="NK74" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="NL74" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="NM74" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="NN74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="NO74" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="NP74" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="NQ74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="NR74" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="NS74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="NT74" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="NU74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="NV74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="NW74" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="NX74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="NY74" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="NZ74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="OB74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="OC74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="OD74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="OE74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="OF74" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="OG74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="OH74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="OI74" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="OJ74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="OK74" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="OL74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="OM74" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="ON74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="OO74" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="OP74" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="OQ74" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="OR74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="BI75" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="BJ75" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="BL75" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BX75" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="BY75" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="CR75" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DR75" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="DS75" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="ED75" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE75" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="ES75" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="ET75" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="FM75" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="GQ75" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="GR75" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="GT75" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="HA75" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="HF75" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="HG75" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="HI75" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="HL75" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="HM75" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="HO75" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="HR75" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="HS75" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="HU75" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="IG75" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="IH75" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="JA75" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="KU75" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="KV75" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="KX75" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="MF75" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MQ75" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="MR75" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="MS75" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="MT75" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="MU75" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="MV75" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="MW75" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="MX75" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="MY75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="MZ75" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="NA75" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="NB75" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="NC75" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="ND75" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="NE75" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="NF75" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="NG75" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="NH75" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="NI75" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="NJ75" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="NK75" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="NL75" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="NM75" t="inlineStr">
+        <is>
+          <t>22.1</t>
+        </is>
+      </c>
+      <c r="NN75" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="NO75" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="NP75" t="inlineStr">
+        <is>
+          <t>22.1</t>
+        </is>
+      </c>
+      <c r="NQ75" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="NR75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="NS75" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="NT75" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="NU75" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="NV75" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="NW75" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="NX75" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="NY75" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="NZ75" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="OB75" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="OC75" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="OD75" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="OE75" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="OF75" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="OG75" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="OH75" t="inlineStr">
+        <is>
+          <t>0.837</t>
+        </is>
+      </c>
+      <c r="OI75" t="inlineStr">
+        <is>
+          <t>0.590</t>
+        </is>
+      </c>
+      <c r="OJ75" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="OK75" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="OL75" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="OM75" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="ON75" t="inlineStr">
+        <is>
+          <t>0.221</t>
+        </is>
+      </c>
+      <c r="OO75" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="OP75" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="OQ75" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="OR75" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AV76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BI76" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="BJ76" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="BK76" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="BL76" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="BM76" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BN76" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="BX76" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="BY76" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="BZ76" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="CR76" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="CS76" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DC76" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DR76" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="DS76" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DT76" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="ED76" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE76" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="EF76" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="ES76" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="ET76" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="EU76" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="FM76" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="FN76" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="FX76" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GQ76" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="GR76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="GS76" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="GT76" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="GU76" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="GV76" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
+      </c>
+      <c r="HA76" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="HB76" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="HE76" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="HF76" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="HG76" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="HH76" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="HI76" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="HJ76" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="HK76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="HL76" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="HM76" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="HN76" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="HO76" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="HP76" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="HQ76" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="HR76" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="HS76" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="HT76" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="HU76" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="HV76" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="HW76" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="IG76" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="IH76" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="II76" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="JA76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JB76" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JL76" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="KU76" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="KV76" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="KW76" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="KX76" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="KY76" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="KZ76" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="MF76" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG76" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MQ76" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="MR76" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="MS76" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="MT76" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="MU76" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="MV76" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="MW76" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="MX76" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="MY76" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="MZ76" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="NA76" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="NB76" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="NC76" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="ND76" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="NE76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="NF76" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="NG76" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="NH76" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="NI76" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="NJ76" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="NK76" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="NL76" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="NM76" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="NN76" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="NO76" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="NP76" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="NQ76" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="NR76" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="NS76" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="NT76" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="NU76" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="NV76" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="NW76" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="NX76" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="NY76" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="NZ76" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="OB76" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="OC76" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="OD76" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="OE76" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="OF76" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="OG76" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="OH76" t="inlineStr">
+        <is>
+          <t>0.808</t>
+        </is>
+      </c>
+      <c r="OI76" t="inlineStr">
+        <is>
+          <t>0.407</t>
+        </is>
+      </c>
+      <c r="OJ76" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="OK76" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="OL76" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="OM76" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="ON76" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="OO76" t="inlineStr">
+        <is>
+          <t>0.109</t>
+        </is>
+      </c>
+      <c r="OP76" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="OQ76" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="OR76" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AV77" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BI77" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="BJ77" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="BK77" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="BL77" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="BM77" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="BN77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BX77" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="BY77" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="BZ77" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CR77" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="CS77" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="DC77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DR77" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="DS77" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DT77" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="ED77" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE77" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="EF77" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="ES77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="ET77" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="EU77" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="FM77" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FN77" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="FX77" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="GQ77" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="GR77" t="inlineStr">
+        <is>
+          <t>0.</t>
+        </is>
+      </c>
+      <c r="GT77" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="HA77" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="HB77" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="HE77" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="HF77" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="HG77" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="HH77" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="HI77" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="HJ77" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="HK77" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="HL77" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="HM77" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="HN77" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="HO77" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="HP77" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="HQ77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="HR77" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="HS77" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="HU77" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="IG77" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="IH77" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="II77" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="JA77" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JB77" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JL77" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="KU77" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="KV77" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="KW77" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="KX77" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="KY77" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="KZ77" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="MF77" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG77" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MQ77" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="MR77" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="MS77" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="MT77" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="MU77" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="MV77" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="MW77" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="MX77" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="MY77" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="MZ77" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="NA77" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="NB77" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="NC77" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="ND77" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="NE77" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="NF77" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="NG77" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="NH77" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="NI77" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="NJ77" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="NK77" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="NL77" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="NM77" t="inlineStr">
+        <is>
+          <t>15.5</t>
+        </is>
+      </c>
+      <c r="NN77" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="NO77" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="NP77" t="inlineStr">
+        <is>
+          <t>15.5</t>
+        </is>
+      </c>
+      <c r="NQ77" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="NR77" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="NS77" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="NT77" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="NU77" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="NV77" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="NW77" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="NX77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="NY77" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="NZ77" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="OB77" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="OC77" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="OD77" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="OE77" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="OF77" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="OG77" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="OH77" t="inlineStr">
+        <is>
+          <t>0.622</t>
+        </is>
+      </c>
+      <c r="OI77" t="inlineStr">
+        <is>
+          <t>0.618</t>
+        </is>
+      </c>
+      <c r="OJ77" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="OK77" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="OL77" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="OM77" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="ON77" t="inlineStr">
+        <is>
+          <t>0.260</t>
+        </is>
+      </c>
+      <c r="OO77" t="inlineStr">
+        <is>
+          <t>0.207</t>
+        </is>
+      </c>
+      <c r="OP77" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="OQ77" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="OR77" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AV78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BI78" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="BJ78" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="BK78" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="BL78" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="BM78" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="BN78" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="BX78" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="BY78" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="BZ78" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="CR78" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="CS78" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="DC78" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DR78" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="DS78" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DT78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="ED78" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE78" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="EF78" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="ES78" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="ET78" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EU78" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="FM78" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="FN78" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="FX78" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="GQ78" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="GR78" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="GS78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="GT78" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="GU78" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GV78" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="HA78" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="HB78" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="HE78" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="HF78" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="HG78" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="HH78" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="HI78" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="HJ78" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="HK78" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="HL78" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="HM78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="HN78" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="HO78" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="HP78" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="HQ78" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="HR78" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="HS78" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="HT78" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="HU78" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="HV78" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="HW78" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="IG78" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="IH78" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="II78" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="JA78" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="JB78" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JL78" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="KU78" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="KV78" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="KW78" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="KX78" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="KY78" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="KZ78" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="MF78" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG78" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="MQ78" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="MR78" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="MS78" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="MT78" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="MU78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="MV78" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="MW78" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="MX78" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="MY78" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="MZ78" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="NA78" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="NB78" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="NC78" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="ND78" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="NE78" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="NF78" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="NG78" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="NH78" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="NI78" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="NJ78" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="NK78" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="NL78" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="NM78" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="NN78" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="NO78" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="NP78" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="NQ78" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="NR78" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="NS78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="NT78" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="NU78" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="NV78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="NW78" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="NX78" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="NY78" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="NZ78" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="OB78" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="OC78" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="OD78" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="OE78" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="OF78" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="OG78" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="OH78" t="inlineStr">
+        <is>
+          <t>0.784</t>
+        </is>
+      </c>
+      <c r="OI78" t="inlineStr">
+        <is>
+          <t>0.349</t>
+        </is>
+      </c>
+      <c r="OJ78" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="OK78" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="OL78" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="OM78" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="ON78" t="inlineStr">
+        <is>
+          <t>0.218</t>
+        </is>
+      </c>
+      <c r="OO78" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="OP78" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="OQ78" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="OR78" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
+      <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AU79" t="inlineStr"/>
+      <c r="AV79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr"/>
+      <c r="AX79" t="inlineStr"/>
+      <c r="AY79" t="inlineStr"/>
+      <c r="AZ79" t="inlineStr"/>
+      <c r="BA79" t="inlineStr"/>
+      <c r="BB79" t="inlineStr"/>
+      <c r="BC79" t="inlineStr"/>
+      <c r="BD79" t="inlineStr"/>
+      <c r="BE79" t="inlineStr"/>
+      <c r="BF79" t="inlineStr"/>
+      <c r="BG79" t="inlineStr"/>
+      <c r="BH79" t="inlineStr"/>
+      <c r="BI79" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="BJ79" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="BK79" t="inlineStr"/>
+      <c r="BL79" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BM79" t="inlineStr"/>
+      <c r="BN79" t="inlineStr"/>
+      <c r="BO79" t="inlineStr"/>
+      <c r="BP79" t="inlineStr"/>
+      <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
+      <c r="BS79" t="inlineStr"/>
+      <c r="BT79" t="inlineStr"/>
+      <c r="BU79" t="inlineStr"/>
+      <c r="BV79" t="inlineStr"/>
+      <c r="BW79" t="inlineStr"/>
+      <c r="BX79" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="BY79" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="BZ79" t="inlineStr"/>
+      <c r="CA79" t="inlineStr"/>
+      <c r="CB79" t="inlineStr"/>
+      <c r="CC79" t="inlineStr"/>
+      <c r="CD79" t="inlineStr"/>
+      <c r="CE79" t="inlineStr"/>
+      <c r="CF79" t="inlineStr"/>
+      <c r="CG79" t="inlineStr"/>
+      <c r="CH79" t="inlineStr"/>
+      <c r="CI79" t="inlineStr"/>
+      <c r="CJ79" t="inlineStr"/>
+      <c r="CK79" t="inlineStr"/>
+      <c r="CL79" t="inlineStr"/>
+      <c r="CM79" t="inlineStr"/>
+      <c r="CN79" t="inlineStr"/>
+      <c r="CO79" t="inlineStr"/>
+      <c r="CP79" t="inlineStr"/>
+      <c r="CQ79" t="inlineStr"/>
+      <c r="CR79" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="CS79" t="inlineStr"/>
+      <c r="CT79" t="inlineStr"/>
+      <c r="CU79" t="inlineStr"/>
+      <c r="CV79" t="inlineStr"/>
+      <c r="CW79" t="inlineStr"/>
+      <c r="CX79" t="inlineStr"/>
+      <c r="CY79" t="inlineStr"/>
+      <c r="CZ79" t="inlineStr"/>
+      <c r="DA79" t="inlineStr"/>
+      <c r="DB79" t="inlineStr"/>
+      <c r="DC79" t="inlineStr"/>
+      <c r="DD79" t="inlineStr"/>
+      <c r="DE79" t="inlineStr"/>
+      <c r="DF79" t="inlineStr"/>
+      <c r="DG79" t="inlineStr"/>
+      <c r="DH79" t="inlineStr"/>
+      <c r="DI79" t="inlineStr"/>
+      <c r="DJ79" t="inlineStr"/>
+      <c r="DK79" t="inlineStr"/>
+      <c r="DL79" t="inlineStr"/>
+      <c r="DM79" t="inlineStr"/>
+      <c r="DN79" t="inlineStr"/>
+      <c r="DO79" t="inlineStr"/>
+      <c r="DP79" t="inlineStr"/>
+      <c r="DQ79" t="inlineStr"/>
+      <c r="DR79" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="DS79" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="DT79" t="inlineStr"/>
+      <c r="DU79" t="inlineStr"/>
+      <c r="DV79" t="inlineStr"/>
+      <c r="DW79" t="inlineStr"/>
+      <c r="DX79" t="inlineStr"/>
+      <c r="DY79" t="inlineStr"/>
+      <c r="DZ79" t="inlineStr"/>
+      <c r="EA79" t="inlineStr"/>
+      <c r="EB79" t="inlineStr"/>
+      <c r="EC79" t="inlineStr"/>
+      <c r="ED79" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE79" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="EF79" t="inlineStr"/>
+      <c r="EG79" t="inlineStr"/>
+      <c r="EH79" t="inlineStr"/>
+      <c r="EI79" t="inlineStr"/>
+      <c r="EJ79" t="inlineStr"/>
+      <c r="EK79" t="inlineStr"/>
+      <c r="EL79" t="inlineStr"/>
+      <c r="EM79" t="inlineStr"/>
+      <c r="EN79" t="inlineStr"/>
+      <c r="EO79" t="inlineStr"/>
+      <c r="EP79" t="inlineStr"/>
+      <c r="EQ79" t="inlineStr"/>
+      <c r="ER79" t="inlineStr"/>
+      <c r="ES79" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="ET79" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="EU79" t="inlineStr"/>
+      <c r="EV79" t="inlineStr"/>
+      <c r="EW79" t="inlineStr"/>
+      <c r="EX79" t="inlineStr"/>
+      <c r="EY79" t="inlineStr"/>
+      <c r="EZ79" t="inlineStr"/>
+      <c r="FA79" t="inlineStr"/>
+      <c r="FB79" t="inlineStr"/>
+      <c r="FC79" t="inlineStr"/>
+      <c r="FD79" t="inlineStr"/>
+      <c r="FE79" t="inlineStr"/>
+      <c r="FF79" t="inlineStr"/>
+      <c r="FG79" t="inlineStr"/>
+      <c r="FH79" t="inlineStr"/>
+      <c r="FI79" t="inlineStr"/>
+      <c r="FJ79" t="inlineStr"/>
+      <c r="FK79" t="inlineStr"/>
+      <c r="FL79" t="inlineStr"/>
+      <c r="FM79" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="FN79" t="inlineStr"/>
+      <c r="FO79" t="inlineStr"/>
+      <c r="FP79" t="inlineStr"/>
+      <c r="FQ79" t="inlineStr"/>
+      <c r="FR79" t="inlineStr"/>
+      <c r="FS79" t="inlineStr"/>
+      <c r="FT79" t="inlineStr"/>
+      <c r="FU79" t="inlineStr"/>
+      <c r="FV79" t="inlineStr"/>
+      <c r="FW79" t="inlineStr"/>
+      <c r="FX79" t="inlineStr"/>
+      <c r="FY79" t="inlineStr"/>
+      <c r="FZ79" t="inlineStr"/>
+      <c r="GA79" t="inlineStr"/>
+      <c r="GB79" t="inlineStr"/>
+      <c r="GC79" t="inlineStr"/>
+      <c r="GD79" t="inlineStr"/>
+      <c r="GE79" t="inlineStr"/>
+      <c r="GF79" t="inlineStr"/>
+      <c r="GG79" t="inlineStr"/>
+      <c r="GH79" t="inlineStr"/>
+      <c r="GI79" t="inlineStr"/>
+      <c r="GJ79" t="inlineStr"/>
+      <c r="GK79" t="inlineStr"/>
+      <c r="GL79" t="inlineStr"/>
+      <c r="GM79" t="inlineStr"/>
+      <c r="GN79" t="inlineStr"/>
+      <c r="GO79" t="inlineStr"/>
+      <c r="GP79" t="inlineStr"/>
+      <c r="GQ79" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="GR79" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="GS79" t="inlineStr"/>
+      <c r="GT79" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="GU79" t="inlineStr"/>
+      <c r="GV79" t="inlineStr"/>
+      <c r="GW79" t="inlineStr"/>
+      <c r="GX79" t="inlineStr"/>
+      <c r="GY79" t="inlineStr"/>
+      <c r="GZ79" t="inlineStr"/>
+      <c r="HA79" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="HB79" t="inlineStr"/>
+      <c r="HC79" t="inlineStr"/>
+      <c r="HD79" t="inlineStr"/>
+      <c r="HE79" t="inlineStr"/>
+      <c r="HF79" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="HG79" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="HH79" t="inlineStr"/>
+      <c r="HI79" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="HJ79" t="inlineStr"/>
+      <c r="HK79" t="inlineStr"/>
+      <c r="HL79" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="HM79" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="HN79" t="inlineStr"/>
+      <c r="HO79" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="HP79" t="inlineStr"/>
+      <c r="HQ79" t="inlineStr"/>
+      <c r="HR79" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="HS79" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+      <c r="HT79" t="inlineStr"/>
+      <c r="HU79" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="HV79" t="inlineStr"/>
+      <c r="HW79" t="inlineStr"/>
+      <c r="HX79" t="inlineStr"/>
+      <c r="HY79" t="inlineStr"/>
+      <c r="HZ79" t="inlineStr"/>
+      <c r="IA79" t="inlineStr"/>
+      <c r="IB79" t="inlineStr"/>
+      <c r="IC79" t="inlineStr"/>
+      <c r="ID79" t="inlineStr"/>
+      <c r="IE79" t="inlineStr"/>
+      <c r="IF79" t="inlineStr"/>
+      <c r="IG79" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="IH79" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="II79" t="inlineStr"/>
+      <c r="IJ79" t="inlineStr"/>
+      <c r="IK79" t="inlineStr"/>
+      <c r="IL79" t="inlineStr"/>
+      <c r="IM79" t="inlineStr"/>
+      <c r="IN79" t="inlineStr"/>
+      <c r="IO79" t="inlineStr"/>
+      <c r="IP79" t="inlineStr"/>
+      <c r="IQ79" t="inlineStr"/>
+      <c r="IR79" t="inlineStr"/>
+      <c r="IS79" t="inlineStr"/>
+      <c r="IT79" t="inlineStr"/>
+      <c r="IU79" t="inlineStr"/>
+      <c r="IV79" t="inlineStr"/>
+      <c r="IW79" t="inlineStr"/>
+      <c r="IX79" t="inlineStr"/>
+      <c r="IY79" t="inlineStr"/>
+      <c r="IZ79" t="inlineStr"/>
+      <c r="JA79" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="JB79" t="inlineStr"/>
+      <c r="JC79" t="inlineStr"/>
+      <c r="JD79" t="inlineStr"/>
+      <c r="JE79" t="inlineStr"/>
+      <c r="JF79" t="inlineStr"/>
+      <c r="JG79" t="inlineStr"/>
+      <c r="JH79" t="inlineStr"/>
+      <c r="JI79" t="inlineStr"/>
+      <c r="JJ79" t="inlineStr"/>
+      <c r="JK79" t="inlineStr"/>
+      <c r="JL79" t="inlineStr"/>
+      <c r="JM79" t="inlineStr"/>
+      <c r="JN79" t="inlineStr"/>
+      <c r="JO79" t="inlineStr"/>
+      <c r="JP79" t="inlineStr"/>
+      <c r="JQ79" t="inlineStr"/>
+      <c r="JR79" t="inlineStr"/>
+      <c r="JS79" t="inlineStr"/>
+      <c r="JT79" t="inlineStr"/>
+      <c r="JU79" t="inlineStr"/>
+      <c r="JV79" t="inlineStr"/>
+      <c r="JW79" t="inlineStr"/>
+      <c r="JX79" t="inlineStr"/>
+      <c r="JY79" t="inlineStr"/>
+      <c r="JZ79" t="inlineStr"/>
+      <c r="KA79" t="inlineStr"/>
+      <c r="KB79" t="inlineStr"/>
+      <c r="KC79" t="inlineStr"/>
+      <c r="KD79" t="inlineStr"/>
+      <c r="KE79" t="inlineStr"/>
+      <c r="KF79" t="inlineStr"/>
+      <c r="KG79" t="inlineStr"/>
+      <c r="KH79" t="inlineStr"/>
+      <c r="KI79" t="inlineStr"/>
+      <c r="KJ79" t="inlineStr"/>
+      <c r="KK79" t="inlineStr"/>
+      <c r="KL79" t="inlineStr"/>
+      <c r="KM79" t="inlineStr"/>
+      <c r="KN79" t="inlineStr"/>
+      <c r="KO79" t="inlineStr"/>
+      <c r="KP79" t="inlineStr"/>
+      <c r="KQ79" t="inlineStr"/>
+      <c r="KR79" t="inlineStr"/>
+      <c r="KS79" t="inlineStr"/>
+      <c r="KT79" t="inlineStr"/>
+      <c r="KU79" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="KV79" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="KW79" t="inlineStr"/>
+      <c r="KX79" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="KY79" t="inlineStr"/>
+      <c r="KZ79" t="inlineStr"/>
+      <c r="LA79" t="inlineStr"/>
+      <c r="LB79" t="inlineStr"/>
+      <c r="LC79" t="inlineStr"/>
+      <c r="LD79" t="inlineStr"/>
+      <c r="LE79" t="inlineStr"/>
+      <c r="LF79" t="inlineStr"/>
+      <c r="LG79" t="inlineStr"/>
+      <c r="LH79" t="inlineStr"/>
+      <c r="LI79" t="inlineStr"/>
+      <c r="LJ79" t="inlineStr"/>
+      <c r="LK79" t="inlineStr"/>
+      <c r="LL79" t="inlineStr"/>
+      <c r="LM79" t="inlineStr"/>
+      <c r="LN79" t="inlineStr"/>
+      <c r="LO79" t="inlineStr"/>
+      <c r="LP79" t="inlineStr"/>
+      <c r="LQ79" t="inlineStr"/>
+      <c r="LR79" t="inlineStr"/>
+      <c r="LS79" t="inlineStr"/>
+      <c r="LT79" t="inlineStr"/>
+      <c r="LU79" t="inlineStr"/>
+      <c r="LV79" t="inlineStr"/>
+      <c r="LW79" t="inlineStr"/>
+      <c r="LX79" t="inlineStr"/>
+      <c r="LY79" t="inlineStr"/>
+      <c r="LZ79" t="inlineStr"/>
+      <c r="MA79" t="inlineStr"/>
+      <c r="MB79" t="inlineStr"/>
+      <c r="MC79" t="inlineStr"/>
+      <c r="MD79" t="inlineStr"/>
+      <c r="ME79" t="inlineStr"/>
+      <c r="MF79" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG79" t="inlineStr"/>
+      <c r="MH79" t="inlineStr"/>
+      <c r="MI79" t="inlineStr"/>
+      <c r="MJ79" t="inlineStr"/>
+      <c r="MK79" t="inlineStr"/>
+      <c r="ML79" t="inlineStr"/>
+      <c r="MM79" t="inlineStr"/>
+      <c r="MN79" t="inlineStr"/>
+      <c r="MO79" t="inlineStr"/>
+      <c r="MP79" t="inlineStr"/>
+      <c r="MQ79" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="MR79" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="MS79" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="MT79" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="MU79" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="MV79" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="MW79" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="MX79" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="MY79" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="MZ79" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="NA79" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="NB79" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="NC79" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="ND79" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="NE79" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="NF79" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="NG79" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="NH79" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="NI79" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="NJ79" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="NK79" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="NL79" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="NM79" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="NN79" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="NO79" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="NP79" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="NQ79" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="NR79" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="NS79" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="NT79" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="NU79" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="NV79" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="NW79" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="NX79" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="NY79" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="NZ79" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="OA79" t="inlineStr"/>
+      <c r="OB79" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="OC79" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="OD79" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="OE79" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="OF79" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="OG79" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="OH79" t="inlineStr">
+        <is>
+          <t>0.873</t>
+        </is>
+      </c>
+      <c r="OI79" t="inlineStr">
+        <is>
+          <t>0.890</t>
+        </is>
+      </c>
+      <c r="OJ79" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="OK79" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="OL79" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="OM79" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="ON79" t="inlineStr">
+        <is>
+          <t>0.224</t>
+        </is>
+      </c>
+      <c r="OO79" t="inlineStr">
+        <is>
+          <t>0.175</t>
+        </is>
+      </c>
+      <c r="OP79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="OQ79" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="OR79" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR79"/>
+  <dimension ref="A1:OR100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18986,21 +18986,6 @@
           <t>type04</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
           <t>4.66</t>
@@ -19011,52 +18996,11 @@
           <t>5.36</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr"/>
-      <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="inlineStr"/>
-      <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr">
         <is>
           <t>115</t>
         </is>
       </c>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="inlineStr"/>
-      <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
-      <c r="AS79" t="inlineStr"/>
-      <c r="AT79" t="inlineStr"/>
-      <c r="AU79" t="inlineStr"/>
-      <c r="AV79" t="inlineStr"/>
-      <c r="AW79" t="inlineStr"/>
-      <c r="AX79" t="inlineStr"/>
-      <c r="AY79" t="inlineStr"/>
-      <c r="AZ79" t="inlineStr"/>
-      <c r="BA79" t="inlineStr"/>
-      <c r="BB79" t="inlineStr"/>
-      <c r="BC79" t="inlineStr"/>
-      <c r="BD79" t="inlineStr"/>
-      <c r="BE79" t="inlineStr"/>
-      <c r="BF79" t="inlineStr"/>
-      <c r="BG79" t="inlineStr"/>
-      <c r="BH79" t="inlineStr"/>
       <c r="BI79" t="inlineStr">
         <is>
           <t>2.58</t>
@@ -19067,23 +19011,11 @@
           <t>4.00</t>
         </is>
       </c>
-      <c r="BK79" t="inlineStr"/>
       <c r="BL79" t="inlineStr">
         <is>
           <t>155</t>
         </is>
       </c>
-      <c r="BM79" t="inlineStr"/>
-      <c r="BN79" t="inlineStr"/>
-      <c r="BO79" t="inlineStr"/>
-      <c r="BP79" t="inlineStr"/>
-      <c r="BQ79" t="inlineStr"/>
-      <c r="BR79" t="inlineStr"/>
-      <c r="BS79" t="inlineStr"/>
-      <c r="BT79" t="inlineStr"/>
-      <c r="BU79" t="inlineStr"/>
-      <c r="BV79" t="inlineStr"/>
-      <c r="BW79" t="inlineStr"/>
       <c r="BX79" t="inlineStr">
         <is>
           <t>3.93</t>
@@ -19094,54 +19026,11 @@
           <t>5.01</t>
         </is>
       </c>
-      <c r="BZ79" t="inlineStr"/>
-      <c r="CA79" t="inlineStr"/>
-      <c r="CB79" t="inlineStr"/>
-      <c r="CC79" t="inlineStr"/>
-      <c r="CD79" t="inlineStr"/>
-      <c r="CE79" t="inlineStr"/>
-      <c r="CF79" t="inlineStr"/>
-      <c r="CG79" t="inlineStr"/>
-      <c r="CH79" t="inlineStr"/>
-      <c r="CI79" t="inlineStr"/>
-      <c r="CJ79" t="inlineStr"/>
-      <c r="CK79" t="inlineStr"/>
-      <c r="CL79" t="inlineStr"/>
-      <c r="CM79" t="inlineStr"/>
-      <c r="CN79" t="inlineStr"/>
-      <c r="CO79" t="inlineStr"/>
-      <c r="CP79" t="inlineStr"/>
-      <c r="CQ79" t="inlineStr"/>
       <c r="CR79" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="CS79" t="inlineStr"/>
-      <c r="CT79" t="inlineStr"/>
-      <c r="CU79" t="inlineStr"/>
-      <c r="CV79" t="inlineStr"/>
-      <c r="CW79" t="inlineStr"/>
-      <c r="CX79" t="inlineStr"/>
-      <c r="CY79" t="inlineStr"/>
-      <c r="CZ79" t="inlineStr"/>
-      <c r="DA79" t="inlineStr"/>
-      <c r="DB79" t="inlineStr"/>
-      <c r="DC79" t="inlineStr"/>
-      <c r="DD79" t="inlineStr"/>
-      <c r="DE79" t="inlineStr"/>
-      <c r="DF79" t="inlineStr"/>
-      <c r="DG79" t="inlineStr"/>
-      <c r="DH79" t="inlineStr"/>
-      <c r="DI79" t="inlineStr"/>
-      <c r="DJ79" t="inlineStr"/>
-      <c r="DK79" t="inlineStr"/>
-      <c r="DL79" t="inlineStr"/>
-      <c r="DM79" t="inlineStr"/>
-      <c r="DN79" t="inlineStr"/>
-      <c r="DO79" t="inlineStr"/>
-      <c r="DP79" t="inlineStr"/>
-      <c r="DQ79" t="inlineStr"/>
       <c r="DR79" t="inlineStr">
         <is>
           <t>82</t>
@@ -19152,16 +19041,6 @@
           <t>94</t>
         </is>
       </c>
-      <c r="DT79" t="inlineStr"/>
-      <c r="DU79" t="inlineStr"/>
-      <c r="DV79" t="inlineStr"/>
-      <c r="DW79" t="inlineStr"/>
-      <c r="DX79" t="inlineStr"/>
-      <c r="DY79" t="inlineStr"/>
-      <c r="DZ79" t="inlineStr"/>
-      <c r="EA79" t="inlineStr"/>
-      <c r="EB79" t="inlineStr"/>
-      <c r="EC79" t="inlineStr"/>
       <c r="ED79" t="inlineStr">
         <is>
           <t>97</t>
@@ -19172,19 +19051,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="EF79" t="inlineStr"/>
-      <c r="EG79" t="inlineStr"/>
-      <c r="EH79" t="inlineStr"/>
-      <c r="EI79" t="inlineStr"/>
-      <c r="EJ79" t="inlineStr"/>
-      <c r="EK79" t="inlineStr"/>
-      <c r="EL79" t="inlineStr"/>
-      <c r="EM79" t="inlineStr"/>
-      <c r="EN79" t="inlineStr"/>
-      <c r="EO79" t="inlineStr"/>
-      <c r="EP79" t="inlineStr"/>
-      <c r="EQ79" t="inlineStr"/>
-      <c r="ER79" t="inlineStr"/>
       <c r="ES79" t="inlineStr">
         <is>
           <t>3.77</t>
@@ -19195,58 +19061,11 @@
           <t>6.89</t>
         </is>
       </c>
-      <c r="EU79" t="inlineStr"/>
-      <c r="EV79" t="inlineStr"/>
-      <c r="EW79" t="inlineStr"/>
-      <c r="EX79" t="inlineStr"/>
-      <c r="EY79" t="inlineStr"/>
-      <c r="EZ79" t="inlineStr"/>
-      <c r="FA79" t="inlineStr"/>
-      <c r="FB79" t="inlineStr"/>
-      <c r="FC79" t="inlineStr"/>
-      <c r="FD79" t="inlineStr"/>
-      <c r="FE79" t="inlineStr"/>
-      <c r="FF79" t="inlineStr"/>
-      <c r="FG79" t="inlineStr"/>
-      <c r="FH79" t="inlineStr"/>
-      <c r="FI79" t="inlineStr"/>
-      <c r="FJ79" t="inlineStr"/>
-      <c r="FK79" t="inlineStr"/>
-      <c r="FL79" t="inlineStr"/>
       <c r="FM79" t="inlineStr">
         <is>
           <t>183</t>
         </is>
       </c>
-      <c r="FN79" t="inlineStr"/>
-      <c r="FO79" t="inlineStr"/>
-      <c r="FP79" t="inlineStr"/>
-      <c r="FQ79" t="inlineStr"/>
-      <c r="FR79" t="inlineStr"/>
-      <c r="FS79" t="inlineStr"/>
-      <c r="FT79" t="inlineStr"/>
-      <c r="FU79" t="inlineStr"/>
-      <c r="FV79" t="inlineStr"/>
-      <c r="FW79" t="inlineStr"/>
-      <c r="FX79" t="inlineStr"/>
-      <c r="FY79" t="inlineStr"/>
-      <c r="FZ79" t="inlineStr"/>
-      <c r="GA79" t="inlineStr"/>
-      <c r="GB79" t="inlineStr"/>
-      <c r="GC79" t="inlineStr"/>
-      <c r="GD79" t="inlineStr"/>
-      <c r="GE79" t="inlineStr"/>
-      <c r="GF79" t="inlineStr"/>
-      <c r="GG79" t="inlineStr"/>
-      <c r="GH79" t="inlineStr"/>
-      <c r="GI79" t="inlineStr"/>
-      <c r="GJ79" t="inlineStr"/>
-      <c r="GK79" t="inlineStr"/>
-      <c r="GL79" t="inlineStr"/>
-      <c r="GM79" t="inlineStr"/>
-      <c r="GN79" t="inlineStr"/>
-      <c r="GO79" t="inlineStr"/>
-      <c r="GP79" t="inlineStr"/>
       <c r="GQ79" t="inlineStr">
         <is>
           <t>1.11</t>
@@ -19257,27 +19076,16 @@
           <t>2.99</t>
         </is>
       </c>
-      <c r="GS79" t="inlineStr"/>
       <c r="GT79" t="inlineStr">
         <is>
           <t>268</t>
         </is>
       </c>
-      <c r="GU79" t="inlineStr"/>
-      <c r="GV79" t="inlineStr"/>
-      <c r="GW79" t="inlineStr"/>
-      <c r="GX79" t="inlineStr"/>
-      <c r="GY79" t="inlineStr"/>
-      <c r="GZ79" t="inlineStr"/>
       <c r="HA79" t="inlineStr">
         <is>
           <t>11.85</t>
         </is>
       </c>
-      <c r="HB79" t="inlineStr"/>
-      <c r="HC79" t="inlineStr"/>
-      <c r="HD79" t="inlineStr"/>
-      <c r="HE79" t="inlineStr"/>
       <c r="HF79" t="inlineStr">
         <is>
           <t>4.55</t>
@@ -19288,14 +19096,11 @@
           <t>8.98</t>
         </is>
       </c>
-      <c r="HH79" t="inlineStr"/>
       <c r="HI79" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="HJ79" t="inlineStr"/>
-      <c r="HK79" t="inlineStr"/>
       <c r="HL79" t="inlineStr">
         <is>
           <t>1.82</t>
@@ -19306,14 +19111,11 @@
           <t>4.22</t>
         </is>
       </c>
-      <c r="HN79" t="inlineStr"/>
       <c r="HO79" t="inlineStr">
         <is>
           <t>232</t>
         </is>
       </c>
-      <c r="HP79" t="inlineStr"/>
-      <c r="HQ79" t="inlineStr"/>
       <c r="HR79" t="inlineStr">
         <is>
           <t>7.33</t>
@@ -19324,23 +19126,11 @@
           <t>12.56</t>
         </is>
       </c>
-      <c r="HT79" t="inlineStr"/>
       <c r="HU79" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="HV79" t="inlineStr"/>
-      <c r="HW79" t="inlineStr"/>
-      <c r="HX79" t="inlineStr"/>
-      <c r="HY79" t="inlineStr"/>
-      <c r="HZ79" t="inlineStr"/>
-      <c r="IA79" t="inlineStr"/>
-      <c r="IB79" t="inlineStr"/>
-      <c r="IC79" t="inlineStr"/>
-      <c r="ID79" t="inlineStr"/>
-      <c r="IE79" t="inlineStr"/>
-      <c r="IF79" t="inlineStr"/>
       <c r="IG79" t="inlineStr">
         <is>
           <t>8.51</t>
@@ -19351,74 +19141,11 @@
           <t>12.53</t>
         </is>
       </c>
-      <c r="II79" t="inlineStr"/>
-      <c r="IJ79" t="inlineStr"/>
-      <c r="IK79" t="inlineStr"/>
-      <c r="IL79" t="inlineStr"/>
-      <c r="IM79" t="inlineStr"/>
-      <c r="IN79" t="inlineStr"/>
-      <c r="IO79" t="inlineStr"/>
-      <c r="IP79" t="inlineStr"/>
-      <c r="IQ79" t="inlineStr"/>
-      <c r="IR79" t="inlineStr"/>
-      <c r="IS79" t="inlineStr"/>
-      <c r="IT79" t="inlineStr"/>
-      <c r="IU79" t="inlineStr"/>
-      <c r="IV79" t="inlineStr"/>
-      <c r="IW79" t="inlineStr"/>
-      <c r="IX79" t="inlineStr"/>
-      <c r="IY79" t="inlineStr"/>
-      <c r="IZ79" t="inlineStr"/>
       <c r="JA79" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="JB79" t="inlineStr"/>
-      <c r="JC79" t="inlineStr"/>
-      <c r="JD79" t="inlineStr"/>
-      <c r="JE79" t="inlineStr"/>
-      <c r="JF79" t="inlineStr"/>
-      <c r="JG79" t="inlineStr"/>
-      <c r="JH79" t="inlineStr"/>
-      <c r="JI79" t="inlineStr"/>
-      <c r="JJ79" t="inlineStr"/>
-      <c r="JK79" t="inlineStr"/>
-      <c r="JL79" t="inlineStr"/>
-      <c r="JM79" t="inlineStr"/>
-      <c r="JN79" t="inlineStr"/>
-      <c r="JO79" t="inlineStr"/>
-      <c r="JP79" t="inlineStr"/>
-      <c r="JQ79" t="inlineStr"/>
-      <c r="JR79" t="inlineStr"/>
-      <c r="JS79" t="inlineStr"/>
-      <c r="JT79" t="inlineStr"/>
-      <c r="JU79" t="inlineStr"/>
-      <c r="JV79" t="inlineStr"/>
-      <c r="JW79" t="inlineStr"/>
-      <c r="JX79" t="inlineStr"/>
-      <c r="JY79" t="inlineStr"/>
-      <c r="JZ79" t="inlineStr"/>
-      <c r="KA79" t="inlineStr"/>
-      <c r="KB79" t="inlineStr"/>
-      <c r="KC79" t="inlineStr"/>
-      <c r="KD79" t="inlineStr"/>
-      <c r="KE79" t="inlineStr"/>
-      <c r="KF79" t="inlineStr"/>
-      <c r="KG79" t="inlineStr"/>
-      <c r="KH79" t="inlineStr"/>
-      <c r="KI79" t="inlineStr"/>
-      <c r="KJ79" t="inlineStr"/>
-      <c r="KK79" t="inlineStr"/>
-      <c r="KL79" t="inlineStr"/>
-      <c r="KM79" t="inlineStr"/>
-      <c r="KN79" t="inlineStr"/>
-      <c r="KO79" t="inlineStr"/>
-      <c r="KP79" t="inlineStr"/>
-      <c r="KQ79" t="inlineStr"/>
-      <c r="KR79" t="inlineStr"/>
-      <c r="KS79" t="inlineStr"/>
-      <c r="KT79" t="inlineStr"/>
       <c r="KU79" t="inlineStr">
         <is>
           <t>4.61</t>
@@ -19429,60 +19156,16 @@
           <t>4.92</t>
         </is>
       </c>
-      <c r="KW79" t="inlineStr"/>
       <c r="KX79" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="KY79" t="inlineStr"/>
-      <c r="KZ79" t="inlineStr"/>
-      <c r="LA79" t="inlineStr"/>
-      <c r="LB79" t="inlineStr"/>
-      <c r="LC79" t="inlineStr"/>
-      <c r="LD79" t="inlineStr"/>
-      <c r="LE79" t="inlineStr"/>
-      <c r="LF79" t="inlineStr"/>
-      <c r="LG79" t="inlineStr"/>
-      <c r="LH79" t="inlineStr"/>
-      <c r="LI79" t="inlineStr"/>
-      <c r="LJ79" t="inlineStr"/>
-      <c r="LK79" t="inlineStr"/>
-      <c r="LL79" t="inlineStr"/>
-      <c r="LM79" t="inlineStr"/>
-      <c r="LN79" t="inlineStr"/>
-      <c r="LO79" t="inlineStr"/>
-      <c r="LP79" t="inlineStr"/>
-      <c r="LQ79" t="inlineStr"/>
-      <c r="LR79" t="inlineStr"/>
-      <c r="LS79" t="inlineStr"/>
-      <c r="LT79" t="inlineStr"/>
-      <c r="LU79" t="inlineStr"/>
-      <c r="LV79" t="inlineStr"/>
-      <c r="LW79" t="inlineStr"/>
-      <c r="LX79" t="inlineStr"/>
-      <c r="LY79" t="inlineStr"/>
-      <c r="LZ79" t="inlineStr"/>
-      <c r="MA79" t="inlineStr"/>
-      <c r="MB79" t="inlineStr"/>
-      <c r="MC79" t="inlineStr"/>
-      <c r="MD79" t="inlineStr"/>
-      <c r="ME79" t="inlineStr"/>
       <c r="MF79" t="inlineStr">
         <is>
           <t>000000</t>
         </is>
       </c>
-      <c r="MG79" t="inlineStr"/>
-      <c r="MH79" t="inlineStr"/>
-      <c r="MI79" t="inlineStr"/>
-      <c r="MJ79" t="inlineStr"/>
-      <c r="MK79" t="inlineStr"/>
-      <c r="ML79" t="inlineStr"/>
-      <c r="MM79" t="inlineStr"/>
-      <c r="MN79" t="inlineStr"/>
-      <c r="MO79" t="inlineStr"/>
-      <c r="MP79" t="inlineStr"/>
       <c r="MQ79" t="inlineStr">
         <is>
           <t>6.51</t>
@@ -19663,7 +19346,6 @@
           <t>4.61</t>
         </is>
       </c>
-      <c r="OA79" t="inlineStr"/>
       <c r="OB79" t="inlineStr">
         <is>
           <t>1.69</t>
@@ -19749,6 +19431,2464 @@
           <t>83</t>
         </is>
       </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>1 37</t>
+        </is>
+      </c>
+      <c r="BF81" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="BG81" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BY81" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="DM81" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="DN81" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DS81" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="DU81" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="GL81" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GM81" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GN81" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="GR81" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="GW81" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="GX81" t="inlineStr">
+        <is>
+          <t>-1160</t>
+        </is>
+      </c>
+      <c r="IH81" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="JV81" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="JW81" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="JZ81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="KK81" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="KV81" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="LA81" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="LB81" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="LP81" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="LQ81" t="inlineStr">
+        <is>
+          <t>1 67</t>
+        </is>
+      </c>
+      <c r="LV81" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF81" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MP81" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>1 37</t>
+        </is>
+      </c>
+      <c r="BF82" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="BG82" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BY82" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="DM82" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="DN82" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DS82" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="DU82" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="GL82" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GM82" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GN82" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="GR82" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="GW82" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="GX82" t="inlineStr">
+        <is>
+          <t>-1160</t>
+        </is>
+      </c>
+      <c r="IH82" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="JV82" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="JW82" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="JZ82" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="KK82" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="KV82" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="LA82" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="LB82" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="LP82" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="LQ82" t="inlineStr">
+        <is>
+          <t>1 67</t>
+        </is>
+      </c>
+      <c r="LV82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF82" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MP82" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BF83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BY83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DM83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DN83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DS83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DU83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="ET83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GH83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GI83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GL83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GM83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GN83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GR83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GW83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GX83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="IH83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JV83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JW83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JZ83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="KK83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="KV83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LA83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LB83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LP83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LQ83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LV83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MF83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MP83" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BF84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BY84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DM84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DN84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DS84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DU84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="ET84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GH84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GI84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GL84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GM84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GN84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GR84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GW84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GX84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="IH84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JV84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JW84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JZ84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="KK84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="KV84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LA84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LB84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LP84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LQ84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LV84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MF84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MP84" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BF85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BY85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DM85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DN85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DS85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DU85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="ET85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GH85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GI85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GL85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GM85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GN85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GR85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GW85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GX85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="IH85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JV85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JW85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JZ85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="KK85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="KV85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LA85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LB85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LP85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LQ85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LV85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MF85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MP85" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BF86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BY86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DM86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DN86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DS86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="DU86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="ET86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GH86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GI86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GL86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GM86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GN86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GR86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GW86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="GX86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="IH86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JV86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JW86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="JZ86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="KK86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="KV86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LA86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LB86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LP86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LQ86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="LV86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MF86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MP86" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="BF87" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG87" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BY87" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="DM87" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="DN87" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DS87" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="DU87" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ET87" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GH87" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GI87" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GL87" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GM87" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GN87" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GR87" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="GW87" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="GX87" t="inlineStr">
+        <is>
+          <t>-1100</t>
+        </is>
+      </c>
+      <c r="IH87" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="JV87" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="JW87" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="JZ87" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="KK87" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="KV87" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="LA87" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="LB87" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="LP87" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="LQ87" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="LV87" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF87" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MP87" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="BF88" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="BG88" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="BY88" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="DM88" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="DN88" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="DS88" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DU88" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="ET88" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="GH88" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="GI88" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="GL88" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="GM88" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="GN88" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="GR88" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="GW88" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="GX88" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="IH88" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="JV88" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="JW88" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="JZ88" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KK88" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="KV88" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="LA88" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="LB88" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="LP88" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="LQ88" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="LV88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="MF88" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="MP88" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="BF96" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG96" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BY96" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="DM96" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="DN96" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DS96" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="DU96" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ET96" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GH96" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GI96" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GL96" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GM96" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GN96" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GR96" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="GW96" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="GX96" t="inlineStr">
+        <is>
+          <t>-1100</t>
+        </is>
+      </c>
+      <c r="IH96" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="JV96" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="JW96" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="JZ96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="KK96" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="KV96" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="LA96" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="LB96" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="LP96" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="LQ96" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="LV96" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF96" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MP96" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="BF97" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="BG97" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="BY97" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="DM97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="DN97" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="DS97" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DU97" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="ET97" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="GH97" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="GI97" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="GL97" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="GM97" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="GN97" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="GR97" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="GW97" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="GX97" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="IH97" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="JV97" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="JW97" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="JZ97" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KK97" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="KV97" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="LA97" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="LB97" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="LP97" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="LQ97" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="LV97" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="MF97" t="inlineStr">
+        <is>
+          <t>111011</t>
+        </is>
+      </c>
+      <c r="MP97" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="BF98" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="BG98" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="BY98" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="DM98" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="DN98" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DS98" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="DU98" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="ET98" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GH98" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GI98" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GL98" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GM98" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GN98" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GR98" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="GW98" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GX98" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="IH98" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="JV98" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="JW98" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JZ98" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KK98" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="KV98" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="LA98" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="LB98" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LM98" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LP98" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="LQ98" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="LV98" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="MF98" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MP98" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="BF99" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="BG99" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="BY99" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="DM99" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="DN99" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="DS99" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DU99" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="ET99" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="GH99" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="GI99" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="GL99" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="GM99" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="GN99" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="GR99" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="GW99" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="GX99" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="IH99" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="JV99" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="JW99" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="JZ99" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="KK99" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="KV99" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="LA99" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="LB99" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="LM99" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="LP99" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="LQ99" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="LV99" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="MF99" t="inlineStr">
+        <is>
+          <t>100011</t>
+        </is>
+      </c>
+      <c r="MP99" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
+      <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="inlineStr"/>
+      <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr"/>
+      <c r="AO100" t="inlineStr"/>
+      <c r="AP100" t="inlineStr"/>
+      <c r="AQ100" t="inlineStr"/>
+      <c r="AR100" t="inlineStr"/>
+      <c r="AS100" t="inlineStr"/>
+      <c r="AT100" t="inlineStr"/>
+      <c r="AU100" t="inlineStr"/>
+      <c r="AV100" t="inlineStr"/>
+      <c r="AW100" t="inlineStr"/>
+      <c r="AX100" t="inlineStr"/>
+      <c r="AY100" t="inlineStr"/>
+      <c r="AZ100" t="inlineStr"/>
+      <c r="BA100" t="inlineStr"/>
+      <c r="BB100" t="inlineStr"/>
+      <c r="BC100" t="inlineStr"/>
+      <c r="BD100" t="inlineStr"/>
+      <c r="BE100" t="inlineStr"/>
+      <c r="BF100" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="BG100" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="BH100" t="inlineStr"/>
+      <c r="BI100" t="inlineStr"/>
+      <c r="BJ100" t="inlineStr"/>
+      <c r="BK100" t="inlineStr"/>
+      <c r="BL100" t="inlineStr"/>
+      <c r="BM100" t="inlineStr"/>
+      <c r="BN100" t="inlineStr"/>
+      <c r="BO100" t="inlineStr"/>
+      <c r="BP100" t="inlineStr"/>
+      <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
+      <c r="BS100" t="inlineStr"/>
+      <c r="BT100" t="inlineStr"/>
+      <c r="BU100" t="inlineStr"/>
+      <c r="BV100" t="inlineStr"/>
+      <c r="BW100" t="inlineStr"/>
+      <c r="BX100" t="inlineStr"/>
+      <c r="BY100" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="BZ100" t="inlineStr"/>
+      <c r="CA100" t="inlineStr"/>
+      <c r="CB100" t="inlineStr"/>
+      <c r="CC100" t="inlineStr"/>
+      <c r="CD100" t="inlineStr"/>
+      <c r="CE100" t="inlineStr"/>
+      <c r="CF100" t="inlineStr"/>
+      <c r="CG100" t="inlineStr"/>
+      <c r="CH100" t="inlineStr"/>
+      <c r="CI100" t="inlineStr"/>
+      <c r="CJ100" t="inlineStr"/>
+      <c r="CK100" t="inlineStr"/>
+      <c r="CL100" t="inlineStr"/>
+      <c r="CM100" t="inlineStr"/>
+      <c r="CN100" t="inlineStr"/>
+      <c r="CO100" t="inlineStr"/>
+      <c r="CP100" t="inlineStr"/>
+      <c r="CQ100" t="inlineStr"/>
+      <c r="CR100" t="inlineStr"/>
+      <c r="CS100" t="inlineStr"/>
+      <c r="CT100" t="inlineStr"/>
+      <c r="CU100" t="inlineStr"/>
+      <c r="CV100" t="inlineStr"/>
+      <c r="CW100" t="inlineStr"/>
+      <c r="CX100" t="inlineStr"/>
+      <c r="CY100" t="inlineStr"/>
+      <c r="CZ100" t="inlineStr"/>
+      <c r="DA100" t="inlineStr"/>
+      <c r="DB100" t="inlineStr"/>
+      <c r="DC100" t="inlineStr"/>
+      <c r="DD100" t="inlineStr"/>
+      <c r="DE100" t="inlineStr"/>
+      <c r="DF100" t="inlineStr"/>
+      <c r="DG100" t="inlineStr"/>
+      <c r="DH100" t="inlineStr"/>
+      <c r="DI100" t="inlineStr"/>
+      <c r="DJ100" t="inlineStr"/>
+      <c r="DK100" t="inlineStr"/>
+      <c r="DL100" t="inlineStr"/>
+      <c r="DM100" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="DN100" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="DO100" t="inlineStr"/>
+      <c r="DP100" t="inlineStr"/>
+      <c r="DQ100" t="inlineStr"/>
+      <c r="DR100" t="inlineStr"/>
+      <c r="DS100" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DT100" t="inlineStr"/>
+      <c r="DU100" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="DV100" t="inlineStr"/>
+      <c r="DW100" t="inlineStr"/>
+      <c r="DX100" t="inlineStr"/>
+      <c r="DY100" t="inlineStr"/>
+      <c r="DZ100" t="inlineStr"/>
+      <c r="EA100" t="inlineStr"/>
+      <c r="EB100" t="inlineStr"/>
+      <c r="EC100" t="inlineStr"/>
+      <c r="ED100" t="inlineStr"/>
+      <c r="EE100" t="inlineStr"/>
+      <c r="EF100" t="inlineStr"/>
+      <c r="EG100" t="inlineStr"/>
+      <c r="EH100" t="inlineStr"/>
+      <c r="EI100" t="inlineStr"/>
+      <c r="EJ100" t="inlineStr"/>
+      <c r="EK100" t="inlineStr"/>
+      <c r="EL100" t="inlineStr"/>
+      <c r="EM100" t="inlineStr"/>
+      <c r="EN100" t="inlineStr"/>
+      <c r="EO100" t="inlineStr"/>
+      <c r="EP100" t="inlineStr"/>
+      <c r="EQ100" t="inlineStr"/>
+      <c r="ER100" t="inlineStr"/>
+      <c r="ES100" t="inlineStr"/>
+      <c r="ET100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EU100" t="inlineStr"/>
+      <c r="EV100" t="inlineStr"/>
+      <c r="EW100" t="inlineStr"/>
+      <c r="EX100" t="inlineStr"/>
+      <c r="EY100" t="inlineStr"/>
+      <c r="EZ100" t="inlineStr"/>
+      <c r="FA100" t="inlineStr"/>
+      <c r="FB100" t="inlineStr"/>
+      <c r="FC100" t="inlineStr"/>
+      <c r="FD100" t="inlineStr"/>
+      <c r="FE100" t="inlineStr"/>
+      <c r="FF100" t="inlineStr"/>
+      <c r="FG100" t="inlineStr"/>
+      <c r="FH100" t="inlineStr"/>
+      <c r="FI100" t="inlineStr"/>
+      <c r="FJ100" t="inlineStr"/>
+      <c r="FK100" t="inlineStr"/>
+      <c r="FL100" t="inlineStr"/>
+      <c r="FM100" t="inlineStr"/>
+      <c r="FN100" t="inlineStr"/>
+      <c r="FO100" t="inlineStr"/>
+      <c r="FP100" t="inlineStr"/>
+      <c r="FQ100" t="inlineStr"/>
+      <c r="FR100" t="inlineStr"/>
+      <c r="FS100" t="inlineStr"/>
+      <c r="FT100" t="inlineStr"/>
+      <c r="FU100" t="inlineStr"/>
+      <c r="FV100" t="inlineStr"/>
+      <c r="FW100" t="inlineStr"/>
+      <c r="FX100" t="inlineStr"/>
+      <c r="FY100" t="inlineStr"/>
+      <c r="FZ100" t="inlineStr"/>
+      <c r="GA100" t="inlineStr"/>
+      <c r="GB100" t="inlineStr"/>
+      <c r="GC100" t="inlineStr"/>
+      <c r="GD100" t="inlineStr"/>
+      <c r="GE100" t="inlineStr"/>
+      <c r="GF100" t="inlineStr"/>
+      <c r="GG100" t="inlineStr"/>
+      <c r="GH100" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="GI100" t="inlineStr">
+        <is>
+          <t>-90</t>
+        </is>
+      </c>
+      <c r="GJ100" t="inlineStr"/>
+      <c r="GK100" t="inlineStr"/>
+      <c r="GL100" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="GM100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="GN100" t="inlineStr">
+        <is>
+          <t>-90</t>
+        </is>
+      </c>
+      <c r="GO100" t="inlineStr"/>
+      <c r="GP100" t="inlineStr"/>
+      <c r="GQ100" t="inlineStr"/>
+      <c r="GR100" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="GS100" t="inlineStr"/>
+      <c r="GT100" t="inlineStr"/>
+      <c r="GU100" t="inlineStr"/>
+      <c r="GV100" t="inlineStr"/>
+      <c r="GW100" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="GX100" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="GY100" t="inlineStr"/>
+      <c r="GZ100" t="inlineStr"/>
+      <c r="HA100" t="inlineStr"/>
+      <c r="HB100" t="inlineStr"/>
+      <c r="HC100" t="inlineStr"/>
+      <c r="HD100" t="inlineStr"/>
+      <c r="HE100" t="inlineStr"/>
+      <c r="HF100" t="inlineStr"/>
+      <c r="HG100" t="inlineStr"/>
+      <c r="HH100" t="inlineStr"/>
+      <c r="HI100" t="inlineStr"/>
+      <c r="HJ100" t="inlineStr"/>
+      <c r="HK100" t="inlineStr"/>
+      <c r="HL100" t="inlineStr"/>
+      <c r="HM100" t="inlineStr"/>
+      <c r="HN100" t="inlineStr"/>
+      <c r="HO100" t="inlineStr"/>
+      <c r="HP100" t="inlineStr"/>
+      <c r="HQ100" t="inlineStr"/>
+      <c r="HR100" t="inlineStr"/>
+      <c r="HS100" t="inlineStr"/>
+      <c r="HT100" t="inlineStr"/>
+      <c r="HU100" t="inlineStr"/>
+      <c r="HV100" t="inlineStr"/>
+      <c r="HW100" t="inlineStr"/>
+      <c r="HX100" t="inlineStr"/>
+      <c r="HY100" t="inlineStr"/>
+      <c r="HZ100" t="inlineStr"/>
+      <c r="IA100" t="inlineStr"/>
+      <c r="IB100" t="inlineStr"/>
+      <c r="IC100" t="inlineStr"/>
+      <c r="ID100" t="inlineStr"/>
+      <c r="IE100" t="inlineStr"/>
+      <c r="IF100" t="inlineStr"/>
+      <c r="IG100" t="inlineStr"/>
+      <c r="IH100" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="II100" t="inlineStr"/>
+      <c r="IJ100" t="inlineStr"/>
+      <c r="IK100" t="inlineStr"/>
+      <c r="IL100" t="inlineStr"/>
+      <c r="IM100" t="inlineStr"/>
+      <c r="IN100" t="inlineStr"/>
+      <c r="IO100" t="inlineStr"/>
+      <c r="IP100" t="inlineStr"/>
+      <c r="IQ100" t="inlineStr"/>
+      <c r="IR100" t="inlineStr"/>
+      <c r="IS100" t="inlineStr"/>
+      <c r="IT100" t="inlineStr"/>
+      <c r="IU100" t="inlineStr"/>
+      <c r="IV100" t="inlineStr"/>
+      <c r="IW100" t="inlineStr"/>
+      <c r="IX100" t="inlineStr"/>
+      <c r="IY100" t="inlineStr"/>
+      <c r="IZ100" t="inlineStr"/>
+      <c r="JA100" t="inlineStr"/>
+      <c r="JB100" t="inlineStr"/>
+      <c r="JC100" t="inlineStr"/>
+      <c r="JD100" t="inlineStr"/>
+      <c r="JE100" t="inlineStr"/>
+      <c r="JF100" t="inlineStr"/>
+      <c r="JG100" t="inlineStr"/>
+      <c r="JH100" t="inlineStr"/>
+      <c r="JI100" t="inlineStr"/>
+      <c r="JJ100" t="inlineStr"/>
+      <c r="JK100" t="inlineStr"/>
+      <c r="JL100" t="inlineStr"/>
+      <c r="JM100" t="inlineStr"/>
+      <c r="JN100" t="inlineStr"/>
+      <c r="JO100" t="inlineStr"/>
+      <c r="JP100" t="inlineStr"/>
+      <c r="JQ100" t="inlineStr"/>
+      <c r="JR100" t="inlineStr"/>
+      <c r="JS100" t="inlineStr"/>
+      <c r="JT100" t="inlineStr"/>
+      <c r="JU100" t="inlineStr"/>
+      <c r="JV100" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="JW100" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JX100" t="inlineStr"/>
+      <c r="JY100" t="inlineStr"/>
+      <c r="JZ100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="KA100" t="inlineStr"/>
+      <c r="KB100" t="inlineStr"/>
+      <c r="KC100" t="inlineStr"/>
+      <c r="KD100" t="inlineStr"/>
+      <c r="KE100" t="inlineStr"/>
+      <c r="KF100" t="inlineStr"/>
+      <c r="KG100" t="inlineStr"/>
+      <c r="KH100" t="inlineStr"/>
+      <c r="KI100" t="inlineStr"/>
+      <c r="KJ100" t="inlineStr"/>
+      <c r="KK100" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="KL100" t="inlineStr"/>
+      <c r="KM100" t="inlineStr"/>
+      <c r="KN100" t="inlineStr"/>
+      <c r="KO100" t="inlineStr"/>
+      <c r="KP100" t="inlineStr"/>
+      <c r="KQ100" t="inlineStr"/>
+      <c r="KR100" t="inlineStr"/>
+      <c r="KS100" t="inlineStr"/>
+      <c r="KT100" t="inlineStr"/>
+      <c r="KU100" t="inlineStr"/>
+      <c r="KV100" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="KW100" t="inlineStr"/>
+      <c r="KX100" t="inlineStr"/>
+      <c r="KY100" t="inlineStr"/>
+      <c r="KZ100" t="inlineStr"/>
+      <c r="LA100" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="LB100" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="LC100" t="inlineStr"/>
+      <c r="LD100" t="inlineStr"/>
+      <c r="LE100" t="inlineStr"/>
+      <c r="LF100" t="inlineStr"/>
+      <c r="LG100" t="inlineStr"/>
+      <c r="LH100" t="inlineStr"/>
+      <c r="LI100" t="inlineStr"/>
+      <c r="LJ100" t="inlineStr"/>
+      <c r="LK100" t="inlineStr"/>
+      <c r="LL100" t="inlineStr"/>
+      <c r="LM100" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="LN100" t="inlineStr"/>
+      <c r="LO100" t="inlineStr"/>
+      <c r="LP100" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="LQ100" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="LR100" t="inlineStr"/>
+      <c r="LS100" t="inlineStr"/>
+      <c r="LT100" t="inlineStr"/>
+      <c r="LU100" t="inlineStr"/>
+      <c r="LV100" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="LW100" t="inlineStr"/>
+      <c r="LX100" t="inlineStr"/>
+      <c r="LY100" t="inlineStr"/>
+      <c r="LZ100" t="inlineStr"/>
+      <c r="MA100" t="inlineStr"/>
+      <c r="MB100" t="inlineStr"/>
+      <c r="MC100" t="inlineStr"/>
+      <c r="MD100" t="inlineStr"/>
+      <c r="ME100" t="inlineStr"/>
+      <c r="MF100" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG100" t="inlineStr"/>
+      <c r="MH100" t="inlineStr"/>
+      <c r="MI100" t="inlineStr"/>
+      <c r="MJ100" t="inlineStr"/>
+      <c r="MK100" t="inlineStr"/>
+      <c r="ML100" t="inlineStr"/>
+      <c r="MM100" t="inlineStr"/>
+      <c r="MN100" t="inlineStr"/>
+      <c r="MO100" t="inlineStr"/>
+      <c r="MP100" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="MQ100" t="inlineStr"/>
+      <c r="MR100" t="inlineStr"/>
+      <c r="MS100" t="inlineStr"/>
+      <c r="MT100" t="inlineStr"/>
+      <c r="MU100" t="inlineStr"/>
+      <c r="MV100" t="inlineStr"/>
+      <c r="MW100" t="inlineStr"/>
+      <c r="MX100" t="inlineStr"/>
+      <c r="MY100" t="inlineStr"/>
+      <c r="MZ100" t="inlineStr"/>
+      <c r="NA100" t="inlineStr"/>
+      <c r="NB100" t="inlineStr"/>
+      <c r="NC100" t="inlineStr"/>
+      <c r="ND100" t="inlineStr"/>
+      <c r="NE100" t="inlineStr"/>
+      <c r="NF100" t="inlineStr"/>
+      <c r="NG100" t="inlineStr"/>
+      <c r="NH100" t="inlineStr"/>
+      <c r="NI100" t="inlineStr"/>
+      <c r="NJ100" t="inlineStr"/>
+      <c r="NK100" t="inlineStr"/>
+      <c r="NL100" t="inlineStr"/>
+      <c r="NM100" t="inlineStr"/>
+      <c r="NN100" t="inlineStr"/>
+      <c r="NO100" t="inlineStr"/>
+      <c r="NP100" t="inlineStr"/>
+      <c r="NQ100" t="inlineStr"/>
+      <c r="NR100" t="inlineStr"/>
+      <c r="NS100" t="inlineStr"/>
+      <c r="NT100" t="inlineStr"/>
+      <c r="NU100" t="inlineStr"/>
+      <c r="NV100" t="inlineStr"/>
+      <c r="NW100" t="inlineStr"/>
+      <c r="NX100" t="inlineStr"/>
+      <c r="NY100" t="inlineStr"/>
+      <c r="NZ100" t="inlineStr"/>
+      <c r="OA100" t="inlineStr"/>
+      <c r="OB100" t="inlineStr"/>
+      <c r="OC100" t="inlineStr"/>
+      <c r="OD100" t="inlineStr"/>
+      <c r="OE100" t="inlineStr"/>
+      <c r="OF100" t="inlineStr"/>
+      <c r="OG100" t="inlineStr"/>
+      <c r="OH100" t="inlineStr"/>
+      <c r="OI100" t="inlineStr"/>
+      <c r="OJ100" t="inlineStr"/>
+      <c r="OK100" t="inlineStr"/>
+      <c r="OL100" t="inlineStr"/>
+      <c r="OM100" t="inlineStr"/>
+      <c r="ON100" t="inlineStr"/>
+      <c r="OO100" t="inlineStr"/>
+      <c r="OP100" t="inlineStr"/>
+      <c r="OQ100" t="inlineStr"/>
+      <c r="OR100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR100"/>
+  <dimension ref="A1:OR111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21358,66 +21358,11 @@
           <t>type05</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
           <t>5.30</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
-      <c r="AH100" t="inlineStr"/>
-      <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="inlineStr"/>
-      <c r="AK100" t="inlineStr"/>
-      <c r="AL100" t="inlineStr"/>
-      <c r="AM100" t="inlineStr"/>
-      <c r="AN100" t="inlineStr"/>
-      <c r="AO100" t="inlineStr"/>
-      <c r="AP100" t="inlineStr"/>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="inlineStr"/>
-      <c r="AT100" t="inlineStr"/>
-      <c r="AU100" t="inlineStr"/>
-      <c r="AV100" t="inlineStr"/>
-      <c r="AW100" t="inlineStr"/>
-      <c r="AX100" t="inlineStr"/>
-      <c r="AY100" t="inlineStr"/>
-      <c r="AZ100" t="inlineStr"/>
-      <c r="BA100" t="inlineStr"/>
-      <c r="BB100" t="inlineStr"/>
-      <c r="BC100" t="inlineStr"/>
-      <c r="BD100" t="inlineStr"/>
-      <c r="BE100" t="inlineStr"/>
       <c r="BF100" t="inlineStr">
         <is>
           <t>5.01</t>
@@ -21428,67 +21373,11 @@
           <t>106</t>
         </is>
       </c>
-      <c r="BH100" t="inlineStr"/>
-      <c r="BI100" t="inlineStr"/>
-      <c r="BJ100" t="inlineStr"/>
-      <c r="BK100" t="inlineStr"/>
-      <c r="BL100" t="inlineStr"/>
-      <c r="BM100" t="inlineStr"/>
-      <c r="BN100" t="inlineStr"/>
-      <c r="BO100" t="inlineStr"/>
-      <c r="BP100" t="inlineStr"/>
-      <c r="BQ100" t="inlineStr"/>
-      <c r="BR100" t="inlineStr"/>
-      <c r="BS100" t="inlineStr"/>
-      <c r="BT100" t="inlineStr"/>
-      <c r="BU100" t="inlineStr"/>
-      <c r="BV100" t="inlineStr"/>
-      <c r="BW100" t="inlineStr"/>
-      <c r="BX100" t="inlineStr"/>
       <c r="BY100" t="inlineStr">
         <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="BZ100" t="inlineStr"/>
-      <c r="CA100" t="inlineStr"/>
-      <c r="CB100" t="inlineStr"/>
-      <c r="CC100" t="inlineStr"/>
-      <c r="CD100" t="inlineStr"/>
-      <c r="CE100" t="inlineStr"/>
-      <c r="CF100" t="inlineStr"/>
-      <c r="CG100" t="inlineStr"/>
-      <c r="CH100" t="inlineStr"/>
-      <c r="CI100" t="inlineStr"/>
-      <c r="CJ100" t="inlineStr"/>
-      <c r="CK100" t="inlineStr"/>
-      <c r="CL100" t="inlineStr"/>
-      <c r="CM100" t="inlineStr"/>
-      <c r="CN100" t="inlineStr"/>
-      <c r="CO100" t="inlineStr"/>
-      <c r="CP100" t="inlineStr"/>
-      <c r="CQ100" t="inlineStr"/>
-      <c r="CR100" t="inlineStr"/>
-      <c r="CS100" t="inlineStr"/>
-      <c r="CT100" t="inlineStr"/>
-      <c r="CU100" t="inlineStr"/>
-      <c r="CV100" t="inlineStr"/>
-      <c r="CW100" t="inlineStr"/>
-      <c r="CX100" t="inlineStr"/>
-      <c r="CY100" t="inlineStr"/>
-      <c r="CZ100" t="inlineStr"/>
-      <c r="DA100" t="inlineStr"/>
-      <c r="DB100" t="inlineStr"/>
-      <c r="DC100" t="inlineStr"/>
-      <c r="DD100" t="inlineStr"/>
-      <c r="DE100" t="inlineStr"/>
-      <c r="DF100" t="inlineStr"/>
-      <c r="DG100" t="inlineStr"/>
-      <c r="DH100" t="inlineStr"/>
-      <c r="DI100" t="inlineStr"/>
-      <c r="DJ100" t="inlineStr"/>
-      <c r="DK100" t="inlineStr"/>
-      <c r="DL100" t="inlineStr"/>
       <c r="DM100" t="inlineStr">
         <is>
           <t>3.93</t>
@@ -21499,89 +21388,21 @@
           <t>86</t>
         </is>
       </c>
-      <c r="DO100" t="inlineStr"/>
-      <c r="DP100" t="inlineStr"/>
-      <c r="DQ100" t="inlineStr"/>
-      <c r="DR100" t="inlineStr"/>
       <c r="DS100" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="DT100" t="inlineStr"/>
       <c r="DU100" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="DV100" t="inlineStr"/>
-      <c r="DW100" t="inlineStr"/>
-      <c r="DX100" t="inlineStr"/>
-      <c r="DY100" t="inlineStr"/>
-      <c r="DZ100" t="inlineStr"/>
-      <c r="EA100" t="inlineStr"/>
-      <c r="EB100" t="inlineStr"/>
-      <c r="EC100" t="inlineStr"/>
-      <c r="ED100" t="inlineStr"/>
-      <c r="EE100" t="inlineStr"/>
-      <c r="EF100" t="inlineStr"/>
-      <c r="EG100" t="inlineStr"/>
-      <c r="EH100" t="inlineStr"/>
-      <c r="EI100" t="inlineStr"/>
-      <c r="EJ100" t="inlineStr"/>
-      <c r="EK100" t="inlineStr"/>
-      <c r="EL100" t="inlineStr"/>
-      <c r="EM100" t="inlineStr"/>
-      <c r="EN100" t="inlineStr"/>
-      <c r="EO100" t="inlineStr"/>
-      <c r="EP100" t="inlineStr"/>
-      <c r="EQ100" t="inlineStr"/>
-      <c r="ER100" t="inlineStr"/>
-      <c r="ES100" t="inlineStr"/>
       <c r="ET100" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="EU100" t="inlineStr"/>
-      <c r="EV100" t="inlineStr"/>
-      <c r="EW100" t="inlineStr"/>
-      <c r="EX100" t="inlineStr"/>
-      <c r="EY100" t="inlineStr"/>
-      <c r="EZ100" t="inlineStr"/>
-      <c r="FA100" t="inlineStr"/>
-      <c r="FB100" t="inlineStr"/>
-      <c r="FC100" t="inlineStr"/>
-      <c r="FD100" t="inlineStr"/>
-      <c r="FE100" t="inlineStr"/>
-      <c r="FF100" t="inlineStr"/>
-      <c r="FG100" t="inlineStr"/>
-      <c r="FH100" t="inlineStr"/>
-      <c r="FI100" t="inlineStr"/>
-      <c r="FJ100" t="inlineStr"/>
-      <c r="FK100" t="inlineStr"/>
-      <c r="FL100" t="inlineStr"/>
-      <c r="FM100" t="inlineStr"/>
-      <c r="FN100" t="inlineStr"/>
-      <c r="FO100" t="inlineStr"/>
-      <c r="FP100" t="inlineStr"/>
-      <c r="FQ100" t="inlineStr"/>
-      <c r="FR100" t="inlineStr"/>
-      <c r="FS100" t="inlineStr"/>
-      <c r="FT100" t="inlineStr"/>
-      <c r="FU100" t="inlineStr"/>
-      <c r="FV100" t="inlineStr"/>
-      <c r="FW100" t="inlineStr"/>
-      <c r="FX100" t="inlineStr"/>
-      <c r="FY100" t="inlineStr"/>
-      <c r="FZ100" t="inlineStr"/>
-      <c r="GA100" t="inlineStr"/>
-      <c r="GB100" t="inlineStr"/>
-      <c r="GC100" t="inlineStr"/>
-      <c r="GD100" t="inlineStr"/>
-      <c r="GE100" t="inlineStr"/>
-      <c r="GF100" t="inlineStr"/>
-      <c r="GG100" t="inlineStr"/>
       <c r="GH100" t="inlineStr">
         <is>
           <t>3.41</t>
@@ -21592,8 +21413,6 @@
           <t>-90</t>
         </is>
       </c>
-      <c r="GJ100" t="inlineStr"/>
-      <c r="GK100" t="inlineStr"/>
       <c r="GL100" t="inlineStr">
         <is>
           <t>3.41</t>
@@ -21609,18 +21428,11 @@
           <t>-90</t>
         </is>
       </c>
-      <c r="GO100" t="inlineStr"/>
-      <c r="GP100" t="inlineStr"/>
-      <c r="GQ100" t="inlineStr"/>
       <c r="GR100" t="inlineStr">
         <is>
           <t>0.45</t>
         </is>
       </c>
-      <c r="GS100" t="inlineStr"/>
-      <c r="GT100" t="inlineStr"/>
-      <c r="GU100" t="inlineStr"/>
-      <c r="GV100" t="inlineStr"/>
       <c r="GW100" t="inlineStr">
         <is>
           <t>0.91</t>
@@ -21631,85 +21443,11 @@
           <t>49</t>
         </is>
       </c>
-      <c r="GY100" t="inlineStr"/>
-      <c r="GZ100" t="inlineStr"/>
-      <c r="HA100" t="inlineStr"/>
-      <c r="HB100" t="inlineStr"/>
-      <c r="HC100" t="inlineStr"/>
-      <c r="HD100" t="inlineStr"/>
-      <c r="HE100" t="inlineStr"/>
-      <c r="HF100" t="inlineStr"/>
-      <c r="HG100" t="inlineStr"/>
-      <c r="HH100" t="inlineStr"/>
-      <c r="HI100" t="inlineStr"/>
-      <c r="HJ100" t="inlineStr"/>
-      <c r="HK100" t="inlineStr"/>
-      <c r="HL100" t="inlineStr"/>
-      <c r="HM100" t="inlineStr"/>
-      <c r="HN100" t="inlineStr"/>
-      <c r="HO100" t="inlineStr"/>
-      <c r="HP100" t="inlineStr"/>
-      <c r="HQ100" t="inlineStr"/>
-      <c r="HR100" t="inlineStr"/>
-      <c r="HS100" t="inlineStr"/>
-      <c r="HT100" t="inlineStr"/>
-      <c r="HU100" t="inlineStr"/>
-      <c r="HV100" t="inlineStr"/>
-      <c r="HW100" t="inlineStr"/>
-      <c r="HX100" t="inlineStr"/>
-      <c r="HY100" t="inlineStr"/>
-      <c r="HZ100" t="inlineStr"/>
-      <c r="IA100" t="inlineStr"/>
-      <c r="IB100" t="inlineStr"/>
-      <c r="IC100" t="inlineStr"/>
-      <c r="ID100" t="inlineStr"/>
-      <c r="IE100" t="inlineStr"/>
-      <c r="IF100" t="inlineStr"/>
-      <c r="IG100" t="inlineStr"/>
       <c r="IH100" t="inlineStr">
         <is>
           <t>9.29</t>
         </is>
       </c>
-      <c r="II100" t="inlineStr"/>
-      <c r="IJ100" t="inlineStr"/>
-      <c r="IK100" t="inlineStr"/>
-      <c r="IL100" t="inlineStr"/>
-      <c r="IM100" t="inlineStr"/>
-      <c r="IN100" t="inlineStr"/>
-      <c r="IO100" t="inlineStr"/>
-      <c r="IP100" t="inlineStr"/>
-      <c r="IQ100" t="inlineStr"/>
-      <c r="IR100" t="inlineStr"/>
-      <c r="IS100" t="inlineStr"/>
-      <c r="IT100" t="inlineStr"/>
-      <c r="IU100" t="inlineStr"/>
-      <c r="IV100" t="inlineStr"/>
-      <c r="IW100" t="inlineStr"/>
-      <c r="IX100" t="inlineStr"/>
-      <c r="IY100" t="inlineStr"/>
-      <c r="IZ100" t="inlineStr"/>
-      <c r="JA100" t="inlineStr"/>
-      <c r="JB100" t="inlineStr"/>
-      <c r="JC100" t="inlineStr"/>
-      <c r="JD100" t="inlineStr"/>
-      <c r="JE100" t="inlineStr"/>
-      <c r="JF100" t="inlineStr"/>
-      <c r="JG100" t="inlineStr"/>
-      <c r="JH100" t="inlineStr"/>
-      <c r="JI100" t="inlineStr"/>
-      <c r="JJ100" t="inlineStr"/>
-      <c r="JK100" t="inlineStr"/>
-      <c r="JL100" t="inlineStr"/>
-      <c r="JM100" t="inlineStr"/>
-      <c r="JN100" t="inlineStr"/>
-      <c r="JO100" t="inlineStr"/>
-      <c r="JP100" t="inlineStr"/>
-      <c r="JQ100" t="inlineStr"/>
-      <c r="JR100" t="inlineStr"/>
-      <c r="JS100" t="inlineStr"/>
-      <c r="JT100" t="inlineStr"/>
-      <c r="JU100" t="inlineStr"/>
       <c r="JV100" t="inlineStr">
         <is>
           <t>8.63</t>
@@ -21720,47 +21458,21 @@
           <t>108</t>
         </is>
       </c>
-      <c r="JX100" t="inlineStr"/>
-      <c r="JY100" t="inlineStr"/>
       <c r="JZ100" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="KA100" t="inlineStr"/>
-      <c r="KB100" t="inlineStr"/>
-      <c r="KC100" t="inlineStr"/>
-      <c r="KD100" t="inlineStr"/>
-      <c r="KE100" t="inlineStr"/>
-      <c r="KF100" t="inlineStr"/>
-      <c r="KG100" t="inlineStr"/>
-      <c r="KH100" t="inlineStr"/>
-      <c r="KI100" t="inlineStr"/>
-      <c r="KJ100" t="inlineStr"/>
       <c r="KK100" t="inlineStr">
         <is>
           <t>12.24</t>
         </is>
       </c>
-      <c r="KL100" t="inlineStr"/>
-      <c r="KM100" t="inlineStr"/>
-      <c r="KN100" t="inlineStr"/>
-      <c r="KO100" t="inlineStr"/>
-      <c r="KP100" t="inlineStr"/>
-      <c r="KQ100" t="inlineStr"/>
-      <c r="KR100" t="inlineStr"/>
-      <c r="KS100" t="inlineStr"/>
-      <c r="KT100" t="inlineStr"/>
-      <c r="KU100" t="inlineStr"/>
       <c r="KV100" t="inlineStr">
         <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="KW100" t="inlineStr"/>
-      <c r="KX100" t="inlineStr"/>
-      <c r="KY100" t="inlineStr"/>
-      <c r="KZ100" t="inlineStr"/>
       <c r="LA100" t="inlineStr">
         <is>
           <t>4.66</t>
@@ -21771,23 +21483,11 @@
           <t>106</t>
         </is>
       </c>
-      <c r="LC100" t="inlineStr"/>
-      <c r="LD100" t="inlineStr"/>
-      <c r="LE100" t="inlineStr"/>
-      <c r="LF100" t="inlineStr"/>
-      <c r="LG100" t="inlineStr"/>
-      <c r="LH100" t="inlineStr"/>
-      <c r="LI100" t="inlineStr"/>
-      <c r="LJ100" t="inlineStr"/>
-      <c r="LK100" t="inlineStr"/>
-      <c r="LL100" t="inlineStr"/>
       <c r="LM100" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="LN100" t="inlineStr"/>
-      <c r="LO100" t="inlineStr"/>
       <c r="LP100" t="inlineStr">
         <is>
           <t>0.35</t>
@@ -21798,97 +21498,4674 @@
           <t>41.00</t>
         </is>
       </c>
-      <c r="LR100" t="inlineStr"/>
-      <c r="LS100" t="inlineStr"/>
-      <c r="LT100" t="inlineStr"/>
-      <c r="LU100" t="inlineStr"/>
       <c r="LV100" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="LW100" t="inlineStr"/>
-      <c r="LX100" t="inlineStr"/>
-      <c r="LY100" t="inlineStr"/>
-      <c r="LZ100" t="inlineStr"/>
-      <c r="MA100" t="inlineStr"/>
-      <c r="MB100" t="inlineStr"/>
-      <c r="MC100" t="inlineStr"/>
-      <c r="MD100" t="inlineStr"/>
-      <c r="ME100" t="inlineStr"/>
       <c r="MF100" t="inlineStr">
         <is>
           <t>000000</t>
         </is>
       </c>
-      <c r="MG100" t="inlineStr"/>
-      <c r="MH100" t="inlineStr"/>
-      <c r="MI100" t="inlineStr"/>
-      <c r="MJ100" t="inlineStr"/>
-      <c r="MK100" t="inlineStr"/>
-      <c r="ML100" t="inlineStr"/>
-      <c r="MM100" t="inlineStr"/>
-      <c r="MN100" t="inlineStr"/>
-      <c r="MO100" t="inlineStr"/>
       <c r="MP100" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="MQ100" t="inlineStr"/>
-      <c r="MR100" t="inlineStr"/>
-      <c r="MS100" t="inlineStr"/>
-      <c r="MT100" t="inlineStr"/>
-      <c r="MU100" t="inlineStr"/>
-      <c r="MV100" t="inlineStr"/>
-      <c r="MW100" t="inlineStr"/>
-      <c r="MX100" t="inlineStr"/>
-      <c r="MY100" t="inlineStr"/>
-      <c r="MZ100" t="inlineStr"/>
-      <c r="NA100" t="inlineStr"/>
-      <c r="NB100" t="inlineStr"/>
-      <c r="NC100" t="inlineStr"/>
-      <c r="ND100" t="inlineStr"/>
-      <c r="NE100" t="inlineStr"/>
-      <c r="NF100" t="inlineStr"/>
-      <c r="NG100" t="inlineStr"/>
-      <c r="NH100" t="inlineStr"/>
-      <c r="NI100" t="inlineStr"/>
-      <c r="NJ100" t="inlineStr"/>
-      <c r="NK100" t="inlineStr"/>
-      <c r="NL100" t="inlineStr"/>
-      <c r="NM100" t="inlineStr"/>
-      <c r="NN100" t="inlineStr"/>
-      <c r="NO100" t="inlineStr"/>
-      <c r="NP100" t="inlineStr"/>
-      <c r="NQ100" t="inlineStr"/>
-      <c r="NR100" t="inlineStr"/>
-      <c r="NS100" t="inlineStr"/>
-      <c r="NT100" t="inlineStr"/>
-      <c r="NU100" t="inlineStr"/>
-      <c r="NV100" t="inlineStr"/>
-      <c r="NW100" t="inlineStr"/>
-      <c r="NX100" t="inlineStr"/>
-      <c r="NY100" t="inlineStr"/>
-      <c r="NZ100" t="inlineStr"/>
-      <c r="OA100" t="inlineStr"/>
-      <c r="OB100" t="inlineStr"/>
-      <c r="OC100" t="inlineStr"/>
-      <c r="OD100" t="inlineStr"/>
-      <c r="OE100" t="inlineStr"/>
-      <c r="OF100" t="inlineStr"/>
-      <c r="OG100" t="inlineStr"/>
-      <c r="OH100" t="inlineStr"/>
-      <c r="OI100" t="inlineStr"/>
-      <c r="OJ100" t="inlineStr"/>
-      <c r="OK100" t="inlineStr"/>
-      <c r="OL100" t="inlineStr"/>
-      <c r="OM100" t="inlineStr"/>
-      <c r="ON100" t="inlineStr"/>
-      <c r="OO100" t="inlineStr"/>
-      <c r="OP100" t="inlineStr"/>
-      <c r="OQ100" t="inlineStr"/>
-      <c r="OR100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK101" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM101" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN101" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO101" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP101" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ101" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR101" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA101" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB101" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO101" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP101" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ101" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS101" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT101" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX101" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY101" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA101" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB101" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC101" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD101" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE101" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF101" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR101" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT101" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU101" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV101" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW101" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX101" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY101" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE101" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF101" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI101" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ101" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK101" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL101" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM101" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN101" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO101" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET101" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV101" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW101" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX101" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY101" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ101" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA101" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ101" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA101" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB101" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC101" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD101" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX101" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY101" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ101" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA101" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB101" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC101" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG101" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH101" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ101" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK101" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL101" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM101" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN101" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO101" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA101" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC101" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD101" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE101" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF101" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG101" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH101" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM101" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN101" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO101" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP101" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ101" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="AK102" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AM102" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO102" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP102" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AQ102" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR102" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AS102" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AT102" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AU102" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BB102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BO102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ102" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS102" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT102" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU102" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV102" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW102" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX102" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BY102" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CA102" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CB102" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CC102" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="CD102" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CE102" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CF102" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CG102" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CH102" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CI102" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="CR102" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CT102" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CU102" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CV102" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CW102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CX102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CY102" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CZ102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="DA102" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DB102" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DD102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE102" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF102" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DG102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI102" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DJ102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK102" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DL102" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="EJ102" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="EK102" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EL102" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="EM102" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="EN102" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="EO102" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="EP102" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="EQ102" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ER102" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ET102" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="EV102" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EW102" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="EX102" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="EY102" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EZ102" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="FA102" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FB102" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FC102" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="FD102" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="FY102" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="FZ102" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GA102" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GB102" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GC102" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GD102" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GE102" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GF102" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GG102" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="HX102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ102" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA102" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB102" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC102" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID102" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE102" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF102" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG102" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="IH102" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="IJ102" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="IK102" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="IL102" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="IM102" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="IN102" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="IO102" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="IP102" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="IQ102" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="IR102" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="JA102" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC102" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JD102" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JE102" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JF102" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="JG102" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JH102" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="JI102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JJ102" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JK102" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JM102" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JN102" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JO102" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JP102" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JQ102" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JR102" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JS102" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="JT102" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JU102" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="NM103" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NN103" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="NO103" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="NP103" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NQ103" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="NR103" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="NS103" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NT103" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="NU103" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="NV103" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NW103" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="NX103" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="NY103" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="NZ103" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="OA103" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="AK104" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="BI104" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="BJ104" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="BL104" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BX104" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="BY104" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="CR104" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DR104" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="DS104" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="ED104" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE104" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="ES104" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="ET104" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="FM104" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="GQ104" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="GR104" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="GT104" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="HA104" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="HF104" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="HG104" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="HI104" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="HL104" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="HM104" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="HO104" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="HR104" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="HS104" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="HU104" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="IG104" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="IH104" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="JA104" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="KU104" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="KV104" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="KX104" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="MF104" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MQ104" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="MR104" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="MS104" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="MT104" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="MU104" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="MV104" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="MW104" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="MX104" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="MY104" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="MZ104" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="NA104" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="NB104" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="NC104" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="ND104" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="NE104" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="NF104" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="NG104" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="NH104" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="NI104" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="NJ104" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="NK104" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="NL104" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="NM104" t="inlineStr">
+        <is>
+          <t>22.1</t>
+        </is>
+      </c>
+      <c r="NN104" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="NO104" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="NP104" t="inlineStr">
+        <is>
+          <t>22.1</t>
+        </is>
+      </c>
+      <c r="NQ104" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="NR104" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="NS104" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="NT104" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="NU104" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="NV104" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="NW104" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="NX104" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="NY104" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="NZ104" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="OB104" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="OC104" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="OD104" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="OE104" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="OF104" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="OG104" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="OH104" t="inlineStr">
+        <is>
+          <t>0.837</t>
+        </is>
+      </c>
+      <c r="OI104" t="inlineStr">
+        <is>
+          <t>0.590</t>
+        </is>
+      </c>
+      <c r="OJ104" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="OK104" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="OL104" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="OM104" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="ON104" t="inlineStr">
+        <is>
+          <t>0.221</t>
+        </is>
+      </c>
+      <c r="OO104" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="OP104" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="OQ104" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="OR104" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="BF105" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG105" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BY105" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="DM105" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="DN105" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DS105" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="DU105" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ET105" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GH105" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GI105" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GL105" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GM105" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GN105" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GR105" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="GW105" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="GX105" t="inlineStr">
+        <is>
+          <t>-1100</t>
+        </is>
+      </c>
+      <c r="IH105" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="JV105" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="JW105" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="JZ105" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="KK105" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="KV105" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="LA105" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="LB105" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="LP105" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="LQ105" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="LV105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF105" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MP105" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK106" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM106" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN106" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO106" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP106" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ106" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR106" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA106" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB106" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO106" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP106" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ106" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS106" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT106" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX106" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY106" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA106" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB106" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC106" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD106" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE106" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF106" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR106" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT106" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU106" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV106" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW106" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX106" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY106" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE106" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF106" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI106" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ106" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK106" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL106" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM106" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN106" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO106" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET106" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV106" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW106" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX106" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY106" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ106" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA106" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ106" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA106" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB106" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC106" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD106" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX106" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY106" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ106" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA106" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB106" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC106" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG106" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH106" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ106" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK106" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL106" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM106" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN106" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO106" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA106" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC106" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD106" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE106" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF106" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG106" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH106" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM106" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN106" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO106" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP106" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ106" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK107" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AM107" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR107" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA107" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB107" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BO107" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP107" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ107" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS107" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT107" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX107" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY107" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CA107" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB107" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="CC107" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD107" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE107" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF107" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CR107" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CT107" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CU107" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CV107" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW107" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX107" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CY107" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="DD107" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF107" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG107" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH107" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI107" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="EJ107" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="EK107" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="EL107" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM107" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN107" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO107" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="ET107" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EV107" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW107" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="EX107" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY107" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ107" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA107" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FY107" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA107" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="GB107" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC107" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD107" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="HX107" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY107" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ107" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA107" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB107" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC107" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG107" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="IH107" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="IJ107" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="IK107" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL107" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="IM107" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="IN107" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO107" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="JA107" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JC107" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD107" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="JE107" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF107" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="JG107" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH107" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JM107" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN107" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO107" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP107" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ107" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR107" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="AK108" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AM108" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AN108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AP108" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ108" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="BA108" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB108" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BO108" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP108" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ108" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS108" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT108" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX108" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="BY108" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="CA108" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="CB108" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="CC108" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="CD108" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="CE108" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="CF108" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="CR108" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="CT108" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="CU108" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="CV108" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="CW108" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="CX108" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="CY108" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DD108" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE108" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF108" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DG108" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="DH108" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="DI108" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="EJ108" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="EK108" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="EL108" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="EM108" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="EN108" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="EO108" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="ET108" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="EV108" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="EW108" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="EX108" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="EY108" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="EZ108" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="FA108" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="FY108" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="FZ108" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GA108" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GB108" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GC108" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="GD108" t="inlineStr">
+        <is>
+          <t>-22</t>
+        </is>
+      </c>
+      <c r="HX108" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY108" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ108" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA108" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB108" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC108" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG108" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="IH108" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="IJ108" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="IK108" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="IL108" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="IM108" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="IN108" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="IO108" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="JA108" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC108" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JD108" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JE108" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JF108" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JG108" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JH108" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="JM108" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JN108" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JO108" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JP108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JQ108" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="JR108" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK109" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AM109" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN109" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO109" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AP109" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AQ109" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AR109" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ109" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA109" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="BB109" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO109" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP109" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ109" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS109" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT109" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX109" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="BY109" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="CA109" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="CB109" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CC109" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CD109" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="CE109" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="CF109" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CR109" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="CT109" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CU109" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CV109" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="CW109" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="CX109" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CY109" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="DD109" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DE109" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DF109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="DG109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="DH109" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DI109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="EJ109" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="EK109" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="EL109" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="EM109" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="EN109" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="EO109" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="ET109" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="EV109" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW109" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EX109" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EY109" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="EZ109" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="FA109" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="FY109" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="FZ109" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="GA109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GB109" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="GC109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="GD109" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="HX109" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY109" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ109" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA109" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB109" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC109" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG109" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="IH109" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="IJ109" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="IK109" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="IL109" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="IM109" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="IN109" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="IO109" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="JA109" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JC109" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="JD109" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="JE109" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JF109" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="JG109" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JH109" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="JM109" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="JN109" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="JO109" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="JP109" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="JQ109" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JR109" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="BF110" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG110" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BY110" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="DM110" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="DN110" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DS110" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="DU110" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ET110" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GH110" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GI110" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GL110" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GM110" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GN110" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GR110" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="GW110" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="GX110" t="inlineStr">
+        <is>
+          <t>-1100</t>
+        </is>
+      </c>
+      <c r="IH110" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="JV110" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="JW110" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="JZ110" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="KK110" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="KV110" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="LA110" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="LB110" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="LP110" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="LQ110" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="LV110" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF110" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MP110" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
+      <c r="AI111" t="inlineStr"/>
+      <c r="AJ111" t="inlineStr"/>
+      <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="inlineStr"/>
+      <c r="AM111" t="inlineStr"/>
+      <c r="AN111" t="inlineStr"/>
+      <c r="AO111" t="inlineStr"/>
+      <c r="AP111" t="inlineStr"/>
+      <c r="AQ111" t="inlineStr"/>
+      <c r="AR111" t="inlineStr"/>
+      <c r="AS111" t="inlineStr"/>
+      <c r="AT111" t="inlineStr"/>
+      <c r="AU111" t="inlineStr"/>
+      <c r="AV111" t="inlineStr"/>
+      <c r="AW111" t="inlineStr"/>
+      <c r="AX111" t="inlineStr"/>
+      <c r="AY111" t="inlineStr"/>
+      <c r="AZ111" t="inlineStr"/>
+      <c r="BA111" t="inlineStr"/>
+      <c r="BB111" t="inlineStr"/>
+      <c r="BC111" t="inlineStr"/>
+      <c r="BD111" t="inlineStr"/>
+      <c r="BE111" t="inlineStr"/>
+      <c r="BF111" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="BG111" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="BH111" t="inlineStr"/>
+      <c r="BI111" t="inlineStr"/>
+      <c r="BJ111" t="inlineStr"/>
+      <c r="BK111" t="inlineStr"/>
+      <c r="BL111" t="inlineStr"/>
+      <c r="BM111" t="inlineStr"/>
+      <c r="BN111" t="inlineStr"/>
+      <c r="BO111" t="inlineStr"/>
+      <c r="BP111" t="inlineStr"/>
+      <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
+      <c r="BS111" t="inlineStr"/>
+      <c r="BT111" t="inlineStr"/>
+      <c r="BU111" t="inlineStr"/>
+      <c r="BV111" t="inlineStr"/>
+      <c r="BW111" t="inlineStr"/>
+      <c r="BX111" t="inlineStr"/>
+      <c r="BY111" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="BZ111" t="inlineStr"/>
+      <c r="CA111" t="inlineStr"/>
+      <c r="CB111" t="inlineStr"/>
+      <c r="CC111" t="inlineStr"/>
+      <c r="CD111" t="inlineStr"/>
+      <c r="CE111" t="inlineStr"/>
+      <c r="CF111" t="inlineStr"/>
+      <c r="CG111" t="inlineStr"/>
+      <c r="CH111" t="inlineStr"/>
+      <c r="CI111" t="inlineStr"/>
+      <c r="CJ111" t="inlineStr"/>
+      <c r="CK111" t="inlineStr"/>
+      <c r="CL111" t="inlineStr"/>
+      <c r="CM111" t="inlineStr"/>
+      <c r="CN111" t="inlineStr"/>
+      <c r="CO111" t="inlineStr"/>
+      <c r="CP111" t="inlineStr"/>
+      <c r="CQ111" t="inlineStr"/>
+      <c r="CR111" t="inlineStr"/>
+      <c r="CS111" t="inlineStr"/>
+      <c r="CT111" t="inlineStr"/>
+      <c r="CU111" t="inlineStr"/>
+      <c r="CV111" t="inlineStr"/>
+      <c r="CW111" t="inlineStr"/>
+      <c r="CX111" t="inlineStr"/>
+      <c r="CY111" t="inlineStr"/>
+      <c r="CZ111" t="inlineStr"/>
+      <c r="DA111" t="inlineStr"/>
+      <c r="DB111" t="inlineStr"/>
+      <c r="DC111" t="inlineStr"/>
+      <c r="DD111" t="inlineStr"/>
+      <c r="DE111" t="inlineStr"/>
+      <c r="DF111" t="inlineStr"/>
+      <c r="DG111" t="inlineStr"/>
+      <c r="DH111" t="inlineStr"/>
+      <c r="DI111" t="inlineStr"/>
+      <c r="DJ111" t="inlineStr"/>
+      <c r="DK111" t="inlineStr"/>
+      <c r="DL111" t="inlineStr"/>
+      <c r="DM111" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="DN111" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DO111" t="inlineStr"/>
+      <c r="DP111" t="inlineStr"/>
+      <c r="DQ111" t="inlineStr"/>
+      <c r="DR111" t="inlineStr"/>
+      <c r="DS111" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="DT111" t="inlineStr"/>
+      <c r="DU111" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DV111" t="inlineStr"/>
+      <c r="DW111" t="inlineStr"/>
+      <c r="DX111" t="inlineStr"/>
+      <c r="DY111" t="inlineStr"/>
+      <c r="DZ111" t="inlineStr"/>
+      <c r="EA111" t="inlineStr"/>
+      <c r="EB111" t="inlineStr"/>
+      <c r="EC111" t="inlineStr"/>
+      <c r="ED111" t="inlineStr"/>
+      <c r="EE111" t="inlineStr"/>
+      <c r="EF111" t="inlineStr"/>
+      <c r="EG111" t="inlineStr"/>
+      <c r="EH111" t="inlineStr"/>
+      <c r="EI111" t="inlineStr"/>
+      <c r="EJ111" t="inlineStr"/>
+      <c r="EK111" t="inlineStr"/>
+      <c r="EL111" t="inlineStr"/>
+      <c r="EM111" t="inlineStr"/>
+      <c r="EN111" t="inlineStr"/>
+      <c r="EO111" t="inlineStr"/>
+      <c r="EP111" t="inlineStr"/>
+      <c r="EQ111" t="inlineStr"/>
+      <c r="ER111" t="inlineStr"/>
+      <c r="ES111" t="inlineStr"/>
+      <c r="ET111" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="EU111" t="inlineStr"/>
+      <c r="EV111" t="inlineStr"/>
+      <c r="EW111" t="inlineStr"/>
+      <c r="EX111" t="inlineStr"/>
+      <c r="EY111" t="inlineStr"/>
+      <c r="EZ111" t="inlineStr"/>
+      <c r="FA111" t="inlineStr"/>
+      <c r="FB111" t="inlineStr"/>
+      <c r="FC111" t="inlineStr"/>
+      <c r="FD111" t="inlineStr"/>
+      <c r="FE111" t="inlineStr"/>
+      <c r="FF111" t="inlineStr"/>
+      <c r="FG111" t="inlineStr"/>
+      <c r="FH111" t="inlineStr"/>
+      <c r="FI111" t="inlineStr"/>
+      <c r="FJ111" t="inlineStr"/>
+      <c r="FK111" t="inlineStr"/>
+      <c r="FL111" t="inlineStr"/>
+      <c r="FM111" t="inlineStr"/>
+      <c r="FN111" t="inlineStr"/>
+      <c r="FO111" t="inlineStr"/>
+      <c r="FP111" t="inlineStr"/>
+      <c r="FQ111" t="inlineStr"/>
+      <c r="FR111" t="inlineStr"/>
+      <c r="FS111" t="inlineStr"/>
+      <c r="FT111" t="inlineStr"/>
+      <c r="FU111" t="inlineStr"/>
+      <c r="FV111" t="inlineStr"/>
+      <c r="FW111" t="inlineStr"/>
+      <c r="FX111" t="inlineStr"/>
+      <c r="FY111" t="inlineStr"/>
+      <c r="FZ111" t="inlineStr"/>
+      <c r="GA111" t="inlineStr"/>
+      <c r="GB111" t="inlineStr"/>
+      <c r="GC111" t="inlineStr"/>
+      <c r="GD111" t="inlineStr"/>
+      <c r="GE111" t="inlineStr"/>
+      <c r="GF111" t="inlineStr"/>
+      <c r="GG111" t="inlineStr"/>
+      <c r="GH111" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GI111" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GJ111" t="inlineStr"/>
+      <c r="GK111" t="inlineStr"/>
+      <c r="GL111" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GM111" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GN111" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GO111" t="inlineStr"/>
+      <c r="GP111" t="inlineStr"/>
+      <c r="GQ111" t="inlineStr"/>
+      <c r="GR111" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="GS111" t="inlineStr"/>
+      <c r="GT111" t="inlineStr"/>
+      <c r="GU111" t="inlineStr"/>
+      <c r="GV111" t="inlineStr"/>
+      <c r="GW111" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GX111" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="GY111" t="inlineStr"/>
+      <c r="GZ111" t="inlineStr"/>
+      <c r="HA111" t="inlineStr"/>
+      <c r="HB111" t="inlineStr"/>
+      <c r="HC111" t="inlineStr"/>
+      <c r="HD111" t="inlineStr"/>
+      <c r="HE111" t="inlineStr"/>
+      <c r="HF111" t="inlineStr"/>
+      <c r="HG111" t="inlineStr"/>
+      <c r="HH111" t="inlineStr"/>
+      <c r="HI111" t="inlineStr"/>
+      <c r="HJ111" t="inlineStr"/>
+      <c r="HK111" t="inlineStr"/>
+      <c r="HL111" t="inlineStr"/>
+      <c r="HM111" t="inlineStr"/>
+      <c r="HN111" t="inlineStr"/>
+      <c r="HO111" t="inlineStr"/>
+      <c r="HP111" t="inlineStr"/>
+      <c r="HQ111" t="inlineStr"/>
+      <c r="HR111" t="inlineStr"/>
+      <c r="HS111" t="inlineStr"/>
+      <c r="HT111" t="inlineStr"/>
+      <c r="HU111" t="inlineStr"/>
+      <c r="HV111" t="inlineStr"/>
+      <c r="HW111" t="inlineStr"/>
+      <c r="HX111" t="inlineStr"/>
+      <c r="HY111" t="inlineStr"/>
+      <c r="HZ111" t="inlineStr"/>
+      <c r="IA111" t="inlineStr"/>
+      <c r="IB111" t="inlineStr"/>
+      <c r="IC111" t="inlineStr"/>
+      <c r="ID111" t="inlineStr"/>
+      <c r="IE111" t="inlineStr"/>
+      <c r="IF111" t="inlineStr"/>
+      <c r="IG111" t="inlineStr"/>
+      <c r="IH111" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="II111" t="inlineStr"/>
+      <c r="IJ111" t="inlineStr"/>
+      <c r="IK111" t="inlineStr"/>
+      <c r="IL111" t="inlineStr"/>
+      <c r="IM111" t="inlineStr"/>
+      <c r="IN111" t="inlineStr"/>
+      <c r="IO111" t="inlineStr"/>
+      <c r="IP111" t="inlineStr"/>
+      <c r="IQ111" t="inlineStr"/>
+      <c r="IR111" t="inlineStr"/>
+      <c r="IS111" t="inlineStr"/>
+      <c r="IT111" t="inlineStr"/>
+      <c r="IU111" t="inlineStr"/>
+      <c r="IV111" t="inlineStr"/>
+      <c r="IW111" t="inlineStr"/>
+      <c r="IX111" t="inlineStr"/>
+      <c r="IY111" t="inlineStr"/>
+      <c r="IZ111" t="inlineStr"/>
+      <c r="JA111" t="inlineStr"/>
+      <c r="JB111" t="inlineStr"/>
+      <c r="JC111" t="inlineStr"/>
+      <c r="JD111" t="inlineStr"/>
+      <c r="JE111" t="inlineStr"/>
+      <c r="JF111" t="inlineStr"/>
+      <c r="JG111" t="inlineStr"/>
+      <c r="JH111" t="inlineStr"/>
+      <c r="JI111" t="inlineStr"/>
+      <c r="JJ111" t="inlineStr"/>
+      <c r="JK111" t="inlineStr"/>
+      <c r="JL111" t="inlineStr"/>
+      <c r="JM111" t="inlineStr"/>
+      <c r="JN111" t="inlineStr"/>
+      <c r="JO111" t="inlineStr"/>
+      <c r="JP111" t="inlineStr"/>
+      <c r="JQ111" t="inlineStr"/>
+      <c r="JR111" t="inlineStr"/>
+      <c r="JS111" t="inlineStr"/>
+      <c r="JT111" t="inlineStr"/>
+      <c r="JU111" t="inlineStr"/>
+      <c r="JV111" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="JW111" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JX111" t="inlineStr"/>
+      <c r="JY111" t="inlineStr"/>
+      <c r="JZ111" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KA111" t="inlineStr"/>
+      <c r="KB111" t="inlineStr"/>
+      <c r="KC111" t="inlineStr"/>
+      <c r="KD111" t="inlineStr"/>
+      <c r="KE111" t="inlineStr"/>
+      <c r="KF111" t="inlineStr"/>
+      <c r="KG111" t="inlineStr"/>
+      <c r="KH111" t="inlineStr"/>
+      <c r="KI111" t="inlineStr"/>
+      <c r="KJ111" t="inlineStr"/>
+      <c r="KK111" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="KL111" t="inlineStr"/>
+      <c r="KM111" t="inlineStr"/>
+      <c r="KN111" t="inlineStr"/>
+      <c r="KO111" t="inlineStr"/>
+      <c r="KP111" t="inlineStr"/>
+      <c r="KQ111" t="inlineStr"/>
+      <c r="KR111" t="inlineStr"/>
+      <c r="KS111" t="inlineStr"/>
+      <c r="KT111" t="inlineStr"/>
+      <c r="KU111" t="inlineStr"/>
+      <c r="KV111" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="KW111" t="inlineStr"/>
+      <c r="KX111" t="inlineStr"/>
+      <c r="KY111" t="inlineStr"/>
+      <c r="KZ111" t="inlineStr"/>
+      <c r="LA111" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="LB111" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LC111" t="inlineStr"/>
+      <c r="LD111" t="inlineStr"/>
+      <c r="LE111" t="inlineStr"/>
+      <c r="LF111" t="inlineStr"/>
+      <c r="LG111" t="inlineStr"/>
+      <c r="LH111" t="inlineStr"/>
+      <c r="LI111" t="inlineStr"/>
+      <c r="LJ111" t="inlineStr"/>
+      <c r="LK111" t="inlineStr"/>
+      <c r="LL111" t="inlineStr"/>
+      <c r="LM111" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LN111" t="inlineStr"/>
+      <c r="LO111" t="inlineStr"/>
+      <c r="LP111" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="LQ111" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="LR111" t="inlineStr"/>
+      <c r="LS111" t="inlineStr"/>
+      <c r="LT111" t="inlineStr"/>
+      <c r="LU111" t="inlineStr"/>
+      <c r="LV111" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="LW111" t="inlineStr"/>
+      <c r="LX111" t="inlineStr"/>
+      <c r="LY111" t="inlineStr"/>
+      <c r="LZ111" t="inlineStr"/>
+      <c r="MA111" t="inlineStr"/>
+      <c r="MB111" t="inlineStr"/>
+      <c r="MC111" t="inlineStr"/>
+      <c r="MD111" t="inlineStr"/>
+      <c r="ME111" t="inlineStr"/>
+      <c r="MF111" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MG111" t="inlineStr"/>
+      <c r="MH111" t="inlineStr"/>
+      <c r="MI111" t="inlineStr"/>
+      <c r="MJ111" t="inlineStr"/>
+      <c r="MK111" t="inlineStr"/>
+      <c r="ML111" t="inlineStr"/>
+      <c r="MM111" t="inlineStr"/>
+      <c r="MN111" t="inlineStr"/>
+      <c r="MO111" t="inlineStr"/>
+      <c r="MP111" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="MQ111" t="inlineStr"/>
+      <c r="MR111" t="inlineStr"/>
+      <c r="MS111" t="inlineStr"/>
+      <c r="MT111" t="inlineStr"/>
+      <c r="MU111" t="inlineStr"/>
+      <c r="MV111" t="inlineStr"/>
+      <c r="MW111" t="inlineStr"/>
+      <c r="MX111" t="inlineStr"/>
+      <c r="MY111" t="inlineStr"/>
+      <c r="MZ111" t="inlineStr"/>
+      <c r="NA111" t="inlineStr"/>
+      <c r="NB111" t="inlineStr"/>
+      <c r="NC111" t="inlineStr"/>
+      <c r="ND111" t="inlineStr"/>
+      <c r="NE111" t="inlineStr"/>
+      <c r="NF111" t="inlineStr"/>
+      <c r="NG111" t="inlineStr"/>
+      <c r="NH111" t="inlineStr"/>
+      <c r="NI111" t="inlineStr"/>
+      <c r="NJ111" t="inlineStr"/>
+      <c r="NK111" t="inlineStr"/>
+      <c r="NL111" t="inlineStr"/>
+      <c r="NM111" t="inlineStr"/>
+      <c r="NN111" t="inlineStr"/>
+      <c r="NO111" t="inlineStr"/>
+      <c r="NP111" t="inlineStr"/>
+      <c r="NQ111" t="inlineStr"/>
+      <c r="NR111" t="inlineStr"/>
+      <c r="NS111" t="inlineStr"/>
+      <c r="NT111" t="inlineStr"/>
+      <c r="NU111" t="inlineStr"/>
+      <c r="NV111" t="inlineStr"/>
+      <c r="NW111" t="inlineStr"/>
+      <c r="NX111" t="inlineStr"/>
+      <c r="NY111" t="inlineStr"/>
+      <c r="NZ111" t="inlineStr"/>
+      <c r="OA111" t="inlineStr"/>
+      <c r="OB111" t="inlineStr"/>
+      <c r="OC111" t="inlineStr"/>
+      <c r="OD111" t="inlineStr"/>
+      <c r="OE111" t="inlineStr"/>
+      <c r="OF111" t="inlineStr"/>
+      <c r="OG111" t="inlineStr"/>
+      <c r="OH111" t="inlineStr"/>
+      <c r="OI111" t="inlineStr"/>
+      <c r="OJ111" t="inlineStr"/>
+      <c r="OK111" t="inlineStr"/>
+      <c r="OL111" t="inlineStr"/>
+      <c r="OM111" t="inlineStr"/>
+      <c r="ON111" t="inlineStr"/>
+      <c r="OO111" t="inlineStr"/>
+      <c r="OP111" t="inlineStr"/>
+      <c r="OQ111" t="inlineStr"/>
+      <c r="OR111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR111"/>
+  <dimension ref="A1:OR123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25635,66 +25635,11 @@
           <t>type05</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
-      <c r="AC111" t="inlineStr"/>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
-      <c r="AF111" t="inlineStr"/>
-      <c r="AG111" t="inlineStr"/>
-      <c r="AH111" t="inlineStr"/>
-      <c r="AI111" t="inlineStr"/>
-      <c r="AJ111" t="inlineStr"/>
-      <c r="AK111" t="inlineStr"/>
-      <c r="AL111" t="inlineStr"/>
-      <c r="AM111" t="inlineStr"/>
-      <c r="AN111" t="inlineStr"/>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
-      <c r="AT111" t="inlineStr"/>
-      <c r="AU111" t="inlineStr"/>
-      <c r="AV111" t="inlineStr"/>
-      <c r="AW111" t="inlineStr"/>
-      <c r="AX111" t="inlineStr"/>
-      <c r="AY111" t="inlineStr"/>
-      <c r="AZ111" t="inlineStr"/>
-      <c r="BA111" t="inlineStr"/>
-      <c r="BB111" t="inlineStr"/>
-      <c r="BC111" t="inlineStr"/>
-      <c r="BD111" t="inlineStr"/>
-      <c r="BE111" t="inlineStr"/>
       <c r="BF111" t="inlineStr">
         <is>
           <t>3.72</t>
@@ -25705,67 +25650,11 @@
           <t>90</t>
         </is>
       </c>
-      <c r="BH111" t="inlineStr"/>
-      <c r="BI111" t="inlineStr"/>
-      <c r="BJ111" t="inlineStr"/>
-      <c r="BK111" t="inlineStr"/>
-      <c r="BL111" t="inlineStr"/>
-      <c r="BM111" t="inlineStr"/>
-      <c r="BN111" t="inlineStr"/>
-      <c r="BO111" t="inlineStr"/>
-      <c r="BP111" t="inlineStr"/>
-      <c r="BQ111" t="inlineStr"/>
-      <c r="BR111" t="inlineStr"/>
-      <c r="BS111" t="inlineStr"/>
-      <c r="BT111" t="inlineStr"/>
-      <c r="BU111" t="inlineStr"/>
-      <c r="BV111" t="inlineStr"/>
-      <c r="BW111" t="inlineStr"/>
-      <c r="BX111" t="inlineStr"/>
       <c r="BY111" t="inlineStr">
         <is>
           <t>2.29</t>
         </is>
       </c>
-      <c r="BZ111" t="inlineStr"/>
-      <c r="CA111" t="inlineStr"/>
-      <c r="CB111" t="inlineStr"/>
-      <c r="CC111" t="inlineStr"/>
-      <c r="CD111" t="inlineStr"/>
-      <c r="CE111" t="inlineStr"/>
-      <c r="CF111" t="inlineStr"/>
-      <c r="CG111" t="inlineStr"/>
-      <c r="CH111" t="inlineStr"/>
-      <c r="CI111" t="inlineStr"/>
-      <c r="CJ111" t="inlineStr"/>
-      <c r="CK111" t="inlineStr"/>
-      <c r="CL111" t="inlineStr"/>
-      <c r="CM111" t="inlineStr"/>
-      <c r="CN111" t="inlineStr"/>
-      <c r="CO111" t="inlineStr"/>
-      <c r="CP111" t="inlineStr"/>
-      <c r="CQ111" t="inlineStr"/>
-      <c r="CR111" t="inlineStr"/>
-      <c r="CS111" t="inlineStr"/>
-      <c r="CT111" t="inlineStr"/>
-      <c r="CU111" t="inlineStr"/>
-      <c r="CV111" t="inlineStr"/>
-      <c r="CW111" t="inlineStr"/>
-      <c r="CX111" t="inlineStr"/>
-      <c r="CY111" t="inlineStr"/>
-      <c r="CZ111" t="inlineStr"/>
-      <c r="DA111" t="inlineStr"/>
-      <c r="DB111" t="inlineStr"/>
-      <c r="DC111" t="inlineStr"/>
-      <c r="DD111" t="inlineStr"/>
-      <c r="DE111" t="inlineStr"/>
-      <c r="DF111" t="inlineStr"/>
-      <c r="DG111" t="inlineStr"/>
-      <c r="DH111" t="inlineStr"/>
-      <c r="DI111" t="inlineStr"/>
-      <c r="DJ111" t="inlineStr"/>
-      <c r="DK111" t="inlineStr"/>
-      <c r="DL111" t="inlineStr"/>
       <c r="DM111" t="inlineStr">
         <is>
           <t>2.65</t>
@@ -25776,89 +25665,21 @@
           <t>87</t>
         </is>
       </c>
-      <c r="DO111" t="inlineStr"/>
-      <c r="DP111" t="inlineStr"/>
-      <c r="DQ111" t="inlineStr"/>
-      <c r="DR111" t="inlineStr"/>
       <c r="DS111" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="DT111" t="inlineStr"/>
       <c r="DU111" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="DV111" t="inlineStr"/>
-      <c r="DW111" t="inlineStr"/>
-      <c r="DX111" t="inlineStr"/>
-      <c r="DY111" t="inlineStr"/>
-      <c r="DZ111" t="inlineStr"/>
-      <c r="EA111" t="inlineStr"/>
-      <c r="EB111" t="inlineStr"/>
-      <c r="EC111" t="inlineStr"/>
-      <c r="ED111" t="inlineStr"/>
-      <c r="EE111" t="inlineStr"/>
-      <c r="EF111" t="inlineStr"/>
-      <c r="EG111" t="inlineStr"/>
-      <c r="EH111" t="inlineStr"/>
-      <c r="EI111" t="inlineStr"/>
-      <c r="EJ111" t="inlineStr"/>
-      <c r="EK111" t="inlineStr"/>
-      <c r="EL111" t="inlineStr"/>
-      <c r="EM111" t="inlineStr"/>
-      <c r="EN111" t="inlineStr"/>
-      <c r="EO111" t="inlineStr"/>
-      <c r="EP111" t="inlineStr"/>
-      <c r="EQ111" t="inlineStr"/>
-      <c r="ER111" t="inlineStr"/>
-      <c r="ES111" t="inlineStr"/>
       <c r="ET111" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="EU111" t="inlineStr"/>
-      <c r="EV111" t="inlineStr"/>
-      <c r="EW111" t="inlineStr"/>
-      <c r="EX111" t="inlineStr"/>
-      <c r="EY111" t="inlineStr"/>
-      <c r="EZ111" t="inlineStr"/>
-      <c r="FA111" t="inlineStr"/>
-      <c r="FB111" t="inlineStr"/>
-      <c r="FC111" t="inlineStr"/>
-      <c r="FD111" t="inlineStr"/>
-      <c r="FE111" t="inlineStr"/>
-      <c r="FF111" t="inlineStr"/>
-      <c r="FG111" t="inlineStr"/>
-      <c r="FH111" t="inlineStr"/>
-      <c r="FI111" t="inlineStr"/>
-      <c r="FJ111" t="inlineStr"/>
-      <c r="FK111" t="inlineStr"/>
-      <c r="FL111" t="inlineStr"/>
-      <c r="FM111" t="inlineStr"/>
-      <c r="FN111" t="inlineStr"/>
-      <c r="FO111" t="inlineStr"/>
-      <c r="FP111" t="inlineStr"/>
-      <c r="FQ111" t="inlineStr"/>
-      <c r="FR111" t="inlineStr"/>
-      <c r="FS111" t="inlineStr"/>
-      <c r="FT111" t="inlineStr"/>
-      <c r="FU111" t="inlineStr"/>
-      <c r="FV111" t="inlineStr"/>
-      <c r="FW111" t="inlineStr"/>
-      <c r="FX111" t="inlineStr"/>
-      <c r="FY111" t="inlineStr"/>
-      <c r="FZ111" t="inlineStr"/>
-      <c r="GA111" t="inlineStr"/>
-      <c r="GB111" t="inlineStr"/>
-      <c r="GC111" t="inlineStr"/>
-      <c r="GD111" t="inlineStr"/>
-      <c r="GE111" t="inlineStr"/>
-      <c r="GF111" t="inlineStr"/>
-      <c r="GG111" t="inlineStr"/>
       <c r="GH111" t="inlineStr">
         <is>
           <t>2.31</t>
@@ -25869,8 +25690,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="GJ111" t="inlineStr"/>
-      <c r="GK111" t="inlineStr"/>
       <c r="GL111" t="inlineStr">
         <is>
           <t>2.31</t>
@@ -25886,18 +25705,11 @@
           <t>56</t>
         </is>
       </c>
-      <c r="GO111" t="inlineStr"/>
-      <c r="GP111" t="inlineStr"/>
-      <c r="GQ111" t="inlineStr"/>
       <c r="GR111" t="inlineStr">
         <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="GS111" t="inlineStr"/>
-      <c r="GT111" t="inlineStr"/>
-      <c r="GU111" t="inlineStr"/>
-      <c r="GV111" t="inlineStr"/>
       <c r="GW111" t="inlineStr">
         <is>
           <t>0.41</t>
@@ -25908,85 +25720,11 @@
           <t>70</t>
         </is>
       </c>
-      <c r="GY111" t="inlineStr"/>
-      <c r="GZ111" t="inlineStr"/>
-      <c r="HA111" t="inlineStr"/>
-      <c r="HB111" t="inlineStr"/>
-      <c r="HC111" t="inlineStr"/>
-      <c r="HD111" t="inlineStr"/>
-      <c r="HE111" t="inlineStr"/>
-      <c r="HF111" t="inlineStr"/>
-      <c r="HG111" t="inlineStr"/>
-      <c r="HH111" t="inlineStr"/>
-      <c r="HI111" t="inlineStr"/>
-      <c r="HJ111" t="inlineStr"/>
-      <c r="HK111" t="inlineStr"/>
-      <c r="HL111" t="inlineStr"/>
-      <c r="HM111" t="inlineStr"/>
-      <c r="HN111" t="inlineStr"/>
-      <c r="HO111" t="inlineStr"/>
-      <c r="HP111" t="inlineStr"/>
-      <c r="HQ111" t="inlineStr"/>
-      <c r="HR111" t="inlineStr"/>
-      <c r="HS111" t="inlineStr"/>
-      <c r="HT111" t="inlineStr"/>
-      <c r="HU111" t="inlineStr"/>
-      <c r="HV111" t="inlineStr"/>
-      <c r="HW111" t="inlineStr"/>
-      <c r="HX111" t="inlineStr"/>
-      <c r="HY111" t="inlineStr"/>
-      <c r="HZ111" t="inlineStr"/>
-      <c r="IA111" t="inlineStr"/>
-      <c r="IB111" t="inlineStr"/>
-      <c r="IC111" t="inlineStr"/>
-      <c r="ID111" t="inlineStr"/>
-      <c r="IE111" t="inlineStr"/>
-      <c r="IF111" t="inlineStr"/>
-      <c r="IG111" t="inlineStr"/>
       <c r="IH111" t="inlineStr">
         <is>
           <t>6.22</t>
         </is>
       </c>
-      <c r="II111" t="inlineStr"/>
-      <c r="IJ111" t="inlineStr"/>
-      <c r="IK111" t="inlineStr"/>
-      <c r="IL111" t="inlineStr"/>
-      <c r="IM111" t="inlineStr"/>
-      <c r="IN111" t="inlineStr"/>
-      <c r="IO111" t="inlineStr"/>
-      <c r="IP111" t="inlineStr"/>
-      <c r="IQ111" t="inlineStr"/>
-      <c r="IR111" t="inlineStr"/>
-      <c r="IS111" t="inlineStr"/>
-      <c r="IT111" t="inlineStr"/>
-      <c r="IU111" t="inlineStr"/>
-      <c r="IV111" t="inlineStr"/>
-      <c r="IW111" t="inlineStr"/>
-      <c r="IX111" t="inlineStr"/>
-      <c r="IY111" t="inlineStr"/>
-      <c r="IZ111" t="inlineStr"/>
-      <c r="JA111" t="inlineStr"/>
-      <c r="JB111" t="inlineStr"/>
-      <c r="JC111" t="inlineStr"/>
-      <c r="JD111" t="inlineStr"/>
-      <c r="JE111" t="inlineStr"/>
-      <c r="JF111" t="inlineStr"/>
-      <c r="JG111" t="inlineStr"/>
-      <c r="JH111" t="inlineStr"/>
-      <c r="JI111" t="inlineStr"/>
-      <c r="JJ111" t="inlineStr"/>
-      <c r="JK111" t="inlineStr"/>
-      <c r="JL111" t="inlineStr"/>
-      <c r="JM111" t="inlineStr"/>
-      <c r="JN111" t="inlineStr"/>
-      <c r="JO111" t="inlineStr"/>
-      <c r="JP111" t="inlineStr"/>
-      <c r="JQ111" t="inlineStr"/>
-      <c r="JR111" t="inlineStr"/>
-      <c r="JS111" t="inlineStr"/>
-      <c r="JT111" t="inlineStr"/>
-      <c r="JU111" t="inlineStr"/>
       <c r="JV111" t="inlineStr">
         <is>
           <t>6.50</t>
@@ -25997,47 +25735,21 @@
           <t>96</t>
         </is>
       </c>
-      <c r="JX111" t="inlineStr"/>
-      <c r="JY111" t="inlineStr"/>
       <c r="JZ111" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="KA111" t="inlineStr"/>
-      <c r="KB111" t="inlineStr"/>
-      <c r="KC111" t="inlineStr"/>
-      <c r="KD111" t="inlineStr"/>
-      <c r="KE111" t="inlineStr"/>
-      <c r="KF111" t="inlineStr"/>
-      <c r="KG111" t="inlineStr"/>
-      <c r="KH111" t="inlineStr"/>
-      <c r="KI111" t="inlineStr"/>
-      <c r="KJ111" t="inlineStr"/>
       <c r="KK111" t="inlineStr">
         <is>
           <t>8.49</t>
         </is>
       </c>
-      <c r="KL111" t="inlineStr"/>
-      <c r="KM111" t="inlineStr"/>
-      <c r="KN111" t="inlineStr"/>
-      <c r="KO111" t="inlineStr"/>
-      <c r="KP111" t="inlineStr"/>
-      <c r="KQ111" t="inlineStr"/>
-      <c r="KR111" t="inlineStr"/>
-      <c r="KS111" t="inlineStr"/>
-      <c r="KT111" t="inlineStr"/>
-      <c r="KU111" t="inlineStr"/>
       <c r="KV111" t="inlineStr">
         <is>
           <t>2.49</t>
         </is>
       </c>
-      <c r="KW111" t="inlineStr"/>
-      <c r="KX111" t="inlineStr"/>
-      <c r="KY111" t="inlineStr"/>
-      <c r="KZ111" t="inlineStr"/>
       <c r="LA111" t="inlineStr">
         <is>
           <t>3.27</t>
@@ -26048,23 +25760,11 @@
           <t>76</t>
         </is>
       </c>
-      <c r="LC111" t="inlineStr"/>
-      <c r="LD111" t="inlineStr"/>
-      <c r="LE111" t="inlineStr"/>
-      <c r="LF111" t="inlineStr"/>
-      <c r="LG111" t="inlineStr"/>
-      <c r="LH111" t="inlineStr"/>
-      <c r="LI111" t="inlineStr"/>
-      <c r="LJ111" t="inlineStr"/>
-      <c r="LK111" t="inlineStr"/>
-      <c r="LL111" t="inlineStr"/>
       <c r="LM111" t="inlineStr">
         <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="LN111" t="inlineStr"/>
-      <c r="LO111" t="inlineStr"/>
       <c r="LP111" t="inlineStr">
         <is>
           <t>1.22</t>
@@ -26075,97 +25775,2251 @@
           <t>21.00</t>
         </is>
       </c>
-      <c r="LR111" t="inlineStr"/>
-      <c r="LS111" t="inlineStr"/>
-      <c r="LT111" t="inlineStr"/>
-      <c r="LU111" t="inlineStr"/>
       <c r="LV111" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="LW111" t="inlineStr"/>
-      <c r="LX111" t="inlineStr"/>
-      <c r="LY111" t="inlineStr"/>
-      <c r="LZ111" t="inlineStr"/>
-      <c r="MA111" t="inlineStr"/>
-      <c r="MB111" t="inlineStr"/>
-      <c r="MC111" t="inlineStr"/>
-      <c r="MD111" t="inlineStr"/>
-      <c r="ME111" t="inlineStr"/>
       <c r="MF111" t="inlineStr">
         <is>
           <t>001000</t>
         </is>
       </c>
-      <c r="MG111" t="inlineStr"/>
-      <c r="MH111" t="inlineStr"/>
-      <c r="MI111" t="inlineStr"/>
-      <c r="MJ111" t="inlineStr"/>
-      <c r="MK111" t="inlineStr"/>
-      <c r="ML111" t="inlineStr"/>
-      <c r="MM111" t="inlineStr"/>
-      <c r="MN111" t="inlineStr"/>
-      <c r="MO111" t="inlineStr"/>
       <c r="MP111" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="MQ111" t="inlineStr"/>
-      <c r="MR111" t="inlineStr"/>
-      <c r="MS111" t="inlineStr"/>
-      <c r="MT111" t="inlineStr"/>
-      <c r="MU111" t="inlineStr"/>
-      <c r="MV111" t="inlineStr"/>
-      <c r="MW111" t="inlineStr"/>
-      <c r="MX111" t="inlineStr"/>
-      <c r="MY111" t="inlineStr"/>
-      <c r="MZ111" t="inlineStr"/>
-      <c r="NA111" t="inlineStr"/>
-      <c r="NB111" t="inlineStr"/>
-      <c r="NC111" t="inlineStr"/>
-      <c r="ND111" t="inlineStr"/>
-      <c r="NE111" t="inlineStr"/>
-      <c r="NF111" t="inlineStr"/>
-      <c r="NG111" t="inlineStr"/>
-      <c r="NH111" t="inlineStr"/>
-      <c r="NI111" t="inlineStr"/>
-      <c r="NJ111" t="inlineStr"/>
-      <c r="NK111" t="inlineStr"/>
-      <c r="NL111" t="inlineStr"/>
-      <c r="NM111" t="inlineStr"/>
-      <c r="NN111" t="inlineStr"/>
-      <c r="NO111" t="inlineStr"/>
-      <c r="NP111" t="inlineStr"/>
-      <c r="NQ111" t="inlineStr"/>
-      <c r="NR111" t="inlineStr"/>
-      <c r="NS111" t="inlineStr"/>
-      <c r="NT111" t="inlineStr"/>
-      <c r="NU111" t="inlineStr"/>
-      <c r="NV111" t="inlineStr"/>
-      <c r="NW111" t="inlineStr"/>
-      <c r="NX111" t="inlineStr"/>
-      <c r="NY111" t="inlineStr"/>
-      <c r="NZ111" t="inlineStr"/>
-      <c r="OA111" t="inlineStr"/>
-      <c r="OB111" t="inlineStr"/>
-      <c r="OC111" t="inlineStr"/>
-      <c r="OD111" t="inlineStr"/>
-      <c r="OE111" t="inlineStr"/>
-      <c r="OF111" t="inlineStr"/>
-      <c r="OG111" t="inlineStr"/>
-      <c r="OH111" t="inlineStr"/>
-      <c r="OI111" t="inlineStr"/>
-      <c r="OJ111" t="inlineStr"/>
-      <c r="OK111" t="inlineStr"/>
-      <c r="OL111" t="inlineStr"/>
-      <c r="OM111" t="inlineStr"/>
-      <c r="ON111" t="inlineStr"/>
-      <c r="OO111" t="inlineStr"/>
-      <c r="OP111" t="inlineStr"/>
-      <c r="OQ111" t="inlineStr"/>
-      <c r="OR111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="BF117" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="BG117" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="BY117" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="DM117" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="DN117" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DS117" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="DU117" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="ET117" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GH117" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GI117" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GL117" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GM117" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GN117" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GR117" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="GW117" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GX117" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="IH117" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="JV117" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="JW117" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JZ117" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KK117" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="KV117" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="LA117" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="LB117" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LM117" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LP117" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="LQ117" t="inlineStr">
+        <is>
+          <t>-00</t>
+        </is>
+      </c>
+      <c r="LV117" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="MF117" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MP117" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="BF118" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="BG118" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="BY118" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="DM118" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="DN118" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DS118" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="DU118" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="ET118" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GH118" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GI118" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GL118" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GM118" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GN118" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GR118" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="GW118" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GX118" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="IH118" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="JV118" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="JW118" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JZ118" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KK118" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="KV118" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="LA118" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="LB118" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LM118" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LP118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="LQ118" t="inlineStr">
+        <is>
+          <t>-00</t>
+        </is>
+      </c>
+      <c r="LV118" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="MF118" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MP118" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="BF119" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="BG119" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="BY119" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="DM119" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="DN119" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DS119" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="DU119" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="ET119" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GH119" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GI119" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GL119" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GM119" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GN119" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GR119" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="GW119" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GX119" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="IH119" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="JV119" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="JW119" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JZ119" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KK119" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="KV119" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="LA119" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="LB119" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LM119" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LP119" t="inlineStr">
+        <is>
+          <t>&lt;1.00</t>
+        </is>
+      </c>
+      <c r="LQ119" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="LV119" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="MF119" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MP119" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK120" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM120" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN120" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO120" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP120" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ120" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR120" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW120" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX120" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY120" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA120" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB120" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO120" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP120" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ120" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS120" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT120" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX120" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY120" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA120" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB120" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC120" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD120" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE120" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF120" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR120" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT120" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU120" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV120" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW120" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX120" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY120" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE120" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF120" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI120" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ120" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK120" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL120" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM120" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN120" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO120" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET120" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV120" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW120" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX120" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY120" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ120" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA120" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ120" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA120" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB120" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC120" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD120" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX120" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY120" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ120" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA120" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB120" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC120" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG120" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH120" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ120" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK120" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL120" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM120" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN120" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO120" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA120" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC120" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD120" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE120" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF120" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG120" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH120" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM120" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN120" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO120" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP120" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ120" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK121" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM121" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN121" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO121" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP121" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ121" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR121" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW121" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX121" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY121" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA121" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB121" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO121" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP121" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ121" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS121" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT121" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX121" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY121" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA121" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB121" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC121" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD121" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE121" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF121" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR121" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT121" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU121" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV121" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW121" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX121" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY121" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE121" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF121" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI121" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ121" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK121" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL121" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM121" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN121" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO121" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET121" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV121" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW121" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX121" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY121" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ121" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA121" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ121" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA121" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB121" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC121" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD121" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX121" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY121" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ121" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA121" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB121" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC121" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG121" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH121" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ121" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK121" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL121" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM121" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN121" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO121" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA121" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC121" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD121" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE121" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF121" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG121" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH121" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM121" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN121" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO121" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP121" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ121" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="BF122" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG122" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BY122" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="DM122" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="DN122" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DS122" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="DU122" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ET122" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GH122" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GI122" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="GL122" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GM122" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GN122" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GR122" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="GW122" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="GX122" t="inlineStr">
+        <is>
+          <t>-1100</t>
+        </is>
+      </c>
+      <c r="IH122" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="JV122" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="JW122" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="JZ122" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="KK122" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="KV122" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="LA122" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="LB122" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="LP122" t="inlineStr">
+        <is>
+          <t>&lt;1.00</t>
+        </is>
+      </c>
+      <c r="LQ122" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="LV122" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF122" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MP122" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
+      <c r="AI123" t="inlineStr"/>
+      <c r="AJ123" t="inlineStr"/>
+      <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
+      <c r="AN123" t="inlineStr"/>
+      <c r="AO123" t="inlineStr"/>
+      <c r="AP123" t="inlineStr"/>
+      <c r="AQ123" t="inlineStr"/>
+      <c r="AR123" t="inlineStr"/>
+      <c r="AS123" t="inlineStr"/>
+      <c r="AT123" t="inlineStr"/>
+      <c r="AU123" t="inlineStr"/>
+      <c r="AV123" t="inlineStr"/>
+      <c r="AW123" t="inlineStr"/>
+      <c r="AX123" t="inlineStr"/>
+      <c r="AY123" t="inlineStr"/>
+      <c r="AZ123" t="inlineStr"/>
+      <c r="BA123" t="inlineStr"/>
+      <c r="BB123" t="inlineStr"/>
+      <c r="BC123" t="inlineStr"/>
+      <c r="BD123" t="inlineStr"/>
+      <c r="BE123" t="inlineStr"/>
+      <c r="BF123" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="BG123" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="BH123" t="inlineStr"/>
+      <c r="BI123" t="inlineStr"/>
+      <c r="BJ123" t="inlineStr"/>
+      <c r="BK123" t="inlineStr"/>
+      <c r="BL123" t="inlineStr"/>
+      <c r="BM123" t="inlineStr"/>
+      <c r="BN123" t="inlineStr"/>
+      <c r="BO123" t="inlineStr"/>
+      <c r="BP123" t="inlineStr"/>
+      <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
+      <c r="BS123" t="inlineStr"/>
+      <c r="BT123" t="inlineStr"/>
+      <c r="BU123" t="inlineStr"/>
+      <c r="BV123" t="inlineStr"/>
+      <c r="BW123" t="inlineStr"/>
+      <c r="BX123" t="inlineStr"/>
+      <c r="BY123" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="BZ123" t="inlineStr"/>
+      <c r="CA123" t="inlineStr"/>
+      <c r="CB123" t="inlineStr"/>
+      <c r="CC123" t="inlineStr"/>
+      <c r="CD123" t="inlineStr"/>
+      <c r="CE123" t="inlineStr"/>
+      <c r="CF123" t="inlineStr"/>
+      <c r="CG123" t="inlineStr"/>
+      <c r="CH123" t="inlineStr"/>
+      <c r="CI123" t="inlineStr"/>
+      <c r="CJ123" t="inlineStr"/>
+      <c r="CK123" t="inlineStr"/>
+      <c r="CL123" t="inlineStr"/>
+      <c r="CM123" t="inlineStr"/>
+      <c r="CN123" t="inlineStr"/>
+      <c r="CO123" t="inlineStr"/>
+      <c r="CP123" t="inlineStr"/>
+      <c r="CQ123" t="inlineStr"/>
+      <c r="CR123" t="inlineStr"/>
+      <c r="CS123" t="inlineStr"/>
+      <c r="CT123" t="inlineStr"/>
+      <c r="CU123" t="inlineStr"/>
+      <c r="CV123" t="inlineStr"/>
+      <c r="CW123" t="inlineStr"/>
+      <c r="CX123" t="inlineStr"/>
+      <c r="CY123" t="inlineStr"/>
+      <c r="CZ123" t="inlineStr"/>
+      <c r="DA123" t="inlineStr"/>
+      <c r="DB123" t="inlineStr"/>
+      <c r="DC123" t="inlineStr"/>
+      <c r="DD123" t="inlineStr"/>
+      <c r="DE123" t="inlineStr"/>
+      <c r="DF123" t="inlineStr"/>
+      <c r="DG123" t="inlineStr"/>
+      <c r="DH123" t="inlineStr"/>
+      <c r="DI123" t="inlineStr"/>
+      <c r="DJ123" t="inlineStr"/>
+      <c r="DK123" t="inlineStr"/>
+      <c r="DL123" t="inlineStr"/>
+      <c r="DM123" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="DN123" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DO123" t="inlineStr"/>
+      <c r="DP123" t="inlineStr"/>
+      <c r="DQ123" t="inlineStr"/>
+      <c r="DR123" t="inlineStr"/>
+      <c r="DS123" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="DT123" t="inlineStr"/>
+      <c r="DU123" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DV123" t="inlineStr"/>
+      <c r="DW123" t="inlineStr"/>
+      <c r="DX123" t="inlineStr"/>
+      <c r="DY123" t="inlineStr"/>
+      <c r="DZ123" t="inlineStr"/>
+      <c r="EA123" t="inlineStr"/>
+      <c r="EB123" t="inlineStr"/>
+      <c r="EC123" t="inlineStr"/>
+      <c r="ED123" t="inlineStr"/>
+      <c r="EE123" t="inlineStr"/>
+      <c r="EF123" t="inlineStr"/>
+      <c r="EG123" t="inlineStr"/>
+      <c r="EH123" t="inlineStr"/>
+      <c r="EI123" t="inlineStr"/>
+      <c r="EJ123" t="inlineStr"/>
+      <c r="EK123" t="inlineStr"/>
+      <c r="EL123" t="inlineStr"/>
+      <c r="EM123" t="inlineStr"/>
+      <c r="EN123" t="inlineStr"/>
+      <c r="EO123" t="inlineStr"/>
+      <c r="EP123" t="inlineStr"/>
+      <c r="EQ123" t="inlineStr"/>
+      <c r="ER123" t="inlineStr"/>
+      <c r="ES123" t="inlineStr"/>
+      <c r="ET123" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="EU123" t="inlineStr"/>
+      <c r="EV123" t="inlineStr"/>
+      <c r="EW123" t="inlineStr"/>
+      <c r="EX123" t="inlineStr"/>
+      <c r="EY123" t="inlineStr"/>
+      <c r="EZ123" t="inlineStr"/>
+      <c r="FA123" t="inlineStr"/>
+      <c r="FB123" t="inlineStr"/>
+      <c r="FC123" t="inlineStr"/>
+      <c r="FD123" t="inlineStr"/>
+      <c r="FE123" t="inlineStr"/>
+      <c r="FF123" t="inlineStr"/>
+      <c r="FG123" t="inlineStr"/>
+      <c r="FH123" t="inlineStr"/>
+      <c r="FI123" t="inlineStr"/>
+      <c r="FJ123" t="inlineStr"/>
+      <c r="FK123" t="inlineStr"/>
+      <c r="FL123" t="inlineStr"/>
+      <c r="FM123" t="inlineStr"/>
+      <c r="FN123" t="inlineStr"/>
+      <c r="FO123" t="inlineStr"/>
+      <c r="FP123" t="inlineStr"/>
+      <c r="FQ123" t="inlineStr"/>
+      <c r="FR123" t="inlineStr"/>
+      <c r="FS123" t="inlineStr"/>
+      <c r="FT123" t="inlineStr"/>
+      <c r="FU123" t="inlineStr"/>
+      <c r="FV123" t="inlineStr"/>
+      <c r="FW123" t="inlineStr"/>
+      <c r="FX123" t="inlineStr"/>
+      <c r="FY123" t="inlineStr"/>
+      <c r="FZ123" t="inlineStr"/>
+      <c r="GA123" t="inlineStr"/>
+      <c r="GB123" t="inlineStr"/>
+      <c r="GC123" t="inlineStr"/>
+      <c r="GD123" t="inlineStr"/>
+      <c r="GE123" t="inlineStr"/>
+      <c r="GF123" t="inlineStr"/>
+      <c r="GG123" t="inlineStr"/>
+      <c r="GH123" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GI123" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GJ123" t="inlineStr"/>
+      <c r="GK123" t="inlineStr"/>
+      <c r="GL123" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GM123" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GN123" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GO123" t="inlineStr"/>
+      <c r="GP123" t="inlineStr"/>
+      <c r="GQ123" t="inlineStr"/>
+      <c r="GR123" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="GS123" t="inlineStr"/>
+      <c r="GT123" t="inlineStr"/>
+      <c r="GU123" t="inlineStr"/>
+      <c r="GV123" t="inlineStr"/>
+      <c r="GW123" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GX123" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="GY123" t="inlineStr"/>
+      <c r="GZ123" t="inlineStr"/>
+      <c r="HA123" t="inlineStr"/>
+      <c r="HB123" t="inlineStr"/>
+      <c r="HC123" t="inlineStr"/>
+      <c r="HD123" t="inlineStr"/>
+      <c r="HE123" t="inlineStr"/>
+      <c r="HF123" t="inlineStr"/>
+      <c r="HG123" t="inlineStr"/>
+      <c r="HH123" t="inlineStr"/>
+      <c r="HI123" t="inlineStr"/>
+      <c r="HJ123" t="inlineStr"/>
+      <c r="HK123" t="inlineStr"/>
+      <c r="HL123" t="inlineStr"/>
+      <c r="HM123" t="inlineStr"/>
+      <c r="HN123" t="inlineStr"/>
+      <c r="HO123" t="inlineStr"/>
+      <c r="HP123" t="inlineStr"/>
+      <c r="HQ123" t="inlineStr"/>
+      <c r="HR123" t="inlineStr"/>
+      <c r="HS123" t="inlineStr"/>
+      <c r="HT123" t="inlineStr"/>
+      <c r="HU123" t="inlineStr"/>
+      <c r="HV123" t="inlineStr"/>
+      <c r="HW123" t="inlineStr"/>
+      <c r="HX123" t="inlineStr"/>
+      <c r="HY123" t="inlineStr"/>
+      <c r="HZ123" t="inlineStr"/>
+      <c r="IA123" t="inlineStr"/>
+      <c r="IB123" t="inlineStr"/>
+      <c r="IC123" t="inlineStr"/>
+      <c r="ID123" t="inlineStr"/>
+      <c r="IE123" t="inlineStr"/>
+      <c r="IF123" t="inlineStr"/>
+      <c r="IG123" t="inlineStr"/>
+      <c r="IH123" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="II123" t="inlineStr"/>
+      <c r="IJ123" t="inlineStr"/>
+      <c r="IK123" t="inlineStr"/>
+      <c r="IL123" t="inlineStr"/>
+      <c r="IM123" t="inlineStr"/>
+      <c r="IN123" t="inlineStr"/>
+      <c r="IO123" t="inlineStr"/>
+      <c r="IP123" t="inlineStr"/>
+      <c r="IQ123" t="inlineStr"/>
+      <c r="IR123" t="inlineStr"/>
+      <c r="IS123" t="inlineStr"/>
+      <c r="IT123" t="inlineStr"/>
+      <c r="IU123" t="inlineStr"/>
+      <c r="IV123" t="inlineStr"/>
+      <c r="IW123" t="inlineStr"/>
+      <c r="IX123" t="inlineStr"/>
+      <c r="IY123" t="inlineStr"/>
+      <c r="IZ123" t="inlineStr"/>
+      <c r="JA123" t="inlineStr"/>
+      <c r="JB123" t="inlineStr"/>
+      <c r="JC123" t="inlineStr"/>
+      <c r="JD123" t="inlineStr"/>
+      <c r="JE123" t="inlineStr"/>
+      <c r="JF123" t="inlineStr"/>
+      <c r="JG123" t="inlineStr"/>
+      <c r="JH123" t="inlineStr"/>
+      <c r="JI123" t="inlineStr"/>
+      <c r="JJ123" t="inlineStr"/>
+      <c r="JK123" t="inlineStr"/>
+      <c r="JL123" t="inlineStr"/>
+      <c r="JM123" t="inlineStr"/>
+      <c r="JN123" t="inlineStr"/>
+      <c r="JO123" t="inlineStr"/>
+      <c r="JP123" t="inlineStr"/>
+      <c r="JQ123" t="inlineStr"/>
+      <c r="JR123" t="inlineStr"/>
+      <c r="JS123" t="inlineStr"/>
+      <c r="JT123" t="inlineStr"/>
+      <c r="JU123" t="inlineStr"/>
+      <c r="JV123" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="JW123" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JX123" t="inlineStr"/>
+      <c r="JY123" t="inlineStr"/>
+      <c r="JZ123" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KA123" t="inlineStr"/>
+      <c r="KB123" t="inlineStr"/>
+      <c r="KC123" t="inlineStr"/>
+      <c r="KD123" t="inlineStr"/>
+      <c r="KE123" t="inlineStr"/>
+      <c r="KF123" t="inlineStr"/>
+      <c r="KG123" t="inlineStr"/>
+      <c r="KH123" t="inlineStr"/>
+      <c r="KI123" t="inlineStr"/>
+      <c r="KJ123" t="inlineStr"/>
+      <c r="KK123" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="KL123" t="inlineStr"/>
+      <c r="KM123" t="inlineStr"/>
+      <c r="KN123" t="inlineStr"/>
+      <c r="KO123" t="inlineStr"/>
+      <c r="KP123" t="inlineStr"/>
+      <c r="KQ123" t="inlineStr"/>
+      <c r="KR123" t="inlineStr"/>
+      <c r="KS123" t="inlineStr"/>
+      <c r="KT123" t="inlineStr"/>
+      <c r="KU123" t="inlineStr"/>
+      <c r="KV123" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="KW123" t="inlineStr"/>
+      <c r="KX123" t="inlineStr"/>
+      <c r="KY123" t="inlineStr"/>
+      <c r="KZ123" t="inlineStr"/>
+      <c r="LA123" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="LB123" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LC123" t="inlineStr"/>
+      <c r="LD123" t="inlineStr"/>
+      <c r="LE123" t="inlineStr"/>
+      <c r="LF123" t="inlineStr"/>
+      <c r="LG123" t="inlineStr"/>
+      <c r="LH123" t="inlineStr"/>
+      <c r="LI123" t="inlineStr"/>
+      <c r="LJ123" t="inlineStr"/>
+      <c r="LK123" t="inlineStr"/>
+      <c r="LL123" t="inlineStr"/>
+      <c r="LM123" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LN123" t="inlineStr"/>
+      <c r="LO123" t="inlineStr"/>
+      <c r="LP123" t="inlineStr">
+        <is>
+          <t>&lt;1.00</t>
+        </is>
+      </c>
+      <c r="LQ123" t="inlineStr">
+        <is>
+          <t>1.</t>
+        </is>
+      </c>
+      <c r="LR123" t="inlineStr"/>
+      <c r="LS123" t="inlineStr"/>
+      <c r="LT123" t="inlineStr"/>
+      <c r="LU123" t="inlineStr"/>
+      <c r="LV123" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="LW123" t="inlineStr"/>
+      <c r="LX123" t="inlineStr"/>
+      <c r="LY123" t="inlineStr"/>
+      <c r="LZ123" t="inlineStr"/>
+      <c r="MA123" t="inlineStr"/>
+      <c r="MB123" t="inlineStr"/>
+      <c r="MC123" t="inlineStr"/>
+      <c r="MD123" t="inlineStr"/>
+      <c r="ME123" t="inlineStr"/>
+      <c r="MF123" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MG123" t="inlineStr"/>
+      <c r="MH123" t="inlineStr"/>
+      <c r="MI123" t="inlineStr"/>
+      <c r="MJ123" t="inlineStr"/>
+      <c r="MK123" t="inlineStr"/>
+      <c r="ML123" t="inlineStr"/>
+      <c r="MM123" t="inlineStr"/>
+      <c r="MN123" t="inlineStr"/>
+      <c r="MO123" t="inlineStr"/>
+      <c r="MP123" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="MQ123" t="inlineStr"/>
+      <c r="MR123" t="inlineStr"/>
+      <c r="MS123" t="inlineStr"/>
+      <c r="MT123" t="inlineStr"/>
+      <c r="MU123" t="inlineStr"/>
+      <c r="MV123" t="inlineStr"/>
+      <c r="MW123" t="inlineStr"/>
+      <c r="MX123" t="inlineStr"/>
+      <c r="MY123" t="inlineStr"/>
+      <c r="MZ123" t="inlineStr"/>
+      <c r="NA123" t="inlineStr"/>
+      <c r="NB123" t="inlineStr"/>
+      <c r="NC123" t="inlineStr"/>
+      <c r="ND123" t="inlineStr"/>
+      <c r="NE123" t="inlineStr"/>
+      <c r="NF123" t="inlineStr"/>
+      <c r="NG123" t="inlineStr"/>
+      <c r="NH123" t="inlineStr"/>
+      <c r="NI123" t="inlineStr"/>
+      <c r="NJ123" t="inlineStr"/>
+      <c r="NK123" t="inlineStr"/>
+      <c r="NL123" t="inlineStr"/>
+      <c r="NM123" t="inlineStr"/>
+      <c r="NN123" t="inlineStr"/>
+      <c r="NO123" t="inlineStr"/>
+      <c r="NP123" t="inlineStr"/>
+      <c r="NQ123" t="inlineStr"/>
+      <c r="NR123" t="inlineStr"/>
+      <c r="NS123" t="inlineStr"/>
+      <c r="NT123" t="inlineStr"/>
+      <c r="NU123" t="inlineStr"/>
+      <c r="NV123" t="inlineStr"/>
+      <c r="NW123" t="inlineStr"/>
+      <c r="NX123" t="inlineStr"/>
+      <c r="NY123" t="inlineStr"/>
+      <c r="NZ123" t="inlineStr"/>
+      <c r="OA123" t="inlineStr"/>
+      <c r="OB123" t="inlineStr"/>
+      <c r="OC123" t="inlineStr"/>
+      <c r="OD123" t="inlineStr"/>
+      <c r="OE123" t="inlineStr"/>
+      <c r="OF123" t="inlineStr"/>
+      <c r="OG123" t="inlineStr"/>
+      <c r="OH123" t="inlineStr"/>
+      <c r="OI123" t="inlineStr"/>
+      <c r="OJ123" t="inlineStr"/>
+      <c r="OK123" t="inlineStr"/>
+      <c r="OL123" t="inlineStr"/>
+      <c r="OM123" t="inlineStr"/>
+      <c r="ON123" t="inlineStr"/>
+      <c r="OO123" t="inlineStr"/>
+      <c r="OP123" t="inlineStr"/>
+      <c r="OQ123" t="inlineStr"/>
+      <c r="OR123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR234"/>
+  <dimension ref="A1:OR248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37651,413 +37651,1011 @@
           <t>type06</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="inlineStr"/>
-      <c r="T234" t="inlineStr"/>
-      <c r="U234" t="inlineStr"/>
-      <c r="V234" t="inlineStr"/>
-      <c r="W234" t="inlineStr"/>
-      <c r="X234" t="inlineStr"/>
-      <c r="Y234" t="inlineStr"/>
-      <c r="Z234" t="inlineStr"/>
-      <c r="AA234" t="inlineStr"/>
-      <c r="AB234" t="inlineStr"/>
-      <c r="AC234" t="inlineStr"/>
-      <c r="AD234" t="inlineStr"/>
-      <c r="AE234" t="inlineStr"/>
-      <c r="AF234" t="inlineStr"/>
-      <c r="AG234" t="inlineStr"/>
-      <c r="AH234" t="inlineStr"/>
-      <c r="AI234" t="inlineStr"/>
-      <c r="AJ234" t="inlineStr"/>
-      <c r="AK234" t="inlineStr"/>
-      <c r="AL234" t="inlineStr"/>
-      <c r="AM234" t="inlineStr"/>
-      <c r="AN234" t="inlineStr"/>
-      <c r="AO234" t="inlineStr"/>
-      <c r="AP234" t="inlineStr"/>
-      <c r="AQ234" t="inlineStr"/>
-      <c r="AR234" t="inlineStr"/>
-      <c r="AS234" t="inlineStr"/>
-      <c r="AT234" t="inlineStr"/>
-      <c r="AU234" t="inlineStr"/>
-      <c r="AV234" t="inlineStr"/>
-      <c r="AW234" t="inlineStr"/>
-      <c r="AX234" t="inlineStr"/>
-      <c r="AY234" t="inlineStr"/>
-      <c r="AZ234" t="inlineStr"/>
-      <c r="BA234" t="inlineStr"/>
-      <c r="BB234" t="inlineStr"/>
-      <c r="BC234" t="inlineStr"/>
-      <c r="BD234" t="inlineStr"/>
-      <c r="BE234" t="inlineStr"/>
-      <c r="BF234" t="inlineStr"/>
-      <c r="BG234" t="inlineStr"/>
-      <c r="BH234" t="inlineStr"/>
-      <c r="BI234" t="inlineStr"/>
-      <c r="BJ234" t="inlineStr"/>
-      <c r="BK234" t="inlineStr"/>
-      <c r="BL234" t="inlineStr"/>
-      <c r="BM234" t="inlineStr"/>
-      <c r="BN234" t="inlineStr"/>
-      <c r="BO234" t="inlineStr"/>
-      <c r="BP234" t="inlineStr"/>
-      <c r="BQ234" t="inlineStr"/>
-      <c r="BR234" t="inlineStr"/>
-      <c r="BS234" t="inlineStr"/>
-      <c r="BT234" t="inlineStr"/>
-      <c r="BU234" t="inlineStr"/>
-      <c r="BV234" t="inlineStr"/>
-      <c r="BW234" t="inlineStr"/>
-      <c r="BX234" t="inlineStr"/>
-      <c r="BY234" t="inlineStr"/>
-      <c r="BZ234" t="inlineStr"/>
-      <c r="CA234" t="inlineStr"/>
-      <c r="CB234" t="inlineStr"/>
-      <c r="CC234" t="inlineStr"/>
-      <c r="CD234" t="inlineStr"/>
-      <c r="CE234" t="inlineStr"/>
-      <c r="CF234" t="inlineStr"/>
-      <c r="CG234" t="inlineStr"/>
-      <c r="CH234" t="inlineStr"/>
-      <c r="CI234" t="inlineStr"/>
-      <c r="CJ234" t="inlineStr"/>
-      <c r="CK234" t="inlineStr"/>
-      <c r="CL234" t="inlineStr"/>
-      <c r="CM234" t="inlineStr"/>
-      <c r="CN234" t="inlineStr"/>
-      <c r="CO234" t="inlineStr"/>
-      <c r="CP234" t="inlineStr"/>
-      <c r="CQ234" t="inlineStr"/>
-      <c r="CR234" t="inlineStr"/>
-      <c r="CS234" t="inlineStr"/>
-      <c r="CT234" t="inlineStr"/>
-      <c r="CU234" t="inlineStr"/>
-      <c r="CV234" t="inlineStr"/>
-      <c r="CW234" t="inlineStr"/>
-      <c r="CX234" t="inlineStr"/>
-      <c r="CY234" t="inlineStr"/>
-      <c r="CZ234" t="inlineStr"/>
-      <c r="DA234" t="inlineStr"/>
-      <c r="DB234" t="inlineStr"/>
-      <c r="DC234" t="inlineStr"/>
-      <c r="DD234" t="inlineStr"/>
-      <c r="DE234" t="inlineStr"/>
-      <c r="DF234" t="inlineStr"/>
-      <c r="DG234" t="inlineStr"/>
-      <c r="DH234" t="inlineStr"/>
-      <c r="DI234" t="inlineStr"/>
-      <c r="DJ234" t="inlineStr"/>
-      <c r="DK234" t="inlineStr"/>
-      <c r="DL234" t="inlineStr"/>
-      <c r="DM234" t="inlineStr"/>
-      <c r="DN234" t="inlineStr"/>
-      <c r="DO234" t="inlineStr"/>
-      <c r="DP234" t="inlineStr"/>
-      <c r="DQ234" t="inlineStr"/>
-      <c r="DR234" t="inlineStr"/>
-      <c r="DS234" t="inlineStr"/>
-      <c r="DT234" t="inlineStr"/>
-      <c r="DU234" t="inlineStr"/>
-      <c r="DV234" t="inlineStr"/>
-      <c r="DW234" t="inlineStr"/>
-      <c r="DX234" t="inlineStr"/>
-      <c r="DY234" t="inlineStr"/>
-      <c r="DZ234" t="inlineStr"/>
-      <c r="EA234" t="inlineStr"/>
-      <c r="EB234" t="inlineStr"/>
-      <c r="EC234" t="inlineStr"/>
-      <c r="ED234" t="inlineStr"/>
-      <c r="EE234" t="inlineStr"/>
-      <c r="EF234" t="inlineStr"/>
-      <c r="EG234" t="inlineStr"/>
-      <c r="EH234" t="inlineStr"/>
-      <c r="EI234" t="inlineStr"/>
-      <c r="EJ234" t="inlineStr"/>
-      <c r="EK234" t="inlineStr"/>
-      <c r="EL234" t="inlineStr"/>
-      <c r="EM234" t="inlineStr"/>
-      <c r="EN234" t="inlineStr"/>
-      <c r="EO234" t="inlineStr"/>
-      <c r="EP234" t="inlineStr"/>
-      <c r="EQ234" t="inlineStr"/>
-      <c r="ER234" t="inlineStr"/>
-      <c r="ES234" t="inlineStr"/>
-      <c r="ET234" t="inlineStr"/>
-      <c r="EU234" t="inlineStr"/>
-      <c r="EV234" t="inlineStr"/>
-      <c r="EW234" t="inlineStr"/>
-      <c r="EX234" t="inlineStr"/>
-      <c r="EY234" t="inlineStr"/>
-      <c r="EZ234" t="inlineStr"/>
-      <c r="FA234" t="inlineStr"/>
-      <c r="FB234" t="inlineStr"/>
-      <c r="FC234" t="inlineStr"/>
-      <c r="FD234" t="inlineStr"/>
-      <c r="FE234" t="inlineStr"/>
-      <c r="FF234" t="inlineStr"/>
-      <c r="FG234" t="inlineStr"/>
-      <c r="FH234" t="inlineStr"/>
-      <c r="FI234" t="inlineStr"/>
-      <c r="FJ234" t="inlineStr"/>
-      <c r="FK234" t="inlineStr"/>
-      <c r="FL234" t="inlineStr"/>
-      <c r="FM234" t="inlineStr"/>
-      <c r="FN234" t="inlineStr"/>
-      <c r="FO234" t="inlineStr"/>
-      <c r="FP234" t="inlineStr"/>
-      <c r="FQ234" t="inlineStr"/>
-      <c r="FR234" t="inlineStr"/>
-      <c r="FS234" t="inlineStr"/>
-      <c r="FT234" t="inlineStr"/>
-      <c r="FU234" t="inlineStr"/>
-      <c r="FV234" t="inlineStr"/>
-      <c r="FW234" t="inlineStr"/>
-      <c r="FX234" t="inlineStr"/>
-      <c r="FY234" t="inlineStr"/>
-      <c r="FZ234" t="inlineStr"/>
-      <c r="GA234" t="inlineStr"/>
-      <c r="GB234" t="inlineStr"/>
-      <c r="GC234" t="inlineStr"/>
-      <c r="GD234" t="inlineStr"/>
-      <c r="GE234" t="inlineStr"/>
-      <c r="GF234" t="inlineStr"/>
-      <c r="GG234" t="inlineStr"/>
-      <c r="GH234" t="inlineStr"/>
-      <c r="GI234" t="inlineStr"/>
-      <c r="GJ234" t="inlineStr"/>
-      <c r="GK234" t="inlineStr"/>
-      <c r="GL234" t="inlineStr"/>
-      <c r="GM234" t="inlineStr"/>
-      <c r="GN234" t="inlineStr"/>
-      <c r="GO234" t="inlineStr"/>
-      <c r="GP234" t="inlineStr"/>
-      <c r="GQ234" t="inlineStr"/>
-      <c r="GR234" t="inlineStr"/>
-      <c r="GS234" t="inlineStr"/>
-      <c r="GT234" t="inlineStr"/>
-      <c r="GU234" t="inlineStr"/>
-      <c r="GV234" t="inlineStr"/>
-      <c r="GW234" t="inlineStr"/>
-      <c r="GX234" t="inlineStr"/>
-      <c r="GY234" t="inlineStr"/>
-      <c r="GZ234" t="inlineStr"/>
-      <c r="HA234" t="inlineStr"/>
-      <c r="HB234" t="inlineStr"/>
-      <c r="HC234" t="inlineStr"/>
-      <c r="HD234" t="inlineStr"/>
-      <c r="HE234" t="inlineStr"/>
-      <c r="HF234" t="inlineStr"/>
-      <c r="HG234" t="inlineStr"/>
-      <c r="HH234" t="inlineStr"/>
-      <c r="HI234" t="inlineStr"/>
-      <c r="HJ234" t="inlineStr"/>
-      <c r="HK234" t="inlineStr"/>
-      <c r="HL234" t="inlineStr"/>
-      <c r="HM234" t="inlineStr"/>
-      <c r="HN234" t="inlineStr"/>
-      <c r="HO234" t="inlineStr"/>
-      <c r="HP234" t="inlineStr"/>
-      <c r="HQ234" t="inlineStr"/>
-      <c r="HR234" t="inlineStr"/>
-      <c r="HS234" t="inlineStr"/>
-      <c r="HT234" t="inlineStr"/>
-      <c r="HU234" t="inlineStr"/>
-      <c r="HV234" t="inlineStr"/>
-      <c r="HW234" t="inlineStr"/>
-      <c r="HX234" t="inlineStr"/>
-      <c r="HY234" t="inlineStr"/>
-      <c r="HZ234" t="inlineStr"/>
-      <c r="IA234" t="inlineStr"/>
-      <c r="IB234" t="inlineStr"/>
-      <c r="IC234" t="inlineStr"/>
-      <c r="ID234" t="inlineStr"/>
-      <c r="IE234" t="inlineStr"/>
-      <c r="IF234" t="inlineStr"/>
-      <c r="IG234" t="inlineStr"/>
-      <c r="IH234" t="inlineStr"/>
-      <c r="II234" t="inlineStr"/>
-      <c r="IJ234" t="inlineStr"/>
-      <c r="IK234" t="inlineStr"/>
-      <c r="IL234" t="inlineStr"/>
-      <c r="IM234" t="inlineStr"/>
-      <c r="IN234" t="inlineStr"/>
-      <c r="IO234" t="inlineStr"/>
-      <c r="IP234" t="inlineStr"/>
-      <c r="IQ234" t="inlineStr"/>
-      <c r="IR234" t="inlineStr"/>
-      <c r="IS234" t="inlineStr"/>
-      <c r="IT234" t="inlineStr"/>
-      <c r="IU234" t="inlineStr"/>
-      <c r="IV234" t="inlineStr"/>
-      <c r="IW234" t="inlineStr"/>
-      <c r="IX234" t="inlineStr"/>
-      <c r="IY234" t="inlineStr"/>
-      <c r="IZ234" t="inlineStr"/>
-      <c r="JA234" t="inlineStr"/>
-      <c r="JB234" t="inlineStr"/>
-      <c r="JC234" t="inlineStr"/>
-      <c r="JD234" t="inlineStr"/>
-      <c r="JE234" t="inlineStr"/>
-      <c r="JF234" t="inlineStr"/>
-      <c r="JG234" t="inlineStr"/>
-      <c r="JH234" t="inlineStr"/>
-      <c r="JI234" t="inlineStr"/>
-      <c r="JJ234" t="inlineStr"/>
-      <c r="JK234" t="inlineStr"/>
-      <c r="JL234" t="inlineStr"/>
-      <c r="JM234" t="inlineStr"/>
-      <c r="JN234" t="inlineStr"/>
-      <c r="JO234" t="inlineStr"/>
-      <c r="JP234" t="inlineStr"/>
-      <c r="JQ234" t="inlineStr"/>
-      <c r="JR234" t="inlineStr"/>
-      <c r="JS234" t="inlineStr"/>
-      <c r="JT234" t="inlineStr"/>
-      <c r="JU234" t="inlineStr"/>
-      <c r="JV234" t="inlineStr"/>
-      <c r="JW234" t="inlineStr"/>
-      <c r="JX234" t="inlineStr"/>
-      <c r="JY234" t="inlineStr"/>
-      <c r="JZ234" t="inlineStr"/>
-      <c r="KA234" t="inlineStr"/>
-      <c r="KB234" t="inlineStr"/>
-      <c r="KC234" t="inlineStr"/>
-      <c r="KD234" t="inlineStr"/>
-      <c r="KE234" t="inlineStr"/>
-      <c r="KF234" t="inlineStr"/>
-      <c r="KG234" t="inlineStr"/>
-      <c r="KH234" t="inlineStr"/>
-      <c r="KI234" t="inlineStr"/>
-      <c r="KJ234" t="inlineStr"/>
-      <c r="KK234" t="inlineStr"/>
-      <c r="KL234" t="inlineStr"/>
-      <c r="KM234" t="inlineStr"/>
-      <c r="KN234" t="inlineStr"/>
-      <c r="KO234" t="inlineStr"/>
-      <c r="KP234" t="inlineStr"/>
-      <c r="KQ234" t="inlineStr"/>
-      <c r="KR234" t="inlineStr"/>
-      <c r="KS234" t="inlineStr"/>
-      <c r="KT234" t="inlineStr"/>
-      <c r="KU234" t="inlineStr"/>
-      <c r="KV234" t="inlineStr"/>
-      <c r="KW234" t="inlineStr"/>
-      <c r="KX234" t="inlineStr"/>
-      <c r="KY234" t="inlineStr"/>
-      <c r="KZ234" t="inlineStr"/>
-      <c r="LA234" t="inlineStr"/>
-      <c r="LB234" t="inlineStr"/>
-      <c r="LC234" t="inlineStr"/>
-      <c r="LD234" t="inlineStr"/>
-      <c r="LE234" t="inlineStr"/>
-      <c r="LF234" t="inlineStr"/>
-      <c r="LG234" t="inlineStr"/>
-      <c r="LH234" t="inlineStr"/>
-      <c r="LI234" t="inlineStr"/>
-      <c r="LJ234" t="inlineStr"/>
-      <c r="LK234" t="inlineStr"/>
-      <c r="LL234" t="inlineStr"/>
-      <c r="LM234" t="inlineStr"/>
-      <c r="LN234" t="inlineStr"/>
-      <c r="LO234" t="inlineStr"/>
-      <c r="LP234" t="inlineStr"/>
-      <c r="LQ234" t="inlineStr"/>
-      <c r="LR234" t="inlineStr"/>
-      <c r="LS234" t="inlineStr"/>
-      <c r="LT234" t="inlineStr"/>
-      <c r="LU234" t="inlineStr"/>
-      <c r="LV234" t="inlineStr"/>
-      <c r="LW234" t="inlineStr"/>
-      <c r="LX234" t="inlineStr"/>
-      <c r="LY234" t="inlineStr"/>
-      <c r="LZ234" t="inlineStr"/>
-      <c r="MA234" t="inlineStr"/>
-      <c r="MB234" t="inlineStr"/>
-      <c r="MC234" t="inlineStr"/>
-      <c r="MD234" t="inlineStr"/>
-      <c r="ME234" t="inlineStr"/>
-      <c r="MF234" t="inlineStr"/>
-      <c r="MG234" t="inlineStr"/>
-      <c r="MH234" t="inlineStr"/>
-      <c r="MI234" t="inlineStr"/>
-      <c r="MJ234" t="inlineStr"/>
-      <c r="MK234" t="inlineStr"/>
-      <c r="ML234" t="inlineStr"/>
-      <c r="MM234" t="inlineStr"/>
-      <c r="MN234" t="inlineStr"/>
-      <c r="MO234" t="inlineStr"/>
-      <c r="MP234" t="inlineStr"/>
-      <c r="MQ234" t="inlineStr"/>
-      <c r="MR234" t="inlineStr"/>
-      <c r="MS234" t="inlineStr"/>
-      <c r="MT234" t="inlineStr"/>
-      <c r="MU234" t="inlineStr"/>
-      <c r="MV234" t="inlineStr"/>
-      <c r="MW234" t="inlineStr"/>
-      <c r="MX234" t="inlineStr"/>
-      <c r="MY234" t="inlineStr"/>
-      <c r="MZ234" t="inlineStr"/>
-      <c r="NA234" t="inlineStr"/>
-      <c r="NB234" t="inlineStr"/>
-      <c r="NC234" t="inlineStr"/>
-      <c r="ND234" t="inlineStr"/>
-      <c r="NE234" t="inlineStr"/>
-      <c r="NF234" t="inlineStr"/>
-      <c r="NG234" t="inlineStr"/>
-      <c r="NH234" t="inlineStr"/>
-      <c r="NI234" t="inlineStr"/>
-      <c r="NJ234" t="inlineStr"/>
-      <c r="NK234" t="inlineStr"/>
-      <c r="NL234" t="inlineStr"/>
-      <c r="NM234" t="inlineStr"/>
-      <c r="NN234" t="inlineStr"/>
-      <c r="NO234" t="inlineStr"/>
-      <c r="NP234" t="inlineStr"/>
-      <c r="NQ234" t="inlineStr"/>
-      <c r="NR234" t="inlineStr"/>
-      <c r="NS234" t="inlineStr"/>
-      <c r="NT234" t="inlineStr"/>
-      <c r="NU234" t="inlineStr"/>
-      <c r="NV234" t="inlineStr"/>
-      <c r="NW234" t="inlineStr"/>
-      <c r="NX234" t="inlineStr"/>
-      <c r="NY234" t="inlineStr"/>
-      <c r="NZ234" t="inlineStr"/>
-      <c r="OA234" t="inlineStr"/>
-      <c r="OB234" t="inlineStr"/>
-      <c r="OC234" t="inlineStr"/>
-      <c r="OD234" t="inlineStr"/>
-      <c r="OE234" t="inlineStr"/>
-      <c r="OF234" t="inlineStr"/>
-      <c r="OG234" t="inlineStr"/>
-      <c r="OH234" t="inlineStr"/>
-      <c r="OI234" t="inlineStr"/>
-      <c r="OJ234" t="inlineStr"/>
-      <c r="OK234" t="inlineStr"/>
-      <c r="OL234" t="inlineStr"/>
-      <c r="OM234" t="inlineStr"/>
-      <c r="ON234" t="inlineStr"/>
-      <c r="OO234" t="inlineStr"/>
-      <c r="OP234" t="inlineStr"/>
-      <c r="OQ234" t="inlineStr"/>
-      <c r="OR234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK236" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM236" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN236" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO236" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP236" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ236" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR236" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW236" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX236" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY236" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ236" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA236" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB236" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO236" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP236" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ236" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR236" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS236" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT236" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX236" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY236" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA236" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB236" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC236" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD236" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE236" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF236" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR236" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT236" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU236" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV236" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW236" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX236" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY236" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE236" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF236" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI236" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ236" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK236" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL236" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM236" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN236" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO236" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET236" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV236" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW236" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX236" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY236" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ236" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA236" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY236" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ236" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA236" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB236" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC236" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD236" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX236" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY236" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ236" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA236" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB236" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC236" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG236" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH236" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ236" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK236" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL236" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM236" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN236" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO236" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA236" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC236" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD236" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE236" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF236" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG236" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH236" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM236" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN236" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO236" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP236" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ236" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR236" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr"/>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
+      <c r="Y248" t="inlineStr"/>
+      <c r="Z248" t="inlineStr"/>
+      <c r="AA248" t="inlineStr"/>
+      <c r="AB248" t="inlineStr"/>
+      <c r="AC248" t="inlineStr"/>
+      <c r="AD248" t="inlineStr"/>
+      <c r="AE248" t="inlineStr"/>
+      <c r="AF248" t="inlineStr"/>
+      <c r="AG248" t="inlineStr"/>
+      <c r="AH248" t="inlineStr"/>
+      <c r="AI248" t="inlineStr"/>
+      <c r="AJ248" t="inlineStr"/>
+      <c r="AK248" t="inlineStr"/>
+      <c r="AL248" t="inlineStr"/>
+      <c r="AM248" t="inlineStr"/>
+      <c r="AN248" t="inlineStr"/>
+      <c r="AO248" t="inlineStr"/>
+      <c r="AP248" t="inlineStr"/>
+      <c r="AQ248" t="inlineStr"/>
+      <c r="AR248" t="inlineStr"/>
+      <c r="AS248" t="inlineStr"/>
+      <c r="AT248" t="inlineStr"/>
+      <c r="AU248" t="inlineStr"/>
+      <c r="AV248" t="inlineStr"/>
+      <c r="AW248" t="inlineStr"/>
+      <c r="AX248" t="inlineStr"/>
+      <c r="AY248" t="inlineStr"/>
+      <c r="AZ248" t="inlineStr"/>
+      <c r="BA248" t="inlineStr"/>
+      <c r="BB248" t="inlineStr"/>
+      <c r="BC248" t="inlineStr"/>
+      <c r="BD248" t="inlineStr"/>
+      <c r="BE248" t="inlineStr"/>
+      <c r="BF248" t="inlineStr"/>
+      <c r="BG248" t="inlineStr"/>
+      <c r="BH248" t="inlineStr"/>
+      <c r="BI248" t="inlineStr"/>
+      <c r="BJ248" t="inlineStr"/>
+      <c r="BK248" t="inlineStr"/>
+      <c r="BL248" t="inlineStr"/>
+      <c r="BM248" t="inlineStr"/>
+      <c r="BN248" t="inlineStr"/>
+      <c r="BO248" t="inlineStr"/>
+      <c r="BP248" t="inlineStr"/>
+      <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr"/>
+      <c r="BS248" t="inlineStr"/>
+      <c r="BT248" t="inlineStr"/>
+      <c r="BU248" t="inlineStr"/>
+      <c r="BV248" t="inlineStr"/>
+      <c r="BW248" t="inlineStr"/>
+      <c r="BX248" t="inlineStr"/>
+      <c r="BY248" t="inlineStr"/>
+      <c r="BZ248" t="inlineStr"/>
+      <c r="CA248" t="inlineStr"/>
+      <c r="CB248" t="inlineStr"/>
+      <c r="CC248" t="inlineStr"/>
+      <c r="CD248" t="inlineStr"/>
+      <c r="CE248" t="inlineStr"/>
+      <c r="CF248" t="inlineStr"/>
+      <c r="CG248" t="inlineStr"/>
+      <c r="CH248" t="inlineStr"/>
+      <c r="CI248" t="inlineStr"/>
+      <c r="CJ248" t="inlineStr"/>
+      <c r="CK248" t="inlineStr"/>
+      <c r="CL248" t="inlineStr"/>
+      <c r="CM248" t="inlineStr"/>
+      <c r="CN248" t="inlineStr"/>
+      <c r="CO248" t="inlineStr"/>
+      <c r="CP248" t="inlineStr"/>
+      <c r="CQ248" t="inlineStr"/>
+      <c r="CR248" t="inlineStr"/>
+      <c r="CS248" t="inlineStr"/>
+      <c r="CT248" t="inlineStr"/>
+      <c r="CU248" t="inlineStr"/>
+      <c r="CV248" t="inlineStr"/>
+      <c r="CW248" t="inlineStr"/>
+      <c r="CX248" t="inlineStr"/>
+      <c r="CY248" t="inlineStr"/>
+      <c r="CZ248" t="inlineStr"/>
+      <c r="DA248" t="inlineStr"/>
+      <c r="DB248" t="inlineStr"/>
+      <c r="DC248" t="inlineStr"/>
+      <c r="DD248" t="inlineStr"/>
+      <c r="DE248" t="inlineStr"/>
+      <c r="DF248" t="inlineStr"/>
+      <c r="DG248" t="inlineStr"/>
+      <c r="DH248" t="inlineStr"/>
+      <c r="DI248" t="inlineStr"/>
+      <c r="DJ248" t="inlineStr"/>
+      <c r="DK248" t="inlineStr"/>
+      <c r="DL248" t="inlineStr"/>
+      <c r="DM248" t="inlineStr"/>
+      <c r="DN248" t="inlineStr"/>
+      <c r="DO248" t="inlineStr"/>
+      <c r="DP248" t="inlineStr"/>
+      <c r="DQ248" t="inlineStr"/>
+      <c r="DR248" t="inlineStr"/>
+      <c r="DS248" t="inlineStr"/>
+      <c r="DT248" t="inlineStr"/>
+      <c r="DU248" t="inlineStr"/>
+      <c r="DV248" t="inlineStr"/>
+      <c r="DW248" t="inlineStr"/>
+      <c r="DX248" t="inlineStr"/>
+      <c r="DY248" t="inlineStr"/>
+      <c r="DZ248" t="inlineStr"/>
+      <c r="EA248" t="inlineStr"/>
+      <c r="EB248" t="inlineStr"/>
+      <c r="EC248" t="inlineStr"/>
+      <c r="ED248" t="inlineStr"/>
+      <c r="EE248" t="inlineStr"/>
+      <c r="EF248" t="inlineStr"/>
+      <c r="EG248" t="inlineStr"/>
+      <c r="EH248" t="inlineStr"/>
+      <c r="EI248" t="inlineStr"/>
+      <c r="EJ248" t="inlineStr"/>
+      <c r="EK248" t="inlineStr"/>
+      <c r="EL248" t="inlineStr"/>
+      <c r="EM248" t="inlineStr"/>
+      <c r="EN248" t="inlineStr"/>
+      <c r="EO248" t="inlineStr"/>
+      <c r="EP248" t="inlineStr"/>
+      <c r="EQ248" t="inlineStr"/>
+      <c r="ER248" t="inlineStr"/>
+      <c r="ES248" t="inlineStr"/>
+      <c r="ET248" t="inlineStr"/>
+      <c r="EU248" t="inlineStr"/>
+      <c r="EV248" t="inlineStr"/>
+      <c r="EW248" t="inlineStr"/>
+      <c r="EX248" t="inlineStr"/>
+      <c r="EY248" t="inlineStr"/>
+      <c r="EZ248" t="inlineStr"/>
+      <c r="FA248" t="inlineStr"/>
+      <c r="FB248" t="inlineStr"/>
+      <c r="FC248" t="inlineStr"/>
+      <c r="FD248" t="inlineStr"/>
+      <c r="FE248" t="inlineStr"/>
+      <c r="FF248" t="inlineStr"/>
+      <c r="FG248" t="inlineStr"/>
+      <c r="FH248" t="inlineStr"/>
+      <c r="FI248" t="inlineStr"/>
+      <c r="FJ248" t="inlineStr"/>
+      <c r="FK248" t="inlineStr"/>
+      <c r="FL248" t="inlineStr"/>
+      <c r="FM248" t="inlineStr"/>
+      <c r="FN248" t="inlineStr"/>
+      <c r="FO248" t="inlineStr"/>
+      <c r="FP248" t="inlineStr"/>
+      <c r="FQ248" t="inlineStr"/>
+      <c r="FR248" t="inlineStr"/>
+      <c r="FS248" t="inlineStr"/>
+      <c r="FT248" t="inlineStr"/>
+      <c r="FU248" t="inlineStr"/>
+      <c r="FV248" t="inlineStr"/>
+      <c r="FW248" t="inlineStr"/>
+      <c r="FX248" t="inlineStr"/>
+      <c r="FY248" t="inlineStr"/>
+      <c r="FZ248" t="inlineStr"/>
+      <c r="GA248" t="inlineStr"/>
+      <c r="GB248" t="inlineStr"/>
+      <c r="GC248" t="inlineStr"/>
+      <c r="GD248" t="inlineStr"/>
+      <c r="GE248" t="inlineStr"/>
+      <c r="GF248" t="inlineStr"/>
+      <c r="GG248" t="inlineStr"/>
+      <c r="GH248" t="inlineStr"/>
+      <c r="GI248" t="inlineStr"/>
+      <c r="GJ248" t="inlineStr"/>
+      <c r="GK248" t="inlineStr"/>
+      <c r="GL248" t="inlineStr"/>
+      <c r="GM248" t="inlineStr"/>
+      <c r="GN248" t="inlineStr"/>
+      <c r="GO248" t="inlineStr"/>
+      <c r="GP248" t="inlineStr"/>
+      <c r="GQ248" t="inlineStr"/>
+      <c r="GR248" t="inlineStr"/>
+      <c r="GS248" t="inlineStr"/>
+      <c r="GT248" t="inlineStr"/>
+      <c r="GU248" t="inlineStr"/>
+      <c r="GV248" t="inlineStr"/>
+      <c r="GW248" t="inlineStr"/>
+      <c r="GX248" t="inlineStr"/>
+      <c r="GY248" t="inlineStr"/>
+      <c r="GZ248" t="inlineStr"/>
+      <c r="HA248" t="inlineStr"/>
+      <c r="HB248" t="inlineStr"/>
+      <c r="HC248" t="inlineStr"/>
+      <c r="HD248" t="inlineStr"/>
+      <c r="HE248" t="inlineStr"/>
+      <c r="HF248" t="inlineStr"/>
+      <c r="HG248" t="inlineStr"/>
+      <c r="HH248" t="inlineStr"/>
+      <c r="HI248" t="inlineStr"/>
+      <c r="HJ248" t="inlineStr"/>
+      <c r="HK248" t="inlineStr"/>
+      <c r="HL248" t="inlineStr"/>
+      <c r="HM248" t="inlineStr"/>
+      <c r="HN248" t="inlineStr"/>
+      <c r="HO248" t="inlineStr"/>
+      <c r="HP248" t="inlineStr"/>
+      <c r="HQ248" t="inlineStr"/>
+      <c r="HR248" t="inlineStr"/>
+      <c r="HS248" t="inlineStr"/>
+      <c r="HT248" t="inlineStr"/>
+      <c r="HU248" t="inlineStr"/>
+      <c r="HV248" t="inlineStr"/>
+      <c r="HW248" t="inlineStr"/>
+      <c r="HX248" t="inlineStr"/>
+      <c r="HY248" t="inlineStr"/>
+      <c r="HZ248" t="inlineStr"/>
+      <c r="IA248" t="inlineStr"/>
+      <c r="IB248" t="inlineStr"/>
+      <c r="IC248" t="inlineStr"/>
+      <c r="ID248" t="inlineStr"/>
+      <c r="IE248" t="inlineStr"/>
+      <c r="IF248" t="inlineStr"/>
+      <c r="IG248" t="inlineStr"/>
+      <c r="IH248" t="inlineStr"/>
+      <c r="II248" t="inlineStr"/>
+      <c r="IJ248" t="inlineStr"/>
+      <c r="IK248" t="inlineStr"/>
+      <c r="IL248" t="inlineStr"/>
+      <c r="IM248" t="inlineStr"/>
+      <c r="IN248" t="inlineStr"/>
+      <c r="IO248" t="inlineStr"/>
+      <c r="IP248" t="inlineStr"/>
+      <c r="IQ248" t="inlineStr"/>
+      <c r="IR248" t="inlineStr"/>
+      <c r="IS248" t="inlineStr"/>
+      <c r="IT248" t="inlineStr"/>
+      <c r="IU248" t="inlineStr"/>
+      <c r="IV248" t="inlineStr"/>
+      <c r="IW248" t="inlineStr"/>
+      <c r="IX248" t="inlineStr"/>
+      <c r="IY248" t="inlineStr"/>
+      <c r="IZ248" t="inlineStr"/>
+      <c r="JA248" t="inlineStr"/>
+      <c r="JB248" t="inlineStr"/>
+      <c r="JC248" t="inlineStr"/>
+      <c r="JD248" t="inlineStr"/>
+      <c r="JE248" t="inlineStr"/>
+      <c r="JF248" t="inlineStr"/>
+      <c r="JG248" t="inlineStr"/>
+      <c r="JH248" t="inlineStr"/>
+      <c r="JI248" t="inlineStr"/>
+      <c r="JJ248" t="inlineStr"/>
+      <c r="JK248" t="inlineStr"/>
+      <c r="JL248" t="inlineStr"/>
+      <c r="JM248" t="inlineStr"/>
+      <c r="JN248" t="inlineStr"/>
+      <c r="JO248" t="inlineStr"/>
+      <c r="JP248" t="inlineStr"/>
+      <c r="JQ248" t="inlineStr"/>
+      <c r="JR248" t="inlineStr"/>
+      <c r="JS248" t="inlineStr"/>
+      <c r="JT248" t="inlineStr"/>
+      <c r="JU248" t="inlineStr"/>
+      <c r="JV248" t="inlineStr"/>
+      <c r="JW248" t="inlineStr"/>
+      <c r="JX248" t="inlineStr"/>
+      <c r="JY248" t="inlineStr"/>
+      <c r="JZ248" t="inlineStr"/>
+      <c r="KA248" t="inlineStr"/>
+      <c r="KB248" t="inlineStr"/>
+      <c r="KC248" t="inlineStr"/>
+      <c r="KD248" t="inlineStr"/>
+      <c r="KE248" t="inlineStr"/>
+      <c r="KF248" t="inlineStr"/>
+      <c r="KG248" t="inlineStr"/>
+      <c r="KH248" t="inlineStr"/>
+      <c r="KI248" t="inlineStr"/>
+      <c r="KJ248" t="inlineStr"/>
+      <c r="KK248" t="inlineStr"/>
+      <c r="KL248" t="inlineStr"/>
+      <c r="KM248" t="inlineStr"/>
+      <c r="KN248" t="inlineStr"/>
+      <c r="KO248" t="inlineStr"/>
+      <c r="KP248" t="inlineStr"/>
+      <c r="KQ248" t="inlineStr"/>
+      <c r="KR248" t="inlineStr"/>
+      <c r="KS248" t="inlineStr"/>
+      <c r="KT248" t="inlineStr"/>
+      <c r="KU248" t="inlineStr"/>
+      <c r="KV248" t="inlineStr"/>
+      <c r="KW248" t="inlineStr"/>
+      <c r="KX248" t="inlineStr"/>
+      <c r="KY248" t="inlineStr"/>
+      <c r="KZ248" t="inlineStr"/>
+      <c r="LA248" t="inlineStr"/>
+      <c r="LB248" t="inlineStr"/>
+      <c r="LC248" t="inlineStr"/>
+      <c r="LD248" t="inlineStr"/>
+      <c r="LE248" t="inlineStr"/>
+      <c r="LF248" t="inlineStr"/>
+      <c r="LG248" t="inlineStr"/>
+      <c r="LH248" t="inlineStr"/>
+      <c r="LI248" t="inlineStr"/>
+      <c r="LJ248" t="inlineStr"/>
+      <c r="LK248" t="inlineStr"/>
+      <c r="LL248" t="inlineStr"/>
+      <c r="LM248" t="inlineStr"/>
+      <c r="LN248" t="inlineStr"/>
+      <c r="LO248" t="inlineStr"/>
+      <c r="LP248" t="inlineStr"/>
+      <c r="LQ248" t="inlineStr"/>
+      <c r="LR248" t="inlineStr"/>
+      <c r="LS248" t="inlineStr"/>
+      <c r="LT248" t="inlineStr"/>
+      <c r="LU248" t="inlineStr"/>
+      <c r="LV248" t="inlineStr"/>
+      <c r="LW248" t="inlineStr"/>
+      <c r="LX248" t="inlineStr"/>
+      <c r="LY248" t="inlineStr"/>
+      <c r="LZ248" t="inlineStr"/>
+      <c r="MA248" t="inlineStr"/>
+      <c r="MB248" t="inlineStr"/>
+      <c r="MC248" t="inlineStr"/>
+      <c r="MD248" t="inlineStr"/>
+      <c r="ME248" t="inlineStr"/>
+      <c r="MF248" t="inlineStr"/>
+      <c r="MG248" t="inlineStr"/>
+      <c r="MH248" t="inlineStr"/>
+      <c r="MI248" t="inlineStr"/>
+      <c r="MJ248" t="inlineStr"/>
+      <c r="MK248" t="inlineStr"/>
+      <c r="ML248" t="inlineStr"/>
+      <c r="MM248" t="inlineStr"/>
+      <c r="MN248" t="inlineStr"/>
+      <c r="MO248" t="inlineStr"/>
+      <c r="MP248" t="inlineStr"/>
+      <c r="MQ248" t="inlineStr"/>
+      <c r="MR248" t="inlineStr"/>
+      <c r="MS248" t="inlineStr"/>
+      <c r="MT248" t="inlineStr"/>
+      <c r="MU248" t="inlineStr"/>
+      <c r="MV248" t="inlineStr"/>
+      <c r="MW248" t="inlineStr"/>
+      <c r="MX248" t="inlineStr"/>
+      <c r="MY248" t="inlineStr"/>
+      <c r="MZ248" t="inlineStr"/>
+      <c r="NA248" t="inlineStr"/>
+      <c r="NB248" t="inlineStr"/>
+      <c r="NC248" t="inlineStr"/>
+      <c r="ND248" t="inlineStr"/>
+      <c r="NE248" t="inlineStr"/>
+      <c r="NF248" t="inlineStr"/>
+      <c r="NG248" t="inlineStr"/>
+      <c r="NH248" t="inlineStr"/>
+      <c r="NI248" t="inlineStr"/>
+      <c r="NJ248" t="inlineStr"/>
+      <c r="NK248" t="inlineStr"/>
+      <c r="NL248" t="inlineStr"/>
+      <c r="NM248" t="inlineStr"/>
+      <c r="NN248" t="inlineStr"/>
+      <c r="NO248" t="inlineStr"/>
+      <c r="NP248" t="inlineStr"/>
+      <c r="NQ248" t="inlineStr"/>
+      <c r="NR248" t="inlineStr"/>
+      <c r="NS248" t="inlineStr"/>
+      <c r="NT248" t="inlineStr"/>
+      <c r="NU248" t="inlineStr"/>
+      <c r="NV248" t="inlineStr"/>
+      <c r="NW248" t="inlineStr"/>
+      <c r="NX248" t="inlineStr"/>
+      <c r="NY248" t="inlineStr"/>
+      <c r="NZ248" t="inlineStr"/>
+      <c r="OA248" t="inlineStr"/>
+      <c r="OB248" t="inlineStr"/>
+      <c r="OC248" t="inlineStr"/>
+      <c r="OD248" t="inlineStr"/>
+      <c r="OE248" t="inlineStr"/>
+      <c r="OF248" t="inlineStr"/>
+      <c r="OG248" t="inlineStr"/>
+      <c r="OH248" t="inlineStr"/>
+      <c r="OI248" t="inlineStr"/>
+      <c r="OJ248" t="inlineStr"/>
+      <c r="OK248" t="inlineStr"/>
+      <c r="OL248" t="inlineStr"/>
+      <c r="OM248" t="inlineStr"/>
+      <c r="ON248" t="inlineStr"/>
+      <c r="OO248" t="inlineStr"/>
+      <c r="OP248" t="inlineStr"/>
+      <c r="OQ248" t="inlineStr"/>
+      <c r="OR248" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR248"/>
+  <dimension ref="A1:OR252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38249,413 +38249,1558 @@
           <t>type06</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr"/>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="inlineStr"/>
-      <c r="T248" t="inlineStr"/>
-      <c r="U248" t="inlineStr"/>
-      <c r="V248" t="inlineStr"/>
-      <c r="W248" t="inlineStr"/>
-      <c r="X248" t="inlineStr"/>
-      <c r="Y248" t="inlineStr"/>
-      <c r="Z248" t="inlineStr"/>
-      <c r="AA248" t="inlineStr"/>
-      <c r="AB248" t="inlineStr"/>
-      <c r="AC248" t="inlineStr"/>
-      <c r="AD248" t="inlineStr"/>
-      <c r="AE248" t="inlineStr"/>
-      <c r="AF248" t="inlineStr"/>
-      <c r="AG248" t="inlineStr"/>
-      <c r="AH248" t="inlineStr"/>
-      <c r="AI248" t="inlineStr"/>
-      <c r="AJ248" t="inlineStr"/>
-      <c r="AK248" t="inlineStr"/>
-      <c r="AL248" t="inlineStr"/>
-      <c r="AM248" t="inlineStr"/>
-      <c r="AN248" t="inlineStr"/>
-      <c r="AO248" t="inlineStr"/>
-      <c r="AP248" t="inlineStr"/>
-      <c r="AQ248" t="inlineStr"/>
-      <c r="AR248" t="inlineStr"/>
-      <c r="AS248" t="inlineStr"/>
-      <c r="AT248" t="inlineStr"/>
-      <c r="AU248" t="inlineStr"/>
-      <c r="AV248" t="inlineStr"/>
-      <c r="AW248" t="inlineStr"/>
-      <c r="AX248" t="inlineStr"/>
-      <c r="AY248" t="inlineStr"/>
-      <c r="AZ248" t="inlineStr"/>
-      <c r="BA248" t="inlineStr"/>
-      <c r="BB248" t="inlineStr"/>
-      <c r="BC248" t="inlineStr"/>
-      <c r="BD248" t="inlineStr"/>
-      <c r="BE248" t="inlineStr"/>
-      <c r="BF248" t="inlineStr"/>
-      <c r="BG248" t="inlineStr"/>
-      <c r="BH248" t="inlineStr"/>
-      <c r="BI248" t="inlineStr"/>
-      <c r="BJ248" t="inlineStr"/>
-      <c r="BK248" t="inlineStr"/>
-      <c r="BL248" t="inlineStr"/>
-      <c r="BM248" t="inlineStr"/>
-      <c r="BN248" t="inlineStr"/>
-      <c r="BO248" t="inlineStr"/>
-      <c r="BP248" t="inlineStr"/>
-      <c r="BQ248" t="inlineStr"/>
-      <c r="BR248" t="inlineStr"/>
-      <c r="BS248" t="inlineStr"/>
-      <c r="BT248" t="inlineStr"/>
-      <c r="BU248" t="inlineStr"/>
-      <c r="BV248" t="inlineStr"/>
-      <c r="BW248" t="inlineStr"/>
-      <c r="BX248" t="inlineStr"/>
-      <c r="BY248" t="inlineStr"/>
-      <c r="BZ248" t="inlineStr"/>
-      <c r="CA248" t="inlineStr"/>
-      <c r="CB248" t="inlineStr"/>
-      <c r="CC248" t="inlineStr"/>
-      <c r="CD248" t="inlineStr"/>
-      <c r="CE248" t="inlineStr"/>
-      <c r="CF248" t="inlineStr"/>
-      <c r="CG248" t="inlineStr"/>
-      <c r="CH248" t="inlineStr"/>
-      <c r="CI248" t="inlineStr"/>
-      <c r="CJ248" t="inlineStr"/>
-      <c r="CK248" t="inlineStr"/>
-      <c r="CL248" t="inlineStr"/>
-      <c r="CM248" t="inlineStr"/>
-      <c r="CN248" t="inlineStr"/>
-      <c r="CO248" t="inlineStr"/>
-      <c r="CP248" t="inlineStr"/>
-      <c r="CQ248" t="inlineStr"/>
-      <c r="CR248" t="inlineStr"/>
-      <c r="CS248" t="inlineStr"/>
-      <c r="CT248" t="inlineStr"/>
-      <c r="CU248" t="inlineStr"/>
-      <c r="CV248" t="inlineStr"/>
-      <c r="CW248" t="inlineStr"/>
-      <c r="CX248" t="inlineStr"/>
-      <c r="CY248" t="inlineStr"/>
-      <c r="CZ248" t="inlineStr"/>
-      <c r="DA248" t="inlineStr"/>
-      <c r="DB248" t="inlineStr"/>
-      <c r="DC248" t="inlineStr"/>
-      <c r="DD248" t="inlineStr"/>
-      <c r="DE248" t="inlineStr"/>
-      <c r="DF248" t="inlineStr"/>
-      <c r="DG248" t="inlineStr"/>
-      <c r="DH248" t="inlineStr"/>
-      <c r="DI248" t="inlineStr"/>
-      <c r="DJ248" t="inlineStr"/>
-      <c r="DK248" t="inlineStr"/>
-      <c r="DL248" t="inlineStr"/>
-      <c r="DM248" t="inlineStr"/>
-      <c r="DN248" t="inlineStr"/>
-      <c r="DO248" t="inlineStr"/>
-      <c r="DP248" t="inlineStr"/>
-      <c r="DQ248" t="inlineStr"/>
-      <c r="DR248" t="inlineStr"/>
-      <c r="DS248" t="inlineStr"/>
-      <c r="DT248" t="inlineStr"/>
-      <c r="DU248" t="inlineStr"/>
-      <c r="DV248" t="inlineStr"/>
-      <c r="DW248" t="inlineStr"/>
-      <c r="DX248" t="inlineStr"/>
-      <c r="DY248" t="inlineStr"/>
-      <c r="DZ248" t="inlineStr"/>
-      <c r="EA248" t="inlineStr"/>
-      <c r="EB248" t="inlineStr"/>
-      <c r="EC248" t="inlineStr"/>
-      <c r="ED248" t="inlineStr"/>
-      <c r="EE248" t="inlineStr"/>
-      <c r="EF248" t="inlineStr"/>
-      <c r="EG248" t="inlineStr"/>
-      <c r="EH248" t="inlineStr"/>
-      <c r="EI248" t="inlineStr"/>
-      <c r="EJ248" t="inlineStr"/>
-      <c r="EK248" t="inlineStr"/>
-      <c r="EL248" t="inlineStr"/>
-      <c r="EM248" t="inlineStr"/>
-      <c r="EN248" t="inlineStr"/>
-      <c r="EO248" t="inlineStr"/>
-      <c r="EP248" t="inlineStr"/>
-      <c r="EQ248" t="inlineStr"/>
-      <c r="ER248" t="inlineStr"/>
-      <c r="ES248" t="inlineStr"/>
-      <c r="ET248" t="inlineStr"/>
-      <c r="EU248" t="inlineStr"/>
-      <c r="EV248" t="inlineStr"/>
-      <c r="EW248" t="inlineStr"/>
-      <c r="EX248" t="inlineStr"/>
-      <c r="EY248" t="inlineStr"/>
-      <c r="EZ248" t="inlineStr"/>
-      <c r="FA248" t="inlineStr"/>
-      <c r="FB248" t="inlineStr"/>
-      <c r="FC248" t="inlineStr"/>
-      <c r="FD248" t="inlineStr"/>
-      <c r="FE248" t="inlineStr"/>
-      <c r="FF248" t="inlineStr"/>
-      <c r="FG248" t="inlineStr"/>
-      <c r="FH248" t="inlineStr"/>
-      <c r="FI248" t="inlineStr"/>
-      <c r="FJ248" t="inlineStr"/>
-      <c r="FK248" t="inlineStr"/>
-      <c r="FL248" t="inlineStr"/>
-      <c r="FM248" t="inlineStr"/>
-      <c r="FN248" t="inlineStr"/>
-      <c r="FO248" t="inlineStr"/>
-      <c r="FP248" t="inlineStr"/>
-      <c r="FQ248" t="inlineStr"/>
-      <c r="FR248" t="inlineStr"/>
-      <c r="FS248" t="inlineStr"/>
-      <c r="FT248" t="inlineStr"/>
-      <c r="FU248" t="inlineStr"/>
-      <c r="FV248" t="inlineStr"/>
-      <c r="FW248" t="inlineStr"/>
-      <c r="FX248" t="inlineStr"/>
-      <c r="FY248" t="inlineStr"/>
-      <c r="FZ248" t="inlineStr"/>
-      <c r="GA248" t="inlineStr"/>
-      <c r="GB248" t="inlineStr"/>
-      <c r="GC248" t="inlineStr"/>
-      <c r="GD248" t="inlineStr"/>
-      <c r="GE248" t="inlineStr"/>
-      <c r="GF248" t="inlineStr"/>
-      <c r="GG248" t="inlineStr"/>
-      <c r="GH248" t="inlineStr"/>
-      <c r="GI248" t="inlineStr"/>
-      <c r="GJ248" t="inlineStr"/>
-      <c r="GK248" t="inlineStr"/>
-      <c r="GL248" t="inlineStr"/>
-      <c r="GM248" t="inlineStr"/>
-      <c r="GN248" t="inlineStr"/>
-      <c r="GO248" t="inlineStr"/>
-      <c r="GP248" t="inlineStr"/>
-      <c r="GQ248" t="inlineStr"/>
-      <c r="GR248" t="inlineStr"/>
-      <c r="GS248" t="inlineStr"/>
-      <c r="GT248" t="inlineStr"/>
-      <c r="GU248" t="inlineStr"/>
-      <c r="GV248" t="inlineStr"/>
-      <c r="GW248" t="inlineStr"/>
-      <c r="GX248" t="inlineStr"/>
-      <c r="GY248" t="inlineStr"/>
-      <c r="GZ248" t="inlineStr"/>
-      <c r="HA248" t="inlineStr"/>
-      <c r="HB248" t="inlineStr"/>
-      <c r="HC248" t="inlineStr"/>
-      <c r="HD248" t="inlineStr"/>
-      <c r="HE248" t="inlineStr"/>
-      <c r="HF248" t="inlineStr"/>
-      <c r="HG248" t="inlineStr"/>
-      <c r="HH248" t="inlineStr"/>
-      <c r="HI248" t="inlineStr"/>
-      <c r="HJ248" t="inlineStr"/>
-      <c r="HK248" t="inlineStr"/>
-      <c r="HL248" t="inlineStr"/>
-      <c r="HM248" t="inlineStr"/>
-      <c r="HN248" t="inlineStr"/>
-      <c r="HO248" t="inlineStr"/>
-      <c r="HP248" t="inlineStr"/>
-      <c r="HQ248" t="inlineStr"/>
-      <c r="HR248" t="inlineStr"/>
-      <c r="HS248" t="inlineStr"/>
-      <c r="HT248" t="inlineStr"/>
-      <c r="HU248" t="inlineStr"/>
-      <c r="HV248" t="inlineStr"/>
-      <c r="HW248" t="inlineStr"/>
-      <c r="HX248" t="inlineStr"/>
-      <c r="HY248" t="inlineStr"/>
-      <c r="HZ248" t="inlineStr"/>
-      <c r="IA248" t="inlineStr"/>
-      <c r="IB248" t="inlineStr"/>
-      <c r="IC248" t="inlineStr"/>
-      <c r="ID248" t="inlineStr"/>
-      <c r="IE248" t="inlineStr"/>
-      <c r="IF248" t="inlineStr"/>
-      <c r="IG248" t="inlineStr"/>
-      <c r="IH248" t="inlineStr"/>
-      <c r="II248" t="inlineStr"/>
-      <c r="IJ248" t="inlineStr"/>
-      <c r="IK248" t="inlineStr"/>
-      <c r="IL248" t="inlineStr"/>
-      <c r="IM248" t="inlineStr"/>
-      <c r="IN248" t="inlineStr"/>
-      <c r="IO248" t="inlineStr"/>
-      <c r="IP248" t="inlineStr"/>
-      <c r="IQ248" t="inlineStr"/>
-      <c r="IR248" t="inlineStr"/>
-      <c r="IS248" t="inlineStr"/>
-      <c r="IT248" t="inlineStr"/>
-      <c r="IU248" t="inlineStr"/>
-      <c r="IV248" t="inlineStr"/>
-      <c r="IW248" t="inlineStr"/>
-      <c r="IX248" t="inlineStr"/>
-      <c r="IY248" t="inlineStr"/>
-      <c r="IZ248" t="inlineStr"/>
-      <c r="JA248" t="inlineStr"/>
-      <c r="JB248" t="inlineStr"/>
-      <c r="JC248" t="inlineStr"/>
-      <c r="JD248" t="inlineStr"/>
-      <c r="JE248" t="inlineStr"/>
-      <c r="JF248" t="inlineStr"/>
-      <c r="JG248" t="inlineStr"/>
-      <c r="JH248" t="inlineStr"/>
-      <c r="JI248" t="inlineStr"/>
-      <c r="JJ248" t="inlineStr"/>
-      <c r="JK248" t="inlineStr"/>
-      <c r="JL248" t="inlineStr"/>
-      <c r="JM248" t="inlineStr"/>
-      <c r="JN248" t="inlineStr"/>
-      <c r="JO248" t="inlineStr"/>
-      <c r="JP248" t="inlineStr"/>
-      <c r="JQ248" t="inlineStr"/>
-      <c r="JR248" t="inlineStr"/>
-      <c r="JS248" t="inlineStr"/>
-      <c r="JT248" t="inlineStr"/>
-      <c r="JU248" t="inlineStr"/>
-      <c r="JV248" t="inlineStr"/>
-      <c r="JW248" t="inlineStr"/>
-      <c r="JX248" t="inlineStr"/>
-      <c r="JY248" t="inlineStr"/>
-      <c r="JZ248" t="inlineStr"/>
-      <c r="KA248" t="inlineStr"/>
-      <c r="KB248" t="inlineStr"/>
-      <c r="KC248" t="inlineStr"/>
-      <c r="KD248" t="inlineStr"/>
-      <c r="KE248" t="inlineStr"/>
-      <c r="KF248" t="inlineStr"/>
-      <c r="KG248" t="inlineStr"/>
-      <c r="KH248" t="inlineStr"/>
-      <c r="KI248" t="inlineStr"/>
-      <c r="KJ248" t="inlineStr"/>
-      <c r="KK248" t="inlineStr"/>
-      <c r="KL248" t="inlineStr"/>
-      <c r="KM248" t="inlineStr"/>
-      <c r="KN248" t="inlineStr"/>
-      <c r="KO248" t="inlineStr"/>
-      <c r="KP248" t="inlineStr"/>
-      <c r="KQ248" t="inlineStr"/>
-      <c r="KR248" t="inlineStr"/>
-      <c r="KS248" t="inlineStr"/>
-      <c r="KT248" t="inlineStr"/>
-      <c r="KU248" t="inlineStr"/>
-      <c r="KV248" t="inlineStr"/>
-      <c r="KW248" t="inlineStr"/>
-      <c r="KX248" t="inlineStr"/>
-      <c r="KY248" t="inlineStr"/>
-      <c r="KZ248" t="inlineStr"/>
-      <c r="LA248" t="inlineStr"/>
-      <c r="LB248" t="inlineStr"/>
-      <c r="LC248" t="inlineStr"/>
-      <c r="LD248" t="inlineStr"/>
-      <c r="LE248" t="inlineStr"/>
-      <c r="LF248" t="inlineStr"/>
-      <c r="LG248" t="inlineStr"/>
-      <c r="LH248" t="inlineStr"/>
-      <c r="LI248" t="inlineStr"/>
-      <c r="LJ248" t="inlineStr"/>
-      <c r="LK248" t="inlineStr"/>
-      <c r="LL248" t="inlineStr"/>
-      <c r="LM248" t="inlineStr"/>
-      <c r="LN248" t="inlineStr"/>
-      <c r="LO248" t="inlineStr"/>
-      <c r="LP248" t="inlineStr"/>
-      <c r="LQ248" t="inlineStr"/>
-      <c r="LR248" t="inlineStr"/>
-      <c r="LS248" t="inlineStr"/>
-      <c r="LT248" t="inlineStr"/>
-      <c r="LU248" t="inlineStr"/>
-      <c r="LV248" t="inlineStr"/>
-      <c r="LW248" t="inlineStr"/>
-      <c r="LX248" t="inlineStr"/>
-      <c r="LY248" t="inlineStr"/>
-      <c r="LZ248" t="inlineStr"/>
-      <c r="MA248" t="inlineStr"/>
-      <c r="MB248" t="inlineStr"/>
-      <c r="MC248" t="inlineStr"/>
-      <c r="MD248" t="inlineStr"/>
-      <c r="ME248" t="inlineStr"/>
-      <c r="MF248" t="inlineStr"/>
-      <c r="MG248" t="inlineStr"/>
-      <c r="MH248" t="inlineStr"/>
-      <c r="MI248" t="inlineStr"/>
-      <c r="MJ248" t="inlineStr"/>
-      <c r="MK248" t="inlineStr"/>
-      <c r="ML248" t="inlineStr"/>
-      <c r="MM248" t="inlineStr"/>
-      <c r="MN248" t="inlineStr"/>
-      <c r="MO248" t="inlineStr"/>
-      <c r="MP248" t="inlineStr"/>
-      <c r="MQ248" t="inlineStr"/>
-      <c r="MR248" t="inlineStr"/>
-      <c r="MS248" t="inlineStr"/>
-      <c r="MT248" t="inlineStr"/>
-      <c r="MU248" t="inlineStr"/>
-      <c r="MV248" t="inlineStr"/>
-      <c r="MW248" t="inlineStr"/>
-      <c r="MX248" t="inlineStr"/>
-      <c r="MY248" t="inlineStr"/>
-      <c r="MZ248" t="inlineStr"/>
-      <c r="NA248" t="inlineStr"/>
-      <c r="NB248" t="inlineStr"/>
-      <c r="NC248" t="inlineStr"/>
-      <c r="ND248" t="inlineStr"/>
-      <c r="NE248" t="inlineStr"/>
-      <c r="NF248" t="inlineStr"/>
-      <c r="NG248" t="inlineStr"/>
-      <c r="NH248" t="inlineStr"/>
-      <c r="NI248" t="inlineStr"/>
-      <c r="NJ248" t="inlineStr"/>
-      <c r="NK248" t="inlineStr"/>
-      <c r="NL248" t="inlineStr"/>
-      <c r="NM248" t="inlineStr"/>
-      <c r="NN248" t="inlineStr"/>
-      <c r="NO248" t="inlineStr"/>
-      <c r="NP248" t="inlineStr"/>
-      <c r="NQ248" t="inlineStr"/>
-      <c r="NR248" t="inlineStr"/>
-      <c r="NS248" t="inlineStr"/>
-      <c r="NT248" t="inlineStr"/>
-      <c r="NU248" t="inlineStr"/>
-      <c r="NV248" t="inlineStr"/>
-      <c r="NW248" t="inlineStr"/>
-      <c r="NX248" t="inlineStr"/>
-      <c r="NY248" t="inlineStr"/>
-      <c r="NZ248" t="inlineStr"/>
-      <c r="OA248" t="inlineStr"/>
-      <c r="OB248" t="inlineStr"/>
-      <c r="OC248" t="inlineStr"/>
-      <c r="OD248" t="inlineStr"/>
-      <c r="OE248" t="inlineStr"/>
-      <c r="OF248" t="inlineStr"/>
-      <c r="OG248" t="inlineStr"/>
-      <c r="OH248" t="inlineStr"/>
-      <c r="OI248" t="inlineStr"/>
-      <c r="OJ248" t="inlineStr"/>
-      <c r="OK248" t="inlineStr"/>
-      <c r="OL248" t="inlineStr"/>
-      <c r="OM248" t="inlineStr"/>
-      <c r="ON248" t="inlineStr"/>
-      <c r="OO248" t="inlineStr"/>
-      <c r="OP248" t="inlineStr"/>
-      <c r="OQ248" t="inlineStr"/>
-      <c r="OR248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="AV249" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BF249" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="BG249" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="BH249" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BY249" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="BZ249" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="DC249" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DM249" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="DN249" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="DO249" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="DS249" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DT249" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DU249" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ET249" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="EU249" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="FX249" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="GH249" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="GI249" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="GJ249" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="GK249" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="GL249" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="GM249" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="GN249" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="GO249" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="GP249" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="GR249" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="GS249" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="GV249" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="GW249" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="GX249" t="inlineStr">
+        <is>
+          <t>-276</t>
+        </is>
+      </c>
+      <c r="GY249" t="inlineStr">
+        <is>
+          <t>-387</t>
+        </is>
+      </c>
+      <c r="IH249" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="II249" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="JL249" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JV249" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="JW249" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JX249" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="KJ249" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="KK249" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="KL249" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="KV249" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="KW249" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="KZ249" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="LA249" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="LB249" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="LC249" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="LO249" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="LP249" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="LQ249" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="LS249" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="LU249" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="LV249" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="LW249" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="MF249" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="MG249" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="MP249" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="AV250" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BF250" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="BG250" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="BH250" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BY250" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="BZ250" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="DC250" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DM250" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="DN250" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="DO250" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="DS250" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DT250" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DU250" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ET250" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="EU250" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="FX250" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="GH250" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="GI250" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="GJ250" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="GK250" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="GL250" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="GM250" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="GN250" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="GO250" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="GP250" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="GR250" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="GS250" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="GV250" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="GW250" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="GX250" t="inlineStr">
+        <is>
+          <t>-276</t>
+        </is>
+      </c>
+      <c r="GY250" t="inlineStr">
+        <is>
+          <t>-387</t>
+        </is>
+      </c>
+      <c r="IH250" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="II250" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="JL250" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JV250" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="JW250" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JX250" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="KJ250" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="KK250" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="KL250" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="KV250" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="KW250" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="KZ250" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="LA250" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="LB250" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="LC250" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="LO250" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="LP250" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="LQ250" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="LS250" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="LU250" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="LV250" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="LW250" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="MF250" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="MG250" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="MP250" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="AV251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF251" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="BG251" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="BH251" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="BY251" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="BZ251" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="DC251" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DM251" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="DN251" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="DO251" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="DS251" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="DT251" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DU251" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="ET251" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EU251" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="FX251" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="GH251" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="GI251" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="GJ251" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="GK251" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="GL251" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="GM251" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="GN251" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="GO251" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="GP251" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="GR251" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="GS251" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="GV251" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="GW251" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GX251" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="GY251" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="IH251" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="II251" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="JL251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JV251" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="JW251" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JX251" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="KJ251" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="KK251" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="KL251" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="KV251" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="KW251" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="KZ251" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="LA251" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="LB251" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="LC251" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="LL251" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="LM251" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="LN251" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="LO251" t="inlineStr">
+        <is>
+          <t>-33</t>
+        </is>
+      </c>
+      <c r="LP251" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="LQ251" t="inlineStr">
+        <is>
+          <t>-00</t>
+        </is>
+      </c>
+      <c r="LS251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="LU251" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="LV251" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="LW251" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="MF251" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG251" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MP251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr"/>
+      <c r="V252" t="inlineStr"/>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
+      <c r="Y252" t="inlineStr"/>
+      <c r="Z252" t="inlineStr"/>
+      <c r="AA252" t="inlineStr"/>
+      <c r="AB252" t="inlineStr"/>
+      <c r="AC252" t="inlineStr"/>
+      <c r="AD252" t="inlineStr"/>
+      <c r="AE252" t="inlineStr"/>
+      <c r="AF252" t="inlineStr"/>
+      <c r="AG252" t="inlineStr"/>
+      <c r="AH252" t="inlineStr"/>
+      <c r="AI252" t="inlineStr"/>
+      <c r="AJ252" t="inlineStr"/>
+      <c r="AK252" t="inlineStr"/>
+      <c r="AL252" t="inlineStr"/>
+      <c r="AM252" t="inlineStr"/>
+      <c r="AN252" t="inlineStr"/>
+      <c r="AO252" t="inlineStr"/>
+      <c r="AP252" t="inlineStr"/>
+      <c r="AQ252" t="inlineStr"/>
+      <c r="AR252" t="inlineStr"/>
+      <c r="AS252" t="inlineStr"/>
+      <c r="AT252" t="inlineStr"/>
+      <c r="AU252" t="inlineStr"/>
+      <c r="AV252" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AW252" t="inlineStr"/>
+      <c r="AX252" t="inlineStr"/>
+      <c r="AY252" t="inlineStr"/>
+      <c r="AZ252" t="inlineStr"/>
+      <c r="BA252" t="inlineStr"/>
+      <c r="BB252" t="inlineStr"/>
+      <c r="BC252" t="inlineStr"/>
+      <c r="BD252" t="inlineStr"/>
+      <c r="BE252" t="inlineStr"/>
+      <c r="BF252" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="BG252" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="BH252" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BI252" t="inlineStr"/>
+      <c r="BJ252" t="inlineStr"/>
+      <c r="BK252" t="inlineStr"/>
+      <c r="BL252" t="inlineStr"/>
+      <c r="BM252" t="inlineStr"/>
+      <c r="BN252" t="inlineStr"/>
+      <c r="BO252" t="inlineStr"/>
+      <c r="BP252" t="inlineStr"/>
+      <c r="BQ252" t="inlineStr"/>
+      <c r="BR252" t="inlineStr"/>
+      <c r="BS252" t="inlineStr"/>
+      <c r="BT252" t="inlineStr"/>
+      <c r="BU252" t="inlineStr"/>
+      <c r="BV252" t="inlineStr"/>
+      <c r="BW252" t="inlineStr"/>
+      <c r="BX252" t="inlineStr"/>
+      <c r="BY252" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="BZ252" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="CA252" t="inlineStr"/>
+      <c r="CB252" t="inlineStr"/>
+      <c r="CC252" t="inlineStr"/>
+      <c r="CD252" t="inlineStr"/>
+      <c r="CE252" t="inlineStr"/>
+      <c r="CF252" t="inlineStr"/>
+      <c r="CG252" t="inlineStr"/>
+      <c r="CH252" t="inlineStr"/>
+      <c r="CI252" t="inlineStr"/>
+      <c r="CJ252" t="inlineStr"/>
+      <c r="CK252" t="inlineStr"/>
+      <c r="CL252" t="inlineStr"/>
+      <c r="CM252" t="inlineStr"/>
+      <c r="CN252" t="inlineStr"/>
+      <c r="CO252" t="inlineStr"/>
+      <c r="CP252" t="inlineStr"/>
+      <c r="CQ252" t="inlineStr"/>
+      <c r="CR252" t="inlineStr"/>
+      <c r="CS252" t="inlineStr"/>
+      <c r="CT252" t="inlineStr"/>
+      <c r="CU252" t="inlineStr"/>
+      <c r="CV252" t="inlineStr"/>
+      <c r="CW252" t="inlineStr"/>
+      <c r="CX252" t="inlineStr"/>
+      <c r="CY252" t="inlineStr"/>
+      <c r="CZ252" t="inlineStr"/>
+      <c r="DA252" t="inlineStr"/>
+      <c r="DB252" t="inlineStr"/>
+      <c r="DC252" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DD252" t="inlineStr"/>
+      <c r="DE252" t="inlineStr"/>
+      <c r="DF252" t="inlineStr"/>
+      <c r="DG252" t="inlineStr"/>
+      <c r="DH252" t="inlineStr"/>
+      <c r="DI252" t="inlineStr"/>
+      <c r="DJ252" t="inlineStr"/>
+      <c r="DK252" t="inlineStr"/>
+      <c r="DL252" t="inlineStr"/>
+      <c r="DM252" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="DN252" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="DO252" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="DP252" t="inlineStr"/>
+      <c r="DQ252" t="inlineStr"/>
+      <c r="DR252" t="inlineStr"/>
+      <c r="DS252" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DT252" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DU252" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DV252" t="inlineStr"/>
+      <c r="DW252" t="inlineStr"/>
+      <c r="DX252" t="inlineStr"/>
+      <c r="DY252" t="inlineStr"/>
+      <c r="DZ252" t="inlineStr"/>
+      <c r="EA252" t="inlineStr"/>
+      <c r="EB252" t="inlineStr"/>
+      <c r="EC252" t="inlineStr"/>
+      <c r="ED252" t="inlineStr"/>
+      <c r="EE252" t="inlineStr"/>
+      <c r="EF252" t="inlineStr"/>
+      <c r="EG252" t="inlineStr"/>
+      <c r="EH252" t="inlineStr"/>
+      <c r="EI252" t="inlineStr"/>
+      <c r="EJ252" t="inlineStr"/>
+      <c r="EK252" t="inlineStr"/>
+      <c r="EL252" t="inlineStr"/>
+      <c r="EM252" t="inlineStr"/>
+      <c r="EN252" t="inlineStr"/>
+      <c r="EO252" t="inlineStr"/>
+      <c r="EP252" t="inlineStr"/>
+      <c r="EQ252" t="inlineStr"/>
+      <c r="ER252" t="inlineStr"/>
+      <c r="ES252" t="inlineStr"/>
+      <c r="ET252" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="EU252" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="EV252" t="inlineStr"/>
+      <c r="EW252" t="inlineStr"/>
+      <c r="EX252" t="inlineStr"/>
+      <c r="EY252" t="inlineStr"/>
+      <c r="EZ252" t="inlineStr"/>
+      <c r="FA252" t="inlineStr"/>
+      <c r="FB252" t="inlineStr"/>
+      <c r="FC252" t="inlineStr"/>
+      <c r="FD252" t="inlineStr"/>
+      <c r="FE252" t="inlineStr"/>
+      <c r="FF252" t="inlineStr"/>
+      <c r="FG252" t="inlineStr"/>
+      <c r="FH252" t="inlineStr"/>
+      <c r="FI252" t="inlineStr"/>
+      <c r="FJ252" t="inlineStr"/>
+      <c r="FK252" t="inlineStr"/>
+      <c r="FL252" t="inlineStr"/>
+      <c r="FM252" t="inlineStr"/>
+      <c r="FN252" t="inlineStr"/>
+      <c r="FO252" t="inlineStr"/>
+      <c r="FP252" t="inlineStr"/>
+      <c r="FQ252" t="inlineStr"/>
+      <c r="FR252" t="inlineStr"/>
+      <c r="FS252" t="inlineStr"/>
+      <c r="FT252" t="inlineStr"/>
+      <c r="FU252" t="inlineStr"/>
+      <c r="FV252" t="inlineStr"/>
+      <c r="FW252" t="inlineStr"/>
+      <c r="FX252" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="FY252" t="inlineStr"/>
+      <c r="FZ252" t="inlineStr"/>
+      <c r="GA252" t="inlineStr"/>
+      <c r="GB252" t="inlineStr"/>
+      <c r="GC252" t="inlineStr"/>
+      <c r="GD252" t="inlineStr"/>
+      <c r="GE252" t="inlineStr"/>
+      <c r="GF252" t="inlineStr"/>
+      <c r="GG252" t="inlineStr"/>
+      <c r="GH252" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="GI252" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="GJ252" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="GK252" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="GL252" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="GM252" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="GN252" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="GO252" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="GP252" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="GQ252" t="inlineStr"/>
+      <c r="GR252" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="GS252" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="GT252" t="inlineStr"/>
+      <c r="GU252" t="inlineStr"/>
+      <c r="GV252" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="GW252" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="GX252" t="inlineStr">
+        <is>
+          <t>-276</t>
+        </is>
+      </c>
+      <c r="GY252" t="inlineStr">
+        <is>
+          <t>-387</t>
+        </is>
+      </c>
+      <c r="GZ252" t="inlineStr"/>
+      <c r="HA252" t="inlineStr"/>
+      <c r="HB252" t="inlineStr"/>
+      <c r="HC252" t="inlineStr"/>
+      <c r="HD252" t="inlineStr"/>
+      <c r="HE252" t="inlineStr"/>
+      <c r="HF252" t="inlineStr"/>
+      <c r="HG252" t="inlineStr"/>
+      <c r="HH252" t="inlineStr"/>
+      <c r="HI252" t="inlineStr"/>
+      <c r="HJ252" t="inlineStr"/>
+      <c r="HK252" t="inlineStr"/>
+      <c r="HL252" t="inlineStr"/>
+      <c r="HM252" t="inlineStr"/>
+      <c r="HN252" t="inlineStr"/>
+      <c r="HO252" t="inlineStr"/>
+      <c r="HP252" t="inlineStr"/>
+      <c r="HQ252" t="inlineStr"/>
+      <c r="HR252" t="inlineStr"/>
+      <c r="HS252" t="inlineStr"/>
+      <c r="HT252" t="inlineStr"/>
+      <c r="HU252" t="inlineStr"/>
+      <c r="HV252" t="inlineStr"/>
+      <c r="HW252" t="inlineStr"/>
+      <c r="HX252" t="inlineStr"/>
+      <c r="HY252" t="inlineStr"/>
+      <c r="HZ252" t="inlineStr"/>
+      <c r="IA252" t="inlineStr"/>
+      <c r="IB252" t="inlineStr"/>
+      <c r="IC252" t="inlineStr"/>
+      <c r="ID252" t="inlineStr"/>
+      <c r="IE252" t="inlineStr"/>
+      <c r="IF252" t="inlineStr"/>
+      <c r="IG252" t="inlineStr"/>
+      <c r="IH252" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="II252" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="IJ252" t="inlineStr"/>
+      <c r="IK252" t="inlineStr"/>
+      <c r="IL252" t="inlineStr"/>
+      <c r="IM252" t="inlineStr"/>
+      <c r="IN252" t="inlineStr"/>
+      <c r="IO252" t="inlineStr"/>
+      <c r="IP252" t="inlineStr"/>
+      <c r="IQ252" t="inlineStr"/>
+      <c r="IR252" t="inlineStr"/>
+      <c r="IS252" t="inlineStr"/>
+      <c r="IT252" t="inlineStr"/>
+      <c r="IU252" t="inlineStr"/>
+      <c r="IV252" t="inlineStr"/>
+      <c r="IW252" t="inlineStr"/>
+      <c r="IX252" t="inlineStr"/>
+      <c r="IY252" t="inlineStr"/>
+      <c r="IZ252" t="inlineStr"/>
+      <c r="JA252" t="inlineStr"/>
+      <c r="JB252" t="inlineStr"/>
+      <c r="JC252" t="inlineStr"/>
+      <c r="JD252" t="inlineStr"/>
+      <c r="JE252" t="inlineStr"/>
+      <c r="JF252" t="inlineStr"/>
+      <c r="JG252" t="inlineStr"/>
+      <c r="JH252" t="inlineStr"/>
+      <c r="JI252" t="inlineStr"/>
+      <c r="JJ252" t="inlineStr"/>
+      <c r="JK252" t="inlineStr"/>
+      <c r="JL252" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JM252" t="inlineStr"/>
+      <c r="JN252" t="inlineStr"/>
+      <c r="JO252" t="inlineStr"/>
+      <c r="JP252" t="inlineStr"/>
+      <c r="JQ252" t="inlineStr"/>
+      <c r="JR252" t="inlineStr"/>
+      <c r="JS252" t="inlineStr"/>
+      <c r="JT252" t="inlineStr"/>
+      <c r="JU252" t="inlineStr"/>
+      <c r="JV252" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="JW252" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JX252" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="JY252" t="inlineStr"/>
+      <c r="JZ252" t="inlineStr"/>
+      <c r="KA252" t="inlineStr"/>
+      <c r="KB252" t="inlineStr"/>
+      <c r="KC252" t="inlineStr"/>
+      <c r="KD252" t="inlineStr"/>
+      <c r="KE252" t="inlineStr"/>
+      <c r="KF252" t="inlineStr"/>
+      <c r="KG252" t="inlineStr"/>
+      <c r="KH252" t="inlineStr"/>
+      <c r="KI252" t="inlineStr"/>
+      <c r="KJ252" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="KK252" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="KL252" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="KM252" t="inlineStr"/>
+      <c r="KN252" t="inlineStr"/>
+      <c r="KO252" t="inlineStr"/>
+      <c r="KP252" t="inlineStr"/>
+      <c r="KQ252" t="inlineStr"/>
+      <c r="KR252" t="inlineStr"/>
+      <c r="KS252" t="inlineStr"/>
+      <c r="KT252" t="inlineStr"/>
+      <c r="KU252" t="inlineStr"/>
+      <c r="KV252" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="KW252" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="KX252" t="inlineStr"/>
+      <c r="KY252" t="inlineStr"/>
+      <c r="KZ252" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="LA252" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="LB252" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="LC252" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="LD252" t="inlineStr"/>
+      <c r="LE252" t="inlineStr"/>
+      <c r="LF252" t="inlineStr"/>
+      <c r="LG252" t="inlineStr"/>
+      <c r="LH252" t="inlineStr"/>
+      <c r="LI252" t="inlineStr"/>
+      <c r="LJ252" t="inlineStr"/>
+      <c r="LK252" t="inlineStr"/>
+      <c r="LL252" t="inlineStr"/>
+      <c r="LM252" t="inlineStr"/>
+      <c r="LN252" t="inlineStr"/>
+      <c r="LO252" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="LP252" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="LQ252" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="LR252" t="inlineStr"/>
+      <c r="LS252" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="LT252" t="inlineStr"/>
+      <c r="LU252" t="inlineStr">
+        <is>
+          <t>-95</t>
+        </is>
+      </c>
+      <c r="LV252" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="LW252" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="LX252" t="inlineStr"/>
+      <c r="LY252" t="inlineStr"/>
+      <c r="LZ252" t="inlineStr"/>
+      <c r="MA252" t="inlineStr"/>
+      <c r="MB252" t="inlineStr"/>
+      <c r="MC252" t="inlineStr"/>
+      <c r="MD252" t="inlineStr"/>
+      <c r="ME252" t="inlineStr"/>
+      <c r="MF252" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MG252" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MH252" t="inlineStr"/>
+      <c r="MI252" t="inlineStr"/>
+      <c r="MJ252" t="inlineStr"/>
+      <c r="MK252" t="inlineStr"/>
+      <c r="ML252" t="inlineStr"/>
+      <c r="MM252" t="inlineStr"/>
+      <c r="MN252" t="inlineStr"/>
+      <c r="MO252" t="inlineStr"/>
+      <c r="MP252" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="MQ252" t="inlineStr"/>
+      <c r="MR252" t="inlineStr"/>
+      <c r="MS252" t="inlineStr"/>
+      <c r="MT252" t="inlineStr"/>
+      <c r="MU252" t="inlineStr"/>
+      <c r="MV252" t="inlineStr"/>
+      <c r="MW252" t="inlineStr"/>
+      <c r="MX252" t="inlineStr"/>
+      <c r="MY252" t="inlineStr"/>
+      <c r="MZ252" t="inlineStr"/>
+      <c r="NA252" t="inlineStr"/>
+      <c r="NB252" t="inlineStr"/>
+      <c r="NC252" t="inlineStr"/>
+      <c r="ND252" t="inlineStr"/>
+      <c r="NE252" t="inlineStr"/>
+      <c r="NF252" t="inlineStr"/>
+      <c r="NG252" t="inlineStr"/>
+      <c r="NH252" t="inlineStr"/>
+      <c r="NI252" t="inlineStr"/>
+      <c r="NJ252" t="inlineStr"/>
+      <c r="NK252" t="inlineStr"/>
+      <c r="NL252" t="inlineStr"/>
+      <c r="NM252" t="inlineStr"/>
+      <c r="NN252" t="inlineStr"/>
+      <c r="NO252" t="inlineStr"/>
+      <c r="NP252" t="inlineStr"/>
+      <c r="NQ252" t="inlineStr"/>
+      <c r="NR252" t="inlineStr"/>
+      <c r="NS252" t="inlineStr"/>
+      <c r="NT252" t="inlineStr"/>
+      <c r="NU252" t="inlineStr"/>
+      <c r="NV252" t="inlineStr"/>
+      <c r="NW252" t="inlineStr"/>
+      <c r="NX252" t="inlineStr"/>
+      <c r="NY252" t="inlineStr"/>
+      <c r="NZ252" t="inlineStr"/>
+      <c r="OA252" t="inlineStr"/>
+      <c r="OB252" t="inlineStr"/>
+      <c r="OC252" t="inlineStr"/>
+      <c r="OD252" t="inlineStr"/>
+      <c r="OE252" t="inlineStr"/>
+      <c r="OF252" t="inlineStr"/>
+      <c r="OG252" t="inlineStr"/>
+      <c r="OH252" t="inlineStr"/>
+      <c r="OI252" t="inlineStr"/>
+      <c r="OJ252" t="inlineStr"/>
+      <c r="OK252" t="inlineStr"/>
+      <c r="OL252" t="inlineStr"/>
+      <c r="OM252" t="inlineStr"/>
+      <c r="ON252" t="inlineStr"/>
+      <c r="OO252" t="inlineStr"/>
+      <c r="OP252" t="inlineStr"/>
+      <c r="OQ252" t="inlineStr"/>
+      <c r="OR252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR252"/>
+  <dimension ref="A1:OR272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39162,22 +39162,6 @@
           <t>type06</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr"/>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr"/>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
       <c r="R252" t="inlineStr">
         <is>
           <t>1.38</t>
@@ -39188,48 +39172,11 @@
           <t>1.47</t>
         </is>
       </c>
-      <c r="T252" t="inlineStr"/>
-      <c r="U252" t="inlineStr"/>
-      <c r="V252" t="inlineStr"/>
-      <c r="W252" t="inlineStr"/>
-      <c r="X252" t="inlineStr"/>
-      <c r="Y252" t="inlineStr"/>
-      <c r="Z252" t="inlineStr"/>
-      <c r="AA252" t="inlineStr"/>
-      <c r="AB252" t="inlineStr"/>
-      <c r="AC252" t="inlineStr"/>
-      <c r="AD252" t="inlineStr"/>
-      <c r="AE252" t="inlineStr"/>
-      <c r="AF252" t="inlineStr"/>
-      <c r="AG252" t="inlineStr"/>
-      <c r="AH252" t="inlineStr"/>
-      <c r="AI252" t="inlineStr"/>
-      <c r="AJ252" t="inlineStr"/>
-      <c r="AK252" t="inlineStr"/>
-      <c r="AL252" t="inlineStr"/>
-      <c r="AM252" t="inlineStr"/>
-      <c r="AN252" t="inlineStr"/>
-      <c r="AO252" t="inlineStr"/>
-      <c r="AP252" t="inlineStr"/>
-      <c r="AQ252" t="inlineStr"/>
-      <c r="AR252" t="inlineStr"/>
-      <c r="AS252" t="inlineStr"/>
-      <c r="AT252" t="inlineStr"/>
-      <c r="AU252" t="inlineStr"/>
       <c r="AV252" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AW252" t="inlineStr"/>
-      <c r="AX252" t="inlineStr"/>
-      <c r="AY252" t="inlineStr"/>
-      <c r="AZ252" t="inlineStr"/>
-      <c r="BA252" t="inlineStr"/>
-      <c r="BB252" t="inlineStr"/>
-      <c r="BC252" t="inlineStr"/>
-      <c r="BD252" t="inlineStr"/>
-      <c r="BE252" t="inlineStr"/>
       <c r="BF252" t="inlineStr">
         <is>
           <t>1.82</t>
@@ -39245,22 +39192,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="BI252" t="inlineStr"/>
-      <c r="BJ252" t="inlineStr"/>
-      <c r="BK252" t="inlineStr"/>
-      <c r="BL252" t="inlineStr"/>
-      <c r="BM252" t="inlineStr"/>
-      <c r="BN252" t="inlineStr"/>
-      <c r="BO252" t="inlineStr"/>
-      <c r="BP252" t="inlineStr"/>
-      <c r="BQ252" t="inlineStr"/>
-      <c r="BR252" t="inlineStr"/>
-      <c r="BS252" t="inlineStr"/>
-      <c r="BT252" t="inlineStr"/>
-      <c r="BU252" t="inlineStr"/>
-      <c r="BV252" t="inlineStr"/>
-      <c r="BW252" t="inlineStr"/>
-      <c r="BX252" t="inlineStr"/>
       <c r="BY252" t="inlineStr">
         <is>
           <t>1.20</t>
@@ -39271,48 +39202,11 @@
           <t>1.27</t>
         </is>
       </c>
-      <c r="CA252" t="inlineStr"/>
-      <c r="CB252" t="inlineStr"/>
-      <c r="CC252" t="inlineStr"/>
-      <c r="CD252" t="inlineStr"/>
-      <c r="CE252" t="inlineStr"/>
-      <c r="CF252" t="inlineStr"/>
-      <c r="CG252" t="inlineStr"/>
-      <c r="CH252" t="inlineStr"/>
-      <c r="CI252" t="inlineStr"/>
-      <c r="CJ252" t="inlineStr"/>
-      <c r="CK252" t="inlineStr"/>
-      <c r="CL252" t="inlineStr"/>
-      <c r="CM252" t="inlineStr"/>
-      <c r="CN252" t="inlineStr"/>
-      <c r="CO252" t="inlineStr"/>
-      <c r="CP252" t="inlineStr"/>
-      <c r="CQ252" t="inlineStr"/>
-      <c r="CR252" t="inlineStr"/>
-      <c r="CS252" t="inlineStr"/>
-      <c r="CT252" t="inlineStr"/>
-      <c r="CU252" t="inlineStr"/>
-      <c r="CV252" t="inlineStr"/>
-      <c r="CW252" t="inlineStr"/>
-      <c r="CX252" t="inlineStr"/>
-      <c r="CY252" t="inlineStr"/>
-      <c r="CZ252" t="inlineStr"/>
-      <c r="DA252" t="inlineStr"/>
-      <c r="DB252" t="inlineStr"/>
       <c r="DC252" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="DD252" t="inlineStr"/>
-      <c r="DE252" t="inlineStr"/>
-      <c r="DF252" t="inlineStr"/>
-      <c r="DG252" t="inlineStr"/>
-      <c r="DH252" t="inlineStr"/>
-      <c r="DI252" t="inlineStr"/>
-      <c r="DJ252" t="inlineStr"/>
-      <c r="DK252" t="inlineStr"/>
-      <c r="DL252" t="inlineStr"/>
       <c r="DM252" t="inlineStr">
         <is>
           <t>1.08</t>
@@ -39328,9 +39222,6 @@
           <t>118</t>
         </is>
       </c>
-      <c r="DP252" t="inlineStr"/>
-      <c r="DQ252" t="inlineStr"/>
-      <c r="DR252" t="inlineStr"/>
       <c r="DS252" t="inlineStr">
         <is>
           <t>87</t>
@@ -39346,30 +39237,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="DV252" t="inlineStr"/>
-      <c r="DW252" t="inlineStr"/>
-      <c r="DX252" t="inlineStr"/>
-      <c r="DY252" t="inlineStr"/>
-      <c r="DZ252" t="inlineStr"/>
-      <c r="EA252" t="inlineStr"/>
-      <c r="EB252" t="inlineStr"/>
-      <c r="EC252" t="inlineStr"/>
-      <c r="ED252" t="inlineStr"/>
-      <c r="EE252" t="inlineStr"/>
-      <c r="EF252" t="inlineStr"/>
-      <c r="EG252" t="inlineStr"/>
-      <c r="EH252" t="inlineStr"/>
-      <c r="EI252" t="inlineStr"/>
-      <c r="EJ252" t="inlineStr"/>
-      <c r="EK252" t="inlineStr"/>
-      <c r="EL252" t="inlineStr"/>
-      <c r="EM252" t="inlineStr"/>
-      <c r="EN252" t="inlineStr"/>
-      <c r="EO252" t="inlineStr"/>
-      <c r="EP252" t="inlineStr"/>
-      <c r="EQ252" t="inlineStr"/>
-      <c r="ER252" t="inlineStr"/>
-      <c r="ES252" t="inlineStr"/>
       <c r="ET252" t="inlineStr">
         <is>
           <t>1.31</t>
@@ -39380,48 +39247,11 @@
           <t>1.48</t>
         </is>
       </c>
-      <c r="EV252" t="inlineStr"/>
-      <c r="EW252" t="inlineStr"/>
-      <c r="EX252" t="inlineStr"/>
-      <c r="EY252" t="inlineStr"/>
-      <c r="EZ252" t="inlineStr"/>
-      <c r="FA252" t="inlineStr"/>
-      <c r="FB252" t="inlineStr"/>
-      <c r="FC252" t="inlineStr"/>
-      <c r="FD252" t="inlineStr"/>
-      <c r="FE252" t="inlineStr"/>
-      <c r="FF252" t="inlineStr"/>
-      <c r="FG252" t="inlineStr"/>
-      <c r="FH252" t="inlineStr"/>
-      <c r="FI252" t="inlineStr"/>
-      <c r="FJ252" t="inlineStr"/>
-      <c r="FK252" t="inlineStr"/>
-      <c r="FL252" t="inlineStr"/>
-      <c r="FM252" t="inlineStr"/>
-      <c r="FN252" t="inlineStr"/>
-      <c r="FO252" t="inlineStr"/>
-      <c r="FP252" t="inlineStr"/>
-      <c r="FQ252" t="inlineStr"/>
-      <c r="FR252" t="inlineStr"/>
-      <c r="FS252" t="inlineStr"/>
-      <c r="FT252" t="inlineStr"/>
-      <c r="FU252" t="inlineStr"/>
-      <c r="FV252" t="inlineStr"/>
-      <c r="FW252" t="inlineStr"/>
       <c r="FX252" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="FY252" t="inlineStr"/>
-      <c r="FZ252" t="inlineStr"/>
-      <c r="GA252" t="inlineStr"/>
-      <c r="GB252" t="inlineStr"/>
-      <c r="GC252" t="inlineStr"/>
-      <c r="GD252" t="inlineStr"/>
-      <c r="GE252" t="inlineStr"/>
-      <c r="GF252" t="inlineStr"/>
-      <c r="GG252" t="inlineStr"/>
       <c r="GH252" t="inlineStr">
         <is>
           <t>1.22</t>
@@ -39467,7 +39297,6 @@
           <t>143</t>
         </is>
       </c>
-      <c r="GQ252" t="inlineStr"/>
       <c r="GR252" t="inlineStr">
         <is>
           <t>0.38</t>
@@ -39478,8 +39307,6 @@
           <t>0.54</t>
         </is>
       </c>
-      <c r="GT252" t="inlineStr"/>
-      <c r="GU252" t="inlineStr"/>
       <c r="GV252" t="inlineStr">
         <is>
           <t>40</t>
@@ -39500,40 +39327,6 @@
           <t>-387</t>
         </is>
       </c>
-      <c r="GZ252" t="inlineStr"/>
-      <c r="HA252" t="inlineStr"/>
-      <c r="HB252" t="inlineStr"/>
-      <c r="HC252" t="inlineStr"/>
-      <c r="HD252" t="inlineStr"/>
-      <c r="HE252" t="inlineStr"/>
-      <c r="HF252" t="inlineStr"/>
-      <c r="HG252" t="inlineStr"/>
-      <c r="HH252" t="inlineStr"/>
-      <c r="HI252" t="inlineStr"/>
-      <c r="HJ252" t="inlineStr"/>
-      <c r="HK252" t="inlineStr"/>
-      <c r="HL252" t="inlineStr"/>
-      <c r="HM252" t="inlineStr"/>
-      <c r="HN252" t="inlineStr"/>
-      <c r="HO252" t="inlineStr"/>
-      <c r="HP252" t="inlineStr"/>
-      <c r="HQ252" t="inlineStr"/>
-      <c r="HR252" t="inlineStr"/>
-      <c r="HS252" t="inlineStr"/>
-      <c r="HT252" t="inlineStr"/>
-      <c r="HU252" t="inlineStr"/>
-      <c r="HV252" t="inlineStr"/>
-      <c r="HW252" t="inlineStr"/>
-      <c r="HX252" t="inlineStr"/>
-      <c r="HY252" t="inlineStr"/>
-      <c r="HZ252" t="inlineStr"/>
-      <c r="IA252" t="inlineStr"/>
-      <c r="IB252" t="inlineStr"/>
-      <c r="IC252" t="inlineStr"/>
-      <c r="ID252" t="inlineStr"/>
-      <c r="IE252" t="inlineStr"/>
-      <c r="IF252" t="inlineStr"/>
-      <c r="IG252" t="inlineStr"/>
       <c r="IH252" t="inlineStr">
         <is>
           <t>3.51</t>
@@ -39544,48 +39337,11 @@
           <t>3.29</t>
         </is>
       </c>
-      <c r="IJ252" t="inlineStr"/>
-      <c r="IK252" t="inlineStr"/>
-      <c r="IL252" t="inlineStr"/>
-      <c r="IM252" t="inlineStr"/>
-      <c r="IN252" t="inlineStr"/>
-      <c r="IO252" t="inlineStr"/>
-      <c r="IP252" t="inlineStr"/>
-      <c r="IQ252" t="inlineStr"/>
-      <c r="IR252" t="inlineStr"/>
-      <c r="IS252" t="inlineStr"/>
-      <c r="IT252" t="inlineStr"/>
-      <c r="IU252" t="inlineStr"/>
-      <c r="IV252" t="inlineStr"/>
-      <c r="IW252" t="inlineStr"/>
-      <c r="IX252" t="inlineStr"/>
-      <c r="IY252" t="inlineStr"/>
-      <c r="IZ252" t="inlineStr"/>
-      <c r="JA252" t="inlineStr"/>
-      <c r="JB252" t="inlineStr"/>
-      <c r="JC252" t="inlineStr"/>
-      <c r="JD252" t="inlineStr"/>
-      <c r="JE252" t="inlineStr"/>
-      <c r="JF252" t="inlineStr"/>
-      <c r="JG252" t="inlineStr"/>
-      <c r="JH252" t="inlineStr"/>
-      <c r="JI252" t="inlineStr"/>
-      <c r="JJ252" t="inlineStr"/>
-      <c r="JK252" t="inlineStr"/>
       <c r="JL252" t="inlineStr">
         <is>
           <t>-6</t>
         </is>
       </c>
-      <c r="JM252" t="inlineStr"/>
-      <c r="JN252" t="inlineStr"/>
-      <c r="JO252" t="inlineStr"/>
-      <c r="JP252" t="inlineStr"/>
-      <c r="JQ252" t="inlineStr"/>
-      <c r="JR252" t="inlineStr"/>
-      <c r="JS252" t="inlineStr"/>
-      <c r="JT252" t="inlineStr"/>
-      <c r="JU252" t="inlineStr"/>
       <c r="JV252" t="inlineStr">
         <is>
           <t>3.89</t>
@@ -39601,17 +39357,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="JY252" t="inlineStr"/>
-      <c r="JZ252" t="inlineStr"/>
-      <c r="KA252" t="inlineStr"/>
-      <c r="KB252" t="inlineStr"/>
-      <c r="KC252" t="inlineStr"/>
-      <c r="KD252" t="inlineStr"/>
-      <c r="KE252" t="inlineStr"/>
-      <c r="KF252" t="inlineStr"/>
-      <c r="KG252" t="inlineStr"/>
-      <c r="KH252" t="inlineStr"/>
-      <c r="KI252" t="inlineStr"/>
       <c r="KJ252" t="inlineStr">
         <is>
           <t>-4</t>
@@ -39627,15 +39372,6 @@
           <t>4.48</t>
         </is>
       </c>
-      <c r="KM252" t="inlineStr"/>
-      <c r="KN252" t="inlineStr"/>
-      <c r="KO252" t="inlineStr"/>
-      <c r="KP252" t="inlineStr"/>
-      <c r="KQ252" t="inlineStr"/>
-      <c r="KR252" t="inlineStr"/>
-      <c r="KS252" t="inlineStr"/>
-      <c r="KT252" t="inlineStr"/>
-      <c r="KU252" t="inlineStr"/>
       <c r="KV252" t="inlineStr">
         <is>
           <t>0.97</t>
@@ -39646,8 +39382,6 @@
           <t>0.97</t>
         </is>
       </c>
-      <c r="KX252" t="inlineStr"/>
-      <c r="KY252" t="inlineStr"/>
       <c r="KZ252" t="inlineStr">
         <is>
           <t>-0</t>
@@ -39668,17 +39402,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="LD252" t="inlineStr"/>
-      <c r="LE252" t="inlineStr"/>
-      <c r="LF252" t="inlineStr"/>
-      <c r="LG252" t="inlineStr"/>
-      <c r="LH252" t="inlineStr"/>
-      <c r="LI252" t="inlineStr"/>
-      <c r="LJ252" t="inlineStr"/>
-      <c r="LK252" t="inlineStr"/>
-      <c r="LL252" t="inlineStr"/>
-      <c r="LM252" t="inlineStr"/>
-      <c r="LN252" t="inlineStr"/>
       <c r="LO252" t="inlineStr">
         <is>
           <t>18</t>
@@ -39694,13 +39417,11 @@
           <t>1.62</t>
         </is>
       </c>
-      <c r="LR252" t="inlineStr"/>
       <c r="LS252" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="LT252" t="inlineStr"/>
       <c r="LU252" t="inlineStr">
         <is>
           <t>-95</t>
@@ -39716,14 +39437,6 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="LX252" t="inlineStr"/>
-      <c r="LY252" t="inlineStr"/>
-      <c r="LZ252" t="inlineStr"/>
-      <c r="MA252" t="inlineStr"/>
-      <c r="MB252" t="inlineStr"/>
-      <c r="MC252" t="inlineStr"/>
-      <c r="MD252" t="inlineStr"/>
-      <c r="ME252" t="inlineStr"/>
       <c r="MF252" t="inlineStr">
         <is>
           <t>001011</t>
@@ -39734,73 +39447,8587 @@
           <t>001011</t>
         </is>
       </c>
-      <c r="MH252" t="inlineStr"/>
-      <c r="MI252" t="inlineStr"/>
-      <c r="MJ252" t="inlineStr"/>
-      <c r="MK252" t="inlineStr"/>
-      <c r="ML252" t="inlineStr"/>
-      <c r="MM252" t="inlineStr"/>
-      <c r="MN252" t="inlineStr"/>
-      <c r="MO252" t="inlineStr"/>
       <c r="MP252" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="MQ252" t="inlineStr"/>
-      <c r="MR252" t="inlineStr"/>
-      <c r="MS252" t="inlineStr"/>
-      <c r="MT252" t="inlineStr"/>
-      <c r="MU252" t="inlineStr"/>
-      <c r="MV252" t="inlineStr"/>
-      <c r="MW252" t="inlineStr"/>
-      <c r="MX252" t="inlineStr"/>
-      <c r="MY252" t="inlineStr"/>
-      <c r="MZ252" t="inlineStr"/>
-      <c r="NA252" t="inlineStr"/>
-      <c r="NB252" t="inlineStr"/>
-      <c r="NC252" t="inlineStr"/>
-      <c r="ND252" t="inlineStr"/>
-      <c r="NE252" t="inlineStr"/>
-      <c r="NF252" t="inlineStr"/>
-      <c r="NG252" t="inlineStr"/>
-      <c r="NH252" t="inlineStr"/>
-      <c r="NI252" t="inlineStr"/>
-      <c r="NJ252" t="inlineStr"/>
-      <c r="NK252" t="inlineStr"/>
-      <c r="NL252" t="inlineStr"/>
-      <c r="NM252" t="inlineStr"/>
-      <c r="NN252" t="inlineStr"/>
-      <c r="NO252" t="inlineStr"/>
-      <c r="NP252" t="inlineStr"/>
-      <c r="NQ252" t="inlineStr"/>
-      <c r="NR252" t="inlineStr"/>
-      <c r="NS252" t="inlineStr"/>
-      <c r="NT252" t="inlineStr"/>
-      <c r="NU252" t="inlineStr"/>
-      <c r="NV252" t="inlineStr"/>
-      <c r="NW252" t="inlineStr"/>
-      <c r="NX252" t="inlineStr"/>
-      <c r="NY252" t="inlineStr"/>
-      <c r="NZ252" t="inlineStr"/>
-      <c r="OA252" t="inlineStr"/>
-      <c r="OB252" t="inlineStr"/>
-      <c r="OC252" t="inlineStr"/>
-      <c r="OD252" t="inlineStr"/>
-      <c r="OE252" t="inlineStr"/>
-      <c r="OF252" t="inlineStr"/>
-      <c r="OG252" t="inlineStr"/>
-      <c r="OH252" t="inlineStr"/>
-      <c r="OI252" t="inlineStr"/>
-      <c r="OJ252" t="inlineStr"/>
-      <c r="OK252" t="inlineStr"/>
-      <c r="OL252" t="inlineStr"/>
-      <c r="OM252" t="inlineStr"/>
-      <c r="ON252" t="inlineStr"/>
-      <c r="OO252" t="inlineStr"/>
-      <c r="OP252" t="inlineStr"/>
-      <c r="OQ252" t="inlineStr"/>
-      <c r="OR252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK253" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM253" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN253" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO253" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP253" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ253" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR253" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW253" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX253" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY253" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ253" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA253" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB253" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO253" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP253" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ253" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR253" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS253" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT253" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX253" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY253" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA253" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB253" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC253" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD253" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE253" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF253" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR253" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT253" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU253" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV253" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW253" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX253" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY253" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE253" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF253" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG253" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH253" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI253" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ253" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK253" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL253" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM253" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN253" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO253" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET253" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV253" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW253" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX253" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY253" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ253" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA253" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY253" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ253" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA253" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB253" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC253" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD253" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX253" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY253" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ253" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA253" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB253" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC253" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG253" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH253" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ253" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK253" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL253" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM253" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN253" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO253" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA253" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC253" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD253" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE253" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF253" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG253" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH253" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM253" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN253" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO253" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP253" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ253" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR253" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AA254" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AB254" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="AK254" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AM254" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AN254" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO254" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP254" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AQ254" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR254" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AS254" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AT254" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AU254" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AW254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX254" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ254" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA254" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BB254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC254" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD254" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE254" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BO254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP254" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ254" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR254" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS254" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT254" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU254" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV254" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW254" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX254" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BY254" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CA254" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CB254" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CC254" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="CD254" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CE254" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CF254" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CG254" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CH254" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CI254" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="CR254" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CT254" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CU254" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CV254" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CW254" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CX254" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CY254" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CZ254" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="DA254" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DB254" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DD254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE254" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF254" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DG254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI254" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DJ254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK254" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DL254" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="EJ254" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="EK254" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EL254" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="EM254" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="EN254" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="EO254" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="EP254" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="EQ254" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ER254" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ET254" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="EV254" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EW254" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="EX254" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="EY254" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EZ254" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="FA254" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FB254" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FC254" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="FD254" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="FY254" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="FZ254" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GA254" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GB254" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GC254" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GD254" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GE254" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GF254" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GG254" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="HX254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY254" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ254" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA254" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB254" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC254" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID254" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE254" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF254" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG254" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="IH254" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="IJ254" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="IK254" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="IL254" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="IM254" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="IN254" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="IO254" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="IP254" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="IQ254" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="IR254" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="JA254" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC254" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JD254" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JE254" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JF254" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="JG254" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JH254" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="JI254" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JJ254" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JK254" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JM254" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JN254" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JO254" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JP254" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JQ254" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JR254" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JS254" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="JT254" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JU254" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="V255" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AA255" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AB255" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="AK255" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AM255" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AN255" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO255" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP255" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AQ255" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR255" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AS255" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AT255" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AU255" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AW255" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX255" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ255" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA255" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BB255" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC255" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD255" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE255" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BO255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP255" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ255" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR255" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS255" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT255" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU255" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV255" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW255" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX255" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BY255" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CA255" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CB255" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CC255" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="CD255" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CE255" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CF255" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CG255" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CH255" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CI255" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="CR255" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CT255" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CU255" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CV255" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CW255" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CX255" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CY255" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CZ255" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="DA255" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DB255" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DD255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE255" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF255" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DG255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI255" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DJ255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK255" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DL255" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="EJ255" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="EK255" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EL255" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="EM255" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="EN255" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="EO255" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="EP255" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="EQ255" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ER255" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ET255" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="EV255" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EW255" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="EX255" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="EY255" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EZ255" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="FA255" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FB255" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FC255" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="FD255" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="FY255" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="FZ255" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GA255" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GB255" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GC255" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GD255" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GE255" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GF255" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GG255" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="HX255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY255" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ255" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA255" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB255" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC255" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID255" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE255" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF255" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="IG255" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="IH255" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="IJ255" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="IK255" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="IL255" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="IM255" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="IN255" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="IO255" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="IP255" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="IQ255" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="IR255" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="JA255" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC255" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JD255" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JE255" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JF255" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="JG255" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH255" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="JI255" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JJ255" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JK255" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JM255" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JN255" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JO255" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JP255" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JQ255" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JR255" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JS255" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="JT255" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JU255" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="NM256" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NN256" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="NO256" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="NP256" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NQ256" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="NR256" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="NS256" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NT256" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="NU256" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="NV256" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NW256" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="NX256" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="NY256" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="NZ256" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="OA256" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AA257" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AB257" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="AK257" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AM257" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AN257" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO257" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP257" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AQ257" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR257" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AS257" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AT257" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AU257" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AW257" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX257" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY257" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ257" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA257" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BB257" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC257" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD257" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE257" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BO257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP257" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ257" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR257" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS257" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT257" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU257" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV257" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW257" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX257" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BY257" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CA257" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CB257" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CC257" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="CD257" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CE257" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CF257" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CG257" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CH257" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CI257" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="CR257" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CT257" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CU257" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CV257" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CW257" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CX257" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CY257" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CZ257" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="DA257" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DB257" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DD257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE257" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF257" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DG257" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH257" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI257" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DJ257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK257" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DL257" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="EJ257" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="EK257" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EL257" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="EM257" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="EN257" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="EO257" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="EP257" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="EQ257" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ER257" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ET257" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="EV257" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EW257" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="EX257" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="EY257" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EZ257" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="FA257" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FB257" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FC257" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="FD257" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="FY257" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="FZ257" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GA257" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GB257" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GC257" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GD257" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GE257" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GF257" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GG257" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="HX257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY257" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ257" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA257" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB257" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC257" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID257" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE257" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF257" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG257" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="IH257" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="IJ257" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="IK257" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="IL257" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="IM257" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="IN257" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="IO257" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="IP257" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="IQ257" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="IR257" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="JA257" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC257" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JD257" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JE257" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JF257" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="JG257" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JH257" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="JI257" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JJ257" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JK257" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JM257" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JN257" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JO257" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JP257" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JQ257" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JR257" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JS257" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="JT257" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JU257" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK258" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM258" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN258" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO258" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP258" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ258" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR258" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW258" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX258" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY258" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ258" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA258" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB258" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO258" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP258" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ258" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR258" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS258" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT258" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX258" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY258" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA258" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB258" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC258" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD258" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE258" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF258" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR258" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT258" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU258" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV258" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW258" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX258" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY258" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE258" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF258" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG258" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH258" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI258" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ258" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK258" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL258" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM258" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN258" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO258" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET258" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV258" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW258" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX258" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY258" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ258" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA258" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY258" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ258" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA258" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB258" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC258" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD258" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX258" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY258" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ258" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA258" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB258" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC258" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG258" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH258" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ258" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK258" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL258" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM258" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN258" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO258" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA258" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC258" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD258" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE258" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF258" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG258" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH258" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM258" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN258" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO258" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP258" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ258" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR258" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="AK259" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="BI259" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="BJ259" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="BL259" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="BX259" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="BY259" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="CR259" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DR259" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="DS259" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="ED259" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE259" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="ES259" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="ET259" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="FM259" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="GQ259" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="GR259" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="GT259" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="HA259" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="HF259" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="HG259" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="HI259" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="HL259" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="HM259" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="HO259" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="HR259" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="HS259" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="HU259" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="IG259" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="IH259" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="JA259" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="KU259" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="KV259" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="KX259" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="MF259" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MQ259" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="MR259" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="MS259" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="MT259" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="MU259" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="MV259" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="MW259" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="MX259" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="MY259" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="MZ259" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="NA259" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="NB259" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="NC259" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="ND259" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="NE259" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="NF259" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="NG259" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="NH259" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="NI259" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="NJ259" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="NK259" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="NL259" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="NM259" t="inlineStr">
+        <is>
+          <t>22.1</t>
+        </is>
+      </c>
+      <c r="NN259" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="NO259" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="NP259" t="inlineStr">
+        <is>
+          <t>22.1</t>
+        </is>
+      </c>
+      <c r="NQ259" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="NR259" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="NS259" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="NT259" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="NU259" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="NV259" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="NW259" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="NX259" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="NY259" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="NZ259" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="OB259" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="OC259" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="OD259" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="OE259" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="OF259" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="OG259" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="OH259" t="inlineStr">
+        <is>
+          <t>0.837</t>
+        </is>
+      </c>
+      <c r="OI259" t="inlineStr">
+        <is>
+          <t>0.590</t>
+        </is>
+      </c>
+      <c r="OJ259" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="OK259" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="OL259" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="OM259" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="ON259" t="inlineStr">
+        <is>
+          <t>0.221</t>
+        </is>
+      </c>
+      <c r="OO259" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="OP259" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="OQ259" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="OR259" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="AK260" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AL260" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AV260" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BI260" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="BJ260" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="BK260" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="BL260" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="BM260" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="BN260" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="BX260" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="BY260" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="BZ260" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="CR260" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="CS260" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DC260" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DR260" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="DS260" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DT260" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="ED260" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE260" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="EF260" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="ES260" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="ET260" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="EU260" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="FM260" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="FN260" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="FX260" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GQ260" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="GR260" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="GS260" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="GT260" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="GU260" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="GV260" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
+      </c>
+      <c r="HA260" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="HB260" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="HE260" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="HF260" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="HG260" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="HH260" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="HI260" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="HJ260" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="HK260" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="HL260" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="HM260" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="HN260" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="HO260" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="HP260" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="HQ260" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="HR260" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="HS260" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="HT260" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="HU260" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="HV260" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="HW260" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="IG260" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="IH260" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="II260" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="JA260" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JB260" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JL260" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="KU260" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="KV260" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="KW260" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="KX260" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="KY260" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="KZ260" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="MF260" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG260" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MQ260" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="MR260" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="MS260" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="MT260" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="MU260" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="MV260" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="MW260" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="MX260" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="MY260" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="MZ260" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="NA260" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="NB260" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="NC260" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="ND260" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="NE260" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="NF260" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="NG260" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="NH260" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="NI260" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="NJ260" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="NK260" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="NL260" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="NM260" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="NN260" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="NO260" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="NP260" t="inlineStr">
+        <is>
+          <t>18.7</t>
+        </is>
+      </c>
+      <c r="NQ260" t="inlineStr">
+        <is>
+          <t>11.3</t>
+        </is>
+      </c>
+      <c r="NR260" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="NS260" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="NT260" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="NU260" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="NV260" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="NW260" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="NX260" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="NY260" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="NZ260" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="OB260" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="OC260" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="OD260" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="OE260" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="OF260" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="OG260" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="OH260" t="inlineStr">
+        <is>
+          <t>0.808</t>
+        </is>
+      </c>
+      <c r="OI260" t="inlineStr">
+        <is>
+          <t>0.407</t>
+        </is>
+      </c>
+      <c r="OJ260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="OK260" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="OL260" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="OM260" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="ON260" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="OO260" t="inlineStr">
+        <is>
+          <t>0.109</t>
+        </is>
+      </c>
+      <c r="OP260" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="OQ260" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="OR260" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="AK261" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AL261" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="AV261" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BI261" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="BJ261" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="BK261" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="BL261" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="BM261" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="BN261" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BX261" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="BY261" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="BZ261" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="CR261" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="CS261" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="DC261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DR261" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="DS261" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DT261" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="ED261" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE261" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="EF261" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="ES261" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="ET261" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="EU261" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="FM261" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FN261" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="FX261" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="GQ261" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="GR261" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="GS261" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="GT261" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="GU261" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="GV261" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="HA261" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="HB261" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="HE261" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="HF261" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="HG261" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="HH261" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="HI261" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="HJ261" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="HK261" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="HL261" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="HM261" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="HN261" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="HO261" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="HP261" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="HQ261" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="HR261" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="HS261" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="HT261" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="HU261" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="HV261" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="HW261" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="IG261" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="IH261" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="II261" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="JA261" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JB261" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JL261" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="KU261" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="KV261" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="KW261" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="KX261" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="KY261" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="KZ261" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="MF261" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG261" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MQ261" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="MR261" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="MS261" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="MT261" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="MU261" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="MV261" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="MW261" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="MX261" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="MY261" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="MZ261" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="NA261" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="NB261" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="NC261" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="ND261" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="NE261" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="NF261" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="NG261" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="NH261" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="NI261" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="NJ261" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="NK261" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="NL261" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="NM261" t="inlineStr">
+        <is>
+          <t>15.5</t>
+        </is>
+      </c>
+      <c r="NN261" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="NO261" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="NP261" t="inlineStr">
+        <is>
+          <t>15.5</t>
+        </is>
+      </c>
+      <c r="NQ261" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="NR261" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="NS261" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="NT261" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="NU261" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="NV261" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="NW261" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="NX261" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="NY261" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="NZ261" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="OB261" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="OC261" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="OD261" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="OE261" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="OF261" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="OG261" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="OH261" t="inlineStr">
+        <is>
+          <t>0.622</t>
+        </is>
+      </c>
+      <c r="OI261" t="inlineStr">
+        <is>
+          <t>0.618</t>
+        </is>
+      </c>
+      <c r="OJ261" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="OK261" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="OL261" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="OM261" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="ON261" t="inlineStr">
+        <is>
+          <t>0.260</t>
+        </is>
+      </c>
+      <c r="OO261" t="inlineStr">
+        <is>
+          <t>0.207</t>
+        </is>
+      </c>
+      <c r="OP261" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="OQ261" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="OR261" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK262" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AL262" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AV262" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BI262" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="BJ262" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="BK262" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="BL262" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="BM262" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="BN262" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="BX262" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="BY262" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="BZ262" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="CR262" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="CS262" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="DC262" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DR262" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="DS262" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DT262" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="ED262" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE262" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="EF262" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="ES262" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="ET262" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EU262" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="FM262" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="FN262" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="FX262" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="GQ262" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="GR262" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="GS262" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="GT262" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="GU262" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GV262" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="HA262" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="HB262" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+      <c r="HE262" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="HF262" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="HG262" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="HH262" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="HI262" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="HJ262" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="HK262" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="HL262" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="HM262" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="HN262" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="HO262" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="HP262" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="HQ262" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="HR262" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="HS262" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="HT262" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="HU262" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="HV262" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="HW262" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="IG262" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="IH262" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="II262" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="JA262" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="JB262" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="JL262" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="KU262" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="KV262" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="KW262" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="KX262" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="KY262" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="KZ262" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="MF262" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG262" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="MQ262" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="MR262" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="MS262" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="MT262" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="MU262" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="MV262" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="MW262" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="MX262" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="MY262" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="MZ262" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="NA262" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="NB262" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="NC262" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="ND262" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="NE262" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="NF262" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="NG262" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="NH262" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="NI262" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="NJ262" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="NK262" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="NL262" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="NM262" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="NN262" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="NO262" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="NP262" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="NQ262" t="inlineStr">
+        <is>
+          <t>23.1</t>
+        </is>
+      </c>
+      <c r="NR262" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="NS262" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="NT262" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="NU262" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="NV262" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="NW262" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="NX262" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="NY262" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="NZ262" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="OB262" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="OC262" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="OD262" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="OE262" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="OF262" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="OG262" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="OH262" t="inlineStr">
+        <is>
+          <t>0.784</t>
+        </is>
+      </c>
+      <c r="OI262" t="inlineStr">
+        <is>
+          <t>0.349</t>
+        </is>
+      </c>
+      <c r="OJ262" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="OK262" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="OL262" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="OM262" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="ON262" t="inlineStr">
+        <is>
+          <t>0.218</t>
+        </is>
+      </c>
+      <c r="OO262" t="inlineStr">
+        <is>
+          <t>0.125</t>
+        </is>
+      </c>
+      <c r="OP262" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="OQ262" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="OR262" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>type04</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="AK263" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="BI263" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="BJ263" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="BL263" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BX263" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="BY263" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="CR263" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="DR263" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="DS263" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="ED263" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="EE263" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="ES263" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="ET263" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="FM263" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="GQ263" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="GR263" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="GT263" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="HA263" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="HF263" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="HG263" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="HI263" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="HL263" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="HM263" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="HO263" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="HR263" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="HS263" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+      <c r="HU263" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="IG263" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="IH263" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="JA263" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="KU263" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="KV263" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="KX263" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="MF263" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MQ263" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="MR263" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="MS263" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="MT263" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="MU263" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="MV263" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="MW263" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="MX263" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="MY263" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="MZ263" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="NA263" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="NB263" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="NC263" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="ND263" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="NE263" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="NF263" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="NG263" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="NH263" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="NI263" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="NJ263" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="NK263" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="NL263" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="NM263" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="NN263" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="NO263" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="NP263" t="inlineStr">
+        <is>
+          <t>27.3</t>
+        </is>
+      </c>
+      <c r="NQ263" t="inlineStr">
+        <is>
+          <t>27.4</t>
+        </is>
+      </c>
+      <c r="NR263" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="NS263" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="NT263" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="NU263" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="NV263" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="NW263" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="NX263" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="NY263" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="NZ263" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="OB263" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="OC263" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="OD263" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="OE263" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="OF263" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="OG263" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="OH263" t="inlineStr">
+        <is>
+          <t>0.873</t>
+        </is>
+      </c>
+      <c r="OI263" t="inlineStr">
+        <is>
+          <t>0.890</t>
+        </is>
+      </c>
+      <c r="OJ263" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="OK263" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="OL263" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="OM263" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="ON263" t="inlineStr">
+        <is>
+          <t>0.224</t>
+        </is>
+      </c>
+      <c r="OO263" t="inlineStr">
+        <is>
+          <t>0.175</t>
+        </is>
+      </c>
+      <c r="OP263" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="OQ263" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="OR263" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="BF264" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="BG264" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="BY264" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="DM264" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="DN264" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="DS264" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DU264" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="ET264" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="GH264" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="GI264" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GL264" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="GM264" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="GN264" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GR264" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="GW264" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="GX264" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="IH264" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="JV264" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="JW264" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JZ264" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="KK264" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="KV264" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="LA264" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="LB264" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="LM264" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="LP264" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="LQ264" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="LV264" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="MF264" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MP264" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="BF265" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="BG265" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="BY265" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="DM265" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="DN265" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DS265" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="DU265" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ET265" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GH265" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GI265" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="GL265" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="GM265" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GN265" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="GR265" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="GW265" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="GX265" t="inlineStr">
+        <is>
+          <t>-1100</t>
+        </is>
+      </c>
+      <c r="IH265" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="JV265" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="JW265" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="JZ265" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="KK265" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="KV265" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="LA265" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="LB265" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="LP265" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="LQ265" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="LV265" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF265" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MP265" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="BF266" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="BG266" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="BY266" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="DM266" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="DN266" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="DS266" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DU266" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="ET266" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="GH266" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="GI266" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="GL266" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="GM266" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="GN266" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="GR266" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="GW266" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="GX266" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="IH266" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="JV266" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="JW266" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="JZ266" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KK266" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="KV266" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="LA266" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="LB266" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="LP266" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="LQ266" t="inlineStr">
+        <is>
+          <t>-00</t>
+        </is>
+      </c>
+      <c r="LV266" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="MF266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="MP266" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>type05</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="BF267" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="BG267" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="BY267" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="DM267" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="DN267" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DS267" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="DU267" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="ET267" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GH267" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GI267" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GL267" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="GM267" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="GN267" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="GR267" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="GW267" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GX267" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="IH267" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="JV267" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="JW267" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JZ267" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="KK267" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="KV267" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="LA267" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="LB267" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LM267" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LP267" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="LQ267" t="inlineStr">
+        <is>
+          <t>-00</t>
+        </is>
+      </c>
+      <c r="LV267" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="MF267" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MP267" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="AV268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF268" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="BG268" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="BH268" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="BY268" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="BZ268" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="DC268" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DM268" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="DN268" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="DO268" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="DS268" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="DT268" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="DU268" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="ET268" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EU268" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="FX268" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="GH268" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="GI268" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="GJ268" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="GK268" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="GL268" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="GM268" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="GN268" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="GO268" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="GP268" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="GR268" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="GS268" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="GV268" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="GW268" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="GX268" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="GY268" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="IH268" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="II268" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="JL268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="JV268" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="JW268" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JX268" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="KJ268" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="KK268" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="KL268" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="KV268" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="KW268" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="KZ268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="LA268" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="LB268" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="LC268" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="LL268" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="LM268" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="LN268" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="LO268" t="inlineStr">
+        <is>
+          <t>-33</t>
+        </is>
+      </c>
+      <c r="LP268" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="LQ268" t="inlineStr">
+        <is>
+          <t>-00</t>
+        </is>
+      </c>
+      <c r="LS268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="LU268" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="LV268" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="LW268" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="MF268" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG268" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MP268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="AV269" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BF269" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="BG269" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="BH269" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BY269" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="BZ269" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="DC269" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="DM269" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="DN269" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="DO269" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="DS269" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DT269" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="DU269" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="ET269" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="EU269" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="FX269" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="GH269" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="GI269" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="GJ269" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="GK269" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="GL269" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="GM269" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="GN269" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="GO269" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="GP269" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="GR269" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="GS269" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="GV269" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="GW269" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="GX269" t="inlineStr">
+        <is>
+          <t>-276</t>
+        </is>
+      </c>
+      <c r="GY269" t="inlineStr">
+        <is>
+          <t>-387</t>
+        </is>
+      </c>
+      <c r="IH269" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="II269" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="JL269" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JV269" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="JW269" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="JX269" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="KJ269" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="KK269" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="KL269" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="KV269" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="KW269" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="KZ269" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="LA269" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="LB269" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="LC269" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="LO269" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="LP269" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="LQ269" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="LS269" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="LU269" t="inlineStr">
+        <is>
+          <t>-95</t>
+        </is>
+      </c>
+      <c r="LV269" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="LW269" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="MF269" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MG269" t="inlineStr">
+        <is>
+          <t>001011</t>
+        </is>
+      </c>
+      <c r="MP269" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="AV270" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BF270" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="BG270" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="BH270" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="BY270" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ270" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="DC270" t="inlineStr">
+        <is>
+          <t>-94</t>
+        </is>
+      </c>
+      <c r="DM270" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="DN270" t="inlineStr">
+        <is>
+          <t>-95</t>
+        </is>
+      </c>
+      <c r="DO270" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DS270" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="DT270" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DU270" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="ET270" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="EU270" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="FX270" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="GH270" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="GI270" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="GJ270" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="GK270" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="GL270" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="GM270" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="GN270" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="GO270" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="GP270" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="GR270" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="GS270" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="GV270" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="GW270" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="GX270" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="GY270" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="IH270" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="II270" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="JL270" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="JV270" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="JW270" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="JX270" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="KJ270" t="inlineStr">
+        <is>
+          <t>-16</t>
+        </is>
+      </c>
+      <c r="KK270" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="KL270" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="KV270" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="KW270" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="KZ270" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="LA270" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="LB270" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="LC270" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="LO270" t="inlineStr">
+        <is>
+          <t>-21</t>
+        </is>
+      </c>
+      <c r="LP270" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="LQ270" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="LS270" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="LU270" t="inlineStr">
+        <is>
+          <t>-62</t>
+        </is>
+      </c>
+      <c r="LV270" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="LW270" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="MF270" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="MG270" t="inlineStr">
+        <is>
+          <t>101000</t>
+        </is>
+      </c>
+      <c r="MP270" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="AV271" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BF271" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="BG271" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="BH271" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="BY271" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="BZ271" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="DC271" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="DM271" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="DN271" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="DO271" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="DS271" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="DT271" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="DU271" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="ET271" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="EU271" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="FX271" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="GH271" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="GI271" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="GJ271" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="GK271" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="GL271" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="GM271" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="GN271" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="GO271" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="GP271" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="GR271" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="GS271" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="GV271" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="GW271" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="GX271" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="GY271" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="IH271" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="II271" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="JL271" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JV271" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="JW271" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="JX271" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="KJ271" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="KK271" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="KL271" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="KV271" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="KW271" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="KZ271" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="LA271" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="LB271" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="LC271" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="LO271" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="LP271" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="LQ271" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="LS271" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="LU271" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="LV271" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="LW271" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF271" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MG271" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MP271" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
+      <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr"/>
+      <c r="Y272" t="inlineStr"/>
+      <c r="Z272" t="inlineStr"/>
+      <c r="AA272" t="inlineStr"/>
+      <c r="AB272" t="inlineStr"/>
+      <c r="AC272" t="inlineStr"/>
+      <c r="AD272" t="inlineStr"/>
+      <c r="AE272" t="inlineStr"/>
+      <c r="AF272" t="inlineStr"/>
+      <c r="AG272" t="inlineStr"/>
+      <c r="AH272" t="inlineStr"/>
+      <c r="AI272" t="inlineStr"/>
+      <c r="AJ272" t="inlineStr"/>
+      <c r="AK272" t="inlineStr"/>
+      <c r="AL272" t="inlineStr"/>
+      <c r="AM272" t="inlineStr"/>
+      <c r="AN272" t="inlineStr"/>
+      <c r="AO272" t="inlineStr"/>
+      <c r="AP272" t="inlineStr"/>
+      <c r="AQ272" t="inlineStr"/>
+      <c r="AR272" t="inlineStr"/>
+      <c r="AS272" t="inlineStr"/>
+      <c r="AT272" t="inlineStr"/>
+      <c r="AU272" t="inlineStr"/>
+      <c r="AV272" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="AW272" t="inlineStr"/>
+      <c r="AX272" t="inlineStr"/>
+      <c r="AY272" t="inlineStr"/>
+      <c r="AZ272" t="inlineStr"/>
+      <c r="BA272" t="inlineStr"/>
+      <c r="BB272" t="inlineStr"/>
+      <c r="BC272" t="inlineStr"/>
+      <c r="BD272" t="inlineStr"/>
+      <c r="BE272" t="inlineStr"/>
+      <c r="BF272" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="BG272" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BH272" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BI272" t="inlineStr"/>
+      <c r="BJ272" t="inlineStr"/>
+      <c r="BK272" t="inlineStr"/>
+      <c r="BL272" t="inlineStr"/>
+      <c r="BM272" t="inlineStr"/>
+      <c r="BN272" t="inlineStr"/>
+      <c r="BO272" t="inlineStr"/>
+      <c r="BP272" t="inlineStr"/>
+      <c r="BQ272" t="inlineStr"/>
+      <c r="BR272" t="inlineStr"/>
+      <c r="BS272" t="inlineStr"/>
+      <c r="BT272" t="inlineStr"/>
+      <c r="BU272" t="inlineStr"/>
+      <c r="BV272" t="inlineStr"/>
+      <c r="BW272" t="inlineStr"/>
+      <c r="BX272" t="inlineStr"/>
+      <c r="BY272" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="BZ272" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="CA272" t="inlineStr"/>
+      <c r="CB272" t="inlineStr"/>
+      <c r="CC272" t="inlineStr"/>
+      <c r="CD272" t="inlineStr"/>
+      <c r="CE272" t="inlineStr"/>
+      <c r="CF272" t="inlineStr"/>
+      <c r="CG272" t="inlineStr"/>
+      <c r="CH272" t="inlineStr"/>
+      <c r="CI272" t="inlineStr"/>
+      <c r="CJ272" t="inlineStr"/>
+      <c r="CK272" t="inlineStr"/>
+      <c r="CL272" t="inlineStr"/>
+      <c r="CM272" t="inlineStr"/>
+      <c r="CN272" t="inlineStr"/>
+      <c r="CO272" t="inlineStr"/>
+      <c r="CP272" t="inlineStr"/>
+      <c r="CQ272" t="inlineStr"/>
+      <c r="CR272" t="inlineStr"/>
+      <c r="CS272" t="inlineStr"/>
+      <c r="CT272" t="inlineStr"/>
+      <c r="CU272" t="inlineStr"/>
+      <c r="CV272" t="inlineStr"/>
+      <c r="CW272" t="inlineStr"/>
+      <c r="CX272" t="inlineStr"/>
+      <c r="CY272" t="inlineStr"/>
+      <c r="CZ272" t="inlineStr"/>
+      <c r="DA272" t="inlineStr"/>
+      <c r="DB272" t="inlineStr"/>
+      <c r="DC272" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DD272" t="inlineStr"/>
+      <c r="DE272" t="inlineStr"/>
+      <c r="DF272" t="inlineStr"/>
+      <c r="DG272" t="inlineStr"/>
+      <c r="DH272" t="inlineStr"/>
+      <c r="DI272" t="inlineStr"/>
+      <c r="DJ272" t="inlineStr"/>
+      <c r="DK272" t="inlineStr"/>
+      <c r="DL272" t="inlineStr"/>
+      <c r="DM272" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="DN272" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="DO272" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DP272" t="inlineStr"/>
+      <c r="DQ272" t="inlineStr"/>
+      <c r="DR272" t="inlineStr"/>
+      <c r="DS272" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DT272" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DU272" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DV272" t="inlineStr"/>
+      <c r="DW272" t="inlineStr"/>
+      <c r="DX272" t="inlineStr"/>
+      <c r="DY272" t="inlineStr"/>
+      <c r="DZ272" t="inlineStr"/>
+      <c r="EA272" t="inlineStr"/>
+      <c r="EB272" t="inlineStr"/>
+      <c r="EC272" t="inlineStr"/>
+      <c r="ED272" t="inlineStr"/>
+      <c r="EE272" t="inlineStr"/>
+      <c r="EF272" t="inlineStr"/>
+      <c r="EG272" t="inlineStr"/>
+      <c r="EH272" t="inlineStr"/>
+      <c r="EI272" t="inlineStr"/>
+      <c r="EJ272" t="inlineStr"/>
+      <c r="EK272" t="inlineStr"/>
+      <c r="EL272" t="inlineStr"/>
+      <c r="EM272" t="inlineStr"/>
+      <c r="EN272" t="inlineStr"/>
+      <c r="EO272" t="inlineStr"/>
+      <c r="EP272" t="inlineStr"/>
+      <c r="EQ272" t="inlineStr"/>
+      <c r="ER272" t="inlineStr"/>
+      <c r="ES272" t="inlineStr"/>
+      <c r="ET272" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="EU272" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EV272" t="inlineStr"/>
+      <c r="EW272" t="inlineStr"/>
+      <c r="EX272" t="inlineStr"/>
+      <c r="EY272" t="inlineStr"/>
+      <c r="EZ272" t="inlineStr"/>
+      <c r="FA272" t="inlineStr"/>
+      <c r="FB272" t="inlineStr"/>
+      <c r="FC272" t="inlineStr"/>
+      <c r="FD272" t="inlineStr"/>
+      <c r="FE272" t="inlineStr"/>
+      <c r="FF272" t="inlineStr"/>
+      <c r="FG272" t="inlineStr"/>
+      <c r="FH272" t="inlineStr"/>
+      <c r="FI272" t="inlineStr"/>
+      <c r="FJ272" t="inlineStr"/>
+      <c r="FK272" t="inlineStr"/>
+      <c r="FL272" t="inlineStr"/>
+      <c r="FM272" t="inlineStr"/>
+      <c r="FN272" t="inlineStr"/>
+      <c r="FO272" t="inlineStr"/>
+      <c r="FP272" t="inlineStr"/>
+      <c r="FQ272" t="inlineStr"/>
+      <c r="FR272" t="inlineStr"/>
+      <c r="FS272" t="inlineStr"/>
+      <c r="FT272" t="inlineStr"/>
+      <c r="FU272" t="inlineStr"/>
+      <c r="FV272" t="inlineStr"/>
+      <c r="FW272" t="inlineStr"/>
+      <c r="FX272" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="FY272" t="inlineStr"/>
+      <c r="FZ272" t="inlineStr"/>
+      <c r="GA272" t="inlineStr"/>
+      <c r="GB272" t="inlineStr"/>
+      <c r="GC272" t="inlineStr"/>
+      <c r="GD272" t="inlineStr"/>
+      <c r="GE272" t="inlineStr"/>
+      <c r="GF272" t="inlineStr"/>
+      <c r="GG272" t="inlineStr"/>
+      <c r="GH272" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="GI272" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="GJ272" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="GK272" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="GL272" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="GM272" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="GN272" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="GO272" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="GP272" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="GQ272" t="inlineStr"/>
+      <c r="GR272" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GS272" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GT272" t="inlineStr"/>
+      <c r="GU272" t="inlineStr"/>
+      <c r="GV272" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="GW272" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="GX272" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="GY272" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="GZ272" t="inlineStr"/>
+      <c r="HA272" t="inlineStr"/>
+      <c r="HB272" t="inlineStr"/>
+      <c r="HC272" t="inlineStr"/>
+      <c r="HD272" t="inlineStr"/>
+      <c r="HE272" t="inlineStr"/>
+      <c r="HF272" t="inlineStr"/>
+      <c r="HG272" t="inlineStr"/>
+      <c r="HH272" t="inlineStr"/>
+      <c r="HI272" t="inlineStr"/>
+      <c r="HJ272" t="inlineStr"/>
+      <c r="HK272" t="inlineStr"/>
+      <c r="HL272" t="inlineStr"/>
+      <c r="HM272" t="inlineStr"/>
+      <c r="HN272" t="inlineStr"/>
+      <c r="HO272" t="inlineStr"/>
+      <c r="HP272" t="inlineStr"/>
+      <c r="HQ272" t="inlineStr"/>
+      <c r="HR272" t="inlineStr"/>
+      <c r="HS272" t="inlineStr"/>
+      <c r="HT272" t="inlineStr"/>
+      <c r="HU272" t="inlineStr"/>
+      <c r="HV272" t="inlineStr"/>
+      <c r="HW272" t="inlineStr"/>
+      <c r="HX272" t="inlineStr"/>
+      <c r="HY272" t="inlineStr"/>
+      <c r="HZ272" t="inlineStr"/>
+      <c r="IA272" t="inlineStr"/>
+      <c r="IB272" t="inlineStr"/>
+      <c r="IC272" t="inlineStr"/>
+      <c r="ID272" t="inlineStr"/>
+      <c r="IE272" t="inlineStr"/>
+      <c r="IF272" t="inlineStr"/>
+      <c r="IG272" t="inlineStr"/>
+      <c r="IH272" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="II272" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="IJ272" t="inlineStr"/>
+      <c r="IK272" t="inlineStr"/>
+      <c r="IL272" t="inlineStr"/>
+      <c r="IM272" t="inlineStr"/>
+      <c r="IN272" t="inlineStr"/>
+      <c r="IO272" t="inlineStr"/>
+      <c r="IP272" t="inlineStr"/>
+      <c r="IQ272" t="inlineStr"/>
+      <c r="IR272" t="inlineStr"/>
+      <c r="IS272" t="inlineStr"/>
+      <c r="IT272" t="inlineStr"/>
+      <c r="IU272" t="inlineStr"/>
+      <c r="IV272" t="inlineStr"/>
+      <c r="IW272" t="inlineStr"/>
+      <c r="IX272" t="inlineStr"/>
+      <c r="IY272" t="inlineStr"/>
+      <c r="IZ272" t="inlineStr"/>
+      <c r="JA272" t="inlineStr"/>
+      <c r="JB272" t="inlineStr"/>
+      <c r="JC272" t="inlineStr"/>
+      <c r="JD272" t="inlineStr"/>
+      <c r="JE272" t="inlineStr"/>
+      <c r="JF272" t="inlineStr"/>
+      <c r="JG272" t="inlineStr"/>
+      <c r="JH272" t="inlineStr"/>
+      <c r="JI272" t="inlineStr"/>
+      <c r="JJ272" t="inlineStr"/>
+      <c r="JK272" t="inlineStr"/>
+      <c r="JL272" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JM272" t="inlineStr"/>
+      <c r="JN272" t="inlineStr"/>
+      <c r="JO272" t="inlineStr"/>
+      <c r="JP272" t="inlineStr"/>
+      <c r="JQ272" t="inlineStr"/>
+      <c r="JR272" t="inlineStr"/>
+      <c r="JS272" t="inlineStr"/>
+      <c r="JT272" t="inlineStr"/>
+      <c r="JU272" t="inlineStr"/>
+      <c r="JV272" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="JW272" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="JX272" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JY272" t="inlineStr"/>
+      <c r="JZ272" t="inlineStr"/>
+      <c r="KA272" t="inlineStr"/>
+      <c r="KB272" t="inlineStr"/>
+      <c r="KC272" t="inlineStr"/>
+      <c r="KD272" t="inlineStr"/>
+      <c r="KE272" t="inlineStr"/>
+      <c r="KF272" t="inlineStr"/>
+      <c r="KG272" t="inlineStr"/>
+      <c r="KH272" t="inlineStr"/>
+      <c r="KI272" t="inlineStr"/>
+      <c r="KJ272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="KK272" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="KL272" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="KM272" t="inlineStr"/>
+      <c r="KN272" t="inlineStr"/>
+      <c r="KO272" t="inlineStr"/>
+      <c r="KP272" t="inlineStr"/>
+      <c r="KQ272" t="inlineStr"/>
+      <c r="KR272" t="inlineStr"/>
+      <c r="KS272" t="inlineStr"/>
+      <c r="KT272" t="inlineStr"/>
+      <c r="KU272" t="inlineStr"/>
+      <c r="KV272" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="KW272" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="KX272" t="inlineStr"/>
+      <c r="KY272" t="inlineStr"/>
+      <c r="KZ272" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="LA272" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="LB272" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LC272" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="LD272" t="inlineStr"/>
+      <c r="LE272" t="inlineStr"/>
+      <c r="LF272" t="inlineStr"/>
+      <c r="LG272" t="inlineStr"/>
+      <c r="LH272" t="inlineStr"/>
+      <c r="LI272" t="inlineStr"/>
+      <c r="LJ272" t="inlineStr"/>
+      <c r="LK272" t="inlineStr"/>
+      <c r="LL272" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="LM272" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="LN272" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="LO272" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="LP272" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="LQ272" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="LR272" t="inlineStr"/>
+      <c r="LS272" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="LT272" t="inlineStr"/>
+      <c r="LU272" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="LV272" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="LW272" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="LX272" t="inlineStr"/>
+      <c r="LY272" t="inlineStr"/>
+      <c r="LZ272" t="inlineStr"/>
+      <c r="MA272" t="inlineStr"/>
+      <c r="MB272" t="inlineStr"/>
+      <c r="MC272" t="inlineStr"/>
+      <c r="MD272" t="inlineStr"/>
+      <c r="ME272" t="inlineStr"/>
+      <c r="MF272" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MG272" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MH272" t="inlineStr"/>
+      <c r="MI272" t="inlineStr"/>
+      <c r="MJ272" t="inlineStr"/>
+      <c r="MK272" t="inlineStr"/>
+      <c r="ML272" t="inlineStr"/>
+      <c r="MM272" t="inlineStr"/>
+      <c r="MN272" t="inlineStr"/>
+      <c r="MO272" t="inlineStr"/>
+      <c r="MP272" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="MQ272" t="inlineStr"/>
+      <c r="MR272" t="inlineStr"/>
+      <c r="MS272" t="inlineStr"/>
+      <c r="MT272" t="inlineStr"/>
+      <c r="MU272" t="inlineStr"/>
+      <c r="MV272" t="inlineStr"/>
+      <c r="MW272" t="inlineStr"/>
+      <c r="MX272" t="inlineStr"/>
+      <c r="MY272" t="inlineStr"/>
+      <c r="MZ272" t="inlineStr"/>
+      <c r="NA272" t="inlineStr"/>
+      <c r="NB272" t="inlineStr"/>
+      <c r="NC272" t="inlineStr"/>
+      <c r="ND272" t="inlineStr"/>
+      <c r="NE272" t="inlineStr"/>
+      <c r="NF272" t="inlineStr"/>
+      <c r="NG272" t="inlineStr"/>
+      <c r="NH272" t="inlineStr"/>
+      <c r="NI272" t="inlineStr"/>
+      <c r="NJ272" t="inlineStr"/>
+      <c r="NK272" t="inlineStr"/>
+      <c r="NL272" t="inlineStr"/>
+      <c r="NM272" t="inlineStr"/>
+      <c r="NN272" t="inlineStr"/>
+      <c r="NO272" t="inlineStr"/>
+      <c r="NP272" t="inlineStr"/>
+      <c r="NQ272" t="inlineStr"/>
+      <c r="NR272" t="inlineStr"/>
+      <c r="NS272" t="inlineStr"/>
+      <c r="NT272" t="inlineStr"/>
+      <c r="NU272" t="inlineStr"/>
+      <c r="NV272" t="inlineStr"/>
+      <c r="NW272" t="inlineStr"/>
+      <c r="NX272" t="inlineStr"/>
+      <c r="NY272" t="inlineStr"/>
+      <c r="NZ272" t="inlineStr"/>
+      <c r="OA272" t="inlineStr"/>
+      <c r="OB272" t="inlineStr"/>
+      <c r="OC272" t="inlineStr"/>
+      <c r="OD272" t="inlineStr"/>
+      <c r="OE272" t="inlineStr"/>
+      <c r="OF272" t="inlineStr"/>
+      <c r="OG272" t="inlineStr"/>
+      <c r="OH272" t="inlineStr"/>
+      <c r="OI272" t="inlineStr"/>
+      <c r="OJ272" t="inlineStr"/>
+      <c r="OK272" t="inlineStr"/>
+      <c r="OL272" t="inlineStr"/>
+      <c r="OM272" t="inlineStr"/>
+      <c r="ON272" t="inlineStr"/>
+      <c r="OO272" t="inlineStr"/>
+      <c r="OP272" t="inlineStr"/>
+      <c r="OQ272" t="inlineStr"/>
+      <c r="OR272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR338"/>
+  <dimension ref="A1:OR349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72234,21 +72234,6 @@
           <t>type07</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr"/>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr"/>
-      <c r="E338" t="inlineStr"/>
-      <c r="F338" t="inlineStr"/>
-      <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr"/>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="inlineStr"/>
-      <c r="N338" t="inlineStr"/>
-      <c r="O338" t="inlineStr"/>
-      <c r="P338" t="inlineStr"/>
       <c r="Q338" t="inlineStr">
         <is>
           <t>4.49</t>
@@ -72264,23 +72249,6 @@
           <t>4.97</t>
         </is>
       </c>
-      <c r="T338" t="inlineStr"/>
-      <c r="U338" t="inlineStr"/>
-      <c r="V338" t="inlineStr"/>
-      <c r="W338" t="inlineStr"/>
-      <c r="X338" t="inlineStr"/>
-      <c r="Y338" t="inlineStr"/>
-      <c r="Z338" t="inlineStr"/>
-      <c r="AA338" t="inlineStr"/>
-      <c r="AB338" t="inlineStr"/>
-      <c r="AC338" t="inlineStr"/>
-      <c r="AD338" t="inlineStr"/>
-      <c r="AE338" t="inlineStr"/>
-      <c r="AF338" t="inlineStr"/>
-      <c r="AG338" t="inlineStr"/>
-      <c r="AH338" t="inlineStr"/>
-      <c r="AI338" t="inlineStr"/>
-      <c r="AJ338" t="inlineStr"/>
       <c r="AK338" t="inlineStr">
         <is>
           <t>113</t>
@@ -72291,47 +72259,11 @@
           <t>111</t>
         </is>
       </c>
-      <c r="AM338" t="inlineStr"/>
-      <c r="AN338" t="inlineStr"/>
-      <c r="AO338" t="inlineStr"/>
-      <c r="AP338" t="inlineStr"/>
-      <c r="AQ338" t="inlineStr"/>
-      <c r="AR338" t="inlineStr"/>
-      <c r="AS338" t="inlineStr"/>
-      <c r="AT338" t="inlineStr"/>
-      <c r="AU338" t="inlineStr"/>
       <c r="AV338" t="inlineStr">
         <is>
           <t>-2</t>
         </is>
       </c>
-      <c r="AW338" t="inlineStr"/>
-      <c r="AX338" t="inlineStr"/>
-      <c r="AY338" t="inlineStr"/>
-      <c r="AZ338" t="inlineStr"/>
-      <c r="BA338" t="inlineStr"/>
-      <c r="BB338" t="inlineStr"/>
-      <c r="BC338" t="inlineStr"/>
-      <c r="BD338" t="inlineStr"/>
-      <c r="BE338" t="inlineStr"/>
-      <c r="BF338" t="inlineStr"/>
-      <c r="BG338" t="inlineStr"/>
-      <c r="BH338" t="inlineStr"/>
-      <c r="BI338" t="inlineStr"/>
-      <c r="BJ338" t="inlineStr"/>
-      <c r="BK338" t="inlineStr"/>
-      <c r="BL338" t="inlineStr"/>
-      <c r="BM338" t="inlineStr"/>
-      <c r="BN338" t="inlineStr"/>
-      <c r="BO338" t="inlineStr"/>
-      <c r="BP338" t="inlineStr"/>
-      <c r="BQ338" t="inlineStr"/>
-      <c r="BR338" t="inlineStr"/>
-      <c r="BS338" t="inlineStr"/>
-      <c r="BT338" t="inlineStr"/>
-      <c r="BU338" t="inlineStr"/>
-      <c r="BV338" t="inlineStr"/>
-      <c r="BW338" t="inlineStr"/>
       <c r="BX338" t="inlineStr">
         <is>
           <t>3.40</t>
@@ -72347,23 +72279,6 @@
           <t>1.85</t>
         </is>
       </c>
-      <c r="CA338" t="inlineStr"/>
-      <c r="CB338" t="inlineStr"/>
-      <c r="CC338" t="inlineStr"/>
-      <c r="CD338" t="inlineStr"/>
-      <c r="CE338" t="inlineStr"/>
-      <c r="CF338" t="inlineStr"/>
-      <c r="CG338" t="inlineStr"/>
-      <c r="CH338" t="inlineStr"/>
-      <c r="CI338" t="inlineStr"/>
-      <c r="CJ338" t="inlineStr"/>
-      <c r="CK338" t="inlineStr"/>
-      <c r="CL338" t="inlineStr"/>
-      <c r="CM338" t="inlineStr"/>
-      <c r="CN338" t="inlineStr"/>
-      <c r="CO338" t="inlineStr"/>
-      <c r="CP338" t="inlineStr"/>
-      <c r="CQ338" t="inlineStr"/>
       <c r="CR338" t="inlineStr">
         <is>
           <t>59</t>
@@ -72374,34 +72289,11 @@
           <t>54</t>
         </is>
       </c>
-      <c r="CT338" t="inlineStr"/>
-      <c r="CU338" t="inlineStr"/>
-      <c r="CV338" t="inlineStr"/>
-      <c r="CW338" t="inlineStr"/>
-      <c r="CX338" t="inlineStr"/>
-      <c r="CY338" t="inlineStr"/>
-      <c r="CZ338" t="inlineStr"/>
-      <c r="DA338" t="inlineStr"/>
-      <c r="DB338" t="inlineStr"/>
       <c r="DC338" t="inlineStr">
         <is>
           <t>-8</t>
         </is>
       </c>
-      <c r="DD338" t="inlineStr"/>
-      <c r="DE338" t="inlineStr"/>
-      <c r="DF338" t="inlineStr"/>
-      <c r="DG338" t="inlineStr"/>
-      <c r="DH338" t="inlineStr"/>
-      <c r="DI338" t="inlineStr"/>
-      <c r="DJ338" t="inlineStr"/>
-      <c r="DK338" t="inlineStr"/>
-      <c r="DL338" t="inlineStr"/>
-      <c r="DM338" t="inlineStr"/>
-      <c r="DN338" t="inlineStr"/>
-      <c r="DO338" t="inlineStr"/>
-      <c r="DP338" t="inlineStr"/>
-      <c r="DQ338" t="inlineStr"/>
       <c r="DR338" t="inlineStr">
         <is>
           <t>75</t>
@@ -72417,30 +72309,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="DU338" t="inlineStr"/>
-      <c r="DV338" t="inlineStr"/>
-      <c r="DW338" t="inlineStr"/>
-      <c r="DX338" t="inlineStr"/>
-      <c r="DY338" t="inlineStr"/>
-      <c r="DZ338" t="inlineStr"/>
-      <c r="EA338" t="inlineStr"/>
-      <c r="EB338" t="inlineStr"/>
-      <c r="EC338" t="inlineStr"/>
-      <c r="ED338" t="inlineStr"/>
-      <c r="EE338" t="inlineStr"/>
-      <c r="EF338" t="inlineStr"/>
-      <c r="EG338" t="inlineStr"/>
-      <c r="EH338" t="inlineStr"/>
-      <c r="EI338" t="inlineStr"/>
-      <c r="EJ338" t="inlineStr"/>
-      <c r="EK338" t="inlineStr"/>
-      <c r="EL338" t="inlineStr"/>
-      <c r="EM338" t="inlineStr"/>
-      <c r="EN338" t="inlineStr"/>
-      <c r="EO338" t="inlineStr"/>
-      <c r="EP338" t="inlineStr"/>
-      <c r="EQ338" t="inlineStr"/>
-      <c r="ER338" t="inlineStr"/>
       <c r="ES338" t="inlineStr">
         <is>
           <t>2.89</t>
@@ -72456,23 +72324,6 @@
           <t>1.25</t>
         </is>
       </c>
-      <c r="EV338" t="inlineStr"/>
-      <c r="EW338" t="inlineStr"/>
-      <c r="EX338" t="inlineStr"/>
-      <c r="EY338" t="inlineStr"/>
-      <c r="EZ338" t="inlineStr"/>
-      <c r="FA338" t="inlineStr"/>
-      <c r="FB338" t="inlineStr"/>
-      <c r="FC338" t="inlineStr"/>
-      <c r="FD338" t="inlineStr"/>
-      <c r="FE338" t="inlineStr"/>
-      <c r="FF338" t="inlineStr"/>
-      <c r="FG338" t="inlineStr"/>
-      <c r="FH338" t="inlineStr"/>
-      <c r="FI338" t="inlineStr"/>
-      <c r="FJ338" t="inlineStr"/>
-      <c r="FK338" t="inlineStr"/>
-      <c r="FL338" t="inlineStr"/>
       <c r="FM338" t="inlineStr">
         <is>
           <t>48</t>
@@ -72483,80 +72334,11 @@
           <t>43</t>
         </is>
       </c>
-      <c r="FO338" t="inlineStr"/>
-      <c r="FP338" t="inlineStr"/>
-      <c r="FQ338" t="inlineStr"/>
-      <c r="FR338" t="inlineStr"/>
-      <c r="FS338" t="inlineStr"/>
-      <c r="FT338" t="inlineStr"/>
-      <c r="FU338" t="inlineStr"/>
-      <c r="FV338" t="inlineStr"/>
-      <c r="FW338" t="inlineStr"/>
       <c r="FX338" t="inlineStr">
         <is>
           <t>-9</t>
         </is>
       </c>
-      <c r="FY338" t="inlineStr"/>
-      <c r="FZ338" t="inlineStr"/>
-      <c r="GA338" t="inlineStr"/>
-      <c r="GB338" t="inlineStr"/>
-      <c r="GC338" t="inlineStr"/>
-      <c r="GD338" t="inlineStr"/>
-      <c r="GE338" t="inlineStr"/>
-      <c r="GF338" t="inlineStr"/>
-      <c r="GG338" t="inlineStr"/>
-      <c r="GH338" t="inlineStr"/>
-      <c r="GI338" t="inlineStr"/>
-      <c r="GJ338" t="inlineStr"/>
-      <c r="GK338" t="inlineStr"/>
-      <c r="GL338" t="inlineStr"/>
-      <c r="GM338" t="inlineStr"/>
-      <c r="GN338" t="inlineStr"/>
-      <c r="GO338" t="inlineStr"/>
-      <c r="GP338" t="inlineStr"/>
-      <c r="GQ338" t="inlineStr"/>
-      <c r="GR338" t="inlineStr"/>
-      <c r="GS338" t="inlineStr"/>
-      <c r="GT338" t="inlineStr"/>
-      <c r="GU338" t="inlineStr"/>
-      <c r="GV338" t="inlineStr"/>
-      <c r="GW338" t="inlineStr"/>
-      <c r="GX338" t="inlineStr"/>
-      <c r="GY338" t="inlineStr"/>
-      <c r="GZ338" t="inlineStr"/>
-      <c r="HA338" t="inlineStr"/>
-      <c r="HB338" t="inlineStr"/>
-      <c r="HC338" t="inlineStr"/>
-      <c r="HD338" t="inlineStr"/>
-      <c r="HE338" t="inlineStr"/>
-      <c r="HF338" t="inlineStr"/>
-      <c r="HG338" t="inlineStr"/>
-      <c r="HH338" t="inlineStr"/>
-      <c r="HI338" t="inlineStr"/>
-      <c r="HJ338" t="inlineStr"/>
-      <c r="HK338" t="inlineStr"/>
-      <c r="HL338" t="inlineStr"/>
-      <c r="HM338" t="inlineStr"/>
-      <c r="HN338" t="inlineStr"/>
-      <c r="HO338" t="inlineStr"/>
-      <c r="HP338" t="inlineStr"/>
-      <c r="HQ338" t="inlineStr"/>
-      <c r="HR338" t="inlineStr"/>
-      <c r="HS338" t="inlineStr"/>
-      <c r="HT338" t="inlineStr"/>
-      <c r="HU338" t="inlineStr"/>
-      <c r="HV338" t="inlineStr"/>
-      <c r="HW338" t="inlineStr"/>
-      <c r="HX338" t="inlineStr"/>
-      <c r="HY338" t="inlineStr"/>
-      <c r="HZ338" t="inlineStr"/>
-      <c r="IA338" t="inlineStr"/>
-      <c r="IB338" t="inlineStr"/>
-      <c r="IC338" t="inlineStr"/>
-      <c r="ID338" t="inlineStr"/>
-      <c r="IE338" t="inlineStr"/>
-      <c r="IF338" t="inlineStr"/>
       <c r="IG338" t="inlineStr">
         <is>
           <t>7.75</t>
@@ -72572,23 +72354,6 @@
           <t>2.29</t>
         </is>
       </c>
-      <c r="IJ338" t="inlineStr"/>
-      <c r="IK338" t="inlineStr"/>
-      <c r="IL338" t="inlineStr"/>
-      <c r="IM338" t="inlineStr"/>
-      <c r="IN338" t="inlineStr"/>
-      <c r="IO338" t="inlineStr"/>
-      <c r="IP338" t="inlineStr"/>
-      <c r="IQ338" t="inlineStr"/>
-      <c r="IR338" t="inlineStr"/>
-      <c r="IS338" t="inlineStr"/>
-      <c r="IT338" t="inlineStr"/>
-      <c r="IU338" t="inlineStr"/>
-      <c r="IV338" t="inlineStr"/>
-      <c r="IW338" t="inlineStr"/>
-      <c r="IX338" t="inlineStr"/>
-      <c r="IY338" t="inlineStr"/>
-      <c r="IZ338" t="inlineStr"/>
       <c r="JA338" t="inlineStr">
         <is>
           <t>33</t>
@@ -72599,32 +72364,11 @@
           <t>30</t>
         </is>
       </c>
-      <c r="JC338" t="inlineStr"/>
-      <c r="JD338" t="inlineStr"/>
-      <c r="JE338" t="inlineStr"/>
-      <c r="JF338" t="inlineStr"/>
-      <c r="JG338" t="inlineStr"/>
-      <c r="JH338" t="inlineStr"/>
-      <c r="JI338" t="inlineStr"/>
-      <c r="JJ338" t="inlineStr"/>
-      <c r="JK338" t="inlineStr"/>
       <c r="JL338" t="inlineStr">
         <is>
           <t>-10</t>
         </is>
       </c>
-      <c r="JM338" t="inlineStr"/>
-      <c r="JN338" t="inlineStr"/>
-      <c r="JO338" t="inlineStr"/>
-      <c r="JP338" t="inlineStr"/>
-      <c r="JQ338" t="inlineStr"/>
-      <c r="JR338" t="inlineStr"/>
-      <c r="JS338" t="inlineStr"/>
-      <c r="JT338" t="inlineStr"/>
-      <c r="JU338" t="inlineStr"/>
-      <c r="JV338" t="inlineStr"/>
-      <c r="JW338" t="inlineStr"/>
-      <c r="JX338" t="inlineStr"/>
       <c r="JY338" t="inlineStr">
         <is>
           <t>26</t>
@@ -72640,14 +72384,6 @@
           <t>0.19</t>
         </is>
       </c>
-      <c r="KB338" t="inlineStr"/>
-      <c r="KC338" t="inlineStr"/>
-      <c r="KD338" t="inlineStr"/>
-      <c r="KE338" t="inlineStr"/>
-      <c r="KF338" t="inlineStr"/>
-      <c r="KG338" t="inlineStr"/>
-      <c r="KH338" t="inlineStr"/>
-      <c r="KI338" t="inlineStr"/>
       <c r="KJ338" t="inlineStr">
         <is>
           <t>22</t>
@@ -72663,14 +72399,6 @@
           <t>9.45</t>
         </is>
       </c>
-      <c r="KM338" t="inlineStr"/>
-      <c r="KN338" t="inlineStr"/>
-      <c r="KO338" t="inlineStr"/>
-      <c r="KP338" t="inlineStr"/>
-      <c r="KQ338" t="inlineStr"/>
-      <c r="KR338" t="inlineStr"/>
-      <c r="KS338" t="inlineStr"/>
-      <c r="KT338" t="inlineStr"/>
       <c r="KU338" t="inlineStr">
         <is>
           <t>4.08</t>
@@ -72701,41 +72429,11 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="LA338" t="inlineStr"/>
-      <c r="LB338" t="inlineStr"/>
-      <c r="LC338" t="inlineStr"/>
-      <c r="LD338" t="inlineStr"/>
-      <c r="LE338" t="inlineStr"/>
-      <c r="LF338" t="inlineStr"/>
-      <c r="LG338" t="inlineStr"/>
-      <c r="LH338" t="inlineStr"/>
-      <c r="LI338" t="inlineStr"/>
-      <c r="LJ338" t="inlineStr"/>
-      <c r="LK338" t="inlineStr"/>
-      <c r="LL338" t="inlineStr"/>
-      <c r="LM338" t="inlineStr"/>
-      <c r="LN338" t="inlineStr"/>
-      <c r="LO338" t="inlineStr"/>
-      <c r="LP338" t="inlineStr"/>
-      <c r="LQ338" t="inlineStr"/>
-      <c r="LR338" t="inlineStr"/>
-      <c r="LS338" t="inlineStr"/>
-      <c r="LT338" t="inlineStr"/>
-      <c r="LU338" t="inlineStr"/>
-      <c r="LV338" t="inlineStr"/>
       <c r="LW338" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="LX338" t="inlineStr"/>
-      <c r="LY338" t="inlineStr"/>
-      <c r="LZ338" t="inlineStr"/>
-      <c r="MA338" t="inlineStr"/>
-      <c r="MB338" t="inlineStr"/>
-      <c r="MC338" t="inlineStr"/>
-      <c r="MD338" t="inlineStr"/>
-      <c r="ME338" t="inlineStr"/>
       <c r="MF338" t="inlineStr">
         <is>
           <t>000000</t>
@@ -72746,69 +72444,3780 @@
           <t>000000</t>
         </is>
       </c>
-      <c r="MH338" t="inlineStr"/>
-      <c r="MI338" t="inlineStr"/>
-      <c r="MJ338" t="inlineStr"/>
-      <c r="MK338" t="inlineStr"/>
-      <c r="ML338" t="inlineStr"/>
-      <c r="MM338" t="inlineStr"/>
-      <c r="MN338" t="inlineStr"/>
-      <c r="MO338" t="inlineStr"/>
-      <c r="MP338" t="inlineStr"/>
-      <c r="MQ338" t="inlineStr"/>
-      <c r="MR338" t="inlineStr"/>
-      <c r="MS338" t="inlineStr"/>
-      <c r="MT338" t="inlineStr"/>
-      <c r="MU338" t="inlineStr"/>
-      <c r="MV338" t="inlineStr"/>
-      <c r="MW338" t="inlineStr"/>
-      <c r="MX338" t="inlineStr"/>
-      <c r="MY338" t="inlineStr"/>
-      <c r="MZ338" t="inlineStr"/>
-      <c r="NA338" t="inlineStr"/>
-      <c r="NB338" t="inlineStr"/>
-      <c r="NC338" t="inlineStr"/>
-      <c r="ND338" t="inlineStr"/>
-      <c r="NE338" t="inlineStr"/>
-      <c r="NF338" t="inlineStr"/>
-      <c r="NG338" t="inlineStr"/>
-      <c r="NH338" t="inlineStr"/>
-      <c r="NI338" t="inlineStr"/>
-      <c r="NJ338" t="inlineStr"/>
-      <c r="NK338" t="inlineStr"/>
-      <c r="NL338" t="inlineStr"/>
-      <c r="NM338" t="inlineStr"/>
-      <c r="NN338" t="inlineStr"/>
-      <c r="NO338" t="inlineStr"/>
-      <c r="NP338" t="inlineStr"/>
-      <c r="NQ338" t="inlineStr"/>
-      <c r="NR338" t="inlineStr"/>
-      <c r="NS338" t="inlineStr"/>
-      <c r="NT338" t="inlineStr"/>
-      <c r="NU338" t="inlineStr"/>
-      <c r="NV338" t="inlineStr"/>
-      <c r="NW338" t="inlineStr"/>
-      <c r="NX338" t="inlineStr"/>
-      <c r="NY338" t="inlineStr"/>
-      <c r="NZ338" t="inlineStr"/>
-      <c r="OA338" t="inlineStr"/>
-      <c r="OB338" t="inlineStr"/>
-      <c r="OC338" t="inlineStr"/>
-      <c r="OD338" t="inlineStr"/>
-      <c r="OE338" t="inlineStr"/>
-      <c r="OF338" t="inlineStr"/>
-      <c r="OG338" t="inlineStr"/>
-      <c r="OH338" t="inlineStr"/>
-      <c r="OI338" t="inlineStr"/>
-      <c r="OJ338" t="inlineStr"/>
-      <c r="OK338" t="inlineStr"/>
-      <c r="OL338" t="inlineStr"/>
-      <c r="OM338" t="inlineStr"/>
-      <c r="ON338" t="inlineStr"/>
-      <c r="OO338" t="inlineStr"/>
-      <c r="OP338" t="inlineStr"/>
-      <c r="OQ338" t="inlineStr"/>
-      <c r="OR338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC339" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="AD339" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="AF339" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="AG339" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="CJ339" t="inlineStr">
+        <is>
+          <t>1 85
+4 1</t>
+        </is>
+      </c>
+      <c r="CK339" t="inlineStr">
+        <is>
+          <t>1 55
+12</t>
+        </is>
+      </c>
+      <c r="CM339" t="inlineStr">
+        <is>
+          <t>2 00</t>
+        </is>
+      </c>
+      <c r="CN339" t="inlineStr">
+        <is>
+          <t>201
+ 1</t>
+        </is>
+      </c>
+      <c r="DV339" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DW339" t="inlineStr">
+        <is>
+          <t>.53</t>
+        </is>
+      </c>
+      <c r="DY339" t="inlineStr">
+        <is>
+          <t>4 1</t>
+        </is>
+      </c>
+      <c r="DZ339" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FE339" t="inlineStr">
+        <is>
+          <t>11 3
+ 2</t>
+        </is>
+      </c>
+      <c r="FF339" t="inlineStr">
+        <is>
+          <t>115
+ 2 4</t>
+        </is>
+      </c>
+      <c r="FH339" t="inlineStr">
+        <is>
+          <t>1 3 1</t>
+        </is>
+      </c>
+      <c r="FI339" t="inlineStr">
+        <is>
+          <t>14.1
+ 4</t>
+        </is>
+      </c>
+      <c r="KB339" t="inlineStr">
+        <is>
+          <t>15
+ 2</t>
+        </is>
+      </c>
+      <c r="KC339" t="inlineStr">
+        <is>
+          <t>. 1
+174</t>
+        </is>
+      </c>
+      <c r="KE339" t="inlineStr">
+        <is>
+          <t>1 3
+712</t>
+        </is>
+      </c>
+      <c r="KF339" t="inlineStr">
+        <is>
+          <t>111
+7 1</t>
+        </is>
+      </c>
+      <c r="KM339" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="KN339" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="KP339" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="KQ339" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="LD339" t="inlineStr">
+        <is>
+          <t>. 3
+   4</t>
+        </is>
+      </c>
+      <c r="LE339" t="inlineStr">
+        <is>
+          <t>. .2 . 
+ 1.</t>
+        </is>
+      </c>
+      <c r="LG339" t="inlineStr">
+        <is>
+          <t>.1 3</t>
+        </is>
+      </c>
+      <c r="LH339" t="inlineStr">
+        <is>
+          <t>.122
+  1</t>
+        </is>
+      </c>
+      <c r="LX339" t="inlineStr">
+        <is>
+          <t>1 114</t>
+        </is>
+      </c>
+      <c r="LY339" t="inlineStr">
+        <is>
+          <t>1  13
+ . . .</t>
+        </is>
+      </c>
+      <c r="MB339" t="inlineStr">
+        <is>
+          <t>11  11</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="AV340" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="BF340" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="BG340" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BH340" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BY340" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="BZ340" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="DC340" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DM340" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="DN340" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="DO340" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DS340" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DT340" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DU340" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="ET340" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="EU340" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="FX340" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GH340" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="GI340" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="GJ340" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="GK340" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="GL340" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="GM340" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="GN340" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="GO340" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="GP340" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="GR340" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GS340" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GV340" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="GW340" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="GX340" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="GY340" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="IH340" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="II340" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="JL340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JV340" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="JW340" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="JX340" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="KJ340" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="KK340" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="KL340" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="KV340" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="KW340" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="KZ340" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="LA340" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="LB340" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LC340" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="LL340" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="LM340" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="LN340" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="LO340" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="LP340" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="LQ340" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="LS340" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="LU340" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="LV340" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="LW340" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF340" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MG340" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MP340" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>type06</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="AV341" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="BF341" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="BG341" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="BH341" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BY341" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="BZ341" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="DC341" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="DM341" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="DN341" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="DO341" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DS341" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="DT341" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="DU341" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="ET341" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="EU341" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="FX341" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GH341" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="GI341" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="GJ341" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="GK341" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="GL341" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="GM341" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="GN341" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="GO341" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="GP341" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="GR341" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GS341" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="GV341" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="GW341" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="GX341" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="GY341" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="IH341" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="II341" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="JL341" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JV341" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="JW341" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="JX341" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="KJ341" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="KK341" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="KL341" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="KV341" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="KW341" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="KZ341" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="LA341" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="LB341" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="LC341" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="LL341" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="LM341" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="LN341" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="LO341" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="LP341" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="LQ341" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="LS341" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="LU341" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="LV341" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="LW341" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MF341" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="MG341" t="inlineStr">
+        <is>
+          <t>000000</t>
+        </is>
+      </c>
+      <c r="MP341" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC342" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="AD342" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="AF342" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="AG342" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="CJ342" t="inlineStr">
+        <is>
+          <t>1 85
+4 1</t>
+        </is>
+      </c>
+      <c r="CK342" t="inlineStr">
+        <is>
+          <t>1 55
+12</t>
+        </is>
+      </c>
+      <c r="CM342" t="inlineStr">
+        <is>
+          <t>2 00</t>
+        </is>
+      </c>
+      <c r="CN342" t="inlineStr">
+        <is>
+          <t>201
+ 1</t>
+        </is>
+      </c>
+      <c r="DV342" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="DW342" t="inlineStr">
+        <is>
+          <t>.53</t>
+        </is>
+      </c>
+      <c r="DY342" t="inlineStr">
+        <is>
+          <t>4 1</t>
+        </is>
+      </c>
+      <c r="DZ342" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="FE342" t="inlineStr">
+        <is>
+          <t>11 3
+ 2</t>
+        </is>
+      </c>
+      <c r="FF342" t="inlineStr">
+        <is>
+          <t>115
+ 2 4</t>
+        </is>
+      </c>
+      <c r="FH342" t="inlineStr">
+        <is>
+          <t>1 3 1</t>
+        </is>
+      </c>
+      <c r="FI342" t="inlineStr">
+        <is>
+          <t>14.1
+ 4</t>
+        </is>
+      </c>
+      <c r="KB342" t="inlineStr">
+        <is>
+          <t>15
+ 2</t>
+        </is>
+      </c>
+      <c r="KC342" t="inlineStr">
+        <is>
+          <t>. 1
+174</t>
+        </is>
+      </c>
+      <c r="KE342" t="inlineStr">
+        <is>
+          <t>1 3
+712</t>
+        </is>
+      </c>
+      <c r="KF342" t="inlineStr">
+        <is>
+          <t>111
+7 1</t>
+        </is>
+      </c>
+      <c r="KM342" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="KN342" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="KP342" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="KQ342" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="LD342" t="inlineStr">
+        <is>
+          <t>. 3
+   4</t>
+        </is>
+      </c>
+      <c r="LE342" t="inlineStr">
+        <is>
+          <t>. .2 . 
+ 1.</t>
+        </is>
+      </c>
+      <c r="LG342" t="inlineStr">
+        <is>
+          <t>.1 3</t>
+        </is>
+      </c>
+      <c r="LH342" t="inlineStr">
+        <is>
+          <t>.122
+  1</t>
+        </is>
+      </c>
+      <c r="LX342" t="inlineStr">
+        <is>
+          <t>1 114</t>
+        </is>
+      </c>
+      <c r="LY342" t="inlineStr">
+        <is>
+          <t>1  13
+ . . .</t>
+        </is>
+      </c>
+      <c r="MB342" t="inlineStr">
+        <is>
+          <t>11  11</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC343" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="AD343" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="AE343" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="AF343" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="AG343" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="CJ343" t="inlineStr">
+        <is>
+          <t>2 49
+7</t>
+        </is>
+      </c>
+      <c r="CK343" t="inlineStr">
+        <is>
+          <t>2 44
+74</t>
+        </is>
+      </c>
+      <c r="CL343" t="inlineStr">
+        <is>
+          <t>2 59
+74</t>
+        </is>
+      </c>
+      <c r="CM343" t="inlineStr">
+        <is>
+          <t>2 46
+2 4</t>
+        </is>
+      </c>
+      <c r="CN343" t="inlineStr">
+        <is>
+          <t>2 47
+ 13</t>
+        </is>
+      </c>
+      <c r="DV343" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="DW343" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DX343" t="inlineStr">
+        <is>
+          <t>1 4</t>
+        </is>
+      </c>
+      <c r="DY343" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="DZ343" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="FE343" t="inlineStr">
+        <is>
+          <t>151
+ 2</t>
+        </is>
+      </c>
+      <c r="FF343" t="inlineStr">
+        <is>
+          <t>1 51
+7</t>
+        </is>
+      </c>
+      <c r="FG343" t="inlineStr">
+        <is>
+          <t>111
+747</t>
+        </is>
+      </c>
+      <c r="FH343" t="inlineStr">
+        <is>
+          <t>1 2 
+77 .</t>
+        </is>
+      </c>
+      <c r="FI343" t="inlineStr">
+        <is>
+          <t>1 221
+1  4</t>
+        </is>
+      </c>
+      <c r="IW343" t="inlineStr">
+        <is>
+          <t>. . . .</t>
+        </is>
+      </c>
+      <c r="KB343" t="inlineStr">
+        <is>
+          <t>1 1
+4 172</t>
+        </is>
+      </c>
+      <c r="KC343" t="inlineStr">
+        <is>
+          <t>. 11
+41 47</t>
+        </is>
+      </c>
+      <c r="KD343" t="inlineStr">
+        <is>
+          <t>1 15
+ 11.</t>
+        </is>
+      </c>
+      <c r="KE343" t="inlineStr">
+        <is>
+          <t>1 11
+14 4</t>
+        </is>
+      </c>
+      <c r="KF343" t="inlineStr">
+        <is>
+          <t>1 15
+ 4 75</t>
+        </is>
+      </c>
+      <c r="KM343" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="KN343" t="inlineStr">
+        <is>
+          <t>4 4</t>
+        </is>
+      </c>
+      <c r="KO343" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="KP343" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="KQ343" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="LD343" t="inlineStr">
+        <is>
+          <t>44 
+  1</t>
+        </is>
+      </c>
+      <c r="LE343" t="inlineStr">
+        <is>
+          <t>134
+ 1</t>
+        </is>
+      </c>
+      <c r="LF343" t="inlineStr">
+        <is>
+          <t>.1 4 
+  5</t>
+        </is>
+      </c>
+      <c r="LG343" t="inlineStr">
+        <is>
+          <t>41 
+.</t>
+        </is>
+      </c>
+      <c r="LH343" t="inlineStr">
+        <is>
+          <t>.1 4 4</t>
+        </is>
+      </c>
+      <c r="LX343" t="inlineStr">
+        <is>
+          <t>1 11</t>
+        </is>
+      </c>
+      <c r="LY343" t="inlineStr">
+        <is>
+          <t>1  1.3
+ . . .</t>
+        </is>
+      </c>
+      <c r="LZ343" t="inlineStr">
+        <is>
+          <t>11
+ .</t>
+        </is>
+      </c>
+      <c r="MB343" t="inlineStr">
+        <is>
+          <t>11  13</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC344" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="AD344" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="AE344" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="AF344" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="AG344" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="CJ344" t="inlineStr">
+        <is>
+          <t>2 37</t>
+        </is>
+      </c>
+      <c r="CK344" t="inlineStr">
+        <is>
+          <t>2 37
+2-</t>
+        </is>
+      </c>
+      <c r="CL344" t="inlineStr">
+        <is>
+          <t>2 35
+21</t>
+        </is>
+      </c>
+      <c r="CM344" t="inlineStr">
+        <is>
+          <t>2 44
+2 1</t>
+        </is>
+      </c>
+      <c r="CN344" t="inlineStr">
+        <is>
+          <t>219
+ 7</t>
+        </is>
+      </c>
+      <c r="DV344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DW344" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="DX344" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="DY344" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="DZ344" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="FE344" t="inlineStr">
+        <is>
+          <t>14 
+ 42</t>
+        </is>
+      </c>
+      <c r="FF344" t="inlineStr">
+        <is>
+          <t>1 3 4
+ 2 2</t>
+        </is>
+      </c>
+      <c r="FG344" t="inlineStr">
+        <is>
+          <t>1 34
+271</t>
+        </is>
+      </c>
+      <c r="FH344" t="inlineStr">
+        <is>
+          <t>1 3
+4 1</t>
+        </is>
+      </c>
+      <c r="FI344" t="inlineStr">
+        <is>
+          <t>115
+ 111</t>
+        </is>
+      </c>
+      <c r="KB344" t="inlineStr">
+        <is>
+          <t>1 11 
+7- 7</t>
+        </is>
+      </c>
+      <c r="KC344" t="inlineStr">
+        <is>
+          <t>. 11
+1. 7</t>
+        </is>
+      </c>
+      <c r="KD344" t="inlineStr">
+        <is>
+          <t>11 11
+0 5</t>
+        </is>
+      </c>
+      <c r="KE344" t="inlineStr">
+        <is>
+          <t>1 4
+1</t>
+        </is>
+      </c>
+      <c r="KF344" t="inlineStr">
+        <is>
+          <t>11 1
+7</t>
+        </is>
+      </c>
+      <c r="KM344" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="KN344" t="inlineStr">
+        <is>
+          <t>1 1</t>
+        </is>
+      </c>
+      <c r="KO344" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="KP344" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="KQ344" t="inlineStr">
+        <is>
+          <t>1. 1</t>
+        </is>
+      </c>
+      <c r="LD344" t="inlineStr">
+        <is>
+          <t>.4 
+   2.</t>
+        </is>
+      </c>
+      <c r="LE344" t="inlineStr">
+        <is>
+          <t>13.1
+ 1</t>
+        </is>
+      </c>
+      <c r="LF344" t="inlineStr">
+        <is>
+          <t>14 4 4
+  5</t>
+        </is>
+      </c>
+      <c r="LG344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="LH344" t="inlineStr">
+        <is>
+          <t>4 1
+  .</t>
+        </is>
+      </c>
+      <c r="LX344" t="inlineStr">
+        <is>
+          <t>41 114</t>
+        </is>
+      </c>
+      <c r="LY344" t="inlineStr">
+        <is>
+          <t>1  1.3
+ . . .</t>
+        </is>
+      </c>
+      <c r="LZ344" t="inlineStr">
+        <is>
+          <t>11
+ .</t>
+        </is>
+      </c>
+      <c r="MA344" t="inlineStr">
+        <is>
+          <t>1 
+ 44</t>
+        </is>
+      </c>
+      <c r="MB344" t="inlineStr">
+        <is>
+          <t>11  14</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC345" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="AD345" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AE345" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AF345" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="AG345" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="AH345" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="AI345" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="AJ345" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="CJ345" t="inlineStr">
+        <is>
+          <t>0 3</t>
+        </is>
+      </c>
+      <c r="CK345" t="inlineStr">
+        <is>
+          <t>080</t>
+        </is>
+      </c>
+      <c r="CL345" t="inlineStr">
+        <is>
+          <t>0 3</t>
+        </is>
+      </c>
+      <c r="CM345" t="inlineStr">
+        <is>
+          <t>0713</t>
+        </is>
+      </c>
+      <c r="CN345" t="inlineStr">
+        <is>
+          <t>0 7197</t>
+        </is>
+      </c>
+      <c r="CO345" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="CP345" t="inlineStr">
+        <is>
+          <t>0239</t>
+        </is>
+      </c>
+      <c r="CQ345" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="DV345" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="DW345" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DX345" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="DY345" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="DZ345" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EA345" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="EB345" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="EC345" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="FE345" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="FF345" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="FG345" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="FH345" t="inlineStr">
+        <is>
+          <t>041</t>
+        </is>
+      </c>
+      <c r="FI345" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="FJ345" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="FK345" t="inlineStr">
+        <is>
+          <t>047</t>
+        </is>
+      </c>
+      <c r="FL345" t="inlineStr">
+        <is>
+          <t>051</t>
+        </is>
+      </c>
+      <c r="IS345" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="IT345" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="IU345" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="IV345" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="IW345" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="IX345" t="inlineStr">
+        <is>
+          <t>1 .48</t>
+        </is>
+      </c>
+      <c r="IY345" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="IZ345" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="KB345" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="KC345" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="KD345" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="KE345" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="KF345" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="KG345" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="KH345" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="KI345" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="KM345" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="KN345" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="KO345" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="KP345" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="KQ345" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="KR345" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="KS345" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="KT345" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="LD345" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LE345" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="LF345" t="inlineStr">
+        <is>
+          <t>092</t>
+        </is>
+      </c>
+      <c r="LG345" t="inlineStr">
+        <is>
+          <t>099</t>
+        </is>
+      </c>
+      <c r="LH345" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="LI345" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="LJ345" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="LK345" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="LX345" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="LY345" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="LZ345" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="MA345" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MB345" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="MC345" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MD345" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="ME345" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MH345" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MI345" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MJ345" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MK345" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML345" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MM345" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MN345" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="MO345" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC346" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="AD346" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AE346" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AF346" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="AG346" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="AH346" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="AI346" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="AJ346" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="CJ346" t="inlineStr">
+        <is>
+          <t>0 3</t>
+        </is>
+      </c>
+      <c r="CK346" t="inlineStr">
+        <is>
+          <t>080</t>
+        </is>
+      </c>
+      <c r="CL346" t="inlineStr">
+        <is>
+          <t>0 3</t>
+        </is>
+      </c>
+      <c r="CM346" t="inlineStr">
+        <is>
+          <t>0713</t>
+        </is>
+      </c>
+      <c r="CN346" t="inlineStr">
+        <is>
+          <t>0 7197</t>
+        </is>
+      </c>
+      <c r="CO346" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="CP346" t="inlineStr">
+        <is>
+          <t>0239</t>
+        </is>
+      </c>
+      <c r="CQ346" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="DV346" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="DW346" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DX346" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="DY346" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="DZ346" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EA346" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="EB346" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="EC346" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="FE346" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="FF346" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="FG346" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="FH346" t="inlineStr">
+        <is>
+          <t>041</t>
+        </is>
+      </c>
+      <c r="FI346" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="FJ346" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="FK346" t="inlineStr">
+        <is>
+          <t>047</t>
+        </is>
+      </c>
+      <c r="FL346" t="inlineStr">
+        <is>
+          <t>051</t>
+        </is>
+      </c>
+      <c r="IS346" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="IT346" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="IU346" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="IV346" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="IW346" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="IX346" t="inlineStr">
+        <is>
+          <t>1 .48</t>
+        </is>
+      </c>
+      <c r="IY346" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="IZ346" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="KB346" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="KC346" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="KD346" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="KE346" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="KF346" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="KG346" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="KH346" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="KI346" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="KM346" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="KN346" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="KO346" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="KP346" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="KQ346" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="KR346" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="KS346" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="KT346" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="LD346" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LE346" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="LF346" t="inlineStr">
+        <is>
+          <t>092</t>
+        </is>
+      </c>
+      <c r="LG346" t="inlineStr">
+        <is>
+          <t>099</t>
+        </is>
+      </c>
+      <c r="LH346" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="LI346" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="LJ346" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="LK346" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="LX346" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="LY346" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="LZ346" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="MA346" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MB346" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="MC346" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MD346" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="ME346" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MH346" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MI346" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MJ346" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MK346" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML346" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MM346" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MN346" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="MO346" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC347" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="AD347" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AE347" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AF347" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="AG347" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="AH347" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="AI347" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="AJ347" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="CJ347" t="inlineStr">
+        <is>
+          <t>0 3</t>
+        </is>
+      </c>
+      <c r="CK347" t="inlineStr">
+        <is>
+          <t>080</t>
+        </is>
+      </c>
+      <c r="CL347" t="inlineStr">
+        <is>
+          <t>0 3</t>
+        </is>
+      </c>
+      <c r="CM347" t="inlineStr">
+        <is>
+          <t>0713</t>
+        </is>
+      </c>
+      <c r="CN347" t="inlineStr">
+        <is>
+          <t>0 7197</t>
+        </is>
+      </c>
+      <c r="CO347" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="CP347" t="inlineStr">
+        <is>
+          <t>0239</t>
+        </is>
+      </c>
+      <c r="CQ347" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="DV347" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="DW347" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="DX347" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="DY347" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="DZ347" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="EA347" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="EB347" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="EC347" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="FE347" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="FF347" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="FG347" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="FH347" t="inlineStr">
+        <is>
+          <t>041</t>
+        </is>
+      </c>
+      <c r="FI347" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="FJ347" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="FK347" t="inlineStr">
+        <is>
+          <t>047</t>
+        </is>
+      </c>
+      <c r="FL347" t="inlineStr">
+        <is>
+          <t>051</t>
+        </is>
+      </c>
+      <c r="IS347" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="IT347" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="IU347" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="IV347" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="IW347" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="IX347" t="inlineStr">
+        <is>
+          <t>1 .48</t>
+        </is>
+      </c>
+      <c r="IY347" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="IZ347" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="KB347" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="KC347" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="KD347" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="KE347" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="KF347" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="KG347" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="KH347" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="KI347" t="inlineStr">
+        <is>
+          <t>016</t>
+        </is>
+      </c>
+      <c r="KM347" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="KN347" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="KO347" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="KP347" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="KQ347" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="KR347" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="KS347" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="KT347" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="LD347" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="LE347" t="inlineStr">
+        <is>
+          <t>095</t>
+        </is>
+      </c>
+      <c r="LF347" t="inlineStr">
+        <is>
+          <t>092</t>
+        </is>
+      </c>
+      <c r="LG347" t="inlineStr">
+        <is>
+          <t>099</t>
+        </is>
+      </c>
+      <c r="LH347" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="LI347" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="LJ347" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="LK347" t="inlineStr">
+        <is>
+          <t>087</t>
+        </is>
+      </c>
+      <c r="LX347" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="LY347" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="LZ347" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="MA347" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MB347" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="MC347" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MD347" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="ME347" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="MH347" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MI347" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MJ347" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MK347" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML347" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MM347" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MN347" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="MO347" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC348" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="AD348" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="AE348" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="AF348" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="AG348" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="AH348" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="CJ348" t="inlineStr">
+        <is>
+          <t>5 6</t>
+        </is>
+      </c>
+      <c r="CK348" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="CL348" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="CM348" t="inlineStr">
+        <is>
+          <t>5521</t>
+        </is>
+      </c>
+      <c r="CN348" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="CO348" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="DV348" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DW348" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DX348" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="DY348" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="DZ348" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EA348" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="FE348" t="inlineStr">
+        <is>
+          <t>092</t>
+        </is>
+      </c>
+      <c r="FF348" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="FG348" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="FH348" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="FI348" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="FJ348" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="IS348" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="IT348" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="IU348" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="IV348" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="IW348" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="IX348" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="KB348" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KC348" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="KD348" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KE348" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KF348" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="KG348" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KM348" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="KN348" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="KO348" t="inlineStr">
+        <is>
+          <t>13 59</t>
+        </is>
+      </c>
+      <c r="KP348" t="inlineStr">
+        <is>
+          <t>12 61</t>
+        </is>
+      </c>
+      <c r="KQ348" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="KR348" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="LD348" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="LE348" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="LF348" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="LG348" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="LH348" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="LI348" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="LX348" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="LY348" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="LZ348" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MA348" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="MB348" t="inlineStr">
+        <is>
+          <t>.0 01</t>
+        </is>
+      </c>
+      <c r="MC348" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MH348" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MI348" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MJ348" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MK348" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML348" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MM348" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr"/>
+      <c r="O349" t="inlineStr"/>
+      <c r="P349" t="inlineStr"/>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr"/>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X349" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y349" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="Z349" t="inlineStr"/>
+      <c r="AA349" t="inlineStr"/>
+      <c r="AB349" t="inlineStr"/>
+      <c r="AC349" t="inlineStr"/>
+      <c r="AD349" t="inlineStr"/>
+      <c r="AE349" t="inlineStr"/>
+      <c r="AF349" t="inlineStr"/>
+      <c r="AG349" t="inlineStr"/>
+      <c r="AH349" t="inlineStr"/>
+      <c r="AI349" t="inlineStr"/>
+      <c r="AJ349" t="inlineStr"/>
+      <c r="AK349" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AL349" t="inlineStr"/>
+      <c r="AM349" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN349" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO349" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP349" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ349" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR349" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AS349" t="inlineStr"/>
+      <c r="AT349" t="inlineStr"/>
+      <c r="AU349" t="inlineStr"/>
+      <c r="AV349" t="inlineStr"/>
+      <c r="AW349" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX349" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY349" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ349" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA349" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB349" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BC349" t="inlineStr"/>
+      <c r="BD349" t="inlineStr"/>
+      <c r="BE349" t="inlineStr"/>
+      <c r="BF349" t="inlineStr"/>
+      <c r="BG349" t="inlineStr"/>
+      <c r="BH349" t="inlineStr"/>
+      <c r="BI349" t="inlineStr"/>
+      <c r="BJ349" t="inlineStr"/>
+      <c r="BK349" t="inlineStr"/>
+      <c r="BL349" t="inlineStr"/>
+      <c r="BM349" t="inlineStr"/>
+      <c r="BN349" t="inlineStr"/>
+      <c r="BO349" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP349" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ349" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR349" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS349" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT349" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU349" t="inlineStr"/>
+      <c r="BV349" t="inlineStr"/>
+      <c r="BW349" t="inlineStr"/>
+      <c r="BX349" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY349" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="BZ349" t="inlineStr"/>
+      <c r="CA349" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB349" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC349" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD349" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE349" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF349" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CG349" t="inlineStr"/>
+      <c r="CH349" t="inlineStr"/>
+      <c r="CI349" t="inlineStr"/>
+      <c r="CJ349" t="inlineStr"/>
+      <c r="CK349" t="inlineStr"/>
+      <c r="CL349" t="inlineStr"/>
+      <c r="CM349" t="inlineStr"/>
+      <c r="CN349" t="inlineStr"/>
+      <c r="CO349" t="inlineStr"/>
+      <c r="CP349" t="inlineStr"/>
+      <c r="CQ349" t="inlineStr"/>
+      <c r="CR349" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CS349" t="inlineStr"/>
+      <c r="CT349" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU349" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV349" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW349" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX349" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY349" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CZ349" t="inlineStr"/>
+      <c r="DA349" t="inlineStr"/>
+      <c r="DB349" t="inlineStr"/>
+      <c r="DC349" t="inlineStr"/>
+      <c r="DD349" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE349" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF349" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG349" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH349" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI349" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="DJ349" t="inlineStr"/>
+      <c r="DK349" t="inlineStr"/>
+      <c r="DL349" t="inlineStr"/>
+      <c r="DM349" t="inlineStr"/>
+      <c r="DN349" t="inlineStr"/>
+      <c r="DO349" t="inlineStr"/>
+      <c r="DP349" t="inlineStr"/>
+      <c r="DQ349" t="inlineStr"/>
+      <c r="DR349" t="inlineStr"/>
+      <c r="DS349" t="inlineStr"/>
+      <c r="DT349" t="inlineStr"/>
+      <c r="DU349" t="inlineStr"/>
+      <c r="DV349" t="inlineStr"/>
+      <c r="DW349" t="inlineStr"/>
+      <c r="DX349" t="inlineStr"/>
+      <c r="DY349" t="inlineStr"/>
+      <c r="DZ349" t="inlineStr"/>
+      <c r="EA349" t="inlineStr"/>
+      <c r="EB349" t="inlineStr"/>
+      <c r="EC349" t="inlineStr"/>
+      <c r="ED349" t="inlineStr"/>
+      <c r="EE349" t="inlineStr"/>
+      <c r="EF349" t="inlineStr"/>
+      <c r="EG349" t="inlineStr"/>
+      <c r="EH349" t="inlineStr"/>
+      <c r="EI349" t="inlineStr"/>
+      <c r="EJ349" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK349" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL349" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM349" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN349" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO349" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EP349" t="inlineStr"/>
+      <c r="EQ349" t="inlineStr"/>
+      <c r="ER349" t="inlineStr"/>
+      <c r="ES349" t="inlineStr"/>
+      <c r="ET349" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EU349" t="inlineStr"/>
+      <c r="EV349" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW349" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX349" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY349" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ349" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA349" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FB349" t="inlineStr"/>
+      <c r="FC349" t="inlineStr"/>
+      <c r="FD349" t="inlineStr"/>
+      <c r="FE349" t="inlineStr"/>
+      <c r="FF349" t="inlineStr"/>
+      <c r="FG349" t="inlineStr"/>
+      <c r="FH349" t="inlineStr"/>
+      <c r="FI349" t="inlineStr"/>
+      <c r="FJ349" t="inlineStr"/>
+      <c r="FK349" t="inlineStr"/>
+      <c r="FL349" t="inlineStr"/>
+      <c r="FM349" t="inlineStr"/>
+      <c r="FN349" t="inlineStr"/>
+      <c r="FO349" t="inlineStr"/>
+      <c r="FP349" t="inlineStr"/>
+      <c r="FQ349" t="inlineStr"/>
+      <c r="FR349" t="inlineStr"/>
+      <c r="FS349" t="inlineStr"/>
+      <c r="FT349" t="inlineStr"/>
+      <c r="FU349" t="inlineStr"/>
+      <c r="FV349" t="inlineStr"/>
+      <c r="FW349" t="inlineStr"/>
+      <c r="FX349" t="inlineStr"/>
+      <c r="FY349" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ349" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA349" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB349" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC349" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD349" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="GE349" t="inlineStr"/>
+      <c r="GF349" t="inlineStr"/>
+      <c r="GG349" t="inlineStr"/>
+      <c r="GH349" t="inlineStr"/>
+      <c r="GI349" t="inlineStr"/>
+      <c r="GJ349" t="inlineStr"/>
+      <c r="GK349" t="inlineStr"/>
+      <c r="GL349" t="inlineStr"/>
+      <c r="GM349" t="inlineStr"/>
+      <c r="GN349" t="inlineStr"/>
+      <c r="GO349" t="inlineStr"/>
+      <c r="GP349" t="inlineStr"/>
+      <c r="GQ349" t="inlineStr"/>
+      <c r="GR349" t="inlineStr"/>
+      <c r="GS349" t="inlineStr"/>
+      <c r="GT349" t="inlineStr"/>
+      <c r="GU349" t="inlineStr"/>
+      <c r="GV349" t="inlineStr"/>
+      <c r="GW349" t="inlineStr"/>
+      <c r="GX349" t="inlineStr"/>
+      <c r="GY349" t="inlineStr"/>
+      <c r="GZ349" t="inlineStr"/>
+      <c r="HA349" t="inlineStr"/>
+      <c r="HB349" t="inlineStr"/>
+      <c r="HC349" t="inlineStr"/>
+      <c r="HD349" t="inlineStr"/>
+      <c r="HE349" t="inlineStr"/>
+      <c r="HF349" t="inlineStr"/>
+      <c r="HG349" t="inlineStr"/>
+      <c r="HH349" t="inlineStr"/>
+      <c r="HI349" t="inlineStr"/>
+      <c r="HJ349" t="inlineStr"/>
+      <c r="HK349" t="inlineStr"/>
+      <c r="HL349" t="inlineStr"/>
+      <c r="HM349" t="inlineStr"/>
+      <c r="HN349" t="inlineStr"/>
+      <c r="HO349" t="inlineStr"/>
+      <c r="HP349" t="inlineStr"/>
+      <c r="HQ349" t="inlineStr"/>
+      <c r="HR349" t="inlineStr"/>
+      <c r="HS349" t="inlineStr"/>
+      <c r="HT349" t="inlineStr"/>
+      <c r="HU349" t="inlineStr"/>
+      <c r="HV349" t="inlineStr"/>
+      <c r="HW349" t="inlineStr"/>
+      <c r="HX349" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY349" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ349" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA349" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB349" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC349" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID349" t="inlineStr"/>
+      <c r="IE349" t="inlineStr"/>
+      <c r="IF349" t="inlineStr"/>
+      <c r="IG349" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH349" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="II349" t="inlineStr"/>
+      <c r="IJ349" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK349" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL349" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM349" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN349" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO349" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="IP349" t="inlineStr"/>
+      <c r="IQ349" t="inlineStr"/>
+      <c r="IR349" t="inlineStr"/>
+      <c r="IS349" t="inlineStr"/>
+      <c r="IT349" t="inlineStr"/>
+      <c r="IU349" t="inlineStr"/>
+      <c r="IV349" t="inlineStr"/>
+      <c r="IW349" t="inlineStr"/>
+      <c r="IX349" t="inlineStr"/>
+      <c r="IY349" t="inlineStr"/>
+      <c r="IZ349" t="inlineStr"/>
+      <c r="JA349" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JB349" t="inlineStr"/>
+      <c r="JC349" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD349" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE349" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF349" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG349" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH349" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JI349" t="inlineStr"/>
+      <c r="JJ349" t="inlineStr"/>
+      <c r="JK349" t="inlineStr"/>
+      <c r="JL349" t="inlineStr"/>
+      <c r="JM349" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN349" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO349" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP349" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ349" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR349" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="JS349" t="inlineStr"/>
+      <c r="JT349" t="inlineStr"/>
+      <c r="JU349" t="inlineStr"/>
+      <c r="JV349" t="inlineStr"/>
+      <c r="JW349" t="inlineStr"/>
+      <c r="JX349" t="inlineStr"/>
+      <c r="JY349" t="inlineStr"/>
+      <c r="JZ349" t="inlineStr"/>
+      <c r="KA349" t="inlineStr"/>
+      <c r="KB349" t="inlineStr"/>
+      <c r="KC349" t="inlineStr"/>
+      <c r="KD349" t="inlineStr"/>
+      <c r="KE349" t="inlineStr"/>
+      <c r="KF349" t="inlineStr"/>
+      <c r="KG349" t="inlineStr"/>
+      <c r="KH349" t="inlineStr"/>
+      <c r="KI349" t="inlineStr"/>
+      <c r="KJ349" t="inlineStr"/>
+      <c r="KK349" t="inlineStr"/>
+      <c r="KL349" t="inlineStr"/>
+      <c r="KM349" t="inlineStr"/>
+      <c r="KN349" t="inlineStr"/>
+      <c r="KO349" t="inlineStr"/>
+      <c r="KP349" t="inlineStr"/>
+      <c r="KQ349" t="inlineStr"/>
+      <c r="KR349" t="inlineStr"/>
+      <c r="KS349" t="inlineStr"/>
+      <c r="KT349" t="inlineStr"/>
+      <c r="KU349" t="inlineStr"/>
+      <c r="KV349" t="inlineStr"/>
+      <c r="KW349" t="inlineStr"/>
+      <c r="KX349" t="inlineStr"/>
+      <c r="KY349" t="inlineStr"/>
+      <c r="KZ349" t="inlineStr"/>
+      <c r="LA349" t="inlineStr"/>
+      <c r="LB349" t="inlineStr"/>
+      <c r="LC349" t="inlineStr"/>
+      <c r="LD349" t="inlineStr"/>
+      <c r="LE349" t="inlineStr"/>
+      <c r="LF349" t="inlineStr"/>
+      <c r="LG349" t="inlineStr"/>
+      <c r="LH349" t="inlineStr"/>
+      <c r="LI349" t="inlineStr"/>
+      <c r="LJ349" t="inlineStr"/>
+      <c r="LK349" t="inlineStr"/>
+      <c r="LL349" t="inlineStr"/>
+      <c r="LM349" t="inlineStr"/>
+      <c r="LN349" t="inlineStr"/>
+      <c r="LO349" t="inlineStr"/>
+      <c r="LP349" t="inlineStr"/>
+      <c r="LQ349" t="inlineStr"/>
+      <c r="LR349" t="inlineStr"/>
+      <c r="LS349" t="inlineStr"/>
+      <c r="LT349" t="inlineStr"/>
+      <c r="LU349" t="inlineStr"/>
+      <c r="LV349" t="inlineStr"/>
+      <c r="LW349" t="inlineStr"/>
+      <c r="LX349" t="inlineStr"/>
+      <c r="LY349" t="inlineStr"/>
+      <c r="LZ349" t="inlineStr"/>
+      <c r="MA349" t="inlineStr"/>
+      <c r="MB349" t="inlineStr"/>
+      <c r="MC349" t="inlineStr"/>
+      <c r="MD349" t="inlineStr"/>
+      <c r="ME349" t="inlineStr"/>
+      <c r="MF349" t="inlineStr"/>
+      <c r="MG349" t="inlineStr"/>
+      <c r="MH349" t="inlineStr"/>
+      <c r="MI349" t="inlineStr"/>
+      <c r="MJ349" t="inlineStr"/>
+      <c r="MK349" t="inlineStr"/>
+      <c r="ML349" t="inlineStr"/>
+      <c r="MM349" t="inlineStr"/>
+      <c r="MN349" t="inlineStr"/>
+      <c r="MO349" t="inlineStr"/>
+      <c r="MP349" t="inlineStr"/>
+      <c r="MQ349" t="inlineStr"/>
+      <c r="MR349" t="inlineStr"/>
+      <c r="MS349" t="inlineStr"/>
+      <c r="MT349" t="inlineStr"/>
+      <c r="MU349" t="inlineStr"/>
+      <c r="MV349" t="inlineStr"/>
+      <c r="MW349" t="inlineStr"/>
+      <c r="MX349" t="inlineStr"/>
+      <c r="MY349" t="inlineStr"/>
+      <c r="MZ349" t="inlineStr"/>
+      <c r="NA349" t="inlineStr"/>
+      <c r="NB349" t="inlineStr"/>
+      <c r="NC349" t="inlineStr"/>
+      <c r="ND349" t="inlineStr"/>
+      <c r="NE349" t="inlineStr"/>
+      <c r="NF349" t="inlineStr"/>
+      <c r="NG349" t="inlineStr"/>
+      <c r="NH349" t="inlineStr"/>
+      <c r="NI349" t="inlineStr"/>
+      <c r="NJ349" t="inlineStr"/>
+      <c r="NK349" t="inlineStr"/>
+      <c r="NL349" t="inlineStr"/>
+      <c r="NM349" t="inlineStr"/>
+      <c r="NN349" t="inlineStr"/>
+      <c r="NO349" t="inlineStr"/>
+      <c r="NP349" t="inlineStr"/>
+      <c r="NQ349" t="inlineStr"/>
+      <c r="NR349" t="inlineStr"/>
+      <c r="NS349" t="inlineStr"/>
+      <c r="NT349" t="inlineStr"/>
+      <c r="NU349" t="inlineStr"/>
+      <c r="NV349" t="inlineStr"/>
+      <c r="NW349" t="inlineStr"/>
+      <c r="NX349" t="inlineStr"/>
+      <c r="NY349" t="inlineStr"/>
+      <c r="NZ349" t="inlineStr"/>
+      <c r="OA349" t="inlineStr"/>
+      <c r="OB349" t="inlineStr"/>
+      <c r="OC349" t="inlineStr"/>
+      <c r="OD349" t="inlineStr"/>
+      <c r="OE349" t="inlineStr"/>
+      <c r="OF349" t="inlineStr"/>
+      <c r="OG349" t="inlineStr"/>
+      <c r="OH349" t="inlineStr"/>
+      <c r="OI349" t="inlineStr"/>
+      <c r="OJ349" t="inlineStr"/>
+      <c r="OK349" t="inlineStr"/>
+      <c r="OL349" t="inlineStr"/>
+      <c r="OM349" t="inlineStr"/>
+      <c r="ON349" t="inlineStr"/>
+      <c r="OO349" t="inlineStr"/>
+      <c r="OP349" t="inlineStr"/>
+      <c r="OQ349" t="inlineStr"/>
+      <c r="OR349" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR2"/>
+  <dimension ref="A1:OR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2402,12 +2402,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -2438,9 +2432,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
           <t>4.39</t>
@@ -2451,7 +2442,6 @@
           <t>2.88</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
           <t>2.92</t>
@@ -2482,23 +2472,11 @@
           <t>2.90</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr">
         <is>
           <t>67</t>
@@ -2529,10 +2507,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
           <t>-1</t>
@@ -2563,18 +2537,6 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -2605,9 +2567,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr">
         <is>
           <t>3.06</t>
@@ -2618,7 +2577,6 @@
           <t>2.17</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr">
         <is>
           <t>2.25</t>
@@ -2649,23 +2607,11 @@
           <t>2.16</t>
         </is>
       </c>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
-      <c r="CP2" t="inlineStr"/>
-      <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr">
         <is>
           <t>74</t>
@@ -2696,10 +2642,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="CZ2" t="inlineStr"/>
-      <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="inlineStr"/>
-      <c r="DC2" t="inlineStr"/>
       <c r="DD2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2730,32 +2672,6 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="DJ2" t="inlineStr"/>
-      <c r="DK2" t="inlineStr"/>
-      <c r="DL2" t="inlineStr"/>
-      <c r="DM2" t="inlineStr"/>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr"/>
-      <c r="DP2" t="inlineStr"/>
-      <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr"/>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="inlineStr"/>
-      <c r="DU2" t="inlineStr"/>
-      <c r="DV2" t="inlineStr"/>
-      <c r="DW2" t="inlineStr"/>
-      <c r="DX2" t="inlineStr"/>
-      <c r="DY2" t="inlineStr"/>
-      <c r="DZ2" t="inlineStr"/>
-      <c r="EA2" t="inlineStr"/>
-      <c r="EB2" t="inlineStr"/>
-      <c r="EC2" t="inlineStr"/>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="inlineStr"/>
-      <c r="EG2" t="inlineStr"/>
-      <c r="EH2" t="inlineStr"/>
-      <c r="EI2" t="inlineStr"/>
       <c r="EJ2" t="inlineStr">
         <is>
           <t>2.60</t>
@@ -2786,16 +2702,11 @@
           <t>1.75</t>
         </is>
       </c>
-      <c r="EP2" t="inlineStr"/>
-      <c r="EQ2" t="inlineStr"/>
-      <c r="ER2" t="inlineStr"/>
-      <c r="ES2" t="inlineStr"/>
       <c r="ET2" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="EU2" t="inlineStr"/>
       <c r="EV2" t="inlineStr">
         <is>
           <t>73</t>
@@ -2826,29 +2737,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="FB2" t="inlineStr"/>
-      <c r="FC2" t="inlineStr"/>
-      <c r="FD2" t="inlineStr"/>
-      <c r="FE2" t="inlineStr"/>
-      <c r="FF2" t="inlineStr"/>
-      <c r="FG2" t="inlineStr"/>
-      <c r="FH2" t="inlineStr"/>
-      <c r="FI2" t="inlineStr"/>
-      <c r="FJ2" t="inlineStr"/>
-      <c r="FK2" t="inlineStr"/>
-      <c r="FL2" t="inlineStr"/>
-      <c r="FM2" t="inlineStr"/>
-      <c r="FN2" t="inlineStr"/>
-      <c r="FO2" t="inlineStr"/>
-      <c r="FP2" t="inlineStr"/>
-      <c r="FQ2" t="inlineStr"/>
-      <c r="FR2" t="inlineStr"/>
-      <c r="FS2" t="inlineStr"/>
-      <c r="FT2" t="inlineStr"/>
-      <c r="FU2" t="inlineStr"/>
-      <c r="FV2" t="inlineStr"/>
-      <c r="FW2" t="inlineStr"/>
-      <c r="FX2" t="inlineStr"/>
       <c r="FY2" t="inlineStr">
         <is>
           <t>2</t>
@@ -2879,51 +2767,6 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="GE2" t="inlineStr"/>
-      <c r="GF2" t="inlineStr"/>
-      <c r="GG2" t="inlineStr"/>
-      <c r="GH2" t="inlineStr"/>
-      <c r="GI2" t="inlineStr"/>
-      <c r="GJ2" t="inlineStr"/>
-      <c r="GK2" t="inlineStr"/>
-      <c r="GL2" t="inlineStr"/>
-      <c r="GM2" t="inlineStr"/>
-      <c r="GN2" t="inlineStr"/>
-      <c r="GO2" t="inlineStr"/>
-      <c r="GP2" t="inlineStr"/>
-      <c r="GQ2" t="inlineStr"/>
-      <c r="GR2" t="inlineStr"/>
-      <c r="GS2" t="inlineStr"/>
-      <c r="GT2" t="inlineStr"/>
-      <c r="GU2" t="inlineStr"/>
-      <c r="GV2" t="inlineStr"/>
-      <c r="GW2" t="inlineStr"/>
-      <c r="GX2" t="inlineStr"/>
-      <c r="GY2" t="inlineStr"/>
-      <c r="GZ2" t="inlineStr"/>
-      <c r="HA2" t="inlineStr"/>
-      <c r="HB2" t="inlineStr"/>
-      <c r="HC2" t="inlineStr"/>
-      <c r="HD2" t="inlineStr"/>
-      <c r="HE2" t="inlineStr"/>
-      <c r="HF2" t="inlineStr"/>
-      <c r="HG2" t="inlineStr"/>
-      <c r="HH2" t="inlineStr"/>
-      <c r="HI2" t="inlineStr"/>
-      <c r="HJ2" t="inlineStr"/>
-      <c r="HK2" t="inlineStr"/>
-      <c r="HL2" t="inlineStr"/>
-      <c r="HM2" t="inlineStr"/>
-      <c r="HN2" t="inlineStr"/>
-      <c r="HO2" t="inlineStr"/>
-      <c r="HP2" t="inlineStr"/>
-      <c r="HQ2" t="inlineStr"/>
-      <c r="HR2" t="inlineStr"/>
-      <c r="HS2" t="inlineStr"/>
-      <c r="HT2" t="inlineStr"/>
-      <c r="HU2" t="inlineStr"/>
-      <c r="HV2" t="inlineStr"/>
-      <c r="HW2" t="inlineStr"/>
       <c r="HX2" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -2954,9 +2797,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID2" t="inlineStr"/>
-      <c r="IE2" t="inlineStr"/>
-      <c r="IF2" t="inlineStr"/>
       <c r="IG2" t="inlineStr">
         <is>
           <t>7.21</t>
@@ -2967,7 +2807,6 @@
           <t>7.63</t>
         </is>
       </c>
-      <c r="II2" t="inlineStr"/>
       <c r="IJ2" t="inlineStr">
         <is>
           <t>8.01</t>
@@ -2998,23 +2837,11 @@
           <t>8.58</t>
         </is>
       </c>
-      <c r="IP2" t="inlineStr"/>
-      <c r="IQ2" t="inlineStr"/>
-      <c r="IR2" t="inlineStr"/>
-      <c r="IS2" t="inlineStr"/>
-      <c r="IT2" t="inlineStr"/>
-      <c r="IU2" t="inlineStr"/>
-      <c r="IV2" t="inlineStr"/>
-      <c r="IW2" t="inlineStr"/>
-      <c r="IX2" t="inlineStr"/>
-      <c r="IY2" t="inlineStr"/>
-      <c r="IZ2" t="inlineStr"/>
       <c r="JA2" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="JB2" t="inlineStr"/>
       <c r="JC2" t="inlineStr">
         <is>
           <t>111</t>
@@ -3045,10 +2872,6 @@
           <t>119</t>
         </is>
       </c>
-      <c r="JI2" t="inlineStr"/>
-      <c r="JJ2" t="inlineStr"/>
-      <c r="JK2" t="inlineStr"/>
-      <c r="JL2" t="inlineStr"/>
       <c r="JM2" t="inlineStr">
         <is>
           <t>-3</t>
@@ -3079,136 +2902,2977 @@
           <t>4</t>
         </is>
       </c>
-      <c r="JS2" t="inlineStr"/>
-      <c r="JT2" t="inlineStr"/>
-      <c r="JU2" t="inlineStr"/>
-      <c r="JV2" t="inlineStr"/>
-      <c r="JW2" t="inlineStr"/>
-      <c r="JX2" t="inlineStr"/>
-      <c r="JY2" t="inlineStr"/>
-      <c r="JZ2" t="inlineStr"/>
-      <c r="KA2" t="inlineStr"/>
-      <c r="KB2" t="inlineStr"/>
-      <c r="KC2" t="inlineStr"/>
-      <c r="KD2" t="inlineStr"/>
-      <c r="KE2" t="inlineStr"/>
-      <c r="KF2" t="inlineStr"/>
-      <c r="KG2" t="inlineStr"/>
-      <c r="KH2" t="inlineStr"/>
-      <c r="KI2" t="inlineStr"/>
-      <c r="KJ2" t="inlineStr"/>
-      <c r="KK2" t="inlineStr"/>
-      <c r="KL2" t="inlineStr"/>
-      <c r="KM2" t="inlineStr"/>
-      <c r="KN2" t="inlineStr"/>
-      <c r="KO2" t="inlineStr"/>
-      <c r="KP2" t="inlineStr"/>
-      <c r="KQ2" t="inlineStr"/>
-      <c r="KR2" t="inlineStr"/>
-      <c r="KS2" t="inlineStr"/>
-      <c r="KT2" t="inlineStr"/>
-      <c r="KU2" t="inlineStr"/>
-      <c r="KV2" t="inlineStr"/>
-      <c r="KW2" t="inlineStr"/>
-      <c r="KX2" t="inlineStr"/>
-      <c r="KY2" t="inlineStr"/>
-      <c r="KZ2" t="inlineStr"/>
-      <c r="LA2" t="inlineStr"/>
-      <c r="LB2" t="inlineStr"/>
-      <c r="LC2" t="inlineStr"/>
-      <c r="LD2" t="inlineStr"/>
-      <c r="LE2" t="inlineStr"/>
-      <c r="LF2" t="inlineStr"/>
-      <c r="LG2" t="inlineStr"/>
-      <c r="LH2" t="inlineStr"/>
-      <c r="LI2" t="inlineStr"/>
-      <c r="LJ2" t="inlineStr"/>
-      <c r="LK2" t="inlineStr"/>
-      <c r="LL2" t="inlineStr"/>
-      <c r="LM2" t="inlineStr"/>
-      <c r="LN2" t="inlineStr"/>
-      <c r="LO2" t="inlineStr"/>
-      <c r="LP2" t="inlineStr"/>
-      <c r="LQ2" t="inlineStr"/>
-      <c r="LR2" t="inlineStr"/>
-      <c r="LS2" t="inlineStr"/>
-      <c r="LT2" t="inlineStr"/>
-      <c r="LU2" t="inlineStr"/>
-      <c r="LV2" t="inlineStr"/>
-      <c r="LW2" t="inlineStr"/>
-      <c r="LX2" t="inlineStr"/>
-      <c r="LY2" t="inlineStr"/>
-      <c r="LZ2" t="inlineStr"/>
-      <c r="MA2" t="inlineStr"/>
-      <c r="MB2" t="inlineStr"/>
-      <c r="MC2" t="inlineStr"/>
-      <c r="MD2" t="inlineStr"/>
-      <c r="ME2" t="inlineStr"/>
-      <c r="MF2" t="inlineStr"/>
-      <c r="MG2" t="inlineStr"/>
-      <c r="MH2" t="inlineStr"/>
-      <c r="MI2" t="inlineStr"/>
-      <c r="MJ2" t="inlineStr"/>
-      <c r="MK2" t="inlineStr"/>
-      <c r="ML2" t="inlineStr"/>
-      <c r="MM2" t="inlineStr"/>
-      <c r="MN2" t="inlineStr"/>
-      <c r="MO2" t="inlineStr"/>
-      <c r="MP2" t="inlineStr"/>
-      <c r="MQ2" t="inlineStr"/>
-      <c r="MR2" t="inlineStr"/>
-      <c r="MS2" t="inlineStr"/>
-      <c r="MT2" t="inlineStr"/>
-      <c r="MU2" t="inlineStr"/>
-      <c r="MV2" t="inlineStr"/>
-      <c r="MW2" t="inlineStr"/>
-      <c r="MX2" t="inlineStr"/>
-      <c r="MY2" t="inlineStr"/>
-      <c r="MZ2" t="inlineStr"/>
-      <c r="NA2" t="inlineStr"/>
-      <c r="NB2" t="inlineStr"/>
-      <c r="NC2" t="inlineStr"/>
-      <c r="ND2" t="inlineStr"/>
-      <c r="NE2" t="inlineStr"/>
-      <c r="NF2" t="inlineStr"/>
-      <c r="NG2" t="inlineStr"/>
-      <c r="NH2" t="inlineStr"/>
-      <c r="NI2" t="inlineStr"/>
-      <c r="NJ2" t="inlineStr"/>
-      <c r="NK2" t="inlineStr"/>
-      <c r="NL2" t="inlineStr"/>
-      <c r="NM2" t="inlineStr"/>
-      <c r="NN2" t="inlineStr"/>
-      <c r="NO2" t="inlineStr"/>
-      <c r="NP2" t="inlineStr"/>
-      <c r="NQ2" t="inlineStr"/>
-      <c r="NR2" t="inlineStr"/>
-      <c r="NS2" t="inlineStr"/>
-      <c r="NT2" t="inlineStr"/>
-      <c r="NU2" t="inlineStr"/>
-      <c r="NV2" t="inlineStr"/>
-      <c r="NW2" t="inlineStr"/>
-      <c r="NX2" t="inlineStr"/>
-      <c r="NY2" t="inlineStr"/>
-      <c r="NZ2" t="inlineStr"/>
-      <c r="OA2" t="inlineStr"/>
-      <c r="OB2" t="inlineStr"/>
-      <c r="OC2" t="inlineStr"/>
-      <c r="OD2" t="inlineStr"/>
-      <c r="OE2" t="inlineStr"/>
-      <c r="OF2" t="inlineStr"/>
-      <c r="OG2" t="inlineStr"/>
-      <c r="OH2" t="inlineStr"/>
-      <c r="OI2" t="inlineStr"/>
-      <c r="OJ2" t="inlineStr"/>
-      <c r="OK2" t="inlineStr"/>
-      <c r="OL2" t="inlineStr"/>
-      <c r="OM2" t="inlineStr"/>
-      <c r="ON2" t="inlineStr"/>
-      <c r="OO2" t="inlineStr"/>
-      <c r="OP2" t="inlineStr"/>
-      <c r="OQ2" t="inlineStr"/>
-      <c r="OR2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>2 6</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>5115</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>259.</t>
+        </is>
+      </c>
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="FH3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="FJ3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="IS3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="IT3" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="IU3" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="IV3" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="IW3" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="IX3" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="KB3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KC3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="KD3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KE3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KF3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KG3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KM3" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="KN3" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="KO3" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="KP3" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="KQ3" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="KR3" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="LD3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="LE3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="LF3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="LG3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="LH3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="LI3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="LX3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="LY3" t="inlineStr">
+        <is>
+          <t>0 04</t>
+        </is>
+      </c>
+      <c r="LZ3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MA3" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="MB3" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="MC3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MH3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MI3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MJ3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MK3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MM3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>2 6</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>5115</t>
+        </is>
+      </c>
+      <c r="CO4" t="inlineStr">
+        <is>
+          <t>259.</t>
+        </is>
+      </c>
+      <c r="DV4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DZ4" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="FE4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="FG4" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="FH4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="FJ4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="IS4" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="IT4" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="IU4" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="IV4" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="IW4" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="IX4" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="KB4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KC4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="KD4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KE4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KF4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KG4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KM4" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="KN4" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="KO4" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="KP4" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="KQ4" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="KR4" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="LD4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="LE4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="LF4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="LG4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="LH4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="LI4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="LX4" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="LY4" t="inlineStr">
+        <is>
+          <t>0 04</t>
+        </is>
+      </c>
+      <c r="LZ4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MA4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="MB4" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="MC4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MH4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MI4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MJ4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MK4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MM4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>type02</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CC5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="DA5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="DD5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="EM5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="ET5" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="EV5" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="EX5" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="EY5" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="EZ5" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="FA5" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FB5" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="FC5" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="FD5" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="FY5" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="FZ5" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GA5" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GB5" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GC5" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="GD5" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GE5" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="GF5" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="GG5" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="HX5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="HY5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="HZ5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="IA5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="IB5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="IC5" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="ID5" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="IE5" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="IF5" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="IG5" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="IH5" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="IJ5" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="IK5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="IL5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="IM5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="IN5" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="IO5" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="IP5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="IQ5" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="IR5" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="JA5" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="JC5" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="JD5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JE5" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="JF5" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="JG5" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JH5" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="JI5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="JJ5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JK5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="JM5" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="JN5" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JO5" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JP5" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JQ5" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="JR5" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JS5" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="JT5" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="JU5" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>type03</t>
+        </is>
+      </c>
+      <c r="NM6" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NN6" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="NO6" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="NP6" t="inlineStr">
+        <is>
+          <t>21.6</t>
+        </is>
+      </c>
+      <c r="NQ6" t="inlineStr">
+        <is>
+          <t>12.6</t>
+        </is>
+      </c>
+      <c r="NR6" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="NS6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NT6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="NU6" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="NV6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="NW6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="NX6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="NY6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="NZ6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="OA6" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>2 6</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>5115</t>
+        </is>
+      </c>
+      <c r="CO9" t="inlineStr">
+        <is>
+          <t>259.</t>
+        </is>
+      </c>
+      <c r="DV9" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DW9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DX9" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="DY9" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DZ9" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EA9" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="FE9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="FF9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="FH9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="FI9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="FJ9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="IS9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="IT9" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="IU9" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="IV9" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="IW9" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="IX9" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="KB9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KC9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="KD9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KE9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KF9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KG9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KM9" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="KN9" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="KO9" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="KP9" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="KQ9" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="KR9" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="LD9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="LE9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="LF9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="LG9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="LH9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="LI9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="LX9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="LY9" t="inlineStr">
+        <is>
+          <t>0 04</t>
+        </is>
+      </c>
+      <c r="LZ9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MA9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="MB9" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="MC9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MH9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MI9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MJ9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MK9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MM9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>2 6</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>5115</t>
+        </is>
+      </c>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t>259.</t>
+        </is>
+      </c>
+      <c r="DV10" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DW10" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DX10" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="DY10" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DZ10" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EA10" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="FE10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="FF10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="FG10" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="FH10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="FI10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="FJ10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="IS10" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="IT10" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="IU10" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="IV10" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="IW10" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="IX10" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="KB10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KC10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="KD10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KE10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KF10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KG10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KM10" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="KN10" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="KO10" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="KP10" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="KQ10" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="KR10" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="LD10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="LE10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="LF10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="LG10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="LH10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="LI10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="LX10" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="LY10" t="inlineStr">
+        <is>
+          <t>0 04</t>
+        </is>
+      </c>
+      <c r="LZ10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MA10" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="MB10" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="MC10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MH10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MI10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MJ10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MK10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MM10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>2 6</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="CN11" t="inlineStr">
+        <is>
+          <t>5115</t>
+        </is>
+      </c>
+      <c r="CO11" t="inlineStr">
+        <is>
+          <t>259.</t>
+        </is>
+      </c>
+      <c r="DV11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="DW11" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DX11" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="DY11" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="DZ11" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="EA11" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="FE11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="FF11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="FG11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="FH11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="FI11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="FJ11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="IS11" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="IT11" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="IU11" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="IV11" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="IW11" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="IX11" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="KB11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KC11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="KD11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="KE11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KF11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KG11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="KM11" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="KN11" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="KO11" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="KP11" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="KQ11" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="KR11" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="LD11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="LE11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="LF11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="LG11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="LH11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="LI11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="LX11" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="LY11" t="inlineStr">
+        <is>
+          <t>0 04</t>
+        </is>
+      </c>
+      <c r="LZ11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MA11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="MB11" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="MC11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="MH11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MI11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MJ11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MK11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="MM11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>type07</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>4.30
+1 95</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>4.89
+4 9 -.</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>5.06
+ 7  1 1</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>4.95
+6  31</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>1.85
+ .20</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>1.85
+ .31</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>2.00
+110</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>2.01
+111</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="inlineStr"/>
+      <c r="DF12" t="inlineStr"/>
+      <c r="DG12" t="inlineStr"/>
+      <c r="DH12" t="inlineStr"/>
+      <c r="DI12" t="inlineStr"/>
+      <c r="DJ12" t="inlineStr"/>
+      <c r="DK12" t="inlineStr"/>
+      <c r="DL12" t="inlineStr"/>
+      <c r="DM12" t="inlineStr"/>
+      <c r="DN12" t="inlineStr"/>
+      <c r="DO12" t="inlineStr"/>
+      <c r="DP12" t="inlineStr"/>
+      <c r="DQ12" t="inlineStr"/>
+      <c r="DR12" t="inlineStr"/>
+      <c r="DS12" t="inlineStr"/>
+      <c r="DT12" t="inlineStr"/>
+      <c r="DU12" t="inlineStr"/>
+      <c r="DV12" t="inlineStr">
+        <is>
+          <t>33
+4 -19</t>
+        </is>
+      </c>
+      <c r="DW12" t="inlineStr">
+        <is>
+          <t>00
+4 4</t>
+        </is>
+      </c>
+      <c r="DX12" t="inlineStr"/>
+      <c r="DY12" t="inlineStr">
+        <is>
+          <t>4 
+4 520</t>
+        </is>
+      </c>
+      <c r="DZ12" t="inlineStr">
+        <is>
+          <t>41
+4 552</t>
+        </is>
+      </c>
+      <c r="EA12" t="inlineStr"/>
+      <c r="EB12" t="inlineStr"/>
+      <c r="EC12" t="inlineStr"/>
+      <c r="ED12" t="inlineStr"/>
+      <c r="EE12" t="inlineStr"/>
+      <c r="EF12" t="inlineStr"/>
+      <c r="EG12" t="inlineStr"/>
+      <c r="EH12" t="inlineStr"/>
+      <c r="EI12" t="inlineStr"/>
+      <c r="EJ12" t="inlineStr"/>
+      <c r="EK12" t="inlineStr"/>
+      <c r="EL12" t="inlineStr"/>
+      <c r="EM12" t="inlineStr"/>
+      <c r="EN12" t="inlineStr"/>
+      <c r="EO12" t="inlineStr"/>
+      <c r="EP12" t="inlineStr"/>
+      <c r="EQ12" t="inlineStr"/>
+      <c r="ER12" t="inlineStr"/>
+      <c r="ES12" t="inlineStr"/>
+      <c r="ET12" t="inlineStr"/>
+      <c r="EU12" t="inlineStr"/>
+      <c r="EV12" t="inlineStr"/>
+      <c r="EW12" t="inlineStr"/>
+      <c r="EX12" t="inlineStr"/>
+      <c r="EY12" t="inlineStr"/>
+      <c r="EZ12" t="inlineStr"/>
+      <c r="FA12" t="inlineStr"/>
+      <c r="FB12" t="inlineStr"/>
+      <c r="FC12" t="inlineStr"/>
+      <c r="FD12" t="inlineStr"/>
+      <c r="FE12" t="inlineStr">
+        <is>
+          <t>1.16
+000</t>
+        </is>
+      </c>
+      <c r="FF12" t="inlineStr">
+        <is>
+          <t>1.16
+0111</t>
+        </is>
+      </c>
+      <c r="FG12" t="inlineStr"/>
+      <c r="FH12" t="inlineStr">
+        <is>
+          <t>1.156
+0 13</t>
+        </is>
+      </c>
+      <c r="FI12" t="inlineStr">
+        <is>
+          <t>1.45
+0 41</t>
+        </is>
+      </c>
+      <c r="FJ12" t="inlineStr"/>
+      <c r="FK12" t="inlineStr"/>
+      <c r="FL12" t="inlineStr"/>
+      <c r="FM12" t="inlineStr"/>
+      <c r="FN12" t="inlineStr"/>
+      <c r="FO12" t="inlineStr"/>
+      <c r="FP12" t="inlineStr"/>
+      <c r="FQ12" t="inlineStr"/>
+      <c r="FR12" t="inlineStr"/>
+      <c r="FS12" t="inlineStr"/>
+      <c r="FT12" t="inlineStr"/>
+      <c r="FU12" t="inlineStr"/>
+      <c r="FV12" t="inlineStr"/>
+      <c r="FW12" t="inlineStr"/>
+      <c r="FX12" t="inlineStr"/>
+      <c r="FY12" t="inlineStr"/>
+      <c r="FZ12" t="inlineStr"/>
+      <c r="GA12" t="inlineStr"/>
+      <c r="GB12" t="inlineStr"/>
+      <c r="GC12" t="inlineStr"/>
+      <c r="GD12" t="inlineStr"/>
+      <c r="GE12" t="inlineStr"/>
+      <c r="GF12" t="inlineStr"/>
+      <c r="GG12" t="inlineStr"/>
+      <c r="GH12" t="inlineStr"/>
+      <c r="GI12" t="inlineStr"/>
+      <c r="GJ12" t="inlineStr"/>
+      <c r="GK12" t="inlineStr"/>
+      <c r="GL12" t="inlineStr"/>
+      <c r="GM12" t="inlineStr"/>
+      <c r="GN12" t="inlineStr"/>
+      <c r="GO12" t="inlineStr"/>
+      <c r="GP12" t="inlineStr"/>
+      <c r="GQ12" t="inlineStr"/>
+      <c r="GR12" t="inlineStr"/>
+      <c r="GS12" t="inlineStr"/>
+      <c r="GT12" t="inlineStr"/>
+      <c r="GU12" t="inlineStr"/>
+      <c r="GV12" t="inlineStr"/>
+      <c r="GW12" t="inlineStr"/>
+      <c r="GX12" t="inlineStr"/>
+      <c r="GY12" t="inlineStr"/>
+      <c r="GZ12" t="inlineStr"/>
+      <c r="HA12" t="inlineStr"/>
+      <c r="HB12" t="inlineStr"/>
+      <c r="HC12" t="inlineStr"/>
+      <c r="HD12" t="inlineStr"/>
+      <c r="HE12" t="inlineStr"/>
+      <c r="HF12" t="inlineStr"/>
+      <c r="HG12" t="inlineStr"/>
+      <c r="HH12" t="inlineStr"/>
+      <c r="HI12" t="inlineStr"/>
+      <c r="HJ12" t="inlineStr"/>
+      <c r="HK12" t="inlineStr"/>
+      <c r="HL12" t="inlineStr"/>
+      <c r="HM12" t="inlineStr"/>
+      <c r="HN12" t="inlineStr"/>
+      <c r="HO12" t="inlineStr"/>
+      <c r="HP12" t="inlineStr"/>
+      <c r="HQ12" t="inlineStr"/>
+      <c r="HR12" t="inlineStr"/>
+      <c r="HS12" t="inlineStr"/>
+      <c r="HT12" t="inlineStr"/>
+      <c r="HU12" t="inlineStr"/>
+      <c r="HV12" t="inlineStr"/>
+      <c r="HW12" t="inlineStr"/>
+      <c r="HX12" t="inlineStr"/>
+      <c r="HY12" t="inlineStr"/>
+      <c r="HZ12" t="inlineStr"/>
+      <c r="IA12" t="inlineStr"/>
+      <c r="IB12" t="inlineStr"/>
+      <c r="IC12" t="inlineStr"/>
+      <c r="ID12" t="inlineStr"/>
+      <c r="IE12" t="inlineStr"/>
+      <c r="IF12" t="inlineStr"/>
+      <c r="IG12" t="inlineStr"/>
+      <c r="IH12" t="inlineStr"/>
+      <c r="II12" t="inlineStr"/>
+      <c r="IJ12" t="inlineStr"/>
+      <c r="IK12" t="inlineStr"/>
+      <c r="IL12" t="inlineStr"/>
+      <c r="IM12" t="inlineStr"/>
+      <c r="IN12" t="inlineStr"/>
+      <c r="IO12" t="inlineStr"/>
+      <c r="IP12" t="inlineStr"/>
+      <c r="IQ12" t="inlineStr"/>
+      <c r="IR12" t="inlineStr"/>
+      <c r="IS12" t="inlineStr">
+        <is>
+          <t>4.44
+0 50</t>
+        </is>
+      </c>
+      <c r="IT12" t="inlineStr">
+        <is>
+          <t>4.09
+0 17</t>
+        </is>
+      </c>
+      <c r="IU12" t="inlineStr"/>
+      <c r="IV12" t="inlineStr">
+        <is>
+          <t>4.0  
+ 1 1</t>
+        </is>
+      </c>
+      <c r="IW12" t="inlineStr">
+        <is>
+          <t>4.-0 
+017</t>
+        </is>
+      </c>
+      <c r="IX12" t="inlineStr"/>
+      <c r="IY12" t="inlineStr"/>
+      <c r="IZ12" t="inlineStr"/>
+      <c r="JA12" t="inlineStr"/>
+      <c r="JB12" t="inlineStr"/>
+      <c r="JC12" t="inlineStr"/>
+      <c r="JD12" t="inlineStr"/>
+      <c r="JE12" t="inlineStr"/>
+      <c r="JF12" t="inlineStr"/>
+      <c r="JG12" t="inlineStr"/>
+      <c r="JH12" t="inlineStr"/>
+      <c r="JI12" t="inlineStr"/>
+      <c r="JJ12" t="inlineStr"/>
+      <c r="JK12" t="inlineStr"/>
+      <c r="JL12" t="inlineStr"/>
+      <c r="JM12" t="inlineStr"/>
+      <c r="JN12" t="inlineStr"/>
+      <c r="JO12" t="inlineStr"/>
+      <c r="JP12" t="inlineStr"/>
+      <c r="JQ12" t="inlineStr"/>
+      <c r="JR12" t="inlineStr"/>
+      <c r="JS12" t="inlineStr"/>
+      <c r="JT12" t="inlineStr"/>
+      <c r="JU12" t="inlineStr"/>
+      <c r="JV12" t="inlineStr"/>
+      <c r="JW12" t="inlineStr"/>
+      <c r="JX12" t="inlineStr"/>
+      <c r="JY12" t="inlineStr"/>
+      <c r="JZ12" t="inlineStr"/>
+      <c r="KA12" t="inlineStr"/>
+      <c r="KB12" t="inlineStr">
+        <is>
+          <t>0.40
+9 1-132</t>
+        </is>
+      </c>
+      <c r="KC12" t="inlineStr">
+        <is>
+          <t>1.11
+7 711</t>
+        </is>
+      </c>
+      <c r="KD12" t="inlineStr"/>
+      <c r="KE12" t="inlineStr">
+        <is>
+          <t>1.10
+7 732</t>
+        </is>
+      </c>
+      <c r="KF12" t="inlineStr">
+        <is>
+          <t>1.11
+7 12</t>
+        </is>
+      </c>
+      <c r="KG12" t="inlineStr"/>
+      <c r="KH12" t="inlineStr"/>
+      <c r="KI12" t="inlineStr"/>
+      <c r="KJ12" t="inlineStr"/>
+      <c r="KK12" t="inlineStr"/>
+      <c r="KL12" t="inlineStr"/>
+      <c r="KM12" t="inlineStr">
+        <is>
+          <t>6.00
+ 1  1</t>
+        </is>
+      </c>
+      <c r="KN12" t="inlineStr">
+        <is>
+          <t>1.14
+51 13</t>
+        </is>
+      </c>
+      <c r="KO12" t="inlineStr"/>
+      <c r="KP12" t="inlineStr">
+        <is>
+          <t>1.10
+510</t>
+        </is>
+      </c>
+      <c r="KQ12" t="inlineStr">
+        <is>
+          <t>1.60
+ 2 51</t>
+        </is>
+      </c>
+      <c r="KR12" t="inlineStr"/>
+      <c r="KS12" t="inlineStr"/>
+      <c r="KT12" t="inlineStr"/>
+      <c r="KU12" t="inlineStr"/>
+      <c r="KV12" t="inlineStr"/>
+      <c r="KW12" t="inlineStr"/>
+      <c r="KX12" t="inlineStr"/>
+      <c r="KY12" t="inlineStr"/>
+      <c r="KZ12" t="inlineStr"/>
+      <c r="LA12" t="inlineStr"/>
+      <c r="LB12" t="inlineStr"/>
+      <c r="LC12" t="inlineStr"/>
+      <c r="LD12" t="inlineStr">
+        <is>
+          <t>0.03
+ 1 1 142</t>
+        </is>
+      </c>
+      <c r="LE12" t="inlineStr">
+        <is>
+          <t>0.0 1
+0 011</t>
+        </is>
+      </c>
+      <c r="LF12" t="inlineStr"/>
+      <c r="LG12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="LH12" t="inlineStr">
+        <is>
+          <t>0. 73
+  51</t>
+        </is>
+      </c>
+      <c r="LI12" t="inlineStr"/>
+      <c r="LJ12" t="inlineStr"/>
+      <c r="LK12" t="inlineStr"/>
+      <c r="LL12" t="inlineStr"/>
+      <c r="LM12" t="inlineStr"/>
+      <c r="LN12" t="inlineStr"/>
+      <c r="LO12" t="inlineStr"/>
+      <c r="LP12" t="inlineStr"/>
+      <c r="LQ12" t="inlineStr"/>
+      <c r="LR12" t="inlineStr"/>
+      <c r="LS12" t="inlineStr"/>
+      <c r="LT12" t="inlineStr"/>
+      <c r="LU12" t="inlineStr"/>
+      <c r="LV12" t="inlineStr"/>
+      <c r="LW12" t="inlineStr"/>
+      <c r="LX12" t="inlineStr">
+        <is>
+          <t>11 13
+ 1 1 1</t>
+        </is>
+      </c>
+      <c r="LY12" t="inlineStr">
+        <is>
+          <t>0.033
+ 1 5 1</t>
+        </is>
+      </c>
+      <c r="LZ12" t="inlineStr"/>
+      <c r="MA12" t="inlineStr">
+        <is>
+          <t>0 1 1</t>
+        </is>
+      </c>
+      <c r="MB12" t="inlineStr">
+        <is>
+          <t>1.01
+ 10 1</t>
+        </is>
+      </c>
+      <c r="MC12" t="inlineStr"/>
+      <c r="MD12" t="inlineStr"/>
+      <c r="ME12" t="inlineStr"/>
+      <c r="MF12" t="inlineStr"/>
+      <c r="MG12" t="inlineStr"/>
+      <c r="MH12" t="inlineStr">
+        <is>
+          <t>-  199</t>
+        </is>
+      </c>
+      <c r="MI12" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="MJ12" t="inlineStr"/>
+      <c r="MK12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="ML12" t="inlineStr">
+        <is>
+          <t>4 29</t>
+        </is>
+      </c>
+      <c r="MM12" t="inlineStr"/>
+      <c r="MN12" t="inlineStr"/>
+      <c r="MO12" t="inlineStr"/>
+      <c r="MP12" t="inlineStr"/>
+      <c r="MQ12" t="inlineStr"/>
+      <c r="MR12" t="inlineStr"/>
+      <c r="MS12" t="inlineStr"/>
+      <c r="MT12" t="inlineStr"/>
+      <c r="MU12" t="inlineStr"/>
+      <c r="MV12" t="inlineStr"/>
+      <c r="MW12" t="inlineStr"/>
+      <c r="MX12" t="inlineStr"/>
+      <c r="MY12" t="inlineStr"/>
+      <c r="MZ12" t="inlineStr"/>
+      <c r="NA12" t="inlineStr"/>
+      <c r="NB12" t="inlineStr"/>
+      <c r="NC12" t="inlineStr"/>
+      <c r="ND12" t="inlineStr"/>
+      <c r="NE12" t="inlineStr"/>
+      <c r="NF12" t="inlineStr"/>
+      <c r="NG12" t="inlineStr"/>
+      <c r="NH12" t="inlineStr"/>
+      <c r="NI12" t="inlineStr"/>
+      <c r="NJ12" t="inlineStr"/>
+      <c r="NK12" t="inlineStr"/>
+      <c r="NL12" t="inlineStr"/>
+      <c r="NM12" t="inlineStr"/>
+      <c r="NN12" t="inlineStr"/>
+      <c r="NO12" t="inlineStr"/>
+      <c r="NP12" t="inlineStr"/>
+      <c r="NQ12" t="inlineStr"/>
+      <c r="NR12" t="inlineStr"/>
+      <c r="NS12" t="inlineStr"/>
+      <c r="NT12" t="inlineStr"/>
+      <c r="NU12" t="inlineStr"/>
+      <c r="NV12" t="inlineStr"/>
+      <c r="NW12" t="inlineStr"/>
+      <c r="NX12" t="inlineStr"/>
+      <c r="NY12" t="inlineStr"/>
+      <c r="NZ12" t="inlineStr"/>
+      <c r="OA12" t="inlineStr"/>
+      <c r="OB12" t="inlineStr"/>
+      <c r="OC12" t="inlineStr"/>
+      <c r="OD12" t="inlineStr"/>
+      <c r="OE12" t="inlineStr"/>
+      <c r="OF12" t="inlineStr"/>
+      <c r="OG12" t="inlineStr"/>
+      <c r="OH12" t="inlineStr"/>
+      <c r="OI12" t="inlineStr"/>
+      <c r="OJ12" t="inlineStr"/>
+      <c r="OK12" t="inlineStr"/>
+      <c r="OL12" t="inlineStr"/>
+      <c r="OM12" t="inlineStr"/>
+      <c r="ON12" t="inlineStr"/>
+      <c r="OO12" t="inlineStr"/>
+      <c r="OP12" t="inlineStr"/>
+      <c r="OQ12" t="inlineStr"/>
+      <c r="OR12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR3"/>
+  <dimension ref="A1:OR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,7 +2399,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>type01</t>
+          <t>type08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -2408,80 +2408,24 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -2493,76 +2437,24 @@
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+      <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
@@ -2575,80 +2467,24 @@
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="BY2" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="CC2" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="CD2" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="CE2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="CF2" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="inlineStr"/>
@@ -2660,76 +2496,24 @@
       <c r="CO2" t="inlineStr"/>
       <c r="CP2" t="inlineStr"/>
       <c r="CQ2" t="inlineStr"/>
-      <c r="CR2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
+      <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="inlineStr"/>
-      <c r="CT2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="CU2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="CV2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="CW2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="CX2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="CY2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
       <c r="DA2" t="inlineStr"/>
       <c r="DB2" t="inlineStr"/>
       <c r="DC2" t="inlineStr"/>
-      <c r="DD2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="DE2" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="DF2" t="inlineStr">
-        <is>
-          <t>-0</t>
-        </is>
-      </c>
-      <c r="DG2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="DH2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="DI2" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
       <c r="DJ2" t="inlineStr"/>
       <c r="DK2" t="inlineStr"/>
       <c r="DL2" t="inlineStr"/>
@@ -2756,76 +2540,24 @@
       <c r="EG2" t="inlineStr"/>
       <c r="EH2" t="inlineStr"/>
       <c r="EI2" t="inlineStr"/>
-      <c r="EJ2" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="EK2" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="EL2" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="EM2" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="EN2" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="EO2" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
+      <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr"/>
+      <c r="EO2" t="inlineStr"/>
       <c r="EP2" t="inlineStr"/>
       <c r="EQ2" t="inlineStr"/>
       <c r="ER2" t="inlineStr"/>
       <c r="ES2" t="inlineStr"/>
-      <c r="ET2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+      <c r="ET2" t="inlineStr"/>
       <c r="EU2" t="inlineStr"/>
-      <c r="EV2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="EW2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="EX2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="EY2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="EZ2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="FA2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
+      <c r="EV2" t="inlineStr"/>
+      <c r="EW2" t="inlineStr"/>
+      <c r="EX2" t="inlineStr"/>
+      <c r="EY2" t="inlineStr"/>
+      <c r="EZ2" t="inlineStr"/>
+      <c r="FA2" t="inlineStr"/>
       <c r="FB2" t="inlineStr"/>
       <c r="FC2" t="inlineStr"/>
       <c r="FD2" t="inlineStr"/>
@@ -2849,36 +2581,12 @@
       <c r="FV2" t="inlineStr"/>
       <c r="FW2" t="inlineStr"/>
       <c r="FX2" t="inlineStr"/>
-      <c r="FY2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="FZ2" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="GA2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="GB2" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="GC2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="GD2" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="FY2" t="inlineStr"/>
+      <c r="FZ2" t="inlineStr"/>
+      <c r="GA2" t="inlineStr"/>
+      <c r="GB2" t="inlineStr"/>
+      <c r="GC2" t="inlineStr"/>
+      <c r="GD2" t="inlineStr"/>
       <c r="GE2" t="inlineStr"/>
       <c r="GF2" t="inlineStr"/>
       <c r="GG2" t="inlineStr"/>
@@ -2924,80 +2632,24 @@
       <c r="HU2" t="inlineStr"/>
       <c r="HV2" t="inlineStr"/>
       <c r="HW2" t="inlineStr"/>
-      <c r="HX2" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="HY2" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="HZ2" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="IA2" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="IB2" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="IC2" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
+      <c r="HX2" t="inlineStr"/>
+      <c r="HY2" t="inlineStr"/>
+      <c r="HZ2" t="inlineStr"/>
+      <c r="IA2" t="inlineStr"/>
+      <c r="IB2" t="inlineStr"/>
+      <c r="IC2" t="inlineStr"/>
       <c r="ID2" t="inlineStr"/>
       <c r="IE2" t="inlineStr"/>
       <c r="IF2" t="inlineStr"/>
-      <c r="IG2" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="IH2" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
+      <c r="IG2" t="inlineStr"/>
+      <c r="IH2" t="inlineStr"/>
       <c r="II2" t="inlineStr"/>
-      <c r="IJ2" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="IK2" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="IL2" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="IM2" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="IN2" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="IO2" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
+      <c r="IJ2" t="inlineStr"/>
+      <c r="IK2" t="inlineStr"/>
+      <c r="IL2" t="inlineStr"/>
+      <c r="IM2" t="inlineStr"/>
+      <c r="IN2" t="inlineStr"/>
+      <c r="IO2" t="inlineStr"/>
       <c r="IP2" t="inlineStr"/>
       <c r="IQ2" t="inlineStr"/>
       <c r="IR2" t="inlineStr"/>
@@ -3009,76 +2661,24 @@
       <c r="IX2" t="inlineStr"/>
       <c r="IY2" t="inlineStr"/>
       <c r="IZ2" t="inlineStr"/>
-      <c r="JA2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
+      <c r="JA2" t="inlineStr"/>
       <c r="JB2" t="inlineStr"/>
-      <c r="JC2" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="JD2" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="JE2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="JF2" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="JG2" t="inlineStr">
-        <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="JH2" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
+      <c r="JC2" t="inlineStr"/>
+      <c r="JD2" t="inlineStr"/>
+      <c r="JE2" t="inlineStr"/>
+      <c r="JF2" t="inlineStr"/>
+      <c r="JG2" t="inlineStr"/>
+      <c r="JH2" t="inlineStr"/>
       <c r="JI2" t="inlineStr"/>
       <c r="JJ2" t="inlineStr"/>
       <c r="JK2" t="inlineStr"/>
       <c r="JL2" t="inlineStr"/>
-      <c r="JM2" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="JN2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="JO2" t="inlineStr">
-        <is>
-          <t>-0</t>
-        </is>
-      </c>
-      <c r="JP2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="JQ2" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="JR2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="JM2" t="inlineStr"/>
+      <c r="JN2" t="inlineStr"/>
+      <c r="JO2" t="inlineStr"/>
+      <c r="JP2" t="inlineStr"/>
+      <c r="JQ2" t="inlineStr"/>
+      <c r="JR2" t="inlineStr"/>
       <c r="JS2" t="inlineStr"/>
       <c r="JT2" t="inlineStr"/>
       <c r="JU2" t="inlineStr"/>
@@ -3155,28 +2755,116 @@
       <c r="MN2" t="inlineStr"/>
       <c r="MO2" t="inlineStr"/>
       <c r="MP2" t="inlineStr"/>
-      <c r="MQ2" t="inlineStr"/>
-      <c r="MR2" t="inlineStr"/>
-      <c r="MS2" t="inlineStr"/>
-      <c r="MT2" t="inlineStr"/>
-      <c r="MU2" t="inlineStr"/>
-      <c r="MV2" t="inlineStr"/>
-      <c r="MW2" t="inlineStr"/>
-      <c r="MX2" t="inlineStr"/>
-      <c r="MY2" t="inlineStr"/>
-      <c r="MZ2" t="inlineStr"/>
-      <c r="NA2" t="inlineStr"/>
-      <c r="NB2" t="inlineStr"/>
-      <c r="NC2" t="inlineStr"/>
-      <c r="ND2" t="inlineStr"/>
-      <c r="NE2" t="inlineStr"/>
-      <c r="NF2" t="inlineStr"/>
-      <c r="NG2" t="inlineStr"/>
-      <c r="NH2" t="inlineStr"/>
-      <c r="NI2" t="inlineStr"/>
-      <c r="NJ2" t="inlineStr"/>
-      <c r="NK2" t="inlineStr"/>
-      <c r="NL2" t="inlineStr"/>
+      <c r="MQ2" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="MR2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="MS2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="MT2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="MU2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MV2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="MW2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="MX2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="MY2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="MZ2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="NA2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="NB2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="NC2" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="ND2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="NE2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="NF2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="NG2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="NH2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="NI2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="NJ2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="NK2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="NL2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
       <c r="NM2" t="inlineStr"/>
       <c r="NN2" t="inlineStr"/>
       <c r="NO2" t="inlineStr"/>
@@ -3193,836 +2881,86 @@
       <c r="NZ2" t="inlineStr"/>
       <c r="OA2" t="inlineStr"/>
       <c r="OB2" t="inlineStr"/>
-      <c r="OC2" t="inlineStr"/>
-      <c r="OD2" t="inlineStr"/>
-      <c r="OE2" t="inlineStr"/>
-      <c r="OF2" t="inlineStr"/>
-      <c r="OG2" t="inlineStr"/>
-      <c r="OH2" t="inlineStr"/>
-      <c r="OI2" t="inlineStr"/>
-      <c r="OJ2" t="inlineStr"/>
-      <c r="OK2" t="inlineStr"/>
-      <c r="OL2" t="inlineStr"/>
-      <c r="OM2" t="inlineStr"/>
-      <c r="ON2" t="inlineStr"/>
-      <c r="OO2" t="inlineStr"/>
-      <c r="OP2" t="inlineStr"/>
-      <c r="OQ2" t="inlineStr"/>
-      <c r="OR2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>type01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="BY3" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="CB3" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="CD3" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="CE3" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="CF3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="inlineStr"/>
-      <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
-      <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
-      <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="inlineStr"/>
-      <c r="CR3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="CS3" t="inlineStr"/>
-      <c r="CT3" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="CU3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="CV3" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="CW3" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="CX3" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="CY3" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="CZ3" t="inlineStr"/>
-      <c r="DA3" t="inlineStr"/>
-      <c r="DB3" t="inlineStr"/>
-      <c r="DC3" t="inlineStr"/>
-      <c r="DD3" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="DE3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="DF3" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="DG3" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="DH3" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="DI3" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="DJ3" t="inlineStr"/>
-      <c r="DK3" t="inlineStr"/>
-      <c r="DL3" t="inlineStr"/>
-      <c r="DM3" t="inlineStr"/>
-      <c r="DN3" t="inlineStr"/>
-      <c r="DO3" t="inlineStr"/>
-      <c r="DP3" t="inlineStr"/>
-      <c r="DQ3" t="inlineStr"/>
-      <c r="DR3" t="inlineStr"/>
-      <c r="DS3" t="inlineStr"/>
-      <c r="DT3" t="inlineStr"/>
-      <c r="DU3" t="inlineStr"/>
-      <c r="DV3" t="inlineStr"/>
-      <c r="DW3" t="inlineStr"/>
-      <c r="DX3" t="inlineStr"/>
-      <c r="DY3" t="inlineStr"/>
-      <c r="DZ3" t="inlineStr"/>
-      <c r="EA3" t="inlineStr"/>
-      <c r="EB3" t="inlineStr"/>
-      <c r="EC3" t="inlineStr"/>
-      <c r="ED3" t="inlineStr"/>
-      <c r="EE3" t="inlineStr"/>
-      <c r="EF3" t="inlineStr"/>
-      <c r="EG3" t="inlineStr"/>
-      <c r="EH3" t="inlineStr"/>
-      <c r="EI3" t="inlineStr"/>
-      <c r="EJ3" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="EK3" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="EL3" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="EM3" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="EN3" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="EO3" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="EP3" t="inlineStr"/>
-      <c r="EQ3" t="inlineStr"/>
-      <c r="ER3" t="inlineStr"/>
-      <c r="ES3" t="inlineStr"/>
-      <c r="ET3" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="EU3" t="inlineStr"/>
-      <c r="EV3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="EW3" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="EX3" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="EY3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="EZ3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="FA3" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="FB3" t="inlineStr"/>
-      <c r="FC3" t="inlineStr"/>
-      <c r="FD3" t="inlineStr"/>
-      <c r="FE3" t="inlineStr"/>
-      <c r="FF3" t="inlineStr"/>
-      <c r="FG3" t="inlineStr"/>
-      <c r="FH3" t="inlineStr"/>
-      <c r="FI3" t="inlineStr"/>
-      <c r="FJ3" t="inlineStr"/>
-      <c r="FK3" t="inlineStr"/>
-      <c r="FL3" t="inlineStr"/>
-      <c r="FM3" t="inlineStr"/>
-      <c r="FN3" t="inlineStr"/>
-      <c r="FO3" t="inlineStr"/>
-      <c r="FP3" t="inlineStr"/>
-      <c r="FQ3" t="inlineStr"/>
-      <c r="FR3" t="inlineStr"/>
-      <c r="FS3" t="inlineStr"/>
-      <c r="FT3" t="inlineStr"/>
-      <c r="FU3" t="inlineStr"/>
-      <c r="FV3" t="inlineStr"/>
-      <c r="FW3" t="inlineStr"/>
-      <c r="FX3" t="inlineStr"/>
-      <c r="FY3" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="FZ3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="GA3" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="GB3" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="GC3" t="inlineStr">
-        <is>
-          <t>-29</t>
-        </is>
-      </c>
-      <c r="GD3" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="GE3" t="inlineStr"/>
-      <c r="GF3" t="inlineStr"/>
-      <c r="GG3" t="inlineStr"/>
-      <c r="GH3" t="inlineStr"/>
-      <c r="GI3" t="inlineStr"/>
-      <c r="GJ3" t="inlineStr"/>
-      <c r="GK3" t="inlineStr"/>
-      <c r="GL3" t="inlineStr"/>
-      <c r="GM3" t="inlineStr"/>
-      <c r="GN3" t="inlineStr"/>
-      <c r="GO3" t="inlineStr"/>
-      <c r="GP3" t="inlineStr"/>
-      <c r="GQ3" t="inlineStr"/>
-      <c r="GR3" t="inlineStr"/>
-      <c r="GS3" t="inlineStr"/>
-      <c r="GT3" t="inlineStr"/>
-      <c r="GU3" t="inlineStr"/>
-      <c r="GV3" t="inlineStr"/>
-      <c r="GW3" t="inlineStr"/>
-      <c r="GX3" t="inlineStr"/>
-      <c r="GY3" t="inlineStr"/>
-      <c r="GZ3" t="inlineStr"/>
-      <c r="HA3" t="inlineStr"/>
-      <c r="HB3" t="inlineStr"/>
-      <c r="HC3" t="inlineStr"/>
-      <c r="HD3" t="inlineStr"/>
-      <c r="HE3" t="inlineStr"/>
-      <c r="HF3" t="inlineStr"/>
-      <c r="HG3" t="inlineStr"/>
-      <c r="HH3" t="inlineStr"/>
-      <c r="HI3" t="inlineStr"/>
-      <c r="HJ3" t="inlineStr"/>
-      <c r="HK3" t="inlineStr"/>
-      <c r="HL3" t="inlineStr"/>
-      <c r="HM3" t="inlineStr"/>
-      <c r="HN3" t="inlineStr"/>
-      <c r="HO3" t="inlineStr"/>
-      <c r="HP3" t="inlineStr"/>
-      <c r="HQ3" t="inlineStr"/>
-      <c r="HR3" t="inlineStr"/>
-      <c r="HS3" t="inlineStr"/>
-      <c r="HT3" t="inlineStr"/>
-      <c r="HU3" t="inlineStr"/>
-      <c r="HV3" t="inlineStr"/>
-      <c r="HW3" t="inlineStr"/>
-      <c r="HX3" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="HY3" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="HZ3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="IA3" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="IB3" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="IC3" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="ID3" t="inlineStr"/>
-      <c r="IE3" t="inlineStr"/>
-      <c r="IF3" t="inlineStr"/>
-      <c r="IG3" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="IH3" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="II3" t="inlineStr"/>
-      <c r="IJ3" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="IK3" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="IL3" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="IM3" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="IN3" t="inlineStr">
+      <c r="OC2" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="OD2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="OE2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="OF2" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="OG2" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="OH2" t="inlineStr">
+        <is>
+          <t>0.798</t>
+        </is>
+      </c>
+      <c r="OI2" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+      <c r="OJ2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="OK2" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="IO3" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="IP3" t="inlineStr"/>
-      <c r="IQ3" t="inlineStr"/>
-      <c r="IR3" t="inlineStr"/>
-      <c r="IS3" t="inlineStr"/>
-      <c r="IT3" t="inlineStr"/>
-      <c r="IU3" t="inlineStr"/>
-      <c r="IV3" t="inlineStr"/>
-      <c r="IW3" t="inlineStr"/>
-      <c r="IX3" t="inlineStr"/>
-      <c r="IY3" t="inlineStr"/>
-      <c r="IZ3" t="inlineStr"/>
-      <c r="JA3" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="JB3" t="inlineStr"/>
-      <c r="JC3" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="JD3" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="JE3" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="JF3" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="JG3" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="JH3" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="JI3" t="inlineStr"/>
-      <c r="JJ3" t="inlineStr"/>
-      <c r="JK3" t="inlineStr"/>
-      <c r="JL3" t="inlineStr"/>
-      <c r="JM3" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="JN3" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="JO3" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="JP3" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="JQ3" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="JR3" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="JS3" t="inlineStr"/>
-      <c r="JT3" t="inlineStr"/>
-      <c r="JU3" t="inlineStr"/>
-      <c r="JV3" t="inlineStr"/>
-      <c r="JW3" t="inlineStr"/>
-      <c r="JX3" t="inlineStr"/>
-      <c r="JY3" t="inlineStr"/>
-      <c r="JZ3" t="inlineStr"/>
-      <c r="KA3" t="inlineStr"/>
-      <c r="KB3" t="inlineStr"/>
-      <c r="KC3" t="inlineStr"/>
-      <c r="KD3" t="inlineStr"/>
-      <c r="KE3" t="inlineStr"/>
-      <c r="KF3" t="inlineStr"/>
-      <c r="KG3" t="inlineStr"/>
-      <c r="KH3" t="inlineStr"/>
-      <c r="KI3" t="inlineStr"/>
-      <c r="KJ3" t="inlineStr"/>
-      <c r="KK3" t="inlineStr"/>
-      <c r="KL3" t="inlineStr"/>
-      <c r="KM3" t="inlineStr"/>
-      <c r="KN3" t="inlineStr"/>
-      <c r="KO3" t="inlineStr"/>
-      <c r="KP3" t="inlineStr"/>
-      <c r="KQ3" t="inlineStr"/>
-      <c r="KR3" t="inlineStr"/>
-      <c r="KS3" t="inlineStr"/>
-      <c r="KT3" t="inlineStr"/>
-      <c r="KU3" t="inlineStr"/>
-      <c r="KV3" t="inlineStr"/>
-      <c r="KW3" t="inlineStr"/>
-      <c r="KX3" t="inlineStr"/>
-      <c r="KY3" t="inlineStr"/>
-      <c r="KZ3" t="inlineStr"/>
-      <c r="LA3" t="inlineStr"/>
-      <c r="LB3" t="inlineStr"/>
-      <c r="LC3" t="inlineStr"/>
-      <c r="LD3" t="inlineStr"/>
-      <c r="LE3" t="inlineStr"/>
-      <c r="LF3" t="inlineStr"/>
-      <c r="LG3" t="inlineStr"/>
-      <c r="LH3" t="inlineStr"/>
-      <c r="LI3" t="inlineStr"/>
-      <c r="LJ3" t="inlineStr"/>
-      <c r="LK3" t="inlineStr"/>
-      <c r="LL3" t="inlineStr"/>
-      <c r="LM3" t="inlineStr"/>
-      <c r="LN3" t="inlineStr"/>
-      <c r="LO3" t="inlineStr"/>
-      <c r="LP3" t="inlineStr"/>
-      <c r="LQ3" t="inlineStr"/>
-      <c r="LR3" t="inlineStr"/>
-      <c r="LS3" t="inlineStr"/>
-      <c r="LT3" t="inlineStr"/>
-      <c r="LU3" t="inlineStr"/>
-      <c r="LV3" t="inlineStr"/>
-      <c r="LW3" t="inlineStr"/>
-      <c r="LX3" t="inlineStr"/>
-      <c r="LY3" t="inlineStr"/>
-      <c r="LZ3" t="inlineStr"/>
-      <c r="MA3" t="inlineStr"/>
-      <c r="MB3" t="inlineStr"/>
-      <c r="MC3" t="inlineStr"/>
-      <c r="MD3" t="inlineStr"/>
-      <c r="ME3" t="inlineStr"/>
-      <c r="MF3" t="inlineStr"/>
-      <c r="MG3" t="inlineStr"/>
-      <c r="MH3" t="inlineStr"/>
-      <c r="MI3" t="inlineStr"/>
-      <c r="MJ3" t="inlineStr"/>
-      <c r="MK3" t="inlineStr"/>
-      <c r="ML3" t="inlineStr"/>
-      <c r="MM3" t="inlineStr"/>
-      <c r="MN3" t="inlineStr"/>
-      <c r="MO3" t="inlineStr"/>
-      <c r="MP3" t="inlineStr"/>
-      <c r="MQ3" t="inlineStr"/>
-      <c r="MR3" t="inlineStr"/>
-      <c r="MS3" t="inlineStr"/>
-      <c r="MT3" t="inlineStr"/>
-      <c r="MU3" t="inlineStr"/>
-      <c r="MV3" t="inlineStr"/>
-      <c r="MW3" t="inlineStr"/>
-      <c r="MX3" t="inlineStr"/>
-      <c r="MY3" t="inlineStr"/>
-      <c r="MZ3" t="inlineStr"/>
-      <c r="NA3" t="inlineStr"/>
-      <c r="NB3" t="inlineStr"/>
-      <c r="NC3" t="inlineStr"/>
-      <c r="ND3" t="inlineStr"/>
-      <c r="NE3" t="inlineStr"/>
-      <c r="NF3" t="inlineStr"/>
-      <c r="NG3" t="inlineStr"/>
-      <c r="NH3" t="inlineStr"/>
-      <c r="NI3" t="inlineStr"/>
-      <c r="NJ3" t="inlineStr"/>
-      <c r="NK3" t="inlineStr"/>
-      <c r="NL3" t="inlineStr"/>
-      <c r="NM3" t="inlineStr"/>
-      <c r="NN3" t="inlineStr"/>
-      <c r="NO3" t="inlineStr"/>
-      <c r="NP3" t="inlineStr"/>
-      <c r="NQ3" t="inlineStr"/>
-      <c r="NR3" t="inlineStr"/>
-      <c r="NS3" t="inlineStr"/>
-      <c r="NT3" t="inlineStr"/>
-      <c r="NU3" t="inlineStr"/>
-      <c r="NV3" t="inlineStr"/>
-      <c r="NW3" t="inlineStr"/>
-      <c r="NX3" t="inlineStr"/>
-      <c r="NY3" t="inlineStr"/>
-      <c r="NZ3" t="inlineStr"/>
-      <c r="OA3" t="inlineStr"/>
-      <c r="OB3" t="inlineStr"/>
-      <c r="OC3" t="inlineStr"/>
-      <c r="OD3" t="inlineStr"/>
-      <c r="OE3" t="inlineStr"/>
-      <c r="OF3" t="inlineStr"/>
-      <c r="OG3" t="inlineStr"/>
-      <c r="OH3" t="inlineStr"/>
-      <c r="OI3" t="inlineStr"/>
-      <c r="OJ3" t="inlineStr"/>
-      <c r="OK3" t="inlineStr"/>
-      <c r="OL3" t="inlineStr"/>
-      <c r="OM3" t="inlineStr"/>
-      <c r="ON3" t="inlineStr"/>
-      <c r="OO3" t="inlineStr"/>
-      <c r="OP3" t="inlineStr"/>
-      <c r="OQ3" t="inlineStr"/>
-      <c r="OR3" t="inlineStr"/>
+      <c r="OL2" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="OM2" t="inlineStr">
+        <is>
+          <t>2236</t>
+        </is>
+      </c>
+      <c r="ON2" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="OO2" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="OP2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="OQ2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="OR2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR2"/>
+  <dimension ref="A1:OR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2402,359 +2402,6 @@
           <t>type08</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
-      <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
-      <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="inlineStr"/>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
-      <c r="CP2" t="inlineStr"/>
-      <c r="CQ2" t="inlineStr"/>
-      <c r="CR2" t="inlineStr"/>
-      <c r="CS2" t="inlineStr"/>
-      <c r="CT2" t="inlineStr"/>
-      <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="inlineStr"/>
-      <c r="CW2" t="inlineStr"/>
-      <c r="CX2" t="inlineStr"/>
-      <c r="CY2" t="inlineStr"/>
-      <c r="CZ2" t="inlineStr"/>
-      <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="inlineStr"/>
-      <c r="DC2" t="inlineStr"/>
-      <c r="DD2" t="inlineStr"/>
-      <c r="DE2" t="inlineStr"/>
-      <c r="DF2" t="inlineStr"/>
-      <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="inlineStr"/>
-      <c r="DI2" t="inlineStr"/>
-      <c r="DJ2" t="inlineStr"/>
-      <c r="DK2" t="inlineStr"/>
-      <c r="DL2" t="inlineStr"/>
-      <c r="DM2" t="inlineStr"/>
-      <c r="DN2" t="inlineStr"/>
-      <c r="DO2" t="inlineStr"/>
-      <c r="DP2" t="inlineStr"/>
-      <c r="DQ2" t="inlineStr"/>
-      <c r="DR2" t="inlineStr"/>
-      <c r="DS2" t="inlineStr"/>
-      <c r="DT2" t="inlineStr"/>
-      <c r="DU2" t="inlineStr"/>
-      <c r="DV2" t="inlineStr"/>
-      <c r="DW2" t="inlineStr"/>
-      <c r="DX2" t="inlineStr"/>
-      <c r="DY2" t="inlineStr"/>
-      <c r="DZ2" t="inlineStr"/>
-      <c r="EA2" t="inlineStr"/>
-      <c r="EB2" t="inlineStr"/>
-      <c r="EC2" t="inlineStr"/>
-      <c r="ED2" t="inlineStr"/>
-      <c r="EE2" t="inlineStr"/>
-      <c r="EF2" t="inlineStr"/>
-      <c r="EG2" t="inlineStr"/>
-      <c r="EH2" t="inlineStr"/>
-      <c r="EI2" t="inlineStr"/>
-      <c r="EJ2" t="inlineStr"/>
-      <c r="EK2" t="inlineStr"/>
-      <c r="EL2" t="inlineStr"/>
-      <c r="EM2" t="inlineStr"/>
-      <c r="EN2" t="inlineStr"/>
-      <c r="EO2" t="inlineStr"/>
-      <c r="EP2" t="inlineStr"/>
-      <c r="EQ2" t="inlineStr"/>
-      <c r="ER2" t="inlineStr"/>
-      <c r="ES2" t="inlineStr"/>
-      <c r="ET2" t="inlineStr"/>
-      <c r="EU2" t="inlineStr"/>
-      <c r="EV2" t="inlineStr"/>
-      <c r="EW2" t="inlineStr"/>
-      <c r="EX2" t="inlineStr"/>
-      <c r="EY2" t="inlineStr"/>
-      <c r="EZ2" t="inlineStr"/>
-      <c r="FA2" t="inlineStr"/>
-      <c r="FB2" t="inlineStr"/>
-      <c r="FC2" t="inlineStr"/>
-      <c r="FD2" t="inlineStr"/>
-      <c r="FE2" t="inlineStr"/>
-      <c r="FF2" t="inlineStr"/>
-      <c r="FG2" t="inlineStr"/>
-      <c r="FH2" t="inlineStr"/>
-      <c r="FI2" t="inlineStr"/>
-      <c r="FJ2" t="inlineStr"/>
-      <c r="FK2" t="inlineStr"/>
-      <c r="FL2" t="inlineStr"/>
-      <c r="FM2" t="inlineStr"/>
-      <c r="FN2" t="inlineStr"/>
-      <c r="FO2" t="inlineStr"/>
-      <c r="FP2" t="inlineStr"/>
-      <c r="FQ2" t="inlineStr"/>
-      <c r="FR2" t="inlineStr"/>
-      <c r="FS2" t="inlineStr"/>
-      <c r="FT2" t="inlineStr"/>
-      <c r="FU2" t="inlineStr"/>
-      <c r="FV2" t="inlineStr"/>
-      <c r="FW2" t="inlineStr"/>
-      <c r="FX2" t="inlineStr"/>
-      <c r="FY2" t="inlineStr"/>
-      <c r="FZ2" t="inlineStr"/>
-      <c r="GA2" t="inlineStr"/>
-      <c r="GB2" t="inlineStr"/>
-      <c r="GC2" t="inlineStr"/>
-      <c r="GD2" t="inlineStr"/>
-      <c r="GE2" t="inlineStr"/>
-      <c r="GF2" t="inlineStr"/>
-      <c r="GG2" t="inlineStr"/>
-      <c r="GH2" t="inlineStr"/>
-      <c r="GI2" t="inlineStr"/>
-      <c r="GJ2" t="inlineStr"/>
-      <c r="GK2" t="inlineStr"/>
-      <c r="GL2" t="inlineStr"/>
-      <c r="GM2" t="inlineStr"/>
-      <c r="GN2" t="inlineStr"/>
-      <c r="GO2" t="inlineStr"/>
-      <c r="GP2" t="inlineStr"/>
-      <c r="GQ2" t="inlineStr"/>
-      <c r="GR2" t="inlineStr"/>
-      <c r="GS2" t="inlineStr"/>
-      <c r="GT2" t="inlineStr"/>
-      <c r="GU2" t="inlineStr"/>
-      <c r="GV2" t="inlineStr"/>
-      <c r="GW2" t="inlineStr"/>
-      <c r="GX2" t="inlineStr"/>
-      <c r="GY2" t="inlineStr"/>
-      <c r="GZ2" t="inlineStr"/>
-      <c r="HA2" t="inlineStr"/>
-      <c r="HB2" t="inlineStr"/>
-      <c r="HC2" t="inlineStr"/>
-      <c r="HD2" t="inlineStr"/>
-      <c r="HE2" t="inlineStr"/>
-      <c r="HF2" t="inlineStr"/>
-      <c r="HG2" t="inlineStr"/>
-      <c r="HH2" t="inlineStr"/>
-      <c r="HI2" t="inlineStr"/>
-      <c r="HJ2" t="inlineStr"/>
-      <c r="HK2" t="inlineStr"/>
-      <c r="HL2" t="inlineStr"/>
-      <c r="HM2" t="inlineStr"/>
-      <c r="HN2" t="inlineStr"/>
-      <c r="HO2" t="inlineStr"/>
-      <c r="HP2" t="inlineStr"/>
-      <c r="HQ2" t="inlineStr"/>
-      <c r="HR2" t="inlineStr"/>
-      <c r="HS2" t="inlineStr"/>
-      <c r="HT2" t="inlineStr"/>
-      <c r="HU2" t="inlineStr"/>
-      <c r="HV2" t="inlineStr"/>
-      <c r="HW2" t="inlineStr"/>
-      <c r="HX2" t="inlineStr"/>
-      <c r="HY2" t="inlineStr"/>
-      <c r="HZ2" t="inlineStr"/>
-      <c r="IA2" t="inlineStr"/>
-      <c r="IB2" t="inlineStr"/>
-      <c r="IC2" t="inlineStr"/>
-      <c r="ID2" t="inlineStr"/>
-      <c r="IE2" t="inlineStr"/>
-      <c r="IF2" t="inlineStr"/>
-      <c r="IG2" t="inlineStr"/>
-      <c r="IH2" t="inlineStr"/>
-      <c r="II2" t="inlineStr"/>
-      <c r="IJ2" t="inlineStr"/>
-      <c r="IK2" t="inlineStr"/>
-      <c r="IL2" t="inlineStr"/>
-      <c r="IM2" t="inlineStr"/>
-      <c r="IN2" t="inlineStr"/>
-      <c r="IO2" t="inlineStr"/>
-      <c r="IP2" t="inlineStr"/>
-      <c r="IQ2" t="inlineStr"/>
-      <c r="IR2" t="inlineStr"/>
-      <c r="IS2" t="inlineStr"/>
-      <c r="IT2" t="inlineStr"/>
-      <c r="IU2" t="inlineStr"/>
-      <c r="IV2" t="inlineStr"/>
-      <c r="IW2" t="inlineStr"/>
-      <c r="IX2" t="inlineStr"/>
-      <c r="IY2" t="inlineStr"/>
-      <c r="IZ2" t="inlineStr"/>
-      <c r="JA2" t="inlineStr"/>
-      <c r="JB2" t="inlineStr"/>
-      <c r="JC2" t="inlineStr"/>
-      <c r="JD2" t="inlineStr"/>
-      <c r="JE2" t="inlineStr"/>
-      <c r="JF2" t="inlineStr"/>
-      <c r="JG2" t="inlineStr"/>
-      <c r="JH2" t="inlineStr"/>
-      <c r="JI2" t="inlineStr"/>
-      <c r="JJ2" t="inlineStr"/>
-      <c r="JK2" t="inlineStr"/>
-      <c r="JL2" t="inlineStr"/>
-      <c r="JM2" t="inlineStr"/>
-      <c r="JN2" t="inlineStr"/>
-      <c r="JO2" t="inlineStr"/>
-      <c r="JP2" t="inlineStr"/>
-      <c r="JQ2" t="inlineStr"/>
-      <c r="JR2" t="inlineStr"/>
-      <c r="JS2" t="inlineStr"/>
-      <c r="JT2" t="inlineStr"/>
-      <c r="JU2" t="inlineStr"/>
-      <c r="JV2" t="inlineStr"/>
-      <c r="JW2" t="inlineStr"/>
-      <c r="JX2" t="inlineStr"/>
-      <c r="JY2" t="inlineStr"/>
-      <c r="JZ2" t="inlineStr"/>
-      <c r="KA2" t="inlineStr"/>
-      <c r="KB2" t="inlineStr"/>
-      <c r="KC2" t="inlineStr"/>
-      <c r="KD2" t="inlineStr"/>
-      <c r="KE2" t="inlineStr"/>
-      <c r="KF2" t="inlineStr"/>
-      <c r="KG2" t="inlineStr"/>
-      <c r="KH2" t="inlineStr"/>
-      <c r="KI2" t="inlineStr"/>
-      <c r="KJ2" t="inlineStr"/>
-      <c r="KK2" t="inlineStr"/>
-      <c r="KL2" t="inlineStr"/>
-      <c r="KM2" t="inlineStr"/>
-      <c r="KN2" t="inlineStr"/>
-      <c r="KO2" t="inlineStr"/>
-      <c r="KP2" t="inlineStr"/>
-      <c r="KQ2" t="inlineStr"/>
-      <c r="KR2" t="inlineStr"/>
-      <c r="KS2" t="inlineStr"/>
-      <c r="KT2" t="inlineStr"/>
-      <c r="KU2" t="inlineStr"/>
-      <c r="KV2" t="inlineStr"/>
-      <c r="KW2" t="inlineStr"/>
-      <c r="KX2" t="inlineStr"/>
-      <c r="KY2" t="inlineStr"/>
-      <c r="KZ2" t="inlineStr"/>
-      <c r="LA2" t="inlineStr"/>
-      <c r="LB2" t="inlineStr"/>
-      <c r="LC2" t="inlineStr"/>
-      <c r="LD2" t="inlineStr"/>
-      <c r="LE2" t="inlineStr"/>
-      <c r="LF2" t="inlineStr"/>
-      <c r="LG2" t="inlineStr"/>
-      <c r="LH2" t="inlineStr"/>
-      <c r="LI2" t="inlineStr"/>
-      <c r="LJ2" t="inlineStr"/>
-      <c r="LK2" t="inlineStr"/>
-      <c r="LL2" t="inlineStr"/>
-      <c r="LM2" t="inlineStr"/>
-      <c r="LN2" t="inlineStr"/>
-      <c r="LO2" t="inlineStr"/>
-      <c r="LP2" t="inlineStr"/>
-      <c r="LQ2" t="inlineStr"/>
-      <c r="LR2" t="inlineStr"/>
-      <c r="LS2" t="inlineStr"/>
-      <c r="LT2" t="inlineStr"/>
-      <c r="LU2" t="inlineStr"/>
-      <c r="LV2" t="inlineStr"/>
-      <c r="LW2" t="inlineStr"/>
-      <c r="LX2" t="inlineStr"/>
-      <c r="LY2" t="inlineStr"/>
-      <c r="LZ2" t="inlineStr"/>
-      <c r="MA2" t="inlineStr"/>
-      <c r="MB2" t="inlineStr"/>
-      <c r="MC2" t="inlineStr"/>
-      <c r="MD2" t="inlineStr"/>
-      <c r="ME2" t="inlineStr"/>
-      <c r="MF2" t="inlineStr"/>
-      <c r="MG2" t="inlineStr"/>
-      <c r="MH2" t="inlineStr"/>
-      <c r="MI2" t="inlineStr"/>
-      <c r="MJ2" t="inlineStr"/>
-      <c r="MK2" t="inlineStr"/>
-      <c r="ML2" t="inlineStr"/>
-      <c r="MM2" t="inlineStr"/>
-      <c r="MN2" t="inlineStr"/>
-      <c r="MO2" t="inlineStr"/>
-      <c r="MP2" t="inlineStr"/>
       <c r="MQ2" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -2865,22 +2512,6 @@
           <t>0.66</t>
         </is>
       </c>
-      <c r="NM2" t="inlineStr"/>
-      <c r="NN2" t="inlineStr"/>
-      <c r="NO2" t="inlineStr"/>
-      <c r="NP2" t="inlineStr"/>
-      <c r="NQ2" t="inlineStr"/>
-      <c r="NR2" t="inlineStr"/>
-      <c r="NS2" t="inlineStr"/>
-      <c r="NT2" t="inlineStr"/>
-      <c r="NU2" t="inlineStr"/>
-      <c r="NV2" t="inlineStr"/>
-      <c r="NW2" t="inlineStr"/>
-      <c r="NX2" t="inlineStr"/>
-      <c r="NY2" t="inlineStr"/>
-      <c r="NZ2" t="inlineStr"/>
-      <c r="OA2" t="inlineStr"/>
-      <c r="OB2" t="inlineStr"/>
       <c r="OC2" t="inlineStr">
         <is>
           <t>18.92</t>
@@ -2957,6 +2588,572 @@
         </is>
       </c>
       <c r="OR2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>type08</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+      <c r="DX3" t="inlineStr"/>
+      <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr"/>
+      <c r="EA3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr"/>
+      <c r="EC3" t="inlineStr"/>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr"/>
+      <c r="EH3" t="inlineStr"/>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr"/>
+      <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr"/>
+      <c r="EO3" t="inlineStr"/>
+      <c r="EP3" t="inlineStr"/>
+      <c r="EQ3" t="inlineStr"/>
+      <c r="ER3" t="inlineStr"/>
+      <c r="ES3" t="inlineStr"/>
+      <c r="ET3" t="inlineStr"/>
+      <c r="EU3" t="inlineStr"/>
+      <c r="EV3" t="inlineStr"/>
+      <c r="EW3" t="inlineStr"/>
+      <c r="EX3" t="inlineStr"/>
+      <c r="EY3" t="inlineStr"/>
+      <c r="EZ3" t="inlineStr"/>
+      <c r="FA3" t="inlineStr"/>
+      <c r="FB3" t="inlineStr"/>
+      <c r="FC3" t="inlineStr"/>
+      <c r="FD3" t="inlineStr"/>
+      <c r="FE3" t="inlineStr"/>
+      <c r="FF3" t="inlineStr"/>
+      <c r="FG3" t="inlineStr"/>
+      <c r="FH3" t="inlineStr"/>
+      <c r="FI3" t="inlineStr"/>
+      <c r="FJ3" t="inlineStr"/>
+      <c r="FK3" t="inlineStr"/>
+      <c r="FL3" t="inlineStr"/>
+      <c r="FM3" t="inlineStr"/>
+      <c r="FN3" t="inlineStr"/>
+      <c r="FO3" t="inlineStr"/>
+      <c r="FP3" t="inlineStr"/>
+      <c r="FQ3" t="inlineStr"/>
+      <c r="FR3" t="inlineStr"/>
+      <c r="FS3" t="inlineStr"/>
+      <c r="FT3" t="inlineStr"/>
+      <c r="FU3" t="inlineStr"/>
+      <c r="FV3" t="inlineStr"/>
+      <c r="FW3" t="inlineStr"/>
+      <c r="FX3" t="inlineStr"/>
+      <c r="FY3" t="inlineStr"/>
+      <c r="FZ3" t="inlineStr"/>
+      <c r="GA3" t="inlineStr"/>
+      <c r="GB3" t="inlineStr"/>
+      <c r="GC3" t="inlineStr"/>
+      <c r="GD3" t="inlineStr"/>
+      <c r="GE3" t="inlineStr"/>
+      <c r="GF3" t="inlineStr"/>
+      <c r="GG3" t="inlineStr"/>
+      <c r="GH3" t="inlineStr"/>
+      <c r="GI3" t="inlineStr"/>
+      <c r="GJ3" t="inlineStr"/>
+      <c r="GK3" t="inlineStr"/>
+      <c r="GL3" t="inlineStr"/>
+      <c r="GM3" t="inlineStr"/>
+      <c r="GN3" t="inlineStr"/>
+      <c r="GO3" t="inlineStr"/>
+      <c r="GP3" t="inlineStr"/>
+      <c r="GQ3" t="inlineStr"/>
+      <c r="GR3" t="inlineStr"/>
+      <c r="GS3" t="inlineStr"/>
+      <c r="GT3" t="inlineStr"/>
+      <c r="GU3" t="inlineStr"/>
+      <c r="GV3" t="inlineStr"/>
+      <c r="GW3" t="inlineStr"/>
+      <c r="GX3" t="inlineStr"/>
+      <c r="GY3" t="inlineStr"/>
+      <c r="GZ3" t="inlineStr"/>
+      <c r="HA3" t="inlineStr"/>
+      <c r="HB3" t="inlineStr"/>
+      <c r="HC3" t="inlineStr"/>
+      <c r="HD3" t="inlineStr"/>
+      <c r="HE3" t="inlineStr"/>
+      <c r="HF3" t="inlineStr"/>
+      <c r="HG3" t="inlineStr"/>
+      <c r="HH3" t="inlineStr"/>
+      <c r="HI3" t="inlineStr"/>
+      <c r="HJ3" t="inlineStr"/>
+      <c r="HK3" t="inlineStr"/>
+      <c r="HL3" t="inlineStr"/>
+      <c r="HM3" t="inlineStr"/>
+      <c r="HN3" t="inlineStr"/>
+      <c r="HO3" t="inlineStr"/>
+      <c r="HP3" t="inlineStr"/>
+      <c r="HQ3" t="inlineStr"/>
+      <c r="HR3" t="inlineStr"/>
+      <c r="HS3" t="inlineStr"/>
+      <c r="HT3" t="inlineStr"/>
+      <c r="HU3" t="inlineStr"/>
+      <c r="HV3" t="inlineStr"/>
+      <c r="HW3" t="inlineStr"/>
+      <c r="HX3" t="inlineStr"/>
+      <c r="HY3" t="inlineStr"/>
+      <c r="HZ3" t="inlineStr"/>
+      <c r="IA3" t="inlineStr"/>
+      <c r="IB3" t="inlineStr"/>
+      <c r="IC3" t="inlineStr"/>
+      <c r="ID3" t="inlineStr"/>
+      <c r="IE3" t="inlineStr"/>
+      <c r="IF3" t="inlineStr"/>
+      <c r="IG3" t="inlineStr"/>
+      <c r="IH3" t="inlineStr"/>
+      <c r="II3" t="inlineStr"/>
+      <c r="IJ3" t="inlineStr"/>
+      <c r="IK3" t="inlineStr"/>
+      <c r="IL3" t="inlineStr"/>
+      <c r="IM3" t="inlineStr"/>
+      <c r="IN3" t="inlineStr"/>
+      <c r="IO3" t="inlineStr"/>
+      <c r="IP3" t="inlineStr"/>
+      <c r="IQ3" t="inlineStr"/>
+      <c r="IR3" t="inlineStr"/>
+      <c r="IS3" t="inlineStr"/>
+      <c r="IT3" t="inlineStr"/>
+      <c r="IU3" t="inlineStr"/>
+      <c r="IV3" t="inlineStr"/>
+      <c r="IW3" t="inlineStr"/>
+      <c r="IX3" t="inlineStr"/>
+      <c r="IY3" t="inlineStr"/>
+      <c r="IZ3" t="inlineStr"/>
+      <c r="JA3" t="inlineStr"/>
+      <c r="JB3" t="inlineStr"/>
+      <c r="JC3" t="inlineStr"/>
+      <c r="JD3" t="inlineStr"/>
+      <c r="JE3" t="inlineStr"/>
+      <c r="JF3" t="inlineStr"/>
+      <c r="JG3" t="inlineStr"/>
+      <c r="JH3" t="inlineStr"/>
+      <c r="JI3" t="inlineStr"/>
+      <c r="JJ3" t="inlineStr"/>
+      <c r="JK3" t="inlineStr"/>
+      <c r="JL3" t="inlineStr"/>
+      <c r="JM3" t="inlineStr"/>
+      <c r="JN3" t="inlineStr"/>
+      <c r="JO3" t="inlineStr"/>
+      <c r="JP3" t="inlineStr"/>
+      <c r="JQ3" t="inlineStr"/>
+      <c r="JR3" t="inlineStr"/>
+      <c r="JS3" t="inlineStr"/>
+      <c r="JT3" t="inlineStr"/>
+      <c r="JU3" t="inlineStr"/>
+      <c r="JV3" t="inlineStr"/>
+      <c r="JW3" t="inlineStr"/>
+      <c r="JX3" t="inlineStr"/>
+      <c r="JY3" t="inlineStr"/>
+      <c r="JZ3" t="inlineStr"/>
+      <c r="KA3" t="inlineStr"/>
+      <c r="KB3" t="inlineStr"/>
+      <c r="KC3" t="inlineStr"/>
+      <c r="KD3" t="inlineStr"/>
+      <c r="KE3" t="inlineStr"/>
+      <c r="KF3" t="inlineStr"/>
+      <c r="KG3" t="inlineStr"/>
+      <c r="KH3" t="inlineStr"/>
+      <c r="KI3" t="inlineStr"/>
+      <c r="KJ3" t="inlineStr"/>
+      <c r="KK3" t="inlineStr"/>
+      <c r="KL3" t="inlineStr"/>
+      <c r="KM3" t="inlineStr"/>
+      <c r="KN3" t="inlineStr"/>
+      <c r="KO3" t="inlineStr"/>
+      <c r="KP3" t="inlineStr"/>
+      <c r="KQ3" t="inlineStr"/>
+      <c r="KR3" t="inlineStr"/>
+      <c r="KS3" t="inlineStr"/>
+      <c r="KT3" t="inlineStr"/>
+      <c r="KU3" t="inlineStr"/>
+      <c r="KV3" t="inlineStr"/>
+      <c r="KW3" t="inlineStr"/>
+      <c r="KX3" t="inlineStr"/>
+      <c r="KY3" t="inlineStr"/>
+      <c r="KZ3" t="inlineStr"/>
+      <c r="LA3" t="inlineStr"/>
+      <c r="LB3" t="inlineStr"/>
+      <c r="LC3" t="inlineStr"/>
+      <c r="LD3" t="inlineStr"/>
+      <c r="LE3" t="inlineStr"/>
+      <c r="LF3" t="inlineStr"/>
+      <c r="LG3" t="inlineStr"/>
+      <c r="LH3" t="inlineStr"/>
+      <c r="LI3" t="inlineStr"/>
+      <c r="LJ3" t="inlineStr"/>
+      <c r="LK3" t="inlineStr"/>
+      <c r="LL3" t="inlineStr"/>
+      <c r="LM3" t="inlineStr"/>
+      <c r="LN3" t="inlineStr"/>
+      <c r="LO3" t="inlineStr"/>
+      <c r="LP3" t="inlineStr"/>
+      <c r="LQ3" t="inlineStr"/>
+      <c r="LR3" t="inlineStr"/>
+      <c r="LS3" t="inlineStr"/>
+      <c r="LT3" t="inlineStr"/>
+      <c r="LU3" t="inlineStr"/>
+      <c r="LV3" t="inlineStr"/>
+      <c r="LW3" t="inlineStr"/>
+      <c r="LX3" t="inlineStr"/>
+      <c r="LY3" t="inlineStr"/>
+      <c r="LZ3" t="inlineStr"/>
+      <c r="MA3" t="inlineStr"/>
+      <c r="MB3" t="inlineStr"/>
+      <c r="MC3" t="inlineStr"/>
+      <c r="MD3" t="inlineStr"/>
+      <c r="ME3" t="inlineStr"/>
+      <c r="MF3" t="inlineStr"/>
+      <c r="MG3" t="inlineStr"/>
+      <c r="MH3" t="inlineStr"/>
+      <c r="MI3" t="inlineStr"/>
+      <c r="MJ3" t="inlineStr"/>
+      <c r="MK3" t="inlineStr"/>
+      <c r="ML3" t="inlineStr"/>
+      <c r="MM3" t="inlineStr"/>
+      <c r="MN3" t="inlineStr"/>
+      <c r="MO3" t="inlineStr"/>
+      <c r="MP3" t="inlineStr"/>
+      <c r="MQ3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="MR3" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="MS3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="MT3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="MU3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="MV3" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="MW3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="MX3" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="MY3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="MZ3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="NA3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="NB3" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="NC3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="ND3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="NE3" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="NF3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="NG3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="NH3" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="NI3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="NJ3" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="NK3" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="NL3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="NM3" t="inlineStr"/>
+      <c r="NN3" t="inlineStr"/>
+      <c r="NO3" t="inlineStr"/>
+      <c r="NP3" t="inlineStr"/>
+      <c r="NQ3" t="inlineStr"/>
+      <c r="NR3" t="inlineStr"/>
+      <c r="NS3" t="inlineStr"/>
+      <c r="NT3" t="inlineStr"/>
+      <c r="NU3" t="inlineStr"/>
+      <c r="NV3" t="inlineStr"/>
+      <c r="NW3" t="inlineStr"/>
+      <c r="NX3" t="inlineStr"/>
+      <c r="NY3" t="inlineStr"/>
+      <c r="NZ3" t="inlineStr"/>
+      <c r="OA3" t="inlineStr"/>
+      <c r="OB3" t="inlineStr"/>
+      <c r="OC3" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="OD3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="OE3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="OF3" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="OG3" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="OH3" t="inlineStr">
+        <is>
+          <t>0.798</t>
+        </is>
+      </c>
+      <c r="OI3" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+      <c r="OJ3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="OK3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="OL3" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="OM3" t="inlineStr">
+        <is>
+          <t>2236</t>
+        </is>
+      </c>
+      <c r="ON3" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="OO3" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="OP3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="OQ3" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="OR3" t="inlineStr">
         <is>
           <t>109</t>
         </is>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR11"/>
+  <dimension ref="A1:OR25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6458,12 +6458,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -6494,9 +6488,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
           <t>4.39</t>
@@ -6507,7 +6498,6 @@
           <t>2.88</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
           <t>2.92</t>
@@ -6538,23 +6528,11 @@
           <t>2.90</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr">
         <is>
           <t>67</t>
@@ -6585,10 +6563,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
           <t>-1</t>
@@ -6619,18 +6593,6 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -6661,9 +6623,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
       <c r="BX10" t="inlineStr">
         <is>
           <t>3.06</t>
@@ -6674,7 +6633,6 @@
           <t>2.17</t>
         </is>
       </c>
-      <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="inlineStr">
         <is>
           <t>2.25</t>
@@ -6705,23 +6663,11 @@
           <t>2.16</t>
         </is>
       </c>
-      <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
-      <c r="CJ10" t="inlineStr"/>
-      <c r="CK10" t="inlineStr"/>
-      <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
-      <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
-      <c r="CP10" t="inlineStr"/>
-      <c r="CQ10" t="inlineStr"/>
       <c r="CR10" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="CS10" t="inlineStr"/>
       <c r="CT10" t="inlineStr">
         <is>
           <t>74</t>
@@ -6752,10 +6698,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="CZ10" t="inlineStr"/>
-      <c r="DA10" t="inlineStr"/>
-      <c r="DB10" t="inlineStr"/>
-      <c r="DC10" t="inlineStr"/>
       <c r="DD10" t="inlineStr">
         <is>
           <t>0</t>
@@ -6786,32 +6728,6 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="DJ10" t="inlineStr"/>
-      <c r="DK10" t="inlineStr"/>
-      <c r="DL10" t="inlineStr"/>
-      <c r="DM10" t="inlineStr"/>
-      <c r="DN10" t="inlineStr"/>
-      <c r="DO10" t="inlineStr"/>
-      <c r="DP10" t="inlineStr"/>
-      <c r="DQ10" t="inlineStr"/>
-      <c r="DR10" t="inlineStr"/>
-      <c r="DS10" t="inlineStr"/>
-      <c r="DT10" t="inlineStr"/>
-      <c r="DU10" t="inlineStr"/>
-      <c r="DV10" t="inlineStr"/>
-      <c r="DW10" t="inlineStr"/>
-      <c r="DX10" t="inlineStr"/>
-      <c r="DY10" t="inlineStr"/>
-      <c r="DZ10" t="inlineStr"/>
-      <c r="EA10" t="inlineStr"/>
-      <c r="EB10" t="inlineStr"/>
-      <c r="EC10" t="inlineStr"/>
-      <c r="ED10" t="inlineStr"/>
-      <c r="EE10" t="inlineStr"/>
-      <c r="EF10" t="inlineStr"/>
-      <c r="EG10" t="inlineStr"/>
-      <c r="EH10" t="inlineStr"/>
-      <c r="EI10" t="inlineStr"/>
       <c r="EJ10" t="inlineStr">
         <is>
           <t>2.60</t>
@@ -6842,16 +6758,11 @@
           <t>1.75</t>
         </is>
       </c>
-      <c r="EP10" t="inlineStr"/>
-      <c r="EQ10" t="inlineStr"/>
-      <c r="ER10" t="inlineStr"/>
-      <c r="ES10" t="inlineStr"/>
       <c r="ET10" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="EU10" t="inlineStr"/>
       <c r="EV10" t="inlineStr">
         <is>
           <t>73</t>
@@ -6882,29 +6793,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="FB10" t="inlineStr"/>
-      <c r="FC10" t="inlineStr"/>
-      <c r="FD10" t="inlineStr"/>
-      <c r="FE10" t="inlineStr"/>
-      <c r="FF10" t="inlineStr"/>
-      <c r="FG10" t="inlineStr"/>
-      <c r="FH10" t="inlineStr"/>
-      <c r="FI10" t="inlineStr"/>
-      <c r="FJ10" t="inlineStr"/>
-      <c r="FK10" t="inlineStr"/>
-      <c r="FL10" t="inlineStr"/>
-      <c r="FM10" t="inlineStr"/>
-      <c r="FN10" t="inlineStr"/>
-      <c r="FO10" t="inlineStr"/>
-      <c r="FP10" t="inlineStr"/>
-      <c r="FQ10" t="inlineStr"/>
-      <c r="FR10" t="inlineStr"/>
-      <c r="FS10" t="inlineStr"/>
-      <c r="FT10" t="inlineStr"/>
-      <c r="FU10" t="inlineStr"/>
-      <c r="FV10" t="inlineStr"/>
-      <c r="FW10" t="inlineStr"/>
-      <c r="FX10" t="inlineStr"/>
       <c r="FY10" t="inlineStr">
         <is>
           <t>2</t>
@@ -6935,51 +6823,6 @@
           <t>-15</t>
         </is>
       </c>
-      <c r="GE10" t="inlineStr"/>
-      <c r="GF10" t="inlineStr"/>
-      <c r="GG10" t="inlineStr"/>
-      <c r="GH10" t="inlineStr"/>
-      <c r="GI10" t="inlineStr"/>
-      <c r="GJ10" t="inlineStr"/>
-      <c r="GK10" t="inlineStr"/>
-      <c r="GL10" t="inlineStr"/>
-      <c r="GM10" t="inlineStr"/>
-      <c r="GN10" t="inlineStr"/>
-      <c r="GO10" t="inlineStr"/>
-      <c r="GP10" t="inlineStr"/>
-      <c r="GQ10" t="inlineStr"/>
-      <c r="GR10" t="inlineStr"/>
-      <c r="GS10" t="inlineStr"/>
-      <c r="GT10" t="inlineStr"/>
-      <c r="GU10" t="inlineStr"/>
-      <c r="GV10" t="inlineStr"/>
-      <c r="GW10" t="inlineStr"/>
-      <c r="GX10" t="inlineStr"/>
-      <c r="GY10" t="inlineStr"/>
-      <c r="GZ10" t="inlineStr"/>
-      <c r="HA10" t="inlineStr"/>
-      <c r="HB10" t="inlineStr"/>
-      <c r="HC10" t="inlineStr"/>
-      <c r="HD10" t="inlineStr"/>
-      <c r="HE10" t="inlineStr"/>
-      <c r="HF10" t="inlineStr"/>
-      <c r="HG10" t="inlineStr"/>
-      <c r="HH10" t="inlineStr"/>
-      <c r="HI10" t="inlineStr"/>
-      <c r="HJ10" t="inlineStr"/>
-      <c r="HK10" t="inlineStr"/>
-      <c r="HL10" t="inlineStr"/>
-      <c r="HM10" t="inlineStr"/>
-      <c r="HN10" t="inlineStr"/>
-      <c r="HO10" t="inlineStr"/>
-      <c r="HP10" t="inlineStr"/>
-      <c r="HQ10" t="inlineStr"/>
-      <c r="HR10" t="inlineStr"/>
-      <c r="HS10" t="inlineStr"/>
-      <c r="HT10" t="inlineStr"/>
-      <c r="HU10" t="inlineStr"/>
-      <c r="HV10" t="inlineStr"/>
-      <c r="HW10" t="inlineStr"/>
       <c r="HX10" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -7010,9 +6853,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID10" t="inlineStr"/>
-      <c r="IE10" t="inlineStr"/>
-      <c r="IF10" t="inlineStr"/>
       <c r="IG10" t="inlineStr">
         <is>
           <t>7.21</t>
@@ -7023,7 +6863,6 @@
           <t>7.63</t>
         </is>
       </c>
-      <c r="II10" t="inlineStr"/>
       <c r="IJ10" t="inlineStr">
         <is>
           <t>8.01</t>
@@ -7054,23 +6893,11 @@
           <t>8.58</t>
         </is>
       </c>
-      <c r="IP10" t="inlineStr"/>
-      <c r="IQ10" t="inlineStr"/>
-      <c r="IR10" t="inlineStr"/>
-      <c r="IS10" t="inlineStr"/>
-      <c r="IT10" t="inlineStr"/>
-      <c r="IU10" t="inlineStr"/>
-      <c r="IV10" t="inlineStr"/>
-      <c r="IW10" t="inlineStr"/>
-      <c r="IX10" t="inlineStr"/>
-      <c r="IY10" t="inlineStr"/>
-      <c r="IZ10" t="inlineStr"/>
       <c r="JA10" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="JB10" t="inlineStr"/>
       <c r="JC10" t="inlineStr">
         <is>
           <t>111</t>
@@ -7101,10 +6928,6 @@
           <t>119</t>
         </is>
       </c>
-      <c r="JI10" t="inlineStr"/>
-      <c r="JJ10" t="inlineStr"/>
-      <c r="JK10" t="inlineStr"/>
-      <c r="JL10" t="inlineStr"/>
       <c r="JM10" t="inlineStr">
         <is>
           <t>-3</t>
@@ -7135,136 +6958,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="JS10" t="inlineStr"/>
-      <c r="JT10" t="inlineStr"/>
-      <c r="JU10" t="inlineStr"/>
-      <c r="JV10" t="inlineStr"/>
-      <c r="JW10" t="inlineStr"/>
-      <c r="JX10" t="inlineStr"/>
-      <c r="JY10" t="inlineStr"/>
-      <c r="JZ10" t="inlineStr"/>
-      <c r="KA10" t="inlineStr"/>
-      <c r="KB10" t="inlineStr"/>
-      <c r="KC10" t="inlineStr"/>
-      <c r="KD10" t="inlineStr"/>
-      <c r="KE10" t="inlineStr"/>
-      <c r="KF10" t="inlineStr"/>
-      <c r="KG10" t="inlineStr"/>
-      <c r="KH10" t="inlineStr"/>
-      <c r="KI10" t="inlineStr"/>
-      <c r="KJ10" t="inlineStr"/>
-      <c r="KK10" t="inlineStr"/>
-      <c r="KL10" t="inlineStr"/>
-      <c r="KM10" t="inlineStr"/>
-      <c r="KN10" t="inlineStr"/>
-      <c r="KO10" t="inlineStr"/>
-      <c r="KP10" t="inlineStr"/>
-      <c r="KQ10" t="inlineStr"/>
-      <c r="KR10" t="inlineStr"/>
-      <c r="KS10" t="inlineStr"/>
-      <c r="KT10" t="inlineStr"/>
-      <c r="KU10" t="inlineStr"/>
-      <c r="KV10" t="inlineStr"/>
-      <c r="KW10" t="inlineStr"/>
-      <c r="KX10" t="inlineStr"/>
-      <c r="KY10" t="inlineStr"/>
-      <c r="KZ10" t="inlineStr"/>
-      <c r="LA10" t="inlineStr"/>
-      <c r="LB10" t="inlineStr"/>
-      <c r="LC10" t="inlineStr"/>
-      <c r="LD10" t="inlineStr"/>
-      <c r="LE10" t="inlineStr"/>
-      <c r="LF10" t="inlineStr"/>
-      <c r="LG10" t="inlineStr"/>
-      <c r="LH10" t="inlineStr"/>
-      <c r="LI10" t="inlineStr"/>
-      <c r="LJ10" t="inlineStr"/>
-      <c r="LK10" t="inlineStr"/>
-      <c r="LL10" t="inlineStr"/>
-      <c r="LM10" t="inlineStr"/>
-      <c r="LN10" t="inlineStr"/>
-      <c r="LO10" t="inlineStr"/>
-      <c r="LP10" t="inlineStr"/>
-      <c r="LQ10" t="inlineStr"/>
-      <c r="LR10" t="inlineStr"/>
-      <c r="LS10" t="inlineStr"/>
-      <c r="LT10" t="inlineStr"/>
-      <c r="LU10" t="inlineStr"/>
-      <c r="LV10" t="inlineStr"/>
-      <c r="LW10" t="inlineStr"/>
-      <c r="LX10" t="inlineStr"/>
-      <c r="LY10" t="inlineStr"/>
-      <c r="LZ10" t="inlineStr"/>
-      <c r="MA10" t="inlineStr"/>
-      <c r="MB10" t="inlineStr"/>
-      <c r="MC10" t="inlineStr"/>
-      <c r="MD10" t="inlineStr"/>
-      <c r="ME10" t="inlineStr"/>
-      <c r="MF10" t="inlineStr"/>
-      <c r="MG10" t="inlineStr"/>
-      <c r="MH10" t="inlineStr"/>
-      <c r="MI10" t="inlineStr"/>
-      <c r="MJ10" t="inlineStr"/>
-      <c r="MK10" t="inlineStr"/>
-      <c r="ML10" t="inlineStr"/>
-      <c r="MM10" t="inlineStr"/>
-      <c r="MN10" t="inlineStr"/>
-      <c r="MO10" t="inlineStr"/>
-      <c r="MP10" t="inlineStr"/>
-      <c r="MQ10" t="inlineStr"/>
-      <c r="MR10" t="inlineStr"/>
-      <c r="MS10" t="inlineStr"/>
-      <c r="MT10" t="inlineStr"/>
-      <c r="MU10" t="inlineStr"/>
-      <c r="MV10" t="inlineStr"/>
-      <c r="MW10" t="inlineStr"/>
-      <c r="MX10" t="inlineStr"/>
-      <c r="MY10" t="inlineStr"/>
-      <c r="MZ10" t="inlineStr"/>
-      <c r="NA10" t="inlineStr"/>
-      <c r="NB10" t="inlineStr"/>
-      <c r="NC10" t="inlineStr"/>
-      <c r="ND10" t="inlineStr"/>
-      <c r="NE10" t="inlineStr"/>
-      <c r="NF10" t="inlineStr"/>
-      <c r="NG10" t="inlineStr"/>
-      <c r="NH10" t="inlineStr"/>
-      <c r="NI10" t="inlineStr"/>
-      <c r="NJ10" t="inlineStr"/>
-      <c r="NK10" t="inlineStr"/>
-      <c r="NL10" t="inlineStr"/>
-      <c r="NM10" t="inlineStr"/>
-      <c r="NN10" t="inlineStr"/>
-      <c r="NO10" t="inlineStr"/>
-      <c r="NP10" t="inlineStr"/>
-      <c r="NQ10" t="inlineStr"/>
-      <c r="NR10" t="inlineStr"/>
-      <c r="NS10" t="inlineStr"/>
-      <c r="NT10" t="inlineStr"/>
-      <c r="NU10" t="inlineStr"/>
-      <c r="NV10" t="inlineStr"/>
-      <c r="NW10" t="inlineStr"/>
-      <c r="NX10" t="inlineStr"/>
-      <c r="NY10" t="inlineStr"/>
-      <c r="NZ10" t="inlineStr"/>
-      <c r="OA10" t="inlineStr"/>
-      <c r="OB10" t="inlineStr"/>
-      <c r="OC10" t="inlineStr"/>
-      <c r="OD10" t="inlineStr"/>
-      <c r="OE10" t="inlineStr"/>
-      <c r="OF10" t="inlineStr"/>
-      <c r="OG10" t="inlineStr"/>
-      <c r="OH10" t="inlineStr"/>
-      <c r="OI10" t="inlineStr"/>
-      <c r="OJ10" t="inlineStr"/>
-      <c r="OK10" t="inlineStr"/>
-      <c r="OL10" t="inlineStr"/>
-      <c r="OM10" t="inlineStr"/>
-      <c r="ON10" t="inlineStr"/>
-      <c r="OO10" t="inlineStr"/>
-      <c r="OP10" t="inlineStr"/>
-      <c r="OQ10" t="inlineStr"/>
-      <c r="OR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7272,12 +6965,6 @@
           <t>type01</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -7308,9 +6995,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
           <t>3.64</t>
@@ -7321,7 +7005,6 @@
           <t>3.69</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
           <t>3.62</t>
@@ -7352,23 +7035,11 @@
           <t>3.54</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr">
         <is>
           <t>99</t>
@@ -7399,10 +7070,6 @@
           <t>97</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
           <t>-2</t>
@@ -7433,18 +7100,6 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -7475,9 +7130,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
       <c r="BX11" t="inlineStr">
         <is>
           <t>3.03</t>
@@ -7488,7 +7140,6 @@
           <t>2.36</t>
         </is>
       </c>
-      <c r="BZ11" t="inlineStr"/>
       <c r="CA11" t="inlineStr">
         <is>
           <t>2.32</t>
@@ -7519,23 +7170,11 @@
           <t>2.04</t>
         </is>
       </c>
-      <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr"/>
-      <c r="CI11" t="inlineStr"/>
-      <c r="CJ11" t="inlineStr"/>
-      <c r="CK11" t="inlineStr"/>
-      <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
-      <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
-      <c r="CP11" t="inlineStr"/>
-      <c r="CQ11" t="inlineStr"/>
       <c r="CR11" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="CS11" t="inlineStr"/>
       <c r="CT11" t="inlineStr">
         <is>
           <t>76</t>
@@ -7566,10 +7205,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="CZ11" t="inlineStr"/>
-      <c r="DA11" t="inlineStr"/>
-      <c r="DB11" t="inlineStr"/>
-      <c r="DC11" t="inlineStr"/>
       <c r="DD11" t="inlineStr">
         <is>
           <t>-2</t>
@@ -7600,32 +7235,6 @@
           <t>-13</t>
         </is>
       </c>
-      <c r="DJ11" t="inlineStr"/>
-      <c r="DK11" t="inlineStr"/>
-      <c r="DL11" t="inlineStr"/>
-      <c r="DM11" t="inlineStr"/>
-      <c r="DN11" t="inlineStr"/>
-      <c r="DO11" t="inlineStr"/>
-      <c r="DP11" t="inlineStr"/>
-      <c r="DQ11" t="inlineStr"/>
-      <c r="DR11" t="inlineStr"/>
-      <c r="DS11" t="inlineStr"/>
-      <c r="DT11" t="inlineStr"/>
-      <c r="DU11" t="inlineStr"/>
-      <c r="DV11" t="inlineStr"/>
-      <c r="DW11" t="inlineStr"/>
-      <c r="DX11" t="inlineStr"/>
-      <c r="DY11" t="inlineStr"/>
-      <c r="DZ11" t="inlineStr"/>
-      <c r="EA11" t="inlineStr"/>
-      <c r="EB11" t="inlineStr"/>
-      <c r="EC11" t="inlineStr"/>
-      <c r="ED11" t="inlineStr"/>
-      <c r="EE11" t="inlineStr"/>
-      <c r="EF11" t="inlineStr"/>
-      <c r="EG11" t="inlineStr"/>
-      <c r="EH11" t="inlineStr"/>
-      <c r="EI11" t="inlineStr"/>
       <c r="EJ11" t="inlineStr">
         <is>
           <t>2.96</t>
@@ -7656,16 +7265,11 @@
           <t>1.22</t>
         </is>
       </c>
-      <c r="EP11" t="inlineStr"/>
-      <c r="EQ11" t="inlineStr"/>
-      <c r="ER11" t="inlineStr"/>
-      <c r="ES11" t="inlineStr"/>
       <c r="ET11" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="EU11" t="inlineStr"/>
       <c r="EV11" t="inlineStr">
         <is>
           <t>45</t>
@@ -7696,29 +7300,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="FB11" t="inlineStr"/>
-      <c r="FC11" t="inlineStr"/>
-      <c r="FD11" t="inlineStr"/>
-      <c r="FE11" t="inlineStr"/>
-      <c r="FF11" t="inlineStr"/>
-      <c r="FG11" t="inlineStr"/>
-      <c r="FH11" t="inlineStr"/>
-      <c r="FI11" t="inlineStr"/>
-      <c r="FJ11" t="inlineStr"/>
-      <c r="FK11" t="inlineStr"/>
-      <c r="FL11" t="inlineStr"/>
-      <c r="FM11" t="inlineStr"/>
-      <c r="FN11" t="inlineStr"/>
-      <c r="FO11" t="inlineStr"/>
-      <c r="FP11" t="inlineStr"/>
-      <c r="FQ11" t="inlineStr"/>
-      <c r="FR11" t="inlineStr"/>
-      <c r="FS11" t="inlineStr"/>
-      <c r="FT11" t="inlineStr"/>
-      <c r="FU11" t="inlineStr"/>
-      <c r="FV11" t="inlineStr"/>
-      <c r="FW11" t="inlineStr"/>
-      <c r="FX11" t="inlineStr"/>
       <c r="FY11" t="inlineStr">
         <is>
           <t>-4</t>
@@ -7749,51 +7330,6 @@
           <t>-31</t>
         </is>
       </c>
-      <c r="GE11" t="inlineStr"/>
-      <c r="GF11" t="inlineStr"/>
-      <c r="GG11" t="inlineStr"/>
-      <c r="GH11" t="inlineStr"/>
-      <c r="GI11" t="inlineStr"/>
-      <c r="GJ11" t="inlineStr"/>
-      <c r="GK11" t="inlineStr"/>
-      <c r="GL11" t="inlineStr"/>
-      <c r="GM11" t="inlineStr"/>
-      <c r="GN11" t="inlineStr"/>
-      <c r="GO11" t="inlineStr"/>
-      <c r="GP11" t="inlineStr"/>
-      <c r="GQ11" t="inlineStr"/>
-      <c r="GR11" t="inlineStr"/>
-      <c r="GS11" t="inlineStr"/>
-      <c r="GT11" t="inlineStr"/>
-      <c r="GU11" t="inlineStr"/>
-      <c r="GV11" t="inlineStr"/>
-      <c r="GW11" t="inlineStr"/>
-      <c r="GX11" t="inlineStr"/>
-      <c r="GY11" t="inlineStr"/>
-      <c r="GZ11" t="inlineStr"/>
-      <c r="HA11" t="inlineStr"/>
-      <c r="HB11" t="inlineStr"/>
-      <c r="HC11" t="inlineStr"/>
-      <c r="HD11" t="inlineStr"/>
-      <c r="HE11" t="inlineStr"/>
-      <c r="HF11" t="inlineStr"/>
-      <c r="HG11" t="inlineStr"/>
-      <c r="HH11" t="inlineStr"/>
-      <c r="HI11" t="inlineStr"/>
-      <c r="HJ11" t="inlineStr"/>
-      <c r="HK11" t="inlineStr"/>
-      <c r="HL11" t="inlineStr"/>
-      <c r="HM11" t="inlineStr"/>
-      <c r="HN11" t="inlineStr"/>
-      <c r="HO11" t="inlineStr"/>
-      <c r="HP11" t="inlineStr"/>
-      <c r="HQ11" t="inlineStr"/>
-      <c r="HR11" t="inlineStr"/>
-      <c r="HS11" t="inlineStr"/>
-      <c r="HT11" t="inlineStr"/>
-      <c r="HU11" t="inlineStr"/>
-      <c r="HV11" t="inlineStr"/>
-      <c r="HW11" t="inlineStr"/>
       <c r="HX11" t="inlineStr">
         <is>
           <t>0.0625</t>
@@ -7824,9 +7360,6 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="ID11" t="inlineStr"/>
-      <c r="IE11" t="inlineStr"/>
-      <c r="IF11" t="inlineStr"/>
       <c r="IG11" t="inlineStr">
         <is>
           <t>6.16</t>
@@ -7837,7 +7370,6 @@
           <t>5.92</t>
         </is>
       </c>
-      <c r="II11" t="inlineStr"/>
       <c r="IJ11" t="inlineStr">
         <is>
           <t>5.63</t>
@@ -7868,23 +7400,11 @@
           <t>4.37</t>
         </is>
       </c>
-      <c r="IP11" t="inlineStr"/>
-      <c r="IQ11" t="inlineStr"/>
-      <c r="IR11" t="inlineStr"/>
-      <c r="IS11" t="inlineStr"/>
-      <c r="IT11" t="inlineStr"/>
-      <c r="IU11" t="inlineStr"/>
-      <c r="IV11" t="inlineStr"/>
-      <c r="IW11" t="inlineStr"/>
-      <c r="IX11" t="inlineStr"/>
-      <c r="IY11" t="inlineStr"/>
-      <c r="IZ11" t="inlineStr"/>
       <c r="JA11" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="JB11" t="inlineStr"/>
       <c r="JC11" t="inlineStr">
         <is>
           <t>91</t>
@@ -7915,10 +7435,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="JI11" t="inlineStr"/>
-      <c r="JJ11" t="inlineStr"/>
-      <c r="JK11" t="inlineStr"/>
-      <c r="JL11" t="inlineStr"/>
       <c r="JM11" t="inlineStr">
         <is>
           <t>-5</t>
@@ -7949,136 +7465,7718 @@
           <t>-26</t>
         </is>
       </c>
-      <c r="JS11" t="inlineStr"/>
-      <c r="JT11" t="inlineStr"/>
-      <c r="JU11" t="inlineStr"/>
-      <c r="JV11" t="inlineStr"/>
-      <c r="JW11" t="inlineStr"/>
-      <c r="JX11" t="inlineStr"/>
-      <c r="JY11" t="inlineStr"/>
-      <c r="JZ11" t="inlineStr"/>
-      <c r="KA11" t="inlineStr"/>
-      <c r="KB11" t="inlineStr"/>
-      <c r="KC11" t="inlineStr"/>
-      <c r="KD11" t="inlineStr"/>
-      <c r="KE11" t="inlineStr"/>
-      <c r="KF11" t="inlineStr"/>
-      <c r="KG11" t="inlineStr"/>
-      <c r="KH11" t="inlineStr"/>
-      <c r="KI11" t="inlineStr"/>
-      <c r="KJ11" t="inlineStr"/>
-      <c r="KK11" t="inlineStr"/>
-      <c r="KL11" t="inlineStr"/>
-      <c r="KM11" t="inlineStr"/>
-      <c r="KN11" t="inlineStr"/>
-      <c r="KO11" t="inlineStr"/>
-      <c r="KP11" t="inlineStr"/>
-      <c r="KQ11" t="inlineStr"/>
-      <c r="KR11" t="inlineStr"/>
-      <c r="KS11" t="inlineStr"/>
-      <c r="KT11" t="inlineStr"/>
-      <c r="KU11" t="inlineStr"/>
-      <c r="KV11" t="inlineStr"/>
-      <c r="KW11" t="inlineStr"/>
-      <c r="KX11" t="inlineStr"/>
-      <c r="KY11" t="inlineStr"/>
-      <c r="KZ11" t="inlineStr"/>
-      <c r="LA11" t="inlineStr"/>
-      <c r="LB11" t="inlineStr"/>
-      <c r="LC11" t="inlineStr"/>
-      <c r="LD11" t="inlineStr"/>
-      <c r="LE11" t="inlineStr"/>
-      <c r="LF11" t="inlineStr"/>
-      <c r="LG11" t="inlineStr"/>
-      <c r="LH11" t="inlineStr"/>
-      <c r="LI11" t="inlineStr"/>
-      <c r="LJ11" t="inlineStr"/>
-      <c r="LK11" t="inlineStr"/>
-      <c r="LL11" t="inlineStr"/>
-      <c r="LM11" t="inlineStr"/>
-      <c r="LN11" t="inlineStr"/>
-      <c r="LO11" t="inlineStr"/>
-      <c r="LP11" t="inlineStr"/>
-      <c r="LQ11" t="inlineStr"/>
-      <c r="LR11" t="inlineStr"/>
-      <c r="LS11" t="inlineStr"/>
-      <c r="LT11" t="inlineStr"/>
-      <c r="LU11" t="inlineStr"/>
-      <c r="LV11" t="inlineStr"/>
-      <c r="LW11" t="inlineStr"/>
-      <c r="LX11" t="inlineStr"/>
-      <c r="LY11" t="inlineStr"/>
-      <c r="LZ11" t="inlineStr"/>
-      <c r="MA11" t="inlineStr"/>
-      <c r="MB11" t="inlineStr"/>
-      <c r="MC11" t="inlineStr"/>
-      <c r="MD11" t="inlineStr"/>
-      <c r="ME11" t="inlineStr"/>
-      <c r="MF11" t="inlineStr"/>
-      <c r="MG11" t="inlineStr"/>
-      <c r="MH11" t="inlineStr"/>
-      <c r="MI11" t="inlineStr"/>
-      <c r="MJ11" t="inlineStr"/>
-      <c r="MK11" t="inlineStr"/>
-      <c r="ML11" t="inlineStr"/>
-      <c r="MM11" t="inlineStr"/>
-      <c r="MN11" t="inlineStr"/>
-      <c r="MO11" t="inlineStr"/>
-      <c r="MP11" t="inlineStr"/>
-      <c r="MQ11" t="inlineStr"/>
-      <c r="MR11" t="inlineStr"/>
-      <c r="MS11" t="inlineStr"/>
-      <c r="MT11" t="inlineStr"/>
-      <c r="MU11" t="inlineStr"/>
-      <c r="MV11" t="inlineStr"/>
-      <c r="MW11" t="inlineStr"/>
-      <c r="MX11" t="inlineStr"/>
-      <c r="MY11" t="inlineStr"/>
-      <c r="MZ11" t="inlineStr"/>
-      <c r="NA11" t="inlineStr"/>
-      <c r="NB11" t="inlineStr"/>
-      <c r="NC11" t="inlineStr"/>
-      <c r="ND11" t="inlineStr"/>
-      <c r="NE11" t="inlineStr"/>
-      <c r="NF11" t="inlineStr"/>
-      <c r="NG11" t="inlineStr"/>
-      <c r="NH11" t="inlineStr"/>
-      <c r="NI11" t="inlineStr"/>
-      <c r="NJ11" t="inlineStr"/>
-      <c r="NK11" t="inlineStr"/>
-      <c r="NL11" t="inlineStr"/>
-      <c r="NM11" t="inlineStr"/>
-      <c r="NN11" t="inlineStr"/>
-      <c r="NO11" t="inlineStr"/>
-      <c r="NP11" t="inlineStr"/>
-      <c r="NQ11" t="inlineStr"/>
-      <c r="NR11" t="inlineStr"/>
-      <c r="NS11" t="inlineStr"/>
-      <c r="NT11" t="inlineStr"/>
-      <c r="NU11" t="inlineStr"/>
-      <c r="NV11" t="inlineStr"/>
-      <c r="NW11" t="inlineStr"/>
-      <c r="NX11" t="inlineStr"/>
-      <c r="NY11" t="inlineStr"/>
-      <c r="NZ11" t="inlineStr"/>
-      <c r="OA11" t="inlineStr"/>
-      <c r="OB11" t="inlineStr"/>
-      <c r="OC11" t="inlineStr"/>
-      <c r="OD11" t="inlineStr"/>
-      <c r="OE11" t="inlineStr"/>
-      <c r="OF11" t="inlineStr"/>
-      <c r="OG11" t="inlineStr"/>
-      <c r="OH11" t="inlineStr"/>
-      <c r="OI11" t="inlineStr"/>
-      <c r="OJ11" t="inlineStr"/>
-      <c r="OK11" t="inlineStr"/>
-      <c r="OL11" t="inlineStr"/>
-      <c r="OM11" t="inlineStr"/>
-      <c r="ON11" t="inlineStr"/>
-      <c r="OO11" t="inlineStr"/>
-      <c r="OP11" t="inlineStr"/>
-      <c r="OQ11" t="inlineStr"/>
-      <c r="OR11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT12" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX12" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY12" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE12" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM12" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET12" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV12" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW12" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX12" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY12" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ12" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA12" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ12" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB12" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD12" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX12" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA12" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB12" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC12" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG12" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH12" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK12" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL12" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM12" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN12" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO12" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA12" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC12" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD12" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE12" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF12" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG12" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH12" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM12" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO12" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ12" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR13" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT13" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU13" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV13" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW13" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX13" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY13" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE13" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV13" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW13" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX13" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY13" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ13" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA13" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ13" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB13" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD13" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB13" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC13" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG13" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH13" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL13" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM13" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN13" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO13" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA13" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC13" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD13" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE13" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF13" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG13" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH13" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM13" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO13" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ13" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR14" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT14" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU14" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV14" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW14" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX14" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY14" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE14" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM14" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET14" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY14" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ14" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA14" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ14" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB14" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD14" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX14" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ14" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA14" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB14" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC14" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG14" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH14" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ14" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK14" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL14" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM14" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN14" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO14" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA14" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC14" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD14" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE14" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF14" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG14" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH14" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM14" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN14" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO14" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ14" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CU15" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CV15" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW15" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX15" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CY15" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="DD15" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH15" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="EK15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="ET15" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW15" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="EX15" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY15" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ15" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA15" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FY15" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA15" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="GB15" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC15" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD15" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="HX15" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ15" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA15" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB15" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC15" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG15" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="IH15" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="IJ15" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="IK15" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL15" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="IM15" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="IN15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="JA15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JC15" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD15" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="JE15" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF15" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="JG15" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH15" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JM15" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN15" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO15" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP15" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ15" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR15" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT16" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU16" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV16" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW16" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX16" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY16" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE16" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ16" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN16" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET16" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV16" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW16" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX16" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY16" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ16" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA16" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ16" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB16" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD16" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX16" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ16" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB16" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC16" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG16" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH16" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ16" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK16" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL16" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM16" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN16" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO16" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA16" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC16" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD16" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE16" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF16" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG16" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH16" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM16" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO16" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ16" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB17" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="CC17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CT17" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CV17" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW17" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX17" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="DD17" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="EJ17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="EK17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="EL17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM17" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="ET17" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW17" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="EX17" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY17" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA17" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FY17" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA17" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="GB17" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC17" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD17" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="HX17" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ17" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB17" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG17" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="IH17" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="IJ17" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="IK17" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL17" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="IM17" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="IN17" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO17" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="JA17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JC17" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD17" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="JE17" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF17" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="JG17" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JM17" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN17" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO17" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP17" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ17" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR17" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB18" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR18" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT18" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV18" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW18" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX18" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY18" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE18" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET18" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV18" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW18" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX18" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY18" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ18" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA18" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ18" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB18" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD18" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ18" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB18" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG18" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH18" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ18" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK18" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL18" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM18" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN18" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO18" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA18" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC18" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD18" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE18" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF18" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG18" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH18" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM18" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO18" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ18" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB19" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="CC19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CR19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CT19" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CU19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CV19" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW19" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX19" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CY19" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="DD19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF19" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG19" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH19" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI19" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="EJ19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="EK19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="EL19" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="ET19" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EV19" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW19" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="EX19" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY19" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ19" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA19" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FY19" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA19" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="GB19" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC19" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD19" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="HX19" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA19" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB19" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC19" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG19" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="IH19" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="IJ19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="IK19" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL19" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="IM19" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="IN19" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO19" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="JA19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JC19" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD19" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="JE19" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF19" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="JG19" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH19" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JM19" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN19" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO19" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP19" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ19" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR19" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="CC20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR20" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT20" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU20" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV20" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW20" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX20" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY20" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE20" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL20" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET20" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV20" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW20" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX20" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY20" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ20" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA20" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ20" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB20" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD20" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX20" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB20" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC20" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG20" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH20" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ20" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK20" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL20" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="IM20" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN20" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="IO20" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA20" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC20" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD20" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE20" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF20" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG20" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH20" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM20" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO20" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ20" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB21" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="CC21" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CR21" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CT21" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CU21" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CV21" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW21" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX21" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CY21" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="DD21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF21" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH21" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="EJ21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="EK21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="EL21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="ET21" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EV21" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW21" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="EX21" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY21" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ21" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA21" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FY21" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA21" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="GB21" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC21" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD21" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="HX21" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA21" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB21" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC21" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG21" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="IH21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="IJ21" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="IK21" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL21" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="IM21" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="IN21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="JA21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JC21" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD21" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="JE21" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF21" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="JG21" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH21" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JM21" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN21" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO21" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP21" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ21" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR21" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CR22" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CT22" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW22" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX22" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY22" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="DD22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF22" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="EJ22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK22" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM22" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN22" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="ET22" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EV22" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW22" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX22" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY22" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ22" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA22" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FY22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ22" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB22" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD22" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="HX22" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ22" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA22" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB22" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC22" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG22" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH22" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="IJ22" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="IK22" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="IL22" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="IM22" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN22" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="IO22" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="JA22" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JC22" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD22" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE22" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF22" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG22" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="JH22" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JM22" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="JO22" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP22" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ22" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BX23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="CC23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF23" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CR23" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="CT23" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CU23" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CV23" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW23" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX23" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="CY23" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="DD23" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF23" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG23" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH23" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI23" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="EJ23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="EK23" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="EL23" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN23" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO23" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="ET23" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EV23" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW23" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="EX23" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY23" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ23" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA23" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FY23" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA23" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="GB23" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC23" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD23" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="HX23" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ23" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA23" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB23" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC23" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="IG23" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="IH23" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="IJ23" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="IK23" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL23" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="IM23" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="IN23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="JA23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="JC23" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD23" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="JE23" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF23" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="JG23" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH23" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JM23" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN23" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO23" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP23" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ23" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR23" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="BT24" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="BY24" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="CB24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="CC24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="CD24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="CE24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="CF24" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="CG24" t="inlineStr"/>
+      <c r="CH24" t="inlineStr"/>
+      <c r="CI24" t="inlineStr"/>
+      <c r="CJ24" t="inlineStr"/>
+      <c r="CK24" t="inlineStr"/>
+      <c r="CL24" t="inlineStr"/>
+      <c r="CM24" t="inlineStr"/>
+      <c r="CN24" t="inlineStr"/>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CS24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CU24" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CV24" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CW24" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CX24" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="CY24" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="CZ24" t="inlineStr"/>
+      <c r="DA24" t="inlineStr"/>
+      <c r="DB24" t="inlineStr"/>
+      <c r="DC24" t="inlineStr"/>
+      <c r="DD24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DE24" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="DF24" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="DG24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DH24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DI24" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="DJ24" t="inlineStr"/>
+      <c r="DK24" t="inlineStr"/>
+      <c r="DL24" t="inlineStr"/>
+      <c r="DM24" t="inlineStr"/>
+      <c r="DN24" t="inlineStr"/>
+      <c r="DO24" t="inlineStr"/>
+      <c r="DP24" t="inlineStr"/>
+      <c r="DQ24" t="inlineStr"/>
+      <c r="DR24" t="inlineStr"/>
+      <c r="DS24" t="inlineStr"/>
+      <c r="DT24" t="inlineStr"/>
+      <c r="DU24" t="inlineStr"/>
+      <c r="DV24" t="inlineStr"/>
+      <c r="DW24" t="inlineStr"/>
+      <c r="DX24" t="inlineStr"/>
+      <c r="DY24" t="inlineStr"/>
+      <c r="DZ24" t="inlineStr"/>
+      <c r="EA24" t="inlineStr"/>
+      <c r="EB24" t="inlineStr"/>
+      <c r="EC24" t="inlineStr"/>
+      <c r="ED24" t="inlineStr"/>
+      <c r="EE24" t="inlineStr"/>
+      <c r="EF24" t="inlineStr"/>
+      <c r="EG24" t="inlineStr"/>
+      <c r="EH24" t="inlineStr"/>
+      <c r="EI24" t="inlineStr"/>
+      <c r="EJ24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="EK24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="EL24" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="EM24" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="EN24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="EO24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="EP24" t="inlineStr"/>
+      <c r="EQ24" t="inlineStr"/>
+      <c r="ER24" t="inlineStr"/>
+      <c r="ES24" t="inlineStr"/>
+      <c r="ET24" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="EU24" t="inlineStr"/>
+      <c r="EV24" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="EW24" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="EX24" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="EY24" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="EZ24" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="FA24" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="FB24" t="inlineStr"/>
+      <c r="FC24" t="inlineStr"/>
+      <c r="FD24" t="inlineStr"/>
+      <c r="FE24" t="inlineStr"/>
+      <c r="FF24" t="inlineStr"/>
+      <c r="FG24" t="inlineStr"/>
+      <c r="FH24" t="inlineStr"/>
+      <c r="FI24" t="inlineStr"/>
+      <c r="FJ24" t="inlineStr"/>
+      <c r="FK24" t="inlineStr"/>
+      <c r="FL24" t="inlineStr"/>
+      <c r="FM24" t="inlineStr"/>
+      <c r="FN24" t="inlineStr"/>
+      <c r="FO24" t="inlineStr"/>
+      <c r="FP24" t="inlineStr"/>
+      <c r="FQ24" t="inlineStr"/>
+      <c r="FR24" t="inlineStr"/>
+      <c r="FS24" t="inlineStr"/>
+      <c r="FT24" t="inlineStr"/>
+      <c r="FU24" t="inlineStr"/>
+      <c r="FV24" t="inlineStr"/>
+      <c r="FW24" t="inlineStr"/>
+      <c r="FX24" t="inlineStr"/>
+      <c r="FY24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="FZ24" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GA24" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="GB24" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="GC24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="GD24" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="GE24" t="inlineStr"/>
+      <c r="GF24" t="inlineStr"/>
+      <c r="GG24" t="inlineStr"/>
+      <c r="GH24" t="inlineStr"/>
+      <c r="GI24" t="inlineStr"/>
+      <c r="GJ24" t="inlineStr"/>
+      <c r="GK24" t="inlineStr"/>
+      <c r="GL24" t="inlineStr"/>
+      <c r="GM24" t="inlineStr"/>
+      <c r="GN24" t="inlineStr"/>
+      <c r="GO24" t="inlineStr"/>
+      <c r="GP24" t="inlineStr"/>
+      <c r="GQ24" t="inlineStr"/>
+      <c r="GR24" t="inlineStr"/>
+      <c r="GS24" t="inlineStr"/>
+      <c r="GT24" t="inlineStr"/>
+      <c r="GU24" t="inlineStr"/>
+      <c r="GV24" t="inlineStr"/>
+      <c r="GW24" t="inlineStr"/>
+      <c r="GX24" t="inlineStr"/>
+      <c r="GY24" t="inlineStr"/>
+      <c r="GZ24" t="inlineStr"/>
+      <c r="HA24" t="inlineStr"/>
+      <c r="HB24" t="inlineStr"/>
+      <c r="HC24" t="inlineStr"/>
+      <c r="HD24" t="inlineStr"/>
+      <c r="HE24" t="inlineStr"/>
+      <c r="HF24" t="inlineStr"/>
+      <c r="HG24" t="inlineStr"/>
+      <c r="HH24" t="inlineStr"/>
+      <c r="HI24" t="inlineStr"/>
+      <c r="HJ24" t="inlineStr"/>
+      <c r="HK24" t="inlineStr"/>
+      <c r="HL24" t="inlineStr"/>
+      <c r="HM24" t="inlineStr"/>
+      <c r="HN24" t="inlineStr"/>
+      <c r="HO24" t="inlineStr"/>
+      <c r="HP24" t="inlineStr"/>
+      <c r="HQ24" t="inlineStr"/>
+      <c r="HR24" t="inlineStr"/>
+      <c r="HS24" t="inlineStr"/>
+      <c r="HT24" t="inlineStr"/>
+      <c r="HU24" t="inlineStr"/>
+      <c r="HV24" t="inlineStr"/>
+      <c r="HW24" t="inlineStr"/>
+      <c r="HX24" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="HY24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ24" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA24" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB24" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="IC24" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID24" t="inlineStr"/>
+      <c r="IE24" t="inlineStr"/>
+      <c r="IF24" t="inlineStr"/>
+      <c r="IG24" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="IH24" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="II24" t="inlineStr"/>
+      <c r="IJ24" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="IK24" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="IL24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="IM24" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="IN24" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="IO24" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="IP24" t="inlineStr"/>
+      <c r="IQ24" t="inlineStr"/>
+      <c r="IR24" t="inlineStr"/>
+      <c r="IS24" t="inlineStr"/>
+      <c r="IT24" t="inlineStr"/>
+      <c r="IU24" t="inlineStr"/>
+      <c r="IV24" t="inlineStr"/>
+      <c r="IW24" t="inlineStr"/>
+      <c r="IX24" t="inlineStr"/>
+      <c r="IY24" t="inlineStr"/>
+      <c r="IZ24" t="inlineStr"/>
+      <c r="JA24" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="JB24" t="inlineStr"/>
+      <c r="JC24" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="JD24" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="JE24" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="JF24" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="JG24" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="JH24" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="JI24" t="inlineStr"/>
+      <c r="JJ24" t="inlineStr"/>
+      <c r="JK24" t="inlineStr"/>
+      <c r="JL24" t="inlineStr"/>
+      <c r="JM24" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="JN24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="JO24" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="JP24" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="JQ24" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="JR24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="JS24" t="inlineStr"/>
+      <c r="JT24" t="inlineStr"/>
+      <c r="JU24" t="inlineStr"/>
+      <c r="JV24" t="inlineStr"/>
+      <c r="JW24" t="inlineStr"/>
+      <c r="JX24" t="inlineStr"/>
+      <c r="JY24" t="inlineStr"/>
+      <c r="JZ24" t="inlineStr"/>
+      <c r="KA24" t="inlineStr"/>
+      <c r="KB24" t="inlineStr"/>
+      <c r="KC24" t="inlineStr"/>
+      <c r="KD24" t="inlineStr"/>
+      <c r="KE24" t="inlineStr"/>
+      <c r="KF24" t="inlineStr"/>
+      <c r="KG24" t="inlineStr"/>
+      <c r="KH24" t="inlineStr"/>
+      <c r="KI24" t="inlineStr"/>
+      <c r="KJ24" t="inlineStr"/>
+      <c r="KK24" t="inlineStr"/>
+      <c r="KL24" t="inlineStr"/>
+      <c r="KM24" t="inlineStr"/>
+      <c r="KN24" t="inlineStr"/>
+      <c r="KO24" t="inlineStr"/>
+      <c r="KP24" t="inlineStr"/>
+      <c r="KQ24" t="inlineStr"/>
+      <c r="KR24" t="inlineStr"/>
+      <c r="KS24" t="inlineStr"/>
+      <c r="KT24" t="inlineStr"/>
+      <c r="KU24" t="inlineStr"/>
+      <c r="KV24" t="inlineStr"/>
+      <c r="KW24" t="inlineStr"/>
+      <c r="KX24" t="inlineStr"/>
+      <c r="KY24" t="inlineStr"/>
+      <c r="KZ24" t="inlineStr"/>
+      <c r="LA24" t="inlineStr"/>
+      <c r="LB24" t="inlineStr"/>
+      <c r="LC24" t="inlineStr"/>
+      <c r="LD24" t="inlineStr"/>
+      <c r="LE24" t="inlineStr"/>
+      <c r="LF24" t="inlineStr"/>
+      <c r="LG24" t="inlineStr"/>
+      <c r="LH24" t="inlineStr"/>
+      <c r="LI24" t="inlineStr"/>
+      <c r="LJ24" t="inlineStr"/>
+      <c r="LK24" t="inlineStr"/>
+      <c r="LL24" t="inlineStr"/>
+      <c r="LM24" t="inlineStr"/>
+      <c r="LN24" t="inlineStr"/>
+      <c r="LO24" t="inlineStr"/>
+      <c r="LP24" t="inlineStr"/>
+      <c r="LQ24" t="inlineStr"/>
+      <c r="LR24" t="inlineStr"/>
+      <c r="LS24" t="inlineStr"/>
+      <c r="LT24" t="inlineStr"/>
+      <c r="LU24" t="inlineStr"/>
+      <c r="LV24" t="inlineStr"/>
+      <c r="LW24" t="inlineStr"/>
+      <c r="LX24" t="inlineStr"/>
+      <c r="LY24" t="inlineStr"/>
+      <c r="LZ24" t="inlineStr"/>
+      <c r="MA24" t="inlineStr"/>
+      <c r="MB24" t="inlineStr"/>
+      <c r="MC24" t="inlineStr"/>
+      <c r="MD24" t="inlineStr"/>
+      <c r="ME24" t="inlineStr"/>
+      <c r="MF24" t="inlineStr"/>
+      <c r="MG24" t="inlineStr"/>
+      <c r="MH24" t="inlineStr"/>
+      <c r="MI24" t="inlineStr"/>
+      <c r="MJ24" t="inlineStr"/>
+      <c r="MK24" t="inlineStr"/>
+      <c r="ML24" t="inlineStr"/>
+      <c r="MM24" t="inlineStr"/>
+      <c r="MN24" t="inlineStr"/>
+      <c r="MO24" t="inlineStr"/>
+      <c r="MP24" t="inlineStr"/>
+      <c r="MQ24" t="inlineStr"/>
+      <c r="MR24" t="inlineStr"/>
+      <c r="MS24" t="inlineStr"/>
+      <c r="MT24" t="inlineStr"/>
+      <c r="MU24" t="inlineStr"/>
+      <c r="MV24" t="inlineStr"/>
+      <c r="MW24" t="inlineStr"/>
+      <c r="MX24" t="inlineStr"/>
+      <c r="MY24" t="inlineStr"/>
+      <c r="MZ24" t="inlineStr"/>
+      <c r="NA24" t="inlineStr"/>
+      <c r="NB24" t="inlineStr"/>
+      <c r="NC24" t="inlineStr"/>
+      <c r="ND24" t="inlineStr"/>
+      <c r="NE24" t="inlineStr"/>
+      <c r="NF24" t="inlineStr"/>
+      <c r="NG24" t="inlineStr"/>
+      <c r="NH24" t="inlineStr"/>
+      <c r="NI24" t="inlineStr"/>
+      <c r="NJ24" t="inlineStr"/>
+      <c r="NK24" t="inlineStr"/>
+      <c r="NL24" t="inlineStr"/>
+      <c r="NM24" t="inlineStr"/>
+      <c r="NN24" t="inlineStr"/>
+      <c r="NO24" t="inlineStr"/>
+      <c r="NP24" t="inlineStr"/>
+      <c r="NQ24" t="inlineStr"/>
+      <c r="NR24" t="inlineStr"/>
+      <c r="NS24" t="inlineStr"/>
+      <c r="NT24" t="inlineStr"/>
+      <c r="NU24" t="inlineStr"/>
+      <c r="NV24" t="inlineStr"/>
+      <c r="NW24" t="inlineStr"/>
+      <c r="NX24" t="inlineStr"/>
+      <c r="NY24" t="inlineStr"/>
+      <c r="NZ24" t="inlineStr"/>
+      <c r="OA24" t="inlineStr"/>
+      <c r="OB24" t="inlineStr"/>
+      <c r="OC24" t="inlineStr"/>
+      <c r="OD24" t="inlineStr"/>
+      <c r="OE24" t="inlineStr"/>
+      <c r="OF24" t="inlineStr"/>
+      <c r="OG24" t="inlineStr"/>
+      <c r="OH24" t="inlineStr"/>
+      <c r="OI24" t="inlineStr"/>
+      <c r="OJ24" t="inlineStr"/>
+      <c r="OK24" t="inlineStr"/>
+      <c r="OL24" t="inlineStr"/>
+      <c r="OM24" t="inlineStr"/>
+      <c r="ON24" t="inlineStr"/>
+      <c r="OO24" t="inlineStr"/>
+      <c r="OP24" t="inlineStr"/>
+      <c r="OQ24" t="inlineStr"/>
+      <c r="OR24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>type01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr"/>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="CB25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="CC25" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="CE25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="CF25" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="CG25" t="inlineStr"/>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="inlineStr"/>
+      <c r="CJ25" t="inlineStr"/>
+      <c r="CK25" t="inlineStr"/>
+      <c r="CL25" t="inlineStr"/>
+      <c r="CM25" t="inlineStr"/>
+      <c r="CN25" t="inlineStr"/>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CS25" t="inlineStr"/>
+      <c r="CT25" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="CU25" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="CV25" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="CW25" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="CX25" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="CY25" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="CZ25" t="inlineStr"/>
+      <c r="DA25" t="inlineStr"/>
+      <c r="DB25" t="inlineStr"/>
+      <c r="DC25" t="inlineStr"/>
+      <c r="DD25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DE25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="DF25" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="DG25" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="DH25" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="DI25" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
+      <c r="DJ25" t="inlineStr"/>
+      <c r="DK25" t="inlineStr"/>
+      <c r="DL25" t="inlineStr"/>
+      <c r="DM25" t="inlineStr"/>
+      <c r="DN25" t="inlineStr"/>
+      <c r="DO25" t="inlineStr"/>
+      <c r="DP25" t="inlineStr"/>
+      <c r="DQ25" t="inlineStr"/>
+      <c r="DR25" t="inlineStr"/>
+      <c r="DS25" t="inlineStr"/>
+      <c r="DT25" t="inlineStr"/>
+      <c r="DU25" t="inlineStr"/>
+      <c r="DV25" t="inlineStr"/>
+      <c r="DW25" t="inlineStr"/>
+      <c r="DX25" t="inlineStr"/>
+      <c r="DY25" t="inlineStr"/>
+      <c r="DZ25" t="inlineStr"/>
+      <c r="EA25" t="inlineStr"/>
+      <c r="EB25" t="inlineStr"/>
+      <c r="EC25" t="inlineStr"/>
+      <c r="ED25" t="inlineStr"/>
+      <c r="EE25" t="inlineStr"/>
+      <c r="EF25" t="inlineStr"/>
+      <c r="EG25" t="inlineStr"/>
+      <c r="EH25" t="inlineStr"/>
+      <c r="EI25" t="inlineStr"/>
+      <c r="EJ25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="EK25" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="EL25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="EM25" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="EN25" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="EO25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="EP25" t="inlineStr"/>
+      <c r="EQ25" t="inlineStr"/>
+      <c r="ER25" t="inlineStr"/>
+      <c r="ES25" t="inlineStr"/>
+      <c r="ET25" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="EU25" t="inlineStr"/>
+      <c r="EV25" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="EW25" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EX25" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="EY25" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="EZ25" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="FA25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="FB25" t="inlineStr"/>
+      <c r="FC25" t="inlineStr"/>
+      <c r="FD25" t="inlineStr"/>
+      <c r="FE25" t="inlineStr"/>
+      <c r="FF25" t="inlineStr"/>
+      <c r="FG25" t="inlineStr"/>
+      <c r="FH25" t="inlineStr"/>
+      <c r="FI25" t="inlineStr"/>
+      <c r="FJ25" t="inlineStr"/>
+      <c r="FK25" t="inlineStr"/>
+      <c r="FL25" t="inlineStr"/>
+      <c r="FM25" t="inlineStr"/>
+      <c r="FN25" t="inlineStr"/>
+      <c r="FO25" t="inlineStr"/>
+      <c r="FP25" t="inlineStr"/>
+      <c r="FQ25" t="inlineStr"/>
+      <c r="FR25" t="inlineStr"/>
+      <c r="FS25" t="inlineStr"/>
+      <c r="FT25" t="inlineStr"/>
+      <c r="FU25" t="inlineStr"/>
+      <c r="FV25" t="inlineStr"/>
+      <c r="FW25" t="inlineStr"/>
+      <c r="FX25" t="inlineStr"/>
+      <c r="FY25" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="FZ25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="GA25" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="GB25" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="GC25" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="GD25" t="inlineStr">
+        <is>
+          <t>-31</t>
+        </is>
+      </c>
+      <c r="GE25" t="inlineStr"/>
+      <c r="GF25" t="inlineStr"/>
+      <c r="GG25" t="inlineStr"/>
+      <c r="GH25" t="inlineStr"/>
+      <c r="GI25" t="inlineStr"/>
+      <c r="GJ25" t="inlineStr"/>
+      <c r="GK25" t="inlineStr"/>
+      <c r="GL25" t="inlineStr"/>
+      <c r="GM25" t="inlineStr"/>
+      <c r="GN25" t="inlineStr"/>
+      <c r="GO25" t="inlineStr"/>
+      <c r="GP25" t="inlineStr"/>
+      <c r="GQ25" t="inlineStr"/>
+      <c r="GR25" t="inlineStr"/>
+      <c r="GS25" t="inlineStr"/>
+      <c r="GT25" t="inlineStr"/>
+      <c r="GU25" t="inlineStr"/>
+      <c r="GV25" t="inlineStr"/>
+      <c r="GW25" t="inlineStr"/>
+      <c r="GX25" t="inlineStr"/>
+      <c r="GY25" t="inlineStr"/>
+      <c r="GZ25" t="inlineStr"/>
+      <c r="HA25" t="inlineStr"/>
+      <c r="HB25" t="inlineStr"/>
+      <c r="HC25" t="inlineStr"/>
+      <c r="HD25" t="inlineStr"/>
+      <c r="HE25" t="inlineStr"/>
+      <c r="HF25" t="inlineStr"/>
+      <c r="HG25" t="inlineStr"/>
+      <c r="HH25" t="inlineStr"/>
+      <c r="HI25" t="inlineStr"/>
+      <c r="HJ25" t="inlineStr"/>
+      <c r="HK25" t="inlineStr"/>
+      <c r="HL25" t="inlineStr"/>
+      <c r="HM25" t="inlineStr"/>
+      <c r="HN25" t="inlineStr"/>
+      <c r="HO25" t="inlineStr"/>
+      <c r="HP25" t="inlineStr"/>
+      <c r="HQ25" t="inlineStr"/>
+      <c r="HR25" t="inlineStr"/>
+      <c r="HS25" t="inlineStr"/>
+      <c r="HT25" t="inlineStr"/>
+      <c r="HU25" t="inlineStr"/>
+      <c r="HV25" t="inlineStr"/>
+      <c r="HW25" t="inlineStr"/>
+      <c r="HX25" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="HY25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="HZ25" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="IA25" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="IB25" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="IC25" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="ID25" t="inlineStr"/>
+      <c r="IE25" t="inlineStr"/>
+      <c r="IF25" t="inlineStr"/>
+      <c r="IG25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="IH25" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="II25" t="inlineStr"/>
+      <c r="IJ25" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="IK25" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="IL25" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="IM25" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="IN25" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="IO25" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="IP25" t="inlineStr"/>
+      <c r="IQ25" t="inlineStr"/>
+      <c r="IR25" t="inlineStr"/>
+      <c r="IS25" t="inlineStr"/>
+      <c r="IT25" t="inlineStr"/>
+      <c r="IU25" t="inlineStr"/>
+      <c r="IV25" t="inlineStr"/>
+      <c r="IW25" t="inlineStr"/>
+      <c r="IX25" t="inlineStr"/>
+      <c r="IY25" t="inlineStr"/>
+      <c r="IZ25" t="inlineStr"/>
+      <c r="JA25" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="JB25" t="inlineStr"/>
+      <c r="JC25" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JD25" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="JE25" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="JF25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="JG25" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="JH25" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="JI25" t="inlineStr"/>
+      <c r="JJ25" t="inlineStr"/>
+      <c r="JK25" t="inlineStr"/>
+      <c r="JL25" t="inlineStr"/>
+      <c r="JM25" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JN25" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="JO25" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="JP25" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
+      <c r="JQ25" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="JR25" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
+      <c r="JS25" t="inlineStr"/>
+      <c r="JT25" t="inlineStr"/>
+      <c r="JU25" t="inlineStr"/>
+      <c r="JV25" t="inlineStr"/>
+      <c r="JW25" t="inlineStr"/>
+      <c r="JX25" t="inlineStr"/>
+      <c r="JY25" t="inlineStr"/>
+      <c r="JZ25" t="inlineStr"/>
+      <c r="KA25" t="inlineStr"/>
+      <c r="KB25" t="inlineStr"/>
+      <c r="KC25" t="inlineStr"/>
+      <c r="KD25" t="inlineStr"/>
+      <c r="KE25" t="inlineStr"/>
+      <c r="KF25" t="inlineStr"/>
+      <c r="KG25" t="inlineStr"/>
+      <c r="KH25" t="inlineStr"/>
+      <c r="KI25" t="inlineStr"/>
+      <c r="KJ25" t="inlineStr"/>
+      <c r="KK25" t="inlineStr"/>
+      <c r="KL25" t="inlineStr"/>
+      <c r="KM25" t="inlineStr"/>
+      <c r="KN25" t="inlineStr"/>
+      <c r="KO25" t="inlineStr"/>
+      <c r="KP25" t="inlineStr"/>
+      <c r="KQ25" t="inlineStr"/>
+      <c r="KR25" t="inlineStr"/>
+      <c r="KS25" t="inlineStr"/>
+      <c r="KT25" t="inlineStr"/>
+      <c r="KU25" t="inlineStr"/>
+      <c r="KV25" t="inlineStr"/>
+      <c r="KW25" t="inlineStr"/>
+      <c r="KX25" t="inlineStr"/>
+      <c r="KY25" t="inlineStr"/>
+      <c r="KZ25" t="inlineStr"/>
+      <c r="LA25" t="inlineStr"/>
+      <c r="LB25" t="inlineStr"/>
+      <c r="LC25" t="inlineStr"/>
+      <c r="LD25" t="inlineStr"/>
+      <c r="LE25" t="inlineStr"/>
+      <c r="LF25" t="inlineStr"/>
+      <c r="LG25" t="inlineStr"/>
+      <c r="LH25" t="inlineStr"/>
+      <c r="LI25" t="inlineStr"/>
+      <c r="LJ25" t="inlineStr"/>
+      <c r="LK25" t="inlineStr"/>
+      <c r="LL25" t="inlineStr"/>
+      <c r="LM25" t="inlineStr"/>
+      <c r="LN25" t="inlineStr"/>
+      <c r="LO25" t="inlineStr"/>
+      <c r="LP25" t="inlineStr"/>
+      <c r="LQ25" t="inlineStr"/>
+      <c r="LR25" t="inlineStr"/>
+      <c r="LS25" t="inlineStr"/>
+      <c r="LT25" t="inlineStr"/>
+      <c r="LU25" t="inlineStr"/>
+      <c r="LV25" t="inlineStr"/>
+      <c r="LW25" t="inlineStr"/>
+      <c r="LX25" t="inlineStr"/>
+      <c r="LY25" t="inlineStr"/>
+      <c r="LZ25" t="inlineStr"/>
+      <c r="MA25" t="inlineStr"/>
+      <c r="MB25" t="inlineStr"/>
+      <c r="MC25" t="inlineStr"/>
+      <c r="MD25" t="inlineStr"/>
+      <c r="ME25" t="inlineStr"/>
+      <c r="MF25" t="inlineStr"/>
+      <c r="MG25" t="inlineStr"/>
+      <c r="MH25" t="inlineStr"/>
+      <c r="MI25" t="inlineStr"/>
+      <c r="MJ25" t="inlineStr"/>
+      <c r="MK25" t="inlineStr"/>
+      <c r="ML25" t="inlineStr"/>
+      <c r="MM25" t="inlineStr"/>
+      <c r="MN25" t="inlineStr"/>
+      <c r="MO25" t="inlineStr"/>
+      <c r="MP25" t="inlineStr"/>
+      <c r="MQ25" t="inlineStr"/>
+      <c r="MR25" t="inlineStr"/>
+      <c r="MS25" t="inlineStr"/>
+      <c r="MT25" t="inlineStr"/>
+      <c r="MU25" t="inlineStr"/>
+      <c r="MV25" t="inlineStr"/>
+      <c r="MW25" t="inlineStr"/>
+      <c r="MX25" t="inlineStr"/>
+      <c r="MY25" t="inlineStr"/>
+      <c r="MZ25" t="inlineStr"/>
+      <c r="NA25" t="inlineStr"/>
+      <c r="NB25" t="inlineStr"/>
+      <c r="NC25" t="inlineStr"/>
+      <c r="ND25" t="inlineStr"/>
+      <c r="NE25" t="inlineStr"/>
+      <c r="NF25" t="inlineStr"/>
+      <c r="NG25" t="inlineStr"/>
+      <c r="NH25" t="inlineStr"/>
+      <c r="NI25" t="inlineStr"/>
+      <c r="NJ25" t="inlineStr"/>
+      <c r="NK25" t="inlineStr"/>
+      <c r="NL25" t="inlineStr"/>
+      <c r="NM25" t="inlineStr"/>
+      <c r="NN25" t="inlineStr"/>
+      <c r="NO25" t="inlineStr"/>
+      <c r="NP25" t="inlineStr"/>
+      <c r="NQ25" t="inlineStr"/>
+      <c r="NR25" t="inlineStr"/>
+      <c r="NS25" t="inlineStr"/>
+      <c r="NT25" t="inlineStr"/>
+      <c r="NU25" t="inlineStr"/>
+      <c r="NV25" t="inlineStr"/>
+      <c r="NW25" t="inlineStr"/>
+      <c r="NX25" t="inlineStr"/>
+      <c r="NY25" t="inlineStr"/>
+      <c r="NZ25" t="inlineStr"/>
+      <c r="OA25" t="inlineStr"/>
+      <c r="OB25" t="inlineStr"/>
+      <c r="OC25" t="inlineStr"/>
+      <c r="OD25" t="inlineStr"/>
+      <c r="OE25" t="inlineStr"/>
+      <c r="OF25" t="inlineStr"/>
+      <c r="OG25" t="inlineStr"/>
+      <c r="OH25" t="inlineStr"/>
+      <c r="OI25" t="inlineStr"/>
+      <c r="OJ25" t="inlineStr"/>
+      <c r="OK25" t="inlineStr"/>
+      <c r="OL25" t="inlineStr"/>
+      <c r="OM25" t="inlineStr"/>
+      <c r="ON25" t="inlineStr"/>
+      <c r="OO25" t="inlineStr"/>
+      <c r="OP25" t="inlineStr"/>
+      <c r="OQ25" t="inlineStr"/>
+      <c r="OR25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/OOMII.xlsx
+++ b/OOMII.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OR110"/>
+  <dimension ref="A1:OR114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44607,21 +44607,6 @@
           <t>type07</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
           <t>4.28</t>
@@ -44637,15 +44622,6 @@
           <t>3.70</t>
         </is>
       </c>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr">
         <is>
           <t>3.53</t>
@@ -44676,8 +44652,6 @@
           <t>3.51</t>
         </is>
       </c>
-      <c r="AI102" t="inlineStr"/>
-      <c r="AJ102" t="inlineStr"/>
       <c r="AK102" t="inlineStr">
         <is>
           <t>83</t>
@@ -44688,47 +44662,11 @@
           <t>86</t>
         </is>
       </c>
-      <c r="AM102" t="inlineStr"/>
-      <c r="AN102" t="inlineStr"/>
-      <c r="AO102" t="inlineStr"/>
-      <c r="AP102" t="inlineStr"/>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
-      <c r="AS102" t="inlineStr"/>
-      <c r="AT102" t="inlineStr"/>
-      <c r="AU102" t="inlineStr"/>
       <c r="AV102" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AW102" t="inlineStr"/>
-      <c r="AX102" t="inlineStr"/>
-      <c r="AY102" t="inlineStr"/>
-      <c r="AZ102" t="inlineStr"/>
-      <c r="BA102" t="inlineStr"/>
-      <c r="BB102" t="inlineStr"/>
-      <c r="BC102" t="inlineStr"/>
-      <c r="BD102" t="inlineStr"/>
-      <c r="BE102" t="inlineStr"/>
-      <c r="BF102" t="inlineStr"/>
-      <c r="BG102" t="inlineStr"/>
-      <c r="BH102" t="inlineStr"/>
-      <c r="BI102" t="inlineStr"/>
-      <c r="BJ102" t="inlineStr"/>
-      <c r="BK102" t="inlineStr"/>
-      <c r="BL102" t="inlineStr"/>
-      <c r="BM102" t="inlineStr"/>
-      <c r="BN102" t="inlineStr"/>
-      <c r="BO102" t="inlineStr"/>
-      <c r="BP102" t="inlineStr"/>
-      <c r="BQ102" t="inlineStr"/>
-      <c r="BR102" t="inlineStr"/>
-      <c r="BS102" t="inlineStr"/>
-      <c r="BT102" t="inlineStr"/>
-      <c r="BU102" t="inlineStr"/>
-      <c r="BV102" t="inlineStr"/>
-      <c r="BW102" t="inlineStr"/>
       <c r="BX102" t="inlineStr">
         <is>
           <t>2.99</t>
@@ -44744,15 +44682,6 @@
           <t>2.46</t>
         </is>
       </c>
-      <c r="CA102" t="inlineStr"/>
-      <c r="CB102" t="inlineStr"/>
-      <c r="CC102" t="inlineStr"/>
-      <c r="CD102" t="inlineStr"/>
-      <c r="CE102" t="inlineStr"/>
-      <c r="CF102" t="inlineStr"/>
-      <c r="CG102" t="inlineStr"/>
-      <c r="CH102" t="inlineStr"/>
-      <c r="CI102" t="inlineStr"/>
       <c r="CJ102" t="inlineStr">
         <is>
           <t>2.26</t>
@@ -44783,8 +44712,6 @@
           <t>2.39</t>
         </is>
       </c>
-      <c r="CP102" t="inlineStr"/>
-      <c r="CQ102" t="inlineStr"/>
       <c r="CR102" t="inlineStr">
         <is>
           <t>81</t>
@@ -44795,34 +44722,11 @@
           <t>82</t>
         </is>
       </c>
-      <c r="CT102" t="inlineStr"/>
-      <c r="CU102" t="inlineStr"/>
-      <c r="CV102" t="inlineStr"/>
-      <c r="CW102" t="inlineStr"/>
-      <c r="CX102" t="inlineStr"/>
-      <c r="CY102" t="inlineStr"/>
-      <c r="CZ102" t="inlineStr"/>
-      <c r="DA102" t="inlineStr"/>
-      <c r="DB102" t="inlineStr"/>
       <c r="DC102" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="DD102" t="inlineStr"/>
-      <c r="DE102" t="inlineStr"/>
-      <c r="DF102" t="inlineStr"/>
-      <c r="DG102" t="inlineStr"/>
-      <c r="DH102" t="inlineStr"/>
-      <c r="DI102" t="inlineStr"/>
-      <c r="DJ102" t="inlineStr"/>
-      <c r="DK102" t="inlineStr"/>
-      <c r="DL102" t="inlineStr"/>
-      <c r="DM102" t="inlineStr"/>
-      <c r="DN102" t="inlineStr"/>
-      <c r="DO102" t="inlineStr"/>
-      <c r="DP102" t="inlineStr"/>
-      <c r="DQ102" t="inlineStr"/>
       <c r="DR102" t="inlineStr">
         <is>
           <t>72</t>
@@ -44838,7 +44742,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="DU102" t="inlineStr"/>
       <c r="DV102" t="inlineStr">
         <is>
           <t>64</t>
@@ -44869,23 +44772,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="EB102" t="inlineStr"/>
-      <c r="EC102" t="inlineStr"/>
-      <c r="ED102" t="inlineStr"/>
-      <c r="EE102" t="inlineStr"/>
-      <c r="EF102" t="inlineStr"/>
-      <c r="EG102" t="inlineStr"/>
-      <c r="EH102" t="inlineStr"/>
-      <c r="EI102" t="inlineStr"/>
-      <c r="EJ102" t="inlineStr"/>
-      <c r="EK102" t="inlineStr"/>
-      <c r="EL102" t="inlineStr"/>
-      <c r="EM102" t="inlineStr"/>
-      <c r="EN102" t="inlineStr"/>
-      <c r="EO102" t="inlineStr"/>
-      <c r="EP102" t="inlineStr"/>
-      <c r="EQ102" t="inlineStr"/>
-      <c r="ER102" t="inlineStr"/>
       <c r="ES102" t="inlineStr">
         <is>
           <t>2.51</t>
@@ -44901,15 +44787,6 @@
           <t>1.19</t>
         </is>
       </c>
-      <c r="EV102" t="inlineStr"/>
-      <c r="EW102" t="inlineStr"/>
-      <c r="EX102" t="inlineStr"/>
-      <c r="EY102" t="inlineStr"/>
-      <c r="EZ102" t="inlineStr"/>
-      <c r="FA102" t="inlineStr"/>
-      <c r="FB102" t="inlineStr"/>
-      <c r="FC102" t="inlineStr"/>
-      <c r="FD102" t="inlineStr"/>
       <c r="FE102" t="inlineStr">
         <is>
           <t>0.92</t>
@@ -44940,8 +44817,6 @@
           <t>1.23</t>
         </is>
       </c>
-      <c r="FK102" t="inlineStr"/>
-      <c r="FL102" t="inlineStr"/>
       <c r="FM102" t="inlineStr">
         <is>
           <t>52</t>
@@ -44952,80 +44827,11 @@
           <t>47</t>
         </is>
       </c>
-      <c r="FO102" t="inlineStr"/>
-      <c r="FP102" t="inlineStr"/>
-      <c r="FQ102" t="inlineStr"/>
-      <c r="FR102" t="inlineStr"/>
-      <c r="FS102" t="inlineStr"/>
-      <c r="FT102" t="inlineStr"/>
-      <c r="FU102" t="inlineStr"/>
-      <c r="FV102" t="inlineStr"/>
-      <c r="FW102" t="inlineStr"/>
       <c r="FX102" t="inlineStr">
         <is>
           <t>-9</t>
         </is>
       </c>
-      <c r="FY102" t="inlineStr"/>
-      <c r="FZ102" t="inlineStr"/>
-      <c r="GA102" t="inlineStr"/>
-      <c r="GB102" t="inlineStr"/>
-      <c r="GC102" t="inlineStr"/>
-      <c r="GD102" t="inlineStr"/>
-      <c r="GE102" t="inlineStr"/>
-      <c r="GF102" t="inlineStr"/>
-      <c r="GG102" t="inlineStr"/>
-      <c r="GH102" t="inlineStr"/>
-      <c r="GI102" t="inlineStr"/>
-      <c r="GJ102" t="inlineStr"/>
-      <c r="GK102" t="inlineStr"/>
-      <c r="GL102" t="inlineStr"/>
-      <c r="GM102" t="inlineStr"/>
-      <c r="GN102" t="inlineStr"/>
-      <c r="GO102" t="inlineStr"/>
-      <c r="GP102" t="inlineStr"/>
-      <c r="GQ102" t="inlineStr"/>
-      <c r="GR102" t="inlineStr"/>
-      <c r="GS102" t="inlineStr"/>
-      <c r="GT102" t="inlineStr"/>
-      <c r="GU102" t="inlineStr"/>
-      <c r="GV102" t="inlineStr"/>
-      <c r="GW102" t="inlineStr"/>
-      <c r="GX102" t="inlineStr"/>
-      <c r="GY102" t="inlineStr"/>
-      <c r="GZ102" t="inlineStr"/>
-      <c r="HA102" t="inlineStr"/>
-      <c r="HB102" t="inlineStr"/>
-      <c r="HC102" t="inlineStr"/>
-      <c r="HD102" t="inlineStr"/>
-      <c r="HE102" t="inlineStr"/>
-      <c r="HF102" t="inlineStr"/>
-      <c r="HG102" t="inlineStr"/>
-      <c r="HH102" t="inlineStr"/>
-      <c r="HI102" t="inlineStr"/>
-      <c r="HJ102" t="inlineStr"/>
-      <c r="HK102" t="inlineStr"/>
-      <c r="HL102" t="inlineStr"/>
-      <c r="HM102" t="inlineStr"/>
-      <c r="HN102" t="inlineStr"/>
-      <c r="HO102" t="inlineStr"/>
-      <c r="HP102" t="inlineStr"/>
-      <c r="HQ102" t="inlineStr"/>
-      <c r="HR102" t="inlineStr"/>
-      <c r="HS102" t="inlineStr"/>
-      <c r="HT102" t="inlineStr"/>
-      <c r="HU102" t="inlineStr"/>
-      <c r="HV102" t="inlineStr"/>
-      <c r="HW102" t="inlineStr"/>
-      <c r="HX102" t="inlineStr"/>
-      <c r="HY102" t="inlineStr"/>
-      <c r="HZ102" t="inlineStr"/>
-      <c r="IA102" t="inlineStr"/>
-      <c r="IB102" t="inlineStr"/>
-      <c r="IC102" t="inlineStr"/>
-      <c r="ID102" t="inlineStr"/>
-      <c r="IE102" t="inlineStr"/>
-      <c r="IF102" t="inlineStr"/>
       <c r="IG102" t="inlineStr">
         <is>
           <t>7.14</t>
@@ -45041,15 +44847,6 @@
           <t>10.82</t>
         </is>
       </c>
-      <c r="IJ102" t="inlineStr"/>
-      <c r="IK102" t="inlineStr"/>
-      <c r="IL102" t="inlineStr"/>
-      <c r="IM102" t="inlineStr"/>
-      <c r="IN102" t="inlineStr"/>
-      <c r="IO102" t="inlineStr"/>
-      <c r="IP102" t="inlineStr"/>
-      <c r="IQ102" t="inlineStr"/>
-      <c r="IR102" t="inlineStr"/>
       <c r="IS102" t="inlineStr">
         <is>
           <t>8.25</t>
@@ -45080,8 +44877,6 @@
           <t>9.62</t>
         </is>
       </c>
-      <c r="IY102" t="inlineStr"/>
-      <c r="IZ102" t="inlineStr"/>
       <c r="JA102" t="inlineStr">
         <is>
           <t>140</t>
@@ -45092,32 +44887,11 @@
           <t>152</t>
         </is>
       </c>
-      <c r="JC102" t="inlineStr"/>
-      <c r="JD102" t="inlineStr"/>
-      <c r="JE102" t="inlineStr"/>
-      <c r="JF102" t="inlineStr"/>
-      <c r="JG102" t="inlineStr"/>
-      <c r="JH102" t="inlineStr"/>
-      <c r="JI102" t="inlineStr"/>
-      <c r="JJ102" t="inlineStr"/>
-      <c r="JK102" t="inlineStr"/>
       <c r="JL102" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="JM102" t="inlineStr"/>
-      <c r="JN102" t="inlineStr"/>
-      <c r="JO102" t="inlineStr"/>
-      <c r="JP102" t="inlineStr"/>
-      <c r="JQ102" t="inlineStr"/>
-      <c r="JR102" t="inlineStr"/>
-      <c r="JS102" t="inlineStr"/>
-      <c r="JT102" t="inlineStr"/>
-      <c r="JU102" t="inlineStr"/>
-      <c r="JV102" t="inlineStr"/>
-      <c r="JW102" t="inlineStr"/>
-      <c r="JX102" t="inlineStr"/>
       <c r="JY102" t="inlineStr">
         <is>
           <t>-11</t>
@@ -45163,8 +44937,6 @@
           <t>0.06</t>
         </is>
       </c>
-      <c r="KH102" t="inlineStr"/>
-      <c r="KI102" t="inlineStr"/>
       <c r="KJ102" t="inlineStr">
         <is>
           <t>5</t>
@@ -45210,8 +44982,6 @@
           <t>13.34</t>
         </is>
       </c>
-      <c r="KS102" t="inlineStr"/>
-      <c r="KT102" t="inlineStr"/>
       <c r="KU102" t="inlineStr">
         <is>
           <t>3.68</t>
@@ -45242,9 +45012,6 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="LA102" t="inlineStr"/>
-      <c r="LB102" t="inlineStr"/>
-      <c r="LC102" t="inlineStr"/>
       <c r="LD102" t="inlineStr">
         <is>
           <t>3.33</t>
@@ -45275,17 +45042,6 @@
           <t>3.24</t>
         </is>
       </c>
-      <c r="LJ102" t="inlineStr"/>
-      <c r="LK102" t="inlineStr"/>
-      <c r="LL102" t="inlineStr"/>
-      <c r="LM102" t="inlineStr"/>
-      <c r="LN102" t="inlineStr"/>
-      <c r="LO102" t="inlineStr"/>
-      <c r="LP102" t="inlineStr"/>
-      <c r="LQ102" t="inlineStr"/>
-      <c r="LR102" t="inlineStr"/>
-      <c r="LS102" t="inlineStr"/>
-      <c r="LT102" t="inlineStr"/>
       <c r="LU102" t="inlineStr">
         <is>
           <t>-64</t>
@@ -45331,8 +45087,6 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="MD102" t="inlineStr"/>
-      <c r="ME102" t="inlineStr"/>
       <c r="MF102" t="inlineStr">
         <is>
           <t>000000</t>
@@ -45383,61 +45137,6 @@
           <t>000</t>
         </is>
       </c>
-      <c r="MP102" t="inlineStr"/>
-      <c r="MQ102" t="inlineStr"/>
-      <c r="MR102" t="inlineStr"/>
-      <c r="MS102" t="inlineStr"/>
-      <c r="MT102" t="inlineStr"/>
-      <c r="MU102" t="inlineStr"/>
-      <c r="MV102" t="inlineStr"/>
-      <c r="MW102" t="inlineStr"/>
-      <c r="MX102" t="inlineStr"/>
-      <c r="MY102" t="inlineStr"/>
-      <c r="MZ102" t="inlineStr"/>
-      <c r="NA102" t="inlineStr"/>
-      <c r="NB102" t="inlineStr"/>
-      <c r="NC102" t="inlineStr"/>
-      <c r="ND102" t="inlineStr"/>
-      <c r="NE102" t="inlineStr"/>
-      <c r="NF102" t="inlineStr"/>
-      <c r="NG102" t="inlineStr"/>
-      <c r="NH102" t="inlineStr"/>
-      <c r="NI102" t="inlineStr"/>
-      <c r="NJ102" t="inlineStr"/>
-      <c r="NK102" t="inlineStr"/>
-      <c r="NL102" t="inlineStr"/>
-      <c r="NM102" t="inlineStr"/>
-      <c r="NN102" t="inlineStr"/>
-      <c r="NO102" t="inlineStr"/>
-      <c r="NP102" t="inlineStr"/>
-      <c r="NQ102" t="inlineStr"/>
-      <c r="NR102" t="inlineStr"/>
-      <c r="NS102" t="inlineStr"/>
-      <c r="NT102" t="inlineStr"/>
-      <c r="NU102" t="inlineStr"/>
-      <c r="NV102" t="inlineStr"/>
-      <c r="NW102" t="inlineStr"/>
-      <c r="NX102" t="inlineStr"/>
-      <c r="NY102" t="inlineStr"/>
-      <c r="NZ102" t="inlineStr"/>
-      <c r="OA102" t="inlineStr"/>
-      <c r="OB102" t="inlineStr"/>
-      <c r="OC102" t="inlineStr"/>
-      <c r="OD102" t="inlineStr"/>
-      <c r="OE102" t="inlineStr"/>
-      <c r="OF102" t="inlineStr"/>
-      <c r="OG102" t="inlineStr"/>
-      <c r="OH102" t="inlineStr"/>
-      <c r="OI102" t="inlineStr"/>
-      <c r="OJ102" t="inlineStr"/>
-      <c r="OK102" t="inlineStr"/>
-      <c r="OL102" t="inlineStr"/>
-      <c r="OM102" t="inlineStr"/>
-      <c r="ON102" t="inlineStr"/>
-      <c r="OO102" t="inlineStr"/>
-      <c r="OP102" t="inlineStr"/>
-      <c r="OQ102" t="inlineStr"/>
-      <c r="OR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -45445,12 +45144,6 @@
           <t>type02</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>0</t>
@@ -45506,7 +45199,6 @@
           <t>3.78</t>
         </is>
       </c>
-      <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr">
         <is>
           <t>3.87</t>
@@ -45552,20 +45244,11 @@
           <t>3.88</t>
         </is>
       </c>
-      <c r="AC103" t="inlineStr"/>
-      <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr"/>
-      <c r="AF103" t="inlineStr"/>
-      <c r="AG103" t="inlineStr"/>
-      <c r="AH103" t="inlineStr"/>
-      <c r="AI103" t="inlineStr"/>
-      <c r="AJ103" t="inlineStr"/>
       <c r="AK103" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="AL103" t="inlineStr"/>
       <c r="AM103" t="inlineStr">
         <is>
           <t>106</t>
@@ -45611,7 +45294,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="AV103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
           <t>2</t>
@@ -45657,15 +45339,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="BF103" t="inlineStr"/>
-      <c r="BG103" t="inlineStr"/>
-      <c r="BH103" t="inlineStr"/>
-      <c r="BI103" t="inlineStr"/>
-      <c r="BJ103" t="inlineStr"/>
-      <c r="BK103" t="inlineStr"/>
-      <c r="BL103" t="inlineStr"/>
-      <c r="BM103" t="inlineStr"/>
-      <c r="BN103" t="inlineStr"/>
       <c r="BO103" t="inlineStr">
         <is>
           <t>0</t>
@@ -45721,7 +45394,6 @@
           <t>3.25</t>
         </is>
       </c>
-      <c r="BZ103" t="inlineStr"/>
       <c r="CA103" t="inlineStr">
         <is>
           <t>3.25</t>
@@ -45767,20 +45439,11 @@
           <t>3.20</t>
         </is>
       </c>
-      <c r="CJ103" t="inlineStr"/>
-      <c r="CK103" t="inlineStr"/>
-      <c r="CL103" t="inlineStr"/>
-      <c r="CM103" t="inlineStr"/>
-      <c r="CN103" t="inlineStr"/>
-      <c r="CO103" t="inlineStr"/>
-      <c r="CP103" t="inlineStr"/>
-      <c r="CQ103" t="inlineStr"/>
       <c r="CR103" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="CS103" t="inlineStr"/>
       <c r="CT103" t="inlineStr">
         <is>
           <t>100</t>
@@ -45826,7 +45489,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="DC103" t="inlineStr"/>
       <c r="DD103" t="inlineStr">
         <is>
           <t>0</t>
@@ -45872,29 +45534,6 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="DM103" t="inlineStr"/>
-      <c r="DN103" t="inlineStr"/>
-      <c r="DO103" t="inlineStr"/>
-      <c r="DP103" t="inlineStr"/>
-      <c r="DQ103" t="inlineStr"/>
-      <c r="DR103" t="inlineStr"/>
-      <c r="DS103" t="inlineStr"/>
-      <c r="DT103" t="inlineStr"/>
-      <c r="DU103" t="inlineStr"/>
-      <c r="DV103" t="inlineStr"/>
-      <c r="DW103" t="inlineStr"/>
-      <c r="DX103" t="inlineStr"/>
-      <c r="DY103" t="inlineStr"/>
-      <c r="DZ103" t="inlineStr"/>
-      <c r="EA103" t="inlineStr"/>
-      <c r="EB103" t="inlineStr"/>
-      <c r="EC103" t="inlineStr"/>
-      <c r="ED103" t="inlineStr"/>
-      <c r="EE103" t="inlineStr"/>
-      <c r="EF103" t="inlineStr"/>
-      <c r="EG103" t="inlineStr"/>
-      <c r="EH103" t="inlineStr"/>
-      <c r="EI103" t="inlineStr"/>
       <c r="EJ103" t="inlineStr">
         <is>
           <t>3.56</t>
@@ -45940,13 +45579,11 @@
           <t>3.04</t>
         </is>
       </c>
-      <c r="ES103" t="inlineStr"/>
       <c r="ET103" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="EU103" t="inlineStr"/>
       <c r="EV103" t="inlineStr">
         <is>
           <t>88</t>
@@ -45992,26 +45629,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="FE103" t="inlineStr"/>
-      <c r="FF103" t="inlineStr"/>
-      <c r="FG103" t="inlineStr"/>
-      <c r="FH103" t="inlineStr"/>
-      <c r="FI103" t="inlineStr"/>
-      <c r="FJ103" t="inlineStr"/>
-      <c r="FK103" t="inlineStr"/>
-      <c r="FL103" t="inlineStr"/>
-      <c r="FM103" t="inlineStr"/>
-      <c r="FN103" t="inlineStr"/>
-      <c r="FO103" t="inlineStr"/>
-      <c r="FP103" t="inlineStr"/>
-      <c r="FQ103" t="inlineStr"/>
-      <c r="FR103" t="inlineStr"/>
-      <c r="FS103" t="inlineStr"/>
-      <c r="FT103" t="inlineStr"/>
-      <c r="FU103" t="inlineStr"/>
-      <c r="FV103" t="inlineStr"/>
-      <c r="FW103" t="inlineStr"/>
-      <c r="FX103" t="inlineStr"/>
       <c r="FY103" t="inlineStr">
         <is>
           <t>-2</t>
@@ -46057,48 +45674,6 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="GH103" t="inlineStr"/>
-      <c r="GI103" t="inlineStr"/>
-      <c r="GJ103" t="inlineStr"/>
-      <c r="GK103" t="inlineStr"/>
-      <c r="GL103" t="inlineStr"/>
-      <c r="GM103" t="inlineStr"/>
-      <c r="GN103" t="inlineStr"/>
-      <c r="GO103" t="inlineStr"/>
-      <c r="GP103" t="inlineStr"/>
-      <c r="GQ103" t="inlineStr"/>
-      <c r="GR103" t="inlineStr"/>
-      <c r="GS103" t="inlineStr"/>
-      <c r="GT103" t="inlineStr"/>
-      <c r="GU103" t="inlineStr"/>
-      <c r="GV103" t="inlineStr"/>
-      <c r="GW103" t="inlineStr"/>
-      <c r="GX103" t="inlineStr"/>
-      <c r="GY103" t="inlineStr"/>
-      <c r="GZ103" t="inlineStr"/>
-      <c r="HA103" t="inlineStr"/>
-      <c r="HB103" t="inlineStr"/>
-      <c r="HC103" t="inlineStr"/>
-      <c r="HD103" t="inlineStr"/>
-      <c r="HE103" t="inlineStr"/>
-      <c r="HF103" t="inlineStr"/>
-      <c r="HG103" t="inlineStr"/>
-      <c r="HH103" t="inlineStr"/>
-      <c r="HI103" t="inlineStr"/>
-      <c r="HJ103" t="inlineStr"/>
-      <c r="HK103" t="inlineStr"/>
-      <c r="HL103" t="inlineStr"/>
-      <c r="HM103" t="inlineStr"/>
-      <c r="HN103" t="inlineStr"/>
-      <c r="HO103" t="inlineStr"/>
-      <c r="HP103" t="inlineStr"/>
-      <c r="HQ103" t="inlineStr"/>
-      <c r="HR103" t="inlineStr"/>
-      <c r="HS103" t="inlineStr"/>
-      <c r="HT103" t="inlineStr"/>
-      <c r="HU103" t="inlineStr"/>
-      <c r="HV103" t="inlineStr"/>
-      <c r="HW103" t="inlineStr"/>
       <c r="HX103" t="inlineStr">
         <is>
           <t>0</t>
@@ -46154,7 +45729,6 @@
           <t>7.19</t>
         </is>
       </c>
-      <c r="II103" t="inlineStr"/>
       <c r="IJ103" t="inlineStr">
         <is>
           <t>7.04</t>
@@ -46200,20 +45774,11 @@
           <t>6.47</t>
         </is>
       </c>
-      <c r="IS103" t="inlineStr"/>
-      <c r="IT103" t="inlineStr"/>
-      <c r="IU103" t="inlineStr"/>
-      <c r="IV103" t="inlineStr"/>
-      <c r="IW103" t="inlineStr"/>
-      <c r="IX103" t="inlineStr"/>
-      <c r="IY103" t="inlineStr"/>
-      <c r="IZ103" t="inlineStr"/>
       <c r="JA103" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="JB103" t="inlineStr"/>
       <c r="JC103" t="inlineStr">
         <is>
           <t>107</t>
@@ -46259,7 +45824,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="JL103" t="inlineStr"/>
       <c r="JM103" t="inlineStr">
         <is>
           <t>-2</t>
@@ -46305,133 +45869,6 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="JV103" t="inlineStr"/>
-      <c r="JW103" t="inlineStr"/>
-      <c r="JX103" t="inlineStr"/>
-      <c r="JY103" t="inlineStr"/>
-      <c r="JZ103" t="inlineStr"/>
-      <c r="KA103" t="inlineStr"/>
-      <c r="KB103" t="inlineStr"/>
-      <c r="KC103" t="inlineStr"/>
-      <c r="KD103" t="inlineStr"/>
-      <c r="KE103" t="inlineStr"/>
-      <c r="KF103" t="inlineStr"/>
-      <c r="KG103" t="inlineStr"/>
-      <c r="KH103" t="inlineStr"/>
-      <c r="KI103" t="inlineStr"/>
-      <c r="KJ103" t="inlineStr"/>
-      <c r="KK103" t="inlineStr"/>
-      <c r="KL103" t="inlineStr"/>
-      <c r="KM103" t="inlineStr"/>
-      <c r="KN103" t="inlineStr"/>
-      <c r="KO103" t="inlineStr"/>
-      <c r="KP103" t="inlineStr"/>
-      <c r="KQ103" t="inlineStr"/>
-      <c r="KR103" t="inlineStr"/>
-      <c r="KS103" t="inlineStr"/>
-      <c r="KT103" t="inlineStr"/>
-      <c r="KU103" t="inlineStr"/>
-      <c r="KV103" t="inlineStr"/>
-      <c r="KW103" t="inlineStr"/>
-      <c r="KX103" t="inlineStr"/>
-      <c r="KY103" t="inlineStr"/>
-      <c r="KZ103" t="inlineStr"/>
-      <c r="LA103" t="inlineStr"/>
-      <c r="LB103" t="inlineStr"/>
-      <c r="LC103" t="inlineStr"/>
-      <c r="LD103" t="inlineStr"/>
-      <c r="LE103" t="inlineStr"/>
-      <c r="LF103" t="inlineStr"/>
-      <c r="LG103" t="inlineStr"/>
-      <c r="LH103" t="inlineStr"/>
-      <c r="LI103" t="inlineStr"/>
-      <c r="LJ103" t="inlineStr"/>
-      <c r="LK103" t="inlineStr"/>
-      <c r="LL103" t="inlineStr"/>
-      <c r="LM103" t="inlineStr"/>
-      <c r="LN103" t="inlineStr"/>
-      <c r="LO103" t="inlineStr"/>
-      <c r="LP103" t="inlineStr"/>
-      <c r="LQ103" t="inlineStr"/>
-      <c r="LR103" t="inlineStr"/>
-      <c r="LS103" t="inlineStr"/>
-      <c r="LT103" t="inlineStr"/>
-      <c r="LU103" t="inlineStr"/>
-      <c r="LV103" t="inlineStr"/>
-      <c r="LW103" t="inlineStr"/>
-      <c r="LX103" t="inlineStr"/>
-      <c r="LY103" t="inlineStr"/>
-      <c r="LZ103" t="inlineStr"/>
-      <c r="MA103" t="inlineStr"/>
-      <c r="MB103" t="inlineStr"/>
-      <c r="MC103" t="inlineStr"/>
-      <c r="MD103" t="inlineStr"/>
-      <c r="ME103" t="inlineStr"/>
-      <c r="MF103" t="inlineStr"/>
-      <c r="MG103" t="inlineStr"/>
-      <c r="MH103" t="inlineStr"/>
-      <c r="MI103" t="inlineStr"/>
-      <c r="MJ103" t="inlineStr"/>
-      <c r="MK103" t="inlineStr"/>
-      <c r="ML103" t="inlineStr"/>
-      <c r="MM103" t="inlineStr"/>
-      <c r="MN103" t="inlineStr"/>
-      <c r="MO103" t="inlineStr"/>
-      <c r="MP103" t="inlineStr"/>
-      <c r="MQ103" t="inlineStr"/>
-      <c r="MR103" t="inlineStr"/>
-      <c r="MS103" t="inlineStr"/>
-      <c r="MT103" t="inlineStr"/>
-      <c r="MU103" t="inlineStr"/>
-      <c r="MV103" t="inlineStr"/>
-      <c r="MW103" t="inlineStr"/>
-      <c r="MX103" t="inlineStr"/>
-      <c r="MY103" t="inlineStr"/>
-      <c r="MZ103" t="inlineStr"/>
-      <c r="NA103" t="inlineStr"/>
-      <c r="NB103" t="inlineStr"/>
-      <c r="NC103" t="inlineStr"/>
-      <c r="ND103" t="inlineStr"/>
-      <c r="NE103" t="inlineStr"/>
-      <c r="NF103" t="inlineStr"/>
-      <c r="NG103" t="inlineStr"/>
-      <c r="NH103" t="inlineStr"/>
-      <c r="NI103" t="inlineStr"/>
-      <c r="NJ103" t="inlineStr"/>
-      <c r="NK103" t="inlineStr"/>
-      <c r="NL103" t="inlineStr"/>
-      <c r="NM103" t="inlineStr"/>
-      <c r="NN103" t="inlineStr"/>
-      <c r="NO103" t="inlineStr"/>
-      <c r="NP103" t="inlineStr"/>
-      <c r="NQ103" t="inlineStr"/>
-      <c r="NR103" t="inlineStr"/>
-      <c r="NS103" t="inlineStr"/>
-      <c r="NT103" t="inlineStr"/>
-      <c r="NU103" t="inlineStr"/>
-      <c r="NV103" t="inlineStr"/>
-      <c r="NW103" t="inlineStr"/>
-      <c r="NX103" t="inlineStr"/>
-      <c r="NY103" t="inlineStr"/>
-      <c r="NZ103" t="inlineStr"/>
-      <c r="OA103" t="inlineStr"/>
-      <c r="OB103" t="inlineStr"/>
-      <c r="OC103" t="inlineStr"/>
-      <c r="OD103" t="inlineStr"/>
-      <c r="OE103" t="inlineStr"/>
-      <c r="OF103" t="inlineStr"/>
-      <c r="OG103" t="inlineStr"/>
-      <c r="OH103" t="inlineStr"/>
-      <c r="OI103" t="inlineStr"/>
-      <c r="OJ103" t="inlineStr"/>
-      <c r="OK103" t="inlineStr"/>
-      <c r="OL103" t="inlineStr"/>
-      <c r="OM103" t="inlineStr"/>
-      <c r="ON103" t="inlineStr"/>
-      <c r="OO103" t="inlineStr"/>
-      <c r="OP103" t="inlineStr"/>
-      <c r="OQ103" t="inlineStr"/>
-      <c r="OR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -46439,381 +45876,6 @@
           <t>type03</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
-      <c r="AD104" t="inlineStr"/>
-      <c r="AE104" t="inlineStr"/>
-      <c r="AF104" t="inlineStr"/>
-      <c r="AG104" t="inlineStr"/>
-      <c r="AH104" t="inlineStr"/>
-      <c r="AI104" t="inlineStr"/>
-      <c r="AJ104" t="inlineStr"/>
-      <c r="AK104" t="inlineStr"/>
-      <c r="AL104" t="inlineStr"/>
-      <c r="AM104" t="inlineStr"/>
-      <c r="AN104" t="inlineStr"/>
-      <c r="AO104" t="inlineStr"/>
-      <c r="AP104" t="inlineStr"/>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
-      <c r="AS104" t="inlineStr"/>
-      <c r="AT104" t="inlineStr"/>
-      <c r="AU104" t="inlineStr"/>
-      <c r="AV104" t="inlineStr"/>
-      <c r="AW104" t="inlineStr"/>
-      <c r="AX104" t="inlineStr"/>
-      <c r="AY104" t="inlineStr"/>
-      <c r="AZ104" t="inlineStr"/>
-      <c r="BA104" t="inlineStr"/>
-      <c r="BB104" t="inlineStr"/>
-      <c r="BC104" t="inlineStr"/>
-      <c r="BD104" t="inlineStr"/>
-      <c r="BE104" t="inlineStr"/>
-      <c r="BF104" t="inlineStr"/>
-      <c r="BG104" t="inlineStr"/>
-      <c r="BH104" t="inlineStr"/>
-      <c r="BI104" t="inlineStr"/>
-      <c r="BJ104" t="inlineStr"/>
-      <c r="BK104" t="inlineStr"/>
-      <c r="BL104" t="inlineStr"/>
-      <c r="BM104" t="inlineStr"/>
-      <c r="BN104" t="inlineStr"/>
-      <c r="BO104" t="inlineStr"/>
-      <c r="BP104" t="inlineStr"/>
-      <c r="BQ104" t="inlineStr"/>
-      <c r="BR104" t="inlineStr"/>
-      <c r="BS104" t="inlineStr"/>
-      <c r="BT104" t="inlineStr"/>
-      <c r="BU104" t="inlineStr"/>
-      <c r="BV104" t="inlineStr"/>
-      <c r="BW104" t="inlineStr"/>
-      <c r="BX104" t="inlineStr"/>
-      <c r="BY104" t="inlineStr"/>
-      <c r="BZ104" t="inlineStr"/>
-      <c r="CA104" t="inlineStr"/>
-      <c r="CB104" t="inlineStr"/>
-      <c r="CC104" t="inlineStr"/>
-      <c r="CD104" t="inlineStr"/>
-      <c r="CE104" t="inlineStr"/>
-      <c r="CF104" t="inlineStr"/>
-      <c r="CG104" t="inlineStr"/>
-      <c r="CH104" t="inlineStr"/>
-      <c r="CI104" t="inlineStr"/>
-      <c r="CJ104" t="inlineStr"/>
-      <c r="CK104" t="inlineStr"/>
-      <c r="CL104" t="inlineStr"/>
-      <c r="CM104" t="inlineStr"/>
-      <c r="CN104" t="inlineStr"/>
-      <c r="CO104" t="inlineStr"/>
-      <c r="CP104" t="inlineStr"/>
-      <c r="CQ104" t="inlineStr"/>
-      <c r="CR104" t="inlineStr"/>
-      <c r="CS104" t="inlineStr"/>
-      <c r="CT104" t="inlineStr"/>
-      <c r="CU104" t="inlineStr"/>
-      <c r="CV104" t="inlineStr"/>
-      <c r="CW104" t="inlineStr"/>
-      <c r="CX104" t="inlineStr"/>
-      <c r="CY104" t="inlineStr"/>
-      <c r="CZ104" t="inlineStr"/>
-      <c r="DA104" t="inlineStr"/>
-      <c r="DB104" t="inlineStr"/>
-      <c r="DC104" t="inlineStr"/>
-      <c r="DD104" t="inlineStr"/>
-      <c r="DE104" t="inlineStr"/>
-      <c r="DF104" t="inlineStr"/>
-      <c r="DG104" t="inlineStr"/>
-      <c r="DH104" t="inlineStr"/>
-      <c r="DI104" t="inlineStr"/>
-      <c r="DJ104" t="inlineStr"/>
-      <c r="DK104" t="inlineStr"/>
-      <c r="DL104" t="inlineStr"/>
-      <c r="DM104" t="inlineStr"/>
-      <c r="DN104" t="inlineStr"/>
-      <c r="DO104" t="inlineStr"/>
-      <c r="DP104" t="inlineStr"/>
-      <c r="DQ104" t="inlineStr"/>
-      <c r="DR104" t="inlineStr"/>
-      <c r="DS104" t="inlineStr"/>
-      <c r="DT104" t="inlineStr"/>
-      <c r="DU104" t="inlineStr"/>
-      <c r="DV104" t="inlineStr"/>
-      <c r="DW104" t="inlineStr"/>
-      <c r="DX104" t="inlineStr"/>
-      <c r="DY104" t="inlineStr"/>
-      <c r="DZ104" t="inlineStr"/>
-      <c r="EA104" t="inlineStr"/>
-      <c r="EB104" t="inlineStr"/>
-      <c r="EC104" t="inlineStr"/>
-      <c r="ED104" t="inlineStr"/>
-      <c r="EE104" t="inlineStr"/>
-      <c r="EF104" t="inlineStr"/>
-      <c r="EG104" t="inlineStr"/>
-      <c r="EH104" t="inlineStr"/>
-      <c r="EI104" t="inlineStr"/>
-      <c r="EJ104" t="inlineStr"/>
-      <c r="EK104" t="inlineStr"/>
-      <c r="EL104" t="inlineStr"/>
-      <c r="EM104" t="inlineStr"/>
-      <c r="EN104" t="inlineStr"/>
-      <c r="EO104" t="inlineStr"/>
-      <c r="EP104" t="inlineStr"/>
-      <c r="EQ104" t="inlineStr"/>
-      <c r="ER104" t="inlineStr"/>
-      <c r="ES104" t="inlineStr"/>
-      <c r="ET104" t="inlineStr"/>
-      <c r="EU104" t="inlineStr"/>
-      <c r="EV104" t="inlineStr"/>
-      <c r="EW104" t="inlineStr"/>
-      <c r="EX104" t="inlineStr"/>
-      <c r="EY104" t="inlineStr"/>
-      <c r="EZ104" t="inlineStr"/>
-      <c r="FA104" t="inlineStr"/>
-      <c r="FB104" t="inlineStr"/>
-      <c r="FC104" t="inlineStr"/>
-      <c r="FD104" t="inlineStr"/>
-      <c r="FE104" t="inlineStr"/>
-      <c r="FF104" t="inlineStr"/>
-      <c r="FG104" t="inlineStr"/>
-      <c r="FH104" t="inlineStr"/>
-      <c r="FI104" t="inlineStr"/>
-      <c r="FJ104" t="inlineStr"/>
-      <c r="FK104" t="inlineStr"/>
-      <c r="FL104" t="inlineStr"/>
-      <c r="FM104" t="inlineStr"/>
-      <c r="FN104" t="inlineStr"/>
-      <c r="FO104" t="inlineStr"/>
-      <c r="FP104" t="inlineStr"/>
-      <c r="FQ104" t="inlineStr"/>
-      <c r="FR104" t="inlineStr"/>
-      <c r="FS104" t="inlineStr"/>
-      <c r="FT104" t="inlineStr"/>
-      <c r="FU104" t="inlineStr"/>
-      <c r="FV104" t="inlineStr"/>
-      <c r="FW104" t="inlineStr"/>
-      <c r="FX104" t="inlineStr"/>
-      <c r="FY104" t="inlineStr"/>
-      <c r="FZ104" t="inlineStr"/>
-      <c r="GA104" t="inlineStr"/>
-      <c r="GB104" t="inlineStr"/>
-      <c r="GC104" t="inlineStr"/>
-      <c r="GD104" t="inlineStr"/>
-      <c r="GE104" t="inlineStr"/>
-      <c r="GF104" t="inlineStr"/>
-      <c r="GG104" t="inlineStr"/>
-      <c r="GH104" t="inlineStr"/>
-      <c r="GI104" t="inlineStr"/>
-      <c r="GJ104" t="inlineStr"/>
-      <c r="GK104" t="inlineStr"/>
-      <c r="GL104" t="inlineStr"/>
-      <c r="GM104" t="inlineStr"/>
-      <c r="GN104" t="inlineStr"/>
-      <c r="GO104" t="inlineStr"/>
-      <c r="GP104" t="inlineStr"/>
-      <c r="GQ104" t="inlineStr"/>
-      <c r="GR104" t="inlineStr"/>
-      <c r="GS104" t="inlineStr"/>
-      <c r="GT104" t="inlineStr"/>
-      <c r="GU104" t="inlineStr"/>
-      <c r="GV104" t="inlineStr"/>
-      <c r="GW104" t="inlineStr"/>
-      <c r="GX104" t="inlineStr"/>
-      <c r="GY104" t="inlineStr"/>
-      <c r="GZ104" t="inlineStr"/>
-      <c r="HA104" t="inlineStr"/>
-      <c r="HB104" t="inlineStr"/>
-      <c r="HC104" t="inlineStr"/>
-      <c r="HD104" t="inlineStr"/>
-      <c r="HE104" t="inlineStr"/>
-      <c r="HF104" t="inlineStr"/>
-      <c r="HG104" t="inlineStr"/>
-      <c r="HH104" t="inlineStr"/>
-      <c r="HI104" t="inlineStr"/>
-      <c r="HJ104" t="inlineStr"/>
-      <c r="HK104" t="inlineStr"/>
-      <c r="HL104" t="inlineStr"/>
-      <c r="HM104" t="inlineStr"/>
-      <c r="HN104" t="inlineStr"/>
-      <c r="HO104" t="inlineStr"/>
-      <c r="HP104" t="inlineStr"/>
-      <c r="HQ104" t="inlineStr"/>
-      <c r="HR104" t="inlineStr"/>
-      <c r="HS104" t="inlineStr"/>
-      <c r="HT104" t="inlineStr"/>
-      <c r="HU104" t="inlineStr"/>
-      <c r="HV104" t="inlineStr"/>
-      <c r="HW104" t="inlineStr"/>
-      <c r="HX104" t="inlineStr"/>
-      <c r="HY104" t="inlineStr"/>
-      <c r="HZ104" t="inlineStr"/>
-      <c r="IA104" t="inlineStr"/>
-      <c r="IB104" t="inlineStr"/>
-      <c r="IC104" t="inlineStr"/>
-      <c r="ID104" t="inlineStr"/>
-      <c r="IE104" t="inlineStr"/>
-      <c r="IF104" t="inlineStr"/>
-      <c r="IG104" t="inlineStr"/>
-      <c r="IH104" t="inlineStr"/>
-      <c r="II104" t="inlineStr"/>
-      <c r="IJ104" t="inlineStr"/>
-      <c r="IK104" t="inlineStr"/>
-      <c r="IL104" t="inlineStr"/>
-      <c r="IM104" t="inlineStr"/>
-      <c r="IN104" t="inlineStr"/>
-      <c r="IO104" t="inlineStr"/>
-      <c r="IP104" t="inlineStr"/>
-      <c r="IQ104" t="inlineStr"/>
-      <c r="IR104" t="inlineStr"/>
-      <c r="IS104" t="inlineStr"/>
-      <c r="IT104" t="inlineStr"/>
-      <c r="IU104" t="inlineStr"/>
-      <c r="IV104" t="inlineStr"/>
-      <c r="IW104" t="inlineStr"/>
-      <c r="IX104" t="inlineStr"/>
-      <c r="IY104" t="inlineStr"/>
-      <c r="IZ104" t="inlineStr"/>
-      <c r="JA104" t="inlineStr"/>
-      <c r="JB104" t="inlineStr"/>
-      <c r="JC104" t="inlineStr"/>
-      <c r="JD104" t="inlineStr"/>
-      <c r="JE104" t="inlineStr"/>
-      <c r="JF104" t="inlineStr"/>
-      <c r="JG104" t="inlineStr"/>
-      <c r="JH104" t="inlineStr"/>
-      <c r="JI104" t="inlineStr"/>
-      <c r="JJ104" t="inlineStr"/>
-      <c r="JK104" t="inlineStr"/>
-      <c r="JL104" t="inlineStr"/>
-      <c r="JM104" t="inlineStr"/>
-      <c r="JN104" t="inlineStr"/>
-      <c r="JO104" t="inlineStr"/>
-      <c r="JP104" t="inlineStr"/>
-      <c r="JQ104" t="inlineStr"/>
-      <c r="JR104" t="inlineStr"/>
-      <c r="JS104" t="inlineStr"/>
-      <c r="JT104" t="inlineStr"/>
-      <c r="JU104" t="inlineStr"/>
-      <c r="JV104" t="inlineStr"/>
-      <c r="JW104" t="inlineStr"/>
-      <c r="JX104" t="inlineStr"/>
-      <c r="JY104" t="inlineStr"/>
-      <c r="JZ104" t="inlineStr"/>
-      <c r="KA104" t="inlineStr"/>
-      <c r="KB104" t="inlineStr"/>
-      <c r="KC104" t="inlineStr"/>
-      <c r="KD104" t="inlineStr"/>
-      <c r="KE104" t="inlineStr"/>
-      <c r="KF104" t="inlineStr"/>
-      <c r="KG104" t="inlineStr"/>
-      <c r="KH104" t="inlineStr"/>
-      <c r="KI104" t="inlineStr"/>
-      <c r="KJ104" t="inlineStr"/>
-      <c r="KK104" t="inlineStr"/>
-      <c r="KL104" t="inlineStr"/>
-      <c r="KM104" t="inlineStr"/>
-      <c r="KN104" t="inlineStr"/>
-      <c r="KO104" t="inlineStr"/>
-      <c r="KP104" t="inlineStr"/>
-      <c r="KQ104" t="inlineStr"/>
-      <c r="KR104" t="inlineStr"/>
-      <c r="KS104" t="inlineStr"/>
-      <c r="KT104" t="inlineStr"/>
-      <c r="KU104" t="inlineStr"/>
-      <c r="KV104" t="inlineStr"/>
-      <c r="KW104" t="inlineStr"/>
-      <c r="KX104" t="inlineStr"/>
-      <c r="KY104" t="inlineStr"/>
-      <c r="KZ104" t="inlineStr"/>
-      <c r="LA104" t="inlineStr"/>
-      <c r="LB104" t="inlineStr"/>
-      <c r="LC104" t="inlineStr"/>
-      <c r="LD104" t="inlineStr"/>
-      <c r="LE104" t="inlineStr"/>
-      <c r="LF104" t="inlineStr"/>
-      <c r="LG104" t="inlineStr"/>
-      <c r="LH104" t="inlineStr"/>
-      <c r="LI104" t="inlineStr"/>
-      <c r="LJ104" t="inlineStr"/>
-      <c r="LK104" t="inlineStr"/>
-      <c r="LL104" t="inlineStr"/>
-      <c r="LM104" t="inlineStr"/>
-      <c r="LN104" t="inlineStr"/>
-      <c r="LO104" t="inlineStr"/>
-      <c r="LP104" t="inlineStr"/>
-      <c r="LQ104" t="inlineStr"/>
-      <c r="LR104" t="inlineStr"/>
-      <c r="LS104" t="inlineStr"/>
-      <c r="LT104" t="inlineStr"/>
-      <c r="LU104" t="inlineStr"/>
-      <c r="LV104" t="inlineStr"/>
-      <c r="LW104" t="inlineStr"/>
-      <c r="LX104" t="inlineStr"/>
-      <c r="LY104" t="inlineStr"/>
-      <c r="LZ104" t="inlineStr"/>
-      <c r="MA104" t="inlineStr"/>
-      <c r="MB104" t="inlineStr"/>
-      <c r="MC104" t="inlineStr"/>
-      <c r="MD104" t="inlineStr"/>
-      <c r="ME104" t="inlineStr"/>
-      <c r="MF104" t="inlineStr"/>
-      <c r="MG104" t="inlineStr"/>
-      <c r="MH104" t="inlineStr"/>
-      <c r="MI104" t="inlineStr"/>
-      <c r="MJ104" t="inlineStr"/>
-      <c r="MK104" t="inlineStr"/>
-      <c r="ML104" t="inlineStr"/>
-      <c r="MM104" t="inlineStr"/>
-      <c r="MN104" t="inlineStr"/>
-      <c r="MO104" t="inlineStr"/>
-      <c r="MP104" t="inlineStr"/>
-      <c r="MQ104" t="inlineStr"/>
-      <c r="MR104" t="inlineStr"/>
-      <c r="MS104" t="inlineStr"/>
-      <c r="MT104" t="inlineStr"/>
-      <c r="MU104" t="inlineStr"/>
-      <c r="MV104" t="inlineStr"/>
-      <c r="MW104" t="inlineStr"/>
-      <c r="MX104" t="inlineStr"/>
-      <c r="MY104" t="inlineStr"/>
-      <c r="MZ104" t="inlineStr"/>
-      <c r="NA104" t="inlineStr"/>
-      <c r="NB104" t="inlineStr"/>
-      <c r="NC104" t="inlineStr"/>
-      <c r="ND104" t="inlineStr"/>
-      <c r="NE104" t="inlineStr"/>
-      <c r="NF104" t="inlineStr"/>
-      <c r="NG104" t="inlineStr"/>
-      <c r="NH104" t="inlineStr"/>
-      <c r="NI104" t="inlineStr"/>
-      <c r="NJ104" t="inlineStr"/>
-      <c r="NK104" t="inlineStr"/>
-      <c r="NL104" t="inlineStr"/>
       <c r="NM104" t="inlineStr">
         <is>
           <t>14.5</t>
@@ -46889,23 +45951,6 @@
           <t>1000</t>
         </is>
       </c>
-      <c r="OB104" t="inlineStr"/>
-      <c r="OC104" t="inlineStr"/>
-      <c r="OD104" t="inlineStr"/>
-      <c r="OE104" t="inlineStr"/>
-      <c r="OF104" t="inlineStr"/>
-      <c r="OG104" t="inlineStr"/>
-      <c r="OH104" t="inlineStr"/>
-      <c r="OI104" t="inlineStr"/>
-      <c r="OJ104" t="inlineStr"/>
-      <c r="OK104" t="inlineStr"/>
-      <c r="OL104" t="inlineStr"/>
-      <c r="OM104" t="inlineStr"/>
-      <c r="ON104" t="inlineStr"/>
-      <c r="OO104" t="inlineStr"/>
-      <c r="OP104" t="inlineStr"/>
-      <c r="OQ104" t="inlineStr"/>
-      <c r="OR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -46913,21 +45958,6 @@
           <t>type04</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr">
         <is>
           <t>4.44</t>
@@ -46943,23 +45973,6 @@
           <t>3.54</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
-      <c r="AF105" t="inlineStr"/>
-      <c r="AG105" t="inlineStr"/>
-      <c r="AH105" t="inlineStr"/>
-      <c r="AI105" t="inlineStr"/>
-      <c r="AJ105" t="inlineStr"/>
       <c r="AK105" t="inlineStr">
         <is>
           <t>77</t>
@@ -46970,32 +45983,11 @@
           <t>80</t>
         </is>
       </c>
-      <c r="AM105" t="inlineStr"/>
-      <c r="AN105" t="inlineStr"/>
-      <c r="AO105" t="inlineStr"/>
-      <c r="AP105" t="inlineStr"/>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="inlineStr"/>
-      <c r="AT105" t="inlineStr"/>
-      <c r="AU105" t="inlineStr"/>
       <c r="AV105" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AW105" t="inlineStr"/>
-      <c r="AX105" t="inlineStr"/>
-      <c r="AY105" t="inlineStr"/>
-      <c r="AZ105" t="inlineStr"/>
-      <c r="BA105" t="inlineStr"/>
-      <c r="BB105" t="inlineStr"/>
-      <c r="BC105" t="inlineStr"/>
-      <c r="BD105" t="inlineStr"/>
-      <c r="BE105" t="inlineStr"/>
-      <c r="BF105" t="inlineStr"/>
-      <c r="BG105" t="inlineStr"/>
-      <c r="BH105" t="inlineStr"/>
       <c r="BI105" t="inlineStr">
         <is>
           <t>1.77</t>
@@ -47026,15 +46018,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="BO105" t="inlineStr"/>
-      <c r="BP105" t="inlineStr"/>
-      <c r="BQ105" t="inlineStr"/>
-      <c r="BR105" t="inlineStr"/>
-      <c r="BS105" t="inlineStr"/>
-      <c r="BT105" t="inlineStr"/>
-      <c r="BU105" t="inlineStr"/>
-      <c r="BV105" t="inlineStr"/>
-      <c r="BW105" t="inlineStr"/>
       <c r="BX105" t="inlineStr">
         <is>
           <t>2.93</t>
@@ -47050,23 +46033,6 @@
           <t>2.72</t>
         </is>
       </c>
-      <c r="CA105" t="inlineStr"/>
-      <c r="CB105" t="inlineStr"/>
-      <c r="CC105" t="inlineStr"/>
-      <c r="CD105" t="inlineStr"/>
-      <c r="CE105" t="inlineStr"/>
-      <c r="CF105" t="inlineStr"/>
-      <c r="CG105" t="inlineStr"/>
-      <c r="CH105" t="inlineStr"/>
-      <c r="CI105" t="inlineStr"/>
-      <c r="CJ105" t="inlineStr"/>
-      <c r="CK105" t="inlineStr"/>
-      <c r="CL105" t="inlineStr"/>
-      <c r="CM105" t="inlineStr"/>
-      <c r="CN105" t="inlineStr"/>
-      <c r="CO105" t="inlineStr"/>
-      <c r="CP105" t="inlineStr"/>
-      <c r="CQ105" t="inlineStr"/>
       <c r="CR105" t="inlineStr">
         <is>
           <t>83</t>
@@ -47077,34 +46043,11 @@
           <t>93</t>
         </is>
       </c>
-      <c r="CT105" t="inlineStr"/>
-      <c r="CU105" t="inlineStr"/>
-      <c r="CV105" t="inlineStr"/>
-      <c r="CW105" t="inlineStr"/>
-      <c r="CX105" t="inlineStr"/>
-      <c r="CY105" t="inlineStr"/>
-      <c r="CZ105" t="inlineStr"/>
-      <c r="DA105" t="inlineStr"/>
-      <c r="DB105" t="inlineStr"/>
       <c r="DC105" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="DD105" t="inlineStr"/>
-      <c r="DE105" t="inlineStr"/>
-      <c r="DF105" t="inlineStr"/>
-      <c r="DG105" t="inlineStr"/>
-      <c r="DH105" t="inlineStr"/>
-      <c r="DI105" t="inlineStr"/>
-      <c r="DJ105" t="inlineStr"/>
-      <c r="DK105" t="inlineStr"/>
-      <c r="DL105" t="inlineStr"/>
-      <c r="DM105" t="inlineStr"/>
-      <c r="DN105" t="inlineStr"/>
-      <c r="DO105" t="inlineStr"/>
-      <c r="DP105" t="inlineStr"/>
-      <c r="DQ105" t="inlineStr"/>
       <c r="DR105" t="inlineStr">
         <is>
           <t>69</t>
@@ -47120,15 +46063,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="DU105" t="inlineStr"/>
-      <c r="DV105" t="inlineStr"/>
-      <c r="DW105" t="inlineStr"/>
-      <c r="DX105" t="inlineStr"/>
-      <c r="DY105" t="inlineStr"/>
-      <c r="DZ105" t="inlineStr"/>
-      <c r="EA105" t="inlineStr"/>
-      <c r="EB105" t="inlineStr"/>
-      <c r="EC105" t="inlineStr"/>
       <c r="ED105" t="inlineStr">
         <is>
           <t>97</t>
@@ -47144,18 +46078,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="EG105" t="inlineStr"/>
-      <c r="EH105" t="inlineStr"/>
-      <c r="EI105" t="inlineStr"/>
-      <c r="EJ105" t="inlineStr"/>
-      <c r="EK105" t="inlineStr"/>
-      <c r="EL105" t="inlineStr"/>
-      <c r="EM105" t="inlineStr"/>
-      <c r="EN105" t="inlineStr"/>
-      <c r="EO105" t="inlineStr"/>
-      <c r="EP105" t="inlineStr"/>
-      <c r="EQ105" t="inlineStr"/>
-      <c r="ER105" t="inlineStr"/>
       <c r="ES105" t="inlineStr">
         <is>
           <t>2.26</t>
@@ -47171,23 +46093,6 @@
           <t>2.28</t>
         </is>
       </c>
-      <c r="EV105" t="inlineStr"/>
-      <c r="EW105" t="inlineStr"/>
-      <c r="EX105" t="inlineStr"/>
-      <c r="EY105" t="inlineStr"/>
-      <c r="EZ105" t="inlineStr"/>
-      <c r="FA105" t="inlineStr"/>
-      <c r="FB105" t="inlineStr"/>
-      <c r="FC105" t="inlineStr"/>
-      <c r="FD105" t="inlineStr"/>
-      <c r="FE105" t="inlineStr"/>
-      <c r="FF105" t="inlineStr"/>
-      <c r="FG105" t="inlineStr"/>
-      <c r="FH105" t="inlineStr"/>
-      <c r="FI105" t="inlineStr"/>
-      <c r="FJ105" t="inlineStr"/>
-      <c r="FK105" t="inlineStr"/>
-      <c r="FL105" t="inlineStr"/>
       <c r="FM105" t="inlineStr">
         <is>
           <t>63</t>
@@ -47198,38 +46103,11 @@
           <t>101</t>
         </is>
       </c>
-      <c r="FO105" t="inlineStr"/>
-      <c r="FP105" t="inlineStr"/>
-      <c r="FQ105" t="inlineStr"/>
-      <c r="FR105" t="inlineStr"/>
-      <c r="FS105" t="inlineStr"/>
-      <c r="FT105" t="inlineStr"/>
-      <c r="FU105" t="inlineStr"/>
-      <c r="FV105" t="inlineStr"/>
-      <c r="FW105" t="inlineStr"/>
       <c r="FX105" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="FY105" t="inlineStr"/>
-      <c r="FZ105" t="inlineStr"/>
-      <c r="GA105" t="inlineStr"/>
-      <c r="GB105" t="inlineStr"/>
-      <c r="GC105" t="inlineStr"/>
-      <c r="GD105" t="inlineStr"/>
-      <c r="GE105" t="inlineStr"/>
-      <c r="GF105" t="inlineStr"/>
-      <c r="GG105" t="inlineStr"/>
-      <c r="GH105" t="inlineStr"/>
-      <c r="GI105" t="inlineStr"/>
-      <c r="GJ105" t="inlineStr"/>
-      <c r="GK105" t="inlineStr"/>
-      <c r="GL105" t="inlineStr"/>
-      <c r="GM105" t="inlineStr"/>
-      <c r="GN105" t="inlineStr"/>
-      <c r="GO105" t="inlineStr"/>
-      <c r="GP105" t="inlineStr"/>
       <c r="GQ105" t="inlineStr">
         <is>
           <t>0.35</t>
@@ -47260,10 +46138,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="GW105" t="inlineStr"/>
-      <c r="GX105" t="inlineStr"/>
-      <c r="GY105" t="inlineStr"/>
-      <c r="GZ105" t="inlineStr"/>
       <c r="HA105" t="inlineStr">
         <is>
           <t>9.39</t>
@@ -47274,8 +46148,6 @@
           <t>10.91</t>
         </is>
       </c>
-      <c r="HC105" t="inlineStr"/>
-      <c r="HD105" t="inlineStr"/>
       <c r="HE105" t="inlineStr">
         <is>
           <t>16</t>
@@ -47371,15 +46243,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="HX105" t="inlineStr"/>
-      <c r="HY105" t="inlineStr"/>
-      <c r="HZ105" t="inlineStr"/>
-      <c r="IA105" t="inlineStr"/>
-      <c r="IB105" t="inlineStr"/>
-      <c r="IC105" t="inlineStr"/>
-      <c r="ID105" t="inlineStr"/>
-      <c r="IE105" t="inlineStr"/>
-      <c r="IF105" t="inlineStr"/>
       <c r="IG105" t="inlineStr">
         <is>
           <t>7.26</t>
@@ -47395,23 +46258,6 @@
           <t>11.10</t>
         </is>
       </c>
-      <c r="IJ105" t="inlineStr"/>
-      <c r="IK105" t="inlineStr"/>
-      <c r="IL105" t="inlineStr"/>
-      <c r="IM105" t="inlineStr"/>
-      <c r="IN105" t="inlineStr"/>
-      <c r="IO105" t="inlineStr"/>
-      <c r="IP105" t="inlineStr"/>
-      <c r="IQ105" t="inlineStr"/>
-      <c r="IR105" t="inlineStr"/>
-      <c r="IS105" t="inlineStr"/>
-      <c r="IT105" t="inlineStr"/>
-      <c r="IU105" t="inlineStr"/>
-      <c r="IV105" t="inlineStr"/>
-      <c r="IW105" t="inlineStr"/>
-      <c r="IX105" t="inlineStr"/>
-      <c r="IY105" t="inlineStr"/>
-      <c r="IZ105" t="inlineStr"/>
       <c r="JA105" t="inlineStr">
         <is>
           <t>136</t>
@@ -47422,54 +46268,11 @@
           <t>153</t>
         </is>
       </c>
-      <c r="JC105" t="inlineStr"/>
-      <c r="JD105" t="inlineStr"/>
-      <c r="JE105" t="inlineStr"/>
-      <c r="JF105" t="inlineStr"/>
-      <c r="JG105" t="inlineStr"/>
-      <c r="JH105" t="inlineStr"/>
-      <c r="JI105" t="inlineStr"/>
-      <c r="JJ105" t="inlineStr"/>
-      <c r="JK105" t="inlineStr"/>
       <c r="JL105" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="JM105" t="inlineStr"/>
-      <c r="JN105" t="inlineStr"/>
-      <c r="JO105" t="inlineStr"/>
-      <c r="JP105" t="inlineStr"/>
-      <c r="JQ105" t="inlineStr"/>
-      <c r="JR105" t="inlineStr"/>
-      <c r="JS105" t="inlineStr"/>
-      <c r="JT105" t="inlineStr"/>
-      <c r="JU105" t="inlineStr"/>
-      <c r="JV105" t="inlineStr"/>
-      <c r="JW105" t="inlineStr"/>
-      <c r="JX105" t="inlineStr"/>
-      <c r="JY105" t="inlineStr"/>
-      <c r="JZ105" t="inlineStr"/>
-      <c r="KA105" t="inlineStr"/>
-      <c r="KB105" t="inlineStr"/>
-      <c r="KC105" t="inlineStr"/>
-      <c r="KD105" t="inlineStr"/>
-      <c r="KE105" t="inlineStr"/>
-      <c r="KF105" t="inlineStr"/>
-      <c r="KG105" t="inlineStr"/>
-      <c r="KH105" t="inlineStr"/>
-      <c r="KI105" t="inlineStr"/>
-      <c r="KJ105" t="inlineStr"/>
-      <c r="KK105" t="inlineStr"/>
-      <c r="KL105" t="inlineStr"/>
-      <c r="KM105" t="inlineStr"/>
-      <c r="KN105" t="inlineStr"/>
-      <c r="KO105" t="inlineStr"/>
-      <c r="KP105" t="inlineStr"/>
-      <c r="KQ105" t="inlineStr"/>
-      <c r="KR105" t="inlineStr"/>
-      <c r="KS105" t="inlineStr"/>
-      <c r="KT105" t="inlineStr"/>
       <c r="KU105" t="inlineStr">
         <is>
           <t>3.73</t>
@@ -47500,37 +46303,6 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="LA105" t="inlineStr"/>
-      <c r="LB105" t="inlineStr"/>
-      <c r="LC105" t="inlineStr"/>
-      <c r="LD105" t="inlineStr"/>
-      <c r="LE105" t="inlineStr"/>
-      <c r="LF105" t="inlineStr"/>
-      <c r="LG105" t="inlineStr"/>
-      <c r="LH105" t="inlineStr"/>
-      <c r="LI105" t="inlineStr"/>
-      <c r="LJ105" t="inlineStr"/>
-      <c r="LK105" t="inlineStr"/>
-      <c r="LL105" t="inlineStr"/>
-      <c r="LM105" t="inlineStr"/>
-      <c r="LN105" t="inlineStr"/>
-      <c r="LO105" t="inlineStr"/>
-      <c r="LP105" t="inlineStr"/>
-      <c r="LQ105" t="inlineStr"/>
-      <c r="LR105" t="inlineStr"/>
-      <c r="LS105" t="inlineStr"/>
-      <c r="LT105" t="inlineStr"/>
-      <c r="LU105" t="inlineStr"/>
-      <c r="LV105" t="inlineStr"/>
-      <c r="LW105" t="inlineStr"/>
-      <c r="LX105" t="inlineStr"/>
-      <c r="LY105" t="inlineStr"/>
-      <c r="LZ105" t="inlineStr"/>
-      <c r="MA105" t="inlineStr"/>
-      <c r="MB105" t="inlineStr"/>
-      <c r="MC105" t="inlineStr"/>
-      <c r="MD105" t="inlineStr"/>
-      <c r="ME105" t="inlineStr"/>
       <c r="MF105" t="inlineStr">
         <is>
           <t>000000</t>
@@ -47541,15 +46313,6 @@
           <t>100000</t>
         </is>
       </c>
-      <c r="MH105" t="inlineStr"/>
-      <c r="MI105" t="inlineStr"/>
-      <c r="MJ105" t="inlineStr"/>
-      <c r="MK105" t="inlineStr"/>
-      <c r="ML105" t="inlineStr"/>
-      <c r="MM105" t="inlineStr"/>
-      <c r="MN105" t="inlineStr"/>
-      <c r="MO105" t="inlineStr"/>
-      <c r="MP105" t="inlineStr"/>
       <c r="MQ105" t="inlineStr">
         <is>
           <t>6.43</t>
@@ -47730,7 +46493,6 @@
           <t>2.86</t>
         </is>
       </c>
-      <c r="OA105" t="inlineStr"/>
       <c r="OB105" t="inlineStr">
         <is>
           <t>8.19</t>
@@ -47823,66 +46585,11 @@
           <t>type05</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr">
         <is>
           <t>5.30</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
-      <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr"/>
-      <c r="AF106" t="inlineStr"/>
-      <c r="AG106" t="inlineStr"/>
-      <c r="AH106" t="inlineStr"/>
-      <c r="AI106" t="inlineStr"/>
-      <c r="AJ106" t="inlineStr"/>
-      <c r="AK106" t="inlineStr"/>
-      <c r="AL106" t="inlineStr"/>
-      <c r="AM106" t="inlineStr"/>
-      <c r="AN106" t="inlineStr"/>
-      <c r="AO106" t="inlineStr"/>
-      <c r="AP106" t="inlineStr"/>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
-      <c r="AS106" t="inlineStr"/>
-      <c r="AT106" t="inlineStr"/>
-      <c r="AU106" t="inlineStr"/>
-      <c r="AV106" t="inlineStr"/>
-      <c r="AW106" t="inlineStr"/>
-      <c r="AX106" t="inlineStr"/>
-      <c r="AY106" t="inlineStr"/>
-      <c r="AZ106" t="inlineStr"/>
-      <c r="BA106" t="inlineStr"/>
-      <c r="BB106" t="inlineStr"/>
-      <c r="BC106" t="inlineStr"/>
-      <c r="BD106" t="inlineStr"/>
-      <c r="BE106" t="inlineStr"/>
       <c r="BF106" t="inlineStr">
         <is>
           <t>5.01</t>
@@ -47893,67 +46600,11 @@
           <t>106</t>
         </is>
       </c>
-      <c r="BH106" t="inlineStr"/>
-      <c r="BI106" t="inlineStr"/>
-      <c r="BJ106" t="inlineStr"/>
-      <c r="BK106" t="inlineStr"/>
-      <c r="BL106" t="inlineStr"/>
-      <c r="BM106" t="inlineStr"/>
-      <c r="BN106" t="inlineStr"/>
-      <c r="BO106" t="inlineStr"/>
-      <c r="BP106" t="inlineStr"/>
-      <c r="BQ106" t="inlineStr"/>
-      <c r="BR106" t="inlineStr"/>
-      <c r="BS106" t="inlineStr"/>
-      <c r="BT106" t="inlineStr"/>
-      <c r="BU106" t="inlineStr"/>
-      <c r="BV106" t="inlineStr"/>
-      <c r="BW106" t="inlineStr"/>
-      <c r="BX106" t="inlineStr"/>
       <c r="BY106" t="inlineStr">
         <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="BZ106" t="inlineStr"/>
-      <c r="CA106" t="inlineStr"/>
-      <c r="CB106" t="inlineStr"/>
-      <c r="CC106" t="inlineStr"/>
-      <c r="CD106" t="inlineStr"/>
-      <c r="CE106" t="inlineStr"/>
-      <c r="CF106" t="inlineStr"/>
-      <c r="CG106" t="inlineStr"/>
-      <c r="CH106" t="inlineStr"/>
-      <c r="CI106" t="inlineStr"/>
-      <c r="CJ106" t="inlineStr"/>
-      <c r="CK106" t="inlineStr"/>
-      <c r="CL106" t="inlineStr"/>
-      <c r="CM106" t="inlineStr"/>
-      <c r="CN106" t="inlineStr"/>
-      <c r="CO106" t="inlineStr"/>
-      <c r="CP106" t="inlineStr"/>
-      <c r="CQ106" t="inlineStr"/>
-      <c r="CR106" t="inlineStr"/>
-      <c r="CS106" t="inlineStr"/>
-      <c r="CT106" t="inlineStr"/>
-      <c r="CU106" t="inlineStr"/>
-      <c r="CV106" t="inlineStr"/>
-      <c r="CW106" t="inlineStr"/>
-      <c r="CX106" t="inlineStr"/>
-      <c r="CY106" t="inlineStr"/>
-      <c r="CZ106" t="inlineStr"/>
-      <c r="DA106" t="inlineStr"/>
-      <c r="DB106" t="inlineStr"/>
-      <c r="DC106" t="inlineStr"/>
-      <c r="DD106" t="inlineStr"/>
-      <c r="DE106" t="inlineStr"/>
-      <c r="DF106" t="inlineStr"/>
-      <c r="DG106" t="inlineStr"/>
-      <c r="DH106" t="inlineStr"/>
-      <c r="DI106" t="inlineStr"/>
-      <c r="DJ106" t="inlineStr"/>
-      <c r="DK106" t="inlineStr"/>
-      <c r="DL106" t="inlineStr"/>
       <c r="DM106" t="inlineStr">
         <is>
           <t>3.93</t>
@@ -47964,89 +46615,21 @@
           <t>86</t>
         </is>
       </c>
-      <c r="DO106" t="inlineStr"/>
-      <c r="DP106" t="inlineStr"/>
-      <c r="DQ106" t="inlineStr"/>
-      <c r="DR106" t="inlineStr"/>
       <c r="DS106" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="DT106" t="inlineStr"/>
       <c r="DU106" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="DV106" t="inlineStr"/>
-      <c r="DW106" t="inlineStr"/>
-      <c r="DX106" t="inlineStr"/>
-      <c r="DY106" t="inlineStr"/>
-      <c r="DZ106" t="inlineStr"/>
-      <c r="EA106" t="inlineStr"/>
-      <c r="EB106" t="inlineStr"/>
-      <c r="EC106" t="inlineStr"/>
-      <c r="ED106" t="inlineStr"/>
-      <c r="EE106" t="inlineStr"/>
-      <c r="EF106" t="inlineStr"/>
-      <c r="EG106" t="inlineStr"/>
-      <c r="EH106" t="inlineStr"/>
-      <c r="EI106" t="inlineStr"/>
-      <c r="EJ106" t="inlineStr"/>
-      <c r="EK106" t="inlineStr"/>
-      <c r="EL106" t="inlineStr"/>
-      <c r="EM106" t="inlineStr"/>
-      <c r="EN106" t="inlineStr"/>
-      <c r="EO106" t="inlineStr"/>
-      <c r="EP106" t="inlineStr"/>
-      <c r="EQ106" t="inlineStr"/>
-      <c r="ER106" t="inlineStr"/>
-      <c r="ES106" t="inlineStr"/>
       <c r="ET106" t="inlineStr">
         <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="EU106" t="inlineStr"/>
-      <c r="EV106" t="inlineStr"/>
-      <c r="EW106" t="inlineStr"/>
-      <c r="EX106" t="inlineStr"/>
-      <c r="EY106" t="inlineStr"/>
-      <c r="EZ106" t="inlineStr"/>
-      <c r="FA106" t="inlineStr"/>
-      <c r="FB106" t="inlineStr"/>
-      <c r="FC106" t="inlineStr"/>
-      <c r="FD106" t="inlineStr"/>
-      <c r="FE106" t="inlineStr"/>
-      <c r="FF106" t="inlineStr"/>
-      <c r="FG106" t="inlineStr"/>
-      <c r="FH106" t="inlineStr"/>
-      <c r="FI106" t="inlineStr"/>
-      <c r="FJ106" t="inlineStr"/>
-      <c r="FK106" t="inlineStr"/>
-      <c r="FL106" t="inlineStr"/>
-      <c r="FM106" t="inlineStr"/>
-      <c r="FN106" t="inlineStr"/>
-      <c r="FO106" t="inlineStr"/>
-      <c r="FP106" t="inlineStr"/>
-      <c r="FQ106" t="inlineStr"/>
-      <c r="FR106" t="inlineStr"/>
-      <c r="FS106" t="inlineStr"/>
-      <c r="FT106" t="inlineStr"/>
-      <c r="FU106" t="inlineStr"/>
-      <c r="FV106" t="inlineStr"/>
-      <c r="FW106" t="inlineStr"/>
-      <c r="FX106" t="inlineStr"/>
-      <c r="FY106" t="inlineStr"/>
-      <c r="FZ106" t="inlineStr"/>
-      <c r="GA106" t="inlineStr"/>
-      <c r="GB106" t="inlineStr"/>
-      <c r="GC106" t="inlineStr"/>
-      <c r="GD106" t="inlineStr"/>
-      <c r="GE106" t="inlineStr"/>
-      <c r="GF106" t="inlineStr"/>
-      <c r="GG106" t="inlineStr"/>
       <c r="GH106" t="inlineStr">
         <is>
           <t>3.41</t>
@@ -48057,8 +46640,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="GJ106" t="inlineStr"/>
-      <c r="GK106" t="inlineStr"/>
       <c r="GL106" t="inlineStr">
         <is>
           <t>3.41</t>
@@ -48074,18 +46655,11 @@
           <t>56</t>
         </is>
       </c>
-      <c r="GO106" t="inlineStr"/>
-      <c r="GP106" t="inlineStr"/>
-      <c r="GQ106" t="inlineStr"/>
       <c r="GR106" t="inlineStr">
         <is>
           <t>0.45</t>
         </is>
       </c>
-      <c r="GS106" t="inlineStr"/>
-      <c r="GT106" t="inlineStr"/>
-      <c r="GU106" t="inlineStr"/>
-      <c r="GV106" t="inlineStr"/>
       <c r="GW106" t="inlineStr">
         <is>
           <t>0.91</t>
@@ -48096,85 +46670,11 @@
           <t>49</t>
         </is>
       </c>
-      <c r="GY106" t="inlineStr"/>
-      <c r="GZ106" t="inlineStr"/>
-      <c r="HA106" t="inlineStr"/>
-      <c r="HB106" t="inlineStr"/>
-      <c r="HC106" t="inlineStr"/>
-      <c r="HD106" t="inlineStr"/>
-      <c r="HE106" t="inlineStr"/>
-      <c r="HF106" t="inlineStr"/>
-      <c r="HG106" t="inlineStr"/>
-      <c r="HH106" t="inlineStr"/>
-      <c r="HI106" t="inlineStr"/>
-      <c r="HJ106" t="inlineStr"/>
-      <c r="HK106" t="inlineStr"/>
-      <c r="HL106" t="inlineStr"/>
-      <c r="HM106" t="inlineStr"/>
-      <c r="HN106" t="inlineStr"/>
-      <c r="HO106" t="inlineStr"/>
-      <c r="HP106" t="inlineStr"/>
-      <c r="HQ106" t="inlineStr"/>
-      <c r="HR106" t="inlineStr"/>
-      <c r="HS106" t="inlineStr"/>
-      <c r="HT106" t="inlineStr"/>
-      <c r="HU106" t="inlineStr"/>
-      <c r="HV106" t="inlineStr"/>
-      <c r="HW106" t="inlineStr"/>
-      <c r="HX106" t="inlineStr"/>
-      <c r="HY106" t="inlineStr"/>
-      <c r="HZ106" t="inlineStr"/>
-      <c r="IA106" t="inlineStr"/>
-      <c r="IB106" t="inlineStr"/>
-      <c r="IC106" t="inlineStr"/>
-      <c r="ID106" t="inlineStr"/>
-      <c r="IE106" t="inlineStr"/>
-      <c r="IF106" t="inlineStr"/>
-      <c r="IG106" t="inlineStr"/>
       <c r="IH106" t="inlineStr">
         <is>
           <t>9.29</t>
         </is>
       </c>
-      <c r="II106" t="inlineStr"/>
-      <c r="IJ106" t="inlineStr"/>
-      <c r="IK106" t="inlineStr"/>
-      <c r="IL106" t="inlineStr"/>
-      <c r="IM106" t="inlineStr"/>
-      <c r="IN106" t="inlineStr"/>
-      <c r="IO106" t="inlineStr"/>
-      <c r="IP106" t="inlineStr"/>
-      <c r="IQ106" t="inlineStr"/>
-      <c r="IR106" t="inlineStr"/>
-      <c r="IS106" t="inlineStr"/>
-      <c r="IT106" t="inlineStr"/>
-      <c r="IU106" t="inlineStr"/>
-      <c r="IV106" t="inlineStr"/>
-      <c r="IW106" t="inlineStr"/>
-      <c r="IX106" t="inlineStr"/>
-      <c r="IY106" t="inlineStr"/>
-      <c r="IZ106" t="inlineStr"/>
-      <c r="JA106" t="inlineStr"/>
-      <c r="JB106" t="inlineStr"/>
-      <c r="JC106" t="inlineStr"/>
-      <c r="JD106" t="inlineStr"/>
-      <c r="JE106" t="inlineStr"/>
-      <c r="JF106" t="inlineStr"/>
-      <c r="JG106" t="inlineStr"/>
-      <c r="JH106" t="inlineStr"/>
-      <c r="JI106" t="inlineStr"/>
-      <c r="JJ106" t="inlineStr"/>
-      <c r="JK106" t="inlineStr"/>
-      <c r="JL106" t="inlineStr"/>
-      <c r="JM106" t="inlineStr"/>
-      <c r="JN106" t="inlineStr"/>
-      <c r="JO106" t="inlineStr"/>
-      <c r="JP106" t="inlineStr"/>
-      <c r="JQ106" t="inlineStr"/>
-      <c r="JR106" t="inlineStr"/>
-      <c r="JS106" t="inlineStr"/>
-      <c r="JT106" t="inlineStr"/>
-      <c r="JU106" t="inlineStr"/>
       <c r="JV106" t="inlineStr">
         <is>
           <t>8.63</t>
@@ -48185,47 +46685,21 @@
           <t>108</t>
         </is>
       </c>
-      <c r="JX106" t="inlineStr"/>
-      <c r="JY106" t="inlineStr"/>
       <c r="JZ106" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="KA106" t="inlineStr"/>
-      <c r="KB106" t="inlineStr"/>
-      <c r="KC106" t="inlineStr"/>
-      <c r="KD106" t="inlineStr"/>
-      <c r="KE106" t="inlineStr"/>
-      <c r="KF106" t="inlineStr"/>
-      <c r="KG106" t="inlineStr"/>
-      <c r="KH106" t="inlineStr"/>
-      <c r="KI106" t="inlineStr"/>
-      <c r="KJ106" t="inlineStr"/>
       <c r="KK106" t="inlineStr">
         <is>
           <t>12.24</t>
         </is>
       </c>
-      <c r="KL106" t="inlineStr"/>
-      <c r="KM106" t="inlineStr"/>
-      <c r="KN106" t="inlineStr"/>
-      <c r="KO106" t="inlineStr"/>
-      <c r="KP106" t="inlineStr"/>
-      <c r="KQ106" t="inlineStr"/>
-      <c r="KR106" t="inlineStr"/>
-      <c r="KS106" t="inlineStr"/>
-      <c r="KT106" t="inlineStr"/>
-      <c r="KU106" t="inlineStr"/>
       <c r="KV106" t="inlineStr">
         <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="KW106" t="inlineStr"/>
-      <c r="KX106" t="inlineStr"/>
-      <c r="KY106" t="inlineStr"/>
-      <c r="KZ106" t="inlineStr"/>
       <c r="LA106" t="inlineStr">
         <is>
           <t>4.66</t>
@@ -48236,23 +46710,11 @@
           <t>106</t>
         </is>
       </c>
-      <c r="LC106" t="inlineStr"/>
-      <c r="LD106" t="inlineStr"/>
-      <c r="LE106" t="inlineStr"/>
-      <c r="LF106" t="inlineStr"/>
-      <c r="LG106" t="inlineStr"/>
-      <c r="LH106" t="inlineStr"/>
-      <c r="LI106" t="inlineStr"/>
-      <c r="LJ106" t="inlineStr"/>
-      <c r="LK106" t="inlineStr"/>
-      <c r="LL106" t="inlineStr"/>
       <c r="LM106" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="LN106" t="inlineStr"/>
-      <c r="LO106" t="inlineStr"/>
       <c r="LP106" t="inlineStr">
         <is>
           <t>41.00</t>
@@ -48263,97 +46725,21 @@
           <t>0.35</t>
         </is>
       </c>
-      <c r="LR106" t="inlineStr"/>
-      <c r="LS106" t="inlineStr"/>
-      <c r="LT106" t="inlineStr"/>
-      <c r="LU106" t="inlineStr"/>
       <c r="LV106" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="LW106" t="inlineStr"/>
-      <c r="LX106" t="inlineStr"/>
-      <c r="LY106" t="inlineStr"/>
-      <c r="LZ106" t="inlineStr"/>
-      <c r="MA106" t="inlineStr"/>
-      <c r="MB106" t="inlineStr"/>
-      <c r="MC106" t="inlineStr"/>
-      <c r="MD106" t="inlineStr"/>
-      <c r="ME106" t="inlineStr"/>
       <c r="MF106" t="inlineStr">
         <is>
           <t>000000</t>
         </is>
       </c>
-      <c r="MG106" t="inlineStr"/>
-      <c r="MH106" t="inlineStr"/>
-      <c r="MI106" t="inlineStr"/>
-      <c r="MJ106" t="inlineStr"/>
-      <c r="MK106" t="inlineStr"/>
-      <c r="ML106" t="inlineStr"/>
-      <c r="MM106" t="inlineStr"/>
-      <c r="MN106" t="inlineStr"/>
-      <c r="MO106" t="inlineStr"/>
       <c r="MP106" t="inlineStr">
         <is>
           <t>147</t>
         </is>
       </c>
-      <c r="MQ106" t="inlineStr"/>
-      <c r="MR106" t="inlineStr"/>
-      <c r="MS106" t="inlineStr"/>
-      <c r="MT106" t="inlineStr"/>
-      <c r="MU106" t="inlineStr"/>
-      <c r="MV106" t="inlineStr"/>
-      <c r="MW106" t="inlineStr"/>
-      <c r="MX106" t="inlineStr"/>
-      <c r="MY106" t="inlineStr"/>
-      <c r="MZ106" t="inlineStr"/>
-      <c r="NA106" t="inlineStr"/>
-      <c r="NB106" t="inlineStr"/>
-      <c r="NC106" t="inlineStr"/>
-      <c r="ND106" t="inlineStr"/>
-      <c r="NE106" t="inlineStr"/>
-      <c r="NF106" t="inlineStr"/>
-      <c r="NG106" t="inlineStr"/>
-      <c r="NH106" t="inlineStr"/>
-      <c r="NI106" t="inlineStr"/>
-      <c r="NJ106" t="inlineStr"/>
-      <c r="NK106" t="inlineStr"/>
-      <c r="NL106" t="inlineStr"/>
-      <c r="NM106" t="inlineStr"/>
-      <c r="NN106" t="inlineStr"/>
-      <c r="NO106" t="inlineStr"/>
-      <c r="NP106" t="inlineStr"/>
-      <c r="NQ106" t="inlineStr"/>
-      <c r="NR106" t="inlineStr"/>
-      <c r="NS106" t="inlineStr"/>
-      <c r="NT106" t="inlineStr"/>
-      <c r="NU106" t="inlineStr"/>
-      <c r="NV106" t="inlineStr"/>
-      <c r="NW106" t="inlineStr"/>
-      <c r="NX106" t="inlineStr"/>
-      <c r="NY106" t="inlineStr"/>
-      <c r="NZ106" t="inlineStr"/>
-      <c r="OA106" t="inlineStr"/>
-      <c r="OB106" t="inlineStr"/>
-      <c r="OC106" t="inlineStr"/>
-      <c r="OD106" t="inlineStr"/>
-      <c r="OE106" t="inlineStr"/>
-      <c r="OF106" t="inlineStr"/>
-      <c r="OG106" t="inlineStr"/>
-      <c r="OH106" t="inlineStr"/>
-      <c r="OI106" t="inlineStr"/>
-      <c r="OJ106" t="inlineStr"/>
-      <c r="OK106" t="inlineStr"/>
-      <c r="OL106" t="inlineStr"/>
-      <c r="OM106" t="inlineStr"/>
-      <c r="ON106" t="inlineStr"/>
-      <c r="OO106" t="inlineStr"/>
-      <c r="OP106" t="inlineStr"/>
-      <c r="OQ106" t="inlineStr"/>
-      <c r="OR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -48361,22 +46747,6 @@
           <t>type06</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr">
         <is>
           <t>1.38</t>
@@ -48387,48 +46757,11 @@
           <t>1.47</t>
         </is>
       </c>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
-      <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr"/>
-      <c r="AF107" t="inlineStr"/>
-      <c r="AG107" t="inlineStr"/>
-      <c r="AH107" t="inlineStr"/>
-      <c r="AI107" t="inlineStr"/>
-      <c r="AJ107" t="inlineStr"/>
-      <c r="AK107" t="inlineStr"/>
-      <c r="AL107" t="inlineStr"/>
-      <c r="AM107" t="inlineStr"/>
-      <c r="AN107" t="inlineStr"/>
-      <c r="AO107" t="inlineStr"/>
-      <c r="AP107" t="inlineStr"/>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
-      <c r="AT107" t="inlineStr"/>
-      <c r="AU107" t="inlineStr"/>
       <c r="AV107" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AW107" t="inlineStr"/>
-      <c r="AX107" t="inlineStr"/>
-      <c r="AY107" t="inlineStr"/>
-      <c r="AZ107" t="inlineStr"/>
-      <c r="BA107" t="inlineStr"/>
-      <c r="BB107" t="inlineStr"/>
-      <c r="BC107" t="inlineStr"/>
-      <c r="BD107" t="inlineStr"/>
-      <c r="BE107" t="inlineStr"/>
       <c r="BF107" t="inlineStr">
         <is>
           <t>1.82</t>
@@ -48444,22 +46777,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="BI107" t="inlineStr"/>
-      <c r="BJ107" t="inlineStr"/>
-      <c r="BK107" t="inlineStr"/>
-      <c r="BL107" t="inlineStr"/>
-      <c r="BM107" t="inlineStr"/>
-      <c r="BN107" t="inlineStr"/>
-      <c r="BO107" t="inlineStr"/>
-      <c r="BP107" t="inlineStr"/>
-      <c r="BQ107" t="inlineStr"/>
-      <c r="BR107" t="inlineStr"/>
-      <c r="BS107" t="inlineStr"/>
-      <c r="BT107" t="inlineStr"/>
-      <c r="BU107" t="inlineStr"/>
-      <c r="BV107" t="inlineStr"/>
-      <c r="BW107" t="inlineStr"/>
-      <c r="BX107" t="inlineStr"/>
       <c r="BY107" t="inlineStr">
         <is>
           <t>1.20</t>
@@ -48470,48 +46787,11 @@
           <t>1.27</t>
         </is>
       </c>
-      <c r="CA107" t="inlineStr"/>
-      <c r="CB107" t="inlineStr"/>
-      <c r="CC107" t="inlineStr"/>
-      <c r="CD107" t="inlineStr"/>
-      <c r="CE107" t="inlineStr"/>
-      <c r="CF107" t="inlineStr"/>
-      <c r="CG107" t="inlineStr"/>
-      <c r="CH107" t="inlineStr"/>
-      <c r="CI107" t="inlineStr"/>
-      <c r="CJ107" t="inlineStr"/>
-      <c r="CK107" t="inlineStr"/>
-      <c r="CL107" t="inlineStr"/>
-      <c r="CM107" t="inlineStr"/>
-      <c r="CN107" t="inlineStr"/>
-      <c r="CO107" t="inlineStr"/>
-      <c r="CP107" t="inlineStr"/>
-      <c r="CQ107" t="inlineStr"/>
-      <c r="CR107" t="inlineStr"/>
-      <c r="CS107" t="inlineStr"/>
-      <c r="CT107" t="inlineStr"/>
-      <c r="CU107" t="inlineStr"/>
-      <c r="CV107" t="inlineStr"/>
-      <c r="CW107" t="inlineStr"/>
-      <c r="CX107" t="inlineStr"/>
-      <c r="CY107" t="inlineStr"/>
-      <c r="CZ107" t="inlineStr"/>
-      <c r="DA107" t="inlineStr"/>
-      <c r="DB107" t="inlineStr"/>
       <c r="DC107" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="DD107" t="inlineStr"/>
-      <c r="DE107" t="inlineStr"/>
-      <c r="DF107" t="inlineStr"/>
-      <c r="DG107" t="inlineStr"/>
-      <c r="DH107" t="inlineStr"/>
-      <c r="DI107" t="inlineStr"/>
-      <c r="DJ107" t="inlineStr"/>
-      <c r="DK107" t="inlineStr"/>
-      <c r="DL107" t="inlineStr"/>
       <c r="DM107" t="inlineStr">
         <is>
           <t>1.08</t>
@@ -48527,9 +46807,6 @@
           <t>118</t>
         </is>
       </c>
-      <c r="DP107" t="inlineStr"/>
-      <c r="DQ107" t="inlineStr"/>
-      <c r="DR107" t="inlineStr"/>
       <c r="DS107" t="inlineStr">
         <is>
           <t>87</t>
@@ -48545,30 +46822,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="DV107" t="inlineStr"/>
-      <c r="DW107" t="inlineStr"/>
-      <c r="DX107" t="inlineStr"/>
-      <c r="DY107" t="inlineStr"/>
-      <c r="DZ107" t="inlineStr"/>
-      <c r="EA107" t="inlineStr"/>
-      <c r="EB107" t="inlineStr"/>
-      <c r="EC107" t="inlineStr"/>
-      <c r="ED107" t="inlineStr"/>
-      <c r="EE107" t="inlineStr"/>
-      <c r="EF107" t="inlineStr"/>
-      <c r="EG107" t="inlineStr"/>
-      <c r="EH107" t="inlineStr"/>
-      <c r="EI107" t="inlineStr"/>
-      <c r="EJ107" t="inlineStr"/>
-      <c r="EK107" t="inlineStr"/>
-      <c r="EL107" t="inlineStr"/>
-      <c r="EM107" t="inlineStr"/>
-      <c r="EN107" t="inlineStr"/>
-      <c r="EO107" t="inlineStr"/>
-      <c r="EP107" t="inlineStr"/>
-      <c r="EQ107" t="inlineStr"/>
-      <c r="ER107" t="inlineStr"/>
-      <c r="ES107" t="inlineStr"/>
       <c r="ET107" t="inlineStr">
         <is>
           <t>1.31</t>
@@ -48579,48 +46832,11 @@
           <t>1.48</t>
         </is>
       </c>
-      <c r="EV107" t="inlineStr"/>
-      <c r="EW107" t="inlineStr"/>
-      <c r="EX107" t="inlineStr"/>
-      <c r="EY107" t="inlineStr"/>
-      <c r="EZ107" t="inlineStr"/>
-      <c r="FA107" t="inlineStr"/>
-      <c r="FB107" t="inlineStr"/>
-      <c r="FC107" t="inlineStr"/>
-      <c r="FD107" t="inlineStr"/>
-      <c r="FE107" t="inlineStr"/>
-      <c r="FF107" t="inlineStr"/>
-      <c r="FG107" t="inlineStr"/>
-      <c r="FH107" t="inlineStr"/>
-      <c r="FI107" t="inlineStr"/>
-      <c r="FJ107" t="inlineStr"/>
-      <c r="FK107" t="inlineStr"/>
-      <c r="FL107" t="inlineStr"/>
-      <c r="FM107" t="inlineStr"/>
-      <c r="FN107" t="inlineStr"/>
-      <c r="FO107" t="inlineStr"/>
-      <c r="FP107" t="inlineStr"/>
-      <c r="FQ107" t="inlineStr"/>
-      <c r="FR107" t="inlineStr"/>
-      <c r="FS107" t="inlineStr"/>
-      <c r="FT107" t="inlineStr"/>
-      <c r="FU107" t="inlineStr"/>
-      <c r="FV107" t="inlineStr"/>
-      <c r="FW107" t="inlineStr"/>
       <c r="FX107" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="FY107" t="inlineStr"/>
-      <c r="FZ107" t="inlineStr"/>
-      <c r="GA107" t="inlineStr"/>
-      <c r="GB107" t="inlineStr"/>
-      <c r="GC107" t="inlineStr"/>
-      <c r="GD107" t="inlineStr"/>
-      <c r="GE107" t="inlineStr"/>
-      <c r="GF107" t="inlineStr"/>
-      <c r="GG107" t="inlineStr"/>
       <c r="GH107" t="inlineStr">
         <is>
           <t>1.22</t>
@@ -48666,7 +46882,6 @@
           <t>143</t>
         </is>
       </c>
-      <c r="GQ107" t="inlineStr"/>
       <c r="GR107" t="inlineStr">
         <is>
           <t>0.38</t>
@@ -48677,8 +46892,6 @@
           <t>0.54</t>
         </is>
       </c>
-      <c r="GT107" t="inlineStr"/>
-      <c r="GU107" t="inlineStr"/>
       <c r="GV107" t="inlineStr">
         <is>
           <t>40</t>
@@ -48699,40 +46912,6 @@
           <t>-387</t>
         </is>
       </c>
-      <c r="GZ107" t="inlineStr"/>
-      <c r="HA107" t="inlineStr"/>
-      <c r="HB107" t="inlineStr"/>
-      <c r="HC107" t="inlineStr"/>
-      <c r="HD107" t="inlineStr"/>
-      <c r="HE107" t="inlineStr"/>
-      <c r="HF107" t="inlineStr"/>
-      <c r="HG107" t="inlineStr"/>
-      <c r="HH107" t="inlineStr"/>
-      <c r="HI107" t="inlineStr"/>
-      <c r="HJ107" t="inlineStr"/>
-      <c r="HK107" t="inlineStr"/>
-      <c r="HL107" t="inlineStr"/>
-      <c r="HM107" t="inlineStr"/>
-      <c r="HN107" t="inlineStr"/>
-      <c r="HO107" t="inlineStr"/>
-      <c r="HP107" t="inlineStr"/>
-      <c r="HQ107" t="inlineStr"/>
-      <c r="HR107" t="inlineStr"/>
-      <c r="HS107" t="inlineStr"/>
-      <c r="HT107" t="inlineStr"/>
-      <c r="HU107" t="inlineStr"/>
-      <c r="HV107" t="inlineStr"/>
-      <c r="HW107" t="inlineStr"/>
-      <c r="HX107" t="inlineStr"/>
-      <c r="HY107" t="inlineStr"/>
-      <c r="HZ107" t="inlineStr"/>
-      <c r="IA107" t="inlineStr"/>
-      <c r="IB107" t="inlineStr"/>
-      <c r="IC107" t="inlineStr"/>
-      <c r="ID107" t="inlineStr"/>
-      <c r="IE107" t="inlineStr"/>
-      <c r="IF107" t="inlineStr"/>
-      <c r="IG107" t="inlineStr"/>
       <c r="IH107" t="inlineStr">
         <is>
           <t>3.51</t>
@@ -48743,48 +46922,11 @@
           <t>3.29</t>
         </is>
       </c>
-      <c r="IJ107" t="inlineStr"/>
-      <c r="IK107" t="inlineStr"/>
-      <c r="IL107" t="inlineStr"/>
-      <c r="IM107" t="inlineStr"/>
-      <c r="IN107" t="inlineStr"/>
-      <c r="IO107" t="inlineStr"/>
-      <c r="IP107" t="inlineStr"/>
-      <c r="IQ107" t="inlineStr"/>
-      <c r="IR107" t="inlineStr"/>
-      <c r="IS107" t="inlineStr"/>
-      <c r="IT107" t="inlineStr"/>
-      <c r="IU107" t="inlineStr"/>
-      <c r="IV107" t="inlineStr"/>
-      <c r="IW107" t="inlineStr"/>
-      <c r="IX107" t="inlineStr"/>
-      <c r="IY107" t="inlineStr"/>
-      <c r="IZ107" t="inlineStr"/>
-      <c r="JA107" t="inlineStr"/>
-      <c r="JB107" t="inlineStr"/>
-      <c r="JC107" t="inlineStr"/>
-      <c r="JD107" t="inlineStr"/>
-      <c r="JE107" t="inlineStr"/>
-      <c r="JF107" t="inlineStr"/>
-      <c r="JG107" t="inlineStr"/>
-      <c r="JH107" t="inlineStr"/>
-      <c r="JI107" t="inlineStr"/>
-      <c r="JJ107" t="inlineStr"/>
-      <c r="JK107" t="inlineStr"/>
       <c r="JL107" t="inlineStr">
         <is>
           <t>-6</t>
         </is>
       </c>
-      <c r="JM107" t="inlineStr"/>
-      <c r="JN107" t="inlineStr"/>
-      <c r="JO107" t="inlineStr"/>
-      <c r="JP107" t="inlineStr"/>
-      <c r="JQ107" t="inlineStr"/>
-      <c r="JR107" t="inlineStr"/>
-      <c r="JS107" t="inlineStr"/>
-      <c r="JT107" t="inlineStr"/>
-      <c r="JU107" t="inlineStr"/>
       <c r="JV107" t="inlineStr">
         <is>
           <t>3.89</t>
@@ -48800,17 +46942,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="JY107" t="inlineStr"/>
-      <c r="JZ107" t="inlineStr"/>
-      <c r="KA107" t="inlineStr"/>
-      <c r="KB107" t="inlineStr"/>
-      <c r="KC107" t="inlineStr"/>
-      <c r="KD107" t="inlineStr"/>
-      <c r="KE107" t="inlineStr"/>
-      <c r="KF107" t="inlineStr"/>
-      <c r="KG107" t="inlineStr"/>
-      <c r="KH107" t="inlineStr"/>
-      <c r="KI107" t="inlineStr"/>
       <c r="KJ107" t="inlineStr">
         <is>
           <t>-4</t>
@@ -48826,15 +46957,6 @@
           <t>4.48</t>
         </is>
       </c>
-      <c r="KM107" t="inlineStr"/>
-      <c r="KN107" t="inlineStr"/>
-      <c r="KO107" t="inlineStr"/>
-      <c r="KP107" t="inlineStr"/>
-      <c r="KQ107" t="inlineStr"/>
-      <c r="KR107" t="inlineStr"/>
-      <c r="KS107" t="inlineStr"/>
-      <c r="KT107" t="inlineStr"/>
-      <c r="KU107" t="inlineStr"/>
       <c r="KV107" t="inlineStr">
         <is>
           <t>0.97</t>
@@ -48845,8 +46967,6 @@
           <t>0.97</t>
         </is>
       </c>
-      <c r="KX107" t="inlineStr"/>
-      <c r="KY107" t="inlineStr"/>
       <c r="KZ107" t="inlineStr">
         <is>
           <t>-0</t>
@@ -48867,17 +46987,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="LD107" t="inlineStr"/>
-      <c r="LE107" t="inlineStr"/>
-      <c r="LF107" t="inlineStr"/>
-      <c r="LG107" t="inlineStr"/>
-      <c r="LH107" t="inlineStr"/>
-      <c r="LI107" t="inlineStr"/>
-      <c r="LJ107" t="inlineStr"/>
-      <c r="LK107" t="inlineStr"/>
-      <c r="LL107" t="inlineStr"/>
-      <c r="LM107" t="inlineStr"/>
-      <c r="LN107" t="inlineStr"/>
       <c r="LO107" t="inlineStr">
         <is>
           <t>18</t>
@@ -48893,13 +47002,11 @@
           <t>1.62</t>
         </is>
       </c>
-      <c r="LR107" t="inlineStr"/>
       <c r="LS107" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="LT107" t="inlineStr"/>
       <c r="LU107" t="inlineStr">
         <is>
           <t>-95</t>
@@ -48915,14 +47022,6 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="LX107" t="inlineStr"/>
-      <c r="LY107" t="inlineStr"/>
-      <c r="LZ107" t="inlineStr"/>
-      <c r="MA107" t="inlineStr"/>
-      <c r="MB107" t="inlineStr"/>
-      <c r="MC107" t="inlineStr"/>
-      <c r="MD107" t="inlineStr"/>
-      <c r="ME107" t="inlineStr"/>
       <c r="MF107" t="inlineStr">
         <is>
           <t>001011</t>
@@ -48933,73 +47032,11 @@
           <t>001011</t>
         </is>
       </c>
-      <c r="MH107" t="inlineStr"/>
-      <c r="MI107" t="inlineStr"/>
-      <c r="MJ107" t="inlineStr"/>
-      <c r="MK107" t="inlineStr"/>
-      <c r="ML107" t="inlineStr"/>
-      <c r="MM107" t="inlineStr"/>
-      <c r="MN107" t="inlineStr"/>
-      <c r="MO107" t="inlineStr"/>
       <c r="MP107" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="MQ107" t="inlineStr"/>
-      <c r="MR107" t="inlineStr"/>
-      <c r="MS107" t="inlineStr"/>
-      <c r="MT107" t="inlineStr"/>
-      <c r="MU107" t="inlineStr"/>
-      <c r="MV107" t="inlineStr"/>
-      <c r="MW107" t="inlineStr"/>
-      <c r="MX107" t="inlineStr"/>
-      <c r="MY107" t="inlineStr"/>
-      <c r="MZ107" t="inlineStr"/>
-      <c r="NA107" t="inlineStr"/>
-      <c r="NB107" t="inlineStr"/>
-      <c r="NC107" t="inlineStr"/>
-      <c r="ND107" t="inlineStr"/>
-      <c r="NE107" t="inlineStr"/>
-      <c r="NF107" t="inlineStr"/>
-      <c r="NG107" t="inlineStr"/>
-      <c r="NH107" t="inlineStr"/>
-      <c r="NI107" t="inlineStr"/>
-      <c r="NJ107" t="inlineStr"/>
-      <c r="NK107" t="inlineStr"/>
-      <c r="NL107" t="inlineStr"/>
-      <c r="NM107" t="inlineStr"/>
-      <c r="NN107" t="inlineStr"/>
-      <c r="NO107" t="inlineStr"/>
-      <c r="NP107" t="inlineStr"/>
-      <c r="NQ107" t="inlineStr"/>
-      <c r="NR107" t="inlineStr"/>
-      <c r="NS107" t="inlineStr"/>
-      <c r="NT107" t="inlineStr"/>
-      <c r="NU107" t="inlineStr"/>
-      <c r="NV107" t="inlineStr"/>
-      <c r="NW107" t="inlineStr"/>
-      <c r="NX107" t="inlineStr"/>
-      <c r="NY107" t="inlineStr"/>
-      <c r="NZ107" t="inlineStr"/>
-      <c r="OA107" t="inlineStr"/>
-      <c r="OB107" t="inlineStr"/>
-      <c r="OC107" t="inlineStr"/>
-      <c r="OD107" t="inlineStr"/>
-      <c r="OE107" t="inlineStr"/>
-      <c r="OF107" t="inlineStr"/>
-      <c r="OG107" t="inlineStr"/>
-      <c r="OH107" t="inlineStr"/>
-      <c r="OI107" t="inlineStr"/>
-      <c r="OJ107" t="inlineStr"/>
-      <c r="OK107" t="inlineStr"/>
-      <c r="OL107" t="inlineStr"/>
-      <c r="OM107" t="inlineStr"/>
-      <c r="ON107" t="inlineStr"/>
-      <c r="OO107" t="inlineStr"/>
-      <c r="OP107" t="inlineStr"/>
-      <c r="OQ107" t="inlineStr"/>
-      <c r="OR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -49007,22 +47044,6 @@
           <t>type06</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
           <t>2.56</t>
@@ -49033,48 +47054,11 @@
           <t>2.46</t>
         </is>
       </c>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
-      <c r="AB108" t="inlineStr"/>
-      <c r="AC108" t="inlineStr"/>
-      <c r="AD108" t="inlineStr"/>
-      <c r="AE108" t="inlineStr"/>
-      <c r="AF108" t="inlineStr"/>
-      <c r="AG108" t="inlineStr"/>
-      <c r="AH108" t="inlineStr"/>
-      <c r="AI108" t="inlineStr"/>
-      <c r="AJ108" t="inlineStr"/>
-      <c r="AK108" t="inlineStr"/>
-      <c r="AL108" t="inlineStr"/>
-      <c r="AM108" t="inlineStr"/>
-      <c r="AN108" t="inlineStr"/>
-      <c r="AO108" t="inlineStr"/>
-      <c r="AP108" t="inlineStr"/>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
-      <c r="AS108" t="inlineStr"/>
-      <c r="AT108" t="inlineStr"/>
-      <c r="AU108" t="inlineStr"/>
       <c r="AV108" t="inlineStr">
         <is>
           <t>-4</t>
         </is>
       </c>
-      <c r="AW108" t="inlineStr"/>
-      <c r="AX108" t="inlineStr"/>
-      <c r="AY108" t="inlineStr"/>
-      <c r="AZ108" t="inlineStr"/>
-      <c r="BA108" t="inlineStr"/>
-      <c r="BB108" t="inlineStr"/>
-      <c r="BC108" t="inlineStr"/>
-      <c r="BD108" t="inlineStr"/>
-      <c r="BE108" t="inlineStr"/>
       <c r="BF108" t="inlineStr">
         <is>
           <t>2.99</t>
@@ -49090,22 +47074,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="BI108" t="inlineStr"/>
-      <c r="BJ108" t="inlineStr"/>
-      <c r="BK108" t="inlineStr"/>
-      <c r="BL108" t="inlineStr"/>
-      <c r="BM108" t="inlineStr"/>
-      <c r="BN108" t="inlineStr"/>
-      <c r="BO108" t="inlineStr"/>
-      <c r="BP108" t="inlineStr"/>
-      <c r="BQ108" t="inlineStr"/>
-      <c r="BR108" t="inlineStr"/>
-      <c r="BS108" t="inlineStr"/>
-      <c r="BT108" t="inlineStr"/>
-      <c r="BU108" t="inlineStr"/>
-      <c r="BV108" t="inlineStr"/>
-      <c r="BW108" t="inlineStr"/>
-      <c r="BX108" t="inlineStr"/>
       <c r="BY108" t="inlineStr">
         <is>
           <t>1</t>
@@ -49116,48 +47084,11 @@
           <t>85</t>
         </is>
       </c>
-      <c r="CA108" t="inlineStr"/>
-      <c r="CB108" t="inlineStr"/>
-      <c r="CC108" t="inlineStr"/>
-      <c r="CD108" t="inlineStr"/>
-      <c r="CE108" t="inlineStr"/>
-      <c r="CF108" t="inlineStr"/>
-      <c r="CG108" t="inlineStr"/>
-      <c r="CH108" t="inlineStr"/>
-      <c r="CI108" t="inlineStr"/>
-      <c r="CJ108" t="inlineStr"/>
-      <c r="CK108" t="inlineStr"/>
-      <c r="CL108" t="inlineStr"/>
-      <c r="CM108" t="inlineStr"/>
-      <c r="CN108" t="inlineStr"/>
-      <c r="CO108" t="inlineStr"/>
-      <c r="CP108" t="inlineStr"/>
-      <c r="CQ108" t="inlineStr"/>
-      <c r="CR108" t="inlineStr"/>
-      <c r="CS108" t="inlineStr"/>
-      <c r="CT108" t="inlineStr"/>
-      <c r="CU108" t="inlineStr"/>
-      <c r="CV108" t="inlineStr"/>
-      <c r="CW108" t="inlineStr"/>
-      <c r="CX108" t="inlineStr"/>
-      <c r="CY108" t="inlineStr"/>
-      <c r="CZ108" t="inlineStr"/>
-      <c r="DA108" t="inlineStr"/>
-      <c r="DB108" t="inlineStr"/>
       <c r="DC108" t="inlineStr">
         <is>
           <t>-94</t>
         </is>
       </c>
-      <c r="DD108" t="inlineStr"/>
-      <c r="DE108" t="inlineStr"/>
-      <c r="DF108" t="inlineStr"/>
-      <c r="DG108" t="inlineStr"/>
-      <c r="DH108" t="inlineStr"/>
-      <c r="DI108" t="inlineStr"/>
-      <c r="DJ108" t="inlineStr"/>
-      <c r="DK108" t="inlineStr"/>
-      <c r="DL108" t="inlineStr"/>
       <c r="DM108" t="inlineStr">
         <is>
           <t>2.30</t>
@@ -49173,9 +47104,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="DP108" t="inlineStr"/>
-      <c r="DQ108" t="inlineStr"/>
-      <c r="DR108" t="inlineStr"/>
       <c r="DS108" t="inlineStr">
         <is>
           <t>76</t>
@@ -49191,30 +47119,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="DV108" t="inlineStr"/>
-      <c r="DW108" t="inlineStr"/>
-      <c r="DX108" t="inlineStr"/>
-      <c r="DY108" t="inlineStr"/>
-      <c r="DZ108" t="inlineStr"/>
-      <c r="EA108" t="inlineStr"/>
-      <c r="EB108" t="inlineStr"/>
-      <c r="EC108" t="inlineStr"/>
-      <c r="ED108" t="inlineStr"/>
-      <c r="EE108" t="inlineStr"/>
-      <c r="EF108" t="inlineStr"/>
-      <c r="EG108" t="inlineStr"/>
-      <c r="EH108" t="inlineStr"/>
-      <c r="EI108" t="inlineStr"/>
-      <c r="EJ108" t="inlineStr"/>
-      <c r="EK108" t="inlineStr"/>
-      <c r="EL108" t="inlineStr"/>
-      <c r="EM108" t="inlineStr"/>
-      <c r="EN108" t="inlineStr"/>
-      <c r="EO108" t="inlineStr"/>
-      <c r="EP108" t="inlineStr"/>
-      <c r="EQ108" t="inlineStr"/>
-      <c r="ER108" t="inlineStr"/>
-      <c r="ES108" t="inlineStr"/>
       <c r="ET108" t="inlineStr">
         <is>
           <t>1.61</t>
@@ -49225,48 +47129,11 @@
           <t>1.81</t>
         </is>
       </c>
-      <c r="EV108" t="inlineStr"/>
-      <c r="EW108" t="inlineStr"/>
-      <c r="EX108" t="inlineStr"/>
-      <c r="EY108" t="inlineStr"/>
-      <c r="EZ108" t="inlineStr"/>
-      <c r="FA108" t="inlineStr"/>
-      <c r="FB108" t="inlineStr"/>
-      <c r="FC108" t="inlineStr"/>
-      <c r="FD108" t="inlineStr"/>
-      <c r="FE108" t="inlineStr"/>
-      <c r="FF108" t="inlineStr"/>
-      <c r="FG108" t="inlineStr"/>
-      <c r="FH108" t="inlineStr"/>
-      <c r="FI108" t="inlineStr"/>
-      <c r="FJ108" t="inlineStr"/>
-      <c r="FK108" t="inlineStr"/>
-      <c r="FL108" t="inlineStr"/>
-      <c r="FM108" t="inlineStr"/>
-      <c r="FN108" t="inlineStr"/>
-      <c r="FO108" t="inlineStr"/>
-      <c r="FP108" t="inlineStr"/>
-      <c r="FQ108" t="inlineStr"/>
-      <c r="FR108" t="inlineStr"/>
-      <c r="FS108" t="inlineStr"/>
-      <c r="FT108" t="inlineStr"/>
-      <c r="FU108" t="inlineStr"/>
-      <c r="FV108" t="inlineStr"/>
-      <c r="FW108" t="inlineStr"/>
       <c r="FX108" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="FY108" t="inlineStr"/>
-      <c r="FZ108" t="inlineStr"/>
-      <c r="GA108" t="inlineStr"/>
-      <c r="GB108" t="inlineStr"/>
-      <c r="GC108" t="inlineStr"/>
-      <c r="GD108" t="inlineStr"/>
-      <c r="GE108" t="inlineStr"/>
-      <c r="GF108" t="inlineStr"/>
-      <c r="GG108" t="inlineStr"/>
       <c r="GH108" t="inlineStr">
         <is>
           <t>2.25</t>
@@ -49312,7 +47179,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="GQ108" t="inlineStr"/>
       <c r="GR108" t="inlineStr">
         <is>
           <t>0.26</t>
@@ -49323,8 +47189,6 @@
           <t>0.31</t>
         </is>
       </c>
-      <c r="GT108" t="inlineStr"/>
-      <c r="GU108" t="inlineStr"/>
       <c r="GV108" t="inlineStr">
         <is>
           <t>19</t>
@@ -49345,40 +47209,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="GZ108" t="inlineStr"/>
-      <c r="HA108" t="inlineStr"/>
-      <c r="HB108" t="inlineStr"/>
-      <c r="HC108" t="inlineStr"/>
-      <c r="HD108" t="inlineStr"/>
-      <c r="HE108" t="inlineStr"/>
-      <c r="HF108" t="inlineStr"/>
-      <c r="HG108" t="inlineStr"/>
-      <c r="HH108" t="inlineStr"/>
-      <c r="HI108" t="inlineStr"/>
-      <c r="HJ108" t="inlineStr"/>
-      <c r="HK108" t="inlineStr"/>
-      <c r="HL108" t="inlineStr"/>
-      <c r="HM108" t="inlineStr"/>
-      <c r="HN108" t="inlineStr"/>
-      <c r="HO108" t="inlineStr"/>
-      <c r="HP108" t="inlineStr"/>
-      <c r="HQ108" t="inlineStr"/>
-      <c r="HR108" t="inlineStr"/>
-      <c r="HS108" t="inlineStr"/>
-      <c r="HT108" t="inlineStr"/>
-      <c r="HU108" t="inlineStr"/>
-      <c r="HV108" t="inlineStr"/>
-      <c r="HW108" t="inlineStr"/>
-      <c r="HX108" t="inlineStr"/>
-      <c r="HY108" t="inlineStr"/>
-      <c r="HZ108" t="inlineStr"/>
-      <c r="IA108" t="inlineStr"/>
-      <c r="IB108" t="inlineStr"/>
-      <c r="IC108" t="inlineStr"/>
-      <c r="ID108" t="inlineStr"/>
-      <c r="IE108" t="inlineStr"/>
-      <c r="IF108" t="inlineStr"/>
-      <c r="IG108" t="inlineStr"/>
       <c r="IH108" t="inlineStr">
         <is>
           <t>5.87</t>
@@ -49389,48 +47219,11 @@
           <t>6.65</t>
         </is>
       </c>
-      <c r="IJ108" t="inlineStr"/>
-      <c r="IK108" t="inlineStr"/>
-      <c r="IL108" t="inlineStr"/>
-      <c r="IM108" t="inlineStr"/>
-      <c r="IN108" t="inlineStr"/>
-      <c r="IO108" t="inlineStr"/>
-      <c r="IP108" t="inlineStr"/>
-      <c r="IQ108" t="inlineStr"/>
-      <c r="IR108" t="inlineStr"/>
-      <c r="IS108" t="inlineStr"/>
-      <c r="IT108" t="inlineStr"/>
-      <c r="IU108" t="inlineStr"/>
-      <c r="IV108" t="inlineStr"/>
-      <c r="IW108" t="inlineStr"/>
-      <c r="IX108" t="inlineStr"/>
-      <c r="IY108" t="inlineStr"/>
-      <c r="IZ108" t="inlineStr"/>
-      <c r="JA108" t="inlineStr"/>
-      <c r="JB108" t="inlineStr"/>
-      <c r="JC108" t="inlineStr"/>
-      <c r="JD108" t="inlineStr"/>
-      <c r="JE108" t="inlineStr"/>
-      <c r="JF108" t="inlineStr"/>
-      <c r="JG108" t="inlineStr"/>
-      <c r="JH108" t="inlineStr"/>
-      <c r="JI108" t="inlineStr"/>
-      <c r="JJ108" t="inlineStr"/>
-      <c r="JK108" t="inlineStr"/>
       <c r="JL108" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="JM108" t="inlineStr"/>
-      <c r="JN108" t="inlineStr"/>
-      <c r="JO108" t="inlineStr"/>
-      <c r="JP108" t="inlineStr"/>
-      <c r="JQ108" t="inlineStr"/>
-      <c r="JR108" t="inlineStr"/>
-      <c r="JS108" t="inlineStr"/>
-      <c r="JT108" t="inlineStr"/>
-      <c r="JU108" t="inlineStr"/>
       <c r="JV108" t="inlineStr">
         <is>
           <t>5.25</t>
@@ -49446,17 +47239,6 @@
           <t>127</t>
         </is>
       </c>
-      <c r="JY108" t="inlineStr"/>
-      <c r="JZ108" t="inlineStr"/>
-      <c r="KA108" t="inlineStr"/>
-      <c r="KB108" t="inlineStr"/>
-      <c r="KC108" t="inlineStr"/>
-      <c r="KD108" t="inlineStr"/>
-      <c r="KE108" t="inlineStr"/>
-      <c r="KF108" t="inlineStr"/>
-      <c r="KG108" t="inlineStr"/>
-      <c r="KH108" t="inlineStr"/>
-      <c r="KI108" t="inlineStr"/>
       <c r="KJ108" t="inlineStr">
         <is>
           <t>-16</t>
@@ -49472,15 +47254,6 @@
           <t>8.04</t>
         </is>
       </c>
-      <c r="KM108" t="inlineStr"/>
-      <c r="KN108" t="inlineStr"/>
-      <c r="KO108" t="inlineStr"/>
-      <c r="KP108" t="inlineStr"/>
-      <c r="KQ108" t="inlineStr"/>
-      <c r="KR108" t="inlineStr"/>
-      <c r="KS108" t="inlineStr"/>
-      <c r="KT108" t="inlineStr"/>
-      <c r="KU108" t="inlineStr"/>
       <c r="KV108" t="inlineStr">
         <is>
           <t>2.34</t>
@@ -49491,8 +47264,6 @@
           <t>1.75</t>
         </is>
       </c>
-      <c r="KX108" t="inlineStr"/>
-      <c r="KY108" t="inlineStr"/>
       <c r="KZ108" t="inlineStr">
         <is>
           <t>-25</t>
@@ -49513,17 +47284,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="LD108" t="inlineStr"/>
-      <c r="LE108" t="inlineStr"/>
-      <c r="LF108" t="inlineStr"/>
-      <c r="LG108" t="inlineStr"/>
-      <c r="LH108" t="inlineStr"/>
-      <c r="LI108" t="inlineStr"/>
-      <c r="LJ108" t="inlineStr"/>
-      <c r="LK108" t="inlineStr"/>
-      <c r="LL108" t="inlineStr"/>
-      <c r="LM108" t="inlineStr"/>
-      <c r="LN108" t="inlineStr"/>
       <c r="LO108" t="inlineStr">
         <is>
           <t>-21</t>
@@ -49539,13 +47299,11 @@
           <t>1.14</t>
         </is>
       </c>
-      <c r="LR108" t="inlineStr"/>
       <c r="LS108" t="inlineStr">
         <is>
           <t>0.90</t>
         </is>
       </c>
-      <c r="LT108" t="inlineStr"/>
       <c r="LU108" t="inlineStr">
         <is>
           <t>-62</t>
@@ -49561,14 +47319,6 @@
           <t>0.01</t>
         </is>
       </c>
-      <c r="LX108" t="inlineStr"/>
-      <c r="LY108" t="inlineStr"/>
-      <c r="LZ108" t="inlineStr"/>
-      <c r="MA108" t="inlineStr"/>
-      <c r="MB108" t="inlineStr"/>
-      <c r="MC108" t="inlineStr"/>
-      <c r="MD108" t="inlineStr"/>
-      <c r="ME108" t="inlineStr"/>
       <c r="MF108" t="inlineStr">
         <is>
           <t>100000</t>
@@ -49579,73 +47329,11 @@
           <t>101000</t>
         </is>
       </c>
-      <c r="MH108" t="inlineStr"/>
-      <c r="MI108" t="inlineStr"/>
-      <c r="MJ108" t="inlineStr"/>
-      <c r="MK108" t="inlineStr"/>
-      <c r="ML108" t="inlineStr"/>
-      <c r="MM108" t="inlineStr"/>
-      <c r="MN108" t="inlineStr"/>
-      <c r="MO108" t="inlineStr"/>
       <c r="MP108" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="MQ108" t="inlineStr"/>
-      <c r="MR108" t="inlineStr"/>
-      <c r="MS108" t="inlineStr"/>
-      <c r="MT108" t="inlineStr"/>
-      <c r="MU108" t="inlineStr"/>
-      <c r="MV108" t="inlineStr"/>
-      <c r="MW108" t="inlineStr"/>
-      <c r="MX108" t="inlineStr"/>
-      <c r="MY108" t="inlineStr"/>
-      <c r="MZ108" t="inlineStr"/>
-      <c r="NA108" t="inlineStr"/>
-      <c r="NB108" t="inlineStr"/>
-      <c r="NC108" t="inlineStr"/>
-      <c r="ND108" t="inlineStr"/>
-      <c r="NE108" t="inlineStr"/>
-      <c r="NF108" t="inlineStr"/>
-      <c r="NG108" t="inlineStr"/>
-      <c r="NH108" t="inlineStr"/>
-      <c r="NI108" t="inlineStr"/>
-      <c r="NJ108" t="inlineStr"/>
-      <c r="NK108" t="inlineStr"/>
-      <c r="NL108" t="inlineStr"/>
-      <c r="NM108" t="inlineStr"/>
-      <c r="NN108" t="inlineStr"/>
-      <c r="NO108" t="inlineStr"/>
-      <c r="NP108" t="inlineStr"/>
-      <c r="NQ108" t="inlineStr"/>
-      <c r="NR108" t="inlineStr"/>
-      <c r="NS108" t="inlineStr"/>
-      <c r="NT108" t="inlineStr"/>
-      <c r="NU108" t="inlineStr"/>
-      <c r="NV108" t="inlineStr"/>
-      <c r="NW108" t="inlineStr"/>
-      <c r="NX108" t="inlineStr"/>
-      <c r="NY108" t="inlineStr"/>
-      <c r="NZ108" t="inlineStr"/>
-      <c r="OA108" t="inlineStr"/>
-      <c r="OB108" t="inlineStr"/>
-      <c r="OC108" t="inlineStr"/>
-      <c r="OD108" t="inlineStr"/>
-      <c r="OE108" t="inlineStr"/>
-      <c r="OF108" t="inlineStr"/>
-      <c r="OG108" t="inlineStr"/>
-      <c r="OH108" t="inlineStr"/>
-      <c r="OI108" t="inlineStr"/>
-      <c r="OJ108" t="inlineStr"/>
-      <c r="OK108" t="inlineStr"/>
-      <c r="OL108" t="inlineStr"/>
-      <c r="OM108" t="inlineStr"/>
-      <c r="ON108" t="inlineStr"/>
-      <c r="OO108" t="inlineStr"/>
-      <c r="OP108" t="inlineStr"/>
-      <c r="OQ108" t="inlineStr"/>
-      <c r="OR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -49653,21 +47341,6 @@
           <t>type07</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr">
         <is>
           <t>4.34</t>
@@ -49683,15 +47356,6 @@
           <t>1.33</t>
         </is>
       </c>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
       <c r="AC109" t="inlineStr">
         <is>
           <t>1.24</t>
@@ -49722,8 +47386,6 @@
           <t>1.26</t>
         </is>
       </c>
-      <c r="AI109" t="inlineStr"/>
-      <c r="AJ109" t="inlineStr"/>
       <c r="AK109" t="inlineStr">
         <is>
           <t>29</t>
@@ -49734,47 +47396,11 @@
           <t>31</t>
         </is>
       </c>
-      <c r="AM109" t="inlineStr"/>
-      <c r="AN109" t="inlineStr"/>
-      <c r="AO109" t="inlineStr"/>
-      <c r="AP109" t="inlineStr"/>
-      <c r="AQ109" t="inl